--- a/lod_analysis/excels/tracks_evaluation.xlsx
+++ b/lod_analysis/excels/tracks_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="615">
   <si>
     <t>track_id</t>
   </si>
@@ -55,1282 +55,1810 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>61mWefnWQOLf90gepjOCb3</t>
-  </si>
-  <si>
-    <t>5anCkDvJ17aznvK5TED5uo</t>
-  </si>
-  <si>
-    <t>2SgbR6ttzoNlCRGQOKjrop</t>
-  </si>
-  <si>
-    <t>7MeXwzhSDGfqNfuFANgzVC</t>
+    <t>2mt1IqcFyY1zmYZT8Q3xw9</t>
+  </si>
+  <si>
+    <t>1QEEqeFIZktqIpPI4jSVSF</t>
+  </si>
+  <si>
+    <t>01z3wyn02forxUQHEDAa0R</t>
+  </si>
+  <si>
+    <t>1yKu2MhpwzDXXH2tzG6xoa</t>
+  </si>
+  <si>
+    <t>5Z9KJZvQzH6PFmb8SNkxuk</t>
+  </si>
+  <si>
+    <t>4do0Z0rHdFUV3RSMxMQsdq</t>
+  </si>
+  <si>
+    <t>2aI21FnmY7TJVKeMaoQZ0t</t>
+  </si>
+  <si>
+    <t>086myS9r57YsLbJpU0TgK9</t>
+  </si>
+  <si>
+    <t>4zyHANHgTs2XZfZtw7QFoR</t>
+  </si>
+  <si>
+    <t>0M3adYbGtyRHACP86dey1H</t>
+  </si>
+  <si>
+    <t>5oPUBUzrAnwvlmMzl1VW7Y</t>
+  </si>
+  <si>
+    <t>1H5VQuShs4qfwBXyHF0PeH</t>
+  </si>
+  <si>
+    <t>0C2eEsMBj78CLkHNJPjohc</t>
+  </si>
+  <si>
+    <t>25jSwur7S47WCiH0hQNUAo</t>
+  </si>
+  <si>
+    <t>1Z6lKdYhwp8WYoBqGCKxlM</t>
+  </si>
+  <si>
+    <t>7Jb0dd0swg2VtD4cf18MCa</t>
   </si>
   <si>
     <t>5sFDReWLrZHLFZFjHsjUTS</t>
   </si>
   <si>
-    <t>6ursmCnbc9oDRGa2yHKkoZ</t>
-  </si>
-  <si>
-    <t>4ImIJRZNJhNQLLdUFSYJoS</t>
-  </si>
-  <si>
-    <t>3NW1h8l6EY5N6HNBL83S4V</t>
-  </si>
-  <si>
-    <t>1Krtfh550kyhfWPcRp6SnD</t>
-  </si>
-  <si>
-    <t>60fUDmIWuKhngaeBIVhqIV</t>
-  </si>
-  <si>
-    <t>5j3iBuHq6vv7VcBo4Y2QrK</t>
-  </si>
-  <si>
-    <t>3cwDSDzTiWr5H5xMQhQ6Mx</t>
-  </si>
-  <si>
-    <t>3H0ZY55seypgo0zXI6zwRk</t>
-  </si>
-  <si>
-    <t>1158ckiB5S4cpsdYHDB9IF</t>
-  </si>
-  <si>
-    <t>5hQfs9spSyXUavvPe7jmgn</t>
-  </si>
-  <si>
-    <t>3jagGO7eHHuaD53ibehkux</t>
-  </si>
-  <si>
-    <t>3XEMhKdne3ySYevbEYllEr</t>
-  </si>
-  <si>
-    <t>5siM4eG36axvG3alLNnsAx</t>
-  </si>
-  <si>
-    <t>6zKF4293k44ItKWJJgrhXv</t>
-  </si>
-  <si>
-    <t>15zUfY9L1p7bN9JsgaTAP0</t>
-  </si>
-  <si>
-    <t>2MvIMgtWyK88OiPi0J8Dg3</t>
-  </si>
-  <si>
-    <t>3xktQXIr1OD3ENc19viwDP</t>
-  </si>
-  <si>
-    <t>6RJdYpFQwLyNfDc5FbjkgV</t>
-  </si>
-  <si>
-    <t>6CDhfV6K4yplWYFR8Ip82v</t>
-  </si>
-  <si>
-    <t>1KCAEG6JcsTzi8ddZzs0nk</t>
-  </si>
-  <si>
-    <t>1pr9TZGOXeJUggIal1Wq3R</t>
-  </si>
-  <si>
-    <t>7fcfNW0XxTWlwVlftzfDOR</t>
-  </si>
-  <si>
-    <t>0EYOdF5FCkgOJJla8DI2Md</t>
-  </si>
-  <si>
-    <t>2F6FfZ4w8z3eJpSxPotVO5</t>
-  </si>
-  <si>
-    <t>77VW8u6inET54YAKN1RSnd</t>
-  </si>
-  <si>
-    <t>12E3xswOlcYnpbxtoewDbm</t>
-  </si>
-  <si>
-    <t>77669gz00MpURvunPKsS3x</t>
-  </si>
-  <si>
-    <t>6VmiiNjRMGrl4UhDblZ5QV</t>
-  </si>
-  <si>
-    <t>6p2liQLGoDaLXgND68bfVt</t>
-  </si>
-  <si>
-    <t>6kAA9qAGB9KXfdwOJBh3LZ</t>
-  </si>
-  <si>
-    <t>437ShA8eBSfBmezIP9MeX1</t>
-  </si>
-  <si>
-    <t>2cYPwfYnnG4UMsqgitDKDz</t>
-  </si>
-  <si>
-    <t>2AsTgVcWojYwQAvzgacYWy</t>
-  </si>
-  <si>
-    <t>2WSWm0zlL3CJRACHS5KXbB</t>
-  </si>
-  <si>
-    <t>6W21LNLz9Sw7sUSNWMSHRu</t>
-  </si>
-  <si>
-    <t>6nJPHXRpKYv2yqtalEjKy5</t>
-  </si>
-  <si>
-    <t>25EgA1A1OZBRw25Mjyw08g</t>
-  </si>
-  <si>
-    <t>3iTGqLgYo57UjTHAieDOlA</t>
-  </si>
-  <si>
-    <t>2Tibxka4w154ISDA6Z4mnB</t>
-  </si>
-  <si>
-    <t>2TNPagu8Z4zvDOpmnktF00</t>
-  </si>
-  <si>
-    <t>1HD8mFfpSGLJnwv6UTLaIv</t>
-  </si>
-  <si>
-    <t>42ZVk59gT4tMlrZmd8Ijxf</t>
-  </si>
-  <si>
-    <t>5cxp9kjCFyJwzv3lzeX7ku</t>
-  </si>
-  <si>
-    <t>5hkgrWxkobGtg30I7DsfVu</t>
-  </si>
-  <si>
-    <t>4ClGNWLK9vZMBtO0CpnyOE</t>
-  </si>
-  <si>
-    <t>2QZxpZDfJjhEGclSszvMVX</t>
-  </si>
-  <si>
-    <t>5PZ2cqh9Yem2g6cTSOLllz</t>
-  </si>
-  <si>
-    <t>56sk7jBpZV0CD31G9hEU3b</t>
-  </si>
-  <si>
-    <t>3HE50TVRquwXe9yv2HFoNL</t>
-  </si>
-  <si>
-    <t>1Q2fYlSdwuutWj3QplhY9q</t>
-  </si>
-  <si>
-    <t>6NAmbftWAovcMCnJzDCFsU</t>
-  </si>
-  <si>
-    <t>6Dtq63g5m2sMIVd1Aw9ZDD</t>
-  </si>
-  <si>
-    <t>7piw04hPQZ1OHZ9Fq9JOXR</t>
-  </si>
-  <si>
-    <t>1cYtqvYDbuzjgSJsAkTRaH</t>
-  </si>
-  <si>
-    <t>4urxRqBRiaH0i20OKBsgxc</t>
-  </si>
-  <si>
-    <t>55KYlnsC6nYnr3IykbmJwE</t>
-  </si>
-  <si>
-    <t>3umZYbgTkZEnZCae8HKqZh</t>
-  </si>
-  <si>
-    <t>0Cx5QWilR60IyyUvGZQtDC</t>
-  </si>
-  <si>
-    <t>3RscvSCPYxDBeOseQBvV6F</t>
-  </si>
-  <si>
-    <t>7pDHM9huHHpRc9CrxZElsW</t>
-  </si>
-  <si>
-    <t>7DFOkiPIVq5vWyReXnT4JN</t>
-  </si>
-  <si>
-    <t>5pvJ59i7JxylN8VB24xdMs</t>
-  </si>
-  <si>
-    <t>59TLlOD6sH4cCTSF6ITRkA</t>
-  </si>
-  <si>
-    <t>6HDBZFpozQsnYZ88ic250y</t>
-  </si>
-  <si>
-    <t>10ASBwZsp7oUUDsJEYz3uS</t>
-  </si>
-  <si>
-    <t>0FCCTnUJEczeSspOHfEmW8</t>
-  </si>
-  <si>
-    <t>4u9UZQxoVkabuLZldQGHi6</t>
-  </si>
-  <si>
-    <t>1ZFm5SAlmVzufSu1CYWiBN</t>
-  </si>
-  <si>
-    <t>6wDVNn4STCopwfQ9lFO2iR</t>
-  </si>
-  <si>
-    <t>4lhrVGMeZcHB8SfAMo7JuA</t>
-  </si>
-  <si>
-    <t>2E7YtO788L7WRMsTfO6uQB</t>
-  </si>
-  <si>
-    <t>5lVBP1Ztfbw41KoZlTPfZg</t>
-  </si>
-  <si>
-    <t>2g6uwKdzrj6anXMvc95vSg</t>
-  </si>
-  <si>
-    <t>648fQrTDPYRbRUe5l6UM9x</t>
-  </si>
-  <si>
-    <t>6qqDeGDkNvcPmumiQUQzAB</t>
-  </si>
-  <si>
-    <t>5Y9e5xIZnp2dDMKpGyaaZ3</t>
-  </si>
-  <si>
-    <t>58ubvrlEOugu8SunT0qZIv</t>
-  </si>
-  <si>
-    <t>6c6uAJ0wpgmTgCM4gQQNyT</t>
-  </si>
-  <si>
-    <t>4pJEKilWKOHgNedKVkC1bz</t>
-  </si>
-  <si>
-    <t>7d3YcXq9tEnjBRuFuKSM3Q</t>
-  </si>
-  <si>
-    <t>5EPaxkMLaYyf3O9QZvusDu</t>
-  </si>
-  <si>
-    <t>5hmi2Y21eURv0gUZEnfZtN</t>
-  </si>
-  <si>
-    <t>7wZhExGIvoGbwR71Hd6GAX</t>
-  </si>
-  <si>
-    <t>2rAqKxA6LBGhICasIlwNlJ</t>
-  </si>
-  <si>
-    <t>66F03GQ6Q6MXXHp2JKhKNE</t>
-  </si>
-  <si>
-    <t>1L82mjibDdF0YAv9FWp00s</t>
-  </si>
-  <si>
-    <t>1yFz5j1B9TqIVwblu6QSUi</t>
-  </si>
-  <si>
-    <t>0NIkKL6wsLK5V2vX97zOTr</t>
-  </si>
-  <si>
-    <t>4EJZgvebpQvxvoPTRUvWrK</t>
-  </si>
-  <si>
-    <t>2YdkZa3Fg7KLA06oWdgGxY</t>
-  </si>
-  <si>
-    <t>3ASqLQWbgejOEJzxP4mrfY</t>
-  </si>
-  <si>
-    <t>7zyJ2g9o0nVOBbDavVveCl</t>
-  </si>
-  <si>
-    <t>3I94qxxiGfzRQlmTwjZWS4</t>
-  </si>
-  <si>
-    <t>78mffX1VgHOhgkw73hKn9B</t>
-  </si>
-  <si>
-    <t>2DOR01aOsurJWQ1N9U5ng9</t>
-  </si>
-  <si>
-    <t>Duality</t>
-  </si>
-  <si>
-    <t>Hail to the King</t>
-  </si>
-  <si>
-    <t>Cowboys from Hell</t>
-  </si>
-  <si>
-    <t>Toxicity</t>
+    <t>1qAuIPMALdFtGv2Ymjy5l0</t>
+  </si>
+  <si>
+    <t>2ri1QFlmi2PRyzJ6bMjYg9</t>
+  </si>
+  <si>
+    <t>4avSaixVwu8uqfSs7zgoj3</t>
+  </si>
+  <si>
+    <t>5SEBSAio1N77Vbrj1cAEGb</t>
+  </si>
+  <si>
+    <t>3S0OXQeoh0w6AY8WQVckRW</t>
+  </si>
+  <si>
+    <t>2OBKvpCTPo0q4qQELJ1n7h</t>
+  </si>
+  <si>
+    <t>2RaA6kIcvomt77qlIgGhCT</t>
+  </si>
+  <si>
+    <t>1euDTbMNRPNfKd8zZz4zTT</t>
+  </si>
+  <si>
+    <t>6IVlHRrjTKep5SS9kbcpTa</t>
+  </si>
+  <si>
+    <t>3EAFamlgsYPA3HijLUPszI</t>
+  </si>
+  <si>
+    <t>3CRDbSIZ4r5MsZ0YwxuEkn</t>
+  </si>
+  <si>
+    <t>7BKLCZ1jbUBVqRi2FVlTVw</t>
+  </si>
+  <si>
+    <t>0BxfFnk0YzONqvmrkO0QrB</t>
+  </si>
+  <si>
+    <t>3M1q2Wy2dAKiWV6oE6Koou</t>
+  </si>
+  <si>
+    <t>5fpizYGbi5IQoEraj6FP0R</t>
+  </si>
+  <si>
+    <t>5BP0oaQ1VhuaznT77CBXQp</t>
+  </si>
+  <si>
+    <t>6hADH7b57N5666cGv624vg</t>
+  </si>
+  <si>
+    <t>6EsBn1Md8C5YdbCzvwvZq8</t>
+  </si>
+  <si>
+    <t>30FURVTCpbKyykjSEQzGkH</t>
+  </si>
+  <si>
+    <t>4EchqUKQ3qAQuRNKmeIpnf</t>
+  </si>
+  <si>
+    <t>26D1PRJjD9Jj1JGRk88KVc</t>
+  </si>
+  <si>
+    <t>0P7yKadIJtft3LYWTQ6Y4n</t>
+  </si>
+  <si>
+    <t>6xE6ZWzK1YDDSYzqOCoQlz</t>
+  </si>
+  <si>
+    <t>2ojhyfZMmaXQFqA1YLofwo</t>
+  </si>
+  <si>
+    <t>06DSI8L6IT8SizCw3JLckz</t>
+  </si>
+  <si>
+    <t>2kulOHR2XY6YDZCWXb38hn</t>
+  </si>
+  <si>
+    <t>4h8VwCb1MTGoLKueQ1WgbD</t>
+  </si>
+  <si>
+    <t>663Karu2rvKLdnY0eo1n3M</t>
+  </si>
+  <si>
+    <t>2DTQUOfYJAjdo7utgjnU4u</t>
+  </si>
+  <si>
+    <t>2ijit5crURH5jhIc4YoKgA</t>
+  </si>
+  <si>
+    <t>6tp27J7xy18DQiQXut3GsF</t>
+  </si>
+  <si>
+    <t>6WEBIVqiEsevfgJefTyuQQ</t>
+  </si>
+  <si>
+    <t>09BINxFxiDeywjfC39nRFi</t>
+  </si>
+  <si>
+    <t>5GorCbAP4aL0EJ16frG2hd</t>
+  </si>
+  <si>
+    <t>1ENLIbxO4Uma773neTHxbp</t>
+  </si>
+  <si>
+    <t>1yrNoXJopuBtsL5Vj62ESi</t>
+  </si>
+  <si>
+    <t>18lR4BzEs7e3qzc0KVkTpU</t>
+  </si>
+  <si>
+    <t>2gam98EZKrF9XuOkU13ApN</t>
+  </si>
+  <si>
+    <t>2wnsBaxrmkthIFAm6vqCuX</t>
+  </si>
+  <si>
+    <t>1KU5EHSz04JhGg3rReGJ0N</t>
+  </si>
+  <si>
+    <t>1MQTmpYOZ6fcMQc56Hdo7T</t>
+  </si>
+  <si>
+    <t>6zeDYmP3ARpURvpK29Q09P</t>
+  </si>
+  <si>
+    <t>6ZCyDN2ArlWB4GKAj644Cd</t>
+  </si>
+  <si>
+    <t>3ZfMci7n6qk9nRodX8BfIb</t>
+  </si>
+  <si>
+    <t>1hGy2eLcmC8eKx7qr1tOqx</t>
+  </si>
+  <si>
+    <t>7iAqvWLgZzXvH38lA06QZg</t>
+  </si>
+  <si>
+    <t>6fNhZRFEkBfgW39W3wKARJ</t>
+  </si>
+  <si>
+    <t>1x9iOd3K1JC6tdjGZJpFgZ</t>
+  </si>
+  <si>
+    <t>5ka2ajep9OAvU5Sgduhiex</t>
+  </si>
+  <si>
+    <t>5hE3T2329sdMmIrHxjhQDL</t>
+  </si>
+  <si>
+    <t>2HAVFycrhtbmLxyyxpm6JI</t>
+  </si>
+  <si>
+    <t>3aTb5EUBOlNDSEcaTFI7Jj</t>
+  </si>
+  <si>
+    <t>06hsdMbBxWGqBO0TV0Zrkf</t>
+  </si>
+  <si>
+    <t>1HRtVWNhS9tEvDQyOKD9Fs</t>
+  </si>
+  <si>
+    <t>1M3Q6JBxczHas388EfotPV</t>
+  </si>
+  <si>
+    <t>2cGxRwrMyEAp8dEbuZaVv6</t>
+  </si>
+  <si>
+    <t>2hrUO4drrO63i7FYbCLBl2</t>
+  </si>
+  <si>
+    <t>1c0zagykmGPDYuxJeDqZhJ</t>
+  </si>
+  <si>
+    <t>5CeL9C3bsoe4yzYS1Qz8cw</t>
+  </si>
+  <si>
+    <t>4Hn14NabX651eOOzsLL8Uc</t>
+  </si>
+  <si>
+    <t>1PhLYngBKbeDtdmDzCg3Pb</t>
+  </si>
+  <si>
+    <t>6RNDeRnWsRMjPdNVgupZCs</t>
+  </si>
+  <si>
+    <t>6ic8OlLUNEATToEFU3xmaH</t>
+  </si>
+  <si>
+    <t>7y7w4tl4MaRC2UMEj1mPtr</t>
+  </si>
+  <si>
+    <t>0DiWol3AO6WpXZgp0goxAV</t>
+  </si>
+  <si>
+    <t>4VIDVd87GQcBSbofvDp8Pj</t>
+  </si>
+  <si>
+    <t>7MmG8p0F9N3C4AXdK6o6Eb</t>
+  </si>
+  <si>
+    <t>4kqhpdBNKywstQpWMnEglC</t>
+  </si>
+  <si>
+    <t>5DiXcVovI0FcY2s0icWWUu</t>
+  </si>
+  <si>
+    <t>3q2gRjU2UdOYRDY1p4cNHr</t>
+  </si>
+  <si>
+    <t>0n2SEXB2qoRQg171q7XqeW</t>
+  </si>
+  <si>
+    <t>5tJjo5JDF9zhzYD7yQfATH</t>
+  </si>
+  <si>
+    <t>0ql91Km4bA2AIHRCHhs3nS</t>
+  </si>
+  <si>
+    <t>6Kzi4F77twuPRkNhxonUET</t>
+  </si>
+  <si>
+    <t>7HDWE2Ib7cjkhzULV4K8y3</t>
+  </si>
+  <si>
+    <t>2iJuuzV8P9Yz0VSurttIV5</t>
+  </si>
+  <si>
+    <t>6qn9YLKt13AGvpq9jfO8py</t>
+  </si>
+  <si>
+    <t>1YhiWWFrbdd3kAVhSYDhZ7</t>
+  </si>
+  <si>
+    <t>3CKCZ9pfwAfoMZlMncA1Nc</t>
+  </si>
+  <si>
+    <t>16wAOAZ2OkqoIDN7TpChjR</t>
+  </si>
+  <si>
+    <t>3UygY7qW2cvG9Llkay6i1i</t>
+  </si>
+  <si>
+    <t>4N3hMqfpyJl4MB2EVrUDAR</t>
+  </si>
+  <si>
+    <t>2VOomzT6VavJOGBeySqaMc</t>
+  </si>
+  <si>
+    <t>hot girl bummer</t>
+  </si>
+  <si>
+    <t>More Than a Feeling</t>
+  </si>
+  <si>
+    <t>What's This Life For</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>INDUSTRY BABY (feat. Jack Harlow)</t>
+  </si>
+  <si>
+    <t>Crimson and Clover</t>
+  </si>
+  <si>
+    <t>Say It Right</t>
+  </si>
+  <si>
+    <t>Why'd You Only Call Me When You're High?</t>
+  </si>
+  <si>
+    <t>I'm A Believer - Radio Edit</t>
+  </si>
+  <si>
+    <t>Throne</t>
+  </si>
+  <si>
+    <t>Breathe</t>
+  </si>
+  <si>
+    <t>Narcotic - Radio Edit</t>
+  </si>
+  <si>
+    <t>Boys Don't Cry</t>
+  </si>
+  <si>
+    <t>Words As Weapons</t>
+  </si>
+  <si>
+    <t>Unskinny Bop</t>
+  </si>
+  <si>
+    <t>Special</t>
   </si>
   <si>
     <t>Would?</t>
   </si>
   <si>
-    <t>Roots Bloody Roots</t>
-  </si>
-  <si>
-    <t>Down with the Sickness</t>
-  </si>
-  <si>
-    <t>1000hp</t>
-  </si>
-  <si>
-    <t>Overkill</t>
-  </si>
-  <si>
-    <t>Stranded</t>
-  </si>
-  <si>
-    <t>Cirice</t>
-  </si>
-  <si>
-    <t>Du hast</t>
-  </si>
-  <si>
-    <t>Dig</t>
-  </si>
-  <si>
-    <t>My Own Summer (Shove It)</t>
-  </si>
-  <si>
-    <t>Looking Down the Barrel of Today</t>
-  </si>
-  <si>
-    <t>Blood and Thunder</t>
-  </si>
-  <si>
-    <t>The Beautiful People</t>
-  </si>
-  <si>
-    <t>Sonne</t>
-  </si>
-  <si>
-    <t>My Curse</t>
-  </si>
-  <si>
-    <t>Strife</t>
-  </si>
-  <si>
-    <t>Psychosocial</t>
-  </si>
-  <si>
-    <t>Bodies</t>
-  </si>
-  <si>
-    <t>Stricken</t>
-  </si>
-  <si>
-    <t>Dragula</t>
-  </si>
-  <si>
-    <t>You Want a Battle? (Here's a War)</t>
-  </si>
-  <si>
-    <t>Blind</t>
-  </si>
-  <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>B.Y.O.B.</t>
-  </si>
-  <si>
-    <t>Falling Away from Me</t>
-  </si>
-  <si>
-    <t>Twisted Transistor</t>
-  </si>
-  <si>
-    <t>Politics</t>
-  </si>
-  <si>
-    <t>Hypocrites</t>
-  </si>
-  <si>
-    <t>Love Song</t>
-  </si>
-  <si>
-    <t>Coming Undone</t>
-  </si>
-  <si>
-    <t>Liar</t>
-  </si>
-  <si>
-    <t>Right Now</t>
-  </si>
-  <si>
-    <t>Here It Comes Again</t>
-  </si>
-  <si>
-    <t>Did My Time</t>
-  </si>
-  <si>
-    <t>Y'all Want a Single</t>
-  </si>
-  <si>
-    <t>Freak On a Leash</t>
-  </si>
-  <si>
-    <t>Got the Life</t>
-  </si>
-  <si>
-    <t>Get Up! (feat. Skrillex)</t>
-  </si>
-  <si>
-    <t>Shout 2000</t>
-  </si>
-  <si>
-    <t>Meaning of Life</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>The Animal</t>
-  </si>
-  <si>
-    <t>Indestructible</t>
-  </si>
-  <si>
-    <t>Inside the Fire</t>
-  </si>
-  <si>
-    <t>Ten Thousand Fists</t>
-  </si>
-  <si>
-    <t>Land of Confusion</t>
-  </si>
-  <si>
-    <t>It's All Over</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Animal I Have Become</t>
-  </si>
-  <si>
-    <t>Never Too Late</t>
-  </si>
-  <si>
-    <t>Riot</t>
-  </si>
-  <si>
-    <t>Let It Die</t>
-  </si>
-  <si>
-    <t>Over and Over</t>
-  </si>
-  <si>
-    <t>Time of Dying</t>
-  </si>
-  <si>
-    <t>Bitter Taste</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>The Good Life</t>
-  </si>
-  <si>
-    <t>Bully</t>
-  </si>
-  <si>
-    <t>Polyamorous</t>
-  </si>
-  <si>
-    <t>Shallow Bay</t>
-  </si>
-  <si>
-    <t>Firefly</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
-    <t>The Diary of Jane - Single Version</t>
-  </si>
-  <si>
-    <t>Breath</t>
-  </si>
-  <si>
-    <t>Evil Angel</t>
-  </si>
-  <si>
-    <t>Dance With The Devil</t>
-  </si>
-  <si>
-    <t>Topless</t>
-  </si>
-  <si>
-    <t>Unknown Soldier</t>
-  </si>
-  <si>
-    <t>I Will Not Bow</t>
-  </si>
-  <si>
-    <t>Blow Me Away - Featuring Valora</t>
-  </si>
-  <si>
-    <t>Ashes</t>
-  </si>
-  <si>
-    <t>The Way of the Fist</t>
-  </si>
-  <si>
-    <t>The Bleeding</t>
-  </si>
-  <si>
-    <t>White Knuckles</t>
-  </si>
-  <si>
-    <t>Death Before Dishonor</t>
-  </si>
-  <si>
-    <t>Meet the Monster</t>
-  </si>
-  <si>
-    <t>Never Enough</t>
-  </si>
-  <si>
-    <t>American Capitalist</t>
-  </si>
-  <si>
-    <t>Under and Over It</t>
-  </si>
-  <si>
-    <t>The Pride</t>
-  </si>
-  <si>
-    <t>Coming Down</t>
-  </si>
-  <si>
-    <t>Menace</t>
-  </si>
-  <si>
-    <t>Generation Dead</t>
-  </si>
-  <si>
-    <t>Back for More</t>
-  </si>
-  <si>
-    <t>Wicked Ways</t>
-  </si>
-  <si>
-    <t>100 Ways to Hate</t>
-  </si>
-  <si>
-    <t>Lift Me Up</t>
-  </si>
-  <si>
-    <t>Watch You Bleed</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Burn MF</t>
-  </si>
-  <si>
-    <t>I.M.Sin</t>
-  </si>
-  <si>
-    <t>Anywhere But Here (feat. Maria Brink)</t>
-  </si>
-  <si>
-    <t>Dot Your Eyes</t>
-  </si>
-  <si>
-    <t>Here To Die</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>14pVkFUHDL207LzLHtSA18</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
+    <t>MONSTERS</t>
+  </si>
+  <si>
+    <t>Hit Me With Your Best Shot</t>
+  </si>
+  <si>
+    <t>Livin' On The Edge</t>
+  </si>
+  <si>
+    <t>N 2 Gether Now</t>
+  </si>
+  <si>
+    <t>I'm Yours</t>
+  </si>
+  <si>
+    <t>Sexy And I Know It</t>
+  </si>
+  <si>
+    <t>Breaking the Law</t>
+  </si>
+  <si>
+    <t>Give In to Me</t>
+  </si>
+  <si>
+    <t>This Is The Last Time</t>
+  </si>
+  <si>
+    <t>She Sells Sanctuary (2009 Re-master)</t>
+  </si>
+  <si>
+    <t>Stressed Out</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Don't Cha</t>
+  </si>
+  <si>
+    <t>Saturday Night - Radio Edit</t>
+  </si>
+  <si>
+    <t>Intergalactic - Remastered 2009</t>
+  </si>
+  <si>
+    <t>Where Is My Mind?</t>
+  </si>
+  <si>
+    <t>Right Action</t>
+  </si>
+  <si>
+    <t>Self Esteem</t>
+  </si>
+  <si>
+    <t>Back To Black</t>
+  </si>
+  <si>
+    <t>The Kids Aren't Alright</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Ready or Not</t>
+  </si>
+  <si>
+    <t>Last Train to London</t>
+  </si>
+  <si>
+    <t>Rat In Mi Kitchen</t>
+  </si>
+  <si>
+    <t>Cantaloop (Flip Fantasia)</t>
+  </si>
+  <si>
+    <t>Wanna Be Startin' Somethin'</t>
+  </si>
+  <si>
+    <t>Wake Me Up</t>
+  </si>
+  <si>
+    <t>Call Me When You're Sober</t>
+  </si>
+  <si>
+    <t>Baker Street</t>
+  </si>
+  <si>
+    <t>Love Me Like You</t>
+  </si>
+  <si>
+    <t>Don't Lie</t>
+  </si>
+  <si>
+    <t>Too Shy</t>
+  </si>
+  <si>
+    <t>Another Brick in the Wall, Pt. 2</t>
+  </si>
+  <si>
+    <t>Boulevard of Broken Dreams</t>
+  </si>
+  <si>
+    <t>Sweet Dreams (Are Made Of This)</t>
+  </si>
+  <si>
+    <t>Englishman In New York</t>
+  </si>
+  <si>
+    <t>What I've Done</t>
+  </si>
+  <si>
+    <t>Promiscuous</t>
+  </si>
+  <si>
+    <t>So Lonely</t>
+  </si>
+  <si>
+    <t>Black Velvet</t>
+  </si>
+  <si>
+    <t>Sleep Now In the Fire</t>
+  </si>
+  <si>
+    <t>Someday</t>
+  </si>
+  <si>
+    <t>Strangelove</t>
+  </si>
+  <si>
+    <t>Girl Gone Wild</t>
+  </si>
+  <si>
+    <t>Beautiful Girls</t>
+  </si>
+  <si>
+    <t>I Want To Break Free</t>
+  </si>
+  <si>
+    <t>Pompeii</t>
+  </si>
+  <si>
+    <t>You Can Leave Your Hat On</t>
+  </si>
+  <si>
+    <t>Applause</t>
+  </si>
+  <si>
+    <t>Selling The Drama</t>
+  </si>
+  <si>
+    <t>Killing Me Softly With His Song</t>
+  </si>
+  <si>
+    <t>Bodyrock</t>
+  </si>
+  <si>
+    <t>Cotton Eye Joe</t>
+  </si>
+  <si>
+    <t>Don't Stop 'Til You Get Enough - 2003 Edit</t>
+  </si>
+  <si>
+    <t>Mope</t>
+  </si>
+  <si>
+    <t>Instant Crush (feat. Julian Casablancas)</t>
+  </si>
+  <si>
+    <t>Rockabye (feat. Sean Paul &amp; Anne-Marie)</t>
+  </si>
+  <si>
+    <t>World Hold on (Children of the Sky) [Radio Edit]</t>
+  </si>
+  <si>
+    <t>Girls &amp; Boys</t>
+  </si>
+  <si>
+    <t>How Do You Do!</t>
+  </si>
+  <si>
+    <t>Sad But True</t>
+  </si>
+  <si>
+    <t>I Just Called To Say I Love You</t>
+  </si>
+  <si>
+    <t>Gimme More</t>
+  </si>
+  <si>
+    <t>Come &amp; Go (with Marshmello)</t>
+  </si>
+  <si>
+    <t>One More Time</t>
+  </si>
+  <si>
+    <t>Bad Things</t>
+  </si>
+  <si>
+    <t>Outside (feat. Ellie Goulding)</t>
+  </si>
+  <si>
+    <t>Don't Tell Me</t>
+  </si>
+  <si>
+    <t>Mr. Jones</t>
+  </si>
+  <si>
+    <t>It Must Be Love</t>
+  </si>
+  <si>
+    <t>Smooth (feat. Rob Thomas)</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Salvation</t>
+  </si>
+  <si>
+    <t>One in a Million</t>
+  </si>
+  <si>
+    <t>It's No Good</t>
+  </si>
+  <si>
+    <t>Scream &amp; Shout</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>American Life</t>
+  </si>
+  <si>
+    <t>Set Fire to the Rain</t>
+  </si>
+  <si>
+    <t>Yummy</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>Domino Dancing - 2003 Remaster</t>
+  </si>
+  <si>
+    <t>Disturbia</t>
+  </si>
+  <si>
+    <t>2cFrymmkijnjDg9SS92EPM</t>
+  </si>
+  <si>
+    <t>29kkCKKGXheHuoO829FxWK</t>
+  </si>
+  <si>
+    <t>43sZBwHjahUvgbx1WNIkIz</t>
+  </si>
+  <si>
+    <t>3jOstUTkEu2JkjvRdBA5Gu</t>
+  </si>
+  <si>
+    <t>7jVv8c5Fj3E9VhNjxT4snq</t>
+  </si>
+  <si>
+    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
+  </si>
+  <si>
+    <t>2jw70GZXlAI8QzWeY2bgRc</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>2iEvnFsWxR0Syqu2JNopAd</t>
+  </si>
+  <si>
+    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
+  </si>
+  <si>
+    <t>4k1ELeJKT1ISyDv8JivPpB</t>
+  </si>
+  <si>
+    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
+  </si>
+  <si>
+    <t>7bu3H8JO7d0UbMoVzbo70s</t>
+  </si>
+  <si>
+    <t>6B5c4sch27tWHAGdarpPaW</t>
+  </si>
+  <si>
+    <t>1fBCIkoPOPCDLUxGuWNvyo</t>
+  </si>
+  <si>
+    <t>6S0GHTqz5sxK5f9HtLXn9q</t>
   </si>
   <si>
     <t>64tNsm6TnZe2zpcMVMOoHL</t>
   </si>
   <si>
-    <t>6JW8wliOEwaDZ231ZY7cf4</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>1DFr97A9HnbV3SKTJFu62M</t>
-  </si>
-  <si>
-    <t>0GDGKpJFhVpcjIGF8N6Ewt</t>
-  </si>
-  <si>
-    <t>1Qp56T7n950O3EGMsSl81D</t>
-  </si>
-  <si>
-    <t>6wWVKhxIU2cEi0K81v7HvP</t>
-  </si>
-  <si>
-    <t>2Pfv2w8a20xzC7Dr7QXRqM</t>
-  </si>
-  <si>
-    <t>6Ghvu1VvMGScGpOUJBAHNH</t>
-  </si>
-  <si>
-    <t>17Mb968quDHpjCkIyq30QV</t>
-  </si>
-  <si>
-    <t>1Dvfqq39HxvCJ3GvfeIFuT</t>
+    <t>70BYFdaZbEKbeauJ670ysI</t>
+  </si>
+  <si>
+    <t>43mhFhQ4JAknA7Ik1bOZuV</t>
+  </si>
+  <si>
+    <t>7Ey4PD4MYsKc5I2dolUwbH</t>
+  </si>
+  <si>
+    <t>165ZgPlLkK7bf5bDoFc6Sb</t>
+  </si>
+  <si>
+    <t>4phGZZrJZRo4ElhRtViYdl</t>
+  </si>
+  <si>
+    <t>3sgFRtyBnxXD5ESfmbK4dl</t>
+  </si>
+  <si>
+    <t>2tRsMl4eGxwoNabM08Dm4I</t>
+  </si>
+  <si>
+    <t>3fMbdgg4jU18AjLCKBhRSm</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>49DW3KvkyjHO35mK1JnSyS</t>
+  </si>
+  <si>
+    <t>3YQKmKGau1PzlVlkL1iodx</t>
+  </si>
+  <si>
+    <t>69GGBxA162lTqCwzJG5jLp</t>
+  </si>
+  <si>
+    <t>6wPhSqRtPu1UhRCDX5yaDJ</t>
+  </si>
+  <si>
+    <t>0lHoDF96DNKSIcIpcOfMnq</t>
+  </si>
+  <si>
+    <t>03r4iKL2g2442PT9n2UKsx</t>
+  </si>
+  <si>
+    <t>6zvul52xwTWzilBZl6BUbT</t>
+  </si>
+  <si>
+    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
+  </si>
+  <si>
+    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
+  </si>
+  <si>
+    <t>6Q192DXotxtaysaqNPy5yR</t>
+  </si>
+  <si>
+    <t>6olE6TJLqED3rqDCT0FyPh</t>
+  </si>
+  <si>
+    <t>4VhL8KLjVso4vLfOLVViTb</t>
+  </si>
+  <si>
+    <t>7jefIIksOi1EazgRTfW2Pk</t>
+  </si>
+  <si>
+    <t>69MEO1AADKg1IZrq2XLzo5</t>
+  </si>
+  <si>
+    <t>4LtIfuFeAamus9OOItuWDD</t>
+  </si>
+  <si>
+    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
+  </si>
+  <si>
+    <t>5nGIFgo0shDenQYSE0Sn7c</t>
+  </si>
+  <si>
+    <t>5EQMhqNfNmnIIAgwQX1WZ7</t>
+  </si>
+  <si>
+    <t>0P2q6xyNc2hVFkG3ThjYcJ</t>
+  </si>
+  <si>
+    <t>1yxSLGMDHlW21z4YXirZDS</t>
+  </si>
+  <si>
+    <t>0f3kLT4wvi2mFHlHJgV8Hl</t>
+  </si>
+  <si>
+    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
   </si>
   <si>
     <t>2VYQTNDsvvKN9wmU5W7xpj</t>
   </si>
   <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>278ZYwGhdK6QTzE3MFePnP</t>
-  </si>
-  <si>
-    <t>1E4r4z7ivGUcSAnCbINJ9v</t>
-  </si>
-  <si>
-    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>Pantera</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
+    <t>0Ty63ceoRnnJKVEYP0VQpk</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>6IYnSXO40Bh7Zdqhf6rQoj</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>4uN3DsfENc7dp0OLO0FEIb</t>
+  </si>
+  <si>
+    <t>762310PdDnwsDxAQxzQkfX</t>
+  </si>
+  <si>
+    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
+  </si>
+  <si>
+    <t>6S0dmVVn4udvppDhZIWxCr</t>
+  </si>
+  <si>
+    <t>1dfeR4HaWDbWqFHLkxsg1d</t>
+  </si>
+  <si>
+    <t>7EQ0qTo7fWT7DPxmxtSYEc</t>
+  </si>
+  <si>
+    <t>3pFCERyEiP5xeN2EsPXhjI</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
+  </si>
+  <si>
+    <t>2WKdxPFRD7IqZvlIAvhMgY</t>
+  </si>
+  <si>
+    <t>3OsRAKCvk37zwYcnzRf5XF</t>
+  </si>
+  <si>
+    <t>22Zqu1yyebVnbve8FxbJ2g</t>
+  </si>
+  <si>
+    <t>6nDLku5uL3ou60kvCGZorh</t>
+  </si>
+  <si>
+    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
+  </si>
+  <si>
+    <t>6MDME20pz9RveH9rEXvrOM</t>
+  </si>
+  <si>
+    <t>5YFS41yoX0YuFY39fq21oN</t>
+  </si>
+  <si>
+    <t>7MhMgCo0Bl0Kukl93PZbYS</t>
+  </si>
+  <si>
+    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
+  </si>
+  <si>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>7guDJrEfX3qb6FEbdPA5qi</t>
+  </si>
+  <si>
+    <t>26dSoYclwsYLMAKD3tpOr4</t>
+  </si>
+  <si>
+    <t>4MCBfE4596Uoi2O4DtmEMz</t>
+  </si>
+  <si>
+    <t>47DQBkDU2VieRG0aJUcPJs</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
+  </si>
+  <si>
+    <t>0vEsuISMWAKNctLlUAhSZC</t>
+  </si>
+  <si>
+    <t>4AYkFtEBnNnGuoo8HaHErd</t>
+  </si>
+  <si>
+    <t>6GI52t8N5F02MxU0g5U69P</t>
+  </si>
+  <si>
+    <t>0PFtn5NtBbbUNbU9EAmIWF</t>
+  </si>
+  <si>
+    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
+  </si>
+  <si>
+    <t>3daM7asS0gCFvyLemNx2EE</t>
+  </si>
+  <si>
+    <t>085pc2PYOi8bGKj0PNjekA</t>
+  </si>
+  <si>
+    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
+  </si>
+  <si>
+    <t>4dpARuHxo51G3z768sgnrY</t>
+  </si>
+  <si>
+    <t>1uNFoZAHBGtllmzznpCI3s</t>
+  </si>
+  <si>
+    <t>2ycnb8Er79LoH2AsR5ldjh</t>
+  </si>
+  <si>
+    <t>blackbear</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>Weezer</t>
+  </si>
+  <si>
+    <t>Lil Nas X</t>
+  </si>
+  <si>
+    <t>Joan Jett &amp; The Blackhearts</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Smash Mouth</t>
+  </si>
+  <si>
+    <t>Bring Me The Horizon</t>
+  </si>
+  <si>
+    <t>The Prodigy</t>
+  </si>
+  <si>
+    <t>Liquido</t>
+  </si>
+  <si>
+    <t>The Cure</t>
+  </si>
+  <si>
+    <t>Seether</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Garbage</t>
   </si>
   <si>
     <t>Alice In Chains</t>
   </si>
   <si>
-    <t>Sepultura</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>Motörhead</t>
-  </si>
-  <si>
-    <t>Gojira</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Rammstein</t>
-  </si>
-  <si>
-    <t>Mudvayne</t>
-  </si>
-  <si>
-    <t>Deftones</t>
-  </si>
-  <si>
-    <t>Hatebreed</t>
-  </si>
-  <si>
-    <t>Mastodon</t>
+    <t>Shinedown</t>
+  </si>
+  <si>
+    <t>Pat Benatar</t>
+  </si>
+  <si>
+    <t>Aerosmith</t>
+  </si>
+  <si>
+    <t>Limp Bizkit</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>LMFAO</t>
+  </si>
+  <si>
+    <t>Judas Priest</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>The Cult</t>
+  </si>
+  <si>
+    <t>Twenty One Pilots</t>
+  </si>
+  <si>
+    <t>The Chainsmokers</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>Whigfield</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>Pixies</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
+  </si>
+  <si>
+    <t>The Offspring</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>Bridgit Mendler</t>
+  </si>
+  <si>
+    <t>Electric Light Orchestra</t>
+  </si>
+  <si>
+    <t>UB40</t>
+  </si>
+  <si>
+    <t>Us3</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Evanescence</t>
+  </si>
+  <si>
+    <t>Undercover</t>
+  </si>
+  <si>
+    <t>The Magic Numbers</t>
+  </si>
+  <si>
+    <t>Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Kajagoogoo</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Green Day</t>
   </si>
   <si>
     <t>Marilyn Manson</t>
   </si>
   <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Trivium</t>
-  </si>
-  <si>
-    <t>Drowning Pool</t>
-  </si>
-  <si>
-    <t>Rob Zombie</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-duality-lyrics', 'lyrics': "[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on\n\n[Verse 1]\nI have screamed until my veins collapsed\nI've waited as my time's elapsed\nNow all I do is live with so much fate\nI've wished for this, I've bitched at that\nI've left behind this little fact\nYou cannot kill what you did not create\n\n[Verse 2]\nI've gotta say what I've gotta say\nAnd then I swear I'll go away\nBut I can't promise you'll enjoy the noise\nI guess I'll save the best for last\nMy future seems like one big past\nYou're left with me 'cause you left me no choice\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nIf the pain goes on, I'm not gonna make it!\n[Verse 3]\nPut me back together or separate the skin from bone\nLeave me all the pieces, then you can leave me alone\nTell me the reality is better than the dream\nBut I found out the hard way, nothing is what it seems!\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on, I'm not gonna make it!\n\n[Bridge]\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!\n\n[Chorus]\nI push my fingers into my eyes\nIt's the only thing that slowly stops the ache\nBut it's made of all the things I have to take\nJesus, it never ends, it works its way inside\nIf the pain goes on, I'm not gonna make it!\n[Outro]\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane\nAll I've got, all I've got is insane!\nAll I've got, all I've got is insane!", 'annotations': {'description': '&lt;p&gt;“Duality” was the 1st single from Slipknot’s 3rd album, &lt;a href="https://genius.com/albums/Slipknot/Vol-3-the-subliminal-verses" rel="noopener" data-api_path="/albums/30814"&gt;&lt;em&gt;Vol 3: The Subliminal Verses&lt;/em&gt;&lt;/a&gt;, and was released on May 25, 2004. It was produced by &lt;a href="https://genius.com/@RickRubin" rel="noopener" data-api_path="/users/1487759"&gt;Rick Rubin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It &lt;a href="https://www.billboard.com/music/slipknot/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;peaked at #5&lt;/a&gt; on the US Rock Chart and &lt;a href="https://www.officialcharts.com/artist/7945/slipknot/" rel="noopener nofollow"&gt;reached #15&lt;/a&gt; in the UK, where it remains their highest-charting song. In 2019, Billboard named it the band’s &lt;a href="https://www.billboard.com/articles/columns/rock/8526410/slipknot-best-songs-top-10" rel="noopener nofollow"&gt;best song&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The music video was shot at a fan’s house, resulting in Roadrunner Records paying the fan’s family $50,000 for damages incurred in the shoot.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/803816ed53853b5e9bf2253efb53db50.264x216x25.gif" alt="" width="264" height="216" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;p&gt;According to Corey Taylor:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Duality” is about standing at the crossroads of your life, looking down both paths, and going, “Now what am I going to do?” Did you ever get that headache that is just not going to go away, and you end up sticking your thumb and middle finger so far into your eyes, just to stop the pain? It usually has to do with making a choice. You get to that point in everyday life when you have to make a decision that you may not want to, but you’re kind of pushed into that position. "&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Like all of the songs on “Vol. 3…”, Duality contains NO explicit lyrics, and was the first Slipknot single that was released without requiring a clean radio version.&lt;/p&gt;\n\n&lt;p&gt;It is also important for the entire album to remember that this is the album where Corey Taylor went sober and Clown dawned his “healing” mask.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/031e4fcdce7abcf36abaa7d18deaf1dc.500x222x6.gif" alt="" width="500" height="222" data-animated="true"&gt;&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avenged-sevenfold-hail-to-the-king-lyrics', 'lyrics': "[Verse 1]\nWatch your tongue or have it cut from your head\nSave your life by keeping whispers unsaid\nChildren roam the streets now orphans of war\nBodies hanging in the streets to adore\nRoyal flames will carve the path in chaos\nBringing daylight to the night (Night)\nDeath is riding into town with armor\nThey come to take all your rights\n\n[Chorus]\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king (Hail, hail, hail)\nThe King\n\n[Verse 2]\nBlood is spilled while holding keys to the throne\nBorn again but it’s too late to atone\nNo mercy from the edge of the blade\nDare escape and learn the price to be paid\nLet the water flow with shades of red now\nArrows black out all the light (Light)\nDeath is riding into town with armor\nThey come to grant you your rights\n[Chorus]\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king (Hail, hail, hail)\nThe King\n[Guitar Solo]\n\n[Bridge]\nThere's a taste of fear (Hail, hail, hail)\nWhen the henchmen call (Hail, hail, hail)\nIron fist to tame them (Hail, hail, hail)\nIron fist to claim it all\n\n[Chorus]\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king, hail to the one\nKneel to the crown, stand in the sun\nHail to the king (Hail, hail, hail)\nThe King", 'annotations': {'description': '&lt;p&gt;“Hail to the King” is an homage to all the music that the band loves, it’s a song for the fans to feel Avenged’s power. &lt;a href="https://www.ultimate-guitar.com/articles/features/the_story_behind_hail_to_the_king_by_avenged_sevenfold-68813" rel="noopener nofollow"&gt;M. Shadows explains the song like this:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Hail to the King” is a question about how society sees itself. From day one, people have elected kings and leaders, people have followed presidents, and they cry over who the new pope is. Sometimes you’ve got to step back and say, “What are we doing here? Why do we need all of these people to tell us how to run our lives?.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}], 'writers': [{'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pantera-cowboys-from-hell-lyrics', 'lyrics': "[Intro]\nOh, come on\n\n[Verse 1]\nUnder the lights where we stand tall\nNobody touches us at all\nShowdown, shootout\nSpread fear within, without\nI say we're gonna take what's ours to have\nSpread the word throughout the land\nThey say the bad guys wear black\nWe're tagged and can't turn back\n\n[Pre-Chorus]\nYou see us coming and you all together run for cover\nWe're taking over this town\n\n[Chorus]\nHere we come, reach for your gun\nAnd you better listen well, my friend\nYou see, it's been slow down below\nAimed at you, we're the Cowboys from Hell\nDeed is done, again we've won\nAin't talking no tall tales, friend\n'Cause high noon, your doom\nComing for you, we're the Cowboys from Hell\n[Verse 2]\nOh, pillage the village, trash the scene\nBut better not take it out on me\n'Cause a ghost town is found\nWhere your city used to be\nSo out of the darkness and into the light\nSparks fly everywhere in sight\nFrom my double barrel, 12 gauge\nCan't lock me in your cage\n\n[Pre-Chorus]\nYou see us coming and you all together run for cover\nWe're taking over this town\n\n[Chorus]\nHere we come, reach for your gun\nAnd you better listen well, my friend\nYou see, it's been slow down below\nAimed at you, we're the Cowboys from Hell\nDeed is done, again we've won\nAin't talking no tall tales, friend\n'Cause high noon, your doom\nComing for you, we're the Cowboys from Hell\n\n[Guitar Solo]\n[Chorus]\nHere we come, reach for your gun\nAnd you better listen well, my friend\nYou see, it's been slow down below\nAimed at you, we're the Cowboys from Hell\nDeed is done, again we've won\nAin't talking no tall tales, friend\n'Cause high noon, your doom\nComing for you, we're the Cowboys from Hell\n\n[Outro]\nStep aside for the Cowboys from Hell", 'annotations': {'description': '&lt;p&gt;“Cowboys From Hell” is brazen personal anthem meant to broadcast Pantera’s Texas origin with the unabashed usage of cliched western themes and parlance. The title’s abbreviation “CFH” was widely used on band merchandise and advertising materials long after succeeding albums had been released, as well as tattooed notably on the left side of frontman Phil Anselmo’s head.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5e55ecde0a3c2179b1034274b549cc67.600x450x1.jpg" alt="" width="600" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Phil Anselmo stated on an episode of That Metal Show that during a house party in Fort Worth, Texas in 1989, Dimebag, who arrived late, ran towards Anselmo and said he had a new riff to show him. The two of them went into Darrell’s car and Darrell played the intro to Anselmo, and Anselmo said afterwards to Darrell “yes this must be an anthem”.&lt;/p&gt;\n\n&lt;p&gt;“Cowboys From Hell” was the first song Pantera wrote for the record. It was recorded on the band’s 1989 demo album, Cowboys From Hell: The Demos. After the band got signed to Atco Records, they re-recorded the song and put it on their major label debut.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2cb5ba9d221fefd977816e19d07cf86a.408x400x1.jpg" alt="" width="408" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Vinnie Paul on the song:&lt;/p&gt;\n\n&lt;p&gt;“Cowboys From Hell is where everybody came into their own, along with the full-blown Pantera sound”, “That was actually the first song we wrote for the record. Basically, it was about us coming out of Texas and being out of place. People don’t think of Texas as being a hot spot for heavy metal, they think of New York or L.A. or something like that, so it just seemed like an obvious concept for us.”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/E_WZkCgeXWk?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;On the Official Live: 101 Proof recording of Cowboys From Hell, Pantera plays two bars of Ted Nugent’s “Cat Scratch Fever” between the first chorus and second verse.&lt;/p&gt;', 'producers': [{'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}, {'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}, {'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Rhino Atlantic', 'url': 'https://genius.com/artists/Rhino-atlantic'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'ATCO Records', 'url': 'https://genius.com/artists/Atco-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/System-of-a-down-toxicity-lyrics', 'lyrics': "[Produced by Rick Rubin, Daron Malakian, Serj Tankian]\n\n[Verse 1]\nConversion, software version 7.0\nLooking at life through the eyes of a tire hub\nEating seeds as a pastime activity\nThe toxicity of our city, of our city\n\n[Chorus]\nYou, what do you own the world? How do you own disorder, disorder?\nNow, somewhere between the sacred silence, sacred silence and sleep\nSomewhere between the sacred silence and sleep\nDisorder, disorder, disorder\n\n[Verse 2]\nMore wood for their fires, loud neighbors\nFlashlight reveries caught in the headlights of a truck\nEating seeds as a pastime activity\nThe toxicity of our city, of our city\n\n[Chorus]\nYou, what do you own the world? How do you own disorder, disorder?\nNow, somewhere between the sacred silence, sacred silence and sleep\nSomewhere between the sacred silence and sleep\nDisorder, disorder, disorder\n[Instrumental Bridge]\n\n[Chorus]\nYou, what do you own the world? How do you own disorder?\nNow, somewhere between the sacred silence, sacred silence and sleep\nSomewhere between the sacred silence and sleep\nDisorder, disorder, disorder\n\n[Outro]\nWhen I became the sun, I shone life into the man's hearts\nWhen I became the sun, I shone life into the man's hearts", 'annotations': {'description': '&lt;p&gt;“Toxicity” is one of System of a Down’s biggest hits, the song reached No. 70 on Billboard Hot 100 and No. 3 on Mainstream Rock chart. &lt;a href="https://youtu.be/CXD0OPFVO_k?t=1h10m40s" rel="noopener nofollow"&gt;During a performance at the 2005 Download Festival,&lt;/a&gt; Daron Malakian said that the song was about Attention-Deficit/Hyperactivity Disorder (ADHD), a psychological condition that &lt;a href="https://en.wikipedia.org/wiki/Attention_deficit_hyperactivity_disorder#Executive_function_and_motivation" rel="noopener nofollow"&gt;interferes with an individual’s executive functions&lt;/a&gt;. The video for the song was directed by the band’s bassist Shavo Odadjian, just like &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; video.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'writers': [{'name': 'Shavo Odadjian', 'url': 'https://genius.com/artists/Shavo-odadjian'}, {'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}]}}</t>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>Alannah Myles</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Bastille</t>
+  </si>
+  <si>
+    <t>Joe Cocker</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Fugees</t>
+  </si>
+  <si>
+    <t>Moby</t>
+  </si>
+  <si>
+    <t>Rednex</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Clean Bandit</t>
+  </si>
+  <si>
+    <t>Bob Sinclar</t>
+  </si>
+  <si>
+    <t>Blur</t>
+  </si>
+  <si>
+    <t>Roxette</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Juice WRLD</t>
+  </si>
+  <si>
+    <t>Jace Everett</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Van Halen</t>
+  </si>
+  <si>
+    <t>Counting Crows</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>The Romantics</t>
+  </si>
+  <si>
+    <t>will.i.am</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Blackbear-hot-girl-bummer-lyrics', 'lyrics': '[Intro]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Verse 1]\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nThis that throw up in your Birkin bag\nHook up with someone random\nThis that social awkward suicide\nThat buy your lips and buy your likes\nI swear she had a man\nBut shit hit different when it\'s Thursday night\n\n[Pre-Chorus]\nThat college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that 10K on the table\nJust so we can be secluded\nAnd the vodka came diluted\nOne more line, I\'m superhuman\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Verse 2]\nThis that hot girl bummer two-step\nThey can\'t box me in, I\'m too left\nThis that drip, it\'s more like oceans\nThey can\'t fit me in a Trojan\nOut of pocket, but I\'m always in my bag\nYeah, that\'s the slogan\nThis that, "Who\'s all there?"\nI\'m pullin\' up wit\' a emo chick that\'s broken\n\n[Pre-Chorus]\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that 10K on the table\nJust so we can be secluded\nAnd the vodka came diluted\nOne more line, I\'m superhuman\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Bridge]\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nWe go stupid, we go stupid, we go—\nAnd you want me to change? Fuck you!\n\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum', 'annotations': {'description': '&lt;p&gt;“hot girl bummer,” blackbear’s first single since his fifth studio album, &lt;a href="https://genius.com/albums/Blackbear/Anonymous" rel="noopener" data-api_path="/albums/456629"&gt;&lt;i&gt;ANONYMOUS&lt;/i&gt;&lt;/a&gt;, was released alongside &lt;a href="https://www.youtube.com/watch?v=yMlKJGKyoCo" rel="noopener nofollow"&gt;a low-budget music video&lt;/a&gt; directed by &lt;a href="https://www.imdb.com/name/nm0871808/" rel="noopener nofollow"&gt;Gilbert Trejo&lt;/a&gt;, which blackbear and his best friend Cesar Silva creative directed.  This was followed on November 21st, 2019 by a new, &lt;a href="https://www.youtube.com/watch?v=5cPW0ggFq04" rel="noopener nofollow"&gt;higher budget video&lt;/a&gt; via Vevo, directed by &lt;a href="http://adam-powell.com/" rel="noopener nofollow"&gt;Adam Powell&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song is blackbear’s spin on the &lt;a href="https://www.vox.com/the-goods/2019/7/12/20690515/hot-girl-summer-meme-define-explained" rel="noopener nofollow"&gt;#hotgirlsummer trend&lt;/a&gt;. Megan Thee Stallion fans, who &lt;a href="https://knowyourmeme.com/memes/hot-girl-summer" rel="noopener nofollow"&gt;originated the trend&lt;/a&gt;, inspiring the song &lt;a href="https://genius.com/Megan-thee-stallion-hot-girl-summer-lyrics" rel="noopener" data-api_path="/songs/4714934"&gt;“Hot Girl Summer”&lt;/a&gt; reacted negatively to the song, claiming that blackbear appropriated the idea. blackbear, however, claimed the song &lt;a href="https://images.genius.com/79d200a0585f91aa3ee550c9d5a89fde.658x137x1.png" rel="noopener"&gt;“has to do [with] the caption trend”&lt;/a&gt; and doesn’t parody the song. In fact, he teased the song and title during July 2019, before the release of Megan’s “Hot Girl Summer” on August 9th, 2019.&lt;/p&gt;\n\n&lt;p&gt;On the cover art of this playful, energetic track, &lt;a href="https://www.imdb.com/name/nm10132731/" rel="noopener nofollow"&gt;Maddy Crum&lt;/a&gt;, who was previously featured in Aidan Cullen-directed short film, &lt;a href="https://www.youtube.com/watch?v=oF0--5rrEos" rel="noopener nofollow"&gt;&lt;i&gt;THE ANONYMOUS SAGA&lt;/i&gt;,&lt;/a&gt; is pictured with a face covered in colorful stickers and a nosebleed. &lt;a href="https://youtu.be/v78iL0NvGG4" rel="noopener nofollow"&gt;She shared an Instagram story&lt;/a&gt; wearing merchandise and another using the official Snapchat filter designed by Harley Wrecks to mimic the cover a few hours before release.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/faf746ee0369415edc3fbb55fec35516.450x800x1.jpg" alt="" width="450" height="800" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The release date, August 23rd, 2019, marks the one year anniversary of &lt;a href="https://genius.com/Blackbear-the-1-lyrics" rel="noopener" data-api_path="/songs/3864163"&gt;“the 1”&lt;/a&gt; and the sixth year anniversary of &lt;a href="https://genius.com/Blackbear-n-y-l-a-single-lyrics" rel="noopener" data-api_path="/songs/1994894"&gt;“N Y L A,”&lt;/a&gt; both singles of his.&lt;/p&gt;', 'producers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': '\u200bblackbear', 'url': 'https://genius.com/artists/Blackbear'}], 'writers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': '\u200bblackbear', 'url': 'https://genius.com/artists/Blackbear'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Beartrap', 'url': 'https://genius.com/artists/Beartrap'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Boston-more-than-a-feeling-lyrics', 'lyrics': "[Verse 1]\nI looked out this morning and the sun was gone\nTurned on some music to start my day\nI lost myself in a familiar song\nI closed my eyes and I slipped away\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away\nI see my Marianne walking away\n\n[Verse 2]\nSo many people have come and gone\nTheir faces fade as the years go by\nYet, I still recall as I wander on\nAs clear as the sun in the summer sky\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away\nI see my Marianne walking away\n[Guitar Solo]\n\n[Verse 3]\nWhen I'm tired and thinking cold\nI hide in my music, forget the day\nAnd dream of a girl I used to know\nI closed my eyes and she slipped away\nShe slipped away\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away", 'annotations': {'description': '&lt;p&gt;This is the first track off of Boston’s self-titled debut album, which describes the emotions that the singer is going through when he hears a particular song that takes him back to his memories of Marianne.&lt;/p&gt;', 'producers': [{'name': 'John Boylan', 'url': 'https://genius.com/artists/John-boylan'}, {'name': 'Tom Scholz', 'url': 'https://genius.com/artists/Tom-scholz'}], 'writers': [{'name': 'Tom Scholz', 'url': 'https://genius.com/artists/Tom-scholz'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Creed-whats-this-life-for-lyrics', 'lyrics': "[Verse 1]\nHurray for a child that makes it through\nIf there's any way because the answer lies in you\nThey're laid to rest before they've known just what to do\nTheir souls are lost because\nThey could never find\n\n[Chorus 1]\nWhat's this life for? What's this life for?\nWhat's this life for? What's this life for?\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\nYou could never find\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle the score\nBecause we all live under the reign\nOf one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf one king", 'annotations': {'description': '', 'producers': [{'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Weezer-beverly-hills-lyrics', 'lyrics': "[Verse 1]\nWhere I come from isn't all that great\nMy automobile is a piece of crap\nMy fashion sense is a little whack\nAnd my friends are just as screwed as me\nI didn't go to boarding schools\nPreppy girls never looked at me\nWhy should they? I ain't nobody\nGot nothing in my pocket\n\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n\n[Verse 2]\nLook at all those movie stars\nThey're all so beautiful and clean\nWhen the housemaids scrub the floors\nThey get the spaces in between\nI wanna live a life like that\nI wanna be just like a king\nTake my picture by the pool\nCause I'm the next big thing\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n\n[Guitar Solo]\n\n[Bridge]\nThe truth is\nI don't stand a chance\nIt's something that you're born into\nAnd I just don't belong\n\n[Verse 3]\nNo I don't, I'm just a no class, beat down fool\nAnd I will always be that way\nI might as well enjoy my life\nAnd watch the stars play\n\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n[Outro]\nBeverly Hills\nBeverly Hills\nBeverly Hills\nBeverly Hills, livin' in Beverly Hills", 'annotations': {'description': '&lt;p&gt;This song is off of Weezer’s 5th album called Make Believe, produced by Rick Rubin. It was the first single off this album.  Many Weezer fans might notice that the chord progression and rhythm closely resemble the song &lt;em&gt;“Blast Off”&lt;/em&gt; from their unreleased rock opera &lt;em&gt;“Songs from the Black Hole.”&lt;/em&gt;&lt;/p&gt;', 'producers': [{'name': 'Chad Bamford', 'url': 'https://genius.com/artists/Chad-bamford'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Rivers Cuomo', 'url': 'https://genius.com/artists/Rivers-cuomo'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics', 'lyrics': "[Intro: Lil Nas X]\n(D-D-Daytrip took it to ten, hey)\nBaby back, ayy, couple racks, ayy\nCouple Grammys on him, couple plaques, ayy\nThat's a fact, ayy, throw it back, ayy\nThrow it back, ayy\n[Pre-Chorus: Lil Nas X]\nAnd this one is for the champions\nI ain't lost since I began, yeah\nFunny how you said it was the end, yeah\nThen I went did it again, yeah\n\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low\nYou was never really rooting for me anyway\nWhen I'm back up at the top, I wanna hear you say\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over\n\n[Verse 1: Lil Nas X]\nUh, need to, uh\nNeed to get this album done\nNeed a couple number onеs\nNeed a plaque on every song\nNeed mе like one with Nicki now\nTell a rap nigga I don't see ya, hah\nI'm a pop nigga like Bieber, hah\nI don't fuck bitches, I'm queer, hah\nBut these niggas bitches like Madea, yeah, yeah, yeah, ayy (Yeah)\nOh, let's do it\nI ain't fall off, I just ain't release my new shit\nI blew up, now everybody tryna sue me\nYou call me Nas, but the hood call me Doobie, yeah\n[Pre-Chorus: Lil Nas X]\nAnd this one is for the champions\nI ain't lost since I began, yeah\nFunny how you said it was the end, yeah\nThen I went did it again, yeah\n\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for (I got what they're waiting for)\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low (Bitch, I ain't runnin' from nowhere)\nYou was never really rooting for me anyway (Ooh, ooh)\nWhen I'm back up at the top, I wanna hear you say (Ooh, ooh)\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over (Yeah)\n\n[Verse 2: Jack Harlow]\nMy track record so clean, they couldn't wait to just bash me\nI must be gettin' too flashy, y'all shouldn't have let the world gas me (Woo)\nIt's too late 'cause I'm here to stay and these girls know that I'm nasty (Mmm)\nI sent her back to her boyfriend with my handprint on her ass cheek\nCity talkin', we takin' notes\nTell 'em all to keep makin' posts\nWish he could, but he can't get close\nOG so proud of me that he chokin' up while he makin' toasts\nI'm the type that you can't control, said I would, then I made it so\nI don't clear up rumors (Ayy), where's y'all sense of humor? (Ayy)\nI'm done makin' jokes 'cause they got old like baby boomers\nTurned my haters to consumers, I make vets feel like they juniors (Juniors)\nSay your time is comin' soon, but just like Oklahoma (Mmm)\nMine is comin' sooner (Mmm), I'm just a late bloomer (Mmm)\nI didn't peak in high school, I'm still out here gettin' cuter (Woo)\nAll these social networks and computers\nGot these pussies walkin' 'round like they ain't losers\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for (I got what they waiting for)\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low (Bitch, I ain't runnin' from nowhere)\nYou was never really rooting for me anyway\nWhen I'm back up at the top, I wanna hear you say\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over\n[Outro: Lil Nas X]\nYeah\nI'm the industry baby, mmm\nI'm the industry baby\nYeah", 'annotations': {'description': '&lt;p&gt;Lil Nas X recruits Louisville native Jack Harlow for “INDUSTRY BABY,” a boisterous song where they rap about their fame and success, blowing up, and their newfound statuses in the rap game. The title plays on the term &lt;a href="https://medium.com/@ftp96/what-are-industry-plants-and-are-they-ruining-the-rap-culture-1588ebc2ce6b#:~:text=The%20common%20definition%20of%20an,create%20a%20pseudo%20organic%20following." rel="noopener nofollow"&gt;“industry plant,”&lt;/a&gt; which are people who are backed by a major label at the start, but play into an image of being organic and all by themselves.&lt;/p&gt;\n\n&lt;p&gt;The song was first &lt;a href="https://twitter.com/LilNasX/status/1319044444247605248" rel="noopener nofollow"&gt;teased&lt;/a&gt; on October 22, 2020 with a snippet showing Nas X dancing to the song with the producer duo, &lt;a href="https://genius.com/artists/Take-a-daytrip" rel="noopener" data-api_path="/artists/643219"&gt;Take a Daytrip&lt;/a&gt;. A &lt;a href="https://genius.com/Lil-nas-x-industry-baby-demo-lyrics" rel="noopener" data-api_path="/songs/6958019"&gt;demo version&lt;/a&gt; of the song leaked in full late June 2021, with the demo version using a slightly different instrumental and containing no feature. A week before its release, the rapper &lt;a href="https://twitter.com/LilNasX/status/1415734630536269830" rel="noopener nofollow"&gt;tweeted a promise&lt;/a&gt;, claiming he would drop “INDUSTRY BABY” once the June 2019 track, &lt;a href="https://genius.com/Lil-nas-x-panini-lyrics" rel="noopener" data-api_path="/songs/4442107"&gt;“Panini,”&lt;/a&gt; hit 400 Million views on YouTube.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=bXcSLI58-h8" rel="noopener nofollow"&gt;music video&lt;/a&gt; hit the goal shortly after and Lil Nas announced the song on July 19th, through a &lt;a href="https://www.youtube.com/watch?v=5QLFrE2qSZo" rel="noopener nofollow"&gt;trailer&lt;/a&gt; which portrays him being sentenced to jail in relation to his &lt;a href="https://www.bbc.com/news/business-56572245" rel="noopener nofollow"&gt;Nike court case&lt;/a&gt;. The trailer revealed the release date, producers, and Jack Harlow as the feature.&lt;/p&gt;', 'producers': [{'name': 'Nick Lee', 'url': 'https://genius.com/artists/Nick-lee'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Take a Daytrip', 'url': 'https://genius.com/artists/Take-a-daytrip'}], 'writers': [{'name': 'Roy Lenzo', 'url': 'https://genius.com/artists/Roy-lenzo'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Raul Cubina', 'url': 'https://genius.com/artists/Raul-cubina'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Nick Lee', 'url': 'https://genius.com/artists/Nick-lee'}, {'name': 'David Biral', 'url': 'https://genius.com/artists/David-biral'}, {'name': 'Denzel Baptiste', 'url': 'https://genius.com/artists/Denzel-baptiste'}, {'name': 'Jack Harlow', 'url': 'https://genius.com/artists/Jack-harlow'}, {'name': 'Lil Nas X', 'url': 'https://genius.com/artists/Lil-nas-x'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-furtado-say-it-right-lyrics', 'lyrics': "[Intro: Timbaland]\nFrk-frk-down\nHey\nYou don't mean nothin' at all to me\nHey, hey\n\n[Verse 1: Nelly Furtado]\nIn the day, in the night\nSay it right, say it all\nYou either got it, or you don't\nYou either stand, or you fall\nWhen your will is broken\nWhen it slips from your hand\nWhen there's no time for jokin'\nThere's a hole in the plan\n\n[Chorus: Nelly Furtado &amp; (Timbaland)]\nOh, you don't mean nothing at all to me (Hey, oh, oh, hey)\nNo, you don't mean nothing at all to me (Hey, oh, oh, hey)\nBut you got what it takes to set me free (Hey, oh, oh, hey)\nOh, you could mean everything to me (Hey, oh, oh, hey)\n\n[Verse 2: Nelly Furtado]\nI can't say (Say) that I'm not (Not)\nLost (Lost) and at fault (Fault)\nI can't say (Say) that I don't (Don't)\nLove the light (Love) and the dark\nI can't say that I don't (Don't)\nKnow that I am alive\nAnd all of what I feel (Feel)\nI could show (Show you) you tonight, you tonight\n[Chorus: Nelly Furtado &amp; (Timbaland)]\nOh, you don't mean nothing at all to me (Hey, oh, oh, hey)\nNo, you don't mean nothing at all to me (Hey, oh, oh, hey)\nBut you got what it takes to set me free (Hey, oh, oh, hey)\nOh, you could mean everything to me (Hey, oh, oh, hey)\n\n[Verse 3: Nelly Furtado]\nFrom my hands I could give you\nSomething that I made\nFrom my mouth, I could sing you another brick that I laid\nFrom my body (From my body), I could show you (I could show you)\nA place (A place) God knows (That only God knows)\nYou should know the space is holy (Ah-ah-ah-ah)\nDo you really wanna go?\n(Three, four)\n\n[Outro: Timbaland]\nHey, hey, hey\nYou don't mean nothin' at all to me\nHey, hey\nHey, hey, hey\nYou don't mean nothin' at all to me\nHey, hey", 'annotations': {'description': '&lt;p&gt;The third single from Nelly Furtado’s &lt;em&gt;Loose&lt;/em&gt;, a keyboard-driven pop song inspired by the &lt;a href="https://genius.com/artists/Eurythmics" rel="noopener" data-api_path="/artists/829"&gt;Eurythmics&lt;/a&gt;  discussing love in a spiritual way.&lt;/p&gt;\n\n&lt;p&gt;The single reached\xa0#1 on the Billboard Hot 100. It also topped the charts in a few other countries and made it to the top 10 of some others. It also made it to #9 on the year-end Hot 100 charts.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Arctic-monkeys-whyd-you-only-call-me-when-youre-high-lyrics', 'lyrics': '[Verse 1]\nThe mirror\'s image tells me it\'s home time\nBut I\'m not finished, \'cause you\'re not by my side\nAnd as I arrived I thought I saw you leavin\'\nCarryin\' your shoes\nDecided that once again I was just dreamin\'\nOf bumpin\' into you\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply\n"Why\'d you only call me when you\'re high?"\n"High, why\'d you only call me when you\'re high?"\n\n[Verse 2]\nSomewhere darker, talkin\' the same shite\nI need a partner, well are you out tonight?\nIt\'s harder and harder to get you to listen\nMore I get through the gears\nIncapable of makin\' alright decisions\nAnd having bad ideas\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply (Message, you reply)\n"Why\'d you only call me when you\'re high?"\n(Why\'d you only call me when you\'re)\n"High, why\'d you only call me when you\'re high?"\n[Bridge]\nAnd I can\'t see you here, wonder where I might\nIt sort of feels like I\'m runnin\' out of time\nI haven\'t found all I was hopin\' to find\nYou said you got to be up in the mornin\'\nGonna have an early night\nAnd you\'re startin\' to bore me, baby\n"Why\'d you only call me when you\'re high?"\n\n[Outro]\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re (high)?"', 'annotations': {'description': '&lt;p&gt;A single off the Arctic Monkeys 5th album AM, “Why’d You Only Call Me When You’re High?” is a &lt;a href="http://www.rollingstone.com/music/news/josh-homme-arctic-monkeys-album-is-a-sexy-after-midnight-record-20130711" rel="noopener nofollow"&gt;sexy&lt;/a&gt; record, that has the band experimenting with R&amp;amp;B sounds.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/4184d64723bc93b6180b3bdcc39d5294.820x546x1.jpg" alt="" width="820" height="546" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Alex’s story is made clear on the apropo video, which starts as the previous single &lt;a href="https://genius.com/Arctic-monkeys-do-i-wanna-know-lyrics" rel="noopener" data-api_path="/songs/154314"&gt;“Do I Wanna Know?”&lt;/a&gt; tapers off in a club:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6366dxFf-Os?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Ross Orton', 'url': 'https://genius.com/artists/Ross-orton'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Smash-mouth-im-a-believer-lyrics', 'lyrics': "[Verse 1]\nI thought love was only true in fairy tales\nMeant for someone else but not for me\nLove was out to get me\nThat's the way it seemed\nDisappointment haunted all my dreams\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n\n[Verse 2]\nI thought love was more or less a given thing\nMore I gave the less I got, oh yeah\nWhat's the use in trying?\nAll you get is pain\nWhen I wanted sunshine, I got rain\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n[Bridge]\nWhat's the use in trying?\nAll you get is pain\nWhen I wanted sunshine\nI got rain\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n\n[Outro]\nThen I saw her face\nNow I'm a believer\nNot a trace\nOf doubt in my mind\nNow I'm a believer\nYeah, yeah, yeah, yeah, yeah\nNow I'm a believer\nThen I saw her face\nNow I'm a believer\nNot a trace\nOf doubt in my mind\nI'm a believer", 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Smash-mouth" rel="noopener" data-api_path="/artists/1371"&gt;Smash Mouth&lt;/a&gt;’s version of “I’m a Believer”: written by &lt;a href="https://genius.com/artists/Neil-diamond" rel="noopener" data-api_path="/artists/44735"&gt;Neil Diamond&lt;/a&gt; and &lt;a href="https://genius.com/The-monkees-im-a-believer-lyrics" rel="noopener" data-api_path="/songs/512809"&gt;originally played&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-monkees" rel="noopener" data-api_path="/artists/34609"&gt;The Monkees&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It got a popularity resurgence once included on the &lt;a href="https://genius.com/albums/Various-artists/Shrek-music-from-the-original-motion-picture" rel="noopener" data-api_path="/albums/221306"&gt;&lt;em&gt;Shrek&lt;/em&gt; soundtrack&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/0mYBSayCsH0?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Neil Diamond', 'url': 'https://genius.com/artists/Neil-diamond'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bring-me-the-horizon-throne-lyrics', 'lyrics': "[Verse 1]\nRemember the moment you left me alone and\nBroke every promise you ever made\nI was an ocean, lost in the open\nNothin' could take the pain away\n\n[Chorus]\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\n\n[Verse 2]\nThe sticks and the stones that you used to throw have\nBuilt me an empire, so don't even try\nTo cry me a river, 'cause I forgive you\nYou are the reason I still fight\n\n[Chorus]\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\n[Bridge]\nI'll leave you choking on every word you left unspoken\nRebuild all that you've broken and now you know (Know)\nI'll leave you choking on every word you left unspoken\nRebuild all that you've broken and now you know\n\n[Chorus]\nEvery wound will shape me, every scar will build my throne\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne", 'annotations': {'description': '&lt;p&gt;“Throne” is the second official single released for &lt;em&gt;That’s The Spirit&lt;/em&gt;. Keyboardist Jordan Fish told &lt;a href="http://www.rollingstone.com/music/news/bring-me-the-horizon-on-ditching-metalcore-for-poppy-positive-new-lp-20150723" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that the song represents a completely new musical and emotional space for the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s one of the most simple and straightforward songs we did… Its got some elements we had on the last album [2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt;], with an up-tempo rhythm and really strong melodies. So it seemed like an obvious choice for the first single because it’s so immediately catchy and has such a good level of energy&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song reflects a more positive outlook on life than previous BMTH material. Fish states that this reflects the upcoming album’s theme.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everyone has their own issues and anxieties, and mostly the new songs are about accepting them and trying to remain positive because there’s nothing else you can do.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}], 'writers': [{'name': 'Lee Malia', 'url': 'https://genius.com/artists/Lee-malia'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Matt Nicholls', 'url': 'https://genius.com/artists/Matt-nicholls'}, {'name': 'Matt Kean', 'url': 'https://genius.com/artists/Matt-kean'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-prodigy-breathe-lyrics', 'lyrics': "[Intro: Maxim]\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n[Refrain: Maxim]\nBreathe with me\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n\n[Refrain: Maxim]\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale", 'annotations': {'description': '&lt;p&gt;“Breathe” was released as a single in November of 1996. The song was one of The Prodigy’s most successful, peaking at number one in &lt;a href="http://www.officialcharts.com/search/singles/breathe/" rel="noopener nofollow"&gt;various global charts&lt;/a&gt; including the UK Singles Chart and The Eurochart Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The song also featured on the album &lt;em&gt;The Fat of the Land&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Walter Stern directed music video featured shots of the band in an abandoned building filled with various bugs and insects. The video won the 1997 MTV Music Awards &lt;a href="https://en.wikipedia.org/wiki/1997_MTV_Video_Music_Awards#Viewer.27s_Choice" rel="noopener nofollow"&gt;Viewer’s Choice Award&lt;/a&gt; as well as the &lt;a href="https://en.wikipedia.org/wiki/1997_MTV_Video_Music_Awards#MTV_Europe" rel="noopener nofollow"&gt;International Viewer’s Choice Award for Europe&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://youtu.be/1eLhaGH5scU?t=620" rel="noopener nofollow"&gt;Maxim has stated that this song is a representation of their vibe they create on stage.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'writers': [{'name': 'Maxim Reality', 'url': 'https://genius.com/artists/Maxim-reality'}, {'name': 'Keith Flint', 'url': 'https://genius.com/artists/Keith-flint'}, {'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Liquido-narcotic-lyrics', 'lyrics': "[Verse 1]\nSo you face it with a smile\nThere is no need to cry\nFor a trifle's more than this\nWill you still recall my name?\nAnd the month it all began?\nWill you release me with a kiss?\nHave I tried to draw the veil?\nIf I have, how could I fail?\nDid I fear the consequence?\n\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Verse 2]\nNow you shaped that liquid wax\nFit it out with crater cracks\nSweet devotion, my delight\nOh, you're such a pretty one\nAnd the naked thrills of flesh and skin\nWould tease me through the night\nNow, I hate to leave you bare\nIf you need me, I'll be there\nDon't you ever let me down\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Bridge]\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nLike an addicted to cocaine\nCalls for the stuff he'd rather blame\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nMy cocaine\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go", 'annotations': {'description': '', 'producers': [{'name': 'Olaf Opal', 'url': 'https://genius.com/artists/Olaf-opal'}, {'name': 'Liquido', 'url': 'https://genius.com/artists/Liquido'}], 'writers': [{'name': 'Wolfgang Schrödl', 'url': 'https://genius.com/artists/Wolfgang-schrodl'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cure-boys-dont-cry-lyrics', 'lyrics': "[Verse 1]\nI would say I'm sorry\nIf I thought that it would change your mind\nBut I know that this time\nI have said too much, been too unkind\n\n[Chorus]\nI tried to laugh about it\nCover it all up with lies\nI tried to laugh about it\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n\n[Verse 2]\nI would break down at your feet\nAnd beg forgiveness, plead with you\nBut I know that it's too late\nAnd now there's nothing I can do\n\n[Chorus]\nSo I try to laugh about it\nCover it all up with lies\nI try to laugh about it\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n[Verse 3]\nI would tell you that I loved you\nIf I thought that you would stay\nBut I know that it's no use\nAnd you've already gone away\n\n[Bridge]\nMisjudged your limits\nPushed you too far\nTook you for granted\nI thought that you needed me more, more, more\n\n[Chorus]\nNow I would do 'most anything\nTo get you back by my side\nBut I just keep on laughing\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n\n[Outro]\nBoys don't cry", 'annotations': {'description': '&lt;p&gt;“Boys Don’t Cry” was released on 15 June 1979 as a standalone single and not originally included on The Cure’s homeland UK debut album &lt;em&gt;Three Imaginary Boys&lt;/em&gt;, but was included on its namesake North American debut &lt;em&gt;Boys Don’t Cry&lt;/em&gt;, released 5 February 1980. On original release, it only found chart success in New Zealand, reaching #22 in May 1980.&lt;/p&gt;\n\n&lt;p&gt;In 1986, after the international success of the band’s sixth album &lt;em&gt;The Head On The Door&lt;/em&gt;, a new version of the song was released as a single and found top 30 success in five countries, including their homeland of the UK and an even higher peak in New Zealand.&lt;/p&gt;', 'producers': [{'name': 'Chris Parry', 'url': 'https://genius.com/artists/Chris-parry'}], 'writers': [{'name': 'Michael Dempsey', 'url': 'https://genius.com/artists/Michael-dempsey'}, {'name': 'Lol Tolhurst', 'url': 'https://genius.com/artists/Lol-tolhurst'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}], 'labels': [{'name': 'Fiction Records', 'url': 'https://genius.com/artists/Fiction-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Seether-words-as-weapons-lyrics', 'lyrics': "[Intro]\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n\n[Verse 1]\nKeep me locked up in your broken mind\nI keep searching, never been able to find\nA light behind your dead eyes\nNot anything at all\n\n[Pre-Chorus 1]\nYou keep living in your own lie\nEver deceitful and ever unfaithful\nKeep me guessing, keep me terrified\nTake everything from my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Verse 2]\nKeep me dumb, keep me paralyzed\nWhy try swimming? I'm drowning in fables\nYou're not that saint that you externalize\nYou're not anything at all\n[Pre-Chorus 2]\nIt's oh, so playful when you demonize\nTo spit out the hateful, you're willing and able\nYour words are weapons of the terrified\nYou're nothing in my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Bridge]\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nYou keep living in your own lie\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\n\n[Middle 8]\nYou keep living in your own lie\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Outro]\nAll I really want is something beautiful to say\nWords are weapons of the terrified\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever", 'annotations': {'description': '&lt;p&gt;Track number 3 and also the lead single from &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt;’s &lt;a href="https://genius.com/albums/Seether/Isolate-and-medicate" rel="noopener" data-api_path="/albums/99504"&gt;sixth studio album&lt;/a&gt;, Words as Weapons is song sound founded in alternative metal and the post-grunge subgenre roots. It was released on 1 May 2014 and &lt;a href="http://www.billboard.com/artist/278593/Seether/chart?f=376" rel="noopener nofollow"&gt;topped the Billboard chart for Mainstream Rock&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Poison-unskinny-bop-lyrics', 'lyrics': "[Verse 1]\nA-what's got you so jumpy?\nWhy can't you sit still, yeah?\nLike gasoline, you wanna pump me\nAnd leave me when you get your fill, yeah\n\nEvery time I touch you, honey, you get hot\nI wanna make love, you never stop\nCome up for air, you pull me to the floor\nWhat's been going on in that head of yours?\n\n[Chorus]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\nUnskinny bop, nothin' more to say\n\n[Verse 2]\nYou look at me so funny\nLove bite got you acting oh so strange\nYou got too many bees in your honey\nAm I just another word in your page, yeah, yeah?\nEvery time I touch you, honey, you get hot\nI wanna make love, you never stop\nCome up for air, you pull me to the floor\nWhat's been going on in that head of yours?\n\n[Chorus]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\nUnskinny bop, nothin' more to say\n\n[Bridge]\nYou're saying my love won't do ya\nThat ain't love written on your face\nWell, honey, I can see right through ya\nWell, who's ridin' who at the end of the race?\n\nWhat's right?\nWhat's wrong?\nWhat's left?\nWhat the hell is going on?\n\n[Chorus &amp; outro]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\n(Up for air, pulled to the floor)\nUnskinny bop\nNo good, no good, no good, no good\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nNo good, no good, no good, no good", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Unskinny Bop&lt;/em&gt;&lt;/strong&gt; was the first single from &lt;a href="https://genius.com/artists/Poison" rel="noopener" data-api_path="/artists/32611"&gt;Poison&lt;/a&gt;’s third album &lt;em&gt;Flesh &amp;amp; Blood&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to C.C. Deville, the song title does not have any particular meaning. He came up with the phrase as a temporary measure while he was writing the song and it was used on the basis that it was phonetically suited to the music.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #3 on the Billboard Hot 100 and #5 on Billboard’s Mainstream Rock Tracks chart in 1990.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c10952c211391897f5ddf2f305c33729.300x313x1.jpg" alt="" width="300" height="313" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Rikki Rockett', 'url': 'https://genius.com/artists/Rikki-rockett'}, {'name': 'Bobby Dall', 'url': 'https://genius.com/artists/Bobby-dall'}, {'name': 'Bret Michaels', 'url': 'https://genius.com/artists/Bret-michaels'}, {'name': 'C.C. DeVille', 'url': 'https://genius.com/artists/Cc-deville'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Garbage-special-lyrics', 'lyrics': "[Verse 1]\nI've been living without you\nI know all about you\nI have run you down into the ground\nSpread disease about you over town\n\nI used to adore you\nI couldn't control you\nThere was nothing that I wouldn't do\nTo keep myself around and close to you\n\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\nBut I've run out of patience\nI couldn't care less\n\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\n\n[Verse 2]\nI used to amuse you\nI knew that I'd lose you\nNow you're here and begging for a chance\nBut there's no way in hell I'd take you back\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\nBut I've run out of patience\nI've run out of comments\nI'm tired of the violence\nI couldn't care less\n\n[Outro]\nI'm looking for a new\nI'm looking for a new\nI'm looking for a new\nI'm looking for a new\n\nWe were the talk of the town\nWe were the talk of the town\nWe were the talk of the town\nWe were the talk of the town\n\nI thought you were special\nI thought you were special\nI thought you were special\nI thought you were special", 'annotations': {'description': '&lt;p&gt;“Special” is the third single from &lt;a href="https://genius.com/artists/Garbage" rel="noopener" data-api_path="/artists/18769"&gt;Garbage&lt;/a&gt;’s multi-platinum selling album &lt;em&gt;Version 2.0&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The lyrics concern a friendship that Shirley Manson had moved on from after her friend had let her down. From a Melody Maker interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Ultimately it’s about those feelings of betrayal you have for people when you set your sights too high and expect too much and how that can lead to disappointment in the end.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=raRGnueg8Lo" rel="noopener nofollow"&gt;music video&lt;/a&gt; was directed by Dawn Shadforth.&lt;/p&gt;', 'producers': [{'name': 'Garbage', 'url': 'https://genius.com/artists/Garbage'}], 'writers': [{'name': 'Shirley Manson', 'url': 'https://genius.com/artists/Shirley-manson'}, {'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}, {'name': 'Steve Marker', 'url': 'https://genius.com/artists/Steve-marker'}, {'name': 'Duke Erikson', 'url': 'https://genius.com/artists/Duke-erikson'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Alice-in-chains-would-lyrics', 'lyrics': '[Verse 1: Jerry Cantrell]\nKnow me, broken by my master\nTeach thee on child, of love hereafter\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Verse 2: Jerry Cantrell]\nDrifting body, its sole desertion\nFlying, not yet quite the notion\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Guitar Solo: Jerry Cantrell]\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n[Outro: Layne Staley]\nAm I wrong?\nHave I run too far to get home?\nHave I gone?\nLeft you here alone\nAm I wrong?\nHave I run too far to get home? Yeah\nHave I gone?\nLeft you here alone\nIf I would, could you?', 'annotations': {'description': '&lt;p&gt;The song concerns the late lead singer of Mother Love Bone, Andrew Wood, who died of a heroin overdose in 1990.  Would? and Wood are homophones.&lt;br&gt;\nIt is written by Jerry Cantrell and produced by Rick Parashar.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/Sepultura-roots-bloody-roots-lyrics', 'lyrics': "[Chorus]\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\n\n[Verse 1]\nI believe in our fate, we don't need to fake\nIt's all we wanna be, watch me freak!\n\n[Verse 2]\nI say we're growing every day, getting stronger in every way\nI'll take you to a place where we shall find our...\n\n[Chorus]\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\nRoots, bloody roots\n\n[Verse 3]\nRain, bring me the strength to get to another day\nAnd all I want to see, set us free\n\n[Bridge]\nWhy can't you see? Can't you feel?\nThis is real!\n[Instrumental Break]\n\n[Verse 4]\nI pray, we don't need to change our ways to be saved\nThat's all we wanna be, watch us freak!\n\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“Roots Bloody Roots” is the first track and single on Sepultura’s &lt;a href="https://genius.com/artists/Ross-robinson" rel="noopener" data-api_path="/artists/53061"&gt;Ross Robinson&lt;/a&gt; produced sixth album, &lt;a href="https://genius.com/albums/Sepultura/Roots" rel="noopener" data-api_path="/albums/125757"&gt;&lt;em&gt;Roots&lt;/em&gt;&lt;/a&gt;. The track is mid-paced groove metal song that features dissonant guitar leads influenced by nu-metal bands such as &lt;a href="https://genius.com/artists/Korn" rel="noopener" data-api_path="/artists/6578"&gt;Korn&lt;/a&gt; (who were also famously produced by Ross Robinson, and &lt;a href="https://www.youtube.com/watch?v=OSp_SV5GFy0" rel="noopener nofollow"&gt;covered the song at Mosters of Rock 2013&lt;/a&gt;) and rhythms influenced by traditional Brazilian folk music. Lyrically, the song focuses on the preservation of Brazilian culture, and getting in touch with one’s “roots”. The song has remained one of Sepultura’s most popular, and has appeared on all of their live albums with the exception of &lt;em&gt;Under Siege&lt;/em&gt;, which was released before Roots.&lt;/p&gt;\n\n&lt;p&gt;Two demo versions of the song have been released: &lt;a href="https://www.youtube.com/watch?v=0O4BlrU7SpQ" rel="noopener nofollow"&gt;one&lt;/a&gt; close to the original and included on the deluxe edition of &lt;em&gt;Roots&lt;/em&gt; and &lt;a href="https://soundcloud.com/glocavalera/original-roots-track-by-max" rel="noopener nofollow"&gt;another&lt;/a&gt; released online by Gloria Cavalera, Max’s wife. The latter version features a noisier, more industrial sound, similar to Max’s industrial metal side-project Nailbomb. Two “Megawatt Mixes” of the song were also released, &lt;a href="https://www.youtube.com/watch?v=toiswqwc0is" rel="noopener nofollow"&gt;the first&lt;/a&gt; showing a larger focus on Brazilian percussion and &lt;a href="https://www.youtube.com/watch?v=uO_VvGj_aeY" rel="noopener nofollow"&gt;the second&lt;/a&gt; being a calmer, more abstract remix.&lt;/p&gt;\n\n&lt;p&gt;A music video for the song was also released. It was directed by Thomas Mignone and filmed in Salvador, Brazil, including shots of the city’s catacombs. The video shows several aspects of Brazilian culture, such as tribal drummers and capoeira fighters. It won Kerrang!’s “Video Of The Year Award” in 1996.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/F_6IjeprfEs?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;FUN FACT&lt;/strong&gt;&lt;br&gt;\nIn the music video, Max Cavalera wears a &lt;a href="https://genius.com/artists/Deftones" rel="noopener" data-api_path="/artists/14195"&gt;Deftones&lt;/a&gt; t-shirt.  On the Deftones\' second album, &lt;em&gt;&lt;a href="https://genius.com/albums/Deftones/Around-the-fur" rel="noopener" data-api_path="/albums/31824"&gt;Around the Fur&lt;/a&gt;&lt;/em&gt;, Max guests on a song called &lt;a href="https://genius.com/Deftones-headup-lyrics" rel="noopener" data-api_path="/songs/187372"&gt;Headup&lt;/a&gt;, where Max and Chino Moreno vent their anger at the death of Max’s stepson Dana (aka D-Low).  Dana’s death and the aftermath was the catalyst behind Max leaving Sepultura.  Chino would later appear on Max’s new band, &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt;’s second album &lt;a href="https://genius.com/albums/Soulfly/Primitive" rel="noopener" data-api_path="/albums/151927"&gt;Primitive&lt;/a&gt;, on a similarly themed song: &lt;a href="https://genius.com/Soulfly-pain-lyrics" rel="noopener" data-api_path="/songs/1400229"&gt;“Pain”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Sepultura', 'url': 'https://genius.com/artists/Sepultura'}, {'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}], 'writers': [{'name': 'Paulo Jr.', 'url': 'https://genius.com/artists/Paulo-jr'}, {'name': 'Andreas Kisser', 'url': 'https://genius.com/artists/Andreas-kisser'}, {'name': 'Igor Cavalera', 'url': 'https://genius.com/artists/Igor-cavalera'}, {'name': 'Max Cavalera', 'url': 'https://genius.com/artists/Max-cavalera'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Godsmack-1000hp-lyrics', 'lyrics': '[Verse 1]\nTime to rewind\nBack to 1995 when we were nothing\nWalking through the streets of Boston no one listening\nNo one caring about the empty rooms we played\nUntil they all showed up one day\nThen we took the stage and everything changed\n\n[Chorus]\nTurn that shit up louder\nMake it all go faster\nPlay it through the witching hour\nTake it to one thousand horsepower\n\n[Verse 2]\nUnder lights now\nPlaying to the masses everything feels right\nTaking state by state by country over night\nLiving in a shell entering every fight\nSeeing millions of people rage\nWhen we take our stage, everybody scream\n\n[Chorus]\nTurn that shit up louder\nMake it all go faster\nPlay it through the witching hour\nTake it to one thousand horsepower\n[Bridge]\nTurn it up one more time\nGet it up get it up, and feel alive\nTurn it up turn it up one more time\nGet it up get it up, and feel alive\nTurn it up turn it up one more time\nGet it up get it up, and feel alive\nTurn it up turn it up one more time\nGet it up get it up, and feel alive! Yeah!\n\n[Chorus]\nTurn that shit up louder\nMake it all go faster\nPlay it through the witching hour\nTake it to one thousand horsepower\nTurn that shit up louder\nMake it all go faster\nPlaying through the witching hour\nTake it to one thousand horsepower', 'annotations': {'description': '&lt;p&gt;This song is the first single released from the album of the same title, “1000hp.” It is the first song on the album.&lt;br&gt;\nSully Erna stated that this song was written in approximately one hour.&lt;/p&gt;\n\n&lt;p&gt;“It’s one of those songs that surprisingly came out and was written from back to front in, like, an hour. I started putting one thing together with the next, and then Shannon Larkin started jumping in and then we arranged the whole song, and literally within an hour, maybe 90 minutes, this whole song was written and it was one of the last songs that we wrote, and it ended up becoming the first single.” -Sully Erna&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'writers': [{'name': 'Robbie Merrill', 'url': 'https://genius.com/artists/Robbie-merrill'}, {'name': 'Tony Rombola', 'url': 'https://genius.com/artists/Tony-rombola'}, {'name': 'Shannon Larkin', 'url': 'https://genius.com/artists/Shannon-larkin'}, {'name': 'Sully Erna', 'url': 'https://genius.com/artists/Sully-erna'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Motorhead-overkill-lyrics', 'lyrics': "[Verse 1]\nOnly way to feel the noise\nIs when it's good and loud\nSo good I can't believe it\nScreaming with the crowd\n\n[Chorus]\nDon't sweat it, we'll get it back to you\nDon't sweat it, we'll get it back to you\nOverkill, overkill\nOverkill\n\n[Verse 2]\nOn your feet you feel the beat\nIt goes straight to your spine\nShake your head, you must be dead\nIf it don't make you fly\n\n[Chorus]\nDon't sweat it, we'll get it back to you\nDon't sweat it, we'll get it back to you\nOverkill, overkill\nOverkill\n\n[Guitar Solo]\n[Verse 3]\nKnow your body's made to move\nYa feel it in your guts\nRock 'n' roll ain't worth the name\nIf it don't make you strut\n\n[Chorus]\nDon't sweat it, we'll get it back to you, hey\nDon't sweat it, we'll get it back to you\nOverkill, overkill\nOverkill", 'annotations': {'description': '&lt;p&gt;This song is about the rush of adrenaline a performer experiences onstage in front of a great crowd.&lt;/p&gt;\n\n&lt;p&gt;Lemmy &lt;a href="http://www.rollingstone.com/music/lists/motorheads-lemmy-my-life-in-15-snarls-20150828/overkill-20150828" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Phil [Taylor] came up with the drum riff, the double-time thing, and then we just fell into it with the bass. We’ve always done a lot of that kind of thing. We played it on Top of the Pops. It was nice to be getting it across to the public, but the thing is, that show was always tacky. I think the audience on the show liked it, but when they’re told to boogie, they boogie, so I don’t know if it’s true they liked it. They’ve stopped making that show, and I don’t miss it much. I know that a lot of metal bands have covered “Overkill,” but I don’t think a lot about our influence. We’re just older [laughs]. It’s nice to get a tribute, but it’s not the end of the world for me. We’re busy writing new stuff.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jimmy Miller', 'url': 'https://genius.com/artists/Jimmy-miller'}], 'writers': [{'name': 'Phil Taylor', 'url': 'https://genius.com/artists/Phil-taylor'}, {'name': 'Eddie Clarke', 'url': 'https://genius.com/artists/Eddie-clarke'}, {'name': 'Lemmy', 'url': 'https://genius.com/artists/Lemmy'}], 'labels': [{'name': 'Bronze Records', 'url': 'https://genius.com/artists/Bronze-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Gojira-stranded-lyrics', 'lyrics': "[Verse 1]\nA growing sickness in the heart\nDefective, lack of control\nThe cure is somewhere in the silence\nBut I'm crushed by the noise inside\n\n[Chorus]\nDon't lock the door on me\nYou'd kill me, face down, dead\nAnother part of me falls for you\n\n[Verse 2]\nAnother day in the dark\nNo, no\nStranded in the night\nStranded in the cold\n\n[Chorus]\nDon't lock the door on me\nYou'd kill me, face down, dead\nAnother part of you gone to waste\nPlease hear me out\nYou kill me, face down, dead\nAnother day in the dark\n\n[Chorus]\nDon't lock the door on me\nYou'd kill me, face down, dead\nAnother part of you gone to waste\nPlease hear me out\nYou kill me, face down, dead\nAnother day in the dark\n[Outro]\nLeave the moment alone\nLeave the moment alone\nLeave the moment alone\nLeave the moment alone", 'annotations': {'description': '&lt;p&gt;The first single released from their album &lt;em&gt;Magma&lt;/em&gt;, Gojira present a very strong and emotional track with “Stranded”, showing a very different yet similar approach to their classic sound.&lt;/p&gt;', 'producers': [{'name': 'Joe Duplantier', 'url': 'https://genius.com/artists/Joe-duplantier'}], 'writers': [{'name': 'Mario Duplantier', 'url': 'https://genius.com/artists/Mario-duplantier'}, {'name': 'Jean-Michel Labadie', 'url': 'https://genius.com/artists/Jean-michel-labadie'}, {'name': 'Christian Andreu', 'url': 'https://genius.com/artists/Christian-andreu'}, {'name': 'Joe Duplantier', 'url': 'https://genius.com/artists/Joe-duplantier'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Ghost-cirice-lyrics', 'lyrics': "[Verse 1: Papa Emeritus III]\nI feel your presence amongst us\nYou cannot hide in the darkness\nCan you hear the rumble?\nCan you hear the rumble that's calling?\nI know your soul is not tainted\nEven though you've been told so\nCan you hear the rumble?\nCan you hear the rumble that's calling?\n\n[Chorus: Papa Emeritus III]\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\n\n[Verse 2: Papa Emeritus III]\nA candle casting a faint glow\nYou and I see eye to eye\nCan you hear the thunder?\nHow can you hear the thunder that's breaking?\nNow there is nothing between us\nFrom now our merge is eternal\nCan't you see that you're lost?\nCan't you see that you're lost without me?\n[Chorus: Papa Emeritus III]\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\n\n[Guitar Solo: Nameless Ghoul (Fire &amp; Aether)]\n\n[Pre-Chorus: Papa Emeritus III]\nCan't you see that you're lost without me?\n\n[Chorus: Papa Emeritus III]\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you!\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you\nI can feel the thunder that's breaking in your heart\nI can see through the scars inside you", 'annotations': {'description': '&lt;p&gt;“Cirice” is the Grammy Award-winning first single off of Ghost’s third album, &lt;em&gt;Meliora&lt;/em&gt;. Old English for “Church,” “Cirice”’s lyrics approach the listener warmly like a pastor, assuring them that they belong and they are accepted. By Satan, of course.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ed9e4e5ee79225f42ce085639e7ffd9a.998x1000x1.jpg" alt="" width="998" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}], 'writers': [{'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}, {'name': 'Tobias Forge', 'url': 'https://genius.com/artists/Tobias-forge'}], 'labels': [{'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}, {'name': 'Loma Vista Recordings', 'url': 'https://genius.com/artists/Loma-vista-recordings'}, {'name': 'Rise Above Records', 'url': 'https://genius.com/artists/Rise-above-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rammstein-du-hast-lyrics', 'lyrics': "[Songtext zu „Du hast“]\n\n[Strophe]\nDu, du hast, du hast mich\nDu, du hast, du hast mich\nDu, du hast, du hast mich\nDu, du hast, du hast mich\n\n[Pre-Refrain]\nDu, du hast, du hast mich, du hast mich\nDu hast mich gefragt, du hast mich gefragt\nDu hast mich gefragt und ich hab' nichts gesagt\n\n[Refrain]\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\n\n[Strophe]\nDu, du hast, du hast mich\nDu, du hast, du hast mich\n[Pre-Refrain]\nDu, du hast, du hast mich, du hast mich\nDu hast mich gefragt, du hast mich gefragt\nDu hast mich gefragt und ich hab' nichts gesagt\n\n[Refrain]\nWillst du bis der Tod euch scheidet\nTreu ihr sein für alle Tage?\n(Ja) Nein\n(Ja) Nein\nWillst du bis zum Tod der Scheide\nSie lieben auch in schlechten Tagen?\n(Ja) Nein\n(Ja) Nein\nWillst du bis der Tod euch scheidet\nTreu ihr sein\n(Ja) Nein\n(Ja) Nein", 'annotations': {'description': '&lt;p&gt;This song is a play on German wedding vows:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;&lt;a href="http://www.seiyaku.com/seiyaku/vows/german.html" rel="noopener nofollow"&gt;Wollen Sie einander lieben und achten und die Treue halten bis dass der Tod euch scheidet?&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Do you want to love and respect each other and to remain faithful until death separates you?&lt;/em&gt;&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;The music video bears resemblance to the movie &lt;em&gt;Reservoir Dogs&lt;/em&gt; directed by Quentin Tarantino. Lindemann &lt;a href="http://herzeleid.com/en/press/1998-06_mtv" rel="noopener nofollow"&gt;acknowledged this&lt;/a&gt; and stated that the six members of Rammstein are big fans:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;KURT: The “Du hast” video seems very similar to &lt;em&gt;Reservoir Dogs&lt;/em&gt;, the film by Quentin Tarantino. Was that an influence on the video, or just coincidental?&lt;/p&gt;\n\n&lt;p&gt;TILL: All six of us are great fans of Tarantino, so we wanted to follow-up on that with our second video. Now we are really big Tarantino fans.&lt;/p&gt;\n&lt;/blockquote&gt;', 'producers': [{'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}, {'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}], 'writers': [{'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'London Records', 'url': 'https://genius.com/artists/London-records'}, {'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}, {'name': 'Slash Records', 'url': 'https://genius.com/artists/Slash-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Mudvayne-dig-lyrics', 'lyrics': "[Intro]\n(No!)\n\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was slowly changing\n\n[Verse 1]\nI would love to beat the face\nOf any motherfucker that's thinkin' they can change me\nWhite knuckles grip pushing through for the gold\nIf you're wantin' a piece of me I broke the mother fuckin' mold\nI'm drowning in your wake\nShit rubbed in my face\nTeething on concrete\nGums bleeding\n\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was slowly changing\n\n[Verse 2]\nI struggle in violated space\nSell out motherfuckers in the biz that try to fuck me\nHang from their T's rated P.G. insight\nI ain't sellin' my soul when there's nothing to buy\nI'm livid in my space\nPissing in my face\nFuck you while you try\nTo fuck me\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was\n\n[Bridge]\nYou ain't fuckin' changing me\nDig, dig, dig, dig\nC'mon, motherfucker, dig\nC'mon, motherfucker, dig\nC'mon, motherfucker, dig\n\nLet me help you tie the rope around your neck\nLet me help to talk you the wrong way off the ledge\nLet me help you hold the Glock against your head\n\nLet me help you tie the rope around your neck\nLet me help to talk you the wrong way off the ledge\nLet me help you hold the Glock against your head\nLet me help to chain the weights onto your legs\n\nGet on the plank, fuck\n\n[Chorus]\nDig, bury me underneath\nEverything that I am rearranging\nDig, bury me underneath\nEverything that I was slowly changing\n[Outro]\nWish you were committing suicide\nSuckin' on a motherfuckin' tailpipe\nDead man walking on a tight rope\nLimbless in the middle of a channel\nBobs away", 'annotations': {'description': '&lt;p&gt;“Dig” is &lt;a href="https://genius.com/artists/Mudvayne" rel="noopener" data-api_path="/artists/67442"&gt;Mudvayne&lt;/a&gt;’s inaugural single, which can be found on their 2000 album, &lt;em&gt;&lt;a href="https://genius.com/albums/Mudvayne/L-d-50" rel="noopener" data-api_path="/albums/49271"&gt;L.D. 50&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;em&gt;Fun Fact:&lt;/em&gt;&lt;/strong&gt; The music video (found below) won the first ever MTV2 award at the &lt;a href="https://www.youtube.com/watch?v=8g4bZJ5_Zzw" rel="noopener nofollow"&gt;2001 VMA’s&lt;/a&gt;.&lt;/p&gt;\n\n&lt;h2&gt;Cover Art&lt;/h2&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e33738890aaa408c5ee77bf7ff7673ed.205x205x1.png" alt="" width="205" height="205" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;h2&gt;Music Video&lt;/h2&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=YIqbdnaPcT8" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=YIqbdnaPcT8&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Garth Richardson', 'url': 'https://genius.com/artists/Garth-richardson'}, {'name': 'Mudvayne', 'url': 'https://genius.com/artists/Mudvayne'}], 'writers': [{'name': 'Matthew McDonough', 'url': 'https://genius.com/artists/Matthew-mcdonough'}, {'name': 'Greg Tribbett', 'url': 'https://genius.com/artists/Greg-tribbett'}, {'name': 'Ryan Martinie', 'url': 'https://genius.com/artists/Ryan-martinie'}, {'name': 'Chad Gray', 'url': 'https://genius.com/artists/Chad-gray'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Deftones-my-own-summer-shove-it-lyrics', 'lyrics': "[Verse 1]\nHey you, big star\nTell me when it's over\n(Cloud)\n\n[Verse 2]\nHey you, big mood\nGuide me to shelter\n'Cause I'm through when the two\nHits the six and it's summer\n(Cloud)\n\n[Pre-Chorus]\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside\n\n[Chorus]\nI think God is moving its tongue\nThere's no crowds in the street and no sun\nIn my own summer\n\n[Verse 2]\nThe shade is a tool, a device, a savior\nSee, I try and look up to the sky\nBut my eyes burn\n(Cloud)\n[Pre-Chorus]\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside\n\n[Chorus]\nI think God is moving its tongue\nThere's no crowd in the streets and no sun\nIn my own summer\n\n[Outro]\n(Come) Shove it, shove it, shove it\n(Shove) Shove it, shove it, shove it\n(The sun) Shove it, shove it, shove it\n(Aside) Shove it aside", 'annotations': {'description': '&lt;p&gt;The first track and lead single from Deftones\' sophomore album &lt;em&gt;&lt;a href="https://genius.com/albums/Deftones/Around-the-fur" rel="noopener" data-api_path="/albums/31824"&gt;Around the Fur&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Chino &lt;a href="http://www.deftonesworld.com/secrets.htm#myownsummer" rel="noopener nofollow"&gt;has said&lt;/a&gt; that the song refers his displeasure with the sun after long nights of recording and it burning his eyes, resulting in him putting tin foil over the windows to block it out.&lt;/p&gt;\n\n&lt;p&gt;However he has also said the song is about how agitated he became whilst touring during summer, the intense heat and crowds of people irritating him.&lt;/p&gt;\n\n&lt;p&gt;The song is one of Deftones\' most famous, despite not charting in the US. It received considerable airplay on MTV and reached #29 in the UK.&lt;/p&gt;', 'producers': [{'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}, {'name': 'Deftones', 'url': 'https://genius.com/artists/Deftones'}], 'writers': [{'name': 'Stephen Carpenter', 'url': 'https://genius.com/artists/Stephen-carpenter'}, {'name': 'Abe Cunningham', 'url': 'https://genius.com/artists/Abe-cunningham'}, {'name': 'Chi Cheng', 'url': 'https://genius.com/artists/Chi-cheng'}, {'name': 'Chino Moreno', 'url': 'https://genius.com/artists/Chino-moreno'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Hatebreed-looking-down-the-barrel-of-today-lyrics', 'lyrics': "[Pre-Chorus]\nOnce I had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nAnd I'm here to fucking pull it\nOnce had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nAnd I'm here to fucking pull it\n\n[Chorus]\nStill here! (Still here!)\nI can't hesitate\nEyes wide open pupils dilate\nStill here! (Right here!)\nSet to detonate\nI see the swarm the scavengers await\n\n[Post-Chorus]\nNo sleep! No rest!\nIf that's what it takes to be the best\nNo sleep! No rest!\nMust stay driven I can't relent\n\n[Verse 1]\nOnce had a knife to my throat\nThey said I'd wind up in the dirt\nI know the ones who doubt me\nAre the ones that really hurt\n[Chorus]\nStill here! (Still here!)\nI can't hesitate\nEyes wide open, pupils dilate\nStill here! (Right here!)\nSet to detonate\nI see the swarm the scavengers await\n\n[Post-Chorus]\nNo sleep! No rest!\nIf that's what it takes to be the best\nNo sleep! No rest!\nMust stay driven, I can't relent\n\n[Verse 2]\nCame from the gutter, just missed the grave\nNow looking down the barrel of today\nStart from nothing, stop at nothing, hell-bent\nNever put myself in that position again\nNow I'm looking down the barrel of today!\n\n[Bridge]\nOnce had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nI'll fucking pull it!\n[Pre-Chorus]\nOnce I had a shotgun to my head\nThey said I wasn't worth the bullets\nNow the world is my trigger\nAnd I'm gonna fucking pull it\n\n[Chorus]\nNo sleep! No rest!\nMust do what it takes to be the best\nNo sleep! No rest!\nDo anything that it takes to be the best!", 'annotations': {'description': '', 'producers': [{'name': 'Chris “Zeuss” Harris', 'url': 'https://genius.com/artists/Chris-zeuss-harris'}], 'writers': [{'name': 'Chris Beattie', 'url': 'https://genius.com/artists/Chris-beattie'}, {'name': 'Matt Byrne', 'url': 'https://genius.com/artists/Matt-byrne'}, {'name': 'Wayne Lozinak', 'url': 'https://genius.com/artists/Wayne-lozinak'}, {'name': 'Jasta', 'url': 'https://genius.com/artists/Jasta'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Mastodon-blood-and-thunder-lyrics', 'lyrics': '[Verse 1: Troy Sanders]\nI think that someone is trying to kill me\nInfecting my blood and destroying my mind\nNo man of the flesh could ever stop me\nThe fight for this fish is a fight to the death\n\n[Chorus]\nWhite whale\nHoly grail\nWhite whale\nHoly grail\n\n[Verse 2: Troy Sanders]\nWhat remorseless emperor commands me?\nI no longer govern my soul\nI am completely immersed in darkness\nAs I turn my body away from the sun\n\n[Chorus]\nWhite whale\nHoly grail\nWhite whale\nHoly grail\n[Bridge: Neil Fallon]\nSplit your lungs with blood and thunder\nWhen you see the white whale\nBreak your backs and crack your oars, men\nIf you wish to prevail\nThis ivory leg is what propels me\nHarpoons thrust in the sky\nAim directly for his crooked brow\nAnd look him straight in the eye\n[Chorus]\nWhite whale\nHoly grail\nWhite whale\nHoly grail', 'annotations': {'description': '&lt;p&gt;Mastodon’s album Leviathan is a concept album  based upon the great American novel &lt;a href="https://genius.com/albums/Herman-melville/Moby-dick" rel="noopener" data-api_path="/albums/19489"&gt;Moby-Dick&lt;/a&gt;, by Herman Melville. “Blood and Thunder” deals primarily with Captain Ahab’s monomaniac obsession with finding and slaying the “white whale,” which is a quintessential &lt;a href="https://genius.com/1572315" rel="noopener" data-api_path="/referents/1572315"&gt;motif&lt;/a&gt; in the story.&lt;/p&gt;', 'producers': [{'name': 'Matt Bayles', 'url': 'https://genius.com/artists/Matt-bayles'}, {'name': 'Mastodon', 'url': 'https://genius.com/artists/Mastodon'}], 'writers': [{'name': 'Brent Hinds', 'url': 'https://genius.com/artists/Brent-hinds'}, {'name': 'Troy Sanders', 'url': 'https://genius.com/artists/Troy-sanders'}, {'name': 'Brann Dailor', 'url': 'https://genius.com/artists/Brann-dailor'}, {'name': 'Bill Kelliher', 'url': 'https://genius.com/artists/Bill-kelliher'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Marilyn-manson-the-beautiful-people-lyrics', 'lyrics': "[Intro]\nWe would swoop down on the town\nKill everyone that wasn't beautiful\n\n[Verse 1]\nAnd I don't want you and I don't need you\nDon't bother to resist, or I'll beat you\nIt's not your fault that you're always wrong\nThe weak ones are there to justify the strong\nThe beautiful people, the beautiful people\nIt's all relative to the size of your steeple\nYou can't see the forest for the trees\nAnd you can't smell your own shit on your knees\n\n[Pre-Chorus]\nThere's no time to discriminate\nHate every motherfucker that's in your way\n\n[Chorus]\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\n(Ah, ah)\n\n[Verse 2]\nThe worms will live in every host\nIt's hard to pick which one they hate the most\nThe horrible people, the horrible people\nIt's all anatomic as the size of your steeple\nCapitalism has made it this way\nOld-fashioned fascism will take it away\n[Chorus]\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\n\n[Pre-Chorus]\nThere's no time to discriminate\nHate every motherfucker that's in your way\n\n[Bridge]\n(Hey, hey, hey, hey, hey, hey, hey, hey)\nThe beautiful people, the beautiful people (Ah)\nThe beautiful people, the beautiful people (Ah)\nThe beautiful people, the beautiful people (Ah)\nThe beautiful people, the beautiful people (Ah)\n\n[Chorus]\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\nHey, you, what do you see?\nSomething beautiful or something free?\nHey, you, are you trying to be mean?\nIf you live with apes, man, it's hard to be clean\n[Outro]\nThe beautiful people, the beautiful people\nThe beautiful people, the beautiful people\nThe beautiful people, the beautiful people\nThe beautiful people, the beautiful people", 'annotations': {'description': '&lt;p&gt;Marilyn Manson’s first original hit after the cover of “Sweet Dreams.” The song is preceded with a few seconds of backward-guitar feedback and electronic noise. It includes a heavily distorted spoken sample by Tex Watson, declaring “We would swoop down on the town and kill everyone that wasn’t beautiful.”&lt;/p&gt;\n\n&lt;p&gt;Lyrically, it is intertwined with 1996’s &lt;a href="https://genius.com/albums/Marilyn-manson/Antichrist-superstar" rel="noopener" data-api_path="/albums/37109"&gt;&lt;em&gt;Antichrist Superstar&lt;/em&gt;&lt;/a&gt; overarching theme, a semi-narrative examination of the Nietzschean Übermensch. Within this context, “The Beautiful People” deals explicitly with the destructive manifestation of the Will to Power, while also exploring Nietzsche’s view of master-slave morality, particularly the concept’s connection with Social Darwinism and its relation to various political and economic systems such as capitalism and fascism.&lt;/p&gt;', 'producers': [{'name': 'Sean Beavan', 'url': 'https://genius.com/artists/Sean-beavan'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Dave Ogilvie', 'url': 'https://genius.com/artists/Dave-ogilvie'}], 'writers': [{'name': 'Jeordie White', 'url': 'https://genius.com/artists/Jeordie-white'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rammstein-sonne-lyrics', 'lyrics': "[Songtext zu „Sonne“]\n\n[Intro]\nEins, zwei, drei, vier, fünf, sechs, sieben, acht, neun, aus\n\n[Strophe 1]\nAlle warten auf das Licht\nFürchtet euch, fürchtet euch nicht\nDie Sonne scheint mir aus den Augen\nSie wird heut Nacht nicht untergeh'n\nUnd die Welt zählt laut bis zehn\n\n[Refrain]\nEins, hier kommt die Sonne\nZwei, hier kommt die Sonne\nDrei, sie ist der hellste Stern von allen\nVier, hier kommt die Sonne\n\n[Strophe 2]\nDie Sonne scheint mir aus den Händen\nKann verbrennen, kann euch blenden\nWenn sie aus den Fäusten bricht\nLegt sich heiß auf das Gesicht\nSie wird heut Nacht nicht untergeh'n\nUnd die Welt zählt laut bis zehn\n[Refrain]\nEins, hier kommt die Sonne\nZwei, hier kommt die Sonne\nDrei, sie ist der hellste Stern von allen\nVier, hier kommt die Sonne\nFünf, hier kommt die Sonne\nSechs, hier kommt die Sonne\nSieben, sie ist der hellste Stern von allen\nAcht, Neun, hier kommt die Sonne\n\n[Strophe 3]\nDie Sonne scheint mir aus den Händen\nKann verbrennen, kann dich blenden\nWenn sie aus den Fäusten bricht\nLegt sich heiß auf dein Gesicht\nLegt sich schmerzend auf die Brust\nDas Gleichgewicht wird zum Verlust\nLässt dich hart zu Boden gehen\nUnd die Welt zählt laut bis zehn\n\n[Refrain]\nEins, hier kommt die Sonne\nZwei, hier kommt die Sonne\nDrei, sie ist der hellste Stern von allen\nVier, und wird nie vom Himmel fallen\nFünf, hier kommt die Sonne\nSechs, hier kommt die Sonne\nSieben, sie ist der hellste Stern von allen\nAcht, Neun, hier kommt die Sonne\nAus!", 'annotations': {'description': '&lt;p&gt;“Sonne” is a track from Rammstein’s 2001 album &lt;em&gt;Mutter&lt;/em&gt;, though was released as a single beforehand. &lt;em&gt;Sonne&lt;/em&gt; also appears on the compilation album &lt;em&gt;Made in Germany: 1995-2011&lt;/em&gt;, and the  &lt;em&gt;Völkerball: Live in Nimes&lt;/em&gt; CD.&lt;/p&gt;\n\n&lt;p&gt;The track’s working name was &lt;em&gt;Klitschko&lt;/em&gt;, and it was &lt;a href="http://herzeleid.com/en/press/2000-09_hammer" rel="noopener nofollow"&gt;intended for boxer Vitali Klitschko&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Jacob Hellner', 'url': 'https://genius.com/artists/Jacob-hellner'}, {'name': 'Rammstein', 'url': 'https://genius.com/artists/Rammstein'}], 'writers': [{'name': 'Oliver Riedel', 'url': 'https://genius.com/artists/Oliver-riedel'}, {'name': 'Paul Landers', 'url': 'https://genius.com/artists/Paul-landers'}, {'name': 'Christian Lorenz', 'url': 'https://genius.com/artists/Christian-lorenz'}, {'name': 'Christoph Schneider', 'url': 'https://genius.com/artists/Christoph-schneider'}, {'name': 'Richard Z. Kruspe', 'url': 'https://genius.com/artists/Richard-z-kruspe'}, {'name': 'Till Lindemann', 'url': 'https://genius.com/artists/Till-lindemann'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Motor Music', 'url': 'https://genius.com/artists/Motor-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Killswitch-engage-my-curse-lyrics', 'lyrics': '[Verse 1]\nI watched you walk away\nHopeless, with nothing to say\nI strain my eyes\nHoping to see you again\n\n[Chorus]\nThis is my curse (The longing)\nThis is my curse (Time)\nThis is my curse (The yearning)\nThis is my curse\nThere is love burning to find you\nWill you wait for me?\nWill you be there?\n\n[Pre-Chorus]\nYour silence haunts me\nBut still I hunger for you\n\n[Chorus]\nThis is my curse (The wanting)\nThis is my curse (Time)\nThis is my curse (The healing)\nThis is my curse\nThere is love burning to find you\nWill you wait for me?\n[Bridge]\nAnd still I want\nAnd still I ache\nBut still I wait\n\n[Verse 2]\nTo see you again\nDying, inside, these walls\nDying, inside, these walls\nAnd I see your face in these tears\nIn these tears\nAnd I see your face\n\n[Outro]\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love\nThere is love', 'annotations': {'description': '&lt;p&gt;When asked about the lyrics for this song in a &lt;a href="https://www.songfacts.com/blog/interviews/adam-dutkiewicz-of-killswitch-engage" rel="noopener nofollow"&gt;SongFacts interview&lt;/a&gt;, Adam said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That’s just about chicks. A lot of Howard’s songs are about girls. It’s always a topic guys can relate to.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;And since Howard has told &lt;a href="https://outburn.com/interviews/light-the-torch-interview-with-howard-jones/" rel="noopener nofollow"&gt;Outburn in an interview&lt;/a&gt; that he does not want us to know what he’s thinking of when writing song lyrics, that’s all there is to this song.&lt;/p&gt;\n\n&lt;p&gt;“My Curse” is one of the band’s most famous songs.&lt;br&gt;\nIt is also featured in the popular game: &lt;a href="https://en.wikipedia.org/wiki/Guitar_Hero_III:_Legends_of_Rock" rel="noopener nofollow"&gt;Guitar Hero III – Legends of Rock&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}, {'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}], 'writers': [{'name': 'Killswitch Engage', 'url': 'https://genius.com/artists/Killswitch-engage'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Trivium-strife-lyrics', 'lyrics': "[Verse 1]\nMy anxiety's clawing\nOut from deep within me\nIt burns within as my throat\nBegins to cauterize\nThis negativity's leeching\nAny shred of composure\nRationale has decayed and left\nMe bound in madness\n\n[Pre-Chorus]\nI reach for calm\nI starve for a balance unknown\nThis burden tortures me deep in my soul\n\n[Chorus]\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\n\n[Verse 2]\nHow I yearn for the silence\nFor an end to the voices\nThe calamity grows and the\nDeafness leads to disarray\nGuilt buries me alive\nIn a coffin—criticized\nI shouldered the blame and dug\nThis hole for me to lay in\n\n[Pre-Chorus]\nI reach for calm\nI starve for a balance unknown\nThis burden tortures me deep in my soul\n\n[Chorus]\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\n\n[Interlude]\nI... I... I... I... I... I... I... I...\n\n[Solo: Beaulieu | Solo: Heafy]\n\n[Chorus]\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way\nI've found that strife won't make the bleeding stop\nNor will it take away the pain\nI feel like this search is all in vain\nAnd I struggle to find my way", 'annotations': {'description': '', 'producers': [{'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Nick Augusto', 'url': 'https://genius.com/artists/Nick-augusto'}, {'name': 'Paolo Gregoletto', 'url': 'https://genius.com/artists/Paolo-gregoletto'}, {'name': 'Corey Beaulieu', 'url': 'https://genius.com/artists/Corey-beaulieu'}, {'name': 'Matthew K. Heafy', 'url': 'https://genius.com/artists/Matthew-k-heafy'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Slipknot-psychosocial-lyrics', 'lyrics': "[Intro: Corey Taylor]\nOoh, yeah\n\n[Verse 1: Corey Taylor]\nI did my time, and I want out\nSo effusive, fade, it doesn't cut, the soul is not so vibrant\nThe reckoning, the sickening\nPackaging subversion, pseudo-sacrosanct perversion\nGo drill your deserts, go dig your graves\nThen fill your mouth with all the money you will save\nSinking in, getting smaller again\nI'm done, it has begun, I'm not the only one\n\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Post-Chorus: Clown, Chris Fehn, &amp; Paul Gray]\nPsychosocial, psychosocial, psychosocial\nPsychosocial, psychosocial, psychosocial\n\n[Verse 2: Corey Taylor]\nThere are cracks in the road we laid\nBut where the temple fell, the secrets have gone mad\nThis is nothing new, but when we killed it all\nThe hate was all we had\nWho needs another mess? We could start over\nJust look me in the eyes and say I'm wrong\nNow there's only emptiness, venomous, insipid\nI think we're done, I'm not the only one\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Post-Chorus: Clown, Chris Fehn, &amp; Paul Gray]\nPsychosocial, psychosocial, psychosocial\nPsychosocial, psychosocial, psychosocial\n\n[Guitar Solo: Mick Thomson]\n\n[Bridge: Corey Taylor, Clown, Chris Fehn, &amp; Paul Gray]\nThe limits of the dead\nThe limits of the dead\nThe limits of the dead\nThe limits of the dead\n\n[Verse 3: Corey Taylor]\nFake anti-fascist lie (Psychosocial)\nI tried to tell you, but (Psychosocial)\nYour purple hearts are giving out! (Psychosocial)\nCan't stop a killing idea (Psychosocial)\nIf it's hunting season (Psychosocial)\nIs this what you want? (Psychosocial)\nI'm not the only one\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Chorus: Corey Taylor]\nAnd the rain will kill us all\nThrow ourselves against the wall\nBut no one else can see\nThe preservation of the martyr in me\n\n[Outro: Corey Taylor]\nThe limits of the dead\nThe limits of the dead", 'annotations': {'description': '&lt;p&gt;“Psychosocial” is a song about hate for life and broken society. It’s the second single from &lt;em&gt;All Hope is Gone&lt;/em&gt; and was nominated for the 2009 Grammy for Best Metal Performance, losing to Metallica’s “My Apocalypse.”&lt;/p&gt;\n\n&lt;p&gt;In the video for “Psychosocial,” Slipknot burned the “purgatory masks” that they had revealed for during the promotion of the &lt;em&gt;All Hope is Gone&lt;/em&gt; album in 2008.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That was a Shawn Crahan idea. Those are Mardi Gras heads of our faces from the death masks we wore in the ‘Vermillion’ video. It’s just a teaser, but it’s totally genius. When I first heard about it, I was like, ‘Are you fuckin’ kidding me?’ But then I saw the results, and I was like, ‘I totally get it!’ He’s got a good vision, man; he’s a great artist.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—Joey Jordison&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;More or less, we have these giant masks that we’re wearing, called ‘purgatory masks.’ They’re like giant death masks, and they represent ego.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—Shawn Crahan&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Drowning-pool-bodies-lyrics', 'lyrics': "[Intro]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the... floor!\n\n[Verse 1]\nBeaten why for (Why for)\nCan't take much more\n(Here we go, here we go, here we go now)\n\n[Pre-Chorus]\nOne, nothing wrong with me\nTwo, nothing wrong with me\nThree, nothing wrong with me\nFour, nothing wrong with me\nOne, something's got to give\nTwo, something's got to give\nThree, something's got to give\nNow!\n\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the-\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the-\n[Verse 2]\nNow, push me again (Again)\nThis is the end\n(Here we go, here we go, here we go now)\n\n[Pre-Chorus]\nOne, nothing wrong with me\nTwo, nothing wrong with me\nThree, nothing wrong with me\nFour, nothing wrong with me\nOne, something's got to give\nTwo, something's got to give\nThree, something's got to give\nNow!\n\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the-\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\n\n[Bridge]\nSkin against skin, blood and bone\nYou're all by yourself, but you're not alone\nYou wanted in and now you're here\nDriven by hate, consumed by fear\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\n\n[Pre-Chorus]\nOne, nothing wrong with me\nTwo, nothing wrong with me\nThree, nothing wrong with me\nFour, nothing wrong with me\nOne, something's got to give\nTwo, something's got to give\nThree, something's got to give\nNow!\n\n[Chorus]\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\nLet the bodies hit the floor\n\n[Outro]\nHey, drop! Hey, drop!\nHey, drop!  Hey, drop!", 'annotations': {'description': '&lt;p&gt;“Bodies” is one of the tracks on the Drowning Pool album &lt;em&gt;Sinner&lt;/em&gt;, and is their most successful single. According to Dave Williams, the song is about mosh pits in concerts.&lt;/p&gt;', 'producers': [{'name': 'Jay Baumgardner', 'url': 'https://genius.com/artists/Jay-baumgardner'}], 'writers': [{'name': 'Dave Williams (Singer)', 'url': 'https://genius.com/artists/Dave-williams-singer'}, {'name': 'C.J. Pierce', 'url': 'https://genius.com/artists/Cj-pierce'}, {'name': 'Mike Luce', 'url': 'https://genius.com/artists/Mike-luce'}, {'name': 'Stevie Benton', 'url': 'https://genius.com/artists/Stevie-benton'}], 'labels': [{'name': 'The Bicycle Music Company', 'url': 'https://genius.com/artists/The-bicycle-music-company'}, {'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-stricken-lyrics', 'lyrics': "[Verse 1]\nYou walk on like a woman in suffering\nWon't even bother now to tell me why\nYou come alone, letting all of us savor the moment\nLeaving me broken another time\nYou come on like a blood stained hurricane\nLeave me alone, let me be this time\nYou carry on like a holy man pushing redemption\nI don't want to mention\n\n[Chorus]\nThe reason I know\nThat I am stricken and can't let you go\nWhen the heart is cold, there's no hope, and we know\nThat I am crippled by all that you've done\nInto the abyss will I run\n\n[Verse 2]\nYou don't know what your power has done to me\nI want to know if I'll heal inside\nI can't go on with a holocaust about to happen\nSeeing you laughing another time\nYou'll never know why your face has haunted me\nMy very soul has to bleed this time\nAnother hole in the wall of my inner defenses\nLeaving me breathless\n[Chorus]\nThe reason I know\nThat I am stricken and can't let you go\nWhen the heart is cold, there's no hope, and we know\nThat I am crippled by all that you've done\nInto the abyss will I run\nInto the abyss will I run!\n\n[Guitar Solo]\n\n[Verse 1]\nYou walk on like a woman in suffering\nWon't even bother now to tell me why\nYou come alone, letting all of us savor the moment\nLeaving me broken another time\nYou come on like a blood stained hurricane\nLeave me alone, let me be this time\nYou carry on like a holy man pushing redemption\nDon't want to mention\n\n[Chorus]\nThe reason I know\nThat I am stricken and can't let you go\nWhen the heart is cold, there's no hope, and we know\nThat I am crippled by all that you've done\nInto the abyss will I run\n[Outro]\nInto the abyss will I run\nI can't let you go\nYes, I am stricken and can't let you go", 'annotations': {'description': '&lt;p&gt;This song is about a girl that in the beginning, loved the protagonist, yet over time she started to grow colder and more distant, influencing him too. He tries to hold the relationship, because of the sentiments he feels towards her, yet he knows that she only brings him closer to the “abyss”, meaning depression.&lt;/p&gt;', 'producers': [{'name': 'John “Jonny K” Karkazis', 'url': 'https://genius.com/artists/John-jonny-k-karkazis'}], 'writers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rob-zombie-dragula-lyrics', 'lyrics': "[Sample]\nSuperstition, fear, and jealousy\n\n[Verse 1]\nDead I am the one, exterminatin' son\nSlippin' through the trees, stranglin' the breeze\nDead I am the sky, watchin' angels cry\nWhile they slowly turn, conquering the worm\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n\n[Verse 2]\nDead I am the pool, spreading from the fool\nWeak and want you need, nowhere as you bleed\nDead I am the rat, feast upon the cat\nTender is the fur, dying as you purr\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n[Hook]\nDo it baby, do it baby\nDo it baby, do it baby\nBurn like an animal\n\n[Verse 3]\nDead I am the life, dig into the skin\nKnuckle, crack the bone, 21 to win\nDead I am the dog, hound of hell, you cry\nDevil on your back, I can never die\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n\n[Hook]\nDo it baby, do it baby\nDo it baby, do it baby\nBurn like an animal\n\n[Chorus]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula\n[Outro]\nDig through the ditches\nAnd burn through the witches\nI slam in the back of my Dragula", 'annotations': {'description': '&lt;p&gt;Zombie told Billboard magazine that the title came from “the name of Grandpa Munster’s dragster on the old TV show.” He goes on to say that it “was a classic show with great comic characters. Strangely enough, ‘Dragula’ was one of the last songs finished for the record. It fell together really fast and worked, but it could just as easily not have been on the record.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://en.wikipedia.org/wiki/Dragula_%28song" rel="noopener nofollow"&gt;Source&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Also was in the movie &lt;a href="http://en.wikipedia.org/wiki/The_Matrix" rel="noopener nofollow"&gt;The Matrix&lt;/a&gt;, during the &lt;a href="https://www.youtube.com/watch?v=FGKcWsYahAg" rel="noopener nofollow"&gt;club scene&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single peaked at #6 on the Billboard Mainstream Rock Charts on November 14th, 1998 and #14 on the Billboard Bubbling Hot Under 100 on December 19th, 1998.&lt;/p&gt;', 'producers': [{'name': 'Scott Humphrey', 'url': 'https://genius.com/artists/Scott-humphrey'}], 'writers': [{'name': 'Scott Humphrey', 'url': 'https://genius.com/artists/Scott-humphrey'}, {'name': 'Rob Zombie', 'url': 'https://genius.com/artists/Rob-zombie'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bullet-for-my-valentine-you-want-a-battle-heres-a-war-lyrics', 'lyrics': "[Intro]\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n\n[Verse 1]\nDown eyes of shame\nMade to feel dead again\nYour words cut deep\nYour lies are fueled by your need for deceit\nToo scared to speak\nYou're only alive when you torture the weak\nNow hear me roar\n\n[Chorus]\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\n\n[Verse 2]\nDon't be afraid\nNo remorse, no restraint\nThese scars won't heal\nNow you're the victim I'm making you feel\nLike you are me\nI need you to know what you've done can you hear?\nCan you hear me roar?\n[Chorus]\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\nYou want a battle\nHere's a war\nI will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n\n[Bridge]\nYou want a battle, here's a war\nYou want a battle, here's a war!\n\nDon't suffer in your silence\nKnow you are never alone\nDon't suffer in your silence\nKnow you are never alone\n\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\n[Chorus]\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war\nWe will not take this anymore\nThese words will never be ignored\nYou want a battle\nHere's a war!\n\n[Outro]\nHere's a war!", 'annotations': {'description': '&lt;p&gt;“You Want a Battle? (Here’s a War)” is the second new single from Bullet For My Valentine’s fifth album &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Vocalist Matt Tuck revealed “You Want a Battle (Here’s a War)” is about being bullied — something that he experienced a lot while at school because he “was not a really cool kid. I was into heavy metal music and had long hair.”&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://www.blabbermouth.net/news/bullet-for-my-valentines-matt-tuck-says-fans-wanted-a-more-pissed-off-band-on-new-album/" rel="noopener nofollow"&gt;Bullying happens to everybody, and it’s not a nice place to be when that happens. It took me a long time to actually pluck up the courage mentally and physically to stand up for myself, so it was kind of momentous moment for me. I had lost all these battles in my young life, and all of a sudden I was growing into a young man. I was able to stand up for myself and defend myself, and the band actually became something big and special and just like the biggest ‘fuck you\' to everyone. That’s what that song’s about, really. It’s about going through hard times and coming through the other side."&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/49f9869d10351ad13ed501ed6284f3fa.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Carl Bown', 'url': 'https://genius.com/artists/Carl-bown'}, {'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}], 'writers': [{'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-blind-lyrics', 'lyrics': "[Intro: Jonathan Davis]\nAre you ready?\n\n[Verse: Jonathan Davis]\nThis place inside my mind\nA place I like to hide\nYou don't know the chances\nWhat if I should die?\nA place inside my brain\nAnother kind of pain\nYou don't know the chances\nI'm so blind\nBlind\nBlind\n\nAnother place I find\nTo escape the pain inside\nYou don't know the chances\nWhat if I should die?\nA place inside my brain\nAnother kind of pain\nYou don't know the chances\nI'm so blind\nBlind\nBlind\n[Bridge: Jonathan Davis]\nDeeper, and deeper, and deeper\nAs I journey to live a life that seems to be\nA lost reality\nThat can never find a way to reach my inner...\nSelf-esteem is low\nHow deep can I go\nIn the ground that I lay\nIf I don't find a way to\nSee through the gray that clouds my mind\nThis time I look to see what's between the lines\n\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\n\n[Chorus: Jonathan Davis &amp; Head]\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind (I can see I'm going)\nI can see, I can see I'm going blind (going blind)\nI can see, I can see I'm going blind\nI can see, I can see I'm going blind!\n[Outro: Jonathan Davis]\nI'm blind!\nI'm blind!\nI'm blind!\nI'm blind!", 'annotations': {'description': '&lt;p&gt;“Blind” is Korn’s first single and music video. It was originally written and performed by Jonathan Davis\' previous band &lt;a href="https://genius.com/Sexart-blind-lyrics" rel="noopener" data-api_path="/songs/3744306"&gt;Sexart&lt;/a&gt;, but underwent a number of changes before being recorded by Korn for their &lt;a href="https://www.discogs.com/Korn-Demos/master/899602" rel="noopener nofollow"&gt;1993 demo&lt;/a&gt; &lt;em&gt;Neidermeyer’s Mind&lt;/em&gt; and even more changes before appearing on the band’s 1994 self-titled debut album.  It was &lt;a href="https://www.discogs.com/Korn-Clown-Blind/release/2551922" rel="noopener nofollow"&gt;released along with&lt;/a&gt; “Clown” before the album came out, and then re-released as &lt;a href="https://www.discogs.com/Korn-Blind/master/58686" rel="noopener nofollow"&gt;its own single&lt;/a&gt; in 1995, the same year the song saw some exposure on MTV in Episode 43 of the fifth season of &lt;em&gt;Beavis &amp;amp; Butthead&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Originally credited only to the members of Korn, on &lt;a href="https://www.discogs.com/Korn-Greatest-Hits-Vol-1/release/586440" rel="noopener nofollow"&gt;later releases&lt;/a&gt; Sexart members Dennis Shinn and Ryan Shuck are also given songwriting credits.&lt;/p&gt;', 'producers': [{'name': 'Ross Robinson', 'url': 'https://genius.com/artists/Ross-robinson'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Dennis Shinn', 'url': 'https://genius.com/artists/Dennis-shinn'}, {'name': 'Ryan Shuck', 'url': 'https://genius.com/artists/Ryan-shuck'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}], 'labels': [{'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pantera-walk-lyrics', 'lyrics': "[Verse 1]\nCan't you see I'm easily bothered by persistence?\nOne step from lashing out at you\nYou want in to get under my skin and call yourself a friend\nI've got more friends like you, what do I do?\n\n[Pre-Chorus]\nIs there no standard anymore?\nWhat it takes, who I am, where I've been, belong\nYou can't be something you're not\nBe yourself by yourself, stay away from me\nA lesson learned in life\nKnown from the dawn of time\n\n[Chorus]\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nAre you talkin' to me?\n\n[Verse 2]\nRun your mouth when I'm not around, it's easy to achieve\nYou cry to weak friends that sympathize\nCan you hear the violins playing your song?\nThose same friends tell me your every word\n[Pre-Chorus]\nIs there no standard anymore?\nWhat it takes, who I am, where I've been, belong\nYou can't be something you're not\nBe yourself by yourself, stay away from me\nA lesson learned in life\nKnown from the dawn of time\n\n[Chorus]\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nAre you talkin' to me?\nNo way, punk\n\n[Guitar Solo]\n\n[Chorus]\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nRespect, walk\nWhat did you say?\nRespect, walk\nAre you talkin' to me?\nAre you talkin' to me?\nWalk on home, boy", 'annotations': {'description': '&lt;p&gt;“Walk” is the first single from Pantera’s “Vulgar Display of Power” album, and endures as one of their most recognizable and celebrated songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c30371edd884537842bf953ead7ab8c4.220x220x1.jpg" alt="" width="220" height="220" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;“Walk’s” signature guitar riff is played in the unusual time signature of 12/8.&lt;/p&gt;\n\n&lt;p&gt;The blue-tinted image of Pantera frontman Phil Anselmo featured on the single’s album cover is  taken from the music video shot for their song “Mouth For War” from the same album.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?v=AkFqg5wAuFk" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=AkFqg5wAuFk&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}, {'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Dimebag Darrell', 'url': 'https://genius.com/artists/Dimebag-darrell'}, {'name': 'Rex Brown', 'url': 'https://genius.com/artists/Rex-brown'}, {'name': 'Phil Anselmo', 'url': 'https://genius.com/artists/Phil-anselmo'}, {'name': 'Vinnie Paul', 'url': 'https://genius.com/artists/Vinnie-paul'}], 'labels': [{'name': 'ATCO Records', 'url': 'https://genius.com/artists/Atco-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/System-of-a-down-byob-lyrics', 'lyrics': '[Intro: Daron Malakian]\nYou!\nWhy do they always send the poor?\n\n[Verse 1: Serj Tankian]\nBarbarisms by Barbaras with pointed heels\nVictorious Victoria’s kneel for brand new spanking deals\nMarching forward, hypocritic and hypnotic computers\nYou depend on our protection, yet you feed us lies from the table cloth\n\n[Chorus: Serj Tankian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\n\n[Verse 2: Serj Tankian]\nKneeling roses disappearing into Moses\' dry mouth\nBreaking into Fort Knox, stealing our intentions\nHangars sitting dripped in oil, crying, "Freedom"\nHanded to obsoletion, still, you feed us lies from the table cloth\n\n[Chorus: Serj Tankian with Daron Malakian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\n[Bridge: Daron Malakian]\nBlast off, it\'s party time\nAnd we don\'t live in a fascist nation\nBlast off, it\'s party time\nAnd where the fuck are you?\n\n[Refrain: Daron Malakian with Serj Tankian]\nWhere the fuck are you?\nWhere the fuck are you?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy they always send the poor?\n\n[Verse 2: Serj Tankian]\nKneeling roses disappearing into Moses\' dry mouth\nBreaking into Fort Knox, stealing our intentions\nHangars sitting dripped in oil, crying, "Freedom"\nHanded to obsoletion, still, you feed us lies from the table cloth\n\n[Chorus: Serj Tankian with Daron Malakian]\nLa, la, la, la, la, la, la, la, la, la, ooh-ooh\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sunshine\nEverybody\'s going to the party, have a real good time\nDancing in the desert, blowing up the sun\n[Refrain: Serj Tankian &amp; Daron Malakian]\nWhere the fuck are you?\nWhere the fuck are you?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy don\'t presidents fight the war?\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\n\n[Outro: Serj Tankian &amp; Daron Malakian]\nWhy do they always send the poor?\nWhy do they always send the poor?\nWhy do they always send the poor?\nThey always send the poor, they always send the poor', 'annotations': {'description': '&lt;p&gt;“B.Y.O.B.” (“Bring Your Own Bombs”) is the first single released from American heavy metal band System of a Down’s fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;Mezmerize&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Like their earlier song &lt;a href="https://genius.com/System-of-a-down-boom-lyrics" rel="noopener" data-api_path="/songs/151431"&gt;“Boom!,”&lt;/a&gt; it was written in protest against the Iraq War.&lt;/p&gt;\n\n&lt;p&gt;B.Y.O.B. means “Bring Your Own Bombs,” as opposed to the common interpretation “Bring Your Own Booze,” referring to the Iraq War as one big party for the United States, where instead of Jägerbombs they drop real ones.&lt;/p&gt;\n\n&lt;p&gt;It made onto numerous “Top 40” playlists around the globe, including Germany, New Zealand, Australia and the United States, and occasionally made it to #1 on other music shows.&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-falling-away-from-me-lyrics', 'lyrics': '[Verse 1]\nHey, I\'m feeling tired\nMy time has gone today\nYou flirt with suicide\nSometimes that\'s okay\nDo what others say\nI\'m here standing hollow\nFalling away from me\nFalling away from me\n\n[Verse 2]\nDay is here fading\nThat\'s when I\'m insane\nI flirt with suicide\nSometimes kill the pain\nI can\'t always say\n"It\'s gonna be better tomorrow"\nFalling away from me\nFalling away from me\n\n[Chorus]\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!\n[Break]\nFalling away from me\nIt\'s spinning round and round\nFalling away from me\nIt\'s lost and can\'t be found\nFalling away from me\nIt\'s spinning round and round\nFalling away from me\nThrow it down\n\n[Chorus]\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!\n\n[Bridge]\nTwisting me!\nThey won\'t go away!\nSo I pray!\nGo away!\nLife\'s falling away from me\nIt\'s falling away from me\nLife\'s falling away from me\nFuck!\n[Chorus]\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!\nBeating me down!\nBeating me, beating me\nDown, down\nInto the ground!\nScreaming some sound!\nBeating me, beating me\nDown, down\nInto the ground!', 'annotations': {'description': '&lt;p&gt;“Falling Away from Me” is the second track, and lead single, off of Korn’s fourth album, &lt;em&gt;Issues&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song deals with domestic abuse and the effects it has on the mental state of its victims, such as suicidal ideation and anxiety over the situation.&lt;/p&gt;\n\n&lt;p&gt;The song initially premiered on the South Park episode &lt;a href="https://www.imdb.com/title/tt0705939/" rel="noopener nofollow"&gt;“Korn’s Groovy Pirate Ghost Mystery”&lt;/a&gt; on October 27th, 1999 and was released to radio the next day. As the song grew in popularity, it was being uploaded to file-sharing clients under the false name “Beating Me Down.”&lt;/p&gt;\n\n&lt;p&gt;The single was a commercial success, &lt;a href="https://www.billboard.com/music/korn/chart-history/HBU/song/67136" rel="noopener nofollow"&gt;peaking&lt;/a&gt; on the Bubbling Under Hot 100 at #8 on Christmas Day 1999 as well as &lt;a href="https://www.billboard.com/music/korn/chart-history/RTT/song/67136" rel="noopener nofollow"&gt;#7 on the Mainstream Rock Charts&lt;/a&gt; on January 9th, 2000 and charting in 6 countries overall.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-twisted-transistor-lyrics', 'lyrics': "[Verse 1]\nHey you, hey you, Devil's little sister\nListening to your twisted transistor\nHold it between your legs\nTurn it up, turn it up\nLow end is coming through\nCan't get enough\n\n[Pre-Chorus]\nA lonely life, where no one understands you\nBut don't give up, because the music do\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\n\n[Chorus]\nBecause the music do\nAnd then it's reaching\nInside you, forever preaching\nFuck you, too\nYour scream's a whisper\nHang on, you twisted transistor\n[Verse 2]\nHey you, hey you, finally you get it\nThe world ain't fair, eat you if you let it\nAnd as your tears fall on\nYour breasts, your dress\nVibrations coming through\nYou're in a mess\n\n[Pre-Chorus]\nA lonely life, where no one understands you\nBut don't give up, because the music do\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\n\n[Chorus]\nBecause the music do\nAnd then it's reaching\nInside you, forever preaching\nFuck you, too\nYour scream's a whisper\nHang on, you twisted transistor\n[Bridge]\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nMusic do!\nHey you, hey you, this won't hurt a bit\nThis won't hurt a bit, this won't hurt!\nSays who? Says who?\nAnesthetize this bitch\nAnesthetize this bitch\nAnesthetize\nJust let me be\nBetween you and me\nDon't Fit\n\n[Chorus]\nBecause the music do\nAnd then it's reaching\nInside you, forever preaching\nFuck you, too\nYour scream's a whisper\nHang on, you twisted transistor", 'annotations': {'description': "&lt;p&gt;Twisted Transistor is the first and lead single of Korn’s seventh album See You on the Other Side, it has become Korn’s second most successful single to date on the Billboard Hot 100, reaching number 64.&lt;/p&gt;\n\n&lt;p&gt; In the music video four rappers play the parts of Korn: Lil Jon as Jonathan Davis, Xzibit as Fieldy, David Banner as David Silveria, and Snoop Dogg as Munky. The real Korn appears at the end of the video as representatives of “Fony Music”, complaining about how the music video isn’t going to sell because it lacks “bling-bling” and “booty shakin'”.&lt;/p&gt;\n\n&lt;p&gt; The song itself is about feeling lonely and like nothing in your life is well and music is the only thing that can keep you alive. Jonathan Davis said this about the song:&lt;/p&gt;\n\n&lt;p&gt;“You know that feeling when you’re alone in your room, you feel bad and nothing around you seems to be going well then suddenly when you turn on your radio, you are immediately ‘deep in the music’. That’s exactly the subject of Twisted Transistor with the lyrics: ‘A lonely life where no one understands you but don’t give up because the music do’”&lt;/p&gt;", 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-politics-lyrics', 'lyrics': "[Verse 1]\nEveryone's corrupt\nYou should just shut up\nLay down, back off\nThe demon you've disrupted\n\n[Pre-Chorus]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\n\n[Chorus]\nYou want to sleep with him\nTo get to who you need to know\nThink that's the way to go, don't you? (Don't you)\nIt's in religion, sex, and everything we do and say\nI look the other way, won't you? (Won't you?)\n\n[Verse 2]\nEverybody's raped\nLying to your face\nKiss 'em and got to go, slit you\nHere all messed up\n\n[Pre-Chorus]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\n[Chorus]\nYou want to sleep with him\nTo get to who you need to know\nThink that's the way to go, don't you? (Don't you)\nIt's in religion, sex, and everything we do and say\nI look the other way, won't you? (Won't you?)\n\n[Bridge]\nTiny spirits are in your soul\nAnd they remain there\nTime is like in the deepest hole\nYou sit and pray there\nAll the guilt from the things you've done\nYou wonder what for\nWhat you thought was so much fun\nYou have to pay for\n\n[Pre-Chorus]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\n\n[Chorus]\nYou want to sleep with him\nTo get to who you need to know\nThink that's the way to go, don't you? (Don't you)\nIt's in religion, sex, and everything we do and say\nI look the other way, won't you? (Won't you?)\n[Outro]\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!\nDon't wanna talk about politics!\nDon't preach or talk about politics!\nDon't let me talk about politics!\nDon't give a shit about politics!", 'annotations': {'description': '', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-hypocrites-lyrics', 'lyrics': "[Intro]\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nYour messiah was never mine\nHypocrites!\n\n[Verse 1]\nWeeping rose of Jeremiah\nDrops of blood drip off your petals\nRepresenting all our tears\nIn a ring of burning metal\n\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\nSorcerers and sadists come\nTo define the what and why\nPeople travel 'cross this earth\nOver water, land, and sky\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\n[Pre-Chorus]\nPay the ferryman, pay the fucking driver!\nPay the preachers and pay the fucking liars!\nPay the bitches they're charging all their dates, stand by!\nI'm not gonna pay, it's already mine!\n\n[Chorus]\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nYour messiah was never mine\n\n[Verse 2]\nWeeping rose of Jeremiah\nPurity unlike no other\nOffers hope to those who need it\nDon't forget care to thy brother\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\nLittle old lady at home\nWriting out a check to send\nIt's all the money that she owns\nShe believes the world might end\n\nHow you wanna be?\nWhat you gonna say it?\nIt doesn't bother me\nWho you gonna pay\n\n[Pre-Chorus]\nPay the ferryman, pay the fucking driver!\nPay the preachers and pay the fucking liars!\nPay the bitches they're charging all their dates, stand by!\nI'm not gonna pay, it's already mine!\n\n[Chorus]\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nYour messiah was never mine\n[Pre-Chorus]\nPay the ferryman, pay the fucking driver!\nPay the preachers and pay the fucking liars!\nPay the bitches they're charging all their dates, stand by!\nI'm not gonna pay, it's already mine!\n\n[Chorus]\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nI'm gonna do it blind\nHypocrites!\nYour messiah was never mine", 'annotations': {'description': '', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-love-song-lyrics', 'lyrics': "[Verse 1]\nMother!\nYou're holding my heart, screaming\nMotherfucker!\nThey left me broken, bleeding\nSon of...\nThe man you loved and left for\nThe son of a bitch!\nWho tried to show me death's door\nEverything's eliminated\nEverything is dedicated\nTried to leave this life I hated\nLiving it was overrated\n\n[Chorus]\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here\n\n[Verse 2]\nAsh and\nObituaries rain down\nAnd suddenly\nWe're lying naked face down\nWhat's it like decapitated?\nCan't you see me fascinated?\nYou're the only thing I've damaged\nOnly death can be mismanaged\n[Chorus]\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here\n\n[Verse 3]\nDon't bring me Daffodils\nBring a bouquet of pills\nSeeds of Geranium\nCracked to the cranium\nProtect me when you can\nRespect me when I am dying\n\n[Chorus]\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here\nLove song for the dear departed\nHead stone for the broken hearted\nArms to kill or flowers to steal?\nHead trip for the mortal earthbound\nOne sip of the blood that I found\nLying here, I'm dying here", 'annotations': {'description': '&lt;p&gt;Korn’s version of a romantic love song&lt;/p&gt;', 'producers': [{'name': 'Atticus Ross', 'url': 'https://genius.com/artists/Atticus-ross'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Atticus Ross', 'url': 'https://genius.com/artists/Atticus-ross'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-coming-undone-lyrics', 'lyrics': "[Verse 1]\nKeep holding on\nWhen my brain's ticking like a bomb\nGuess the black thoughts\nHave come again to get me\nSweet bitter words\nUnlike nothing I have heard\nSing along, mockingbird\nYou don't affect me\nThat's right!\nDeliverance of my heart!\nPlease strike!\nBe deliberate!\n\n[Chorus]\nWait, I'm coming undone!\nIrate, I'm coming undone!\nToo late, I'm coming undone!\nWhat looks so strong, so delicate!\nWait, I'm starting to suffocate!\nAnd soon I anticipate!\nI'm coming undone!\nWhat looks so strong, so delicate!\n\n[Verse 2]\nChoke, choke again\nI thought my demons were my friends\nPity me in the end\nThey're out to get me\nSince I was young\nI tasted sorrow on my tongue\nAnd the sweet sugar gun\nDoes not protect me\nThat's right!\nTrigger between my eyes!\nPlease strike!\nMake it quick now!\n[Chorus]\nWait, I'm coming undone!\nIrate, I'm coming undone!\nToo late, I'm coming undone!\nWhat looks so strong, so delicate!\nWait, I'm starting to suffocate!\nAnd soon I anticipate!\nI'm coming undone!\nWhat looks so strong, so delicate!\n\n[Bridge]\nI'm trying to hold it together\nHead is lighter than a feather\nLooks like I'm not getting better\nNot getting better\n\n[Chorus]\nWait, I'm coming undone!\nIrate, I'm coming undone!\nToo late, I'm coming undone!\nWhat looks so strong so, delicate!\nWait, I'm starting to suffocate!\nAnd soon I anticipate!\nI'm coming undone!\nWhat looks so strong, so delicate!", 'annotations': {'description': '&lt;p&gt;This song is about suicidal thoughts. Jonathan Davis does a wonderful job of describing the feelings of the suicidal, meanwhile Munky, Fieldy, David constructed the beautiful and ohhh so stab you in your fucking face instrumental!&lt;/p&gt;', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-liar-lyrics', 'lyrics': "[Verse 1]\nMy brother, you love her\nBut don't give up your instincts\nHang onto you know what\nThey'll be gone fast as you blink\nThey're trained to seduce you\nSuck you dry quickly as they can\nThey bite down, reduce you\nNow you're barely a man\n\n[Chorus]\nOh my God\nHow could you deny the flood\nThat's flowing through you?\nHey you, you're saying that\nShe's all that you desire, liar\nHey you, you think you can\nThrow water on this fire, liar\n\n[Verse 2]\nIt's not wrong to let go\nAnd let the woman ride you\nFor fuck sake, don't lose touch\nWith the dog that's inside you\nShe wanted what you had\nYou bet she smelt the spore\nDon't wimp up, fuck her up\nOne more time, slam that door\n[Chorus]\nOh my God\nHow could you deny the flood\nThat's flowing through you?\nHey you, you're saying that\nShe's all that you desire, liar\nHey you, you think you can\nThrow water on this fire, liar\nOh my God\nHow could you deny the flood\nThat's flowing through you?\nHey you, you're saying that\nShe's all that you desire, liar\nHey you, you think you can\nThrow water on this fire, liar\n\n[Brige]\nLiar!\nLiar!\nLiar!\nLiar!\n\n[Outro]\nOh my God\nHow could you deny the flood\nThat's flowing through you?", 'annotations': {'description': '', 'producers': [{'name': 'The Matrix', 'url': 'https://genius.com/artists/The-matrix'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Scott Spock', 'url': 'https://genius.com/artists/Scott-spock'}, {'name': 'Graham Edwards', 'url': 'https://genius.com/artists/Graham-edwards'}, {'name': 'Lauren Christy', 'url': 'https://genius.com/artists/Lauren-christy'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-right-now-lyrics', 'lyrics': "[Verse 1]\nI'm feeling mean today\nNot lost, not blown away\nJust irritated and quite hated\nSelf-control breaks down\nWhy's everything so tame?\nI like my life insane\nI'm fabricating and debating\nWho I'm gonna kick around\n\n[Chorus]\nRight now! (Can't find a way to get across the hate when I see you)\nRight now! (I feel it scratch inside, I wanna slash you and beat you)\nRight now! (I rip apart the things inside that excite you)\nRight now! (I can't control myself, I fucking hate you)\n\n[Verse 2]\nI'm feeling cold today\nNot hurt, just fucked away\nI'm devastated and frustrated\nGod, I feel so bound\nSo why do I feel the need?\nI think it's time to bleed\nI'm gonna cut myself\nAnd watch the blood hit the ground\n[Chorus]\nRight now! (Can't find a way to get across the hate when I see you)\nRight now! (I feel it scratch inside, I wanna slash you and beat you)\nRight now! (I rip apart the things inside that excite you)\nRight now! (I can't control myself, I fucking hate you)\n\n[Bridge]\nYou open your mouth again\nI swear I'm gonna break it\nYou open your mouth again\nMy God, I cannot take it\nShut up, shut up, shut up, I'll fuck you up\nShut up, shut up, shut up, I'll fuck you up\nShut up, shut up, shut up, I'll fuck you up!\nShut up, shut up, shut up, I'll fuck you up!\nShut up, shut up, shut up, I'll fuck you up!\nShut up, shut up, shut up, I'll fuck you up!\n\n[Chorus]\nRight now! (Can't find a way to get across the hate when I see you)\nRight now! (I feel it scratch inside, I wanna slash you and beat you)\nRight now! (I rip apart the things inside that excite you)\nRight now! (I can't control myself, I fucking hate you)\n\n[Outro]\nI fucking hate you!\nI fucking hate you!\nI fucking hate you!\nI fucking hate you!\n(SHUT!) I fucking hate you! (UP!)\n(SHUT!) I fucking hate you! (UP!)\n(SHUT!) I fucking hate you! (UP!)\n(SHUT UP!)", 'annotations': {'description': '&lt;p&gt;Jonathan Davis went in with more context on the song meaning, saying:&lt;/p&gt;\n\n&lt;p&gt;“It’s about basically me waking up pissed off at the world, hating everyone and everything around me. I think everyone’s had one of those days when you wake up and you don’t want to talk to no one and you’re just pissed. I had one of those days and I wrote about it. I was venting out all of my frustrations towards everyone.”&lt;/p&gt;', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-here-it-comes-again-lyrics', 'lyrics': "[Verse 1]\nPounding, it starts again\nHurting, oh where do I begin?\nScreaming, they dance around my head\nHoping, they'll maybe end up dead\n\n[Chorus]\nFeeling it grab hold, what can I say?\nFeeling fucked up again, I've got to do this right\nI can't fucking give in, I feel that I can fight\nCan't I ever win, I'll keep it on my mind\nHere it comes again!\n\n[Verse 2]\nSilent it goes away\nPatient oh really should I stay?\nTrying so hard to get ahead\nFailure is often where I'm lead\n\n[Chorus]\nFeeling it grab hold, what can I say?\nFeeling fucked up again, I've got to do this right\nI can't fucking give in, I feel that I can fight\nCan't I ever win, I'll keep it on my mind\nHere it comes again!\n[Bridge]\nOh, I must hold on\nOh, I won't be gone\nOh, I won't stop now\nOh, I don't know how\nWhy I can't hold on?\nWhy I can't be gone?\nWhy I can't stop now?\nWhy I'm don't know how?\n\n[Chorus]\nFeeling it grab hold, what can I say?\nFeeling fucked up again, I've got to do this right\nI can't fucking give in, I feel that I can fight\nCan't I ever win, I'll keep it on my mind\nHere it comes again!", 'annotations': {'description': '', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-did-my-time-lyrics', 'lyrics': "[Verse 1]\nRealized I can never win\nSometimes feel like I have failed\nInside where do I begin?\nMy mind is laughing at me\nTell me, why am I to blame?\nAren't we supposed to be the same?\nThat's why I will never tame\nThis thing that's burning in me\n\n[Chorus]\nI am the one who chose my path\nI am the one who couldn't last\nI feel the life pulled from me\nI feel the anger changing me\n\n[Verse 2]\nSometimes I can never tell\nIf I've got something after me\nThat's why I just beg and plead\nFor this curse to leave me\nTell me, why am I to blame?\nAren't we suppose to be the same?\nThat's why I will never tame\nThis thing that's burning in me\n[Chorus]\nI am the one who chose my path\nI am the one who couldn't last\nI feel the life pulled from me\nI feel the anger changing me\n\n[Bridge]\nBetrayed, I feel so enslaved\nI really tried, I did my time\nI did my time\nI did my time!\nI did my time!\nI did my time!\n\n[Chorus]\nI am the one who chose my path\nI am the one who couldn't last\nI feel the life pulled from me\nI feel the anger changing me\n\n[Outro]\nOh God, the anger's changing me!\nOh God, the anger's changing me!", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/7a070c1c70826df0d3e1ffa8321b0905.205x205x1.png" alt="" width="205" height="205" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was an unfinished demo from 2002’s Untouchables. James “Munky” Shaffer had written the main riff and was playing it every day, and producer Michael Beinhorn couldn’t stand it. In early 2003, Korn completed the whole song, and caught the attention of Paramount Pictures who wanted to use it in the film Lara Croft Tomb Raider: The Cradle of Life. However, the song was only released as a single for the film, and featured during the films end credits. It did not appear on the motion picture soundtrack, due to certain clauses in Jonathan Davis’s record contract at the time.&lt;/p&gt;', 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-yall-want-a-single-lyrics', 'lyrics': "[Chorus]\nY'all want a single say fuck that!\nFuck that, fuck that!\nY'all want a single say fuck that!\nFuck that, fuck that!\nY'all want a single say fuck that!\nFuck that, fuck that!\nY'all want a single say fuck that!\nBoom, boom, boom, boom!\n\n[Verse 1]\nWhat's going on today?\nWe gotta break away\nWe got a problem\nAnd I think it's gonna make us go down\nThey think we're all the same\nAnd always we're to blame\nFor shit I think is lame\nIt's time to stop the game\nI think it's time to pay\nFor everything you made me say\n\n[Chorus]\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\n[Verse 2]\nWhat's going on today?\nWhy must it be this way?\nWe're going nowhere\nAnd we're still knocking the need to bow down\nThey think we're all the same\nAnd always we're to blame\nFor shit I think is lame\nIt's time to stop the game\nI think it's time to pay\nFor everything you made me say\n\n[Chorus]\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\n\n[Bridge]\nWe are the ones breaking you down\nWe are the hope to drown out your sounds\nAll across the world, you think we're to found\nAll across the world you're breaking you down\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nY'all want a single say fuck that!\nFuck that, fuck that shit!\nFuck!\n[Chorus]\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!\nY'all want a single, say fuck that!\nFuck that, fuck that!", 'annotations': {'description': "&lt;p&gt;“Y'all Want a Single” is the 12th track off of Korn’s sixth album, &lt;em&gt;Take a Look in the Mirror&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song is a message to Immortal Records, their label at the time, and Sony Music, the owner of Immortal. Davis vents his frustrations on their label trying to push the band in a more radio-friendly direction with the chorus being a message that they won’t keep doing radio-friendly songs just for the sake of the label. The band parted ways with Immortal in 2005.&lt;/p&gt;\n\n&lt;p&gt;The single was released on March 9th 2004 and peaked at #23 on the Mainstream Rock charts on February 28th, 2004, a full 9 days before the single was set to release.&lt;/p&gt;", 'producers': [{'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-freak-on-a-leash-lyrics', 'lyrics': "[Verse 1]\nSomething takes a part of me\nSomething lost and never seen\nEvery time I start to believe\nSomething's raped and taken from me, from me\nLife's gotta always be messin' with me (You wanna see the light)\nCan't they chill and let me be free? (So do I)\nCan't I take away all this pain? (You wanna see the light)\nI try to every night, all in vain, in vain\n\n[Pre-Chorus]\nSometimes I cannot take this place\nSometimes it's my life I can't taste\nSometimes I cannot feel my face\nYou'll never see me fall from grace\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Verse 2]\nFeelin' like a freak on a leash (You wanna see the light)\nFeeling like I have no release (So do I)\nHow many times have I felt diseased? (You wanna see the light)\nNothing in my life is free, is free\n[Pre-Chorus]\nSometimes I cannot take this place\nSometimes it's my life I can't taste\nSometimes I cannot feel my face\nYou'll never see me fall from grace\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Bridge]\nBoom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nGo!\n[Hook]\nSo buy, something on the ming-a-boo\nBuy, some things they buy\nSo, something on the ming-a-boo\nBuy, some things they buy\nBuy, something off the hee-a-hoo\nNo, some things they buy\nBuy, something on the ming-a-hoo\nBuy, some things they buy\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Outro]\nPart of me\nPart of me\nPart of me", 'annotations': {'description': '&lt;p&gt;“Freak on a Leash” was Jonathan Davis\' complaint against the music industry that abuses him, leaving him feeling like &lt;a href="http://www.msopr.com/press-releases/a-cut-by-cut-look-at-korns-follow-the-leader-with-jonathan/" rel="noopener nofollow"&gt;“a freak touring corporate America fucking making all the money while it’s taking a part of me.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by &lt;a href="http://en.wikipedia.org/wiki/Todd_McFarlane" rel="noopener nofollow"&gt;Todd McFarlane&lt;/a&gt;, with help from Jonathan Dayton and Valerie Faris, and features animated segments reminiscent of the &lt;a href="https://genius.com/Korn-follow-the-leader-album-art-annotated" rel="noopener" data-api_path="/songs/1194448"&gt;&lt;em&gt;Follow the Leader&lt;/em&gt; cover&lt;/a&gt; drawn by McFarlane himself. It won Best Editing and Best Rock Video at the MTV Music Awards in 1999, as well as the Grammy for Best Short Form Music Video in 2000.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?v=jRGrNDV2mKc" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=jRGrNDV2mKc&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-got-the-life-lyrics', 'lyrics': '[Verse 1]\nHate, something, sometime, someway\nSomething kick off the front floor\nMine, something inside I\'ll never ever follow\nSo give me something that is for real, I\'ll never ever follow\nGet your boogie on\nGet your boogie on\nHate, something, someway, each day\nDealing with no forgiveness\nWhy, this shit inside, now everyone will follow\nSo give me nothing just feel and now this shit will follow\n\n[Chorus]\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\n\n[Verse 2]\nEach day I can feel it swallow\nInside something they took from me\nI don\'t feel your deathly ways\nEach day I feel so hollow\nInside I was beating me\nYou will never see so come dance with me\nDance with me\nDance with me\nDance with me\nDance with me\nDance with me\nDance with me\nMe!\n[Chorus]\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\nGod paged me, "you\'ll never see the life", who wants to see?\nGod told me, I\'ve already got the life, oh I say\n\n[Outro]\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\nGot the life!\n\n.', 'annotations': {'description': '&lt;p&gt;“Got The Life” was released as a promotional single for their third studio album. Though never actually making much of a radio buzz until after the band’s success, the music video was the first video ever to be retired on MTV’s “TRL”, which was a much bigger deal in the 90s.&lt;/p&gt;\n\n&lt;p&gt;The track was originally based off of a disco beat and serves almost like a “fuck you” to other metal bands trying to copy their pioneered sound.&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}], 'writers': [{'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Korn-get-up-lyrics', 'lyrics': "[Verse 1]\nI am clearly broken\nAnd no one knows what to do\nPieces of the puzzle don't fit\nSo I pound them into you\n\n[Pre-Chorus]\nItching is the pulse inside\nCreeping out to come alive\nIt's just doing what it's gonna do\n\n[Chorus]\nTimes are looking grim these days!\nHolding on to everything!\nIt's hard to draw the line!\nShut the fuck up, get up!\nShut the fuck up, get up!\nShut the fuck up, get up!\n\n[Verse 2]\nI can't wait to rip my eyes out\nAnd look at you\nPeace through pain is precious\nEspecially when it's done by you\n\n[Pre-Chorus]\nItching is the pulse inside\nCreeping out to come alive\nIt's just doing what it's gonna do\n[Chorus]\nTimes are looking grim these days!\nHolding on to everything!\nIt's hard to draw the line!\nAnd I, I'm hiding in this empty space\nTortured by my memories\nOf what I've left behind\nShut the fuck up, get up!\nShut the fuck up, get up!\nShut the fuck up, get up!\nTimes are looking grim these days!\nHolding on to everything!\nIt's hard to draw the line!\nAnd I, I'm hiding in this empty space\nTortured by my memories\nOf what I've left behind\nShut the fuck up, get up!\nShut the fuck up, get up!\nShut the fuck up, get up!", 'annotations': {'description': '&lt;p&gt;‘Get Up’ was inspired by his hatred of everybody moaning about the recession.&lt;/p&gt;\n\n&lt;p&gt;He said this in an interview:&lt;/p&gt;\n\n&lt;p&gt;‘Get Up’ is about the recession. I wish everyone would shut the fuck up and have some fun. Every day I’ve got to hear about unemployment and people starving.&lt;/p&gt;', 'producers': [{'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}, {'name': 'Jim Monti', 'url': 'https://genius.com/artists/Jim-monti'}], 'writers': [{'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}, {'name': 'Ray Luzier', 'url': 'https://genius.com/artists/Ray-luzier'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-shout-2000-lyrics', 'lyrics': "[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on, I'm a-talking to you\nSo, come on\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n\n[Verse 1]\nIn violent times\nYou shouldn't have to sell your soul\nIn black and white\nThey really, really ought to know\n(They just don't know)\n\nThose one-track minds\nThat took you for a working whore\nKiss them goodbye\nYou shouldn't have to jump for joy\n(Jump, jump, jump, jump)\nYou shouldn't have to shout for joy\n\n[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n[Verse 2]\nThey gave you life\nAnd in return, you gave them hell\nAs cold as ice\n(Now, bitch, you're ice, ice, baby)\nI hope we live to tell the tale\nI hope we live to shout the tale\n\n[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n\n[Bridge]\nWill you never shout?\nI feel as though I know you're never gonna let it all out\nWill you never shout?\nI feel as though I know you're never gonna let it all out\n\nWill you never shout?\nI feel as though I know you're never gonna let it all out\nWill you never shout?\nI feel as though I know you're never gonna let it\n[Verse 3]\nAnd when you've taken down your guard\nIf I could change your mind\nI'd really love to break your heart\n(Break, break, break, break, break)\nI'd really love to break your heart\n\n[Chorus]\nShout, shout, let it all out\nThese are the things I can do without\nCome on (Come get it on, come get it on)\nI'm a-talking to you\nSo, come on (Come get it on, come get it on)\n\nI'd really love to shout, shout!\nLet it all out\nThese are the things I can do without\nCome on, I'm a-talking to you\nSo, come on\n\n[Outro]\nShout!\nShout!\n\nCome on, le-let me shout, shout, let me\nCome on, le-let me shout, shout\nShout!\nCome on, le-let me shout, shout, let me\nCome on, le-let me shout, shout\nShout!", 'annotations': {'description': '&lt;p&gt;A cover of &lt;a href="https://genius.com/artists/Tears-for-fears" rel="noopener" data-api_path="/artists/25916"&gt;Tears For Fears&lt;/a&gt;‘ 1984 song &lt;a href="https://genius.com/Tears-for-fears-shout-lyrics" rel="noopener" data-api_path="/songs/304899"&gt;Shout&lt;/a&gt;, performed by &lt;a href="https://genius.com/artists/Disturbed" rel="noopener" data-api_path="/artists/28631"&gt;Disturbed&lt;/a&gt; for their 2000 album &lt;em&gt;The Sickness&lt;/em&gt;. This version of the song is entitled “Shout 2000” and contains some slightly different lyrics compared to the original.&lt;/p&gt;', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}, {'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}], 'labels': [{'name': 'Giant Records', 'url': 'https://genius.com/artists/Giant-records'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-meaning-of-life-lyrics', 'lyrics': "[Intro]\nGet psycho\nI wanna get psycho\nGet psycho\nI wanna, wanna, wanna, wanna\n\n[Verse 1]\nWanna get psycho\nRun, you little bitch\nI want your power glowing, juicy, flowing, red hot\nMeaning of life\nIt's not enough to have a little taste\nI want the whole damn thing\nNow, can you dig it?\nNeed to get psycho\nI want to hear you say it\nSay you want it, need it\nDon't wanna wait until we finish the show\nIt's not enough; you hunger for more\nYou're one twisted little fuck\nAnd now you wanna get psycho with me\n\n[Pre-Chorus]\nGive in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in\n[Chorus]\nGet psycho\nI wanna get psycho\nGet psycho\nI wanna, wanna, wanna, wanna\n\n[Verse 2]\nWanna get psycho\nScratch my itch\nGive me your power flowing, juicy, glowing, red hot\nMeaning of life\nIt's not enough to have a little piece\nI want the whole damn thing\nNow, can you dig it?\nNeed to get psycho\nI want to hear you scream\nTell me to take you, scare you, fuck you\nAfter we finish the show\nIt's not enough\nYou listening, whore?\nYou're one twisted little fuck\nAnd now you wanna get psycho with me\n\n[Pre-Chorus]\nGive in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in, give in, give in, decide\nGive in\n[Bridge]\nI can feel the blood flowing through my veins\nSpilling on my soul\nAnd now the hunger's getting bigger\nCome a little closer now, pretentious whore\nAnd pull my trigger\nFree the violence that is building in me\nI say now, end of the ride, murder-suicide\nIs how I've been feeling lately\n\nCome a little closer now, pretentious whore\nI'm reeling with the feeling that I\nCan't ignore\nCome a little closer now, pretentious whore\nI'm reeling with the feeling that I\nCan't ignore\n\nCome a little closer now, pretentious whore\nI'm reeling with the feeling that I\nCan't ignore\nAnd the need to get psycho\nIs not a question to me\n\n[Outro]\nGet, get, get, get, get psycho\nGet, get, get, I wanna get psycho\nGet, get, get, get, get psycho\nGet, get, get, I wanna, wanna, wanna\nGet psycho (Psycho)\nGet, get, get, I wanna get psycho (Psycho)\nGet, get, get, get, get psycho (Psycho)\nGet, get, get, I wanna get psycho\nWanna, wanna, wanna, wanna", 'annotations': {'description': '', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'Steve “Fuzz” Kmak', 'url': 'https://genius.com/artists/Steve-fuzz-kmak'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}, {'name': 'Giant Records', 'url': 'https://genius.com/artists/Giant-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-warrior-lyrics', 'lyrics': "[Verse 1]\nI am now an instrument of violence\nI am a vessel of invincibility\nI cannot leave this undecided\nStepping down to battle another day\nRemember me for all time, this\nDetermination is a vital part of me\nSurrender now, or be counted\nWith the endless masses that I will defeat\n\n[Pre-Chorus]\nCome on, bring it\nDon't sing it\nBetter believe it\nBroken down till your hope has died\nBeat down till the victory's mine\nStand up and show me some pride\nAnd now, are you ready?\n\n[Chorus]\nI'm one with the warrior inside\nMy dominance can't be denied\nYour entire world will turn\nInto a battlefield tonight\nAs I look upon you\nThrough the warrior's eyes now\nI can see the fear that will\nEnsure my victory this time\n[Verse 2]\nI can't be told to compromise this\nThey'll never doubt the body lying at my feet\nA most formidable reminder\nThey will speak my name for eternity\nI have no need of any guidance\nI am a weapon, powerful beyond belief\nSeen through the warrior's eyes\nI never need to question how to defeat you\n\n[Pre-Chorus]\nCome on, bring it\nDon't sing it\nBetter believe it\nBroken down till your hope has died\nBeat down till the victory's mine\nStand up and show me some pride\nAnd now, are you ready?\n\n[Chorus]\nI'm one with the warrior inside\nMy dominance can't be denied\nYour entire world will turn\nInto a battlefield tonight\nAs I look upon you\nThrough the warrior's eyes now\nI can see the fear that will\nEnsure my victory this time\n[Bridge]\nYou can't hide now\nI am the warrior\nSo decide now\nHow they’ll remember you\nDo not hide now\nAct like a warrior\nShow your pride now\nSolidify your place in time\n\n[Chorus]\nI'm one with the warrior inside\nMy dominance can't be denied\nYour entire world will turn\nInto a battlefield tonight\nAs I look upon you\nThrough the warrior's eyes now\nI can see the fear that will\nEnsure my victory this time\n\n[Outro]\nI'm one with the warrior inside\nThe evidence can't be denied\nThe entire world will stare\nInto this battlefield tonight\nAs I stand before you\nWith a warrior's heart now\nI can feel the strength that will\nEnsure my victory this time", 'annotations': {'description': '&lt;p&gt;“&lt;a href="https://www.youtube.com/watch?v=bmir_2q1TvY" rel="noopener nofollow"&gt;Warrior&lt;/a&gt;” is a song for anyone who needs strength to fight whatever it is you’re dealing with.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #14 on &lt;a href="https://www.billboard.com/music/disturbed/chart-history/rock-songs/song/664367" rel="noopener nofollow"&gt;Billboard’s “Hot Rock Songs”&lt;/a&gt; and stayed on it for 20 weeks.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-the-animal-lyrics', 'lyrics': "[Intro]\nNah-ah, nah-ah\nNow\n\n[Verse 1]\nI can feel the animal inside\nAnd my resolve is weakening\nPounding at the doors of my mind\nIt's nearly overpowering\nI cannot begin to describe\nThe hunger that I feel again\nRun, if you intend to survive\n\n[Pre-Chorus]\nFor the beast is coming to life\nTaking form in the glimmer of this tainted moonlight\nDeath approaches on this night\n\n[Chorus]\nFor the animal's soul is mine\nWe will be completed right before your eyes\nI have no control this time\nAnd now we both shall dine\nIn hell tonight\n\n[Verse 2]\nI can hear it calling again\nThe primal need is filling me\nChanges are about to begin\nAnd now my blood is boiling\nI can see the fear in your eyes\nBut you can't bring yourself to scream\nTime to shed the mortal disguise\n[Pre-Chorus]\nFor the beast is coming to life\nTaking form in the glimmer of this tainted moonlight\nDeath approaches on this night\n\n[Chorus]\nFor the animal's soul is mine\nWe will be completed right before your eyes\nI have no control this time\nAnd now we both shall dine\nIn hell tonight\n\n[Verse 3]\nWe begin the hunt and I\nFeel the power course, as the creatures take flight\nFor the kill is close and I\nWill be satisfied\nFor the smell of fear tonight\nWakes an ancient lust\nThat will not be denied (You're mine)\n\n[Chorus]\nFor the animal's soul is mine\nWe will be completed right before your eyes\nI have no control this time\nAnd now we both shall dine\nIn hell tonight\n[Outro]\nFor the animal's soul is mine\nAnd the world around will never hear your cries\nAn unholy crime\nAnd now we both shall dine\nIn hell tonight", 'annotations': {'description': '&lt;p&gt;“The Animal” was the third single released from &lt;em&gt;Asylum&lt;/em&gt;. It peaked at #6 on Billboard’s “&lt;a href="https://www.billboard.com/music/disturbed/chart-history/rock-songs/song/663631" rel="noopener nofollow"&gt;Hot Rock Songs&lt;/a&gt;” and stayed on the chart for 21 weeks.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=bmir_2q1TvY" rel="noopener nofollow"&gt;The lyrics&lt;/a&gt; are inspired by movies like &lt;em&gt;&lt;a href="https://www.imdb.com/title/tt0320691/" rel="noopener nofollow"&gt;Underworld&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://www.imdb.com/title/tt0780653/" rel="noopener nofollow"&gt;The Wolfman&lt;/a&gt;&lt;/em&gt;; telling the story of someone transforming into a werewolf in the light of the full moon.&lt;/p&gt;', 'producers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'writers': [{'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-indestructible-lyrics', 'lyrics': "[Verse 1]\nAnother mission, the powers have called me away\nAnother time to carry the colors again\nMy motivation: an oath I've sworn to defend\nTo win the honor of coming back home again\nNo explanation will matter after we begin\nUnlock the dark destroyer that's buried within\nMy true vocation, and now, my unfortunate friend\nYou will discover a war you're unable to win\n\n[Pre-Chorus 1]\nI'll have you know that I've become\n\n[Chorus 1]\nIndestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI'm an indestructible master of war\n\n[Verse 2]\nAnother reason, another cause for me to fight\nAnother fuse uncovered now for me to light\nMy dedication to all that I've sworn to protect\nI carry out my orders without a regret\nMy declaration embedded deep under the skin\nA permanent reminder of how it began\nNo hesitation when I am commanded to strike\nYou need to know that you're in for the fight of your life\n[Pre-Chorus 2]\nYou will be shown how I've become\n\n[Chorus 1]\nIndestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI'm an indestructible master of war\n\n[Chorus 2]\nI'm indestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI am indestructible (Indestructible)\n\n[Chorus 1]\nIndestructible\nDetermination that is incorruptible\nFrom the other side a terror to behold\nAnnihilation will be unavoidable\nEvery broken enemy will know\nThat their opponent had to be invincible\nTake a last look around while you're alive\nI'm an indestructible master of war", 'annotations': {'description': '&lt;p&gt;“Indestructible” is the third single from Disturbed’s fourth studio album with the same name.&lt;/p&gt;\n\n&lt;p&gt;It is an “&lt;a href="https://loudwire.com/disturbed-indestructible-songs-about-soldiers/" rel="noopener nofollow"&gt;anthem to soldiers&lt;/a&gt;”. Disturbed has on occasions &lt;a href="https://consequenceofsound.net/2018/10/disturbed-uso-shows/" rel="noopener nofollow"&gt;played at military bases&lt;/a&gt;, to honor the US soldiers.&lt;/p&gt;', 'producers': [{'name': 'John Moyer', 'url': 'https://genius.com/artists/John-moyer'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-inside-the-fire-lyrics', 'lyrics': "[Verse 1]\nDevon won't go to heaven\nShe's just another lost soul about to be mine again\nLeave her, we will receive her\nIt is beyond your control will you ever meet again\nDevon, one of eleven\nWho had been rendered unwhole as a little child\nShe was taken and then forsaken\nYou will remember it all, let it fill your mind again\n[Pre-Chorus]\nDevon lies beyond this portal\nTake the word of one immortal\n[Chorus]\nGive your soul to me for eternity\nRelease your life to begin another time with her\nEnd your grief with me, there's another way\nRelease your life, take your place inside the fire with her\n[Verse 2]\nSever, now and forever\nYou're just another lost soul about to be mine again\nSee her, you'll never free her\nYou must surrender it all if you'd like to meet again\nFire for your desire\nAs she begins to turn cold for the final time\nYou will shiver, 'til you deliver\nYou will remember it all, let it fill your mind again\n[Pre-Chorus]\nDevon lies beyond this portal\nTake the word of one immortal\n[Chorus]\nGive your soul to me for eternity\nRelease your life to begin another time with her\nEnd your grief with me, there's another way\nRelease your life, take your place inside the fire with her\n[Hook]\nTake me away, yeah\n\n[Chorus]\nGive your soul to me for eternity\nRelease your life to begin another time with her\nEnd your grief with me, there's another way\nRelease your life, take your place inside the fire with her\n[Outro]\nDevon, one of eleven\nWho had been rendered unwhole as a little child\nShe was taken and then forsaken\nYou will remember it all, let it fill your mind again man", 'annotations': {'description': '&lt;p&gt;“Inside The Fire” is Disturbed’s second song to reach #1 on the US Rock Chart, and is one of a handful of their singles that crossed over onto the Hot 100, &lt;a href="https://www.billboard.com/music/disturbed/chart-history/HSI" rel="noopener nofollow"&gt;peaking at #73&lt;/a&gt; in the spring of 2008.&lt;/p&gt;\n\n&lt;p&gt;The track was inspired by David Draiman’s &lt;a href="https://metropolitanklezmer.com/downloads/jma029.pdf" rel="noopener nofollow"&gt;addiction to heroin&lt;/a&gt; as a teen and &lt;a href="https://www.youtube.com/watch?v=eLDeFPMdKcw" rel="noopener nofollow"&gt;when his girlfriend&lt;/a&gt; (at a young age) committed suicide as a result of their break-up.&lt;/p&gt;\n\n&lt;p&gt;His ex-girlfriend had become co-dependent on him and had a heroin problem. She threatened to tell David’s parents about their relationship, which they wouldn’t have condoned, so David felt he had to break up with her. The lyrics are about her drug abuse and how he felt he himself had to commit suicide to see her again on the other side, and how he heard the devil talking to him while at her funeral looking down into her open casket.&lt;/p&gt;', 'producers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-ten-thousand-fists-lyrics', 'lyrics': "[Intro]\nSurvivor\nSurvivor\n\n[Verse 1]\nOne more goddamn day when I know what I want and my want will be considered tonight\nConsider tonight\nJust another day\nWhen all that I want will mark me as a sinner tonight\nI'm a sinner tonight, yeah\n\n[Chorus]\nPeople can no longer cover their eyes\nIf this disturbs you, then walk away\nYou will remember the night you were struck by the sight of\nTen thousand fists in the air\n\n[Verse 2]\nPower unrestrained\nDead on the mark is what we will deliver tonight\nDeliver tonight\nPleasure fused with pain\nThis triumph of the soul will make you shiver tonight\nWe'll make you shiver tonight, yeah\n\n[Chorus]\nPeople can no longer cover their eyes\nIf this disturbs you, then walk away\nYou will remember the night you were struck by the sight of\nTen thousand fists in the air\n[Bridge]\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\nWe are the ones that will open your mind\nLeave the weak and the haunted behind\n\n[Chorus]\nPeople can no longer cover their eyes\nIf this disturbs you, then walk away\nYou will remember the night you were struck by the sight of\nTen thousand fists in the air\n\n[Outro]\nTen thousand fists in the air\nTen thousand fists in the air", 'annotations': {'description': '&lt;p&gt;The song is an ode to the power of the masses in the face of evil. It is written against the backdrop of George W. Bush and the war on civil liberties. People can’t look away any longer; they must take a stand.&lt;/p&gt;\n\n&lt;p&gt;Vocalist David Draiman says the song evokes the “strength, unity, conviction, power, and the exhilaration that you feel when you get to see that at one of our shows… It’s one of my favorite moments, and people know that I have an affinity for asking people to put their fists in the air, and it’s just, it’s exhilaration to be able to see ten thousand raised fists or more.”&lt;/p&gt;', 'producers': [{'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}, {'name': 'Johnny Karkazis', 'url': 'https://genius.com/artists/Johnny-karkazis'}], 'writers': [{'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Disturbed-land-of-confusion-lyrics', 'lyrics': "[Verse 1]\nI must've dreamed a thousand dreams\nBeen haunted by a million screams\nBut I can hear the marching feet\nThey're moving into the street\nNow, did you read the news today?\nThey say the danger's gone away\nBut I can see the fire's still alight\nThere, burning into the night\n\n[Pre-Chorus]\nThere's too many men\nToo many people\nMaking too many problems\nAnd there's not much love to go ‘round\nCan't you see\nThis is a land of confusion?\n\n[Chorus]\nThis is the world we live in\nAnd these are the hands we're given\nUse them, and let's start trying\nTo make it a place worth living in\n\n[Verse 2]\nOoh, Superman, where are you now?\nWhen everything's gone wrong somehow\nThe men of steel, the men of power\nAre losing control by the hour\n[Pre-Chorus]\nThis is the time\nThis is the place\nSo, we look for the future\nBut there's not much love to go ‘round\nTell me why this is a land of confusion\n\n[Chorus]\nThis is the world we live in\nAnd these are the hands we're given\nUse them and let's start trying\nTo make it a place worth living in\n\n[Bridge]\nI remember long ago\nOoh, when the sun was shining\nAnd all the stars were bright\nAll through the night\nIn the wake of this madness\nAs I held you tight\nSo long ago\n\n[Verse 3]\nI won't be coming home tonight\nMy generation will put it right\nWe're not just making promises\nThat we know we'll never keep\n[Pre-Chorus]\nToo many men\nToo many people\nMaking too many problems\nAnd not much love to go ‘round\nCan't you see\nThis is a land of confusion?\n\n[Chorus]\nNow, this is the world we live in\nAnd these are the hands we're given\nUse them, and let's start trying\nTo make it a place worth fighting for\n\nThis is the world we live in\nAnd these are the names we're given\nStand up and let's start showing\nJust where our lives are going to", 'annotations': {'description': '&lt;p&gt;“Land Of Confusion” is a cover of &lt;a href="https://genius.com/Genesis-land-of-confusion-lyrics" rel="noopener" data-api_path="/songs/362571"&gt;Genesis\' song with the same name&lt;/a&gt;.&lt;br&gt;\n&lt;a href="https://www.billboard.com/music/disturbed/chart-history/hot-mainstream-rock-tracks/song/486457" rel="noopener nofollow"&gt;It peaked at #1 on the Mainstream Rock chart&lt;/a&gt;. And stayed on it for 37 weeks.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://loudwire.com/disturbed-ten-thousand-fists-album-anniversary/" rel="noopener nofollow"&gt;David was first against the idea of doing a cover&lt;/a&gt;, but then he came around; since he liked the idea of taking something that sounded nothing like Disturbed making it their own.&lt;/p&gt;\n\n&lt;p&gt;Disturbed made their own &lt;a href="https://www.youtube.com/watch?v=YV4oYkIeGJc&amp;amp;feature=youtu.be" rel="noopener nofollow"&gt;music video&lt;/a&gt; for the song.&lt;br&gt;\nDirected by Todd McFarlane, the video is a big view of the corporate world and how it all ties into just one big beast.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That the world is run by one giant thing which is driven by greed and lust.&lt;br&gt;\n-Todd McFarlane.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Johnny Karkazis', 'url': 'https://genius.com/artists/Johnny-karkazis'}, {'name': 'Disturbed', 'url': 'https://genius.com/artists/Disturbed'}], 'writers': [{'name': 'Phil Collins', 'url': 'https://genius.com/artists/Phil-collins'}, {'name': 'Tony Banks', 'url': 'https://genius.com/artists/Tony-banks'}, {'name': 'Mike Rutherford', 'url': 'https://genius.com/artists/Mike-rutherford'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-its-all-over-lyrics', 'lyrics': "[Verse 1]\nYour bottle's almost empty\nYou know this can't go on\nBecause of you my mind is always racing\nThe needle's breaking your skin\nThe scar is sinking in\nAnd now your trip begins\n\n[Chorus]\nBut it's all over for\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over\n\n[Verse 2]\nI know what runs through your blood\nYou do this all in vain\nBecause of you my mind is always racing\nAnd it gets under my skin\nTo see you giving in\nAnd now your trip begins\n\n[Chorus]\nBut it's all over for\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over for you, for you\nWhen you're on the edge and falling off\nIt's all over\n[Instrumental Guitar Interlude]\n\n[Bridge]\nAnd now you're dead inside\nStill you wonder why\n(It's all over)\nAnd now you're dead inside\nStill you wonder why\n(It's all over)\n\n[Outro]\nAnd now you're dead inside\nStill you wonder why\nWhen you're on the edge and falling off\nIt's all over for you\nAnd now you're dead inside (For you)\nStill you wonder why\nWhen you're on the edge and falling off\nIt's all over for you\nAnd now you're dead inside (For you)\nStill you wonder why\nIt's all over", 'annotations': {'description': '&lt;p&gt;On “It’s All Over”, Adam Gontier worries about a person who’s succumbed to a drug and alcohol addiction. With Adam overcoming a prescription drug addiction of his own, this track is deeply personal and reflective.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-pain-lyrics', 'lyrics': "[Chorus]\nPain, without love\nPain, I can't get enough\nPain, I like it rough\n'Cause I'd rather feel pain than nothing at all\n\n[Verse 1]\nYou're sick of feeling numb\nYou're not the only one\nI'll take you by the hand\nAnd I'll show you a world that you can understand\nThis life is filled with hurt\nWhen happiness doesn't work\nTrust me, and take my hand\nWhen the lights go out you'll understand\n\n[Chorus]\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\n[Verse 2]\nAnger and agony\nAre better than misery\nTrust me I've got a plan\nWhen the lights go up you'll understand\n\n[Chorus]\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing\nRather feel pain\n\n[Bridge]\nI know, I know, I know, I know (I know)\nThat you're wounded\nYou know, you know, you know, you know (you know)\nThat I'm here to save you\nYou know, you know, you know, you know (you know)\nI'm always here for you\nI know, I know, I know, I know (I know)\nThat you'll thank me later\n[Chorus]\nPain, without love\nPain, can't get enough\nPain, I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nPain (Pain), without love\nPain (Pain), I can't get enough\nPain (Pain), I like it rough\n'Cause I'd rather feel pain than nothing at all\nRather feel pain than nothing at all\nRather feel pain", 'annotations': {'description': '&lt;p&gt;“Pain” is a tormented song about being numbed by depression, and wishing to feel pain rather than nothing. Written in the depths of Adam Gontier’s struggle against prescription drug addiction, the track is deeply personal.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-animal-i-have-become-lyrics', 'lyrics': "[Verse 1]\nI can't escape this hell\nSo many times I've tried\nBut I’m still caged inside\n\n[Pre-Chorus]\nSomebody get me through this nightmare\nI can’t control myself\n\n[Chorus]\nSo what if you can see the darkest side of me?\nNo one will ever change this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal\n(This animal)\n(This animal)\n\n[Verse 2]\nI can’t escape myself\n(I can’t escape myself)\nSo many times I’ve lied\n(So many times I’ve lied)\nBut there’s still rage inside\n\n[Pre-Chorus]\nSomebody get me through this nightmare\nI can’t control myself\n[Chorus]\nSo what if you can see the darkest side of me?\nNo one will ever change this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal\n\n[Bridge]\nSomebody help me through this nightmare\nI can’t control myself\nSomebody wake me from this nightmare\nI can’t escape this hell\n\n[Refrain]\nThis animal\nThis animal\nThis animal\nThis animal\nThis animal\nThis animal\nThis animal\n\n[Chorus]\nSo what if you can see the darkest side of me?\nNo one will ever change this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal I have become\nHelp me believe it’s not the real me\nSomebody help me tame this animal\n[Outro]\nThis animal I have become", 'annotations': {'description': '&lt;p&gt;“Animal I Have Become”, the first single from Three Days Grace’s 2006 album &lt;em&gt;One-X&lt;/em&gt;, is written as a cry for help. It was written by then lead singer and songwriter Adam Gontier, during his stay at a rehabilitation center. The narrator feels wild and untamable from an &lt;a href="http://crypticrock.com/three-days-grace-still-bringing-pain-with-one-x-a-decade-later/" rel="noopener nofollow"&gt;addiction to OxyContin&lt;/a&gt; and feels consumed by his addiction.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-never-too-late-lyrics', 'lyrics': "[Verse 1]\nThis world will never be what I expected\nAnd if I don't belong, who would have guessed it?\nI will not leave alone everything that I own\nTo make you feel like it's not too late\nIt's never too late\n\n[Chorus]\nEven if I say it'll be alright\nStill I hear you say you want to end your life\nNow and again we try to just stay alive\nMaybe we'll turn it all around 'cause it's not too late\nIt's never too late\n\n[Verse 2]\nNo one will ever see the side reflected\nAnd if there's something wrong, who would have guessed it?\nAnd I have left alone everything that I own\nTo make you feel like it's not too late\nIt's never too late\n\n[Chorus]\nEven if I say it'll be alright\nStill I hear you say you want to end your life\nNow and again we try to just stay alive\nMaybe we'll turn it all around 'cause it's not too late\nIt's never too late\n[Bridge]\nThe world we knew won't come back\nTime we've lost, can't get it back\nLife we had won't be ours again\nThis world will never be what I expected\nAnd if I don't belong\n\n[Chorus]\nEven if I say it'll be alright\nStill I hear you say you want to end your life\nNow and again we try to just stay alive\nMaybe we'll turn it all around 'cause it's not too late\nIt's never too late\nMaybe we'll turn it all around\n'Cause it's not too late\nIt's never too late (It's never too late)\nIt's not too late\nIt's never too late", 'annotations': {'description': '&lt;p&gt;The third single from One X and arguably Three Days Grace’s most well known song.&lt;/p&gt;\n\n&lt;p&gt;Because of the prominence of censorship during the song’s early days, radio edits edited the lyrics “end your life” into “change your life” to eliminate the suicide reference from the song.&lt;/p&gt;\n\n&lt;p&gt;Three Days Grace’s frontman Adam Gontier has explained the song being about “being in a very dark place, but being able to see a way out.”&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-riot-lyrics', 'lyrics': "[Verse 1]\nIf you feel so empty, so used up, so let down\nIf you feel so angry, so ripped off, so stepped on\nYou're not the only one refusing to back down\nYou're not the only one, so get up\n\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot\n\n[Verse 2]\nIf you feel so filthy, so dirty, so fucked up\nIf you feel so walked on, so painful, so pissed off\nYou're not the only one refusing to go down\nYou're not the only one, so get up\n\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot\n\n[Bridge]\nIf you feel so empty, so used up, so let down\nIf you feel so angry, just get up\nLet's start a riot, a riot\nLet's start a riot\n[Chorus]\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot, a riot\nLet's start a riot, a riot\nLet's start a riot\nLet's start a riot, a riot\nLet's start a riot", 'annotations': {'description': '&lt;p&gt;“Riot” is the fourth and final single from Three Days Grace’s second album, &lt;em&gt;One-X&lt;/em&gt;. The song is about protesting against the negative things in life and was written while Adam Gontier was in rehab for a prescription drug addiction.&lt;/p&gt;\n\n&lt;p&gt;As of February 12, 2018, the single reached Platinum in the United States. The song peaked at #12 on the U.S. Mainstream Rock Charts and #21 on the U.S. Alternative Songs Charts on May 10, 2008 and #65 on the Canadian Hot 100 Charts on January 12, 2008.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-let-it-die-lyrics', 'lyrics': "[Verse 1]\nWe had fire in our eyes in the beginning\nI never felt so alive, in the beginning\nYou, you blame me but\n\n[Pre-Chorus]\nIt's not fair when you say that I didn't try\nI just don't wanna hear it anymore\n\n[Chorus]\nI swear I never meant to let it die\nI just don't care about you anymore\nIt's not fair when you say that I didn't try\nI just don't care about you anymore\n\n[Verse 2]\nWe had time on our side, in the beginning\nWe, we had nothing to hide, in the beginning\nYou, you blame me but\n\n[Pre-Chorus]\nIt's not fair when you say that I didn't try\nI just don't wanna hear it anymore\n\n[Chorus]\nI swear I never meant to let it die\nI just don't care about you anymore\nIt's not fair when you say that I didn't try\nI just don't care about you anymore\n[Bridge]\nYou say that I didn't try\nYou say that I didn't try\n\n[Chorus]\nI swear I never meant to let it die\nI just don't care about you anymore\nIt's not fair when you say that I didn't try\nI just don't care about you anymore\n\n[Outro]\n(I just don't care about you anymore)\nI just don't care about you anymore\n(I just don't care about you anymore)\nI just don't care about you anymore", 'annotations': {'description': '&lt;p&gt;On “Let It Die”, lead singer Adam Gontier describes a relationship where everything seems to be going right, that is, in the beginning. When the chorus hits and the bass kicks in, it’s clear that this relationship is far from okay. In fact, it’s about to end, and while Adam did try his best, he wants the girl to know that he doesn’t care anymore.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'C. Brown', 'url': 'https://genius.com/artists/C-brown'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-over-and-over-lyrics', 'lyrics': "[Verse 1]\nI feel it everyday, it's all the same\nIt brings me down, but I'm the one to blame\nI've tried everything to get away\n\n[Pre-Chorus]\nSo here I go again, chasing you down again\nWhy do I do this?\n\n[Chorus]\nOver and over, over and over\nI fall for you\nOver and over, over and over\nI try not to\n\n[Verse 2]\nIt feels like every day stays the same\nIt's dragging me down and I can't pull away\n\n[Pre-Chorus]\nSo here I go again, chasing you down again\nWhy do I do this?\n\n[Chorus]\nOver and over, over and over\nI fall for you\nOver and over, over and over\nI try not to\nOver and over, over and over\nYou make me fall for you\nOver and over, over and over\nYou don't even try\n[Bridge]\nSo many thoughts that I can't get out of my head\nI try to live without you\nEvery time I do I feel dead\nI know what's best for me but I want you instead\nI'll keep on wasting all my time\n\n[Chorus]\nOver and over, over and over\nI fall for you\nOver and over, over and over\nI try not to\nOver and over, over and over\nYou make me fall for you\nOver and over, over and over\nYou don't even try to", 'annotations': {'description': '&lt;p&gt;“Over and Over” is a track capturing Adam Gontier’s emotional struggle whilst undergoing rehab for a prescription drug addiction. Backed by string-accompanied guitar, Adam is drowned by hopelessness.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-time-of-dying-lyrics', 'lyrics': "[Verse 1]\nOn the ground I lay, motionless in pain\nI can see my life flashing before my eyes\nDid I fall asleep?\nIs this all a dream?\nWake me up, I'm living a nightmare\n\n[Pre-Chorus]\nI will not die  (I will not die)\nI will survive\n\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n\n[Verse 2]\nOn this bed I lay, losing everything\nI can see my life passing me by\nWas it all too much?\nOr just not enough?\nWake me up, I'm living a nightmare\n\n[Pre-Chorus]\nI will not die (I will not die)\nI will survive\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n\n[Instrumental Break]\n\n[Chorus]\nI will not die, I'll wait here for you\nI feel alive when you're beside me\nI will not die, I'll wait here for you\nIn my time of dying\n(Feel alive)\nI will not die, I'll wait here for you (Feel alive)\nI feel alive when you're beside me (Feel alive)\nI will not die, I'll wait here for you\nIn my time of dying", 'annotations': {'description': '&lt;p&gt;I believe this is pullout symptoms from active medicine dependence. “the agony”. and and asking a advanced power to come back into his life because he feels alive when this power is beside or near him. He wants to" wake up" meaning live his life with joy and peace rather than being in pain all the time, he thinks he has the courage to survive and get off medicines but does not know how to ask for help and knows deep down in his heart he does not want to die like this.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-bitter-taste-lyrics', 'lyrics': "[Verse 1]\nJust let me say one thing\nI've had enough\nYou're selfish and sorry\nYou'll never learn how to love\nAs your world disassembles\nBetter keep your head up\n\n[Pre-Chorus]\nYour name, your face is\nAll you have left now\nBetrayed, disgraced\nYou've been erased\n\n[Chorus]\nSo long, so long\nI have erased you\nSo long, so long\nI've wanted to waste you\nSo long, so long\nI have erased you\nI have escaped\nThe bitter taste of you\n\n[Verse 2]\nJust let me clear my head\nI think I've had too much\nYou're so disappointing\nBut you make good use of it\nAs your world disassembles\nBetter keep your head up\n[Pre-Chorus]\nYour name, your face is\nAll you have left now\nBetrayed, disgraced\nYou've been erased\n\n[Chorus]\nSo long, so long\nI have erased you\nSo long, so long\nI've wanted to waste you\nSo long, so long\nI have erased you\nI have escaped\nThe bitter taste of you\n\n[Guitar Solo]\n\n[Bridge]\nYour name, your face is\nAll you have left now\nDisgraced, betrayed\nYou've been erased\n\n[Chorus]\nSo long, so long\nI have erased you\nSo long, so long (So long)\nI've wanted to waste you\nSo long, so long\nI have erased you\nI have escaped\nThe bitter taste\n[Outro]\nI have escaped\nThe bitter taste of you", 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-break-lyrics', 'lyrics': '[Verse 1]\nTonight, my head is spinning\nI need something to pick me up\nI’ve tried, but nothing is working\nI won’t stop, I won’t say I’ve had enough\n\n[Pre-Chorus]\nTonight, I start the fire\nTonight, I break away\n\n[Chorus]\nBreak away from everybody\nBreak away from everything\nIf you can’t stand the way this place is\nTake yourself to higher places\n\n[Verse 2]\nAt night I feel like a vampire\nIt’s not right but I just can’t give it up\nI’ll try to get myself higher\nLet’s go, we’re going to light it up\n\n[Pre-Chorus]\nTonight, we start the fire\nTonight, we break away\n[Chorus]\nBreak away from everybody\nBreak away from everything\nIf you can’t stand the way this place is\nTake yourself to higher places\n\n[Bridge]\nIf you can’t stand the way this place is\nTake (Take) yourself (Yourself) to higher places\n\n[Chorus]\nBreak away from everybody\nBreak away from everything\nIf you can’t stand the way this place is\nTake yourself to higher places\n\n[Outro]\nHigher places\nTo higher places\nHigher places\nTake yourself to higher places', 'annotations': {'description': '&lt;p&gt;“Break” is the second track and lead single off of Three Days Grace’s third album, &lt;em&gt;Life Starts Now&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song deals with breaking yourself out of rough situations you don’t want to remain in. The message is that it is up to you to let go of the negative people or situations you deal with and make a stand for yourself.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-the-good-life-lyrics', 'lyrics': "[Verse 1]\nThe good life is what I need\nToo many people stepping over me\nThe only thing that's been on my mind\nIs the one thing I need before I die\n\n[Chorus]\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nThe good life\n\n[Verse 2]\nI don't really know who I am\nIt's time for me to take a stand\nI need a change and I need it fast\nI know that any day could be the last\n\n[Chorus]\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\n[Bridge]\nHold on hold on\nI always wanted it this way\nWe never wanted it this way\nHold on hold on\nI always wanted it this way\nWe didn't ask for it this way\nI always wanted this way\nThe good life\n\n[Chorus]\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nAll I want is a little of the good life\nAll I need is to have a good time\nOh oh oh\nThe good life\nThe good life", 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Three-days-grace-bully-lyrics', 'lyrics': "[Verse 1]\nHe wakes up haunted with voices in his head\nNobody knows it, but today he won't go unnoticed\nHe can't forget, can't forgive for what they said\nHe's never been so hurt, but today the screaming is over\n\n[Chorus]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe he needed to be wanted\nBlame the family\nBlame the bully\nMaybe he needed to be wanted\n\n[Verse 2]\nShe takes the long way home, fighting her emotions\nShe's a loner, but tonight she won't go unnoticed\nShe can't remember when she loses her temper\nNobody knows her, but tonight the silence is over\n\n[Chorus]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe she needed to be wanted\nBlame the family\nBlame the bully\nBlame it on me\nMaybe she needed to be wanted\n[Guitar Solo]\n\n[Bridge]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe they needed\n\n[Chorus]\nBlame the family\nBlame the bully\nBlame it on me\nMaybe they needed to be wanted\nBlame the family\nBlame the bully\nBlame it on me\nMaybe they needed to be wanted, wanted", 'annotations': {'description': '&lt;p&gt;On “Bully”, Adam Gontier dives into the minds of two tormented kids, and the society that pushed them to their current states. On the brink of leaving the world forever, the unnamed boy and girl will soon be known, as the blame game begins.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-polyamorous-lyrics', 'lyrics': "[Intro]\nLet's go!\n\n[Verse 1]\nThe day has come to an end\nThe sun is over my head\nMy polyamorous friend\nHe got me in a mess of trouble again\n\n[Chorus]\nSo just when you think that you're all right\nI'm calling out from the inside\nI never hurt anyone\nI never listen at all\n\n[Verse 2]\nThey've come to get me again\nThe cloud is over my head\nMy polyamorous friend\nHe got me in a mess of trouble again\n\n[Chorus]\nSo just when you think that you're all right\nI'm calling out from the inside\nI never hurt anyone\nI never listen at all\nJust stay away from the white light\nI'd say your worst side's your best side\nI never hurt anyone\nI never listen at all\n[Bridge]\nWell, how do you know?\nWell, how do you know?\nWell, how do you know?\nWell, how do you know?\n\n[Chorus 2]\nJust when you think that you're all right\nI'm calling out from the inside\nI never hurt anyone\nI never listen at all\nJust stay away from the white light\nI'd say your worst side's your best side\nI never hurt anyone\nI never listen at all\n\n[Outro]\nLet's go", 'annotations': {'description': '&lt;p&gt;This song could possibly refers to multiple relationships if you took the meaning of the word"Polyamorous" itself but Actually guys I honestly think this song isn’t about sex. It could be about drugs or drinking but I doubt it. “Polyamorus” many or multiple. It is for this reason that I think that the meaning is multiple personalities.&lt;br&gt;\n“Polyamorous” is about finding a person’s true self and it’s about multiple personalities. It could also be about drugs and alcohol but I think this is the main meaning. I am fairly certain however, it is NOT about sex.&lt;br&gt;\nThe good thing about Breaking Benjamin songs is that they are always multiple meanings.&lt;/p&gt;', 'producers': [{'name': 'Ulrich Wild', 'url': 'https://genius.com/artists/Ulrich-wild'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-shallow-bay-lyrics', 'lyrics': "[Intro]\nCome on!\n\n[Verse 1]\nThe sun will rise\nAnother time\nThe colors blind\nYour virgin eyes\nI'm so inclined\nTo make you mine\nYou're out of line\nAnd out of time\n\n[Chorus]\nAnd I float upon a shallow bay\nLift me up until the ground gives way\nI'm a California castaway\nI don't think you wanna fuck with me\n\n[Verse 2]\nDon't over kill\nThis painless thrill\nIt's bitter still\nYour pretty pill\nYou wait until\nYou've had your fill\nI know you will [x2]\n[Chorus]\n\n[Bridge]\nA shallow bay [x2]\n\n[Chorus][x2]\n\n[Outro]\nYou live, you learn [x3]\nYou live", 'annotations': {'description': '&lt;p&gt;‘Shallow Bay’ is the 12th track on Breaking Benjamin’s debut album, Saturate, released in 2002.&lt;/p&gt;\n\n&lt;p&gt;During the few couple years that Breaking Benjamin were a band, the band would close the setlist with this song, with frontman Ben Burnley dedicating the song to “all you Shallow Bay-ers out there.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/bc331f91e0c8e0761824cf143273dd26.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-firefly-lyrics', 'lyrics': "[Verse 1]\nYou, my friend\nYou're a lot like them\nBut I caught your lie\nAnd you know I did\nNow I'm lost in you\nLike I always do\nAnd I'll die to win\nCause I'm born to lose\n\n[Chorus]\nFirefly\nCould you shine your light?\nNow I love your ways\n'Cause they're just like mine\nNow I'm justified\nAs I fall in line\nAnd it's hard to try\nWhen you're open wide\n\n[Verse 2]\nTake my hand\nWe'll be off and then\nWe'll come back again\nTo a different land\nNow I like this way\nYou can go away\nIf you guess the name\nYou cannot replace\n[Chorus]\nFirefly\nCould you shine your light?\nNow I love your ways\n'Cause they're just like mine\nNow I'm justified\nAs I fall in line\nAnd it's hard to try\nWhen you're open wide\n\n[Bridge]\nBring me your enemies\nLay them before me\nAnd walk away\nWalk away\nWalk away!\n\n[Chorus]\nFirefly\nCould you shine your light?\nNow I love your ways\n'Cause they're just like mine\nNow I'm justified\nAs I fall in line\nAnd it's hard to try\nWhen you're open wide\nFuck you, firefly\nHave you lost your light?\nNow I hate your ways\n'Cause they're just like mine\nSo you lost, my friend\nSuch a sorry end\nAnd I don't know why\nSo I choke and smile\n[Outro]\nSmile!", 'annotations': {'description': '&lt;p&gt;Firefly is the fourth song from Breaking Benjamin’s second full-length studio album We Are Not Alone, released on 28th June 2004.&lt;/p&gt;\n\n&lt;p&gt;The song was also included in the soundtrack for the video games titled WWE SmackDown! vs. Raw and WWE Day of Reckoning, released that same year.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-breakdown-lyrics', 'lyrics': "[Intro]\nBreakdown!\n\n[Verse 1]\nLet the fun and games begin\nShe is spayed and broken in\nSkin is cold and white\nSuch a lovely, lonely night\n\n[Pre-Chorus]\nHeaven is on the way\nYou could feel the hate\nBut I guess you never will\nI'm on a roll again\nAnd I want an end\n'Cause I feel you creeping in\n\n[Chorus]\nWhat I've found in this town\nI'm headed for a breakdown\nWhat's that sound? You're so loud\nI'm headed for a breakdown\n\n[Verse 2]\nDrank up all my alcohol\nThis is not a free-for-all\nI'll be there for you\nTill my heart is black and blue\n[Pre-Chorus]\nHeaven is on the way\nYou could feel the hate\nBut I guess you never will\nI'm on a roll again\nAnd I want an end\n'Cause I feel you creeping in\n\n[Chorus]\nWhat I've found in this town\nI'm headed for a breakdown\nWhat's that sound? You're so loud\nI'm headed for a breakdown\n\n[Outro]\nYou blacked out, you're so proud\nI'm headed for a breakdown\nWhat's that sound, you're so loud\nI'm headed for a breakdown\nNo!", 'annotations': {'description': '', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-the-diary-of-jane-lyrics', 'lyrics': '[Verse 1]\nIf I had to, I would put myself right beside you\nSo let me ask, "Would you like that? Would you like that?"\nAnd I don\'t mind if you say this love is the last time\nSo now I\'ll ask, "Do you like that? Do you like that?" (No!)\n\n[Chorus]\nSomething\'s getting in the way\nSomething\'s just about to break\nI will try to find my place in the diary of Jane\nSo tell me how it should be\n\n[Verse 2]\nTry to find out what makes you tick\nAs I lie down, sore and sick\nDo you like that, do you like that?\nThere\'s a fine line between love and hate\nAnd I don\'t mind, just let me say\nThat I like that, I like that\n\n[Chorus]\nSomething\'s getting in the way\nSomething\'s just about to break\nI will try to find my place in the diary of Jane\nAs I burn another page, as I look the other way\nI still try to find my place in the diary of Jane\nSo tell me how it should be\n[Bridge]\nDesperate, I will crawl\nWaiting for so long\nNo love, there is no love\nDie for anyone\nWhat have I become?\n\n[Chorus]\nSomething\'s getting in the way\nSomething\'s just about to break\nI will try to find my place in the diary of Jane\nAs I burn another page, as I look the other way\nI still try to find my place in the diary of Jane', 'annotations': {'description': '&lt;p&gt;“The Diary of Jane” seems to describe a love-starved individual on the brink of a mental breakdown.  The name of the title character was inspired by &lt;a href="https://en.wikipedia.org/wiki/Jane_Bryan" rel="noopener nofollow"&gt;Jane Bryan&lt;/a&gt; (as seen in the official music video), a notable actor from the 1930s. Breaking Benjamin’s previous album shared its title with a Jane Bryan film named &lt;i&gt;We Are Not Alone&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lead singer &lt;a href="https://genius.com/artists/Benjamin-burnley" rel="noopener" data-api_path="/artists/502352"&gt;Benjamin Burnley&lt;/a&gt; adds powerful and razor-sharp vocals that alternate between singing and screaming to convey the desperation of the narrator while an array of guitar effects and heavy riffs act to create an intense wall of sound, with each section flowing effortlessly into the next.&lt;/p&gt;\n\n&lt;p&gt;One of the band’s most successful tracks, the song survived the &lt;a href="http://www.billboard.com/artist/297098/Breaking+Benjamin/chart?f=379" rel="noopener nofollow"&gt;&lt;i&gt;Billboard&lt;/i&gt; Hot 100&lt;/a&gt; for 20 weeks and reached #2 on the &lt;a href="http://www.billboard.com/artist/297098/Breaking+Benjamin/chart?f=376" rel="noopener nofollow"&gt;&lt;i&gt;Billboard&lt;/i&gt; Mainstream Rock charts&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Mark James Klepaski', 'url': 'https://genius.com/artists/Mark-james-klepaski'}, {'name': 'Aaron Fink', 'url': 'https://genius.com/artists/Aaron-fink'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-breath-lyrics', 'lyrics': "[Verse 1]\nI see nothing in your eyes\nAnd the more I see, the less I like\nIs it over yet?\nIn my head\nI know nothing of your kind\nAnd I won't reveal your evil mind\nIs it over yet?\nI can't win\n\n[Pre-Chorus]\nSo, sacrifice yourself\nAnd let me have what's left\nI know that I can find\nThe fire in your eyes\nI'm going all the way\nGet away, please\n\n[Chorus]\nYou take the breath right out of me\nYou left a hole where my heart should be\nYou got to fight just to make it through\n'Cause I will be the death of you\n\n[Verse 2]\nThis will be all over soon (This will all be over soon)\nPour the salt into the open wound\nIs it over yet?\nLet me in\n[Pre-Chorus]\nSo, sacrifice yourself\nAnd let me have what's left\nI know that I can find\nThe fire in your eyes\nI'm going all the way\nGet away, please\n\n[Chorus]\nYou take the breath right out of me\nYou left a hole where my heart should be\nYou got to fight just to make it through\n'Cause I will be the death of you\n\n[Bridge]\n(Take, take, take)\nI'm waiting\nI'm praying\nRealize\nStart hating\n\n[Chorus]\nYou take the breath right out of me\nYou left a hole where my heart should be\nYou got to fight just to make it through\n'Cause I will be the death of you", 'annotations': {'description': '&lt;p&gt;“Breath” is one of Breaking Benjamin’s most successful songs, &lt;a href="http://www.billboard.com/artist/297098/Breaking+Benjamin/chart?f=376" rel="noopener nofollow"&gt;hitting #1 on &lt;i&gt;Billboard&lt;/i&gt;’s Mainstream Rock Tracks in early 2007&lt;/a&gt;. With a solid backbone of low-end riffs, the lead guitars soar with melodies that make this song immediately memorable.&lt;/p&gt;\n\n&lt;p&gt;As the song progresses, frontman Benjamin Burnley seems to teeter back and forth between desperation and determination while he struggles with his demons, carrying the usual ferociousness of his vocals with him.&lt;/p&gt;\n\n&lt;p&gt;There are two versions of “Breath,” one being the original album version released on August 8th, 2006, and the single radio-edit released later in January of 2007.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-evil-angel-lyrics', 'lyrics': "[Verse 1]\nHold it together\nBirds of a feather\nNothing but lies and crooked wings\nI have the answer\nSpreading the cancer\nYou are the faith inside me\n\n[Pre-Chorus]\nNo\nDon't\nLeave me to die here\nHelp me survive here\nAlone\nI don't remember\nRemember\n\n[Chorus]\nPut me to sleep, evil angel\nOpen your wings, evil angel\n\n[Verse 2]\nI'm a believer\nNothing could be worse\nAll these imaginary friends\nHiding betrayal\nDriving the nail\nHoping to find a savior\n[Pre-Chorus]\nNo\nDon't\nLeave me to die here\nHelp me survive here\nAlone\nDon't surrender\nSurrender\n\n[Chorus]\nPut me to sleep, evil angel\nOpen your wings, evil angel\n\n[Outro]\nFly over me, evil angel\nWhy can't I breathe?\nEvil angel", 'annotations': {'description': '&lt;p&gt;This song contrasts heavy, smashing guitar riffs with soaring chords. In doing so, Breaking Benjamin illustrates the irony of a wicked angel, who is the topic of this song. The song expands upon these opposites of good and evil through the use of irony and description throughout.&lt;/p&gt;\n\n&lt;p&gt;Furthermore, this song may have been inspired by the tale of the ancient deity, Azrael, the name of the fabled and notorious “Angel of Death.”&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-dance-with-the-devil-lyrics', 'lyrics': "[Intro]\nHere I stand\nHelpless and left for dead\n\n[Verse 1]\nClose your eyes\nSo many days go by\nEasy to find what's wrong\nHarder to find what's right\n\n[Pre-Chorus]\nI believe in you\nI can show you that\nI can see right through\nAll your empty lies\nI won't stay long\nIn this world so wrong\n\n[Chorus]\nSay goodbye\nAs we dance with the Devil tonight\nDon't you dare look at him in the eye\nAs we dance with the Devil tonight\n\n[Verse 2]\nTrembling\nCrawling across my skin\nFeeling your cold, dead eyes\nStealing the life of mine\n[Pre-Chorus]\nI believe in you\nI can show you that\nI can see right through\nAll your empty lies\nI won't last long\nIn this world so wrong\n\n[Chorus]\nSay goodbye\nAs we dance with the Devil tonight\nDon't you dare look at him in the eye\nAs we dance with the Devil tonight\nHold on\nHold on (Oh)\n\n[Guitar Solo]\n\n[Chorus]\nSay goodbye\nAs we dance with the Devil tonight\nDon't you dare look at him in the eye\nAs we dance with the Devil tonight\nHold on\nHold on\n[Outro]\n(Ooh)\nGoodbye", 'annotations': {'description': '&lt;p&gt;Dance With The Devil is a song by Breaking Benjamin about doing a sin you hate to get pleasure from it. In Spotify plays, it is the third most popular from Breaking Benjamin’s third album Phobia.&lt;br&gt;\nThe lead singer, Benjamin Burnley, struggled with alcohol abuse earlier in his life, and this song is most likely about his addiction.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-topless-lyrics', 'lyrics': "[Verse 1]\nFruit on the vine\nYou've got yours\nAnd I've got mine\nMeat on your bones\nThey won't know\nThey won't know\n\n[Chorus]\nI love your face\nJust get away\nI'm on my knees\nFuck you\nFuck me\n\n[Verse 2]\nI'm on my way\nTo feel you\nDislocate\nSafe in your space\nI'm open\nWide open\n\n[Chorus]\nI love your face\nJust get away\nI'm on my knees\nFuck you\nFuck me\n[Refrain]\nLike me\nLike me\nLike me\n\n[Chorus]\nI love your face\nJust get away\nI'm on my knees\nFuck you\nFuck me\n\n[Outro]\nMe\nMe\nMe", 'annotations': {'description': '&lt;p&gt;This song is about temptation, making references to Adam and Eve and the snake.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-unknown-soldier-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nBorderline\nDead inside\nI don't mind\nFalling to pieces\nCount me in\nViolent\nLet's begin\nFeeding the sickness\nHow do I\nSimplify?\nDislocate\nThe enemy's on the way\n\n[Chorus]\nShow me what it's like\nTo dream in black and white\nSo I can leave this world tonight\n\n[Verse 2]\nFull of fear, Everclear\nI'll be here, fighting forever\nCurious, venomous\nYou'll find me climbing to heaven\nNever mind, turn back time\nYou'll be fine, I will get left behind\n[Chorus]\nShow me what it's like\nTo dream in black and white\nSo I can leave this world tonight\nHolding on too tight\nBreathe the breath of life\nSo I can leave this world behind\n\n[Bridge]\n(Ooh)\nIt only hurts just once (Ooh)\nThey're only broken bones (Ooh)\nHide the hate inside (Ooh)\n(Oh)\n(So I can leave this world behind)\n\n[Chorus]\nShow me what it's like\nTo dream in black and white\nSo I can leave this world tonight\nHolding on too tight\nBreathe the breath of life\nSo I can leave this world behind", 'annotations': {'description': '&lt;p&gt;The introduction to the song suggests a military theme with the sound of a large number of helicopters.&lt;/p&gt;\n\n&lt;p&gt;The military theme of the songs suggests a fight of sorts, a battle, probably internal. The sound of the helicopter creates the setting of a battle field for an internal fight. This is all interpretation, as there is not much revealed about the band’s meaning behind the song.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e5472af0aaf330b1a7d0e1a0d9ca7707.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-i-will-not-bow-lyrics', 'lyrics': "[Intro]\nFall\n\n[Verse 1]\nNow the dark begins to rise\nSave your breath\nIt's far from over\nLeave the lost and dead behind\nNow's your chance to run for cover\nI don't want to change the world\nI just want to leave it colder\nLight the fuse and burn it up\nTake the path that leads to nowhere\n\n[Pre-Chorus]\nAll is lost again\nBut I'm not giving in\n\n[Chorus]\nI will not bow\nI will not break\nI will shut the world away\nI will not fall\nI will not fade\nI will take your breath away\n[Post-Chorus]\nFall\n\n[Verse 2]\nWatch the end through dying eyes\nNow the dark is taking over\nShow me where forever dies\nTake the fall\nAnd run to heaven\n\n[Pre-Chorus]\nAll is lost again\nBut I'm not giving in\n\n[Chorus]\nI will not bow\nI will not break\nI will shut the world away\nI will not fall\nI will not fade\nI will take your breath away\n\nAnd I'll survive\nParanoid\nI have lost the will to change\nAnd I am not proud\nColdblooded fake\nI will shut the world away\n[Bridge]\nOpen your eyes!\n\n[Chorus]\nI will not bow\nI will not break\nI will shut the world away\nI will not fall\nI will not fade\nI will take your breath away\n\nAnd I'll survive\nParanoid\nI have lost the will to change\nAnd I am not proud\nColdblooded fake\nI will shut the world away\n\n[Outro]\nFall", 'annotations': {'description': '&lt;p&gt;“I Will Not Bow” was used to promote (and included in) the 2009 Bruce Willis film &lt;em&gt;Surrogates&lt;/em&gt;. The single was released to radio six weeks prior to both the film and the band’s fourth album &lt;em&gt;Dear Agony&lt;/em&gt;. It is the band’s biggest hit, &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=I+WILL+NOT+BOW" rel="noopener nofollow"&gt;selling over 2 million copies&lt;/a&gt; and, as of 2018, their only US &lt;a href="https://www.billboard.com/music/breaking-benjamin" rel="noopener nofollow"&gt;top 40 hit&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Jasen Rauch', 'url': 'https://genius.com/artists/Jasen-rauch'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Breaking-benjamin-blow-me-away-lyrics', 'lyrics': "[Verse 1]\nThey fall in line, one at a time, ready to play\n(I can't see them anyway)\nNo time to lose, we've got to move, steady your helm\n(I am losing sight again)\n\n[Pre-Chorus]\nFire your guns, it's time to run, blow me away\n(I will stay in the mess I made)\nAfter the fall, we'll shake it off, show me the way\n\n[Chorus]\nOnly the strongest will survive\nLead me to heaven when we die\nI am a shadow on the wall\nI'll be the one to save us all\n\n[Verse 2]\nThere's nothin' left, so save your breath, lying in wait\n(Caught inside this tidal wave)\nYour cover's blown, nowhere to go, holding your fate\n(Lonely, I will walk alone)\n\n[Pre-Chorus]\nFire your guns, it's time to run, blow me away\n(I will stay in the mess I made)\nAfter the fall, we'll shake it off, show me the way\n[Chorus]\nOnly the strongest will survive\nLead me to heaven when we die\nI am a shadow on the wall\nI'll be the one to save us all\n\n[Bridge: Ben]\nYou wanted it back\nDon't fight me now\nHere I Come\nDie\n\n[Chorus]\nOnly the strongest will survive\nLead me to heaven when we die\nI am a shadow on the wall\nI'll be the one to save us all\nSave us all", 'annotations': {'description': '&lt;p&gt;This song can be interpreted to be about some sort of battle. Some people may believe this song was meant to be on the Halo 2 soundtrack. When you look at the lyrics, he says, “Fire your gun, it’s time to run, Blow me away.” This could definitely be related to a battle.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Jeremy Hummel', 'url': 'https://genius.com/artists/Jeremy-hummel'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-ashes-lyrics', 'lyrics': '[Intro]\nRight\nHate, hate, hate!\nBring it!\n\n[Verse 1]\nYou don\'t understand me\nAnd you probably never will\nI got a tendency to self-destruct\nAnd a soft spot for the filth\nA hair-trigger temperament\nA switchblade for a tongue\nI\'m a walking one-man genocide\nWith a black belt in corrupt\n\n[Chorus 1]\nEverything I touch turns to ashes\nFalls away, it falls away\nEverything I touch turns to ashes\nIt slips right through my hands\n\n[Chorus 2]\nLove me, hate me\nIsolate me every day that I\'m alive\nStraight-up mentally unstable\nYou don\'t have to like my life\n[Verse 2]\nI\'m a jinx, a curse; some say, "The worst"\nI\'m a savage, rabid beast\nI\'ve been called so many fucking things\nIt doesn\'t affect me in the least!\nI\'ve stolen, lied, been crucified\nBut I don\'t regret a thing\nI\'m an egocentric masochist\nWith a sadist\'s point of bleak\n\n[Chorus]\nEverything I touch turns to ashes\nFalls away, it falls away\nEverything I touch turns to ashes\nIt slips right through my hands\n\n[Chorus 2]\nLove me, hate me\nIsolate me every day that I\'m alive\nLive to prove you wrong, it\'s easy\nWhen your heart is filled with ice\nChapters in my life define me\nChanged me into this deprived\nStraight-up mentally unstable\nYou don\'t have to like my life\n[Outro]\nEverything I touch turns to ashes\nFalls away, it falls away\nEverything I touch turns to ashes\nIt slips right through my hands', 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-the-way-of-the-fist-lyrics', 'lyrics': "[Intro]\nBreak this shit down!\nZoltan, open the sky!\n\n[Verse 1]\nYou want it, you got it\nEverything you needed and more\nYou said it; I heard it\nCareful what you wish for\nDeleted, defeated, everything you've ever been\nNo mercy, it's the way of the fist\n\n[Pre-Chorus]\nStrapped with rage, got no patience for victims\nSick and tired of the whole fuckin' world\n\n[Chorus]\nI don't remember asking you about your imperfections\nYou might win one battle\nBut know this: I'll win the fucking war!\n\n[Post-Chorus]\nEnd of the goddamn road! (Right!)\n\n[Bridge]\nStep to me, step to me, motherfucker\nZip your lip, you've run out of time\nStep to me, step to me, motherfucker\nTalk the talk now, walk the damn line\n[Verse 2]\nDeserve it; you earned it, got yourself a fuckin' war\nBelieve it; you need it, facedown on the fuckin' floor\nI hate it; can't take it\nWanna break your fuckin' bones\nNo mercy, you faggot\nShould've left it all alone\n\n[Pre-Chorus]\nStrapped with rage; got no patience for victims\nSick and tired of the whole fuckin' world\n\n[Chorus]\nI don't remember asking you about your imperfections\nYou might win one battle\nBut know this: I'll win the fucking war!\n\n[Hook]\nAs you crash and burn\nOne, two, fuck you! (Right!)\n\n[Bridge]\nStep to me, step to me, motherfucker\nZip your lip, you've run out of time\nStep to me, step to me, motherfucker\nTalk the talk; now walk the damn line\nStep to me, step to me, motherfucker\nShut your face; it's your turn to die\nStep to me, step to me, anybody\nTalk the shit, your ass is mine\n[Chorus]\nI don't remember asking you about your imperfections\nYou might win one battle\nBut know this: I'll win the fucking war!", 'annotations': {'description': '&lt;p&gt;The Way of the Fist was the title track for American groove metal band, Five Finger Death Punch’s debut album, released in 2007.  The song is considered one of their heaviest songs by many fans of the band.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/b025aa3baa3e3bd4789759b44a6b58a0.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-the-bleeding-lyrics', 'lyrics': "[Intro/Guitar Solo]\n\n[Verse 1]\nI remember when all the games began\nRemember every little lie and every last goodbye\nPromises you broke, words you choked on\nAnd I never walked away\nIt's still a mystery to me\n\n[Pre-Chorus]\nWell, I'm so empty\nI'm better off without you and you're better off without me\nWell, you're so unclean\nI'm better off without you and you're better off without me\n\n[Chorus]\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred (deceiving), the beatings; it's over\n\n[Verse 2]\nPaint the mirrors black to forget you\nI still picture your face (still picture your face)\nAnd the way you used to taste (way you used to taste)\nRoses in a glass, dead and wilted\nTo you, this all was nothing\nEverything to you is nothing\n[Pre-Chorus]\nWell, you're so filthy\nI'm better off without you and you're better off without me\nWell, I'm so ugly\nYou're better off without me and I'm better off alone\n(Right!)\n\n[Chorus]\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred, the beatings (disaster); it's over\n\n[Bridge]\n(Why?) As wicked as you are\nYou're beautiful to me\n(Why?) You're the darkest burning star\nYou're my perfect disease\n\n[Chorus]\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred, the beatings; it's over\nDisaster\nThe lying, the bleeding, the screaming\nWas tearing me apart\nThe hatred, the beatings; it's over\nDisaster\n[Outro]\nIt's over now...", 'annotations': {'description': '&lt;p&gt;This is one of Five Finger Death Punch’s first and biggest hits. The song is off of their Way Of The Fist album. In the song Ivan talk about his relationship with a girl from Ohio, that ends in shambles and pain, because of the trickery and dishonesty in the relationship.&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-white-knuckles-lyrics', 'lyrics': '[Intro]\nOh, fuck it all!\n\n[Verse 1]\nSick of being sick and tired, sick of understanding\n(Fuck it all...) Tired of feeling sick to my stomach\nDemons inside command me\nThey\'re saying, "Crush it, break it, smash it\nFucking kill \'em all!"\nLaugh as it falls away\nI won\'t dodge another silver bullet\nJust to save a little face\n\n[Chorus 1]\nI want you to know, I want you to see\nI want you to look beyond your own eyes\nPast your afflictions\n\n[Verse 2]\nHow many people really care?\nHow many will be standing?\nI\'ll light the match, the flame, the fuse, the bomb\nRescue the world from slavery\nI want to torch it, burn it, scorch it, fuckin\' stomp it out\nLaugh as it blows away\nI won\'t eat another rotten apple\nThough I\'ve grown to like the taste\n[Chorus]\nI want you to know, I want you to see\nI want you to look beyond your own eyes\nPast your afflictions\nI want you to hurt, want you to bleed\nI want you to look beyond your own face\nPast your infections\n\n[Bridge]\nI\'m taking back control with my knuckles\nI\'m taking back control with my knuckles\nI\'m taking back control with my knuckles\nI\'m taking back control with my knuckles\n\nSmash it, burn it, break it, kill it\nFuck \'em all!\n\n[Chorus 1]\nI want you to know, I want you to see\nI want you to look beyond your own eyes\nPast your afflictions\nI want you to hurt, want you to bleed\nI want you to look beyond your own face\nPast your infections', 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-death-before-dishonor-lyrics', 'lyrics': "[Verse 1]\nTo the haters, the takers, the liars, all the vultures\nAnd the bottom-feeding scum\nThe FCC, the FBI, and every tin god\nWith a badge and a gun\nYou talk and talk, you preach and bitch\nBut your words don't mean a thing\nYou get what you give, you give what you get\nJust the way it's always been\n\n[Chorus]\nI choose death before dishonor\nI'd rather die than live down on my knees\nBury me like a soldier, with my dignity!\n\n[Verse 2]\nYou imitate the ostracized\nPut your head beneath the sand\nYour cup it runneth over\nMust be rough to live so grand\nYou reap what you sow, you pay what you owe\nUnless you bathe yourself in greed\nYou rob and you take, your world is fake\nThere's no honor amongst the thieves\n\n[Chorus]\nI choose death before dishonor\nI'd rather die than live down on my knees\nBury me like a soldier, with my dignity!\n[Bridge]\nFuck!\nYou're self-righteous, self-pretentious\nYour ways are not for me\nYou're deluded, so confused\nYour world I dominate\n\n[Chorus]\nI choose death before dishonor\nI'd rather die than live down on my knees\nBury me like a soldier...\n\n[Outro]\nBury me! (Bury me!)\nBury me! (Bury me!)\nBury me!\n\nWith my dignity!", 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-meet-the-monster-lyrics', 'lyrics': "[Verse 1]\nIt's not that complicated, and you ain't gotta believe\nThey'll put me down in a hole before I let you succeed\nI've never been complacent, I can't afford to be\nI know you think you're special, but you ain't nothin'\n\n[Pre-Chorus]\nCan you read between the lines?\nOr are you stuck in black and white?\nHope I'm on the list of people that you hate\nIt's time you met the monster that you have helped create\nBoo!\n\n[Chorus]\nYou've pushed me one too many times\nI'm sick of all of the fiction; we're gonna settle it\nYou've pushed me one too many times\nI'm sick of all of the shit; I'm gonna settle it!\n\n[Verse 2]\nIt's not that complicated, and you ain't gotta believe\nThey'll put me down in a hole before I let you succeed\nI've never been complacent, I can't afford to be\nI know you think you're special, but you ain't nothin'\n\n[Pre-Chorus]\nWell, there's nothing you can say to me now\nAnd there's nothing you can do to stop me\nIt's hard not to be a menace to society\nWhen half the population is happy on their knees\n[Chorus]\nYou've pushed me one too many times\nI'm sick of all of the fiction; we're gonna settle it\nYou've pushed me one too many times\nI'm sick of all of the shit; I'm here to settle it!\n\n[Verse 3]\n'Cause I can't take it anymore\nI refuse to live this way\nIt's not that I don't care enough\nIt's not that I can't see\nIt's everything inside of me\nThat won't let me be you\nIt won't let me be you!\nHa-ha-ha\n\n[Verse 4]\nIt's not that complicated, and you ain't gotta believe\nThey'll put me down in a hole before I let you succeed\nI've never been complacent; I can't afford to be\nI know you think you're special, but you ain't nothin'\nNo, you ain't nothin'\nAnd you'll never succeed\nI know you think you're special\nBut you ain't nothin'\n[Outro]\nBut you ain't nothin'!", 'annotations': {'description': '', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-never-enough-lyrics', 'lyrics': '[Verse 1]\nI\'m so fed up with everyone around me\nNo one seems to care\nI\'m just so far gone and nothing\'s gonna change\nI\'ll never be the same\n\n[Pre-Chorus 1]\nIt\'s always "Do this," "Do that," everything they want to\nI don\'t want to live that way (No!)\nEvery chance they get, they\'re always pushing me away\n\n[Chorus]\nIt\'s never enough; no, it\'s never enough\nNo matter what I say\nIt\'s never enough; no, it\'s never enough\nI\'ll never be what you want me to be\n\n[Verse 2]\nIt\'s all so messed up and no one ever listens\nEveryone\'s deranged\nI\'m just so fucked up and I\'m never gonna change\nI wanna lay it all to waste\n\n[Pre-Chorus 2]\nThey\'re always "Say this," "Say that," nothing that you want to\nI don\'t want to live that way (No!)\nEvery chance they get, they’re always shoving me aside\n[Chorus]\nIt\'s never enough; no, it\'s never enough\nNo matter what I say\nIt\'s never enough; no, it\'s never enough\nI\'ll never be what you want me to be\nI\'m done!\n\n[Bridge]\nIn the end, we\'re all just chalk lines on the concrete\nDrawn only to be washed away\nFor the time that I\'ve been given\nI am what I am\nI\'d rather hate you for everything you are\nThan ever love you for something you are not\nI\'d rather you hate me for everything I am\nThan have you love me for something that I can\'t\n\n[Chorus/Outro]\nIt\'s never enough, it\'s never enough\nNo matter what I say\nIt\'s never enough; no, it\'s never enough\nNo matter who I try to be\nIt\'s never enough; no, it\'s never enough\nNo matter how I try to taste\nIt\'s never enough, never, never enough\nI\'ll never be what you want me to be', 'annotations': {'description': '&lt;p&gt;“Never Enough” is a song by American heavy metal band Five Finger Death Punch. It was included as a bonus track on the re-release of their debut album, The Way of the Fist. It was also made available on the band’s website to anyone who had purchased the a copy of the original release of the album. It was released as the second single from The Way of the Fist on July 15, 2008. The song peaked at number nine on the Billboard Mainstream Rock Tracks chart.&lt;/p&gt;', 'producers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Darrell Roberts', 'url': 'https://genius.com/artists/Darrell-roberts'}, {'name': 'Leopold Ross', 'url': 'https://genius.com/artists/Leopold-ross'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Firm Music', 'url': 'https://genius.com/artists/Firm-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-american-capitalist-lyrics', 'lyrics': "[Verse 1]\nI'm a red-blooded, roughneck son of a bitch\nI'm a goddamned American capitalist\nI've got a kill-'em-all, give-a-shit license to hate\nI'm that one-shot, one-kill bringer of fate\n\n[Chorus]\nI don't wanna believe I'm empty\nI don't wanna admit I'm wrong\nI don't wanna regret who I've become\nWhere I belong\nI'm an American capitalist\nAmerican capitalist\n\n[Verse 2]\nYeah, war is the answer\nLike I told you before\nYou're a coward with no power\nJust a stain on the floor\nIf you're a man, be a man\nAnd stop runnin' your lips...\nRound 3—no mercy\nIt's the way of the fist\n\n[Chorus]\nI don't wanna believe I'm empty\nI don't wanna admit I'm wrong\nI don't wanna regret who I've become\nWhere I belong\nI'm an American capitalist\nAmerican capitalist\n[Guitar Solo]\n\n[Chorus]\nI don't wanna believe I'm empty\nI don't wanna admit I'm wrong\nI don't wanna regret who I've become\nWhere I belong\nI'm an American capitalist\nAmerican capitalist\n\n[Outro]\nAmerican", 'annotations': {'description': '', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-under-and-over-it-lyrics', 'lyrics': "[Intro]\nYeah, go!\n\n[Verse 1]\nDid you hear the one about me being a punk?\nDid you hear the one about me being a drunk?\nDid you hear the one about me losing my nerve?\nOr how I'm just another fuckin' sheep in the herd?\nDid you hear about the money, how it made me change?\nSo funny to me, all the time that they waste\nDid you hear the one about me giving a shit?\n'Cause if I ever did, I don't remember it\n\n[Chorus]\nYou can be me and I will be you\nYou can live just like a star\nI'll take my sanity; you take the fame\nI'm under it, over it all\nI'm under and over it\n\n[Verse 2]\nDid you hear the one about me playing the game?\nSelling my soul and changing my name?\nDid you hear the one about me being a prick?\nDid you know I don't care, and you can suck my—?\nDid you hear the one about me trying to die?\nFist in the air and a finger to the sky?\nDo I care if you hate me? Do you wanna know the truth?\nC'est la vie, adiós, good riddance, fuck you\n[Chorus]\nYou can be me and I will be you\nYou can live just like a star\nI'll take my sanity; you take the fame\nI'm under it, over it all\nI'm under and over it\n\n[Bridge]\nI—I—I'm under and over it\nI—I—I'm under and over it\nI—I—I'm under and over it\nI—I—I'm under and over it\n\n[Chorus]\nYou can be me and I will be you\nYou can live just like a star\nI'll take my sanity; you take the fame\nI'm under it, over it all\nI'm under and over it\n\n[Outro]\nI’m under it, over it all\nI’m under and over it\nI—I—I'm under and over it\nI—I—I'm under and over it", 'annotations': {'description': '&lt;p&gt;Vocalist Ivan Moody explained the song’s meaning to Revolver magazine: “This one is about the rumors and gossip that go on everywhere – especially online. It’s comical to see how much crazy, ill-informed\u200b shit people will post as news and when they’re trolling around message boards. In today’s day and age, speculation and bad info can just fly around the internet and catch fire – even when it’s completely false and unfounded. Funny shit.”&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-the-pride-lyrics', 'lyrics': '[Intro]\nHey-yeah\nHey-yeah\nHey-yeah, oh\nHey-yeah\nHey-yeah\nHey-yeah, oh\n\n[Verse 1]\nJohnny Cash and PBR, Jack Daniel\'s, NASCAR\nFacebook, Myspace, iPod, Bill Gates\nSmith &amp; Wesson, NRA, Firewater, Paleface\nDimebag, 2Pac, heavy metal, hip-hop\n\n[Breakdown]\nI am what you fear most\nI am what you need\nI am what you made me\nI am the American Dream\n\n[Pre-Chorus]\nI\'m not selling out; I\'m buying in\n\n[Chorus]\nI will not be forgotten\nThis is my time to shine\nI\'ve got the scars to prove it\nOnly the strong survive\nI\'m not afraid of dying\nEveryone has their time\nLife never favored weakness\nWelcome to the pride\n[Verse 2]\nDisneyland, White House, JFK, and Mickey Mouse\nJohn Wayne, Springsteen, Eastwood, James Dean\nCoca-Cola, Pepsi, Playboy, "text me"\nNFL, NBA, Brett Favre, King James\n\n[Breakdown]\nI am all-American\nI am living the dream\nI am what you fear most\nI am anarchy\n\n[Pre-Chorus]\nI\'m not selling out; I\'m buying in\n\n[Chorus]\nI will not be forgotten\nThis is my time to shine\nI\'ve got the scars to prove it\nOnly the strong survive\nI\'m not afraid of dying\nEveryone has their time\nLife never favored weakness\nWelcome to the pride\n\n[Interlude]\nSince the dawn of time\nOnly the strong have survived\nI will not be forgotten\nWelcome to the pride\n[Guitar Solo]\n\n[Breakdown]\nHey-yeah\nHey-yeah\nHey-yeah, oh (Only the strong survive)\nHey-yeah\nHey-yeah\nHey-yeah, oh (Welcome to the pride)\n\n[Chorus]\nI will not be forgotten\nThis is my time to shine\nI\'ve got the scars to prove it\nOnly the strong survive\nI\'m not afraid of dying\nEveryone has their time\nLife never favored weakness\nWelcome to the pride', 'annotations': {'description': '&lt;p&gt;This is a song that depicts the band’s idea about The American Dream and capitalism, what it’s about and which companies has accomplished it and entered “The Pride”.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-coming-down-lyrics', 'lyrics': "[Verse 1]\nIt's caving in around me\nWhat I thought was solid ground\nI tried to look the other way\nBut I couldn't turn around\nIt's okay for you to hate me\nFor all the things I've done\nI've made a few mistakes\nBut I'm not the only one\n\n[Pre-Chorus]\nStep away from the ledge\nI'm coming down\n\n[Chorus]\nI could never be what you want me to\nYou pull me under to save yourself (Save yourself)\nYou will never see what's inside of me\nI pull you under just to save myself\n\n[Verse 2]\nWas there ever any question\nOn how much I could take?\nYou kept feeding me your bullshit\nHoping I would break\nIs there anybody out there?\nIs there anyone who cares?\nIs there anybody listening?\nWill they hear my final prayers?\n[Pre-Chorus]\nStep away from the ledge\nI'm coming down\n\n[Chorus]\nI could never be what you want me to\nYou pull me under to save yourself (Save yourself)\nYou will never see what's inside of me\nI pull you under just to save myself (Save myself)\n\n[Bridge]\nIt's caving in around me\n(Caving in)\nIt's tearing me apart\n(Tearing me)\nIt's all coming down around me\n(Coming down)\nDoes anyone, anyone care at all?\n\n[Refrain]\nI will never be what you want me to\nYou pull me under; I pull you under\n\n[Guitar Solo]\n\n[Chorus]\nI could never be what you want me to\nYou pull me under to save yourself (Save yourself)\nYou will never see what's inside of me\nI pull you under just to save myself", 'annotations': {'description': '&lt;p&gt;This musical suicide note was released as the third single from American Capitalist. The song was Five Finger Death Punch’s thirteenth single overall.&lt;br&gt;\nIvan Moody sings on the chorus, “Step away from the ledge. I’m coming down.” The band partnered with the National Suicide Prevention Lifeline in conjunction with the single’s release. Part of their promotion, which is aimed at awareness about suicide prevention among FFDP’s fans, involves the song’s music video, which concludes with a call to action alongside the lifeline’s national phone number. The music video is towards teen suicide.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-menace-lyrics', 'lyrics': "[Intro]\nOh, yeah!\nFuck it!\nYeah!\n\n[Verse 1]\nOoh! I got a killer's blood\nBurning deep inside my veins (Down in my veins)\nDon't expect you to understand\nI was born without a name (No name)\nI see right through you\nYour opinions are a fuckin' joke [laughing]\nI crucify you\nOn a silver spoon, I hope you choke\n\n[Chorus]\nI'm tired of trying to please the world that spins around me\nThis time, I'm doing it for me and me alone\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\nRight\n\n[Verse 2]\nOoh! I'll fade the fuck away\nSwear to God that I don't care (I swear to Christ)\nI'll die a lonely death\n'Cause I know that life ain't fair (It ain't fair at all)\nI can't pretend that I am\nSomeone that I'm not\nI live for me, myself\nYou can't convince me that I'm wrong\n[Chorus]\nI'm tired of trying to please the world that spins around me\nThis time, I'm doing it for me and me alone\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\nRight! Yeah!\n\n[Guitar Solo]\n\n[Chorus]\nI'm tired of trying to please the world that spins around me (Why?)\nThis time, I'm doing it for me and me alone (All for me)\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\n\nI'm tired of trying to please the world that spins around me (Why?)\nThis time, I'm doing it for me and me alone (All for me)\nI don't need anyone—don't think I ever did\nNot trying to be selfish—just doing what I know\nI'm a menace\n\n[Outro]\nFucking menace\nA menace", 'annotations': {'description': '&lt;p&gt;This song is about is about someone finally not being able to take it anymore. They’re done with not being appreciated for their efforts, and they are ready to kill someone. I could really read into this, but that seems to be the surface level of the song.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-generation-dead-lyrics', 'lyrics': "[Verse 1]\nI look around and all I see is evil\nThe walking dead disguised as real people\nIt's kill or be killed, 'cause life is not forever\nIt comes apart and then it falls together\n\n[Pre-Chorus]\nI am what you made me\nTill death do I part\n\n[Chorus]\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nWe're Generation Dead\nWe're dead\n\n[Verse 2]\nYou see yourself as such a fucking shepherd\nBut you trip the blind and then you curse the leper\nDo you really want my true opinion?\nYou've taken more than you've ever given\n[Pre-Chorus]\nYou are what you are\nUntil death do you part\n\n[Chorus]\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nGeneration Dead\n\n[Guitar Solo]\n\n[Refrain]\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\n\n[Chorus]\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nIt's the world I've grown to know\nUnforgiving and so cold\nTake it away, take it away\nI don't want it\nIt's a life I'm forced to live\nI've got nothing more to give\nTake it away, take it away\nI don't want it anymore\nWe're Generation Dead\nWe're dead", 'annotations': {'description': '&lt;p&gt;‘Generation Dead’ is implying that the new generation of children are going to be, and already are zombies, mindlessly drooling over their phones.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-back-for-more-lyrics', 'lyrics': "[Verse 1]\nLet's get it on\nIt's time to get in the game\nYou gotta fight till it hurts\nAnd then you do it again\nLet's tear it up\nI'm saying straight to the core\nAin't no room for second place\nGo big or go home\n\n[Pre-Chorus]\nRise\nIt's dog-eat-dog\nRise\nMan versus beast\nRise\nThe strong will survive\nRise\nI've got no time for the weak\n\n[Chorus]\nIt's time to rise up, man up, get back up\nI've never been and won't be broken\nDust off and then\nCome back for more\nYou've gotta reach down, dig deep, break ground\nShow them all you won't be beaten\nBrush it off and then\nCome back for more\nCome back for more\n[Verse 2]\nIt's do or die\nTime to settle the score\nGotta give it all you got\nAnd then you give it some more\nThere will be blood\nYou gotta fight till you break\nTalk a lot of trash\nNow step up to the plate\n\n[Pre-Chorus]\nRise\nRefuse to give in\nRise\nAshes to dust\nMake them remember your name\n'Cause in yourself, you can trust\n\n[Chorus]\nIt's time to rise up, man up, get back up\nI've never been and won't be broken\nDust off and then\nCome back for more\nYou've gotta reach down, dig deep, break ground\nShow them all you won't be beaten\nBrush it off and then\nCome back for more\nCome back for more\nRah!\n\n[Solo]\n\n[Chorus]\nIt's time to rise up, man up, get back up\nI've never been and won't be broken\nDust off and then\nCome back for more\nYou've gotta reach down, dig deep, break ground\nShow them all you won't be beaten\nBrush it off and then\nCome back for more\nCome back for more\n\n[Outro]\nRah!", 'annotations': {'description': '&lt;p&gt;This was the seventh single release on the album American Capitalist in 2011. This song could mean a number of things. That might’ve been intended by FFDP when they wrote the song. It could be related to getting back up and trying harder and harder, or about getting knocked down by life and getting back up.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-wicked-ways-lyrics', 'lyrics': '[Verse 1]\nI should have seen this from a mile away\nI should\'ve never let you get that deep inside\nYou\'re an actress—I can\'t believe a word\nYou\'d say anything to get anywhere in life\n\n[Pre-Chorus]\nStumble back to where you came from\n\n[Chorus]\nWide awake—and falling on your face\nYou\'ve got an evil, wicked way of saying, "I love you"\nI\'d love to\nTear away from everything you are\nYou\'ve got an evil, wicked way about you\nI hate you\n\n[Verse 2]\nLike a virus that spread throughout my veins\nYou\'re incurable—and such a waste of time\nYou\'re an angel, but only in your head\nYou\'d hurt anyone to get everything in life\n\n[Pre-Chorus]\nSlither back to where you came from\n[Chorus]\nWide awake—and falling on your face\nYou\'ve got an evil, wicked way of saying, "I love you"\nI\'d love to\nTear away from everything you are\nYou\'ve got an evil, wicked way about you\nI hate you\n\n[Bridge]\nWho do you think you are?\nWho do you think you are?\nWho do you think you are?\nWho do you think—you are?\n\nWho do you think you are? (So cold)\nWho do you think you are? (So cold)\nWho do you think you are? (So cold)\nWho do you think—you are?\n\n[Chorus]\nWide awake—and falling on your face\nYou\'ve got an evil, wicked way of saying, "I love you"\nI\'d love to\nTear away from everything you are\nYou\'ve got an evil, wicked way about you\nI hate you\n[Outro]\nWho do you think you are?\nWho do you think you are?\nWho do you think you are?\nWho do you think—you are?', 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-100-ways-to-hate-lyrics', 'lyrics': "[Verse 1]\nHate your goddamn, motherfuckin'\nShitty-ass band\nHate the way you've got my back\nWhile you're holding out your hand\nHate the way you pussies talk shit\nHiding on the Web\nJust the fact you think you know me\nMakes me fucked up in the head\n\nHate your nails—hate your hair\nHate the fact I even care\nHate the way you said you loved me\nBut you fuckin' weren't there\nHate your friends—hate your folks\nIt's a stupid fuckin' hoax\nHate the way I tried to change\nWhen the whole thing was a joke\n\n[Chorus]\nI hate you—that's an understatement\nI hate you—for who you are\nI hate you—and all you stand for\nI don't care anymore\nI gave you 100 chances\nYou gave me a hundred ways to hate\n[Verse 2]\nHate your face—hate your lies\nHate the blank look in your eyes\nHate your needs—hate your wants\nHate the way you love to taunt\nHate your voice—makes me cringe\nEvery time I hear you speak\nIt's uncomfortable to know\nYou share the same air as me\n\nHate your lack of common sense\nAnd I'm tired of compromising\nTake a good look at the end\n'Cause it's just on the horizon\nI've been wrong about a lot of shit\nThis I know is true\nThere's a hundred fuckin' things\nThat I hate about you\n\n[Chorus]\nI hate you—that's an understatement\nI hate you—for who you are\nI hate you—and all you stand for\nI don't care anymore\nI gave you 100 chances\nYou gave me a hundred ways to hate\n[Outro]\nI hate you—100 ways\nI don't care—100 ways to hate\nI gave you a million chances\nYou gave me a hundred ways to hate\nA hundred ways\nA hundred ways to hate", 'annotations': {'description': '&lt;p&gt;Basically, he’s speaking in every way he hates this person.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-lift-me-up-lyrics', 'lyrics': "[Verse 1: Ivan Moody]\nIt ain't no mystery I'm all I have left\nI'm pushing back and runnin' you over\nI've been thrown down—run around\nBeaten till I hit the ground\nTelling you right now that it's over\n\nThere's no room for mistakes\nAll the parts are in place\nSay what you will, but say it to my face\nBetter back the fuck up\nBetter shut the fuck up\nI'll do what I want—and I'll never give up\n\n[Pre-Chorus]\nI—won't be broken\nI—won't be tortured\nI—won't be beaten down\nI—have the answers\nI—take the pressure\nI—turn it all around\n\n[Chorus]\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\n(Lift me up!)\n[Verse 2: Rob Halford]\nI'm gonna change history\nEnlighten the world\nTeach 'em how to see through my eyes\nI'm gonna lash back—check that\nFatal as a heart attack\nStomp out all the ugliest lies\n\nYou can't convince me to change\nWe ain't on the same page\nI've had my fill—now there's nothing but rage\nBest get out of my way\n'Cause there's nothing to say\nIs that all that you got? Because I ain't got all day\n\n[Pre-Chorus]\nI—won't be broken\nI—won't be tortured\nI—won't be beaten down\nI—have the answers\nI—take the pressure\nI—turn it all around\n\n[Chorus]\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\n(Lift me up!)\n\n[Solo]\n\n[Pre-Chorus]\nI—won't be broken\nI—won't be tortured\nI—won't be beaten down\nI—have the answers\nI—take the pressure\nI—turn it all around\n\n[Chorus]\nLift me up above this\nThe flames and the ashes\nLift me up and help me to fly away\nLift me up above this\nThe broken—the empty\nLift me up and help me to fly away\n[Outro]\n(Lift me up!) To fly away\n(Lift me up!) To fly away\n(Lift me up!)", 'annotations': {'description': '&lt;p&gt;The opening track for &lt;a href="https://genius.com/artists/Five-finger-death-punch" rel="noopener" data-api_path="/artists/19975"&gt;Five Finger Death Punch&lt;/a&gt;’s &lt;em&gt;Wrong Side of Heaven and the Righteous Side of Hell, Vol.1&lt;/em&gt; featuring metal god Rob Halford of &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;FFDP performed this song at the Golden Gods Awards (Grammys for metal), with Rob Halford himself, an experience which the band spoke on:&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=LB1zwyNeos4" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=LB1zwyNeos4&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-watch-you-bleed-lyrics', 'lyrics': "[Intro/Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to watch you—just to watch you bleed\n\n[Verse 1]\nI see through you and all your lies\nYou are everything that I despise\nYou won't take shit when you leave\nWhat the hell do you want from me?\n\n[Pre-Chorus]\nI'm over it—so over it\nThis is goodbye\n\n[Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Verse 2]\nI know you better than you do\nI'm to fucking blame, so are you\nIt won't kill me to watch you leave\nWhat the fuck do you want from me?\n[Pre-Chorus]\nI'm over it—so over it\nThis is goodbye\n\n[Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Refrain]\nJust to make you—just to watch you\nJust to make you—just to watch you bleed\n\n[Solo]\n\n[Hook]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Chorus]\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\nI'd give anything\nJust to cut you free\nI'd give blood\nJust to make you—just to watch you bleed\n\n[Outro]\nI'd give blood...", 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-you-lyrics', 'lyrics': "[Verse 1]\nI'm\nNever gonna live—never gonna give\nNever gonna die your way\nFuck, no! Go away!\n\nNever gonna try—never wonder why\nNever gonna change\nNo—say it—what\n\nNever understand—never gave a damn\nNever see it through your eyes\nFuck you—no way\n\nNever understand, never lend a hand\nNever see it through my eyes\n\n[Pre-Chorus]\nThere's a fire within—hate to admit it\nBut I always knew\nViolence and sin—keeps me fearless\nKeeps me from being...\n\n[Chorus]\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\nI don't give a fuck about you!\n\n[Verse 2]\nI'm\nNever gonna quit—never gave a shit\nNever gonna walk away\nFuck you! All day\n\nNever gonna drop—never gonna stop\nNever gonna fall\nNo—what—say it\n\nNever understood—never really could\nNever saw it through your eyes\nFuck off—no way\n\nNever understand, never give a damn\nNever gonna change my mind\n\n[Pre-Chorus]\nThere's a fire within—hate to admit it\nBut I always knew\nViolence and sin—keeps me fearless\nKeeps me from being...\n\n[Chorus]\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\nI don't give a fuck about you!\n\n[Post-Chorus]\nOoh!\nWhat!\nStand the fuck up!\n\n[Solo]\n\n[Bridge]\nI don't give a fuck about...\n\n[Chorus]\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\n\nYou—so dated\nYou—outdated\nYou—so fading away\nYou—can't take it\nYou—just fake it\nYou—are just in my way\n[Outro]\nI don't give a fuck\nDon't give a fuck\nDon't give a fuck about you!", 'annotations': {'description': '&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/-2cxlrfOGyI?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;&lt;br&gt;\nthe last video was down', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-burn-mf-lyrics', 'lyrics': "[Verse 1]\nMy heart is frozen\nMy soul's been broken\nThe whole world's on my motherfucking shoulders\nAnd I can't seem to control it\n\nI can't contain it\nAnd I just don't give a shit\nYou need to feel the way that I feel\nOr you'll never fucking know it\n\n[Chorus]\nBurn, motherfucker—burn, motherfucker—burn\nYou try, but you can't reach me\nBurn, motherfucker—burn, motherfucker—burn\nThere's nothing you can teach me\n\nIn hell, motherfucker—burn, motherfucker—burn\nI swear you're out to get me\nBurn, motherfucker—burn, motherfucker—burn\nI'd live, but you won't let me\nBurn!\n\n[Verse 2]\nYour life's been wasted\nYou'll die forsaken\nYou act like the world's on your shoulders\nBut it's not there, so you fake it\nDo you embrace it?\nHow do you take it?\nI'll never feel the way that you feel\nI'd rather fucking break it\n\n[Chorus]\nBurn, motherfucker—burn, motherfucker—burn\nYou try, but you can't reach me\nBurn, motherfucker—burn, motherfucker—burn\nThere's nothing you can teach me\n\nIn hell, motherfucker—burn, motherfucker—burn\nI swear you're out to get me\nBurn, motherfucker—burn, motherfucker—burn\nI'd live, but you won't let me\n\n[Refrain]\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker!\n\n...Burn\nBurn\nBurn!\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker—burn, motherfucker—burn\nBurn, motherfucker!\n\n[Chorus]\nBurn, motherfucker—burn, motherfucker—burn\nYou try, but you can't reach me\nBurn, motherfucker—burn, motherfucker—burn\nThere's nothing you can teach me\n\nIn hell, motherfucker—burn, motherfucker—burn\nI swear you're out to get me\nBurn, motherfucker—burn, motherfucker—burn\nI'd live, but you won't let me\n\n[Outro]\nBurn!\nBurn!", 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-im-sin-lyrics', 'lyrics': "[Verse 1]\nYou're a fuckin' poser\nThat's all you'll ever be\nDon't get any closer\nOr you'll meet the real me\n\nI am who I am\nYou can't describe me\nI am what I am\nYou can't deny me (No!)\n\n[Chorus]\nI want out\nBut I could never surrender\nTry and break me down\nBut I won't let you in\nYou can call me out\nBut I know you're a pretender\nYou may think you're god\nBut I know that I.M. Sin\nI.M. Sin\n\n[Hook]\nI.M. Sin\nI.M. Sin\nI.M. Sin\n[Verse 2]\nI won't fucking buy it\nI never have and I never will\nKeep fucking trying\nI'm just waiting for the blood to spill\n\nYou are who you are\nI can't explain it\nYou are what you are\nTo me, you're not shit (No!)\n\n[Chorus]\nI want out\nBut I could never surrender\nTry and break me down\nBut I won't let you in\nYou can call me out\nBut I know you're a pretender\nYou may think you're god\nBut I know that I.M. Sin\nI.M. Sin\n\n[Bridge]\n...If there was ever a time\nYou needed to walk the fuck away\nIt's right fucking now\nRight fucking here\nYeah! Burn!\n[Solo]\n\n[Chorus]\nI want out\nBut I could never surrender\nTry and break me down\nBut I won't let you in\nYou can call me out\nBut I know you're a pretender\nYou may think you're god\nBut I know that I.M. Sin\nI.M. Sin\n\n[Outro]\nI.M. Sin\nI.M. Sin\nI.M. Sin", 'annotations': {'description': '&lt;p&gt;Cavalrea cut his part in his native language as per the band’s instructions. “The funny thing is that when he sent it back to me, he sang his parts in Portuguese and nobody told me that,” recalled Moody, “so I’m sitting the studio and I’m listening back to the track and I ask, ‘Did he change the fu–ing lyrics? Did he not like the song?’ Zoltan [Bathory, guitar] was sitting next to me, and he says, ‘Dumbass, it’s in Portuguese.’ And I was like, ‘Ohh! That’s great.’”&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-anywhere-but-here-lyrics', 'lyrics': "[Verse 1]\nSome say a storm is coming\nSome say the end is near\nSome think it's all so hazy\nI think it's all so clear\nIf it all ends tomorrow\nIf it all disappears\nWhere do you think you're going?\nAnywhere else but here\n\n[Pre-Chorus]\nI don't claim to have the reasons\nAll I know is...\n\n[Chorus]\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere but here\n\n[Verse 2]\nSome say they have the answers\nSome say they know the truth\nSome people live in question\nSome people have no clue\nIf there was no tomorrow\nIf there was just today\nWould you make different choices\nOr would you stay the same?\n\n[Pre-Chorus]\nI don't claim to have the reasons\nAll I know is...\n\n[Chorus]\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere but here\n\n[Solo]\n\n[Bridge: Ivan Moody / Maria Brink]\n(Here)\nIf there was no tomorrow\n(Anywhere but here)\nIf there was no tomorrow\n(Anywhere but here)\nIf there was no tomorrow\n(Anywhere but here)\nWould you stay?\nWould you stay?\nJust stay\nIf there was no tomorrow\nIf there was no tomorrow\nIf there was no tomorrow\nWould you stay?\nWould you stay\nThe same?\n\n[Outro: Ivan / Maria]\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere\n\nIf the world stops spinning tomorrow\nI'd never shed a tear\nI'd rather be anywhere, anywhere\nAnywhere but here", 'annotations': {'description': '&lt;p&gt;One of the many tracks on &lt;em&gt;Righteous Side of Heaven and the Wrong Side of Hell Vol. 1&lt;/em&gt; to feature a guest artist. This track has the guest work of singer Maria Brink of &lt;a href="http://en.wikipedia.org/wiki/Metalcore" rel="noopener nofollow"&gt;metalcore&lt;/a&gt; band In This Moment.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-dot-your-eyes-lyrics', 'lyrics': "[Intro]\nBring it!\n\n[Verse 1]\nMy life is perfect—so you believe\nAre you that stupid? 'Cause I strongly disagree\nI'm not a martyr—more like a thief\nYour rules are twisted, and they don't affect me\n\nYou saw me comin'—so why you runnin'?\nWhat's the matter? It's just little old me\nI know your kind—you're fuckin' blind\nI give a shit—don't give a shit about anything\n\n[Chorus]\nThere ain't nothin' in this world for free\nThere's not a man—not a man I believe\nGive a rat's ass what you think about me\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\n\n[Verse 2]\nYou're just a trend—it's gotta end\nI stand in place while you motherfuckers bend\nYou own a clock? Your time is up\nYou bottom feeders, it's just time to give up\nReady to throw down—this is a showdown\nYou get the memo? 'Cause it's all about to go down\nI know I'm twisted—I can't resist it\nI give a shit—don't give a shit about anything\n[Chorus]\nThere ain't nothin' in this world for free\nThere's not a man—not a man I believe\nGive a rat's ass what you think about me\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\n\nThere's nothin' in this world for me\nI gave away, gave away fuckin' everything\nThis is the man that I'm choosing to be\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\n\n[Bridge]\nPressure's building—breaking down\nSuffocating—till I drown\n\n[Solo]\n\n[Bridge]\nYou know how the saying goes...\nIt's not the size of the dog in the fight\nIt's the size of the fight in the dog\n\nYeah, bring it!\n\n[Chorus]\nThere ain't nothin' in this world for free\nThere's not a man—not a man I believe\nGive a rat's ass what you think about me\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)\nThere's nothin' in this world for me\nI gave away, gave away fuckin' everything\nThis is the man that I'm choosing to be\nI'll dot your eyes and cross your fuckin' teeth (Bring it!)", 'annotations': {'description': '&lt;p&gt;The eighth track on Five Finger Death Punch’s &lt;em&gt;The Wrong Side of Heaven and The Righteous Side of Hell, Vol. 1&lt;/em&gt;. This song features guest vocals in the second verse courtesy of Hatebreed frontman Jamey Jasta.&lt;br&gt;\nDuring Jasta’s interview with 5FDP frontman Ivan Moody on “The Jasta Show”, an alternate version of this track was revealed in which Jasta sings the second chorus:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=40OtiS0NAUA" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=40OtiS0NAUA&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Five-finger-death-punch-here-to-die-lyrics', 'lyrics': "[Intro]\nBounce!\n\n[Verse 1]\nThis wasn't meant to be a love song\nMatter of fact, this one's about hate\nI fuckin' said it—I don't regret it\nA little much? You're a little too late\n\n[Chorus]\nI've turned away\nJust one too many times\nI'm tired of the reasons\nSick of all the lies\n\nI looked away\nJust one too many times\nI'm tired of pretending\nThat I'm not here\nI'm not here to die\n\n[Verse 2]\nYou want my best—you get the worst\nYou're not the last and you ain't the fuckin' first\nYou die to live—I live to die\nStill, that motherfucker finger's in the sky\n[Chorus]\nI've turned away\nJust one too many times\nI'm tired of the reasons\nSick of all the lies\n\nI looked away\nJust one too many times\nI'm tired of pretending\nThat I'm not here\nI'm not here to die\n\n[Bridge]\nI've been hated by better\nI've been beaten by the best\nIt's not a gift\nIt's a motherfucking test\n\n[Solo]\n\n[Chorus]\nI've turned away\nJust one too many times\nI'm tired of the reasons\nSick of all the lies\nI looked away\nJust one too many times\nI'm tired of pretending\nThat I'm not here\nI'm not here to die\n\n[Outro]\nI'm not here to die", 'annotations': {'description': '', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Duality_(song)', 'track_name': 'Duality', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Duality_(song)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': '"Duality" is a song by American heavy metal band Slipknot, the song was released as the first single from their third studio album Vol. 3: (The Subliminal Verses), released in 2004. The music video was listed as Roadrunner Records\' greatest video of all-time.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Hail_to_the_King_(song)', 'track_name': 'Hail to the King', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Hail_to_the_King_(song)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'abstract': '"Hail to the King" is a song by American heavy metal band Avenged Sevenfold and the lead single from their sixth studio album of the same name, released on July 15, 2013. The song was premiered live on July 17, 2013, at the Ford Festival Park in Oshkosh, Wisconsin.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cowboys_from_Hell_(song)', 'track_name': 'Cowboys from Hell', 'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Cowboys_from_Hell_(song)', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'abstract': '"Cowboys from Hell" is a song by American heavy metal band Pantera. First appearing on the band\'s 1989 demo album, the song is the band\'s first single. It was released later on the major label debut album Cowboys from Hell, and on the band\'s compilation album. Pantera used the phrase "Cowboys from Hell" (or its abbreviation, CFH) liberally in its image and merchandise.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Toxicity_(song)', 'track_name': 'Toxicity', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Toxicity_(song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': '"Toxicity" is a single by Armenian-American alternative metal band System of a Down, released in 2002. It was originally released on the album of the same name. The writing credit for the song is Malakian/Odadjian/Tankian/Dolmayan. It is known for its dynamic chorus, aggressive vocals, and prominent drum beat. The song is predominately in triple meter, alternating between 64, 128 and 44 time. The guitar during the verse plays in 64 using a 2+2+2 phrasing while the heavy part ("somewhere between the sacred silence and sleep") makes use of a hemiola with the guitar switching to a 3+3+3+3 pattern while the drums remain in compound duple meter until the bridge. The song was ranked number 14 on VH1\'s 40 Greatest Metal Songs, and was called a nu metal classic by Stylus Magazine.'}</t>
+    <t>{'url': 'https://genius.com/Shinedown-monsters-lyrics', 'lyrics': "[Verse 1]\nGood for you, you fooled everybody\nGood for you, you fooled everyone\nGood for you, now you're somebody\nGood for you, you fooled everyone\n\n[Pre-Chorus 1]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real\n\n[Verse 2]\nGood for you, you hurt everybody\nGood for you, you hurt everyone\nGood for you, you love nobody\nGood for you, you owe no one\n\n[Pre-Chorus 2]\nLeave your weapon on the table\nWrapped in burlap, barely able\nCall a doctor, say a prayer\nChoose a god you think is fair\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\n'Cause my monsters are real\n\n[Bridge]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\nLeave a light on if you're able\n'Cause we both know you're unstable\nCall a doctor, say a prayer\nChoose a god you think is fair\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real", 'annotations': {'description': '&lt;p&gt;From Jeff Gorra’s (@ArtistWaves) interview with frontman Brent Smith:&lt;/p&gt;\n\n&lt;p&gt;“There’s a song called “Monsters”. When I make that statement about “My monsters are real, and they’re trained how to kill”, that’s about as blunt and bold as I can be about those voices that I did say were legendary, but can also be my demise if I let them. Personally, it has a lot to do with substance abuse. I will forever be an addict. I’m clean now, but the fact is\u200a—\u200aI have to take it day-by-day. Those pathways are already paved in my brain. I know exactly what’s on those roads. For me to think I can go into a bar today and just have one drink, that would be great, but that’s not reality. If I were to go into a bar and have one drink I would end up drinking every single one in the building and probably wind up in jail. I know the parts of me that I must respect. It doesn’t mean I have to like it, but I do have to respect it. It’s something I can’t think about in the future, I literally have to take one day at a time. I haven’t gone to rehab, I don’t do self-help, nor am I a part of a 12-step program, I only know how to do it this way. I’m also very lucky because the other three guys I’m in a band with are my brothers and they’ve never judged me. They’ve just been there to pick me up when I fell.”&lt;/p&gt;', 'producers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}], 'writers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pat-benatar-hit-me-with-your-best-shot-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nWell you're the real tough cookie with a long history\nOf breaking little hearts like the one in me\nThat's okay, let's see how you do it\nPut up your dukes, let's get down to it\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away\n\n[Verse 2]\nYou come on with it, come on, you don't fight fair\nThat's okay, see if I care\nKnock me down, it's all in vain\nI get right back on my feet again\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away\n[Instrumental]\n\n[Verse 3]\nWell you're the real tough cookie with a long history\nOf breaking little hearts like the one in me\nBefore I put another notch in my lipstick case\nYou better make sure you put me in my place\n\n[Chorus]\nHit me with your best shot\nC'mon, hit me with your best shot\nHit me with your best shot\nFire away\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away", 'annotations': {'description': '&lt;p&gt;Pat Benatar’s 1980 first top 10 single, achieving Gold record status.&lt;/p&gt;\n\n&lt;p&gt;A direct challenge to a hurtful lover, without any hint of self depreciation.&lt;/p&gt;\n\n&lt;p&gt;A true feminist statement.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5mgvz4egl87trnqtvg4bt7u5u.220x222x1.jpg" alt="" width="220" height="222" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Keith Olsen', 'url': 'https://genius.com/artists/Keith-olsen'}], 'writers': [{'name': 'Eddie Schwartz', 'url': 'https://genius.com/artists/Eddie-schwartz'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Aerosmith-livin-on-the-edge-lyrics', 'lyrics': "[Verse 1]\nThere's something wrong with the world today\nI don't know what it is\nSomething's wrong with our eyes\nWe're seeing things in a different way\nAnd God knows it ain't His\nIt sure ain't no surprise, yeah\n\n[Chorus]\nWe're livin' on the edge\nLivin' on the edge\nLivin' on the edge\nLivin' on the edge\n\n[Verse 2]\nThere's something wrong with the world today\nThe light bulb's getting dim\nThere's meltdown in the sky (ahh)\nIf you can judge a wise man\nBy the color of his skin\nThen mister, you're a better man than I\n\n[Chorus]\nWe're livin' on the edge\n(You can't help yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(You can't help yourself at all) (Everybody, everybody)\nLivin' on the edge\n(You can't stop yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(Everybody, everybody)\n[Verse 3]\nTell me what you think about your situation\nComplication, aggravation is getting to you, yeah\nIf Chicken Little tells you that the sky is falling\nEven if it wasn't, would you still come crawling\nBack again?\nI bet you would, my friend\nAgain and again and again and again and again\n\nTell me what you think about your situation\nComplication, aggravation is getting to you, yeah\nIf Chicken Little tells you that the sky is falling\nEven if it wasn't, would you still come crawling\nBack again?\nI bet you would, my friend\nAgain and again and again and again and\n\n[Bridge]\nThere's something right with the world today\nAnd everybody knows it's wrong\nBut we can tell 'em no or we could let it go\nBut I'd would rather be a hangin' on\n\n[Chorus]\nLivin' on the edge\n(You can't help yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(You can't help yourself at all) (Everybody, everybody)\nLivin' on the edge\n(You can't stop yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(Everybody, everybody)\n[Outro]\nLivin' on the edge\nLivin' on the edge\nLivin' on the edge\nYeah, yeah, yeah, yeah, yeah, yeah, yeah\n\nLivin' on the edge (You can't help yourself from falling)\nLivin' on the edge (You can't help yourself at all)\nLivin' on the edge (You can't stop yourself from falling)\nLivin' on the edge\n\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself at all)\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself from falling)\nLivin' on the edge\nYeah, yeah\nYeah yeah yeah yeah yeah yeah\nYeah yeah yeah yeah yeah yeah", 'annotations': {'description': '&lt;p&gt;“Livin on the Edge” is a slow, trippy rock song that plays similarly to a ballad, but with lyrics focusing more on lifestyle and mortality than love, romance and other subject matters to which ballads are normally attached. It was &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;’s first single from &lt;em&gt;Get a Grip&lt;/em&gt;, and was one of four Top 40 hits from the album.&lt;/p&gt;\n\n&lt;p&gt;The meaning behind this song isn’t very apparent from the lyrics.  By reading the lyrics while watching the video, you can see what the lyricist meant by the “edge”.  The edge can be interpreted in a few ways.  Living on the edge could be taken as living a risky lifestyle (as when the kid crashed his car into the blinking road construction sign and throwing away the condom that the Dad gives the kid) or living on the edge of gender (constant references to crossdressing and feminization of males and masculinization of females).  It seems that Aerosmith is commenting on the reversal of the natural state of our society by the elites.  The lyric, “something’s wrong in the world today and God knows it ain’t his”, speaks to the fact that Aerosmith is referencing a patriarchal social structure as the norm.  The video is heavily influenced by Fraternal Imagery and phallic symbols.  This fraternal influence is hidden from the general public, that think the natural evolution of society is toward more gender bending and androgyny, but this trend is actually being forced on us by the power elites to make us more easily controllable.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/9c1457644fbba62429364a4e249daf95.448x252x1.jpg" alt="" width="448" height="252" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Marc Hudson', 'url': 'https://genius.com/artists/Marc-hudson'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}, {'name': 'Joe Perry', 'url': 'https://genius.com/artists/Joe-perry'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Limp-bizkit-n-2-gether-now-lyrics', 'lyrics': "[Produced by DJ Premier]\nDJ Premier\nUh, uh, uh\n\n[Verse 1: Fred Durst &amp; Method Man]\nWho could be the boss? Look up to the cross\nStranded in the land of the lost\nStandin' up, I'm sideways\nI'm blazin' up the path, runnin' on the highways of rap\nChoked up by the smoke and the charcoal\nA lotta stamps and brands, we like a bar code\nI'm bashin' all the media strikes to keep the media dykes\nAs reinforcement for the fight\nAnd that alone'll keep John Gotti on the phone\nI'm tangled in the zone, I got the bees on the track\nWhere the fuck you at? (Tical!)\nLet me hear you pigeons run ya mouth now (Shut the fuck up!)\nI'm pluggin' in them social skills that keep my total bills\nOver a million the last time I checked it\nThank God, I'm blessed with a mind that'll wreck it\nWait until the second round and knock 'em out\n\n[Verse 2: Method Man]\nThey call me Big John Studd, my middle name Mud\nDirty water flow, too much for you thug\nThey can't stand the flood – what up, doc?\nHold big gun like Elmer Fudd,  the sureshot\nMr. Meth I'm unplugged (learn!)\nTemperatures too hot for sunblock (burn!)\nPlayin' wit' minds that get you state time\nLocked behind 12 bars from a great mind\nKilla bees in the club wit' this ladybug\nBrought a sword to the dance floor to cut a rug\nLove is love all day, 'til they throw slugs\nAnd take another life in cold blood, can't feel me 'til its your blood\nMurder rates tremendous, crime is endless\nSame shit different day, Father forgive us\nThey know not what they do, all praise is due\nI'm big like E-Z and Big Bambu\n[Chorus: Method Man]\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\n\n[Verse 3: Method Man with Fred Durst]\nHeadstrong, dead calm, Dead by Dawn\nDead weight, they dead wrong, let's get it on\nTwelve rounds of throw down – who hold crown?\nProtect land wit' four pound, Limp Bizkit\nGet around like merry-go, bust a scenario\nComin' through your stereo, why risk it?\nLifestyles of the prolific and gifted\nEight essential vitamins and minerals, delicious\nWord on the street is, they bit my thesis\nKnocked out they front teefes, tryin' to taste mine\nActin' like they heard it through the grapevine\nDope fiendin' for the bassline, to provide rhyme\nPharmaceuticals, hard as nails to the cuticles\nWhere'd you find that monster? She beautiful\nWu-Tang and Limp Bizkit, roll on the set\nKick a hole in the speaker, pull the plug, and then jet\n[Verse 4: Fred Durst &amp; Method Man]\nMic check, so what's it all about? And where we gonna run?\nMaybe we can meet up on the sun\nDiscretion is advised for the blood of virgin eyes\nWe limpin' on the track with the Method\nSo get the sunblock, you gettin' one-shot\nUntil you dissolve, I revolve around everything you got\nFrom outta nowhere, prepare, you be blinded by the glare\nI told you not to stare, now you're turned into stone\nWithout a microphone, but don't you forget you're in a zone\nSo shut the fuck up, and take that shit back\n'Cause all your shit's wack (Doo doo is doo doo)\nWhen its weighed out like that\nBurnin' up your brain like a piston\nSo all those that didn't listen\nNever even knew what they were missin'\nAnd never even knew that the sky was fallin' down\nWu-Tang-Clan for the crown\n\n[Chorus: Method Man]\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\n[Outro: Method Man]\nIt was over your head – all day, every day\nS.I.N.Y. 10304\nWu-Tang Killa Bees\nAnd the Limp B-I-Z-K-I-T\nY'all know the time, y'all know the rhyme\nIt ain't easy bein' greazy in a world full of cleanliness\nAnd, you know, all that other madness\nWe gone, peace!\nLimp Bizkit, Method Man\nRock the house y'all! Bring it on!\n\n[Hidden Track]\nHey wait up, where you guys goin'?\nYou're not recordin', are you?\nAre you?\nBut I'm all alone\nI can't do this!\nFeel it, uh\nFeel it, feel it, feel it\nYou guys feel it out there?\nShake your head if you feel it\nHey, hey, hey\nEvery day is brighter than the next day\nAt least that's what you think\nEvery day is brighter than the next day\nAt least that's what you think", 'annotations': {'description': '&lt;p&gt;Beat courtesy of famed hip hop producer DJ Premier, it was released as the third single for “Significant Other” along with “Break Stuff”, and is definitely not a Nu-Metal song. It features Method Man as both of them mess around on the mic..the music video filmed for N 2 Gether Now has the two battling it out and features a cameo from Pauly Shore, it also uses a different beat to the original: &lt;a href="http://www.youtube.com/watch?v=tMLetx7SjCw" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=tMLetx7SjCw&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;For the original audio: &lt;a href="http://www.youtube.com/watch?v=okpp83_RIcE" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=okpp83_RIcE&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Limp Bizkit', 'url': 'https://genius.com/artists/Limp-bizkit'}, {'name': 'DJ Premier', 'url': 'https://genius.com/artists/Dj-premier'}], 'writers': [{'name': 'Method Man', 'url': 'https://genius.com/artists/Method-man'}, {'name': 'DJ Premier', 'url': 'https://genius.com/artists/Dj-premier'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}], 'labels': [{'name': 'Flip Records', 'url': 'https://genius.com/artists/Flip-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Jason-mraz-im-yours-lyrics', 'lyrics': "[Verse 1]\nWell you done done me in; you bet I felt it\nI tried to be chill but you're so hot that I melted\nI fell right through the cracks\nNow I'm trying to get back\n\nBefore the cool done run out\nI'll be giving it my bestest\nNothing's going to stop me but divine intervention\nI reckon it's again my turn to win some or learn some\n\n[Chorus]\nBut I won't hesitate no more, no more\nIt cannot wait, I'm yours\n\n[Verse 2]\nWell open up your mind and see like me\nOpen up your plans and damn you're free\nLook into your heart and you'll find\nLove, love, love, love\n\nListen to the music of the moment, people dance and sing\nWe're just one big family\nAnd it's our God-forsaken right to be\nLoved, love, love, love, loved\n[Chorus]\nSo I won't hesitate no more, no more\nIt cannot wait, I'm sure\nThere's no need to complicate\nOur time is short\nThis is our fate, I'm yours\n\n[Bridge]\nDo you want to come on scootch on over closer, dear\nAnd I will nibble your ear\n\n[Verse 3]\nI've been spending way too long checking my tongue in the mirror\nAnd bending over backwards just to try to see it clearer\nBut my breath fogged up the glass\nAnd so I drew a new face and I laughed\n\nI guess what I be saying is there ain't no better reason\nTo rid yourself of vanities and just go with the seasons\nIt's what we aim to do\nOur name is our virtue\n\n[Chorus]\nBut I won't hesitate no more, no more\nIt cannot wait – I'm yours\n[Outro]\nWell open up your mind and see like me (I won't hesitate)\nOpen up your plans and damn you're free (No more, no more)\nLook into your heart and you'll find (It cannot wait)\nThe sky is yours (I'm sure)\nSo please don't, please don't, please don't (No need to complicate)\nThere's no need to complicate (Our time is short)\n'Cause our time is short (This is)\nThis oh, this oh, this is our fate (our fate)\nI'm yours", 'annotations': {'description': '', 'producers': [{'name': 'Martin Terefe', 'url': 'https://genius.com/artists/Martin-terefe'}], 'writers': [{'name': 'Jason Mraz', 'url': 'https://genius.com/artists/Jason-mraz'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lmfao-sexy-and-i-know-it-lyrics', 'lyrics': '[Intro]\nYeah, yeah\n\n[Verse 1]\nWhen I walk on by, girls be looking like, "Damn, he fly"\nI pimp to the beat, walking down the street in my new LaFreak\nYeah, this is how I roll, animal print, pants outta control\nIt\'s Redfoo with the big afro\nAnd like Bruce Leroy, I got the glow, yeah\n\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Chorus]\nWhen I walk in the spot (Yeah), this is what I see (Okay)\nEverybody stops and is staring at me\nI got passion in my pants and I ain\'t afraid to show it\nShow it, show it, show it\nI\'m sexy and I know it\nI\'m sexy and I know it\n[Verse 2]\nYeah\nWhen I\'m at the mall, security just can\'t fight \'em all\nAnd when I\'m at the beach, I\'m in a speedo trying to tan my cheeks (What)\nThis is how I roll, come on, ladies, it\'s time to go\nWe headed to the bar, baby, don\'t be nervous\nNo shoes, no shirt, and I still get service, watch\n\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Chorus]\nWhen I walk in the spot (Yeah), this is what I see (Okay)\nEverybody stops and is staring at me\nI got passion in my pants and I ain\'t afraid to show it\nShow it, show it, show it\nI\'m sexy and I know it (Ay)\nI\'m sexy and I know it\n\n[Bridge]\nCheck it out, check it out\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, yeah, yeah\nDo the wiggle, man, I do the wiggle, man\nYeah, I\'m sexy and I know it\nAy, yeah\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Outro]\nI\'m sexy and I know it', 'annotations': {'description': '&lt;p&gt;In this #1 hit from &lt;a href="https://genius.com/albums/Lmfao/Sorry-for-party-rocking" rel="noopener" data-api_path="/albums/12286"&gt;&lt;em&gt;Sorry for Party Rocking&lt;/em&gt;&lt;/a&gt;, RedFoo shows displays self-confidence and self-awareness in his impressive physique (or at least, what he &lt;strong&gt;thinks&lt;/strong&gt; is impressive physique).&lt;/p&gt;\n\n&lt;p&gt;This is his definition of “sexy”, in his own words:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://www.mtv.com/news/1671012/lmfao-sexy-and-i-know-it/" rel="noopener nofollow"&gt;Sexy is confidence. It’s ‘I don’t care what other people think, but I want them to think that I’m sexy at the same time. It’s a Catch-22. I want to be seen. Sexy is you want attention and you gotta have moves. You gotta have moves, whether it be in the bedroom [or] on the dance floor — just the way you walk, the way you talk.&lt;/a&gt;&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=wyx6JDQCslE" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=wyx6JDQCslE&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}, {'name': 'Audiobot', 'url': 'https://genius.com/artists/Audiobot'}], 'writers': [{'name': 'George Matthew Robertson', 'url': 'https://genius.com/artists/George-matthew-robertson'}, {'name': '8ky', 'url': 'https://genius.com/artists/8ky'}, {'name': 'Audiobot', 'url': 'https://genius.com/artists/Audiobot'}, {'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Erin Beck', 'url': 'https://genius.com/artists/Erin-beck'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Judas-priest-breaking-the-law-lyrics', 'lyrics': "[Verse 1]\nThere I was completely wasting, out of work and down\nAll inside it's so frustrating as I drift from town to town\nFeel as though nobody cares if I live or die\nSo I might as well begin to put some action in my life\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Verse 2]\nSo much for the golden future, I can't even start\nI've had every promise broken, there's anger in my heart\nYou don't know what it's like, you don't have a clue\nIf you did you'd find yourselves doing the same thing too\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Bridge]\nYou don't know what it's like\n[Instrumental Interlude]\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Outro]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law", 'annotations': {'description': '&lt;p&gt;The lyrics talk about some who (probably) was fired, can’t find a new job, is unhappy, and feels as if everyone and everything is against him.&lt;/p&gt;\n\n&lt;p&gt;The song features some sound effects, including the sound of breaking glass and a police siren. For the breaking glass effect, the band used milk bottles, and the police siren was actually guitarist K. K. Downing using the tremolo arm on his Stratocaster.&lt;/p&gt;\n\n&lt;p&gt;After 40 years from &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;the album&lt;/a&gt; release, &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt; realized an official lyric video for the song, published on April 16th, 2020:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/eRorNhiUM8U?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Tom Allom', 'url': 'https://genius.com/artists/Tom-allom'}], 'writers': [{'name': 'Glenn Tipton', 'url': 'https://genius.com/artists/Glenn-tipton'}, {'name': 'Rob Halford', 'url': 'https://genius.com/artists/Rob-halford'}, {'name': 'K.K. Downing', 'url': 'https://genius.com/artists/Kk-downing'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Michael-jackson-and-slash-give-in-to-me-lyrics', 'lyrics': "[Verse 1]\nShe always takes it with a heart of stone\n'Cause all she does is throw it back to me\nI've spent a lifetime looking for someone\nDon't try to understand me\nJust simply do the things I say\n\n[Chorus]\nLove is a feeling\nGive it when I want it\n'Cause I'm on fire\nQuench my desire\nGive it when I want it\nTalk to me, woman\nGive in to me, give in to me\n\n[Verse 2]\nYou always knew just how to make me cry\nAnd never did I ask you questions why\nIt seems you get your kicks from hurting me\nDon't try to understand me\nBecause your words just aren't enough\n\n[Chorus]\nLove is a feeling\nQuench my desire\nGive it when I want it\nTakin' me higher\nLove is a woman\nI don't wanna hear it\nGive in to me, give in to me\n[Bridge]\nYou and your friends were laughing at me in town\nBut it's okay and it's okay\nYou won't be laughing, girl, when I'm not around\nI'll be okay\nAnd I'd, I'd never find\nBetter, a peace of mind, no\n\n[Guitar Solo]\n\n[Pre-Chorus]\nDon't try to tell me\nBecause your words just aren't enough\n\n[Chorus]\nLove is a feeling\nQuench my desire\nGive it when I want it\nTakin' me higher\nTalk to me, woman\nLove is a feeling\nGive in to me, give in to me, give in to me\nOh, love is a feeling\nI don't wanna hear it\nQuench my desire\nTakin' me higher\nTell it to the preacher\nSatisfy the feeling\nGive in to me, give in to me\n[Guitar Solo]\n\n[Outro]\nI don't wanna, I don't wanna, I don't wanna hear it\nGive in to the fire\nTalk to me, woman\nQuench my desire\nI'd like a lady\nTalk to me, baby\nGive in to me\nGive in to the fire\nGive in to me\nGive in to me\nGive in to me\nLove is a woman\nGive in to me\nGive in to me\nGive in to me\nGive in to me\n'Cause I'm on fire\nTalk to me, woman\nQuench my desire\nGive in to the feeling", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Give In To Me&lt;/em&gt; is the 10th track on &lt;a href="https://genius.com/albums/michael-jackson/dangerous" rel="noopener" data-api_path="/albums/6296"&gt;&lt;em&gt;Dangerous&lt;/em&gt;&lt;/a&gt;, Michael Jackson’s 8th album.  In an album that heavily features the &lt;a href="https://en.wikipedia.org/wiki/New_jack_swing" rel="noopener nofollow"&gt;New Jack Swing&lt;/a&gt; style, this rock ballad once again shows Michael’s range and creative diversity.&lt;/p&gt;\n\n&lt;p&gt;The song features &lt;a href="https://genius.com/artists/Guns-n-roses" rel="noopener" data-api_path="/artists/637"&gt;Guns N\' Roses&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Slash" rel="noopener" data-api_path="/artists/10939"&gt;Slash&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/32da2923e639ab6f2424c54e93c9ae61.888x663x1.jpg" alt="" width="888" height="663" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song can be compared to another rock ballad, &lt;a href="https://genius.com/Michael-jackson-dirty-diana-lyrics" rel="noopener" data-api_path="/songs/2907"&gt;“Dirty Diana”&lt;/a&gt;, from &lt;a href="https://genius.com/albums/Michael-Jackson/bad" rel="noopener" data-api_path="/albums/11195"&gt;&lt;em&gt;Bad&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/45e8537b08c05b28320cbdab69df6561.583x833x1.jpg" alt="" width="583" height="833" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Keane-this-is-the-last-time-lyrics', 'lyrics': "[Verse 1]\nThis is the last time\nThat I will say these words\nI remember the first time\nThe first of many lies\nSweep it into the corner\nOr hide it under the bed\nSay these things, they go away\nBut they never do\n\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Verse 2]\nThis is the last time\nThat I will show my face\nOne last tender lie and\nThen I'm out of this place\nTread it into the carpet\nOr hide it under the stairs\nYou say that some things never die\nWell, I tried and I tried\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind", 'annotations': {'description': '&lt;p&gt;Tim Rice-Oxley describes the song as “mainly about regret. I was thinking about how you can have a huge amount of affection for someone and yet not have that magic spark that makes you feel like you’re in love … you have a bond with someone but you don’t want to stay with them forever. So you decide to go. But you’re not saying, ’I hate you and I’m leaving.’ You’re trying to say, ‘I think you’re great, but I’ve seen that there’s something more perfect and magical out there for me and I need to find it. But I will always be your friend if you need me.’”&lt;/p&gt;', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cult-she-sells-sanctuary-2009-re-master-lyrics', 'lyrics': "Oh the heads that turn\nMake my back burn\nOh the heads that turn\nMake my back, make my back burn\n\nThe sparkle in your eyes\nKeeps me alive\nAnd the sparkle in your eyes\nKeeps me alive, keeps a man alive\n\nAnd the world, and the world\nAnd the world turns around\nThe world, and the world, yeah\nThe world drags me down\n\nWell the heads that turn\nMake my back burn\nAnd the heads that turn\nMake my back, make my back burn, yeah\nYeah-ah-ah-ah\nYeah-ah-ah-ah\n\nThe fire in your eyes\nKeeps me alive\nAnd the fire in your eyes\nKeeps me alive\nI'm sure in her you'll find\nThe sanctuary\nI'm sure in her you'll find\nThe sanctuary\n\nAnd the world\nThe world turns around\nAnd the world, and the world\nThe world drags me down\n\nAnd the world, and the world, and the world\nThe world turns around\nAnd the world, and the world, and the world, and the world\nThe world drags me down\n\nHey-yeah-ah-ah\nHey-yeah-ah-ah\n\nAnd the world\nAnd the world turns around\nAnd the world, and the world\nYeah, the world drags me down\n\nAnd the world\nYeah, the world turns around\nAnd the world, and the world\nThe world drags me down\nSanctuary\nSanctuary\nSanctuary\nSanctuary", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Twenty-one-pilots-stressed-out-lyrics', 'lyrics': '[Verse 1]\nI wish I found some better sounds no one\'s ever heard\nI wish I had a better voice that sang some better words\nI wish I found some chords in an order that is new\nI wish I didn\'t have to rhyme every time I sang\nI was told, when I get older, all my fears would shrink\nBut now I\'m insecure, and I care what people think\n\n[Pre-Chorus]\nMy name\'s Blurryface and I care what you think\nMy name\'s Blurryface and I care what you think\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\nWe\'re stressed out\n\n[Verse 2]\nSometimes a certain smell will take me back to when I was young\nHow come I\'m never able to identify where it\'s comin\' from?\nI\'d make a candle out of it, if I ever found it\nTry to sell it, never sell out of it, I\'d probably only sell one\nIt\'d be to my brother, \'cause we have the same nose\nSame clothes, homegrown, a stone\'s throw from a creek we used to roam\nBut it would remind us of when nothing really mattered\nOut of student loans and treehouse homes, we all would take the latter\n[Pre-Chorus]\nMy-my-my name\'s Blurryface and I care what you think\nMy name\'s Blurryface and I care what you think\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\n[Bridge]\nWe used to play pretend, give each other different names\nWe would build a rocket ship an\' then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah\nWe used to play pretend, give each other different names\nWe would build a rocket ship an\' then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\n[Outro]\nWe used to play pretend, used to play pretend, money\nWe used to play pretend, wake up, you need the money\nUsed to play pretend, used to play pretend, money\nWe used to play pretend, wake up, you need the money\nUsed to play pretend, give each other different names\nWe would build a rocket ship and then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah', 'annotations': {'description': '&lt;p&gt;The lyrics of “Stressed Out” are told in the first person, with the story being told by both the character Blurryface (a representation of Tyler’s insecurities) and an anxious Tyler feeling intense childhood nostalgia. The song is primarily about a wish to regain the innocence and carefree nature of childhood, before insecurities (i.e. Blurryface) existed.&lt;/p&gt;\n\n&lt;p&gt;It was released on April 27, 2015 as the third single from their second studio album, &lt;em&gt;Blurryface&lt;/em&gt;. In February 2016, &lt;a href="http://www.billboard.com/artist/430557/twenty-one-pilots/chart" rel="noopener nofollow"&gt;it managed to reach number two on the Hot 100&lt;/a&gt;, becoming their first single to reach that height.&lt;/p&gt;\n\n&lt;p&gt;The music video features Josh Dun and Tyler Joseph riding big-wheels and hanging out in their childhood bedrooms, suggesting a state of crippling nostalgia and perhaps even arrested development.&lt;/p&gt;\n\n&lt;p&gt;On April 30, 2021 “Stressed Out” was certified Diamond by the &lt;a href="https://www.riaa.com/gold-platinum/" rel="noopener nofollow"&gt;RIAA&lt;/a&gt;, their first Diamond certification.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}], 'writers': [{'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Fueled By Ramen', 'url': 'https://genius.com/artists/Fueled-by-ramen'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-chainsmokers-closer-lyrics', 'lyrics': "[Verse 1: Andrew Taggart]\nHey, I was doing just fine before I met you\nI drink too much\nAnd that's an issue, but I'm okay\nHey, you tell your friends\nIt was nice to meet them\nBut I hope I never see them again\n\n[Pre-Chorus: Andrew Taggart]\nI know it breaks your heart\nMoved to the city in a broke-down car\nAnd four years, no calls\nNow you're lookin' pretty in a hotel bar\nAnd I-I-I can't stop\nNo, I-I-I can't stop\n\n[Chorus: Andrew Taggart]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n[Post-Chorus: Andrew Taggart]\nWe ain't ever getting older\nWe ain't ever getting older\n\n[Verse 2: Halsey]\nYou look as good as the day I met you\nI forget just why I left you, I was insane\nStay and play that blink-182 song\nThat we beat to death in Tucson, okay\n\n[Pre-Chorus: Halsey]\nI know it breaks your heart\nMoved to the city in a broke-down car\nAnd four years, no call\nNow I'm lookin' pretty in a hotel bar\nAnd I-I-I can't stop\nNo, I-I-I can't stop\n\n[Chorus: Andrew Taggart &amp; Halsey]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n[Post-Chorus: Andrew Taggart &amp; Halsey]\nWe ain't ever getting older\nWe ain't ever getting older\n\n[Chorus: Andrew Taggart]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n\n[Post-Chorus: Andrew Taggart &amp; Halsey]\nWe ain't ever getting older\n(No, we ain't ever getting older)\nWe ain't ever getting older\n(No, we ain't ever getting older)\nWe ain't ever getting older\n(We ain't ever getting older)\nWe ain't ever getting older\n(No, we ain't ever getting older)\n(We ain't ever getting older)\n(No, we ain't ever getting older)", 'annotations': {'description': '&lt;p&gt;“Closer” is a millennial romance anthem that celebrates youth and heartbreak. It features vocals from singer-songwriter &lt;a href="https://genius.com/artists/Halsey" rel="noopener" data-api_path="/artists/228636"&gt;Halsey&lt;/a&gt; and Chainsmokers member Andrew Taggart, marking the first time the Chainsmokers feature their vocals on a track—Taggart previously &lt;a href="https://www.youtube.com/watch?v=HlUGRbPLn-4&amp;amp;feature=youtu.be&amp;amp;t=21m" rel="noopener nofollow"&gt;performed backing vocals&lt;/a&gt; for the chorus of &lt;a href="https://genius.com/The-chainsmokers-roses-lyrics" rel="noopener" data-api_path="/songs/2138429"&gt;“Roses”&lt;/a&gt;. It is also their first collaboration with Halsey.&lt;/p&gt;\n\n&lt;p&gt;At the &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;2016 MTV VMAs&lt;/a&gt;, both the duo and Halsey performed “Closer”. The duo teased the performance as &lt;a href="https://twitter.com/TheChainsmokers/status/770178202744590336" rel="noopener nofollow"&gt;“new level” on Twitter&lt;/a&gt;. This was &lt;a href="http://www.mtv.com/news/2924529/chainsmokers-halsey-closer-performance-vmas-2016/" rel="noopener nofollow"&gt;the second time that “Closer” was performed at Madison Square Garden&lt;/a&gt; — the first being at Halsey’s &lt;a href="http://www.billboard.com/articles/news/6762299/halsey-sells-out-madison-square-garden" rel="noopener nofollow"&gt;sold-out&lt;/a&gt; Badlands Tour &lt;a href="http://www.thegarden.com/events/2016/august/halsey.html" rel="noopener nofollow"&gt;show on August 13th, 2016&lt;/a&gt; where The Chainsmokers performed as guests.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/agFMqNB9BYM?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;In September 2016, after “Closer” had already reached the summit of the Billboard Hot 100, &lt;a href="https://genius.com/artists/Isaac-slade" rel="noopener" data-api_path="/artists/149826"&gt;Isaac Slade&lt;/a&gt; and &lt;a href="https://genius.com/artists/Joe-king" rel="noopener" data-api_path="/artists/658975"&gt;Joe King&lt;/a&gt;, respectively the lead singer and guitarist of &lt;a href="https://genius.com/artists/The-fray" rel="noopener" data-api_path="/artists/7807"&gt;The Fray&lt;/a&gt;, &lt;a href="http://www.billboard.com/articles/news/dance/7495958/chainsmokers-closer-the-fray-songwriting-credits" rel="noopener nofollow"&gt;were given additional songwriting credits&lt;/a&gt; on the song due to the similarity of its chorus to the verses of their 2005 breakout hit, &lt;a href="https://genius.com/the-fray-over-my-head-cable-car-lyrics" rel="noopener" data-api_path="/songs/197591"&gt;“Over My Head (Cable Car).”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On the March-25-dated chart, “Closer” &lt;a href="http://www.billboard.com/articles/columns/chart-beat/7720945/hot-100-chainsmokers-closer-ties-record-most-weeks-top-ten" rel="noopener nofollow"&gt;tied&lt;/a&gt; &lt;a href="https://genius.com/artists/Leann-rimes" rel="noopener" data-api_path="/artists/63143"&gt;LeAnn Rimes Cibrian&lt;/a&gt;’s 32 week record in the &lt;em&gt;Billboard Hot 100&lt;/em&gt; top 10. The singer held it for 20 years –\xa0beginning December 13, 1997 – with her single &lt;a href="https://genius.com/Leann-rimes-how-do-i-live-lyrics" rel="noopener" data-api_path="/songs/384569"&gt;“How Do I Live.”&lt;/a&gt; She &lt;a href="https://twitter.com/leannrimes/status/843917019053481985" rel="noopener nofollow"&gt;congratulated&lt;/a&gt; the hitmaker duo on Twitter by singing a mashup of “Closer” and her own song.&lt;/p&gt;\n\n&lt;p&gt;On September 15, 2018, the song was &lt;a href="https://www.billboard.com/articles/news/dance/8475327/chainsmokers-halsey-closer-diamond-certified-riaa-instagram" rel="noopener nofollow"&gt;certified Diamond by the RCAA&lt;/a&gt;, verifying that the song had sold an equivalent ten million units in the United States alone.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Related:&lt;/strong&gt; &lt;a href="https://genius.com/a/how-blink-182-s-i-miss-you-inspired-the-chainsmokers-and-halsey-s-closer" rel="noopener" data-api_path="/articles/507"&gt;How Blink 182’s “I Miss You” Inspired The Chainsmokers And Halsey’s “Closer”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'DJ Swivel', 'url': 'https://genius.com/artists/Dj-swivel'}, {'name': 'The Chainsmokers', 'url': 'https://genius.com/artists/The-chainsmokers'}], 'writers': [{'name': 'Frederic Kennett', 'url': 'https://genius.com/artists/Frederic-kennett'}, {'name': 'Joe King', 'url': 'https://genius.com/artists/Joe-king'}, {'name': 'Isaac Slade', 'url': 'https://genius.com/artists/Isaac-slade'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}, {'name': 'Andrew Taggart', 'url': 'https://genius.com/artists/Andrew-taggart'}], 'labels': [{'name': 'Disruptor Records', 'url': 'https://genius.com/artists/Disruptor-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-pussycat-dolls-dont-cha-lyrics', 'lyrics': "[Intro: Busta Rhymes &amp; Nicole Scherzinger]\nOkay (Ahh)\nYeah (Ahh)\nOh, we about to get it just a little hot and sweaty in this– (Ooh, baby)\nLadies, let's go (Uhh)\nSoldiers, let's go (Dolls)\nLet me talk to y'all and just, you know, give you a little situation\nListen (Fellas)\n\n[Verse 1: Busta Rhymes &amp; Nicole Scherzinger]\nYou see this **** get hot\nEvery time I come through when I step up in the spot (Are you ready?)\nMake the place sizzle like a summertime cookout\nProwl for the best chick, yes, I'm on the lookout (Let's dance)\nSlow bangin' shorty like a belly dancer wit' it\nSmell good, pretty skin, so gangsta wit' it (Ooh, baby)\nNo tricks, only diamonds under my sleeve\nGimme the number, but make sure you call before you leave\n\n[Verse 2: Nicole Scherzinger]\nI know you like me (I know you like me)\nI know you do (I know you do)\nThat's why whenever I come around, she's all over you\nAnd I know you want it (I know you want it)\nIt's easy to see (It's easy to see)\nAnd in the back of your mind\nI know you should be fuckin' with me\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me?\nDon't cha wish your girlfriend was a freak like me?\nDon't cha? Don't cha?\nDon't cha wish your girlfriend was raw like me?\nDon't cha wish your girlfriend was fun like me?\nDon't cha? (Ah-ah-ah) Don't cha?\n\n[Verse 3: Nicole Scherzinger]\nFight the feeling (Fight the feeling)\nLeave it alone (Leave it alone)\n'Cause if it ain't love\nIt just ain't enough to leave a happy home (Uh-uh, uh-uh)\nLet's keep it friendly (Let's keep it friendly)\nYou have to play fair (You have to play fair, yeah)\nSee, I don't care\nBut I know, she ain't gon' wanna share (Ah, ah-ah)\n\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me? (Oh)\nDon't cha wish your girlfriend was a freak like me? (Like me)\nDon't cha? Don't cha, baby?\nDon't cha? Alright, sing\nDon't cha wish your girlfriend was raw like me? (Raw)\nDon't cha wish your girlfriend was fun like me? (Big fun)\nDon't cha? (Ah-ah-ah) Don't cha?\n[Interlude: Busta Rhymes]\nOkay, I see how it's goin' down\nSeem like shorty wanna little ménage pop off or somethin'\nLet's go\n\n[Verse 4: Busta Rhymes]\nWell, let me get straight to it\nEvery broad wanna watch a ***** when I come through it\nIt's the God almighty, lookin' all brand new\nIf shorty wanna jump in my Aston Vanquish\nLookin' at me all like she really wanna do it\nTryna put it on me 'til my ***** black and blueish\nYou wanna play with a player, girl, then play on\nStrip out the Chanel and leave the lingerie on (Ha)\nWatch me and I'ma watch you at the same time\nLookin' at you wanna break my back\nYou're the very reason why I keep a pack of the Magnum\nAnd with the wagon, hit you in the back of the Magnum\nFor the record, don't think it was something you did\nShorty all on me 'cause it's hard to resist the kid\nI got a idea that's dope for y'all\nAs y'all could get cold so I could hit the both of y'all\n\n[Verse 5: Nicole Scherzinger]\nSee, I know she loves ya (I know she loves ya)\nI understand (I understand, yeah)\nI'd probably be just as crazy about you if you were my own man\nMaybe next lifetime (Maybe next lifetime)\nPossibly (Possibly)\nUntil then, old friend, your secret is safe with me (Shh, hot)\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me? (Oh)\nDon't cha wish your girlfriend was a freak like me? (Like me)\nDon't cha? Don't cha, baby?\nDon't cha? Alright, sing\nDon't cha wish your girlfriend was raw like me? (Raw)\nDon't cha wish your girlfriend was fun like me? (Big fun)\nDon't cha? (Ah-ah-ah) Don't cha?", 'annotations': {'description': '&lt;p&gt;“Don’t Cha” was officially released as the first single from The Pussycat Dolls\' debut album, &lt;a href="https://genius.com/albums/The-pussycat-dolls/Pcd" rel="noopener" data-api_path="/albums/6051"&gt;&lt;em&gt;PCD&lt;/em&gt;&lt;/a&gt;. The song features guest vocals from rapper &lt;a href="https://genius.com/artists/Busta-rhymes" rel="noopener" data-api_path="/artists/338"&gt;Busta Rhymes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song debuted on the Hot 100 at &lt;a href="http://www.billboard.com/articles/news/63105/stefani-single-ousts-50-cent-from-no-1" rel="noopener nofollow"&gt;#95&lt;/a&gt; back in 2005. The song would eventually climb and peak at &lt;a href="http://www.billboard.com/artist/418902/pussycat-dolls/chart?f=379" rel="noopener nofollow"&gt;#2&lt;/a&gt; making the song their biggest hit.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song is about a girl who is taunting a guy about his girlfriend, asking if he wishes that the girlfriend he has was as hot as her.&lt;/p&gt;', 'producers': [{'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}], 'writers': [{'name': 'Busta Rhymes', 'url': 'https://genius.com/artists/Busta-rhymes'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'Sir Mix-a-Lot', 'url': 'https://genius.com/artists/Sir-mix-a-lot'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Whigfield-saturday-night-lyrics', 'lyrics': '[Intro: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, Dee, dee, na, na, na\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n\n[Verse: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday night I feel the air is getting hot (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Like you baby\nI\'ll make you mine, you know I\'ll take you to the top (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) I\'ll drive you crazy\nSaturday night, dance, I like the way you move (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Pretty baby\nIt\'s party time and not one minute we can lose (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Be my baby\n\n[Refrain: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nDa ba da dan, dee dee dee da nee na na na (Man, man, man, man, man, man, man, man)\nBe my baby (Man, man, man, man, man, man, man, man)\nDa ba da dan, dee dee dee da nee na na na (Man, man, man, man, man, man, man, man)\nPretty baby (Man, man, man, man, man, man, man, man)\n\n[Post-Refrain: Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n[Verse: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday night I feel the air is getting hot (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Like you baby\nI\'ll make you mine, you know I\'ll take you to the top (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) I\'ll drive you crazy\nSaturday night, dance, I like the way you move (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Pretty baby\nIt\'s party time and not one minute we can lose (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Be my baby\n\n[Bridge: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nSaturday night, dance, I like the way you move\nPretty baby\nIt\'s party time and not one minute we can lose\nBe my baby\nOoh, ooh\n\n[Break: Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n[Outro: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Da ba da dan, dee dee dee/Man, man, man, man)\nSaturday (Da nee na na na/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (It\'s party time, hey!/Man, man, man, man)\nSaturday (It\'s party time, oh!/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (It\'s party time, hey!/Man, man, man, man)\nSaturday (It\'s party time, oh!/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)', 'annotations': {'description': '&lt;p&gt;The debut single by Whigfield aka Danish Eurodance singer Sannie Carlson. She landed on the number one spot of the UK singles chart in September 1994, becoming the first person to do so with their debut single. With this song, she also topped numerous other charts across Europe.&lt;/p&gt;', 'producers': [{'name': 'Larry Pignagnoli', 'url': 'https://genius.com/artists/Larry-pignagnoli'}], 'writers': [{'name': 'Larry Pignagnoli', 'url': 'https://genius.com/artists/Larry-pignagnoli'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Beastie-boys-intergalactic-lyrics', 'lyrics': '[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\n\n[Verse 1: Mike D]\nWell, now, don\'t you tell me to smile\nYou stick around, I\'ll make it worth your while\nGot numbers beyond what you can dial\nMaybe it\'s because I\'m so versatile\nStyle, profile\n\n[Verse 2: Ad-Rock]\nI said it always brings me back when I hear, "ooh child"\nFrom the Hudson River out to the Nile\nI run the marathons \'til the very last mile\n\n[Verse 3: MCA]\nWell, if you battle me, I will revile\nPeople always saying my style is wild\nYou\'ve got gall, you\'ve got guile (guile)\nTo step to me, I’m a rapophile\n[Verse 4: Mike D]\nIf you wanna battle, you\'re in denial\nComing from Uranus to check my style\nGo ahead; put my rhymes on trial\nCast you off into exile\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\n\n[Verse 5: Ad-Rock]\nJazz and AWOL, that\'s our team\nStep inside the party, disrupt the whole scene\nWhen it comes to beats, well, I\'m a fiend\nI like my sugar with coffee and cream\n\n[Verse 6: MCA]\nWell, I gotta keep it going, keep it going full steam\nToo sweet to be sour; too nice to be mean\nWell, on the tough guy style, I\'m not too keen\nTrying to change the world, I will plot and scheme\n\n[Verse 7: Mike D]\nMario C likes to keep it clean (clean)\nGoin\' to shine like a sunbeam\nKeep on rapping \'cause that\'s my dream\nGot an A from Moe Dee for sticking to themes\n[Verse 8: Ad-Rock]\nNow when it comes to envy, y\'all is green\nJealous of the rhyme and the rhyme routine (\'tine)\nAnother dimension, new galaxy\nIntergalactic planetary\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\n\n[Verse 9: MCA]\nWe\'re from the family tree of old school hip-hop\nKick off your shoes and relax your socks\nThe rhymes will spread just like a pox\n\'Cause the music is live, like an electric shock\n\n[Verse 10: Mike D]\nI am known to do the wop (wop)\nAlso known for the Flintstone Flop\nTammy D getting biz on the crop (crop)\nBeatsie Boys known to let the beat\n"MMM, D-r-r-rop!"\nDo it\n[Verse 11: Ad-Rock]\nNow when I wrote graffiti, my name was Slop\nIf my rap\'s soup, my beats is stock\nStep from the table when I start to chop\nI\'m the lumberjack, DJ Adrock\n\n[Verse 12: MCA]\nIf you try to knock me, you\'ll get mocked\nI\'ll stir fry you in my wok\nYour knees\'ll start shaking and your fingers pop\nLike a pinch on the neck of Mr. Spock\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\n\n[Outro]\nDo it', 'annotations': {'description': '&lt;p&gt;“Intergalactic" is track #7 on Beastie Boys 5th (full-length) studio album, &lt;em&gt;Hello Nasty&lt;/em&gt;, released 7.14.1998.  In addition to producing, Mario Caldato, Jr. shares a writing credit with the Boys.  It was dropped as a single on 5.12.1998, the group’s 3rd Top 40 single, hitting #28 on the Billboard Hot 100 charts and #5 on the UK Singles Chart — the Beasties\' biggest hit in that country.  “Intergalactic" received the Grammy Award for Best Rap Performance by a Duo or Group in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/f0bah2ku2d173blbipnyq811a.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Source: &lt;a href="http://typophile.com/node/68006" rel="noopener nofollow"&gt;typophile&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Samples include:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="http://www.whosampled.com/sample/view/9108/Beastie%20Boys-Intergalactic_Les%20Baxter-Prelude%20in%20C#%20Minor/" rel="noopener nofollow"&gt;Prelude C# Minor&lt;/a&gt;“ composed by Rachmaninoff and performed by Lex Baxter&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="http://www.youtube.com/watch?v=iS_f7ic5RtQ" rel="noopener nofollow"&gt;Love is Blue&lt;/a&gt;“ by The Jazz Crusaders, on their album, &lt;em&gt;Powerhouse&lt;/em&gt; (1969)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="https://genius.com/Beastie-boys-the-new-style-lyrics" rel="noopener" data-api_path="/songs/9409"&gt;The New Style&lt;/a&gt;” from Beastie Boys’ &lt;em&gt;Licensed to Ill&lt;/em&gt; (1986)&lt;/p&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2c67uygjjro2r5f1rblkns06t.447x448x1.jpg" alt="" width="447" height="448" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Source: &lt;a href="http://eil.com/shop/moreinfo.asp?catalogid=113970" rel="noopener nofollow"&gt;eil&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.beastiemania.com/songspotlight/show.php?band=b&amp;amp;s=intergalacticPerformed" rel="noopener nofollow"&gt;Beastiemania&lt;/a&gt; reports the song has been performed in 189 known Concerts.&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;1st Known Performance: &lt;a href="http://www.beastiemania.com/gigog/show.php?g=19980610" rel="noopener nofollow"&gt;6.10.1998&lt;/a&gt; — Electric Factory, Philadelphia, PA, US&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=kCGNWdrN3yw" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=kCGNWdrN3yw&lt;/a&gt;&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?feature=player_detailpage&amp;amp;v=X8vsLWonkpQ#t=174s" rel="noopener nofollow"&gt;https://www.youtube.com/watch?feature=player_detailpage&amp;amp;v=X8vsLWonkpQ#t=174s&lt;/a&gt;&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=0Hxv1QfQlnU" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=0Hxv1QfQlnU&lt;/a&gt;&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=LBxfGG0OVgU" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=LBxfGG0OVgU&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Last Known Performance: &lt;a href="http://www.beastiemania.com/gigog/show.php?g=20090612" rel="noopener nofollow"&gt;6.12.2009&lt;/a&gt; — Great Stage Park, Manchester, TN, US&lt;/li&gt;\n&lt;/ul&gt;', 'producers': [{'name': 'Beastie Boys', 'url': 'https://genius.com/artists/Beastie-boys'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Grand Royal Records', 'url': 'https://genius.com/artists/Grand-royal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pixies-where-is-my-mind-lyrics', 'lyrics': "[Intro: Black Francis, Kim Deal]\nOoh—stop\n\n[Verse 1: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah (Yeah)\nYour head will collapse, and there's nothing in it\nAnd you'll ask yourself\n\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n\n[Verse 2: Black Francis]\nI was swimmin' in the Caribbean\nAnimals were hiding behind the rocks\nExcept the little fish\nBumped into me, I swear he was trying to talk to me, koi-koi\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n[Verse 3: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah\nYour head will collapse, and there's nothing in it\nAnd you'll ask yourself\n\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n\n[Outro: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah", 'annotations': {'description': '&lt;p&gt;Black Francis says that “Where Is My Mind?” was written during the time he was attending the University of Massachusetts Amherst, and was inspired by the experience of having a small fish chase him while he was snorkeling in the Caribbean.&lt;/p&gt;\n\n&lt;p&gt;David Lovering and Joey Santiago on writing the song and its use in at the end of the iconic movie &lt;em&gt;Fight Club&lt;/em&gt; (1999) (Warning: Movie spoilers):&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/sMeZDlJ_YYM?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}], 'labels': [{'name': 'Rough Trade Records', 'url': 'https://genius.com/artists/Rough-trade-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Franz-ferdinand-right-action-lyrics', 'lyrics': '[Verse 1]\nCome home, practically all is nearly forgiven\nRight thoughts, right words, right action\nAlmost everything could be forgotten\nRight thoughts, right words, right action\n\n[Chorus]\nOh, how can we leave you\nTo a Saturday night on a Sunday morning?\nGood morning\n\n[Verse 2]\nSometimes, wish you were here, weather permitting\nRight thoughts, right words, right action\nThis time, same as before, love you forever\nRight thoughts, right words, right action\n\n[Chorus]\nBut how can we leave you\nTo a Saturday night on a Sunday morning?\nGood morning\n\n[Refrain]\nDo-do-n-do-do-do\nDo-do-n-do-do-do\nDo-do-do-do, do, do, do\n[Bridge]\n11 Chalcot Gardens\nEngland’s Lane, Hampstead, London\n\n[Refrain]\nDo-do-n-do-do-do\nDo-do-n-do-do-do\nDo-do-do-do, do-do\n\n[Outro]\nSometimes, wish you were here, weather permitting\nRight thoughts, right words, right action\nRight thoughts, right words, right action\nRight thoughts, right words, right action\nRight thoughts, right words, right action', 'annotations': {'description': '&lt;p&gt;The opening song to their 2013 album “Right Thoughts, Right Words, Right Action.” It is an upbeat song whose narrator seems to emphasize those principles in its\' chorus, but ends up being rather passive-aggressive in the verses.&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=RqTsUtQLRFk" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=RqTsUtQLRFk&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Alexis Taylor', 'url': 'https://genius.com/artists/Alexis-taylor'}, {'name': 'Joe Goddard', 'url': 'https://genius.com/artists/Joe-goddard'}], 'writers': [{'name': 'Bob Hardy', 'url': 'https://genius.com/artists/Bob-hardy'}, {'name': 'Nick McCarthy', 'url': 'https://genius.com/artists/Nick-mccarthy'}, {'name': 'Alex Kapranos', 'url': 'https://genius.com/artists/Alex-kapranos'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-offspring-self-esteem-lyrics', 'lyrics': "[Intro]\nLa, la, la, la, la\nLa, la, la, la, la\n\n[Verse 1]\nI wrote her off for the tenth time today\nAnd practiced all the things I would say\nBut she came over, I lost my nerve\nI took her back and made her dessert\nNow I know I'm being used\nThat's okay, man, 'cause I like the abuse\nI know she's playing with me\nThat's okay 'cause I've got no self-esteem\n\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Verse 2]\nWe make plans to go out at night\nI wait 'til two, then I turn out the light\nThis rejection's got me so low\nIf she keeps it up, I just might tell her so\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Bridge]\nWhen she's saying, oh, that she wants only me\nThen I wonder why she sleeps with my friends\nWhen she's saying, oh, that I'm like a disease\nThen I wonder how much more I can spend\nWell, I guess I should stick up for myself\nBut I really think it's better this way\nThe more you suffer\nThe more it shows you really care\nRight? Yeah, yeah, yeah\n\n[Verse 3]\nNow I'll relate this little bit\nIt happens more than I'd like to admit\nLate at night, she knocks on my door\nShe's drunk again and looking to score\nNow I know I should say no\nBut it's kind of hard when she's ready to go\nI may be dumb, but I'm not a dweeb\nI'm just a sucker with no self-esteem\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Bridge]\nWhen she's saying, oh, that she wants only me\nThen I wonder why she sleeps with my friends\nWhen she's saying, oh, that I'm like a disease\nThen I wonder how much more I can spend\nWell, I guess I should stick up for myself\nBut I really think it's better this way\nThe more you suffer\nThe more it shows you really care\nRight? Yeah, yeah, yeah", 'annotations': {'description': '&lt;p&gt;The song that got millions of mid-90s teenage boys self-righteously indignant. Believe us – we were there…&lt;/p&gt;\n\n&lt;p&gt;Dexter Holland has said that people have often thought that this was a song based on him because the song is spoken in a first person perspective, but he got the idea from other people he knew about.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/a725efa76cfb27b653ef8f9e1b86214e.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;For many years, this has been the last song played at an Offspring concert.&lt;/p&gt;', 'producers': [{'name': 'Thom Wilson', 'url': 'https://genius.com/artists/Thom-wilson'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Amy-winehouse-back-to-black-lyrics', 'lyrics': "[Verse 1]\nHe left no time to regret\nKept his dick wet with his same old safe bet\nMe and my head high\nAnd my tears dry, get on without my guy\nYou went back to what you know\nSo far removed from all that we went through\nAnd I tread a troubled track\nMy odds are stacked, I'll go back to black\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nI go back to us\n\n[Verse 2]\nI love you much, it's not enough\nYou love blow and I love puff\nAnd life is like a pipe\nAnd I'm a tiny penny rollin' up the walls inside\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\n[Bridge]\nBlack, black, black, black\nBlack, black, black\nI go back to\nI go back to\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to black", 'annotations': {'description': '&lt;p&gt;Ranked as the &lt;a href="https://www.rollingstone.com/music/music-lists/100-best-songs-of-the-2000s-153056/" rel="noopener nofollow"&gt;#98 best song of the 2000’s&lt;/a&gt;, “Back to Black” details the harsh reality Winehouse faced after her then-boyfriend, Blake Fielder-Civil, ended their relationship to return to his ex-girlfriend.&lt;/p&gt;\n\n&lt;p&gt;The titular “black” to which Winehouse goes back refers to the dark moments of depression and the reliance on alcohol to cope with her heartache. Winehouse commented on the depressing period of time during a 2007 interview with &lt;a href="https://youtu.be/BUO31yMztxE" rel="noopener nofollow"&gt;&lt;em&gt;CNN&lt;/em&gt;&lt;/a&gt;, saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was drinking a lot – not anything terrible, I was just tryna forget about the fact that I had finished this relationship.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song was released as the third single from the 2006 album of the same name, and, as of July 2015, has sold over &lt;a href="https://www.officialcharts.com/chart-news/amy-winehouse-s-back-to-black-in-numbers__10090/" rel="noopener nofollow"&gt;350,000 copies&lt;/a&gt; in the United Kingdom alone.&lt;/p&gt;\n\n&lt;p&gt;The song was written in March 2006 in New York alongside British songwriter and producer &lt;a href="https://genius.com/artists/Mark-ronson" rel="noopener" data-api_path="/artists/8231"&gt;Mark Ronson&lt;/a&gt;, who also helped to craft five more songs on the album. During an interview with &lt;a href="https://youtu.be/dG2-WapOt1A?t=838" rel="noopener nofollow"&gt;Red Bull Music Academy&lt;/a&gt; in April 2015, Ronson expanded on the creation of the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt; The song – it took me about one night to lay the foundation of that track and then Amy wrote the lyrics and the melody especially fast, so it was like half a day, and then we probably recorded the rhythm track in three hours.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}], 'writers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Amy Winehouse', 'url': 'https://genius.com/artists/Amy-winehouse'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-offspring-the-kids-arent-alright-lyrics', 'lyrics': "[Verse 1]\nWhen we were young the future was so bright (Woah)\nThe old neighborhood was so alive (Woah)\nAnd every kid on the whole damn street (Woah)\nWas gonna make it big and not be beat\nNow the neighborhood's cracked and torn (Woah)\nThe kids are grown up but their lives are worn (Woah)\nHow can one little street\nSwallow so many lives?\n\n[Chorus]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams\n(Go!)\n\n[Verse 2]\nJamie had a chance, well she really did (Woah)\nInstead she dropped out and had a couple of kids (Woah)\nMark still lives at home 'cause he's got no job (Woah)\nHe just plays guitar and smokes a lot of pot\nJay committed suicide (Woah)\nBrandon OD'd and died (Woah)\nWhat the hell is going on?\nThe cruelest dream, reality\n[Chorus]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams\n(Go!)\n\n[Outro]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams", 'annotations': {'description': '&lt;p&gt;“The Kids Aren’t Alright” is the third single from the album &lt;a href="http://rock.genius.com/albums/The-offspring/Americana" rel="noopener" data-api_path="/albums/28406"&gt;&lt;em&gt;Americana&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Its title is an allusion to &lt;a href="https://genius.com/artists/The-who" rel="noopener" data-api_path="/artists/17846"&gt;The Who&lt;/a&gt; song “&lt;a href="http://rock.genius.com/The-who-the-kids-are-alright-lyrics" rel="noopener" data-api_path="/songs/140269"&gt;The Kids Are Alright&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In the video below, Dexter talks more about the song. One of the things that inspired the song was that someone from his neighborhood that he grew up with died from getting hit by a car.&lt;/p&gt;\n\n&lt;p&gt;Though the song plays B flat, G flat, D flat, and A flat, Noodles said if the song were to be transposed down a note, he could have done more with the songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/UNtwlhFOQGg?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nirvana-lithium-lyrics', 'lyrics': "[Verse 1]\nI'm so happy, 'cause today I found my friends, they're in my head\nI'm so ugly, that's okay, 'cause so are you, broke our mirrors\nSunday mornin' is every day for all I care, and I'm not scared\nLight my candles in a daze, 'cause I've found God\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n\n[Verse 2]\nI'm so lonely, that's okay, I shaved my head, and I'm not sad\nAnd just maybe I'm to blame for all I've hurt, but I'm not sure\nI'm so excited, I can't wait to meet you there, and I don't care\nI'm so horny, that's okay, my will is good\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n[Bridge]\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\n\n[Verse 1]\nI'm so happy, 'cause today I found my friends, they're in my head\nI'm so ugly, that's okay, 'cause so are you, broke our mirrors\nSunday mornin' is every day for all I care, and I'm not scared\nLight my candles in a daze, 'cause I've found God\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n\n[Bridge]\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack", 'annotations': {'description': '&lt;p&gt;“Lithium” is a perfect description of manic depression, where every line is both happy and sad, up and down, while having references to God recalling when Kurt lived with a devout Christian family. The title invokes &lt;a href="https://en.wikipedia.org/wiki/Lithium_%28medication%29" rel="noopener nofollow"&gt;lithium salts&lt;/a&gt;, a key drug in treating the disorder.&lt;/p&gt;\n\n&lt;p&gt;The CD single contained a sonogram photo of Kurt Cobain and Courtney Love’s still to be born child, Frances Bean; Kurt said he thought he saw Frances doing the heavy metal devil horn hand gesture when he watched the sonogram.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5bd6a4460b8c4a71a9c91e2230ed2082.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bridgit-mendler-ready-or-not-lyrics', 'lyrics': "[Intro]\nHey-ey-ey\nHey-ey-ey\nOoh\n\n[Verse 1]\nI'm the kind of girl who doesn't say a word\nWho sits at the curb and waits for the world\nBut I'm about to break out, about to break out\nI'm like a crook tonight\nI caught you staring at me, and I was thinking clearly\nAnd now I'm like a bee and I'm hunting for the honey\nAnd I'm kinda shy, but you're super fly, yeah\nI could be your kryptonite, like\n\n[Pre-Chorus]\n(Oh, oh-oh-oh, oh-oh-oh)\nLight my heart up, baby, like a matchstick\n(Oh, oh-oh-oh, oh-oh-oh)\nAnd hit the gas quick\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young\nIn the crowd, the music's loud\nBut I will find you\nReady or not, here I come\nI like your face, do you like my song?\nJust sing it, la-la-la-la-la-la-la\nAnd I'll find you\n[Hook]\nReady or not (woah, woah, oh, woah, oh)\nReady or not (woah, woah, oh, woah, oh)\n\n[Verse 2]\nHello, my name is (Bridgit), nice to meet you\nI think you're famous, where have I seen you?\nYou'll be my William, I'll be your Kate\nLiving like a fairy tale\nWe could have a palace right next to Oprah\nThirty-seven cars and a yacht down in Boca\nTake me away, wherever you say\nYeah, we could be setting sail, like\n\n[Pre-Chorus]\n(Oh, oh-oh-oh, oh-oh-oh)\nLight my heart up, baby, like a matchstick\n(Oh, oh-oh-oh, oh-oh-oh)\nAnd hit the gas quick\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young\nIn the crowd (oh-oh), the music's loud\nBut I will find you\nReady or not, here I come\nI like your face, do you like my song? (yeah)\nJust sing it, la-la-la-la-la-la-la (la-la-la-la-la)\nAnd I'll find you\n[Hook]\nReady or not (woah, woah, oh, woah, oh)\nReady or not (woah, woah, oh, woah, oh)\nNot, no, woah, oh, woah, oh!\n\n[Bridge]\nReady or not, here I come, here I come\nYou're like a breath of fresh air in my lungs\nYou made me dance from the night to the dawn\nReady or not, here I come boy, it's on\nReady or not, here I come, here I come\nYou're like a breath of fresh air in my lungs\nYou made me dance from the night to the dawn\nReady or not, here I come boy, it's on\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young (yeah)\nIn the crowd, the music's loud\nBut I will find you (I'll find you)\nReady or not, here I come\nI like your face, do you like my song?\nJust sing it, la-la-la-la-la-la-la (la-la-la-la)\nAnd I'll find you\n\n[Outro]\nReady or not (ready or not) (woah, woah, oh, woah, oh)\n(You're like a breath of fresh air in my lungs)\nReady or not (here I come!) (woah, woah, oh, woah, oh)\nOh! Ready or not (ready or not, woo!)\nReady or not (ready or not, ready or not, boom-batta-boom, batta-boom, batta-boom, batta-boom)\nReady or not", 'annotations': {'description': '&lt;p&gt;“Ready or Not” is Bridgit Mendler’s  debut single, and is the lead single from her debut studio album, &lt;i&gt;Hello My Name Is …&lt;/i&gt; It was released on August 3, 2012 and was released as a digital download on August 7, 2012.&lt;/p&gt;\n\n&lt;p&gt;The song was played during commercial breaks on Disney Channel due to Mendler’s roles in &lt;i&gt;Good Luck Charlie&lt;/i&gt; and &lt;i&gt;Wizards of Waverly Place&lt;/i&gt;, helping it to gain popularity and eventually peak at #49 on the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}], 'writers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': 'E. Kidd Bogart', 'url': 'https://genius.com/artists/E-kidd-bogart'}, {'name': 'Bridgit Mendler', 'url': 'https://genius.com/artists/Bridgit-mendler'}, {'name': 'William Hart', 'url': 'https://genius.com/artists/William-hart'}, {'name': 'Thom Bell', 'url': 'https://genius.com/artists/Thom-bell'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Electric-light-orchestra-last-train-to-london-lyrics', 'lyrics': "[Verse 1]\nIt was 9:29\n9:29, back street, big city\nThe sun was going down\nThere was music all around\nIt felt so right\n\n[Verse 2]\nIt was one of those nights\nOne of those nights when you feel the world stop turning\nYou were standing there\nThere was music in the air\nI should've been away\nBut I knew I had to stay\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n\n[Verse 3]\nIt was one of those nights\nOne of those nights when you feel a fire is burning\nEverybody was there\nEverybody to share\nIt was so right\n[Verse 4]\nThere you were on your own\nLooking like you were the only one around\nI had to be with you\nNothing else that I could do\nI should've been away\nBut I knew I had to stay\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n\n[Verse 5]\nUnderneath a starry sky\nTime was still, but hours must really have rushed by\nI didn't realize\nBut love was in your eyes\nI really should've gone\nBut love went on and on\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n[Outro]\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight", 'annotations': {'description': '&lt;p&gt;“Last Train to London” is a single by &lt;a href="https://genius.com/artists/Electric-light-orchestra" rel="noopener" data-api_path="/artists/29232"&gt;Electric Light Orchestra&lt;/a&gt; and the fifth track from their album &lt;a href="https://genius.com/albums/Electric-light-orchestra/Discovery" rel="noopener" data-api_path="/albums/69084"&gt;&lt;em&gt;Discovery&lt;/em&gt;&lt;/a&gt;. Written and produced by &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, the song reached No. 39 the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Discovery&lt;/em&gt; remaster (2001), &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;There was a certain period when it seemed we spent years on trains going back and forth from Birmingham to the various TV and radio stations in London.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'writers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ub40-rat-in-mi-kitchen-lyrics', 'lyrics': "[Intro]\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\n\nWhen you open your mouth you don't talk, you shout\nAnd you give every body the blame\nBut when they catch you up\nThey will shut you up\nAnd you got no one to blame\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWhen you out on the street\nYou practice lies and deceit\nAnd you scandalise my name\nBut when I catch you up\nI'm gonna pull you up\nI'm gonna check-out inside your brain\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWhen yo deh pon the scene\nYou make everyone scream\nBecause they know you're so unjust\nBut when they catch you up\nThey will kick you up\nBecause you're someone they cannot trust\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/88e5503eb1009ec2605d22e90e11e4eb.400x394x1.jpg" alt="" width="400" height="394" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This track was written by Astro, in response to Ali Campbell being troubled by rodents in his new home, which he had just moved into at the time.&lt;br&gt;\nThe rat in the kitchen refers to Margaret Thatcher, who was the Prime Minister of The United Kingdom at the time.&lt;/p&gt;\n\n&lt;p&gt;Herb Alpert, who is the co-founder of A&amp;amp;M records, features on trumpet.&lt;/p&gt;', 'producers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'writers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Us3-cantaloop-flip-fantasia-lyrics', 'lyrics': "[Intro]\nLadies and gentlemen, as you know we have something special down here at Birdland this evening\nA recording for Blue Note Records\n\nWhat's that? Yeah...yeah...yeah\nFunky, funky\nHow 'bout a big hand now\nWait, wait a minute\n\n[Verse 1]\nGroovy groovy jazzy funky pounce bounce dance as we\nDip in the melodic sea, the rhythm keeps flowin', and drips to MC\nSweet sugar pop sugar pop rocks it pop\nYa dont stop 'til the sweet beat drops\nI show and prove as I stick and move\nVivid poems recited on top of the groove\nSmooth, my, floating like a butterfly\nNotes set afloat, sung like a lullaby\nBrace yourself as the beat hits ya\nDip trip, flip fantasia\n\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n[Verse 2]\nFeel the beat drop, jazz and hip hop\nDrippin' in your dome, makes you zone and bop\nFunk and fusion, a fly illusion\nKeeps ya coastin' on the rhythm you're cruisin'\nUp down, round and round, rhymes profound\nBut nevertheless ya gots to get down\nFantasy freak thru the beat so unique\nYa move your feet, the sweat from the heat\nBack to the fact I'm the mack and I know that\nThe way I kick the rhymes, some would call me a poet\nPoems steady flowin', growin', showin' sights and sound\nCaught in the groove in Fantasia I'm found\nMany trip the tour upon the rhymes they soar\nTo an infinite height to the realm of the hardcore\nHere we go off I take ya\nDip trip, flip fantasia\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n(Yeah...yeah...yeah...What's that?)\n(Yeah...yeah...yeah...Funky, funky)\n\n[Verse 3]\nJump to the jam, boogie woogie jam slam\nBust the dialect, I'm the man in command\nCome flow with the sounds of the mighty mic master\nRhyming on the mic, I'm bringing suckas their disaster\nBeaucoup ducs but I still rock Nike\nWith the razzle dazzle, star I might be\nScribble drabble scrabble on the microphone I babble\nAs I flip the funky words, into a puzzle\nYes yes yes, on and on as I flex\nGet with the flow, words manifest\nFeel the vibe from here to Asia\nDip trip, flip fantasia\nOut\n\n[Outro]\nYa don't stop\nC'mon, c'mon, c'mon, c'mon\nC'mon, c'mon, c'mon\nGimme more\nOf that funky horn", 'annotations': {'description': '&lt;p&gt;Us3’s extensive use of samples from the Blue Note Records catalog got the attention of Blue Note who surprised them with an offer for a record deal. (Richard Cook, Blue Note Records: The Biography, p226)&lt;/p&gt;\n\n&lt;p&gt;Main sample is from &lt;a href="https://genius.com/artists/Herbie-hancock" rel="noopener" data-api_path="/artists/6238"&gt;Herbie Hancock&lt;/a&gt;’s &lt;a href="http://www.whosampled.com/sample/172/Us3-Cantaloop-%28Flip-Fantasia%29-Herbie-Hancock-Cantaloupe-Island/" rel="noopener nofollow"&gt;“Cantaloupe Island”&lt;/a&gt; (Blue Note, 1964)&lt;/p&gt;\n\n&lt;p&gt;A great version of Canteloupe Island by Herbie Hancock is the opening spot on the famous “A Night with Blue Note” concert in 1985.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SgBs5IFP1v8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Michael-jackson-wanna-be-startin-somethin-lyrics', 'lyrics': '[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Verse 1]\nI took my baby to the doctor with a fever\nBut nothin\' he found\nBy the time this hit the street\nThey said she had a breakdown\nSomeone\'s always tryin\'\nTo start my baby cryin\'\nTalkin\', squealin\', lyin\'\nSayin\' you just want to be startin\' somethin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n[Verse 2]\nYou love to pretend that you\'re good\nWhen you\'re always up to no good\nYou really can\'t make him hate her\nSo your tongue became a razor\nSomeone\'s always tryin\'\nTo keep my baby cryin\'\nTreacherous, cunnin\', declinin\'\nYou got my baby cryin\' (Hee)\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nStill they hate you (Still they hate you)\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re just a buffet (You\'re just a buffet) (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nThey eat off of you (They eat off of you) (You\'re a vegetable)\nYou\'re a vegetable, aaow!\n[Verse 3]\nBillie Jean is always talkin\' when nobody else is talkin\'\nTellin\' lies and rubbin\' shoulders\nSo they called her mouth a motor\nSomeone\'s always tryin\'\nTo start my baby cryin\'\nTalkin\', squealin\', spyin\'\nSayin\' you just want to be startin\' somethin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nStill they hate you (Still they hate you)\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re just a buffet (You\'re just a buffet) (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nThey eat off of you (They eat off of you) (You\'re a vegetable)\nYou\'re a vegetable, aaow!\n[Instrumental Interlude]\nAaow!\nHee-haw! (Ooh!)\n\n[Verse 4]\nIf you can\'t feed your baby (Yeah, yeah)\nThen don\'t have a baby (Yeah, yeah)\nAnd don\'t think maybe (Yeah, yeah)\nIf you can\'t feed your baby (Yeah, yeah)\nYou\'ll be always tryin\'\nTo stop that child from cryin\'\nHustlin\', stealin\', lyin\'\nNow baby\'s slowly dyin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nLift your head up high and scream out to the world\n"I know I am someone," and let the truth unfurl (Hee-ha)\nNo one can hurt you now because you know what\'s true\nYes, I believe in me, so do believe in you\n\n[Outro]\nHelp me sing it\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it, babe)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Yeah, sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it out loud)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah  (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Yeah)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it out loud)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)', 'annotations': {'description': '&lt;p&gt;As the opening song and fourth single of &lt;em&gt;Thriller&lt;/em&gt;, “Wanna Be Startin\' Somethin\'” picks up where &lt;em&gt;Off the Wall&lt;/em&gt; left off and begins the new phenomenon of &lt;em&gt;Thriller&lt;/em&gt;. According to Epic Records notes, the song was written in part by Michael for his sister &lt;a href="https://genius.com/artists/Latoya-jackson" rel="noopener" data-api_path="/artists/141665"&gt;LaToya&lt;/a&gt; as a response to negative reports about her relationship with her sisters, but Michael recorded it himself. Released on its own on May 8, 1983, “Wanna Be Startin\' Somethin\'” went #1 in Canada and the Netherlands and cracked in the Top 40 in 13 regions. It charted again in Denmark, Italy and Switzerland in 2008 following the release of its &lt;a href="https://genius.com/Michael-jackson-wanna-be-startin-somethin-2008-lyrics" rel="noopener" data-api_path="/songs/188874"&gt;successful remix&lt;/a&gt; for &lt;em&gt;Thriller 25&lt;/em&gt;, and at #25 in America following Jackson’s death on June 25, 2009.&lt;/p&gt;\n\n&lt;p&gt;The iconic outro of the song, repeating the Cameroonian phrase “Mama Se, Mama Sa, Ma Makusa” has never been outright defined. A lawsuit decided that Jackson (and &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;, who sampled the song for &lt;a href="https://genius.com/Rihanna-dont-stop-the-music-lyrics" rel="noopener" data-api_path="/songs/97149"&gt;“Don’t Stop the Music”&lt;/a&gt;) had illegally sampled &lt;a href="https://genius.com/Manu-dibango-soul-makossa-lyrics" rel="noopener" data-api_path="/songs/1152123"&gt;“Soul Makossa”&lt;/a&gt; by Manu DiBango, released in 1972 that was popular in the underground New York disco scene.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When &lt;em&gt;Thriller&lt;/em&gt; opens, those 100 million sales feel just. “Wanna Be Startin\' Somethin\'” is pure confused, shocked teenage rush. So there’s another theory: Thriller is the best-selling record ever because it’s the best record ever. That one holds up for six minutes and two seconds, during which Jackson and Quincy Jones mix the tension of rock\'n\'roll with the rapture of disco and hit perfection.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;— &lt;a href="http://pitchfork.com/reviews/albums/11163-thriller-25th-anniversary-edition/" rel="noopener nofollow"&gt;Pitchfork&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'writers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Avicii-wake-me-up-lyrics', 'lyrics': "[Verse 1]\nFeeling my way through the darkness\nGuided by a beating heart\nI can't tell where the journey will end\nBut I know where to start\nThey tell me I'm too young to understand\nThey say I'm caught up in a dream\nWell life will pass me by if I don't open up my eyes\nWell that's fine by me\n\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know \ufeffI was lost\n\n[Instrumental Break]\n\n[Verse 2]\nI tried carrying the weight of the world\nBut I only have two hands\nI hope I get the chance to travel the world\nBut I don't have any plans\nWish that I could stay forever this young\nNot afraid to close my eyes\nLife's a game\ufeff made for everyone\nAnd love is the prize\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know I was lost\n\n[Outro]\nI didn't know I was lost\nI didn't know I was lost\nI didn't know I was lost\nI didn't know, I didn't know, I didn't know", 'annotations': {'description': '&lt;p&gt;“Wake Me Up” is the lead single for Avicii’s first studio album &lt;em&gt;&lt;a href="https://genius.com/albums/avicii/true" rel="noopener" data-api_path="/albums/37018"&gt;#True&lt;/a&gt;&lt;/em&gt;. It features Aloe Blacc, who &lt;a href="https://www.youtube.com/watch?v=5ApBhsqo8_0#t=543" rel="noopener nofollow"&gt;wrote the lyrics&lt;/a&gt; on a plane flying from Geneva, Switzerland, to L.A.&lt;/p&gt;\n\n&lt;p&gt;Like many other Avicii hits, this song was first introduced at the Ultra Music Festival &lt;a href="https://www.youtube.com/watch?v=HCQXbekahGI" rel="noopener nofollow"&gt;with the live performance of a bluegrass band&lt;/a&gt;, swaying so far away from the typical EDM spectrum. It infuses Irish folk music with house beats, with vocals from American soul singer &lt;a href="https://genius.com/artists/Aloe-blacc" rel="noopener" data-api_path="/artists/3896"&gt;Aloe Blacc&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song spent 53 weeks on the &lt;em&gt;Billboard&lt;/em&gt; charts (21 of them being in the top 10), making it the first Dance/Electronic song to stay over a year on that chart. It never reached the #1 spot, though; it only peaked at #4.&lt;/p&gt;\n\n&lt;p&gt;The song also broke all of Avicii’s personal records of sales, topping music charts in 22 different countries as well as breaking the top 10 mark in 6 others. Commercially, the song has been a bigger hit than his previous &lt;a href="http://rock.genius.com/Avicii-levels-lyrics" rel="noopener" data-api_path="/songs/66020"&gt;“Levels”&lt;/a&gt; that only peaked at #60 on &lt;em&gt;Billboard&lt;/em&gt;’s Top 100 and only spent 20 weeks on the charts.&lt;/p&gt;', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}], 'writers': [{'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Aloe Blacc', 'url': 'https://genius.com/artists/Aloe-blacc'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'PRMD Records', 'url': 'https://genius.com/artists/Prmd-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Evanescence-call-me-when-youre-sober-lyrics', 'lyrics': "[Intro]\nDon't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Verse 1]\nShould I let you fall, lose it all?\nSo maybe you can remember yourself\nCan't keep believing\nWe're only deceiving ourselves\nAnd I'm sick of the lie\nAnd you're too late\n\n[Chorus]\nDon't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Verse 2]\nCouldn't take the blame, sick with shame\nMust be exhausting to lose your own game\nSelfishly hated, no wonder you're jaded\nYou can't play the victim this time\nAnd you're too late\n[Chorus]\nSo don't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Bridge]\nYou never call me when you're sober\nYou only want it 'cause it's over, it's over\nHow could I have burned paradise?\nHow could I - you were never mine\n\n[Outro]\nSo don't cry to me\nIf you loved me\nYou would be here with me\nDon't lie to me\nJust get your things\nI've made up your mind", 'annotations': {'description': '&lt;p&gt;As one of the last songs recorded for &lt;a href="https://genius.com/albums/Evanescence/The-open-door" rel="noopener" data-api_path="/albums/19236"&gt;&lt;em&gt;The Open Door&lt;/em&gt;&lt;/a&gt;, “Call Me When You’re Sober” was predominantly inspired by Amy Lee’s ex-boyfriend and &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt; frontman, Shaun Morgan. In an &lt;a href="http://www.mtv.com/news/1538267/evanescence-set-for-fall-tour-amy-lee-reveals-inspiration-behind-sober/" rel="noopener nofollow"&gt;MTV News interview&lt;/a&gt;, Amy Lee spoke about the song being very personal to her:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was very brave for me, the lyric writing, because I was just sick of hiding behind metaphors in all that I had been writing. So much of the record was about the turmoil I was going through, with choosing between happiness and comfort. In the end, I had to choose happiness and health for myself. I made the right decision. I was letting myself be run down.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Directed by &lt;a href="https://en.wikipedia.org/wiki/Marc_Webb#Music_videos" rel="noopener nofollow"&gt;Marc Webb&lt;/a&gt;, the accompanying music video is based upon modern re-imagining of &lt;em&gt;Little Red Riding Hood&lt;/em&gt;. Due to the literal nature of the song and its lyrics, &lt;a href="http://www.mtv.com/news/1537409/evanescences-amy-lee-isnt-afraid-of-big-bad-wolf-in-sober-clip/" rel="noopener nofollow"&gt;Amy Lee explained&lt;/a&gt; the importance for the video to “have the freedom to go in a less literal direction.” In 2007, “Call Me When You’re Sober” earned Evanescence two nominations in the best video categories at the &lt;em&gt;MuchMusic Video Awards&lt;/em&gt; and &lt;em&gt;NRJ Music Awards&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song wasn’t originally intended for inclusion on the album, &lt;a href="https://evanescencereference.info/wiki/index.php?title=John_Lee_on_The_Open_Door" rel="noopener nofollow"&gt;according&lt;/a&gt; to Amy Lee’s father, &lt;a href="https://genius.com/artists/John-patrick-lee" rel="noopener" data-api_path="/artists/1672457"&gt;John Lee&lt;/a&gt;. “It was just a little ditty she was working on and singing on her piano at home to purge herself of a past boyfriend. She said she would laugh out loud while she was writing and singing it and thought it was funny,” he added.&lt;/p&gt;\n\n&lt;p&gt;Upon its release, “Call Me When You’re Sober” received generally positive reviews from critics, and the song peaked at number 10 on the &lt;em&gt;Billboard Top 100&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Terry Balsamo', 'url': 'https://genius.com/artists/Terry-balsamo'}, {'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-magic-numbers-love-me-like-you-lyrics', 'lyrics': "Don't let your white dress wear you out\nOh it hurts to look in your eyes\n'Cause honey I can see him\n\nAll my life\nI'd hurt the ones I'd loved\nOh but baby you can turn it round\n\nShe don't love me like you\nShe don't know what you do\nAnd it's so hard\nShe don't care what you say\nSo just say it, say it anyway\nIt's so hard\n\nAll my life, they tried to push me down\nOh but baby you can turn it round\nOh but honey I still see him\n\nDon't let your friends tell you why\n'Cause I'm a bad, bad, bad\nI'm the one\nOh but baby you can turn it on\n\nShe don't love me like you\nShe don't know what you do\nAnd it's so hard\nShe don't care what you say\nSo just say it, say it anyway\nIt's so hard\nAll those years gone by\nI only wanna find a way\nTo make it hard for you\n\nAll those years gone by\nI only wanna find a way\nTo make it hard for you\n\nYou'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nTo make it hard for you\n\nYou'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nTo make it hard for you\n\nShe'll never forget it\nThe way that she let\nShe don't feel no pain\nI only wanna find a way\nTo make it up to you\nShe'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nI only wanna find\nI only wanna find\n\nShe don't love me like you\nShe don't love me like you\nShe don't love me like you\nShe don't love me like you\nShe don't love\nShe don't", 'annotations': {'description': '', 'producers': [{'name': 'Craig Silvey', 'url': 'https://genius.com/artists/Craig-silvey'}, {'name': 'Romeo Stodart', 'url': 'https://genius.com/artists/Romeo-stodart'}], 'writers': [{'name': 'Romeo Stodart', 'url': 'https://genius.com/artists/Romeo-stodart'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Black-eyed-peas-dont-lie-lyrics', 'lyrics': '[Intro: will.i.am &amp; Fergie]\nYeah, uh-uh\nLa, da, da, da, da-da\nSorry, sorry, sorry, sorry\n\n[Verse 1: will.i.am]\nHey baby, my nose is gettin\' big\nI noticed it be growin\' when I be tellin\' them fibs, now\nYou say your trust\'s gettin\' weaker\nProbably \'cause my lies just started gettin\' deeper\nAnd the reason for my confession is that I learned my lesson\nAnd I really think you ought to know the truth\nBecause I lied and I cheated and I lied a little more\nBut after I did it, I don\'t know what I did it for\nI admit that I\'ve been a little immature\nWith your heart like I was the predator\nIn my book of lies, I was the editor\nAnd the author, I forged my signature\nAnd now I apologize for what I did to ya\n\'Cause what you did to me I did to you\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try\nWhat you gonna do when it all comes out\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\n\'Cause you know, you know, you know, you know\nYou know you gotta try (Stop, st-stop, stop, st-stop stop lying)\n[Verse 2: apl.de.ap]\nShe said, "I\'m leaving"\n\'Cause she can\'t take the pain\nIt\'s hard to continue this love, it ain\'t the same\nCan\'t forget the things that I\'ve done inside her brain\nToo many lies committed, too many games\nShe feelin\' like a fool gettin\' on the last train\nTryna maintain, but the feeling won\'t change\nI\'m sorry for the things that I\'ve done and what I became\nCaught up in living my life in the fast lane\nBlinded by lights, cameras, you know the fame\nI don\'t know the reason why I did these things\n\n[Pre-Chorus 1: apl.de.ap, Fergie, will.i.am]\nOh, and I lie and I lie and I lie and I lie\nAnd now our emotions are drained\n\'Cause I lie and I lie and a little lie, lie\nAnd now your emotions are drained\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie (Don\'t, don\'t you lie)\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try (Got to, got to try)\nWhat you gonna do when it all comes out (What you gonna do, baby?)\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\nBecause you know, you know, you know, you know\nYou know you gotta try\n[Bridge: will.i.am &amp; Fergie]\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da, ba da, ba ba ba ba)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da da, ba da da, ba da da, ba da da)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da, ba da, ba ba ba ba)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da da, ba da da, ba da da, ba da da)\n\n[Verse 3: Taboo]\nHmm, yo, I\'m lyin\' to my girl\nEven though I love her and she all in my world\nI give her all my attention and diamonds and pearls\nShe the one that make me feel on top of the world\nStill I\'m lyin\' to my girl, I do it\n\n[Pre-Chorus 2: Fergie &amp; Taboo, Both]\nOh, and I lie and I lie and I lie and then I lie\n\'Til there\'s not turning back\nI don\'t know why I lie and I lie\n\'Til I don\'t know who I am\nBut then I tell myself\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie (Don\'t you lie)\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try (You know, you know you gotta)\nWhat you gonna do when it all comes out\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\nNo, no, no, no, baby, no, no, no, no\n(Stop, st-stop, stop, st-stop stop lying)', 'annotations': {'description': '&lt;p&gt;A classic track in BEP’s back catalogue, released at the height of their worldwide popularity. As the second single, it achieved &lt;a href="https://en.wikipedia.org/wiki/Don\'t_Lie#Charts_and_certifications" rel="noopener nofollow"&gt;massive chart success,&lt;/a&gt; reaching the top 50 in 21 different countries.&lt;/p&gt;\n\n&lt;p&gt;It’s further proof of their new focus on a real pop-centric sound. The acoustic guitar loop was &lt;a href="https://www.youtube.com/watch?v=6rgStv12dwA" rel="noopener nofollow"&gt;actually ahead of its time,&lt;/a&gt; but the bad guy/good girl dynamic the lyrics produced was a tried and tested trope.&lt;/p&gt;\n\n&lt;p&gt;A &lt;a href="https://www.youtube.com/watch?v=WbJNkH-pDd8" rel="noopener nofollow"&gt;summer music video&lt;/a&gt; was released, and although Fergie really only provides the hook, she really pulls the entire narrative together, giving a nice, easy, repeatable sound that sticks in the mind of the listener.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}], 'writers': [{'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Peters Peters', 'url': 'https://genius.com/artists/Peters-peters'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kajagoogoo-too-shy-lyrics', 'lyrics': "[Verse 1]\nTongue tied or short of breath\nDon't even try\nTry a little harder\nSomething's wrong\nYou're not naive, you must be strong\nOoh, baby try\n\n[Pre-Chorus]\nHey girl, move a little closer\n\n[Chorus]\nYou're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy, hush hush eye to eye\nToo, shy shy, hush hush\n\n[Verse 2]\nModern medicine falls short of your complaint\nOoh, try a little harder\nMoving in circles won't you dilate\nOoh, baby try\n\n[Pre-Chorus]\nHey girl, move a little closer\n[Chorus]\n'Cause you're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy hush hush eye to eye\nToo, shy shy, hush hush\n\n[Instrumental Break]\n\n[Chorus]\nYou're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy, hush hush eye to eye\nToo, shy shy, hush hush", 'annotations': {'description': '&lt;p&gt;“Too Shy”, the debut single of Kajagoogoo, was &lt;a href="https://www.ultratop.be/nl/song/3a3/Kajagoogoo-Too-Shy" rel="noopener nofollow"&gt;an international hit&lt;/a&gt; and &lt;a href="https://www.billboard.com/charts/hot-100/1983-07-06/" rel="noopener nofollow"&gt;reached #5&lt;/a&gt; in the US in the summer of 1983. It was produced by Duran Duran keyboard player Nick Rhodes.&lt;/p&gt;\n\n&lt;p&gt;In the US, the band never scored another top 40 hit, earning them the label of one-hit wonder there. In fact, VH1 &lt;a href="https://web.archive.org/web/20090806041321/http://blog.vh1.com/2009-04-01/100-greatest-one-hit-wonders-of-the-80s-read-the-list-2/" rel="noopener nofollow"&gt;ranked the song&lt;/a&gt; at #9 on their one-hit wonders of all time list in 2009. Kajagoogoo had more success overseas – in a half-dozen countries, the band reached the top 20 at least one more time.&lt;/p&gt;', 'producers': [{'name': 'Colin Thurston', 'url': 'https://genius.com/artists/Colin-thurston'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}], 'writers': [{'name': 'Limahl', 'url': 'https://genius.com/artists/Limahl'}, {'name': 'Jez Strode', 'url': 'https://genius.com/artists/Jez-strode'}, {'name': 'Stuart Neale', 'url': 'https://genius.com/artists/Stuart-neale'}, {'name': 'Nick Beggs', 'url': 'https://genius.com/artists/Nick-beggs'}, {'name': 'Steve Askew', 'url': 'https://genius.com/artists/Steve-askew'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pink-floyd-another-brick-in-the-wall-pt-2-lyrics', 'lyrics': "[Intro]\n\n[Verse 1: Roger Waters &amp; David Gilmour]\nWe don't need no education\nWe don't need no thought control\nNo dark sarcasm in the classroom\nTeacher, leave them kids alone\nHey! Teacher! Leave them kids alone!\n\n[Chorus: Roger Waters &amp; David Gilmour]\nAll in all, it's just another brick in the wall\nAll in all, you're just another brick in the wall\n[Verse 2: Islington Green School Students]\nWe don't need no education\nWe don't need no thought control\nNo dark sarcasm in the classroom\nTeachers, leave them kids alone\nHey! Teacher! Leave us kids alone!\n\n[Chorus: Islington Green School Students]\nAll in all, you're just another brick in the wall\nAll in all, you're just another brick in the wall\n[Guitar Solo]\n[Outro: Roger Waters]\nWrong, do it again! (*Children playing*)\nWrong, do it again!\nIf you don't eat your meat, you can't have any pudding!\n(Wrong, do it again!)\nHow can you have any pudding if you don't eat your meat?\n(Wrong, do it again!)\nYou! Yes! You behind the bike sheds! Stand still, laddie!\n(If you don't eat your meat, you can't have any pudding!\nHow can you have any pudding if you don't eat your meat?)\n(You! Yes! You behind the bike sheds! Stand still, laddie!)\n*Children playing*\n*Phone beeping sound*", 'annotations': {'description': '&lt;p&gt;“Another Brick in the Wall, Pt. 2” is Pink Floyd’s only number one hit in both &lt;a href="https://www.billboard.com/music/pink-floyd" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="https://www.officialcharts.com/artist/28142/pink-floyd/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;, and was a chart-topper in at least &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Pink+Floyd&amp;amp;titel=Another+Brick+In+The+Wall+%28Part+II%29&amp;amp;cat=s" rel="noopener nofollow"&gt;six other countries&lt;/a&gt; overseas in the spring of 1980.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-pt-1-lyrics" rel="noopener" data-api_path="/songs/116425"&gt;“Part 1”&lt;/a&gt; had come two tracks earlier, and even the immediately preceding song, &lt;a href="https://genius.com/Pink-floyd-the-happiest-days-of-our-lives-lyrics" rel="noopener" data-api_path="/songs/116430"&gt;“The Happiest Days of Our Lives”&lt;/a&gt; was thematically similar, to the point where &lt;a href="https://genius.com/7389696" rel="noopener" data-api_path="/referents/7389696"&gt;one radio edit combines both songs&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;David Gilmour &lt;a href="https://web.archive.org/web/20170810032322/http://www.guitarworld.com:80/pink-floyd-goodbye-blue-sky#:~:text=it%20wasn%E2%80%99t%20my%20idea%20to%20do%20disco%20music%2C%20it%20was%20bob%E2%80%99s" rel="noopener nofollow"&gt;credits&lt;/a&gt; producer Bob Ezrin for the song’s disco sound:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;He said to me, “Go to a couple of clubs and listen to what’s happening with disco music,” so I forced myself out and listened to loud, four-to-the-bar bass drums and stuff and thought, Gawd, awful! Then we went back and tried to turn one of the “Another Brick in the Wall” parts into one of those so it would be catchy. We did the same exercise on “Run Like Hell.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;But Roger Waters is &lt;a href="https://www.wsj.com/articles/roger-waters-on-another-brick-in-the-wall-1442855084#:~:text=The%20song%20ran,It%E2%80%99s%20very%20cool." rel="noopener nofollow"&gt;more reluctant to embrace the disco classification&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song ran slow, almost like a chant or mantra, at 100 beats per minute. To give it a bit of punch, Bob Ezrin added a kick drum on every beat, which made the song a different animal than something strummed on an acoustic guitar. It’s not a disco beat, as many people have said, but more of a heart beat. It’s very cool.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}, {'name': 'James Guthrie', 'url': 'https://genius.com/artists/James-guthrie'}, {'name': 'David Gilmour', 'url': 'https://genius.com/artists/David-gilmour'}, {'name': 'Bob Ezrin', 'url': 'https://genius.com/artists/Bob-ezrin'}], 'writers': [{'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}], 'labels': [{'name': 'Harvest Records', 'url': 'https://genius.com/artists/Harvest-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Green-day-boulevard-of-broken-dreams-lyrics', 'lyrics': "[Verse 1]\nI walk a lonely road\nThe only one that I have ever known\nDon't know where it goes\nBut it's home to me, and I walk alone\nI walk this empty street\nOn the Boulevard of Broken Dreams\nWhere the city sleeps\nAnd I'm the only one, and I walk alone\nI walk alone, I walk alone\nI walk alone, I walk a-\n\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Post-Chorus]\nAh-ah, ah-ah, ah-ah, ah-ah\nAh-ah, ah-ah, ah-ah\n\n[Verse 2]\nI'm walking down the line\nThat divides me somewhere in my mind\nOn the borderline\nOf the edge and where I walk alone\nRead between the lines\nWhat's fucked up, and everything's all right\nCheck my vital signs\nTo know I'm still alive, and I walk alone\nI walk alone, I walk alone\nI walk alone, I walk a-\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Post-Chorus]\nAh-ah, ah-ah, ah-ah, ah-ah\nAh-ah, ah-ah\nI walk alone, I walk a-\n\n[Guitar Solo]\n\n[Bridge]\nI walk this empty street\nOn the Boulevard of Broken Dreams\nWhere the city sleeps\nAnd I'm the only one, and I walk a-\n\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“Boulevard of Broken Dreams” sees the album’s main character, &lt;a href="https://genius.com/Green-day-jesus-of-suburbia-lyrics" rel="noopener" data-api_path="/songs/63752"&gt;the Jesus of Suburbia&lt;/a&gt;, aimlessly roaming the city’s streets with nothing to do and nowhere to go. After &lt;a href="https://genius.com/547332" rel="noopener" data-api_path="/referents/547332"&gt;leaving his hometown&lt;/a&gt; and &lt;a href="https://genius.com/Green-day-holiday-lyrics" rel="noopener" data-api_path="/songs/63758"&gt;venturing into the city&lt;/a&gt;, Jesus has come down from his excitement to find that he’s surrounded by strangers, completely alone in an unfamiliar environment. The realization that he has no one pushes Jesus to his emotional breaking point and drives him to &lt;a href="https://genius.com/978407" rel="noopener" data-api_path="/referents/978407"&gt;borderline insanity&lt;/a&gt;, as implied by the &lt;a href="https://genius.com/Green-day-st-jimmy-lyrics" rel="noopener" data-api_path="/songs/63762"&gt;creation of St. Jimmy&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://web.archive.org/web/20121011102748/http://music.yahoo.com/blogs/yradish/biggest-selling-singles-since-the-year-2000.html" rel="noopener nofollow"&gt;Selling over five-million copies&lt;/a&gt; as of September 1, 2009, it was Green Day’s most successful song on the Billboard charts, &lt;a href="https://www.billboard.com/music/Green-Day/chart-history/HSI/song/461283" rel="noopener nofollow"&gt;peaking at #2 on the Hot 100 list&lt;/a&gt;. It also &lt;a href="https://web.archive.org/web/20060316002151/https://www.grammy.com/GRAMMY_Awards/Annual_Show/48_nominees.aspx" rel="noopener nofollow"&gt;won the Grammy Award for “Record of the Year”&lt;/a&gt; in 2006.&lt;/p&gt;', 'producers': [{'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Marilyn-manson-sweet-dreams-are-made-of-this-lyrics', 'lyrics': "[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Instrumental Interlude]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Chorus]\nI wanna use you and abuse you\nI wanna know what's inside you\n[Bridge]\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on!\n\n[Guitar Solo]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Outro]\nI'm gonna use you and abuse you\nI'm gonna know what's inside\nGonna use you and abuse you\nI'm gonna know what's inside you", 'annotations': {'description': '&lt;p&gt;A cover of The Eurythmics\' &lt;a href="https://genius.com/Eurythmics-sweet-dreams-lyrics" rel="noopener" data-api_path="/songs/1640"&gt;breakthrough hit song&lt;/a&gt; from the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Manson has two additions to the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanna use you and abuse you&lt;br&gt;\nI wanna know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;and&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m gonna use you and abuse you&lt;br&gt;\nI gotta know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}], 'writers': [{'name': 'David A. Stewart', 'url': 'https://genius.com/artists/David-a-stewart'}, {'name': 'Annie Lennox', 'url': 'https://genius.com/artists/Annie-lennox'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sting-englishman-in-new-york-lyrics', 'lyrics': '[Verse 1]\nI don\'t drink coffee, I\'ll take tea my dear\nI like my toast done on one side\nAnd you can hear it in my accent when I talk\nI\'m an Englishman in New York\n\n[Verse 2]\nSee me walking down Fifth Avenue\nA walking cane here at my side\nI take it everywhere I walk\nI\'m an Englishman in New York\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n\n[Verse 3]\nIf "manners maketh man" as someone said\nThen he\'s the hero of the day\nIt takes a man to suffer ignorance and smile\nBe yourself, no matter what they say\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n[Bridge]\nModesty, propriety, can lead to notoriety\nYou could end up as the only one\nGentleness, sobriety are rare in this society\nAt night a candle\'s brighter than the sun\n\n[Saxophone solo followed by drums]\n\n[Verse 4]\nTakes more than combat gear to make a man\nTakes more than a license for a gun\nConfront your enemies, avoid them when you can\nA gentleman will walk but never run\n\n[Verse 3]\nIf "manners maketh man" as someone said\nThen he\'s the hero of the day\nIt takes a man to suffer ignorance and smile\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n[Outro]\nI\'m an alien, I\'m a legal alien\n(Be yourself, no matter what they say)\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\n(Be yourself, no matter what they say)\nI\'m an Englishman in New York', 'annotations': {'description': '&lt;p&gt;“Englishman in New York” was released as a single in 1988. The song’s main subject was &lt;a href="http://www.biography.com/people/quentin-crisp-251028" rel="noopener nofollow"&gt;Quentin Crisp&lt;/a&gt;, a British writer. Sting said this about the song in the liner notes for &lt;em&gt;Nothing Like the Sun&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wrote “Englishman in New York for a friend of mine who moved from London to New York in his early seventies to a small rented apartment in the Bowery at a time in his life when most people have settled down forever. He once told me over dinner that he looked forward to receiving his naturalization papers so that he could commit a crime and not be deported. "What kind of crime?” I asked anxiously. “Oh, something glamorous, non-violent, with a dash of style” he replied. “Crime is so rarely glamorous these days.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/425984c83416cd0598ed95bb68f7bfd9.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Neil Dorfsman', 'url': 'https://genius.com/artists/Neil-dorfsman'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Linkin-park-what-ive-done-lyrics', 'lyrics': "[Verse 1]\nIn this farewell\nThere's no blood, there's no alibi\n'Cause I've drawn regret\nFrom the truth of a thousand lies\nSo let mercy come and wash away\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n\n[Verse 2]\nPut to rest what you thought of me\nWhile I clean this slate\nWith the hands of uncertainty\nSo let mercy come and wash away\n\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n[Bridge]\nFor what I've done\nI start again\nAnd whatever pain may come\nToday this ends\nI'm forgiving\n\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n\n[Outro]\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\nWhat I've done\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\nForgiving what I've done\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)", 'annotations': {'description': '&lt;p&gt;This song shows one regretting over the bad things he has done. The video shows the effect of wars, poverty, murder, drugs, etc. etc. These are meant to depict that humanity has done a lot of wrong.&lt;/p&gt;\n\n&lt;p&gt;During the outro, he is optimistic. Optimistic that the time is not over to do the right thing.&lt;/p&gt;\n\n&lt;p&gt;The song was released as the first single from their third album, &lt;em&gt;Minutes to Midnight&lt;/em&gt;. The song is composed in the key of G minor and is set in 4/4 time. The song was released as a radio single on April 1, 2007, as a digital download on April 2, and as a CD single on April 30. The live version of “What I’ve Done” from Road to Revolution: Live at Milton Keynes was nominated for Best Hard Rock Performance at the 52nd Grammy Awards, but did not win. It is also featured on the Transformers soundtrack, &lt;a href="http://en.wikipedia.org/wiki/Transformers:_The_Album#Not_included_in_the_Soundtrack" rel="noopener nofollow"&gt;Transformers: The Album&lt;/a&gt;. The song is featured in the 2008 video game &lt;a href="http://en.wikipedia.org/wiki/Guitar_Hero_World_Tour" rel="noopener nofollow"&gt;Guitar Hero World Tour&lt;/a&gt; and was released in a Linkin Park &lt;a href="http://en.wikipedia.org/wiki/List_of_songs_in_Rock_Band_3#Downloadable_songs" rel="noopener nofollow"&gt;DLC pack for Rock Band 3&lt;/a&gt; in January 2011. The song is also a b-side to the UK single of &lt;a href="https://genius.com/Linkin-park-iridescent-lyrics" rel="noopener" data-api_path="/songs/230135"&gt;&lt;em&gt;Iridescent&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Booklet notes: One of the last songs finished for the album, the lyrics for this song were intended to work on many levels, including freedom, art, and death metaphors.&lt;/p&gt;', 'producers': [{'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-furtado-promiscuous-lyrics', 'lyrics': "[Intro: Nelly Furtado &amp; Timbaland]\nAm I throwin' you off?\nNope\nDidn't think so\n\n[Verse 1: Nelly Furtado &amp; Timbaland]\nHow you doin', young lady?\nThat feeling that you giving really drives me crazy\nYou're dope, have a player 'bout to choke\nI was at a loss for words first time that we spoke\nYou lookin' for a girl that'll treat you right?\nHow you lookin' for her in the daytime with the light?\nYou might be the type if I play my cards right\nI'll find out by the end of the night\nYou expect me to just let you hit it?\nBut will you still respect me if you get it?\nAll I can do is try, gimme one chance (Chance)\nWhat's the problem? I don't see no ring on your hand (Hand)\nI'll be the first to admit it\nI'm curious about you, you seem so innocent\nYou wanna get in my world, get lost in it?\nBoy, I'm tired of runnin', let's walk for a minute\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, you already know\nThat I'm all yours, what you waiting for?\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, let's get to the point\n'Cause we're on a roll, you ready?\n[Verse 2: Nelly Furtado &amp; Timbaland]\nRoses are red, some diamonds are blue\nChivalry is dead, but you're still kinda cute\nHey, I can't keep my mind off you\nWhere you at? Do you mind if I come through?\nI'm out of this world, come with me to my planet\nGet you on my level, do you think that you can handle it?\nThey call me Thomas, last name Crown\nRecognize game, I'ma lay mine's down\nI'm a big girl, I can handle myself\nBut if I get lonely, I'ma need your help\nPay attention to me, I don't talk for my health\nI want you on my team -- So does everybody else\nShh, baby, we can keep it on the low (Low)\nLet your guard down, ain't nobody gotta know (Know)\nIf you with it, girl, I know a place we can go\nWhat kind of girl do you take me for?\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, you already know\nThat I'm all yours, what you waiting for?\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, let's get to the point\n'Cause we're on a roll, you ready?\n[Bridge: Nelly Furtado &amp; Timbaland]\nDon't be mad, don't get mean\nDon't get mad, don't be mean\nHey, don't be mad, don't get mean\nDon't get mad, don't be mean\n\n[Verse 3: Nelly Furtado &amp; Timbaland]\nWait, I don't mean no harm\nI can see you with my t-shirt on\nI can see you with nothin' on\nFeelin' on me before you bring that on\nBring that on?! -- You know what I mean\nGirl, I'm a freak, you shouldn't say those things\nI'm only trying to get inside of your brain\nTo see if you can work me the way you say\nIt's okay, it's alright\nI got something that you gon' like\nHey, is that the truth or are you talking trash?\nIs your game M.V.P like Steve Nash?\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, I'm callin' ya name\nBut you're drivin' me crazy the way you're makin' me wait\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, we're one in the same\nSo we don't gotta play games no more", 'annotations': {'description': '&lt;p&gt;The first single of Nelly Furtado’s &lt;em&gt;Loose&lt;/em&gt; album (2006) and quickly became a chart topping hit, Furtado’s first number one single in the United States. It features two “promiscuous” people (Nelly and producer &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt;) flirting back and forth with each other.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Attitude', 'url': 'https://genius.com/artists/Attitude'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}], 'labels': [{'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-police-so-lonely-lyrics', 'lyrics': "[Verse 1]\nWell, someone told me yesterday\nThat when you throw your love away\nYou act as if you just don't care\nYou look as if you're going somewhere\nBut I just can't convince myself\nI couldn't live with no one else\nAnd I can only play that part\nAnd sit and nurse my broken heart\n\n[Chorus]\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\n\n[Verse 2]\nNow no one's knocked upon my door\nFor a thousand years or more\nAll made up and nowhere to go\nWelcome to this one-man show\nJust take a seat, they're always free\nNo surprise, no mystery\nIn this theatre that I call my soul\nI always play the starring role\n[Chorus]\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\n\n[Bridge]\nLonely, I'm so lonely\nI feel so alone\nI feel low\nI feel so\nFeel so low\nI feel low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nLow, I feel low\nI feel low\nI feel low\nI feel so lonely\nI feel so lonely\nI feel so lonely, lonely, lonely, lone\nLone, lone, lone\nI feel so lonely\n[Chorus]\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)", 'annotations': {'description': '&lt;p&gt;“So Lonely” was The Police’s &lt;a href="https://www.sting.com/news/article/4251" rel="noopener nofollow"&gt;first fusing of punk and reggae&lt;/a&gt; that would become not only a pioneering new sound in rock, but also their signature sound. It was the band’s third single, the last from their debut album, peaking at &lt;a href="http://www.officialcharts.com/search/singles/so%20lonely/" rel="noopener nofollow"&gt;#6 in the UK&lt;/a&gt; and #7 in Ireland.&lt;/p&gt;\n\n&lt;p&gt;Its lyrics &lt;a href="http://www.stingme.dk/Lyrics/Sting%20Fool%20in%20love.htm" rel="noopener nofollow"&gt;were taken from&lt;/a&gt; “Fool In Love”, a song from Sting’s previous band Last Exit. Its chorus, &lt;a href="https://www.sting.com/discography/index/album/albumId/143/tagName/Singles%20%28The%20Police" rel="noopener nofollow"&gt;Sting has admitted&lt;/a&gt;, is a sped-up reinterpretation of Bob Marley’s &lt;a href="https://genius.com/Bob-marley-and-the-wailers-no-woman-no-cry-lyrics" rel="noopener" data-api_path="/songs/57824"&gt;“No Woman No Cry”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alannah-myles-black-velvet-lyrics', 'lyrics': '[Verse 1]\nMississippi in the middle of a dry spell\nJimmy Rogers on the Victrola up high\nMama\'s dancin\' with baby on her shoulder\nThe sun is settin\' like molasses in the sky\n\n[Pre-Chorus]\nThe boy could sing\nKnew how to move, everything\nAlways wanting more\nHe\'d leave you longing for\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\n\n[Verse 2]\nUp in Memphis\nThe music\'s like a heatwave\nWhite lightning\nBound to drive you wild\nMama\'s baby\'s in the heart of every schoolgirl\n"Love Me Tender" leaves \'em cryin\' in the aisle\n[Pre-Chorus]\nThe way he moved\nIt was a sin\nSo sweet and true\nAlways wanting more\nHe\'d leave you longing for\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\n\n[Bridge]\nEvery word of every song\nThat he sang was for you\nIn a flash, he was gone\nIt happened so soon\nWhat could you do?\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\n[Outro]\nBlack velvet if you please\nIf you please\nIf you please\nIf you please', 'annotations': {'description': '&lt;p&gt;“Black Velvet” was an international smash hit, &lt;a href="https://www.billboard.com/music/alannah-myles/chart-history/hot-100/song/318720" rel="noopener nofollow"&gt;topping&lt;/a&gt; the US Hot 100 in spring 1990, &lt;a href="http://www.officialcharts.com/artist/26020/alannah-myles/" rel="noopener nofollow"&gt;reaching #2 in the UK&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/26020/alannah-myles/" rel="noopener nofollow"&gt;breaking the top five&lt;/a&gt; in nine more European countries.&lt;/p&gt;\n\n&lt;p&gt;It was written in 1987 as a tribute to Elvis Presley by Myles\' then-boyfriend Christopher Ward while he was on a bus of Elvis fanatics as they rode to Memphis to attend the 10th anniversary of his death.&lt;/p&gt;\n\n&lt;p&gt;According to Fred Bronson’s book &lt;em&gt;The Billboard Book of Number One Hits&lt;/em&gt;, on the day Myles recorded her vocals, it was a hot &amp;amp; humid day and she was in a basement recording studio with no air conditioning, so she sang it shirtless (in a bikini).&lt;/p&gt;\n\n&lt;p&gt;“Black Velvet” was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=ALANNAH+MYLES&amp;amp;ti=BLACK+VELVET" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; in less than two months. It was ranked the &lt;a href="https://www.musicoutfitters.com/topsongs/1990.htm" rel="noopener nofollow"&gt;#18 song of 1990&lt;/a&gt; by Billboard magazine.&lt;/p&gt;\n\n&lt;p&gt;In 2008, Myles &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-pops-class-of-1990-10478/alannah-myles-34052/" rel="noopener nofollow"&gt;re-recorded the song&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Tyson', 'url': 'https://genius.com/artists/David-tyson'}], 'writers': [{'name': 'Christopher Ward', 'url': 'https://genius.com/artists/Christopher-ward'}, {'name': 'David Tyson', 'url': 'https://genius.com/artists/David-tyson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rage-against-the-machine-sleep-now-in-the-fire-lyrics', 'lyrics': "[Verse 1]\nYeah\nThe world is my expense\nThe cost of my desire\nJesus blessed me with its future\nAnd I protect it with fire\nSo raise your fists and march around\nJust don't take what you need\nI'll jail and bury those committed\nAnd smother the rest in greed\nCrawl with me into tomorrow\nOr I'll drag you to your grave\nI'm deep inside your children\nThey'll betray you in my name\n\n[Chorus]\nHey, hey\nSleep now in the fire\nHey, hey\nSleep now in the fire\n\n[Verse 2]\nThe lie is my expense\nThe scope of my desire\nThe party blessed me with its future\nAnd I protect it with fire\n[Pre-Chorus]\nI am the Niña, the Pinta, the Santa Maria\nThe noose and the rapist, the fields' overseer\nThe agents of orange, the priests of Hiroshima\nThe cost of my desire\nSleep now in the fire\n\n[Chorus]\nHey, hey\nSleep now in the fire\nHey, hey, hey\nSleep now in the fire\n\n[Verse 3]\nFor it's the end of history\nIt's caged and frozen still\nThere is no other pill to take\nSo swallow the one that makes you ill\n\n[Pre-Chorus]\nThe Niña, the Pinta, the Santa Maria\nThe noose and the rapist, the fields' overseer\nThe agents of orange, the priests of Hiroshima\nThe cost of my desire\nSleep now in the fire\nYeah\n[Guitar Solo]\n\n[Outro]\nSleep now in the fire\nSleep now in the fire\nSleep now in the fire\nSleep now in the fire", 'annotations': {'description': "&lt;p&gt;“Sleep Now in the Fire” is the fifth track from the 1999 album The Battle of Los Angeles by the band Rage Against the Machine. It was released as a single on November 4, 1999. The song contains lyrics about greed, such as the conquest of Native Americans, Christopher Columbus' voyage by Nina, the Pinta, and Santa Maria and U.S. slavery in the 19th century as well as criticism of actions taken by the US government in wartime, including the bombing of Hiroshima and the use of Agent Orange in the Vietnam War. The guitar riff is a reworking of The Stooges TV Eye, from 1970s Fun House. The song’s main riff is similar to Nirvana’s 1991 song, “Breed”; although Sleep Now In The Fire is one and a half pitch higher.&lt;br&gt;\nGuitarist Tom Morello’s solo is also notable as he simply uses feedback from the amp, along with using his whammy bar to adjust the pitch of the feedback. By flicking his toggle switch on and off, he is able to create the high-pitched solo. At the end of the recording, a Korean radio station is heard coming from Morello’s amplifier.&lt;/p&gt;", 'producers': [{'name': 'Rage Against the Machine', 'url': 'https://genius.com/artists/Rage-against-the-machine'}, {'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Zack de la Rocha', 'url': 'https://genius.com/artists/Zack-de-la-rocha'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sugar-ray-someday-lyrics', 'lyrics': "[Verse 1]\nSomeday, when my life has passed me by\nI'll lay around and wonder why, you were always there for me\nOne way, in the eyes of a passer by\nI'll look around for another try and they'll fade away\n\n[Chorus]\nJust close your eyes and I'll take you there\nThis place is warm and without a care\nWe'll take a swim in the deep blue sea\nI go to leave as you reach for me\n\n[Verse 2]\nSome say, better things will come our way\nNo matter what they try to say, you were always there for me\nSome way, when the sun begins to shine\nI hear a song from another time and they fade away\nAnd fade they away\n\n[Chorus]\nJust close your eyes and I'll take you there\nThis place is warm and without a care\nWe'll take a swim in the deep blue sea\nI go to leave as you reach for me\n\n[Bridge]\nSomeone said we tried too long (Someday will pass me by)\nSomeone said we got it all wrong (Someday, I wonder why)\nSomeone said we tried too long (Someday will pass me by)\nIs there a place where I belong? (Someday will)\n[Verse 3]\nSo far\nSo long\nSo far away\nSo far\nSo wrong\nSo far away away away\n\n[Verse 1 repeated]\nSomeday, when my life has passed me by\nI'll lay around and wonder why, you were always there for me\nOne way, in the eyes of a passer by\nI'll look around for another try and they'll fade away\n\n[Outro]\nAnd they fade away (repeats many times until it fades out)", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/8daae879b74a99a1638c1147e02e6908.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Someday is a single from Sugar Ray’s album &lt;em&gt;14:59&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;One interpretation is that it’s about how one man continues to mess up in his relationship, but the woman continues to stay with him because she loves him.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Sugar Ray', 'url': 'https://genius.com/artists/Sugar-ray'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-strangelove-lyrics', 'lyrics': "[Verse 1]\nThere'll be times when my crimes\nWill seem almost unforgivable\nI give in to sin\nBecause you have to make this life livable\nBut when you think I've had enough from your sea of love\nI'll take more than another riverful\nYes, and I'll make it all worthwhile\nI'll make your heart smile\n\n[Chorus]\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\n\n[Post-Chorus]\nWill you take the pain I will give to you\nAgain and again and will you return it?\n\n[Verse 2]\nThere'll be days when I'll stray\nI may appear to be constantly out of reach\nI give in to sin\nBecause I like to practice what I preach\nI'm not trying to say I'll have it all my way\nI'm always willing to learn when you've got something to teach\nOh, and I'll make it all worthwhile\nI'll make your heart smile\n[Bridge]\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI won't say it again\n\n[Chorus]\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\n\n[Outro]\nI give in\nAgain and again\nI give in\nWill you give it to me?\nI give in\nI'll say it again\nI give in\nI give in\nAgain and again\nI give in\nThat's how my love goes\nI give in\nI'll say it again\nI give in", 'annotations': {'description': '', 'producers': [{'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-girl-gone-wild-lyrics', 'lyrics': "[Spoken Intro]\nOh my God (God)\nI am heartly sorry for having offended thee\nAnd I detest all my sins\nBecause I dread the loss of Heaven (Heaven)\nAnd the pain of Hell (Hell)\nBut most of all, because I love thee (Thee)\nAnd I want so badly to be good (Good, good, good, good, good)\n\n[Verse 1]\nIt's so hypnotic (Hypnotic)\nThe way he pulls on me\nIt's like the force of gravity\nRight up under my feet\nIt's so erotic (Erotic)\nThis feeling can't be beat\nIt's coursing through my whole body\nFeel the heat\n\n[Pre-Chorus]\nI got that burnin' hot desire\nAnd no one can put out my fire\nIt's coming right down through the wire\nHere it comes\nWhen I hear them 808 drums\nIt's got me singing\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Interlude]\nLike a girl gone wild, a good girl gone wild\nI'm like a girl gone wild, a good girl gone wild\n\n[Verse 2]\nThe room is spinning (Spinning)\nIt must be the Tanqueray\nI'm about to go astray\nMy inhibition's gone away\nI feel like sinning (Sinning)\nYou got me in the zone\nDJ, play my favorite song\nTurn me on\n[Pre-Chorus]\nI got that burnin' hot desire\nAnd no one can put out my fire\nIt's coming right down through the wire\nHere it comes\nWhen I hear them 808 drums\nIt's got me singing\n\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Bridge]\nI know, I know, I know I shouldn't act this way\nI know, I know, I know good girls don't misbehave\nMisbehave\nBut I'm a bad girl anyway, hey\nForgive me\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Outro]\nI'm like a girl gone wild, a good girl gone wild\nI'm like a girl gone wild, a good girl gone wild", 'annotations': {'description': '&lt;p&gt;“Girl Gone Wild” was the second single released from Madonna’s twelfth album, &lt;a href="https://genius.com/albums/Madonna/Mdna" rel="noopener" data-api_path="/albums/14693"&gt;&lt;em&gt;MDNA&lt;/em&gt;&lt;/a&gt;. The upbeat EDM track is a return to one of Madonna’s favorite lyrical topics: escapism on the dance floor (with a dose of religious iconography via the song’s spoken intro).&lt;/p&gt;\n\n&lt;p&gt;The black and white &lt;a href="https://www.youtube.com/watch?v=tYkwziTrv5o" rel="noopener nofollow"&gt;music video&lt;/a&gt;, directed by fashion photographer duo &lt;a href="https://en.wikipedia.org/wiki/Mert_and_Marcus" rel="noopener nofollow"&gt;Mert and marcus&lt;/a&gt;, features Madonna and a number of male models in different looks, dancing with Ukrainian group &lt;a href="https://en.wikipedia.org/wiki/Kazaky" rel="noopener nofollow"&gt;Kazaky&lt;/a&gt;.  It received critical acclaim for the editing and the visuals, while reviewers noted that it took inspiration from Madonna’s older videos, such as “Erotica”, “Justify My Love”, “Human Nature” and “Vogue”.&lt;/p&gt;', 'producers': [{'name': 'Alle Benassi', 'url': 'https://genius.com/artists/Alle-benassi'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Jenson Vaughan', 'url': 'https://genius.com/artists/Jenson-vaughan'}, {'name': 'Alle Benassi', 'url': 'https://genius.com/artists/Alle-benassi'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sean-kingston-beautiful-girls-lyrics', 'lyrics': "[Intro: J.R. Rotem]\nJ.R., Sean Kingston\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 1: Sean Kingston]\nSee, it started at the park\nUsed to chill after dark\nOh, when you took my heart\nThat's when we fell apart\n'Cause we both thought\nThat love last forever (Last forever)\nThey say we're too young\nTo get ourselves sprung\nOh, we didn't care\nWe made it very clear\nAnd they also said\nThat we couldn't last together (Last together)\n[Pre-Chorus: Sean Kingston]\nSee, it's very defined\nYou're one of a kind\nBut you mash up my mind\nYou haffi get declined\nOh Lord, my baby is drivin' me crazy\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 2: Sean Kingston]\nIt was back in '99\nWatchin' movies all the time\nOh, when I went away for doin' my first crime\nAnd I never thought\nThat we was gonna see each other (See each other)\nAnd then I came out\nMami moved me down south\nOh I'm with my girl who I thought was my world\nIt came out to be\nThat she wasn't the girl for me (Girl for me)\n[Pre-Chorus: Sean Kingston]\nSee, it's very defined\nYou're one of a kind\nBut you mash up my mind\nYou haffi get declined\nOh Lord, my baby is drivin' me crazy\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 3: Sean Kingston]\nNow we're fussin'\nAnd now we're fightin'\nPlease tell me why\nI'm feelin' slighted\nAnd I don't know\nHow to make it better (Make it better)\nYou're datin' other guys\nYou're tellin' me lies\nOh, I can't believe\nWhat I'm seein' with my eyes\nI'm losin' my mind\nAnd I don't think it's clever (Think it's clever)\n[Outro: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal, suicidal", 'annotations': {'description': '&lt;p&gt;Will Sean Kingston ever top his chart-smashing 2007 single? It rocketed to number 1 on the &lt;em&gt;US Billboard 100&lt;/em&gt;, and spring boarded the Jamaican singer into the pop stratosphere for a period of time.&lt;/p&gt;\n\n&lt;p&gt;It’s an incredibly simple track, but Kingston proves how important he is to the success of the melody in the &lt;a href="https://www.youtube.com/watch?v=MrTz5xjmso4" rel="noopener nofollow"&gt;video,&lt;/a&gt; where he intro’s the song by singing the hook acapella. Even without the playful bass line and jazzy groove, Kingston is catchy and memorable. Despite the mentions of suicide in the hook, it doesn’t appear to have a dark undertone. It’s a sunny song with Kingston lamenting his inability to recover from women ending their relationship with him.&lt;/p&gt;\n\n&lt;p&gt;In terms of one hit wonders, Kingston almost enters in a league of his own. The song reached number 1 in 7 countries, and it sold a staggering 2 million ringtones in the US alone.&lt;/p&gt;', 'producers': [{'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}], 'writers': [{'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'Mike Stoller', 'url': 'https://genius.com/artists/Mike-stoller'}, {'name': 'Jerry Leiber', 'url': 'https://genius.com/artists/Jerry-leiber'}, {'name': 'Ben E. King', 'url': 'https://genius.com/artists/Ben-e-king'}, {'name': 'Sean Kingston', 'url': 'https://genius.com/artists/Sean-kingston'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Queen-i-want-to-break-free-lyrics', 'lyrics': "[Verse 1]\nI want to break free\nI want to break free\nI want to break free from your lies\nYou're so self-satisfied, I don't need you\nI've got to break free\nGod knows, God knows I want to break free\n[Verse 2]\nI've fallen in love\nI've fallen in love for the first time\nAnd this time I know it's for real\nI've fallen in love, yeah\nGod knows, God knows I've fallen in love\n[Bridge]\nIt's strange but it's true, yeah\nI can't get over the way you love me like you do\nBut I have to be sure\nWhen I walk out that door\nOh, how I want to be free, baby\nOh, how I want to be free\nOh, how I want to break free\n\n[Verse 3]\nBut life still goes on\nI can't get used to living without, living without\nLiving without you by my side\nI don't want to live alone, hey\nGod knows, got to make it on my own\nSo baby, can't you see?\nI've got to break free\n[Outro]\nI've got to break free\nI want to break free, yeah\nI want, I want, I want, I want to break free", 'annotations': {'description': '&lt;p&gt;The second single from Queen’s 11th studio album &lt;a href="https://genius.com/albums/Queen/The-works" rel="noopener" data-api_path="/albums/68152"&gt;&lt;em&gt;The Works&lt;/em&gt;&lt;/a&gt;, “I Want To Break Free” gained notoriety primarily for its controversial music video. The video featured the band dressed as the cast of the popular soap opera &lt;em&gt;Coronation Street&lt;/em&gt; and has Freddie Mercury dancing with members of the Royal Ballet Theatre. Mercury plays a housewife who wants to “break free” from his constraining life.&lt;/p&gt;\n\n&lt;p&gt;Although music video is often believed to be Freddie Mercury’s idea, in an interview with &lt;a href="https://brianmay.com/brian/briannews/briannewsmar11a.html" rel="noopener nofollow"&gt;Q magazine March 2011&lt;/a&gt;, when Brian May was asked whether each band member’s character in the video was an accurate reflection of their personalities, he answered:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Of Course! Everybody thinks that was Freddie’s idea because it looks like something that he would love to do but it actually came from Roger’s girlfriend at the time, strangely enough. It was her idea to pastiche the Coronation Street women.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Freddie, although shocked that the others suggested dressing up in drag for the video, doesn’t deny that he was actually dying to dress up in drag, and it was something in the back of his mind.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6xOhAHdF96E?modestbranding=1&amp;amp;start=294&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/LrOCwdFjZdQ?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The soap opera parody was missed in the  United States, where the video was interpreted as a celebration of transvestism and subsequently banned from MTV, which may have led to the song’s lack of success in the US as compared to the rest of the world.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4676742925be5a83957b80b470e14602.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The musicians dressed as female characters from Coronation Street. Left to right: Roger Taylor (as Suzie Birchall), Brian May (Hilda Ogden), Freddie Mercury (Bet Lynch) and John Deacon (Ena Sharples).&lt;/p&gt;', 'producers': [{'name': 'Queen', 'url': 'https://genius.com/artists/Queen'}, {'name': 'Reinhold Mack', 'url': 'https://genius.com/artists/Reinhold-mack'}], 'writers': [{'name': 'John Deacon', 'url': 'https://genius.com/artists/John-deacon'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bastille-pompeii-lyrics', 'lyrics': "[Directed by Jesse John Jenkins]\n[Intro]\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\n\n[Verse 1]\nI was left to my own devices\nMany days fell away with nothing to show\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\nGrey clouds roll over the hills, bringing darkness from above\n\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\n[Verse 2]\nWe were caught up and lost in all of our vices\nIn your pose as the dust settled around us\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\nGrey clouds roll over the hills, bringing darkness from above\n\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\n\n[Bridge]\nOh, where do we begin, the rubble or our sins?\nOh, where do we begin, the rubble or our sins?\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\n(Oh, where do we begin, the rubble or our sins?)\nGrey clouds roll over the hills bringing darkness from above\n(Oh, where do we begin, the rubble or our sins?)\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\nIf you close your eyes\nDoes it almost feel like nothing changed at all?\n[Outro]\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu", 'annotations': {'description': '&lt;p&gt;“Pompeii” was the fourth song to be released from Bastille’s debut album &lt;a href="https://genius.com/albums/Bastille/Bad-blood" rel="noopener" data-api_path="/albums/30558"&gt;&lt;em&gt;Bad Blood&lt;/em&gt;&lt;/a&gt;. It has reached number 2 on the UK Singles Chart, topped the Scottish charts, and reached the number 5 on the Billboard Hot 100. &lt;a href="http://www.officialcharts.com/chart-news/the-top-10-most-streamed-songs-and-artists-of-all-time-revealed-__4249/" rel="noopener nofollow"&gt;According to the Official Charts Company&lt;/a&gt;, it was the UK’s most streamed song up to June 2014.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?feature=player_embedded&amp;amp;v=qpRIPTKsC8w#t=19s" rel="noopener nofollow"&gt;In an interview with NME&lt;/a&gt;, Dan explains that it is indeed about Pompeii, and a conversation among some of its citizens as the smoke comes down:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s really about what happened in Pompeii and the city. Famously, the city was sort of dug up and people who were wiped out by the volcano were kind of discovered – or the negative space of their body was discovered – in the poses in which they died, and I just thought that was such an interesting image. And a really happy one as well. So the song is sort of imagining a conversation between two of those people.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;He also reacts to the huge success the song has been:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When I was writing “Pompeii”, I like honestly recorded it in my bedroom and it didn’t even occur to me – like, you know, we’ve been so taken aback and kind of surprised at how it’s done and never ever expected it to be like anywhere in the charts or anything so, yeah, it’s a massive surprise.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="http://www.telegraph.co.uk/culture/music/rockandpopfeatures/10400588/Bastilles-storming-success.html" rel="noopener nofollow"&gt;In an interview with The Telegraph&lt;/a&gt;, Dan adds:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“It is essentially about fear of stasis and boredom. Being quite a shy, self-conscious person, I was afraid my life might get stuck.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Dan Smith', 'url': 'https://genius.com/artists/Dan-smith'}, {'name': 'Mark Crew', 'url': 'https://genius.com/artists/Mark-crew'}], 'writers': [{'name': 'Dan Smith', 'url': 'https://genius.com/artists/Dan-smith'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Joe-cocker-you-can-leave-your-hat-on-lyrics', 'lyrics': "Baby take off your coat\nReal slow\nTake off your shoes\nI'll take off your shoes\nBaby, take off your dress\nYes, yes, yes\n\nYou can leave your hat on\nYou can leave your hat on\nYou can leave your hat on\n\nGo over there, turn on the lights\nAll the lights\nCome back here, stand on that chair\nGet up woman, that's right\nRaise your arms up in the air\nAnd now shake 'em\n\nYou give me reason to live\nYou give me reason to live\nYou give me reason to live\nYou give me reason to live\n\nSweet darling\n(You can leave your hat on)\nJust leave your hat on, girl\nA little wild man\n(You can leave your hat on)\nLeave your hat on\n(You can leave your hat on)\n(You can leave your hat on)\nSuspicious minds are talkin'\nThey're tryin' to tear us apart\nThey don't believe in this love of mine\nThey don't know what love is\n\nThey don't know what love is\nThey don't know what love is\nThey don't know what love is\nI know what love is\n\nAnd baby, put it my way\n(You can leave your hat on)\nAnd just leave your hat on now\nThey don't wanna\n(You can leave your hat on)\nWon't you do that for me, babe?\n(You can leave your hat on)\nAnd just leave your hat on, girl\n(You can leave your hat on)", 'annotations': {'description': '&lt;p&gt;“You Can Leave Your Hat On” was written by Randy Newman in 1969.  It appears on the Joe Cocker album &lt;em&gt;Cocker&lt;/em&gt; (1986).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/1c7e1a10ca6ec8bffdf99e7b74fd8648.320x320x1.jpg" alt="" width="320" height="320" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This song became part of the soundtrack for the movie &lt;a href="http://www.imdb.com/title/tt0091635/" rel="noopener nofollow"&gt;&lt;em&gt;9 ½ Weeks&lt;/em&gt; (1986)&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When Newman wrote the song he said he pictured the protagonist “as kind of a weak fellow”, but Cocker’s version is done with swagger, and it adds a lot to the sexuality of it.&lt;/p&gt;', 'producers': [{'name': 'Richie Zito', 'url': 'https://genius.com/artists/Richie-zito'}], 'writers': [{'name': 'Randy Newman', 'url': 'https://genius.com/artists/Randy-newman'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-applause-lyrics', 'lyrics': '[Verse 1]\nI stand here waiting for you to bang the gong\nTo crash the critic saying, "Is it right or is it wrong?"\nIf only fame had an IV, baby, could I bear\nBeing away from you? I found the vein, put it in here\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Verse 2]\nI\'ve overheard your theory, "Nostalgia\'s for geeks"\nI guess sir, if you say so, some of us just like to read\nOne second I\'m a Koons, then suddenly the Koons is me\nPop culture was in art, now art\'s in pop culture, in me\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Bridge]\nWoo... touch, touch\nWoo... touch, touch\nNow... woo-oh-oh-oh...\nWoo-oh-oh-oh...\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Outro]\nA-R-T-P-O-P', 'annotations': {'description': '&lt;p&gt;“Applause” is an EDM/electro-pop celebration of sticking it to the haters, doing what one loves, and embracing the thrill of the crowd. Bed-ridden and forced to cancel tour dates due to a 2013 hip injury, Gaga yearned for the love – * the applause* – of her fans, inspiring her to write this song.&lt;/p&gt;\n\n&lt;p&gt;The song is the lead single off of Lady Gaga’s &lt;em&gt;ARTPOP&lt;/em&gt;. It’s less robust than her previous lead singles, like &lt;a href="https://genius.com/Lady-gaga-bad-romance-lyrics" rel="noopener" data-api_path="/songs/1313"&gt;“Bad Romance”&lt;/a&gt; and &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, but what it lacks in length it displays in nightclub-ready energy and unapologetic campiness.&lt;/p&gt;\n\n&lt;p&gt;The song’s cover art is possibly &lt;a href="http://flavorwire.com/407489/the-cover-of-lady-gagas-new-single-applause-looks-a-whole-lot-like-david-bowies-scary-monsters" rel="noopener nofollow"&gt;Bowie-influenced.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ec0c9d97237b28c537dc33b5edb3e8f6.607x469x1.png" alt="" width="607" height="469" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}], 'writers': [{'name': 'Steve Guess', 'url': 'https://genius.com/artists/Steve-guess'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'Tchami', 'url': 'https://genius.com/artists/Tchami'}, {'name': 'Julien Arias', 'url': 'https://genius.com/artists/Julien-arias'}, {'name': 'Nicolas Mercier', 'url': 'https://genius.com/artists/Nicolas-mercier'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Live-band-selling-the-drama-lyrics', 'lyrics': "[Verse 1]\nAnd to love, the God\nAnd to fear, the flame\nAnd to burn, the crowd that has a name\n\n[Verse 2]\nAnd to right or wrong\nAnd to meek or strong\nIt is known, just scream it from the wall\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that\n\n[Verse 3]\nIt's the sun that burns\nIt's the wheel that turns\nIt's the way we sing that makes 'em dream\n[Verse 4]\nAnd to Christ, a cross\nAnd to me, a chair\nI will sit and earn the ransom from up here\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that, scarred like that\n(We won't, we won't, we won't, we won't)\n\n[Verse 5]\nAnd to love, a God\nAnd to fear, a flame\nAnd to burn, a love that has a name\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that, scarred like that\n\n[Outro]\nHey, now, no, no\nWe won't be scarred like that\nWow we won't be scarred like that", 'annotations': {'description': '&lt;p&gt;The title of this song refers to religion and spirituality, in both western and eastern guises. “Drama” refers to both the theatrics of organized religions and the Hindu cosmological concept of Lila (the universal “play” of Brahman). On the one hand, the song is about how some churches/institutions “sell” religion like a commodity. On the other, the singer questions whether the truth of Hindu lila is something that even &lt;em&gt;can&lt;/em&gt; be sold.&lt;/p&gt;', 'producers': [{'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}, {'name': 'Jerry Harrison', 'url': 'https://genius.com/artists/Jerry-harrison'}], 'writers': [{'name': 'Ed Kowalczyk', 'url': 'https://genius.com/artists/Ed-kowalczyk'}], 'labels': [{'name': 'Radioactive Records', 'url': 'https://genius.com/artists/Radioactive-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Moby-bodyrock-lyrics', 'lyrics': "[Hook]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNo stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is...\n[Chorus]\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Hook]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is\n[Chorus]\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Instrumental Break]\n[Breakdown]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\n\n[Hook]\nToday is rock y'all\nNo stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is\n\n[Bridge]\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to set you freaking\n\n[Chorus]\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Outro]\nRock rock the party\nWe rock the party\nCome on get down", 'annotations': {'description': '&lt;p&gt;“Bodyrock” was the third single released from Moby’s 1999 album &lt;em&gt;Play&lt;/em&gt;. It charted in the UK Top 40 and was eventually nominated for a Grammy for Best Rock Instrumental.&lt;/p&gt;\n\n&lt;p&gt;As with most of the commercially released singles from the album, “Bodyrock” is based around a sample; in this case it’s from &lt;a href="https://genius.com/artists/Spoonie-gee" rel="noopener" data-api_path="/artists/9763"&gt;Spoonie Gee’s&lt;/a&gt; &lt;a href="https://genius.com/Spoonie-gee-love-rap-lyrics" rel="noopener" data-api_path="/songs/939348"&gt;“Love Rap”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Treacherous-three" rel="noopener" data-api_path="/artists/9762"&gt;Treacherous Three&lt;/a&gt;’s &lt;a href="https://genius.com/Treacherous-three-body-rock-lyrics" rel="noopener" data-api_path="/songs/52446"&gt;“Body Rock”&lt;/a&gt;, which Moby surrounds with old school drum loops, layers of electric guitar, synthesized strings, and piano.&lt;/p&gt;\n\n&lt;p&gt;A decade after releasing the song, Moby &lt;a href="http://www.rollingstone.com/music/news/play-10-years-later-mobys-track-by-track-guide-to-1999s-global-smash-20090702#ixzz3lTLYnTAC" rel="noopener nofollow"&gt;reflected&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Bodyrock” was the song both of my managers tried to get me to take off the record. They thought it was really tacky. They thought it sounded like a &lt;a href="https://genius.com/artists/Fatboy-slim" rel="noopener" data-api_path="/artists/2957"&gt;Fatboy Slim&lt;/a&gt; ripoff — which I guess it kind of did. I like it because the hip-hop sample was off the first mixtape I ever got, maybe in 1981, off of the Mr. Magic Show on WBLS. The guitar is directly inspired by &lt;a href="https://genius.com/Gang-of-four-what-we-all-want-lyrics" rel="noopener" data-api_path="/songs/874571"&gt;“What We All Want”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Gang-of-four" rel="noopener" data-api_path="/artists/75518"&gt;Gang of Four&lt;/a&gt;. And I thought it was kind of funny to have an orchestral chorus on what is essentially a hip-hip song.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;sub&gt;Spoonie Gee and the Treacherous Three’s “Love Rap”:&lt;/sub&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YfWfiP_x6WE?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;sub&gt;The American version of the “Bodyrock” video:&lt;/sub&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/QwG49y-RMe4?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}], 'writers': [{'name': 'Bobby Robinson', 'url': 'https://genius.com/artists/Bobby-robinson'}, {'name': 'Spoonie Gee', 'url': 'https://genius.com/artists/Spoonie-gee'}, {'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rednex-cotton-eye-joe-lyrics', 'lyrics': "[Intro]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Verse 1]\nHe came to town like a midwinter storm\nHe rode through the fields, so handsome and strong\nHis eyes was his tools and his smile was his gun\nBut all he had come for was havin' some fun\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Verse 2]\nHe brought disaster wherever he went\nThe hearts of the girls was to hell broken sent\nThey all ran away so nobody would know\nAnd left only men 'cause of Cotton-Eyed Joe\n\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?", 'annotations': {'description': '&lt;p&gt;Cotton Eye Joe is an American folk song which was written in 1861. Rednex provides an EDM remix of it.&lt;/p&gt;', 'producers': [{'name': 'Pat Reiniz', 'url': 'https://genius.com/artists/Pat-reiniz'}], 'writers': [{'name': 'Oban', 'url': 'https://genius.com/artists/Oban'}, {'name': 'Pat Reiniz', 'url': 'https://genius.com/artists/Pat-reiniz'}, {'name': 'Jan Mikael Ericsson', 'url': 'https://genius.com/artists/Jan-mikael-ericsson'}], 'labels': [{'name': 'Battery Records', 'url': 'https://genius.com/artists/Battery-records'}, {'name': 'ZYX Music', 'url': 'https://genius.com/artists/Zyx-music'}, {'name': 'Internal Affairs', 'url': 'https://genius.com/artists/Internal-affairs'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Michael-jackson-dont-stop-til-you-get-enough-lyrics', 'lyrics': "[Spoken Intro]\nYou know, I was\nI was wondering, you know\nIf you could keep on\nBecause the force\nIt's got a lot of power\nAnd it make me feel like ah\nIt make me feel like… ooh!\n\n[Verse 1]\nLovely is the feelin' now\nFever, temperatures risin' now\nPower (Oh power) is the force, the vow\nThat makes it happen, it asks no questions why (Ooh)\nSo get closer (Closer now)\nTo my body now\nJust love me\n'Till you don't know how (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n[Verse 2]\nTouch me and I feel on fire\nAin’t nothin' like a love desire (Ooh)\nI'm melting (I'm melting)\nLike hot candle wax\nSensation (Oh sensation)\nLovely where we're at (Ooh!)\nSo let love take us through the hours\nI won't be complainin' (Aah)\n'Cause this is love power (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n\n[Instrumental Interlude]\nOoh!\nOh, baby\nKeep on\nKeep on\n[Verse 3]\nHeartbreak enemy despise\nEternal (Oh eternal)\nLove shines in my eyes (Ooh)\nSo let love take us through the hours (Oh, let love)\nI won't be complainin' (No, no) (Hoo!)\n'Cause your love is alright, alright (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Don't stop, baby)\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough (Oh, my baby)\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n[Refrain]\nLovely is the feelin' now\nI won't be complainin' (Ooh, ooh)\nThe force is love power\n\n[Chorus / Outro]\nKeep on with the force don't stop\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't stop, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't, baby)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Love power, yeah)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Love power)\nDon't stop 'til you get enough\nKeep on with the force don't stop\n(Keep on with the power, would ya, ooh)\nDon't stop 'til you get enough\n(Don't stop 'til you get enough, ooh)\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Keep on, yeah)\nDon't stop 'til you get enough (Ah, ah now)\nKeep on with the force, don't stop (Yeah)\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Keep on, baby)\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Don't 'til you get enough)\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Alright, yeah)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on baby)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't stop)", 'annotations': {'description': "&lt;p&gt;In 1978, Michael Jackson starred as the scarecrow in &lt;em&gt;The Wiz&lt;/em&gt;. After filming, MIchael contacted the films musical directer to discuss a possible solo album. After reviewing hundreds of demos, “Don’t Stop ‘Til You Get Enough” was chosen along with several others to make up Michael’s album, &lt;em&gt;Off the Wall&lt;/em&gt;.“Don’t Stop 'Til You Get Enough” received criticism for the songs supposed “sexual referencing” lyrics.&lt;/p&gt;\n\n&lt;p&gt;Michael Jackson claimed people often misinterpret the song, saying the song was about never quitting, regardless of what your dream was. At that time, perhaps his dream was to succeed as a solo artist. And succeed he did. Michael Jackson won his first Grammy Award for this song, taking the title for Best R&amp;amp;B Vocal Performance, Male. This was Michael’s first #1 since “Ben” in 1972.&lt;/p&gt;", 'producers': [{'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'writers': [{'name': 'Greg Phillinganes', 'url': 'https://genius.com/artists/Greg-phillinganes'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bloodhound-gang-mope-lyrics', 'lyrics': '[Intro: Jimmy Pop, Evil Jared Hasselhoff, &amp; Falco sample]\nWe gonna drop this next bomb for a money makin\' playa that ain\'t with us no mo\'\nYeah, Notorious B.I.G.!\nHell no, we gonna do this for a gangbanging thug that never seen it comin\'\nYeah, 2Pac Shakur!\nNah, bitch, I\'m talkin\' \'bout motherfuckin\' Falco and shit\nWhat? Falco?\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\n\n[Verse 1: Jimmy Pop]\nTried to O.D. on the Cold-Eeze\nGolden Girls got me sweatin\' to the oldies\nHanging out like double-Ds, sip Long Island Iced Teas\nWrote to Mayor McCheese, "Send a Shamrock Shake, please!"\nThree o\' clock on the dot, time to cruise for eighth graders\nRather tape the Weather Channel so that I can watch it later\nReruns of Rerun! So, what\'s happening?\nDee\'s knocked up and Rog\'s on crack again\nDeepthroat a whole Nutty Buddy\nMake whoopie to a batch of Silly Putty\nMade a Spam and Colgate sandwich and ate it\nGo through National Geographic and draw panties on the natives\nSo I like to dance naked in front of my pets\nBut my cat was inattentive, so I sent him UPS\nPlaying spin the bottle with my mom\nI watch COPS with no pants on\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes to Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n\n[Verse 2: Jimmy Pop]\nNowhere to go, I can\'t wake up late\nJust sit around and wait for my Old Spice to activate\nStalemate jail-bait in my so-called-life imprisonment\nAmazing what a good breakfast pickles make, isn\'t it?\nI like to pretend I\'m speed reading\nNever lose the sight of the thrill of sneezing\nDon\'t need a shower today, just some Brut by Faberge\nSmell the ass of my jeans--clean, they\'ll do another day\nAnd I recycle; I sniff my own farts\nI dial the wrong number, hope a conversation starts\nI mean, I might as well be listening to Journey\nGivin\' myself a mullet, hook the Flowbee to the Kirby\nMake a prank call pretending I\'m a mime\nGet stuck in traffic just to pass the time\nSent a letter in the mail, in Braille, to Jonny Quest\n"Send me back my Etch-A-Sketch!"\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes To Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n\n[Post-Chorus: Jimmy Pop &amp; Frankie Goes to Hollywood]\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\n[Refrain: Jimmy Pop, Evil Jared Hasselhoff, &amp; Pac-Man]\nYo, yo, yo, yo, yo! What it is, motherfuckers?\nAw shit, here comes Pac-Man\nHey Pac-Man, what\'s up?\nMe, you bitches, I\'m high on crack! Wanna freebase?\nNo, Pac-Man, drugs are bad!\nNope, can\'t help you, mane\nPussies! Whoa! Holy shit!\n\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes To Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n[Outro: Homer Simpson]\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni', 'annotations': {'description': '&lt;p&gt;This song is about being bored, home alone with nothing better to do and doing random shit to pass the time.&lt;/p&gt;', 'producers': [{'name': 'Jimmy Pop', 'url': 'https://genius.com/artists/Jimmy-pop'}], 'writers': [{'name': 'David X. Cohen', 'url': 'https://genius.com/artists/David-x-cohen'}, {'name': 'Steve Tompkins', 'url': 'https://genius.com/artists/Steve-tompkins'}, {'name': 'John Swartzwelder', 'url': 'https://genius.com/artists/John-swartzwelder'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Mark O’Toole', 'url': 'https://genius.com/artists/Mark-otoole'}, {'name': 'Holly Johnson', 'url': 'https://genius.com/artists/Holly-johnson'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Peter Gill', 'url': 'https://genius.com/artists/Peter-gill'}, {'name': 'Cliff Burton', 'url': 'https://genius.com/artists/Cliff-burton'}, {'name': 'Robert J. Bolland', 'url': 'https://genius.com/artists/Robert-j-bolland'}, {'name': 'Ferdi Bolland', 'url': 'https://genius.com/artists/Ferdi-bolland'}, {'name': 'Falco', 'url': 'https://genius.com/artists/Falco'}, {'name': 'Jimmy Pop', 'url': 'https://genius.com/artists/Jimmy-pop'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Daft-punk-instant-crush-lyrics', 'lyrics': '[Verse 1]\nI didn\'t want to be the one to forget\nI thought of everything I\'d never regret\nA little time with you is all that I get\nThat\'s all we need because it\'s all we can take\nOne thing I never see the same when you\'re \'round\nI don’t believe in him, his lips on the ground\nI wanna take you to that place in the Roche\nBut no one gives us any time anymore\nHe asks me once if I\'d look in on his dog\nYou made an offer for it, then you ran off\nI got this picture of us kids in my head\nAnd all I hear is the last thing that you said\n\n[Pre-Chorus]\n"I listened to your problems, now listen to mine"\nI didn\'t want to anymore, oh-oh-oh\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\nSome more again\n[Verse 2]\nIt didn\'t matter what they wanted to see\nHe thought he saw someone that looked just like me\nThe summer memory that just never dies\nWe worked too long and hard to give it no time\nHe sees right through me, it\'s so easy with lies\nCracks in the road that I would try and disguise\nHe runs his scissors at the seam in the wall\nHe cannot break it down or else he would fall\nOne thousand lonely stars hiding in the cold\nTake it, oh, I don\'t wanna sing anymore\n\n[Instrumental Break]\n\n[Pre-Chorus]\n"I listened to your problems, now listen to mine"\nI didn\'t want to anymore, oh-oh-oh\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a–\n[Bridge]\nI don\'t understand, don\'t get upset\nI\'m not with you\nWe\'re swimming around, it\'s all I do\nWhen I\'m with you\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\n[Produced by Daft Punk, Julian Casablancas, John "JR" Robinson, &amp; Nathan East]', 'annotations': {'description': '&lt;p&gt;“Instant Crush,” the fourth single off of &lt;em&gt;Random Access Memories&lt;/em&gt;, sees Daft Punk team up with Julian Casablancas from &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; in a mid tempo song with bass driven mellow verses and uplifting synth based choruses.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ea01f2ad3d31a0eb1c3da56d3f2c5d2f.500x332x1.jpg" alt="" width="500" height="332" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'labels': [{'name': 'Daft Life', 'url': 'https://genius.com/artists/Daft-life'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Clean-bandit-rockabye-lyrics', 'lyrics': '[Intro: Sean Paul]\nCall it love and devotion\nCall it a mom\'s adoration, foundation\nA special bond of creation, hah\nFor all the single moms out there\nGoing through frustration\nClean Bandit, Sean-da-Paul, Anne-Marie\nSing, make them hear\n\n[Verse 1: Anne-Marie &amp; Sean Paul]\nShe works at nights, by the water\nShe\'s gone astray, so far away\nFrom her father\'s daughter\nShe just wants a life for her baby\nAll on her own, no one will come\nShe\'s got to save him (Daily struggle)\n\n[Pre-Chorus 1: Anne-Marie &amp; Sean Paul]\nShe tells him, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n(Stay up there, stay up there!)\nShe tells him, "Your life ain\'t gon\' be nothing like my life." (Straight!)\n"You\'re gonna grow and have a good life."\n"I\'m gonna do what I\'ve got to do."\n(Stay up there, stay up there!)\n[Chorus: Anne-Marie]\nSo, rockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nSomebody\'s got you\nRockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nAh, rockabye, no\n\n[Post-Chorus 1: Sean Paul &amp; Anne-Marie]\nRockabye, rocka-rocka-rocka-bye\n(Rockabye, yeah, yeah)\nRockabye, rocka-rocka-rocka-bye\n\n[Verse 2: Sean Paul &amp; Anne-Marie, Both]\nSingle mum, how\'re you doing out there?\nFacing the hard life, without no fear (Yeah!)\nJust so you know that you really care\n\'Cause any obstacle come, you\'re well prepared (Oh, no!)\nAnd no, mama, you never shed tear\n\'Cause you have to shed things year after year (Na, na, na, na)\nAnd you give the yout love beyond compare (Yeah!)\nYou find his school fee and the bus fare (Yeah!)\nMh, all when di pops disappear\nInna rum bar, can\'t find him nowhere\nSteadily your workflow, heavily you know\nSo your non-stop, no time, no time for ya dear\n[Bridge: Anne-Marie]\nNow she got a six-year-old\nTrying to keep him warm\nTrying to keep out the cold\nWhen he looks in her eyes\nHe don\'t know he is safe\n\n[Pre-Chorus 2: Anne-Marie]\nWhen she says, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n\n[Chorus: Anne-Marie &amp; Sean Paul]\nSo, rockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nSomebody\'s got you\nRockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Badda-bang-bang-bang, alright then)\nAh, rockabye, no\n\n[Post-Chorus 2: Sean Paul &amp; Anne-Marie]\nRockabye, rocka-rocka-rocka-bye\n(Rockabye, yeah, yeah)\nRockabye, rocka-rocka-rocka-bye\nRockabye, don\'t bother cry\nLift up your head, lift it up to the sky, yo\nRockabye, don\'t bother cry\nAngels surround you, just dry your eye\n[Bridge: Anne-Marie]\nNow she got a six-year-old\nTrying to keep him warm\nTrying to keep out the cold\nWhen he looks in her eyes\nHe don\'t know he is safe when she says\n\n[Pre-Chorus 1: Anne-Marie &amp; Sean Paul]\nShe tells him, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n(Stay up there, stay up there!)\nShe tells him, "Your life ain\'t gon\' be nothing like my life." (Straight!)\n"You\'re gonna grow and have a good life."\n"I\'m gonna do what I got to do.", yeah\n\n[Chorus: Anne-Marie &amp; Sean Paul]\nSo, rockabye, baby, rockabye\n(Rockabye, rocka-rocka-rocka-bye)\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Rockabye, rocka-rocka-rocka-bye)\nSomebody\'s got you\nRockabye, baby, rockabye\n(Rockabye-rocka-rocka-rocka-bye)\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Badda-bang-bang-bang, alright then)\nAh, rockabye\n\n[Post-Chorus 3: Sean Paul &amp; Anne-Marie]\nRockabye, don\'t bother cry\nLift up your head, lift it up to the sky (Ah, Rockabye!)\nRockabye, don\'t bother cry (Yeah!)\nAngels surround you, just dry your eye (Yeah, ah, rockabye!)\nRockabye, don\'t bother cry (No!)\nLift up your head, lift it up to the sky (Oh, Rockabye!)\nRockabye, don\'t bother cry\nAngels surround you, just dry your eye', 'annotations': {'description': '&lt;p&gt;“Rockabye” is a dancehall song about all of the single and struggling mothers in the world. The track is the second single released from &lt;a href="https://genius.com/artists/Clean-bandit" rel="noopener" data-api_path="/artists/106693"&gt;Clean Bandit’s&lt;/a&gt; second studio album &lt;a href="https://genius.com/albums/Clean-bandit/What-is-love" rel="noopener" data-api_path="/albums/375274"&gt;&lt;em&gt;What Is Love?&lt;/em&gt;,&lt;/a&gt; and their first single as a trio after violinist Neil Milan left the band earlier in the same week. It features guest vocals from Jamaican rapper &lt;a href="https://genius.com/artists/Sean-paul" rel="noopener" data-api_path="/artists/740"&gt;Sean Paul&lt;/a&gt; and English singer &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song’s lyrics describe how single mothers bear hardships to raise their children and give them the best possible life, and the upbeat music turns that theme into a motivational track.&lt;/p&gt;\n\n&lt;p&gt;“Rockabye” was leaked onto the internet prematurely on the 20th October and was officially released the day after.&lt;/p&gt;', 'producers': [{'name': 'Jack Patterson', 'url': 'https://genius.com/artists/Jack-patterson'}, {'name': 'Steve Mac', 'url': 'https://genius.com/artists/Steve-mac'}, {'name': 'Mark Ralph', 'url': 'https://genius.com/artists/Mark-ralph'}], 'writers': [{'name': 'Sean Paul', 'url': 'https://genius.com/artists/Sean-paul'}, {'name': 'Steve Mac', 'url': 'https://genius.com/artists/Steve-mac'}, {'name': 'Ina Wroldsen', 'url': 'https://genius.com/artists/Ina-wroldsen'}, {'name': 'Jack Patterson', 'url': 'https://genius.com/artists/Jack-patterson'}, {'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bob-sinclar-world-hold-on-children-of-the-sky-lyrics', 'lyrics': "Oh yeah, yeah…\nOpen up your heart, what do you feel\nOpen up your heart, what do you feel… is real\n\nThe big bang may be a million years away\nBut I can't think of a better time to say\n\nWorld, hold on\nInstead of messing with our future, open up inside\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nInstead of messing with our future\nTell me no more lies\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nChildren of the sky…\nChildren of the sky…\n\nLook inside, you'll find a deeper love\nThe kind that only comes from high above\n\nIf you ever meet your inner child, don't cry\nTell them everything is gonna be alright\nWorld, hold on\nInstead of messing with our future, open up inside\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nChildren of the sky… alright\nOpen up your heart\nTell me, how do you feel\n\nListen now, tell them everything, right here right now\nAlright, everybody, here in the world\nYou are all the children, alright\n\nTogether now, unite, and fight… oooh\nOpen up you heart, no, peace, love for everyone\n\nOh, no no no no no, alright, to the four corners of the world\nSing it loud, sing it loud, sing it loud loud loud\nWorld hold on on\n\nSing it loud, sing it proud\nEverybody, yeah yeah yeah yeah, oooh\nDon't take no for an answer, no no, not today\nRight here,spread love, everybody join together now\nOne [race], one heart, love and unity, everybody sing\nYeah!\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky", 'annotations': {'description': '', 'producers': [{'name': 'Michael Tordjman', 'url': 'https://genius.com/artists/Michael-tordjman'}, {'name': 'Bob Sinclar', 'url': 'https://genius.com/artists/Bob-sinclar'}], 'writers': [{'name': 'Steve Edwards', 'url': 'https://genius.com/artists/Steve-edwards'}, {'name': 'Michael Tordjman', 'url': 'https://genius.com/artists/Michael-tordjman'}, {'name': 'Bob Sinclar', 'url': 'https://genius.com/artists/Bob-sinclar'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Blur-girls-and-boys-lyrics', 'lyrics': "[Verse 1]\nStreets like a jungle\nSo call the police\nFollowing the herd\nDown to Greece\nOn holiday\nLove in the '90s\nIs paranoid\nOn sunny beaches\nTake your chances\nLooking for\n\n[Chorus]\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\n\n[Verse 2]\nAvoiding all work\n'Cause there's none available\nLike battery thinkers\nCount your thoughts\nOn one, two, three, four, five fingers\nNothing is wasted\nOnly reproduced\nYou get nasty blisters\nDu bist sehr schön\nBut we haven't been introduced\n[Chorus]\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\n\n[Bridge]\nOh, oh, oh, oh-oh, oh\nOh, oh, oh, oh-oh\n\n[Chorus]\nLooking for girls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\n[Outro]\nOh, oh, oh, oh-oh, oh\nOh, oh, oh, oh-oh", 'annotations': {'description': '&lt;p&gt;Peaking a #5 in the UK charts and considered a comeback hit in its day after poor sales of Blur’s second album &lt;em&gt;Modern Life Is Rubbish&lt;/em&gt;. It was named song of the year 1994 by NME and Melody Maker magazines.&lt;/p&gt;\n\n&lt;p&gt;The single’s cover art was taken from a condom wrapper, reflecting the song’s focus on sexual promiscuity on summer holidays in Europe. The music has a convergence of various pop and dance styles, summed up by bassist Alex James as “Disco drums, nasty guitars and &lt;a href="https://genius.com/artists/Duran-duran" rel="noopener" data-api_path="/artists/22720"&gt;Duran Duran&lt;/a&gt; bass", with the first being done by a drum machine.&lt;/p&gt;', 'producers': [{'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'writers': [{'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}, {'name': 'Graham Coxon', 'url': 'https://genius.com/artists/Graham-coxon'}, {'name': 'Dave Rowntree', 'url': 'https://genius.com/artists/Dave-rowntree'}, {'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Roxette-how-do-you-do-lyrics', 'lyrics': "I see you comb your hair and gimme that grin\nIt's makin me spin now, spinning within\nBefore I melt like snow, I say hello\nHow do you do!\n\nI love the way you undress now, baby begin\nDo your caress, honey, my heart's in a mess\nI love your blue eyed voice, like Tiny Tim shines through\nHow do you do!\n\nWell, here we are, crackin' jokes in the corner of our mouths\nAnd I feel like I'm laughin' in a dream\nIf I was young, I would wait outside your school\n'Cause your face is like the cover of a magazine\n\nHow do you do the things that you do?\nNo-one I know could ever keep up with you\nHow do you do!\nDid it ever make sense to you to say bye, bye, bye?\n\nI see you in that chair with perfect skin\nWell, how have you been, baby, livin' in sin?\nHey, I gotta know did you say hello? How do you do?\n\nWell, here we are, spending time in the louder part of town\nAnd it feels like everything's surreal\nWhen I get old I will wait outside your house\n'Cause your hands have got the power meant to heal\nHow do you do the things that you do?\nNo-one I know could ever keep up with you\nHow do you do!\nDid it ever make sense to you to say bye, bye, bye?", 'annotations': {'description': '', 'producers': [{'name': 'Clarence Öfwerman', 'url': 'https://genius.com/artists/Clarence-ofwerman'}], 'writers': [{'name': 'Per Gessle', 'url': 'https://genius.com/artists/Per-gessle'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Metallica-sad-but-true-lyrics', 'lyrics': "[Verse 1]\nHey (Hey), I'm your life, I'm the one who takes you there\nHey (Hey), I'm your life, I'm the one who cares\nThey (They), they betray, I'm your only true friend now\nThey (They), they'll betray, I'm forever there\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n\n[Verse 2]\nYou (You), you're my mask, you're my cover, my shelter\nYou (You), you're my mask, you're the one who's blamed\nDo (Do), do my work, do my dirty work, scapegoat\nDo (Do), do my deeds for you're the one who's shamed\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n[Guitar Solo]\n\n[Bridge]\nI'm your dream\nI'm your eyes\nI'm your pain\nI'm your dream (I'm your dream)\nI'm your eyes (I'm your eyes)\nI'm your pain (I'm your pain)\nYou know it's sad but true\n\n[Guitar Solo]\n\n[Verse 3]\nHate (Hate), I'm your hate, I'm your hate when you want love\nPay (Pay), pay the price, pay for nothing's fair\nHey (Hey), I'm your life, I'm the one who took you there\nHey (Hey), I'm your life, and I no longer care\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your truth, telling lies\nI'm your reasoned alibis\nI'm inside, open your eyes\nI'm you\nSad but true", 'annotations': {'description': '&lt;p&gt;The fifth and final single released from Metallica’s seminal &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;self-titled album&lt;/a&gt;, “Sad But True” is about a person’s darker side taking control.&lt;/p&gt;\n\n&lt;p&gt;Influenced by the &lt;a href="http://en.wikipedia.org/wiki/Magic_%281978_film%29" rel="noopener nofollow"&gt;1978 horror film &lt;em&gt;Magic&lt;/em&gt;&lt;/a&gt;, starring &lt;a href="http://en.wikipedia.org/wiki/Anthony_Hopkins" rel="noopener nofollow"&gt;Anthony Hopkins&lt;/a&gt;, the song is a monologue justifying the existence of this darker side, which in the film is symbolized by a foul-mouthed ventriloquist’s dummy.&lt;/p&gt;\n\n&lt;p&gt;The song has been interpreted as an allusion to addiction, a struggle Hetfield &lt;a href="http://www.rollingstone.com/music/news/metallicas-james-hetfield-playing-music-saves-my-life-20150220" rel="noopener nofollow"&gt;has been open about&lt;/a&gt;, having previously entered rehab for &lt;a href="http://www.nme.com/photos/20-things-you-probably-didn-t-know-about-metallica/122042#/photo/17" rel="noopener nofollow"&gt;“alcohol and other addictions”—another being chocolate.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was later sampled by &lt;a href="https://genius.com/artists/Kid-rock" rel="noopener" data-api_path="/artists/1566"&gt;Kid Rock&lt;/a&gt; on &lt;a href="https://genius.com/Kid-rock-american-bad-ass-lyrics" rel="noopener" data-api_path="/songs/26092"&gt;“American Badass.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'writers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Stevie-wonder-i-just-called-to-say-i-love-you-lyrics', 'lyrics': "[Verse 1]\nNo New Year's Day to celebrate\nNo chocolate covered candy hearts to give away\nNo first of Spring, no song to sing\nIn fact here's just another ordinary day\nNo April rain, no flowers bloom\nNo wedding Saturday, within the month of June\nBut what it is, is something true\nMade up of these three words that I must say to you\n\n[Chorus]\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\n[Verse 2]\nNo summer's high\nNo warm July\nNo harvest moon to light one tender August night\nNo autumn breeze\nNo falling leaves\nNot even time for birds to fly to southern skies\nNo Libra sun\nNo Halloween\nNo giving thanks to all the Christmas joy you bring\nBut what it is, though old so new\nTo fill your heart like no three words could ever do\n[Chorus]\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\n[Outro]\nOf my heart\nOf my heart", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/f3653840bff7ae610eb7e70634ad0920.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This song was written, produced, and performed by Stevie Wonder for &lt;a href="https://www.imdb.com/name/nm0000698/" rel="noopener nofollow"&gt;Gene Wilder&lt;/a&gt;’s October 1984 romantic-comedy, &lt;a href="https://www.imdb.com/title/tt0088414/" rel="noopener nofollow"&gt;&lt;em&gt;The Woman in Red&lt;/em&gt;&lt;/a&gt;. The song won both the Golden Globe and Academy Award for Best Original Song, as well as earning itself three Grammy nominations. Furthermore, it peaked at number 1 on various international singles charts.&lt;/p&gt;', 'producers': [{'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'writers': [{'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Britney-spears-gimme-more-lyrics', 'lyrics': "[Intro: Britney Spears]\nIt's Britney, bitch\nI see you\nAnd I just wanna dance with you\n{Giggles}\n\n[Verse 1: Britney Spears]\nEvery time they turn the lights down\nJust wanna go that extra mile for you\nYour public display of affection (Oh-oh-oh)\nFeels like no one else in the room (But you)\n\n[Pre-Chorus: Britney Spears]\nWe can get down like there's no one around\nWe keep on rocking (We keep on rocking)\nWe keep on rocking (We keep on rocking)\nCameras are flashing\nWhile we're dirty dancing\nThey keep watching (They keep watching)\nKeep watching\nFeels like the crowd are saying\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\n[Verse 2: Britney Spears]\nThe center of attention (Do you feel that?)\nEven when we're up against the wall\nYou got me in a crazy position (Yeah)\nIf you're on a mission (Uh-huh)\nYou got my permission (Oh)\n\n[Pre-Chorus: Britney Spears]\nWe can get down like there's no one around\nWe keep on rocking (Keep on rocking)\nWe keep on rocking (Oh)\nRocking (Uh-huh)\nCameras are flashing\nWhile we're dirty dancing\nThey keep watching (They keep watching)\nKeep watching\nFeels like the crowd are saying\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\n[Bridge: Britney Spears]\n(Mo-mo-mo-mo-mo-mo....)\n(Ooh, ooh, ooh...)\nI just can't control myself\n(Mo-mo-mo-mo-mo-mo)\n(More!)\nOh!\nThey want more?\nWell, I'll give them more\n(Mo-mo-mo-mo-mo-mo)\nOw!\n(More!)\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\n(Give me more!)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nOo-oo-ooh!\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGive me more, yeah\nGimme (Mo-)\nGimme, gimme (More)\n[Post-Chorus: Britney Spears &amp; (Danja)]\nOh-oh-oh\nGimme more, gimme more\n(Mo-mo-mo-mo-mo-mo)\n(More)\nGimme more, gimme more, babe\n(Danja, Danja, Danja, Danja\nDanja, Danja, Danja, Danja)\nI just want more\n\n[Breakdown: Danja]\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh)\n(Mo-mo-mo-mo-mo-mo)\n(Ooh-oh-oh-oh-oh)\n\n[Interlude: Britney Spears &amp; (Danja)]\nGimme, gimme, gimme, gimme, gimme\nGimme, gimme, gimme, gimme, gimme\n(Danja, Danja, Danja, Danja)\nGimme, gimme, gimme, gimme, gimme\nGimme, gimme, gimme, gimme, gimme\n\n[Outro: Danja]\nBet you didn't see this one coming\nThe Incredible Lago (Mo-mo-mo-mo-mo-mo)\nThe legendary Miss Britney Spears, haha\nAnd the unstoppable Danja\nAh, you gonna have to remove me\n‘Cause I ain’t going nowhere\n(Mo-mo-mo-mo-mo-mo)\n(More)", 'annotations': {'description': '&lt;p&gt;“Gimme More” is the lead single of her fifth studio album, &lt;a href="http://rock.genius.com/albums/Britney-spears/Blackout" rel="noopener" data-api_path="/albums/40263"&gt;Blackout&lt;/a&gt;. It was released on August 31, 2007. The track received acclaim from critics, some of which praised the music and Spears’s breathy vocals.&lt;/p&gt;\n\n&lt;p&gt;The song also has an &lt;a href="https://www.youtube.com/watch?v=Jwvl60jw2cM" rel="noopener nofollow"&gt;alternate music video&lt;/a&gt;  for the single, which featured the iconic funeral scene.&lt;/p&gt;', 'producers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Marcella Araica', 'url': 'https://genius.com/artists/Marcella-araica'}, {'name': 'Jim Beanz', 'url': 'https://genius.com/artists/Jim-beanz'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'labels': [{'name': 'Jive', 'url': 'https://genius.com/artists/Jive'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Juice-wrld-and-marshmello-come-and-go-lyrics', 'lyrics': "[Intro: Juice WRLD &amp; Roddy Ricch]\nWoah, uh\nOh, oh-oh, oh (Mello made it right, uh)\n\n[Verse 1]\nI try to be everything that I can\nBut sometimes, I come out as bein' nothin’\nI try to be everything that I can\nBut sometimes, I come out as bein' nothin'\nI pray to God that He make me a better man (Uh)\nMaybe one day, I’ma stand for somethin'\nI'm thankin' God that He made you part of the plan\nI guess I ain't go through all that Hell for nothin'\nI'm always fuckin' up and wreckin’ shit\nIt seems like I perfected it\nI offer you my love\nI hope you take it like some medicine\nTell me ain’t nobody better than me\nI think that there's better than me\nHope you see the better in me\nAlways end up betterin’ me\n\n[Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don’t always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n[Post-Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n\n[Verse 2]\nWe take drugs, then you hold me close\nThen I tell you how you make me whole\nSometimes, I feel you like bein' alone\nThen you tell me that I shoulda stayed in the room\nGuess I got it all wrong all along, my fault\nMy mistakes probably wipe all the rights I've done\nSayin' goodbye to bygones, those are bygones\nHead up, baby, stay strong, we gon' live long\n\n[Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n[Post-Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go", 'annotations': {'description': '&lt;p&gt;“Come &amp;amp; Go” is the fourth promotional single from Juice WRLD’s posthumous studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Juice-wrld/Legends-never-die" rel="noopener" data-api_path="/albums/619876"&gt;Legends Never Die&lt;/a&gt;&lt;/em&gt;. On the Marshmello-produced beat, Juice contrasts much of music and focuses on the positive side of his love and relationships.&lt;/p&gt;\n\n&lt;p&gt;The track was &lt;a href="https://www.twitter.com/JuiceWorlddd/status/1068617470280417282" rel="noopener nofollow"&gt;first previewed&lt;/a&gt; via &lt;a href="https://www.twitter.com/JuiceWorlddd" rel="noopener nofollow"&gt;Juice’s Twitter&lt;/a&gt; on November 30, 2018. The video was captioned “Off my chest,” leading people to incorrectly speculate that was the title of the song. An early version of the track was leaked on August 18, 2019, and was eventually released on July 9, 2020, one day before &lt;em&gt;Legends Never Die&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=Dxm3cHrKcbA" rel="noopener nofollow"&gt;official music video&lt;/a&gt; was released on July 10, 2020. It features animation from &lt;a href="https://www.instagram.com/tristious/" rel="noopener nofollow"&gt;Tristan Zammit&lt;/a&gt;, whose animation was also featured in the music video for &lt;a href="https://genius.com/Juice-wrld-righteous-lyrics" rel="noopener" data-api_path="/songs/4673513"&gt;“Righteous,”&lt;/a&gt; the album’s lead single.&lt;/p&gt;', 'producers': [{'name': 'Marshmello', 'url': 'https://genius.com/artists/Marshmello'}], 'writers': [{'name': 'Juice WRLD', 'url': 'https://genius.com/artists/Juice-wrld'}, {'name': 'Marshmello', 'url': 'https://genius.com/artists/Marshmello'}], 'labels': [{'name': 'Grade A Productions', 'url': 'https://genius.com/artists/Grade-a-productions'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Daft-punk-one-more-time-lyrics', 'lyrics': "[Produced by Daft Punk]\n\n[Intro: Romanthony]\nOne more time\nOne more time\n\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nOne more time\n\n[Interlude]\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nDon't stop the dancing\nOne more time\n\n[Bridge: Romanthony]\nMmm, you know I'm just feeling\nCelebration tonight\nCelebrate\nDon't wait too late\nMmm, no\nWe don't stop\nYou can't stop\nWe're gonna celebrate\nOne more time\nOne more time\nOne more time\nCelebration\nYou know we're gonna do it right, tonight\nHey! Just feeling\nMusic's got me feeling the need\nNeed, yeah\nCome on, all right\nWe're gonna celebrate\nOne more time\nCelebrate and dance so free\nMusic's got me feeling so free\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Pause]\n\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free", 'annotations': {'description': '&lt;p&gt;From Rolling Stone’s &lt;a href="https://www.rollingstone.com/music/music-album-reviews/discovery-251661/" rel="noopener nofollow"&gt;“Discovery” by Ben Ratliff&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Daft Punk’s single, ‘One More Time’, is that kind of song: a piece of superreligion with an invincible beat and a nailed-to-the-wall vocal by house singer Romanthony. It is stamina itself, an anthem to &lt;em&gt;keep on dancing&lt;/em&gt; that’s already a huge hit in clubs and on the radio. All those knowing listeners who bought Homework and signed on for the pair’s rascally, nudge-wink grooves now have to figure out what part of ‘One More Time’ is for them. Is there a subversive part of ‘One More Time?’ If so, where does it begin?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video serves as the intro to the animated version of the album &lt;a href="https://genius.com/albums/Daft-punk/Discovery" rel="noopener" data-api_path="/albums/27501"&gt;Discovery&lt;/a&gt;, &lt;a href="http://rock.genius.com/Daft-punk-interstella-5555-the-5tory-of-the-5ecret-5tar-5ystem-lyrics/" rel="noopener" data-api_path="/songs/576883"&gt;&lt;em&gt;Interstella 5555: The 5tory of the 5ecret 5tar 5ystem&lt;/em&gt;&lt;/a&gt;. &lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/FGBhQbmPwH8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}, {'name': 'Romanthony', 'url': 'https://genius.com/artists/Romanthony'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Jace-everett-bad-things-lyrics', 'lyrics': "When you came in, the air went out\nAnd every shadow filled up with doubt\nI don't know who you think you are\nBut before the night is through\nI wanna do bad things with you\n\nI'm the kind to sit up in his room\nHeart sick and eyes filled up with blue\nI don't know what you've done to me\nBut I know this much is true:\nI wanna do bad things with you\n\nOk...\n\nWhen you came in, the air went out\nAnd all those shadows there, didn't leave any doubt\n\nI don't know who you think you are\nBut before the night is through\nI wanna do bad things with you\nI wanna do real bad things with you\n(howl)\n\nI don't know what you've done to me\nBut I know this one thing is true:\nI wanna do bad things with you\nI wanna do real bad things with you", 'annotations': {'description': '&lt;p&gt;Originally released as a single in 2005, this song gained much wider exposure as the theme song for the HBO TV series &lt;em&gt;True Blood&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Greg Droman', 'url': 'https://genius.com/artists/Greg-droman'}, {'name': 'Mark Wright', 'url': 'https://genius.com/artists/Mark-wright'}], 'writers': [{'name': 'Jace Everett', 'url': 'https://genius.com/artists/Jace-everett'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Calvin-harris-outside-lyrics', 'lyrics': "[Verse 1]\nLook at what you've done\nStand still, fallin' away from me\nWhen it takes so long\nFire's out, what do you want to be?\n\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Verse 2]\nSo you give me no reason\nFor me to stay close to you\nTell me what lovers do\nHow are we still breathing?\nIt's never for us to choose\nI'll be the strength in you\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Outro]\nI'll show you what it feels like\nNow I'm on the outside\nI'll show you what it feels like\nShow you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside", 'annotations': {'description': '&lt;p&gt;With just over 10 days before the release of his fourth studio album “&lt;a href="https://genius.com/albums/calvin-harris/motion" rel="noopener" data-api_path="/albums/113798"&gt;Motion&lt;/a&gt;”, Calvin Harris releases his 5th single from the project. Here he teams up with fellow Brit, &lt;a href="https://genius.com/artists/Ellie-goulding" rel="noopener" data-api_path="/artists/1838"&gt;Ellie Goulding&lt;/a&gt; who of course he has collaborated with in the past on the smash hit “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Van-halen-dont-tell-me-what-love-can-do-lyrics', 'lyrics': "It's ok, I'll do what I want\nIf I choose, I can take the fall\nThere's a choice\nIt's my destiny\nIn my hands\nYeah it's up to me\nI can drive\nI can shoot a gun in the streets\nScore me some heroin\nI can jump\nBe the sacrifice\nBear my cross just like Jesus Christ\nAnd I don't wanna hear what love can do\nNo, I ain't gonna tell ya what's right for you\nIs it right to take the easy way\nClose your eyes\nGet on your knees and pray\nNow you're saved by a higher voice\nGiving up, giving up, giving up your choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna hear about it\nBut I've tried, yeah I've tried for it\nI tried, I tried, 'til I'm satisfied\nAnd I\nI'm tired of hearing what love can do\nAnd I\nAin't gonna tell you what's right for you\nI've seen the damage done\nDown with the shotgun\nDon't stop the setting sun on my kingdom come\nOh\nIs it right to take the easy way\nI don't know\nI get down on my  knees and pray\nNow I'm saved by a higher voice\nGivin' up, givin' up, givin' up my choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna deal with it\nCause I've tried, yeah I tried for it\nI tried, I tried, even die for it\nNo I\nDon't wanna hear what love can do\nNo I\nI can't tell you what's right for you\nOh I\nTell you what love can do\nNo I\nCan't say but your time is through\nI've seen the damage done\nOh Lord, I've heard the shotgun\nI fought the setting sun on my kingdom come\nOh\nDon't tell me what love can do\nHey, hey, hey\nDon't tell me what love can do\nHey, hey, hey", 'annotations': {'description': '&lt;p&gt;The lyrics of this song were written about the tragic death of Kurt Cobain and how it probably could have been stopped if more people showed him compassion.&lt;br&gt;\nSammy Hagar talks about his inspiration in writing this song in his &lt;a href="https://read.amazon.com/kp/embed?asin=B0042FZVU8&amp;amp;preview=newtab&amp;amp;linkCode=kpe&amp;amp;ref_=cm_sw_r_kb_dp_C8Y2ET4ZBWP5VNM1T823" rel="noopener nofollow"&gt;autobiography&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Sammy Hagar', 'url': 'https://genius.com/artists/Sammy-hagar'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Counting-crows-mr-jones-lyrics', 'lyrics': '[Intro]\nShalalala la la la\nUh huh\n\n[Verse 1]\nI was down at the New Amsterdam\nStaring at this yellow-haired girl\nMr. Jones strikes up a conversation\nWith a black-haired flamenco dancer\nYou know she dances while his father plays guitar\nShe\'s suddenly beautiful\nAnd we all want something beautiful\nMan, I wish I was beautiful\nSo come dance this silence down through the morning\nShalalala la la la la, yeah..\nUh huh, yeah.. Cut up, Maria!\nShow me some of them Spanish dances\nAnd pass me a bottle, Mr. Jones\nBelieve in me, help me believe in anything\n\'Cause I wanna be someone who believes, yeah\n\n[Chorus for Verse 1]\nMr. Jones and me tell each other fairy tales\nAnd we stare at the beautiful women\n"She\'s looking at you. Ah, no, no, she\'s looking at me."\nSmiling in the bright lights, coming through in stereo\nWhen everybody loves you, you can never be lonely\n[Verse 2]\nWell, I\'m gonna paint my picture\nPaint myself in blue and red and black and gray\nAll of the beautiful colors are very, very meaningful\nYeah, well, you know gray is my favorite color\nI felt so symbolic yesterday\nIf I knew Picasso, I would buy myself a gray guitar and play\n\n[Chorus for Verse 2]\nMr. Jones and me look into the future\nYeah, we stare at the beautiful women\n"She\'s looking at you. I don\'t think so. She\'s looking at me."\nStanding in the spotlight, I bought myself a gray guitar\nWhen everybody loves me, I will never be lonely\n\nI\'ll never be lonely\nSaid I\'m never gonna be lonely\n\n[Verse 3]\nI want to be a lion\nYeah, everybody wants to pass as cats\nWe all want to be big, big stars, yeah\nBut we got different reasons for that\nBelieve in me, \'cause I don\'t believe in anything\nAnd I, I want to be someone to believe\nTo believe, to believe, yeah!\n[Chorus for Verse 3]\nMr. Jones and me, stumbling through the barrio\nYeah, we stare at the beautiful women\n"She\'s perfect for you, man, there\'s got to be somebody for me."\nI want to be Bob Dylan\nMr. Jones wishes he was someone just a little more funky\nWhen everybody loves you, ah son\nThat\'s just about as funky as you can be\n\n[Chorus]\nMr. Jones and me, staring at the video\nWhen I look at the television, I want to see me\nStaring right back at me\nWe all want to be big stars\nBut we don\'t know why, and we don\'t know how\nBut when everybody loves me\nI want to be just about as happy as I can be\n\n[Outro]\nMr. Jones and me, we\'re gonna be big stars', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/5db8580de7dc21f46b7f075d284e6fa9.300x258x1.jpg" alt="" width="300" height="258" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“It’s really a song about my friend Marty and I. We went out one night to watch his dad play, his dad was a Flamenco guitar player who lived in Spain, and he was in San Francisco in the Mission playing with his old Flamenco troupe. And after the gig we all went to this bar called the New Amsterdam in San Francisco on Columbus and we got completely drunk. And Marty and I sat at the bar staring at these two girls, wishing there was some way we could go talk to them, but we were too shy. We kept joking with each other that if we were big rock stars instead of such loser, low-budget musicians, this would be easy. I went home that night and I wrote a song about it”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;That is the literal meaning behind it, but the more subtle meaning has to do with dreams and what motivates us to do what we do.&lt;/p&gt;', 'producers': [{'name': 'T Bone Burnett', 'url': 'https://genius.com/artists/T-bone-burnett'}], 'writers': [{'name': 'David Bryson', 'url': 'https://genius.com/artists/David-bryson'}, {'name': 'Adam Duritz', 'url': 'https://genius.com/artists/Adam-duritz'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madness-it-must-be-love-lyrics', 'lyrics': "[Verse 1]\nI never thought I'd miss you\nHalf as much as I do\nAnd I never thought I'd feel this way\nThe way I feel about you\n\n[Bridge]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nHow can it be that we can\nSay so much without words\nBless you and bless me\nBless the bees and the birds\n\n[Pre-Chorus]\nI've got to be near you every night, every day\nI couldn't be happy any other way\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Outro]\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love...", 'annotations': {'description': '&lt;p&gt;It Must Be Love was originally written and recorded by Labi Siffre in 1971, but re-recorded by Madness in 1981. The Madness track reached #4 in the UK singles charts, staying in the charts for twelve weeks. It performed well in the US too, reaching #33 on the Billboard chart.&lt;/p&gt;\n\n&lt;p&gt;The track would go on to feature on the band’s #1 album, Complete Madness the following year&lt;/p&gt;', 'producers': [{'name': 'Alan Winstanley', 'url': 'https://genius.com/artists/Alan-winstanley'}, {'name': 'Clive Langer', 'url': 'https://genius.com/artists/Clive-langer'}], 'writers': [{'name': 'Labi Siffre', 'url': 'https://genius.com/artists/Labi-siffre'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Santana-smooth-lyrics', 'lyrics': '[Verse 1]\nMan, it\'s a hot one\nLike seven inches from the midday sun\nI hear you whisper and the words melt everyone\nBut you stay so cool\nMy muñequita, my Spanish Harlem Mona Lisa\nYou\'re my reason for reason, the step in my groove\n\n[Pre-Chorus]\nAnd if you say this life ain\'t good enough\nI would give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth\nGimme your heart, make it real, or else forget about it\n\n[Verse 2]\nI\'ll tell you one thing\nIf you would leave it would be a crying shame\nIn every breath and every word\nI hear your name calling me out\nOut from the barrio, you hear my rhythm on the radio\nYou feel the turning of the world so soft and slow, turnin\' you round and round\n[Pre-Chorus]\nAnd if you said, "This life ain\'t good enough"\nI\'d give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth, and\n\n[Chorus]\nOh, and it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, yeah\n\n[Guitar Solo]\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, damn\n\n[Outro]\nOr else forget about it\nOh, or else forget about it\nOh, let\'s don\'t forget about it\n(Gimme your heart, make it real) Let\'s don\'t forget about it, hey\nLet\'s don\'t forget about it, no, oh, no, oh\nLet\'s don\'t forget about it, no, no, no, oh\nLet\'s don\'t forget about it, hey, no, no, oh\nLet\'s don\'t forget about it, hey, hey, hey', 'annotations': {'description': '&lt;p&gt;“Smooth” is a collaboration between Matchbox Twenty frontman Rob Thomas and Latin rock band Santana. Written by Thomas, and Itaal Shur, “Smooth” won three Grammys for “Song of the Year”, “Record of the Year”, and “Best Pop Collaboration with Vocals” in 2000. “Smooth” is a pinnacle of the tail end of the rock era, and a perfect example of a smooth transition from the classic rock sound (Santana) to modern adult contemporary music (Thomas).&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Itaal Shur', 'url': 'https://genius.com/artists/Itaal-shur'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Toto-africa-lyrics', 'lyrics': '[Verse 1: David Paich]\nI hear the drums echoing tonight\nBut she hears only whispers of some quiet conversation\nShe\'s coming in, 12:30 flight\nHer moonlit wings reflect the stars that guide me towards salvation\nI stopped an old man along the way\nHoping to find some old forgotten words or ancient melodies\nHe turned to me as if to say\n"Hurry, boy, it\'s waiting there for you"\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n\n[Verse 2: David Paich]\nThe wild dogs cry out in the night\nAs they grow restless longing for some solitary company\nI know that I must do what\'s right\nAs sure as Kilimanjaro rises like Olympus above the Serengeti\nI seek to cure what\'s deep inside\nFrightened of this thing that I\'ve become\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n[Bridge]\nHurry, boy, she\'s waiting there for you\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nGonna take some time to do the things we never had', 'annotations': {'description': '&lt;p&gt;“Africa” is the third single from Toto’s 1982 album titled &lt;em&gt;&lt;a href="https://genius.com/albums/Toto/Toto-iv" rel="noopener" data-api_path="/albums/109163"&gt;Toto IV&lt;/a&gt;&lt;/em&gt;.  It is the group’s most popular song and &lt;a href="http://www.billboard.com/charts/hot-100/1983-02-05" rel="noopener nofollow"&gt;reached #1&lt;/a&gt; on &lt;em&gt;Billboard’s Hot 100&lt;/em&gt; in early 1983.&lt;/p&gt;\n\n&lt;p&gt;The lyrics comprise a heartfelt (if somewhat fantastical and stereotyped) vision of the beauty of Africa. There are undercurrents of embodying the continent of Africa in a female figure that is referenced throughout the song.&lt;/p&gt;\n\n&lt;p&gt;Africa is, of course, an enormous continent full of a variety of cultures, but the lyrics touch on what a white kid growing up  in  1970s America would have been exposed to in pop culture, &lt;a href="http://jeffporcaro.blogspot.com/2006/12/story-behind-africa.html" rel="noopener nofollow"&gt;as drummer Jeff Porcaro stated in an interview:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;… a white boy is trying to write a song on Africa, but since he’s never been there, he can only tell what he’s seen on TV or remembers in the past.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Toto', 'url': 'https://genius.com/artists/Toto'}], 'writers': [{'name': 'Jeff Porcaro', 'url': 'https://genius.com/artists/Jeff-porcaro'}, {'name': 'David Paich', 'url': 'https://genius.com/artists/David-paich'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-cranberries-salvation-lyrics', 'lyrics': "To all those people doing lines\nDon't do it, don't do it\nInject your soul with liberty\nIt's free, it's free\n\nTo all the kids with heroin eyes\nDon't do it, don't do it\nBecause it's not, not what it seems\nNo, no it's not, not what it seems\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh\nDo do do do do do do do\nDo do do doooo\nDo do do do do do do do\nDo do do doooo\n\nTo all those parents with sleepless nights\nSleepless nights\nTie your kids home to their beds\nClean their heads\n\nTo all the kids with heroin eyes\nDon't do it, don't do it\nBecause it's not, not what it seems\nNo, no it's not, not what it seems\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh", 'annotations': {'description': '&lt;p&gt;The biggest hit off of &lt;em&gt;To The Faithful Departed&lt;/em&gt; deals with addiction. Limerick in ‘96 was a cesspool of drugs that The Cranberries had bubbling all around them.&lt;/p&gt;\n\n&lt;p&gt;The song charted at #13 in the UK.&lt;/p&gt;', 'producers': [{'name': 'The Cranberries', 'url': 'https://genius.com/artists/The-cranberries'}, {'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-romantics-one-in-a-million-lyrics', 'lyrics': "Something about you\nMakes me want to keep on loving you\nWhen I'm without you\nI feel I need you back in my heart\n\nI get a sensation\nI feel whenever I'm around you\nYou're my inspiration\nAnd I'm so glad I found you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\n\nWhen I first saw you\nI had a feeling right from the start\nIn love I was falling\nYou seemed to do things to my heart\n\nYour love and affection\nIs all I need to keep me satisfied\nYou leave an impression\nAnd baby I never want to leave you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\nSomething about you\nMakes me want to keep on loving you\nWhen I'm without you\nI feel I need you back in my heart\n\nI get a sensation\nI feel whenever I'm around you\nYou're my inspiration\nAnd I'm so glad I found you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\n\nYou're one in a million\nOne in a million and you're second to none\nOne in a million, wow, one in a million\nBaby you know you are one", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-its-no-good-lyrics', 'lyrics': "[Verse 1]\nI'm gonna take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\nThe gods decree\nYou'll be right here by my side\nRight next to me\nYou can run but you cannot hide\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Verse 2]\nI'll be fine\nI'll be waiting patiently\nTill you see the signs\nAnd come running to my open arms\nWhen will you realise?\nDo we have to wait till our worlds collide?\nOpen up your eyes\nYou can't turn back the tide\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Interlude]\n\n[Verse 3]\nI'm going to take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good", 'annotations': {'description': '&lt;p&gt;The meaning of “It’s No Good” is a bit vain. It’s about someone lusting over their crush, denying that the feeling isn’t mutual. It can be assumed that he was rejected, and he’s grieving, hitting the first stage, denial.&lt;/p&gt;', 'producers': [{'name': 'Tim Simenon', 'url': 'https://genius.com/artists/Tim-simenon'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/William-scream-and-shout-lyrics', 'lyrics': '[Intro: will.i.am]\nBring the action\n\n[Pre-Chorus: Tulisa, Tulisa &amp; will.i.am]\nWhen you hear this in the club, you\'re gonna turn this shit up\nYou\'re gonna turn this shit up, you\'re gonna turn this shit up\nWhen we up in the club, all eyes on us\nAll eyes on us, all eyes on us\nSee the boys in the club, they watchin\' us\nThey watchin\' us, they watchin\' us\nEverybody in the club, all eyes on us\nAll eyes on us, all eyes on us\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch\n\n[Post-Chorus: will.i.am]\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nBring the action\n[Verse: will.i.am]\nRock and roll, everybody, let\'s lose control\nOn the bottom, we let it go, goin\' fast we ain\'t goin\' slow\nNo no, ay, yo, hear the beat, now let\'s hit the floor\nDrink it up and then drink some more\nLight it up and let\'s let it blow\nBlow blow, ay, yo, rock it out, rockin\' now\nIf you know what we talkin\' \'bout\nTurn it up and burn down the house\nHou-house, ay, yo, turn it up and don\'t turn it down\nHere we go, we gon\' shake the ground\n\'Cause everywhere that we go, we (Bring the action)\n\n[Pre-Chorus: Tulisa, Tulisa &amp; will.i.am, will.i.am]\nWhen you hear this in the club, you\'re gonna turn this shit up\nYou\'re gonna turn this shit up, you\'re gonna turn this shit up\nWhen we up in the club, all eyes on us\nAll eyes on us, all eyes on us\nYou see them girls in the club? They lookin\' at us\nThey lookin\' at us, they lookin\' at us\nEverybody in the club, all eyes on us\nAll eyes on us, all eyes on us\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch\n[Post-Chorus: will.i.am]\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\n\n[Bridge: will.i.am]\nIt goes on and on and on and on\nWhen me and you party together\nI wish this night would last forever\n\'Cause I was feelin\' down, now I\'m feelin\' better\nAnd maybe it goes on and on and on and on\nWhen me and you party together\nI wish this night would last forever\nForever-forever-forever-forever-forever\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch', 'annotations': {'description': '&lt;p&gt;On “Scream &amp;amp; Shout,” a robotized, vaguely British-sounding Britney Spears joins will.i.am for a bumping EDM dance party. The up-tempo track reached #3 on the Billboard Hot 100 and became the first song to top the newly launched Dance/Electronic Songs chart.&lt;/p&gt;', 'producers': [{'name': 'Basto', 'url': 'https://genius.com/artists/Basto'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Basto', 'url': 'https://genius.com/artists/Basto'}, {'name': 'Tulisa', 'url': 'https://genius.com/artists/Tulisa'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Jean Baptiste', 'url': 'https://genius.com/artists/Jean-baptiste'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-we-found-love-lyrics', 'lyrics': "[Video Intro: Agyness Deyn]\nIt's like you're screaming, and no one can hear\nYou almost feel ashamed, that someone could be that important\nThat without them, you feel like nothing\nNo one will ever understand how much it hurts\nYou feel hopeless, like nothing can save you\nAnd when it's over and it's gone\nYou almost wish you could have all that bad stuff back\nSo that you could have the good\n\n[Verse 1: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\nWhat it takes to come alive\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Verse 2: Rihanna]\nShine a light through an open door\nLove and life, I will divide\nTurn away 'cause I need you more\nFeel the heartbeat in my mind\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n\n[Bridge: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place", 'annotations': {'description': '&lt;p&gt;This is a single off Rihanna’s sixth studio album &lt;em&gt;Talk that Talk.&lt;/em&gt; It was also included on &lt;em&gt;18 Months,&lt;/em&gt; the third album from Scottish electronic artist and this song’s producer Calvin Harris, who penned the lyrics as well.&lt;/p&gt;\n\n&lt;p&gt;This song became one of the bestselling singles of all time, and Rihanna’s longest running single, outlasting her smash hit “Umbrella” on top of the Billboard Hot 100 charts. This was Harris\' first time on the Hot 100, and became a huge boon to his career. He’d been releasing music since 2007. Harris &lt;a href="https://www.thesun.co.uk/archives/news/1010674/calvin-harris-rihanna-is-the-best-thing-that-could-have-happened-to-me/" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It changed absolutely everything. Career-wise it was the best thing that could ever have happened. For example, in America my tune ‘Feel So Close’ came out about three months before. But when ‘We Found Love’ came out, the radio started playing ‘Feel So Close’ like it was the single after. Then that did really well, it charted well and sold a lot of copies."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Harris was able to tap Rihanna for the song after he opening for her on a leg of her Loud tour in 2011. When Rihanna announced the collaboration to Twitter fans, the &lt;a href="http://www.capitalfm.com/artists/rihanna/news/fans-calvin-harris-single/" rel="noopener nofollow"&gt;Rihanna Navy jumped on Harris,&lt;/a&gt; ensuring he would produce a hit. Luckily he didn’t disappoint.&lt;/p&gt;\n\n&lt;p&gt;The original version of the song was recorded by UK singer Leona Lewis. She told &lt;a href="http://www.nme.com/news/calvin-harris/84798" rel="noopener nofollow"&gt;NME&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a bit annoying to see how big a hit it was but if I’d released it maybe it wouldn’t have done as well.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video, directed by Melissa Matsoukas,  depicts two lovers are in an unsustainable relationship based on passion and drugs, more like an addiction than a healthy interest. The video features a lot of drug usage and a Chris Brown lookalike, which was controversial, given their real-life abusive relationship. Matsoukas addressed the rumors about the controversial video in an interview with &lt;a href="http://www.mtv.com/news/1672957/rihanna-we-found-love-melina-matsoukas/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Again, it goes back to a story that we all can relate to. It’s not Rihanna’s story; it’s her story in the video, and she’s acting. But everybody’s [as well]. Obviously, there’s a lot of comparisons to her real life , and that’s not at all the intention.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-american-life-lyrics', 'lyrics': "[Intro]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Verse 1]\nI tried to be a boy\nI tried to be a girl\nI tried to be a mess\nI tried to be the best\nI guess I did it wrong\nThat's why I wrote this song\nThis type of modern life, is it for me?\nThis type of modern life, is it for free?\n\n[Verse 2]\nSo, I went into a bar\nLooking for sympathy\nA little company\nI tried to find a friend\nIt's more easily said\nIt's always been the same\nThis type of modern life, is not for me\nThis type of modern life, is not for free\n[Chorus]\nAmerican Life (American Life)\nI live the American Dream (American Dream)\nYou are the best thing I've seen\nYou are not just a dream (American Life)\n\n[Verse 3]\nI tried to stay ahead\nI tried to stay on top\nI tried to play the part\nBut somehow I forgot\nJust what I did it for\nAnd why I wanted more\nThis type of modern life, is it for me?\nThis type of modern life, is it for free?\n\n[Refrain]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Chorus]\nAmerican Life (American Life)\nI live the American Dream (American Dream)\nYou are the best thing I've seen\nYou are not just a dream (American Life)\n[Verse 4]\nI tried to be a boy\nTried to be a girl\nTried to be a mess\nTried to be the best\nTried to find a friend\nTried to stay ahead\nI tried to stay on top\nFuck it\n\n[Refrain]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Break]\nA- fuck it\nA- fuck it\nA- fuck it\nA- fuck it\n\n[Verse 5]\nI'm drinking a soy latte\nI get a double shoté\nIt goes right through my body, and you know I'm satisfied\nI drive my Mini Cooper, and I'm feeling super-dooper\nYo, they tell I'm a trooper, and you know I'm satisfied\nI do yoga and pilates, and the room is full of hotties\nSo I'm checking out the bodies, and you know I'm satisfied\nI'm digging on the isotopes, this metaphysics shit is dope\nAnd if all this can give me hope, you know I'm satisfied\nI got a lawyer and a manager, an agent and a chef\nThree nannies, an assistant, and a driver, and a jet\nA trainer, and a butler, and a bodyguard, or five\nA gardener and a stylist, do you think I'm satisfied?\nI'd like to express my extreme point of view\nI'm not a Christian and I'm not a Jew\nI'm just living out the American dream\nAnd I just realized that nothing is what it seems\n[Outro]\nDo I have to change my name? (American Life)\nAm I gonna be a star? (I live the American Dream)\nDo I have to change my name? (American Life)\nAm I gonna be a star? (I live the American Dream)\nDo I have to change my name?\n(American Life) (I live the American Dream)\n(American Life) (I live the American Dream)\n(American Life) (I live the American Dream)\n(American Life)", 'annotations': {'description': '&lt;p&gt;“American Life” is the lead single and title-track of Madonna’s &lt;a href="https://genius.com/albums/Madonna/American-life" rel="noopener" data-api_path="/albums/70141"&gt;ninth studio album&lt;/a&gt;. A pop, techno and folk song, its lyrics feature political and religious views from the singer, who questions the shallowness of modern life and the illusion of the &lt;a href="https://en.wikipedia.org/wiki/American_Dream" rel="noopener nofollow"&gt;American Dream&lt;/a&gt;, specially during the presidency of &lt;a href="https://en.wikipedia.org/wiki/George_W._Bush" rel="noopener nofollow"&gt;George W. Bush&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;By touching sore spots of American society, “American Life” enraged American listeners and was heavily criticized by reviewers, which led the single to &lt;a href="https://www.billboard.com/music/madonna/chart-history/HSI/song/433578" rel="noopener nofollow"&gt;peak at #37&lt;/a&gt; on the Billboard Hot 100. However, the single did well outside the US, reaching the top of the charts in Canada, Denmark, Italy, Japan and Switzerland, and #2 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Two music videos were shot for the song, both by Swedish director &lt;a href="https://en.wikipedia.org/wiki/Jonas_%C3%85kerlund" rel="noopener nofollow"&gt;Jonas Åkerlund&lt;/a&gt;, who has worked with Madonna before. The &lt;a href="https://www.youtube.com/watch?v=1CWXjk40yWE" rel="noopener nofollow"&gt;first version&lt;/a&gt; featured the singer at a military-themed fashion show, with an amused audience applauding the bloodshed of the war; the video ended with Madonna throwing a hand grenade at George W. Bush. Prior to its release, the video caused controversy regarding its political, racial and religious implications, leading Madonna to &lt;a href="http://www.mtv.com/news/articles/1469995/20030214/madonna.jhtml" rel="noopener nofollow"&gt;release a statement&lt;/a&gt; explaining its concept:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I feel lucky to be an American citizen for many reasons – one of which is the right to express myself freely, especially in my work. I understand that there have been reports about my upcoming video ‘American Life’ in the media – much of which is inaccurate. I am not Anti-Bush. I am not pro-Iraq. I am pro peace. I have written a song and created a video which expresses my feelings about our culture and values and the illusions of what many people believe is the American dream – the perfect life. As an artist, I hope that this provokes thought and dialogue. I don’t expect everyone to agree with my point of view.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After the &lt;a href="https://en.wikipedia.org/wiki/2003_invasion_of_Iraq" rel="noopener nofollow"&gt;2003 invasion of Iraq&lt;/a&gt; started, Madonna cancelled the release of the original music video, because of the political climate of the country at the time, and released &lt;a href="https://www.youtube.com/watch?v=LYduJw5LyFM" rel="noopener nofollow"&gt;another version&lt;/a&gt;, much softer, featuring her in front of a backdrop of flags from around the world. She explained:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have decided not to release my new video. It was filmed before the war started and I do not believe it is appropriate to air it at this time. Due to the volatile state of the world and out of sensitivity and respect to the armed forces, who I support and pray for, I do not want to risk offending anyone who might misinterpret the meaning of this video.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mirwais Ahmadzaï', 'url': 'https://genius.com/artists/Mirwais-ahmadzai'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Mirwais Ahmadzaï', 'url': 'https://genius.com/artists/Mirwais-ahmadzai'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Adele-set-fire-to-the-rain-lyrics', 'lyrics': "[Produced by Fraser T Smith]\n\n[Verse 1]\nI let it fall, my heart\nAnd as it fell, you rose to claim it\nIt was dark, and I was over\nUntil you kissed my lips and you saved me\nMy hands, they were strong\nBut my knees were far too weak\nTo stand in your arms\nWithout falling to your feet\n\n[Pre-Chorus]\nBut there's a side to you\nThat I never knew, never knew\nAll the things you'd say\nThey were never true, never true\nAnd the games you'd play\nYou would always win, always win\n\n[Chorus]\nBut I set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\n[Verse 2]\nWhen I lay with you\nI could stay there, close my eyes\nFeel you here forever\nYou and me together, nothing is better\n\n[Pre-Chorus]\n'Cause there's a side to you\nThat I never knew, never knew\nAll the things you'd say\nThey were never true, never true\nAnd the games you'd play\nYou would always win, always win\n\n[Chorus]\nBut I set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\nI set fire to the rain\nAnd I threw us into the flames\nWhen it fell, somethin' died\n'Cause I knew that that was the last time\nThe last time\n[Bridge]\nSometimes, I wake up by the door\nThat heart you caught must be waitin' for you\nEven now, when we're already over\nI can't help myself from lookin' for you\n\n[Chorus]\nI set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\nI set fire to the rain\nAnd I threw us into the flames\nWhen it fell, somethin' died\n'Cause I knew that that was the last time\nThe last time\n\n[Outro]\nOh\nOh, no\nLet it burn\nOh\nLet it burn\nLet it burn", 'annotations': {'description': '&lt;p&gt;“Set Fire To The Rain” talks about a relationship coming to an end. Girl meets guy, he is wonderful and she falls really quickly. He tells her all of these amazing things, but really they were all a lie and now she is left with a broken heart. He continually tries to play games with her and no matter hard she fights, she will never win. Nothing she can do will fix the relationship.&lt;/p&gt;\n\n&lt;p&gt;As hard as she doesn’t want to let him go, she breaks it off in order to save herself for further heartbreak. The pain of breaking off a relationship with someone who means so much but is two-sided and not good to be with.&lt;/p&gt;\n\n&lt;p&gt;The title is an allusion to James Taylor’s &lt;a href="https://genius.com/James-taylor-fire-and-rain-lyrics" rel="noopener" data-api_path="/songs/108489"&gt;“Fire and Rain,”&lt;/a&gt; but Adele approaches the same themes with a thug-feminist perspective.&lt;/p&gt;\n\n&lt;p&gt;In the US, the song hit #1, becoming her third consecutive number one from the album. She wouldn’t reach such heights again until her comeback single &lt;a href="https://genius.com/Adele-hello-lyrics" rel="noopener" data-api_path="/songs/2332455"&gt;“Hello”&lt;/a&gt; debuted at number one with a shocking &lt;em&gt;1.12 million copies sold&lt;/em&gt; in one week – the largest ever recorded in the US.&lt;/p&gt;', 'producers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}], 'writers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Justin-bieber-yummy-lyrics', 'lyrics': "[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay\u2005the\u2005word, on my\u2005way\nYeah, babe, yeah, babe, yeah, babe\nAny\u2005night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nIn the mornin' or the late\nSay the word, on my way\n\n[Verse 1]\nBona fide stallion\nAin't in no stable, no, you stay on the run\nAin't on the side, you're number one\nYeah, every time I come around, you get it done\n\n[Pre-Chorus]\nFifty-fifty, love the way you split it\nHundred racks, help me spend it, babe\nLight a match, get litty, babe\nThat jet set, watch the sunset kinda, yeah, yeah\nRollin' eyes back in my head, make my toes curl, yeah, yeah\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nIn the mornin' or the late\nSay the word, on my way\n\n[Verse 2]\nStandin' up, keep me on the rise\nLost control of myself, I'm compromised\nYou're incriminating, no disguise\nAnd you ain't never runnin' low on supplies\n\n[Pre-Chorus]\nFifty-fifty, love the way you split it\nHundred racks, help me spend it, babe\nLight a match, get litty, babe\nThat jet set, watch the sunset kinda, yeah, yeah\nRollin' eyes back in my head, make my toes curl, yeah, yeah\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy (You stay flexin' on me)\nYeah, you got that yummy-yum (Yeah, yeah)\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nIn the mornin' or the late\nSay the word, on my way\n\n[Bridge]\nHop in the Lambo', I'm on my way\nDrew House slippers on with a smile on my face\nI'm elated that you are my lady\nYou got the yum, yum, yum, yum\nYou got the yum, yum-yum, woah\nWoah-ooh\n\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nIn the mornin' or the late\nSay the word, on my way", 'annotations': {'description': '&lt;p&gt;“Yummy” is the lead single to Justin Bieber’s fifth studio album, &lt;a href="https://genius.com/albums/Justin-bieber/Changes" rel="noopener" data-api_path="/albums/583715"&gt;&lt;em&gt;Changes&lt;/em&gt;&lt;/a&gt;, and his first solo release since his fourth studio album, &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;, released on November 13, 2015. Its release was accompanied by a &lt;a href="https://youtu.be/EaMed9sUPVo" rel="noopener nofollow"&gt;lyric video&lt;/a&gt;, and an &lt;a href="https://youtu.be/8EJ3zbKTWQ8" rel="noopener nofollow"&gt;official music video&lt;/a&gt; that released at 12:00 PM EST on January 4th, 2020.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.merriam-webster.com/dictionary/yummy" rel="noopener nofollow"&gt;Yummy&lt;/a&gt; is a term used to describe something or someone that you find very attractive or appealing. Justin uses this term to describe his wife, &lt;a href="https://www.instagram.com/haileybieber/?hl=en" rel="noopener nofollow"&gt;Hailey Bieber&lt;/a&gt;, to which he is known for &lt;a href="https://www.narcity.com/gossip/fans-are-gushing-over-justin-bieber-publicly-serenading-his-new-wife-hailey-baldwin-in-london-video" rel="noopener nofollow"&gt;publicly gushing&lt;/a&gt; over. Whether it’s &lt;a href="https://www.instagram.com/p/B36MXitntbq/?utm_source=ig_embed" rel="noopener nofollow"&gt;commenting&lt;/a&gt; on photos of her, or &lt;a href="https://www.instagram.com/p/BwAXtOeHFms/?utm_source=ig_embed" rel="noopener nofollow"&gt;writing a poem&lt;/a&gt; for her, Justin always shows just how much he loves his wife.&lt;/p&gt;\n\n&lt;p&gt;The song, along with its release date, was announced on December 24, 2019, &lt;a href="https://www.youtube.com/watch?v=Qa6ShFwhNWU" rel="noopener nofollow"&gt;via a trailer&lt;/a&gt;, for his album on YouTube, which also played a snippet from the track.&lt;/p&gt;\n\n&lt;p&gt;Bieber continued teasing the track all day on January 2, 2020, the day before the track’s release. He tweeted &lt;a href="https://twitter.com/justinbieber/status/1212782112123707392" rel="noopener nofollow"&gt;a snippet&lt;/a&gt; from the track’s apparent music video, as well as &lt;a href="https://twitter.com/justinbieber/status/1212948427186655232" rel="noopener nofollow"&gt;another teaser&lt;/a&gt; of the track’s instrumental version.&lt;/p&gt;', 'producers': [{'name': 'Sasha Sirota', 'url': 'https://genius.com/artists/Sasha-sirota'}, {'name': 'Kid Culture', 'url': 'https://genius.com/artists/Kid-culture'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}], 'writers': [{'name': 'Ashley Joi Sadler', 'url': 'https://genius.com/artists/Ashley-joi-sadler'}, {'name': 'Ashley Boyd', 'url': 'https://genius.com/artists/Ashley-boyd'}, {'name': 'Kid Culture', 'url': 'https://genius.com/artists/Kid-culture'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}, {'name': 'Justin Bieber', 'url': 'https://genius.com/artists/Justin-bieber'}, {'name': 'Sasha Sirota', 'url': 'https://genius.com/artists/Sasha-sirota'}], 'labels': [{'name': 'RBMG', 'url': 'https://genius.com/artists/Rbmg'}, {'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Evanescence-going-under-lyrics', 'lyrics': "[Verse 1]\nNow I will tell you what I've done for you\nFifty thousand tears I've cried\nScreaming, deceiving and bleeding for you\nAnd you still won't hear me (Going under)\n\n[Verse 2]\nDon't want your hand this time, I'll save myself\nMaybe I'll wake up for once (Wake up for once)\nNot tormented, daily defeated by you\nJust when I thought I'd reached the bottom\n\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm going under\n\n[Verse 3]\nBlurring and stirring the truth and the lies\n(So I don't know what's real)\nSo I don't know what's real and what's not\n(Don't know what's real and what's not)\nAlways confusing the thoughts in my head (Oh)\nSo I can't trust myself anymore\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm\n\n[Bridge]\nSo go on and scream\nScream at me, I'm so far away (So far away)\nI won't be broken again (Again)\nI've got to breathe, I can't keep going under\n\n[Guitar Solo]\n\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm\n[Outro]\nGoing under (Going under)\nI'm going under (Drowning in you)\nI'm going under", 'annotations': {'description': '&lt;p&gt;In &lt;a href="https://genius.com/artists/Amy-lee" rel="noopener" data-api_path="/artists/30669"&gt;Amy Lee&lt;/a&gt;’s own words, “Going Under” is:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;[…] about coming out of a bad relationship, and when you’re at the end of your rope, when you’re at the point where you realize something has to change, that you can’t go on living in the situation that you’re in.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;It was initially going to be &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;’s first single on their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Evanescence/Fallen" rel="noopener" data-api_path="/albums/15242"&gt;Fallen&lt;/a&gt;&lt;/em&gt;. However, the release of the &lt;em&gt;Daredevil&lt;/em&gt; soundtrack eclipsed the decision, resulting in the release of &lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me To Life&lt;/a&gt; first.&lt;/p&gt;\n\n&lt;p&gt;The music video for the song was directed by Philipp Stölzl and it was filmed in May 2003 in Germany. It shows Lee performing on a concert along with the band, while fans are turning into zombies. She designed both the dresses she wears in the video. It ranked at #4 on the list of &lt;a href="http://www.billboard.com/articles/columns/pop-shop/952337/the-15-scariest-music-videos-ever" rel="noopener nofollow"&gt;“The 15 Scariest Music Videos Ever”&lt;/a&gt; published by &lt;em&gt;Billboard&lt;/em&gt;. Evanescence additionally added the song to the set-list on their &lt;strong&gt;Fallen and The Open Door Tour&lt;/strong&gt;.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}, {'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pet-shop-boys-domino-dancing-lyrics', 'lyrics': "[Intro: The Voice in Fashion]\n(All day, all day)\n\n[Interlude]\n\n[Verse 1: Neil Tennant]\nI don't know why, I don't know how\nI thought I loved you, but I'm not sure now\nI've seen you look at strangers too many times\nThe love you want is of a different kind\n\n[Verse 2: Neil Tennant]\nRemember when we felt the sun?\nA love like paradise, how hot it burned\nA threat of distant thunder, the sky was red\nAnd when you walked, you always turned every head\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n[Interlude]\n\n[Verse 3: Neil Tennant]\nI thought that when we fought I was to blame\nBut now I know you play a different game\nI've watched you dance with danger, still wanting more\nAdd another number to the score\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n\n[Bridge: Neil Tennant]\nWhen you look around you wonder\nDo you play to win?\nOr are you just a bad loser?\n\n[Interlude]\n\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n[Interlude]\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n(All day, all day)\n(All day, all day)\n\n[Verse 4: Neil Tennant]\nI don't know why, I don't know how\nI thought I loved you, but I'm not sure now\nI hear the thunder crashing, the sky is dark\nAnd now a storm is breaking within my heart\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n\n[Interlude]\n\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n(Domino dancing)\n(All day, all day)\n(All day, all day)\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n\n[Outro: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)", 'annotations': {'description': '&lt;p&gt;Neil says that the title of this song was inspired during a stay on the Caribbean island of St. Lucia. “In the evening there was nothing to do except play dominoes; this friend of ours [their personal assistant and Chris’s roommate, the late Pete Andreas] always used to beat us, and he used to do this celebratory dance.” Despite this prosaic origin, “domino dancing” became Neil’s metaphor for a love relationship breaking down because of jealousy. As he once described it, he “created a scenario of, you know, a guy going out with a beautiful girl and all the guys are looking at her on the beach in her bikini or whatever and they’re all dropping dead before her because she’s so gorgeous and so consequently he gets jealous and the relationship collapses….”&lt;/p&gt;\n\n&lt;p&gt;Neil and Chris had traveled to Miami specifically to work with Exposé producer Lewis A. Martineé, whose work they admired, most notably with his highly successful “girl group” Exposé. This track, which exemplifies the ‘eighties electro-Latino musical subgenre commonly known as “freestyle,” was the result.&lt;/p&gt;\n\n&lt;p&gt;Continuing with the Latino theme, the accompanying video is set in Puerto Rico—at director Eric Watson’s suggestion—and became notorious for its thinly veiled homoeroticism, despite a heterosexual veneer.&lt;/p&gt;\n\n&lt;p&gt;(The final scenes of two shirtless young men—even more obviously posited as “sex objects” than the lovely young woman who served as the ostensible object of their competing desires—tussling among the crashing waves on a beach were frequently cited as evidence by critics.)&lt;/p&gt;\n\n&lt;p&gt;Since “Domino Dancing” proved to be the Pet Shop Boys\' final Top 40 hit in the United States, it has been widely speculated that this video may have had something to do with their declining U.S. popularity thereafter.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ae02d5c2b9a58a946173cf07f45c2651.550x583x1.jpg" alt="" width="550" height="583" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Lewis Martineé', 'url': 'https://genius.com/artists/Lewis-martinee'}], 'writers': [{'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-disturbia-lyrics', 'lyrics': "[Intro]\nBum bum be-dum, bum bum be-dum bum\n(What's wrong with me?)\nBum bum be-dum, bum bum be-dum bum\n(Why do I feel like this?)\nBum bum be-dum, bum bum be-dum bum\n(I'm goin' crazy now)\nBum bum be-dum, bum bum be-dum bum\n\n[Verse 1]\nNo more gas, in the red (Can't even get it started)\nNothin' heard, nothin' said (Can't even speak about it)\nAll my life on my head (Don't wanna think about it)\nFeels like I'm goin' insane, yeah\n\n[Pre-Chorus]\nIt's a thief in the night to come and grab you (Ah)\nIt can creep up inside you and consume you (Ah)\nA disease of the mind, it can control you (Ah)\nIt's too close for comfort, ah\n\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder\nAin't gon' play nice\nWatch out, you might just go under\nBetter think twice\nYour train of thought will be altered\nSo if you must falter, be wise\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light\nDisturbia, am I scarin' you tonight?\nYour mind's in disturbia, ain't used to what you like\nDisturbia, disturbia\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\n\n[Verse 2]\nFaded pictures on the wall\nIt's like they talkin' to me\nDisconnected, no one calls\nThe phone don't even ring\nI gotta get out or figure this shit out\nIt's too close for comfort, oh\n\n[Pre-Chorus]\nIt's a thief in the night to come and grab you (Ooh)\nIt can creep up inside you and consume you (Ooh)\nA disease of the mind, it can control you (Ooh)\nI feel like a monster, oh\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder (City lights)\nAin't gon' play nice (Oh)\nWatch out, you might just go under\nBetter think twice (Think twice)\nYour train of thought will be altered\nSo if you must falter, be wise (Be wise)\n\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light\nDisturbia, am I scarin' you tonight? (Oh)\nDisturbia, ain't used to what you like (Oh, what you like)\nDisturbia, disturbia (Ah)\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum (Ba-da-da-da-de-da)\nBum bum be-dum, bum bum be-dum bum (Ba-da-da-da-de-da)\nBum bum be-dum, bum bum be-dum bum (Disturbia)\nBum bum be-dum, bum bum be-dum bum (Oh, oh)\n\n[Bridge]\nRelease me from this curse I'm in\nTryin' to remain tame, but I'm strugglin'\nIf you can't go, oh-oh-oh-oh-oh\nI think I'm gonna ah-ah-ah-ah-ah\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder (Woo, yeah)\nAin't gon' play nice\nWatch out, you might just go under (Better think twice)\nBetter think twice\nYour train of thought will be altered\nSo if you must falter, be wise (If you must falter, be wise)\n\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light (Ah, yeah, disturbia)\nDisturbia, am I scarin' you tonight? (Ah, yeah, disturbia)\nDisturbia, ain't used to what you like (Disturbia, ah)\nDisturbia, disturbia (Oh woah)\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum (Bum-ba-de-da-da)\nBum bum be-dum, bum bum be-dum bum (Bum-ba-de-da-da)\nBum bum be-dum, bum bum be-dum bum (Oh)\nBum bum be-dum, bum bum be-dum bum (Oh)", 'annotations': {'description': '&lt;p&gt;“Disturbia” was written by Rihanna’s then-boyfriend and fellow recording artist, &lt;a href="https://genius.com/artists/Chris-brown" rel="noopener" data-api_path="/artists/438"&gt;Chris Brown&lt;/a&gt; (alongside his team, the Graffiti Artizts), and was originally intended for his re-release of 2007’s &lt;a href="https://genius.com/albums/Chris-brown/Exclusive" rel="noopener" data-api_path="/albums/1550"&gt;&lt;em&gt;Exclusive&lt;/em&gt;&lt;/a&gt;. His vocals also can be heard in the background of the song.&lt;/p&gt;\n\n&lt;p&gt;Although he still earns royalties for the highly successful record, he apparently &lt;a href="https://genius.com/387569/Chris-brown-famous-girl/I-was-wrong-for-writing-disturbia" rel="noopener" data-api_path="/referents/387569"&gt;regrets writing it&lt;/a&gt; for her, for reasons he has yet to reveal.&lt;/p&gt;\n\n&lt;p&gt;In &lt;a href="http://usatoday30.usatoday.com/life/music/news/2008-08-14-chris-brown_N.htm" rel="noopener nofollow"&gt;an interview with &lt;em&gt;USA Today&lt;/em&gt;&lt;/a&gt;, Chris spoke on giving the song to Rihanna:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s fun being creative and even if you have a concept in your head to write about, you can write it and give it and give it to someone else because it might not personally fit you, but it might be an idea you have.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}], 'writers': [{'name': 'Rob Allen', 'url': 'https://genius.com/artists/Rob-allen'}, {'name': 'Andre Merritt', 'url': 'https://genius.com/artists/Andre-merritt'}, {'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/More_Than_a_Feeling', 'track_name': 'More Than a Feeling', 'artist': 'http://dbpedia.org/resource/Boston_(band)', 'artist_name': 'Boston', 'wiki': 'http://en.wikipedia.org/wiki/More_Than_a_Feeling', 'hometown': 'http://dbpedia.org/resource/Boston', 'abstract': '"More Than a Feeling" is a song by the American rock band Boston. Written by Tom Scholz, it was released as the lead single from their eponymous debut album on Epic Records in September 1976, with "Smokin\'" on the b-side. The single peaked at number five on the Billboard Hot 100. The track is now a staple of classic rock, and in 2008, it was named the 39th best hard rock song of all time by VH1. It was included in the Rock and Roll Hall of Fame\'s list of the 500 Songs That Shaped Rock and Roll and is ranked No. 212 on Rolling Stone\'s 500 Greatest Songs of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/What's_This_Life_For", 'track_name': "What's This Life For", 'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': "http://en.wikipedia.org/wiki/What's_This_Life_For", 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'abstract': '"What\'s This Life For" is a song by American rock band Creed. It is the third single and ninth track off their 1997 debut album, My Own Prison. The song reached number one on the Billboard Hot Mainstream Rock Tracks chart in the U.S., becoming their first number one hit on this chart. It remained on top for six weeks.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Beverly_Hills_(song)', 'track_name': 'Beverly Hills', 'artist': 'http://dbpedia.org/resource/Weezer', 'artist_name': 'Weezer', 'wiki': 'http://en.wikipedia.org/wiki/Beverly_Hills_(song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Beverly Hills" is a song by American rock band Weezer. It is the first single from the band\'s fifth album, Make Believe. "Beverly Hills" was released to US radio on March 28, 2005. The song features Stephanie Eitel of Agent Sparks on the chorus on backup vocals, performing the "gimme, gimme" hook.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Say_It_Right', 'track_name': 'Say It Right', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Say_It_Right', 'abstract': '"Say It Right" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006). Written by Furtado, Tim "Timbaland" Mosley and Nate "Danja" Hills, Furtado credited the Eurythmics song "Here Comes the Rain Again" as her inspiration. The song was released as the album\'s third single in North America and Australia and as the fourth single in certain European and Asian countries. It was released digitally in the United Kingdom in March 2007. It was the album\'s fifth single in Latin America. "Say It Right" attained worldwide success, topping the charts in more than seven countries, including the United States, France, New Zealand, and many European countries. The accompanying music video for the song, directed by Rankin &amp; Chris, portrays Furtado singing in various costumes and in various locations. The song has been performed on a number of live appearances by Furtado, including her third headlining Get Loose Tour. It received a Grammy Award nomination for Best Female Pop Vocal Performance at the 2008 Grammy Awards but lost to Amy Winehouse\'s "Rehab".'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Why'd_You_Only_Call_Me_When_You're_High%3F", 'track_name': "Why'd You Only Call Me When You're High?", 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': "http://en.wikipedia.org/wiki/Why'd_You_Only_Call_Me_When_You're_High%3F", 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Why\'d You Only Call Me When You\'re High?" is a song by English indie rock band Arctic Monkeys. It was released as the third single from their fifth studio album, AM, on 11 August 2013. It was written by the group\'s lead vocalist Alex Turner while its production was handled by James Ford. Upon its release, many critics compared the composition of "Why\'d You Only Call Me When You\'re High?" with works by different artists. On 30 August 2013, an audio track of the single\'s B-side, "Stop the World I Wanna Get Off with You", was released onto Arctic Monkeys\' official YouTube channel. An accompanying music video was shot for the song by Nabil Elderkin and released in July 2013. The band has performed the song multiple times at different venues and also on their AM Tour. In October 2020 and January 2021, the song went viral on TikTok, also appearing on the Spotify “Viral Hits” playlist.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I'm_a_Believer", 'track_name': "I'm a Believer", 'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': "http://en.wikipedia.org/wiki/I'm_a_Believer", 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'abstract': '"I\'m a Believer" is a song written by Neil Diamond and recorded by the Monkees in 1966 with the lead vocals by Micky Dolenz. The single, produced by Jeff Barry, hit the number-one spot on the U.S. Billboard Hot 100 chart for the week ending December 31, 1966, and remained there for seven weeks, becoming the last No. 1 hit of 1966 and the biggest-selling single for all of 1967. Billboard ranked the record as the No. 5 song for 1967. Because of 1,051,280 advance orders, it went Gold within two days of release. It is one of the fewer than forty all-time singles to have sold more than 10 million physical copies worldwide. While originally published by Screen Gems-Columbia Music (BMI), it is now published by Stonebridge Music/EMI Foray Music (SESAC), with administration passed to Sony/ATV Music Publishing and Universal Music Publishing Group. The song was No. 1 in the UK Singles Chart for four weeks in January and February 1967 and reached the top spot in numerous countries, including Australia, New Zealand, Canada, and Ireland. Billboard described the song as \'an easy-go dance mover\' that \'will hit with immediate impact\'. The song appeared in four consecutive episodes of the television series The Monkees in December 1966.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Throne_(song)', 'track_name': 'Throne', 'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Throne_(song)', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Throne" is a song by British rock band Bring Me the Horizon. Produced by keyboardist Jordan Fish and vocalist Oliver Sykes, it was featured on the band\'s 2015 fifth studio album That\'s the Spirit and released as the third single from the album on 24 July 2015. The single topped the UK Rock &amp; Metal Singles Chart and the US Billboard Mainstream Rock chart, and reached number 51 on the UK Singles Chart and number 12 on the Billboard Hot Rock Songs chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Breathe_(The_Prodigy_song)', 'track_name': 'Breathe', 'artist': 'http://dbpedia.org/resource/The_Prodigy', 'artist_name': 'The Prodigy', 'wiki': 'http://en.wikipedia.org/wiki/Breathe_(The_Prodigy_song)', 'hometown': 'http://dbpedia.org/resource/Braintree,_Essex', 'abstract': '"Breathe" is a song by English band the Prodigy, released in November 1996 as the second single from the album The Fat of the Land. It became the group\'s second consecutive number-one in the United Kingdom and also topped the charts in the Czech Republic, Denmark, Finland, Hungary, Ireland, Norway, and Sweden. The song features a drum break from the song "Johnny the Fox Meets Jimmy the Weed" of the group Thin Lizzy. The whiplashing sword sound effect is a sample of the song "Da Mystery of Chessboxin", by Wu-Tang Clan. As in "Firestarter", Jim Davies played the guitar in the song. In 2003, Q Magazine ranked "Breathe" at number 321 in their list of the "1001 Best Songs Ever".'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Boys_Don't_Cry_(The_Cure_song)", 'track_name': "Boys Don't Cry", 'artist': 'http://dbpedia.org/resource/The_Cure', 'artist_name': 'The Cure', 'wiki': "http://en.wikipedia.org/wiki/Boys_Don't_Cry_(The_Cure_song)", 'hometown': 'http://dbpedia.org/resource/Crawley', 'abstract': '"Boys Don\'t Cry" is a song by English rock band The Cure. It was released in the UK as a stand-alone single in June 1979, and was included as the title track on Boys Don\'t Cry, the American equivalent to Three Imaginary Boys.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Words_as_Weapons_(Seether_song)', 'track_name': 'Words as Weapons', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Words_as_Weapons_(Seether_song)', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': '"Words as Weapons" is a song by South African rock band Seether. It was released on 1 May 2014, as the lead single from their sixth studio album Isolate and Medicate.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Unskinny_Bop', 'track_name': 'Unskinny Bop', 'artist': 'http://dbpedia.org/resource/Poison_(American_band)', 'artist_name': 'Poison', 'wiki': 'http://en.wikipedia.org/wiki/Unskinny_Bop', 'hometown': 'http://dbpedia.org/resource/Mechanicsburg,_Pennsylvania', 'abstract': '"Unskinny Bop" is a song by American glam metal band Poison, which was released as the first single from their 1990 Flesh &amp; Blood album. The song peaked at number 3 on the US Billboard Hot 100, number 5 on the Mainstream rock charts, number 15 in the UK and #7 on the Australian charts. This made it the band\'s second highest success, after "Every Rose Has Its Thorn."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Special_(song)', 'track_name': 'Special', 'artist': 'http://dbpedia.org/resource/Garbage_(band)', 'artist_name': 'Garbage', 'wiki': 'http://en.wikipedia.org/wiki/Special_(song)', 'hometown': 'http://dbpedia.org/resource/Madison,_Wisconsin', 'abstract': '"Special" is song by American rock band Garbage from their second studio album, Version 2.0 (1998). It was released as the album\'s third single. The track contains a vocal interpolation of a lyric taken from "Talk of the Town" by the Pretenders. Commercially, "Special" reached number 15 in the United Kingdom, number 52 on the US Billboard Hot 100, and number 54 in Australia. The song received nominations for Best Rock Song and Best Rock Performance by a Duo or Group at the 2000 Grammy Awards, and winning a Wisconsin Area Music Industry award for Song of the Year and a Citation of Achievement from the BMI Pop Awards. The sci-fi-inspired music video for "Special" also received nominations from music industry award panels, winning a D&amp;AD Award, a MTV Video Music Award, and a VH1 Visionary Video award. In 2007, "Special" was remastered and included on Garbage\'s greatest hits album Absolute Garbage.'}</t>
   </si>
   <si>
     <t>{'track': 'http://dbpedia.org/resource/Would%3F', 'track_name': 'Would?', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Would%3F', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': '"Would?" is a song by Alice in Chains, written by guitarist and vocalist Jerry Cantrell as a tribute to his friend Andrew Wood, lead vocalist of Mother Love Bone, who died in 1990. Cantrell sings the verses of the song, while Layne Staley sings the chorus. The song first appeared on the soundtrack to the 1992 film Singles—where the members of Alice in Chains make a cameo appearance—and later appeared on the band\'s second studio album Dirt, also released in 1992. "Would?" was released as a single and peaked at No. 31 on Billboard\'s Mainstream Rock Tracks chart in 1992, at No. 19 in 1996, and in 2019 the song peaked at No. 15 on the Hot Rock Songs chart after it was featured in the trailer for the season 2 of the Netflix show The Punisher. The song was included on the compilation albums Nothing Safe: Best of the Box (1999), Music Bank (1999), Greatest Hits (2001), and The Essential Alice in Chains (2006). An acoustic version performed on Alice in Chains\' MTV Unplugged in 1996 was released in a live album and DVD. In 2009, "Would?" was named the 88th Best Hard Rock Song of All Time by VH1.'}</t>
   </si>
   <si>
-    <t>{'track': 'http://dbpedia.org/resource/Roots_Bloody_Roots', 'track_name': 'Roots Bloody Roots', 'artist': 'http://dbpedia.org/resource/Sepultura', 'artist_name': 'Sepultura', 'wiki': 'http://en.wikipedia.org/wiki/Roots_Bloody_Roots', 'hometown': 'http://dbpedia.org/resource/Minas_Gerais', 'abstract': '"Roots Bloody Roots" is a song by Brazilian metal band Sepultura. It was released in February 1996 as the lead single from their sixth album Roots. The song is the band\'s best known and remains a concert staple to this day, usually being performed on encores. A music video was filmed for the single which features the band performing in a catacomb as well as on the streets with a tribe of percussionists. This video can be found on the VHS We Are What We Are, which was later released on DVD as part of Chaos DVD. The song also appears in live form on the band\'s live releases Under a Pale Grey Sky and Live in Sao Paulo. Another live version appears on the limited edition digipak version of the band\'s 2000 album Nation. Former Sepultura frontman Max Cavalera has also played the song live numerous times with his other bands Soulfly and Cavalera Conspiracy. Recordings of their version can be found on the limited edition versions of the albums Soulfly and Prophecy and as iTunes bonus track on Conquer, as well as on the DVD The Song Remains Insane, plus on the bonus DVDs of Omen and Archangel.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Down_with_the_Sickness', 'track_name': 'Down with the Sickness', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Down_with_the_Sickness', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Down with the Sickness" is a song by American heavy metal band Disturbed. It was recorded in 1999 and released as the second single from the band\'s debut studio album, The Sickness. "Down with the Sickness" is one of Disturbed\'s best-known songs and is a concert staple, usually played as the last song. This was Disturbed\'s first single to be certified platinum in the United States by the Recording Industry Association of America.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/1000hp', 'track_name': '1000hp', 'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/1000hp', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'abstract': '"1000hp" ("1000 Horse Power") is the lead single and title track from Godsmack\'s studio album of the same name. It was released on June 9, 2014, and was made available for digital download on Amazon and iTunes on June 10. The single reached number one on the Billboard Hot Mainstream Rock Tracks, making it the band\'s seventh number one single on the chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Overkill_(Motörhead_song)', 'track_name': 'Overkill', 'artist': 'http://dbpedia.org/resource/Motörhead', 'artist_name': 'Motörhead', 'wiki': 'http://en.wikipedia.org/wiki/Overkill_(Motörhead_song)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Overkill" is a song by English rock band Motörhead. It was released in 7" and 12" vinyl pressings in 1979. It is backed with B-side "Too Late Too Late" which appears on the CD re-issues of the Overkill album. Early copies came with an "Overkill" badge. The single reached number 39 on the UK Singles Chart. On 9 March 1979, the band played this song on the BBC TV show Top of the Pops to support the release of the single. The song was a live favourite and was frequently featured at Motörhead concerts, often in an extended version. The artwork on the sleeve was created by Joe Petagno, based on his design for the album\'s cover. The song is featured as a track in the video game SSX on Tour, and was re-recorded by Motörhead to be a playable track in the rhythm game Guitar Hero World Tour. The track is notable for Phil "Philthy Animal" Taylor\'s use of two bass drums. "Overkill" was used as the closing song for Motörhead\'s final tour, making it the last song the band ever played live. On 13 April 2019, Motörhead re-released the original single edit of Overkill along with "Bomber" on picture disc as a celebration of the album\'s 40th anniversaries on Record Store Day. The single edit was made available digitally on 8 March 2019.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cirice', 'track_name': 'Cirice', 'artist': 'http://dbpedia.org/resource/Ghost_(Swedish_band)', 'artist_name': 'Ghost', 'wiki': 'http://en.wikipedia.org/wiki/Cirice', 'hometown': 'http://dbpedia.org/resource/Linköping', 'abstract': '"Cirice" (/səˈriːs/ sə-REES, Old English: [ˈtʃiritʃe]; \'church\') is a song by the Swedish rock band Ghost. The track was released as the lead single from the group\'s third studio album Meliora. The song peaked at number 4 on the Mainstream Rock Songs chart, and won the Grammy Award for Best Metal Performance in 2016. "Cirice" is featured in the video game Rock Band VR\'s setlist.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Du_hast', 'track_name': 'Du hast', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Du_hast', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': '"Du hast" (German: You Have) is a song by German Neue Deutsche Härte band Rammstein. It was released as the second single from their second album Sehnsucht (1997). It has appeared on numerous soundtracks for films, most notably The Matrix: Music from the Motion Picture, How High, and the home video CKY2K. It is featured in the music video games Guitar Hero 5 and Rock Band 3. The song\'s title is a play on the homophones du hasst ("you hate") and du hast ("you have").'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Dig_(Mudvayne_song)', 'track_name': 'Dig', 'artist': 'http://dbpedia.org/resource/Mudvayne', 'artist_name': 'Mudvayne', 'wiki': 'http://en.wikipedia.org/wiki/Dig_(Mudvayne_song)', 'hometown': 'http://dbpedia.org/resource/Peoria,_Illinois', 'abstract': '"Dig" is the debut single by the American heavy metal band Mudvayne from the band\'s debut studio album L.D. 50. A music video was released for the song on April 10, 2000 and it later won the first ever MTV2 Award. It is also one of the band\'s most well-known songs, being certified gold in the United States. A live version of the song taken from the Tattoo the Earth tour appears on the live album Tattoo the Earth: The First Crusade. The song also appeared on the compilation album WWF Tough Enough.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/My_Own_Summer_(Shove_It)', 'track_name': 'My Own Summer (Shove It)', 'artist': 'http://dbpedia.org/resource/Deftones', 'artist_name': 'Deftones', 'wiki': 'http://en.wikipedia.org/wiki/My_Own_Summer_(Shove_It)', 'hometown': 'http://dbpedia.org/resource/Sacramento,_California', 'abstract': '"My Own Summer (Shove It)" is a single by American alternative metal band Deftones, their first to be taken from the album Around the Fur. It was released in 1997 by Maverick Records. It was Deftones\' first charting single, reaching number 29 in the UK Singles Chart. The song has been described as alternative metal and nu metal.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Beautiful_People_(song)', 'track_name': 'The Beautiful People', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/The_Beautiful_People_(song)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': '"The Beautiful People" is a song by American rock band Marilyn Manson. It was released as the lead single from the band\'s second studio album, Antichrist Superstar, in September 1996. Classified as alternative metal, the song was written by frontman Marilyn Manson and Twiggy Ramirez, and was produced by Trent Reznor, Dave Ogilvie and Manson. The title of the song comes from Marylin Bender\'s 1967 book The Beautiful People, which exposed the world of scandal within the "jet-set" lifestyle of the 1960s, and the culture of beauty as it pertained to fashion and politics. In the context of the album\'s concept, the song refers to the privileged class of elites whom the titular character, a populist demagogue called Antichrist Superstar, fulminate against. Lyrically, it discusses what Manson refers to as "the culture of beauty". The single peaked at number 26 on the US Modern Rock Tracks chart and remains known as one of Marilyn Manson\'s most famous and most successful original songs; in a 2004 review, Richard Banks of the BBC called the track "still the most impressive" in the band\'s catalogue, and in 2006 it was ranked at number 28 on VH1\'s 40 Greatest Metal Songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sonne_(Rammstein_song)', 'track_name': 'Sonne', 'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Sonne_(Rammstein_song)', 'hometown': 'http://dbpedia.org/resource/Berlin', 'abstract': '"Sonne" (German for "Sun") is a song by German Neue Deutsche Härte band Rammstein. It was released in February 2001, as the first single from their album Mutter. According to Till Lindemann, the song was originally written as an entrance song for the boxer Vitali Klitschko, whose surname was also the working title of the song. The female vocal comes from Spectrasonic\'s "symphony of voices" music library.The music video for the band\'s 2019 single "Deutschland" features a piano-based version of "Sonne" in the ending credits.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/My_Curse_(song)', 'track_name': 'My Curse', 'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/My_Curse_(song)', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'abstract': '"My Curse" is a song by American metalcore band Killswitch Engage, the song is released as the first single from their fourth album As Daylight Dies. It reached #21 on the Mainstream Rock Tracks chart, surpassing the band\'s last breakthrough single "The End of Heartache". The music video was directed by Lex Halaby, who has also directed videos for Hoobastank and Mudvayne. It is also one of the band\'s most well known songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Strife_(song)', 'track_name': 'Strife', 'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Strife_(song)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'abstract': '"Strife" is a song by American heavy metal band Trivium. It was released as the second single from the band\'s sixth studio album Vengeance Falls.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Psychosocial_(song)', 'track_name': 'Psychosocial', 'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Psychosocial_(song)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'abstract': '"Psychosocial" is a song by American heavy metal band Slipknot. It was released as the second single and fourth track from their fourth studio album, All Hope Is Gone. The song entered airplay on June 26, 2008 and was originally planned for release as a digital single on July 1 but was delayed and released on July 8. Slipknot performed "Psychosocial" live for the first time on July 9, 2008, at the White River Amphitheatre in Auburn, Washington. In 2008, the song was featured on the soundtrack to Marvel\'s Punisher: War Zone. The song was also nominated for \'Best Metal Performance\' for the 51st Grammy Awards, but lost to Metallica\'s "My Apocalypse", and was nominated for the Kerrang! Award for Best Single. "Psychosocial", along with two other Slipknot songs, "Duality" and "Sulfur," was released as downloadable content for Rock Band and Rock Band 2 on December 8, 2009. It is also featured as a playable track in Guitar Hero: Warriors of Rock.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bodies_(Drowning_Pool_song)', 'track_name': 'Bodies', 'artist': 'http://dbpedia.org/resource/Drowning_Pool', 'artist_name': 'Drowning Pool', 'wiki': 'http://en.wikipedia.org/wiki/Bodies_(Drowning_Pool_song)', 'hometown': 'http://dbpedia.org/resource/Dallas', 'abstract': '"Bodies" is a song by the American rock band Drowning Pool and also is the lead single from their debut album Sinner. Released in May 2001, "Bodies" is Drowning Pool\'s signature song and has been featured in various films, TV programs, and advertisements since its release. It was also the theme song for the 2001 WWF SummerSlam pay-per-view event, as well as that of the ECW brand in 2006 to early 2008. During 2001, the song became popular, but the song was taken off radio stations after the September 11 attacks because it was considered inappropriate in the wake of the terrorist attack. An early version of "Bodies" appeared in their EP Pieces of Nothing, omitting the lyrics in the bridge and featuring a significantly greater amount of screaming.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Stricken_(song)', 'track_name': 'Stricken', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Stricken_(song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Stricken" is a song by the American heavy metal band Disturbed. The song was released on July 25, 2005 as the second single from their third studio album Ten Thousand Fists. "Stricken" was certified gold in the United States by the Recording Industry Association of America on August 18, 2008 for selling 500,000 copies. It is one of the first of Disturbed\'s songs to include a guitar solo. The song is featured in Guitar Hero III and Guitar Hero Live in addition to the Disturbed track pack in Guitar Hero 5. The song is also a part of the Rock Band downloadable content catalog. The song was also featured in the Project Gotham Racing 4. The musical video for the song was filmed in an abandoned hospital in which some scenes from the 1984 horror film A Nightmare on Elm Street were filmed. "Stricken" was used as official theme for WWE\'s PPV New Year\'s Revolution, in 2006.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Dragula_(song)', 'track_name': 'Dragula', 'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Dragula_(song)', 'abstract': '"Dragula" is a song and debut single co-written and recorded by American rock musician Rob Zombie. It was released in August 1998 as the lead single from his solo debut Hellbilly Deluxe. Since its release it has become Zombie\'s most recognizable song as a solo artist. It is also his best-selling song, and had sold over 717,000 copies in the U.S. by 2010. The song is based on the drag racer "DRAG-U-LA" from the sitcom The Munsters. The audio clip "superstition, fear and jealousy" heard at the beginning of the song is a sample of dialogue from the 1960 horror film The City of the Dead (also known as Horror Hotel), and is spoken by Christopher Lee. The song also appears on Rob Zombie\'s Past, Present &amp; Future, the greatest hits album The Best of Rob Zombie. The original single included a big beat remix of the song by Charlie Clouser, entitled the "Hot Rod Herman" remix (in reference to the Munsters episode), which is contained on American Made Music to Strip By (under the name Si Non Oscillas, Noli Tintinnare Mix). Additionally, it appeared on the soundtracks for video games, films and TV shows.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/You_Want_a_Battle%3F_(Here's_a_War)", 'track_name': "You Want a Battle? (Here's a War)", 'artist': 'http://dbpedia.org/resource/Bullet_for_My_Valentine', 'artist_name': 'Bullet for My Valentine', 'wiki': "http://en.wikipedia.org/wiki/You_Want_a_Battle%3F_(Here's_a_War)", 'hometown': 'http://dbpedia.org/resource/Bridgend', 'abstract': '"You Want a Battle? (Here\'s a War)" is a song by Welsh heavy metal band Bullet for My Valentine. It was released on 29 June 2015 as the second single from the album Venom.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Blind_(Korn_song)', 'track_name': 'Blind', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Blind_(Korn_song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Blind" is a song by American nu metal band Korn for their self-titled debut album. It was released as the album\'s first single in August 1994.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Walk_(Pantera_song)', 'track_name': 'Walk', 'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Walk_(Pantera_song)', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'abstract': '"Walk" is a song by American heavy metal band Pantera from their sixth album Vulgar Display of Power. A live performance of "Walk" is included on Official Live: 101 Proof, and the studio version is also on the band\'s greatest hits album, The Best of Pantera: Far Beyond the Great Southern Cowboys\' Vulgar Hits!.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/B.Y.O.B._(song)', 'track_name': 'B.Y.O.B.', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/B.Y.O.B._(song)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'abstract': '"B.Y.O.B." ("Bring Your Own Bombs") is a song by Armenian-American alternative metal band System of a Down. It was released in March 2005 as the lead single from their fourth album Mezmerize. Like their earlier song "Boom!", it was written in protest against the Iraq War. The song reached number 27 on the US Billboard Hot 100, the band\'s highest peak to date on the chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Falling_Away_from_Me', 'track_name': 'Falling Away from Me', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Falling_Away_from_Me', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Falling Away from Me" is a song by American band Korn. It was released as the first single from their fourth album Issues, debuting in an episode of Comedy Central\'s animated series South Park, entitled "Korn\'s Groovy Pirate Ghost Mystery". The song went on to become one of Korn\'s most popular singles, with an anti-child abuse themed video topping MTV\'s Total Request Live for ten days.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Twisted_Transistor', 'track_name': 'Twisted Transistor', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Twisted_Transistor', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Twisted Transistor" is a song written and recorded by American nu metal band Korn for their seventh studio album, See You on the Other Side. It was released as the album\'s first single in September 2005.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Politics_(song)', 'track_name': 'Politics', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Politics_(song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Politics" is a song by the American nu metal band Korn and The Matrix for Korn\'s seventh studio album, See You on the Other Side. It was released as the album\'s third single in August 2006 instead of the previous choice, "Love Song", and is the last Korn single to feature David Silveria on drums.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Right_Now_(Korn_song)', 'track_name': 'Right Now', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Right_Now_(Korn_song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Right Now" is a song written and recorded by American nu metal band Korn for their sixth studio album, Take a Look in the Mirror. It was released as the album\'s official first single in October 2003. It is usually used as an opening to Korn\'s concerts.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Did_My_Time', 'track_name': 'Did My Time', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Did_My_Time', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Did My Time" is a song written and recorded by American nu metal band Korn for the film, Lara Croft Tomb Raider: The Cradle of Life. It was released as a single in July 2003 in support of the film, and was later featured on the band\'s sixth studio album, Take a Look in the Mirror.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Y'All_Want_a_Single", 'track_name': "Y'All Want a Single", 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': "http://en.wikipedia.org/wiki/Y'All_Want_a_Single", 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Y\'All Want a Single" is a song written and recorded by American nu metal band Korn for their sixth studio album, Take a Look in the Mirror. It was released as the album\'s third single in March 2004, chosen by fans through a poll on the band\'s official forum.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Freak_on_a_Leash', 'track_name': 'Freak on a Leash', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Freak_on_a_Leash', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Freak on a Leash" is a song by the American nu metal band Korn, featured on the group\'s 1998 studio album, Follow the Leader. Prior to the album\'s release, Korn had an instrumental section of the song, described as a "noisy guitar break." The section was taken out of the song after they learned that radio stations disliked it. After Follow the Leader\'s release, the song was released as a single on February 25, 1999, and since then, it has been re-released over ten times. The song uses dissonance, distortion, various guitar effects, and a heavy, aggressive style. The "Freak on a Leash" music video was released on February 5, 1999. Directed by Todd McFarlane in Los Angeles, California, the video explores both animations and live performances mixed together. As a result, the band released a music video that won three awards and was retired from Total Request Live. The single peaked at number six on the Alternative Songs chart, 10 on the Mainstream Rock Songs chart, and 24 on the UK Singles Chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Got_the_Life', 'track_name': 'Got the Life', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Got_the_Life', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Got the Life" is a song written and recorded by American band Korn for their third studio album, Follow the Leader which was released as the album\'s second single on November 23, 1998. It was recorded in April 1998 at NRG Recording Studios. The band decided they would release the song as a promotional single after each member found that there was something "special" about the song. The single had "phenomenal success", and its music video was requested more than any other video on MTV\'s TRL, making it the first officially "retired" music video. "Got the Life" did not receive much attention in the music press; however, the song was rewarded a gold certification in Australia by the Australian Recording Industry Association. It peaked at number one on the Canadian RPM Rock/Alternative Chart chart, as well as number fifteen on the US Billboard Mainstream Rock Tracks chart and number seventeen on the US Billboard Modern Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Get_Up!_(Korn_song)', 'track_name': 'Get Up!', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Get_Up!_(Korn_song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Get Up!" is a song written and recorded by Korn, featuring the production of American producer Skrillex that appears on their tenth studio album, The Path of Totality. It was released as the album\'s lead single on May 6, 2011. Since its release it has sold over 200,000 downloads in the United States. It was debuted live at Coachella with Skrillex. The song is also included on Roadrunner Record\'s XXX: Three Decades of Roadrunner box set on disc four.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Warrior_(Disturbed_song)', 'track_name': 'Warrior', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Warrior_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Warrior" is a song by American heavy metal band Disturbed. It was released on 3 March 2011, as the fourth single from their album Asylum.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Animal_(Disturbed_song)', 'track_name': 'The Animal', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/The_Animal_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"The Animal" is a song by American heavy metal band Disturbed. It was released on October 4, 2010, as the third single from their studio album, Asylum. According to vocalist David Draiman, "The Animal" was heavily inspired by the movie The Wolfman (2010).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Indestructible_(Disturbed_song)', 'track_name': 'Indestructible', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Indestructible_(Disturbed_song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Indestructible" is a song by American heavy metal band Disturbed, released as the third single from their studio album of the same name. The single peaked at No. 2 on the Hot Mainstream Rock Tracks chart and No. 10 on the Hot Modern Rock Tracks chart. The music video for the song appeared on Disturbed\'s website on August 20, 2008, and the single was released on September 29, 2008. "Indestructible" is meant to encourage troops going into battle, and boost their morale. It is also meant to represent Disturbed\'s success in the music industry. It is one of Disturbed\'s best known songs. The song appeared in the video game Midnight Club: Los Angeles.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Inside_the_Fire_(song)', 'track_name': 'Inside the Fire', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Inside_the_Fire_(song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Inside the Fire" (alternatively known as "Devon") is a song by American heavy metal band Disturbed. The song was released as the lead single from the band\'s fourth studio album, Indestructible (2008), on March 25, 2008 as a digital download. The song features suicidal themes, and, in May 2008, a music video was unveiled for the song. However, due to the involvement of suicidal themes in the uncensored music video, an edited version of the song and music video was released, in which these themes are absent. On March 24, 2008, "Inside the Fire" debuted on more than sixty radio stations, quickly showing up on many significant music charts and reaching number 73 on the Billboard Hot 100 chart, and number one on the Hot Mainstream Rock Chart. The single became nominated for a Grammy Award in the "Best Hard Rock Performance" category. The song was featured in Madden NFL 09.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Ten_Thousand_Fists_(song)', 'track_name': 'Ten Thousand Fists', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Ten_Thousand_Fists_(song)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Ten Thousand Fists" is a song by American heavy metal band Disturbed. It was released on December 28, 2006 as the fifth single from their studio album, Ten Thousand Fists. The track is used in the video game Madden NFL 06.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Land_of_Confusion', 'track_name': 'Land of Confusion', 'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Land_of_Confusion', 'hometown': 'http://dbpedia.org/resource/Chicago', 'abstract': '"Land of Confusion" is a song by the English rock band Genesis from their 1986 album Invisible Touch. The song was the third track on the album and was the third track released as a single, reaching No. 4 in the U.S. and No. 14 in the UK in late 1986. It also reached No. 8 in the Netherlands. The music was written by the band, while the lyrics were written by guitarist Mike Rutherford. The song\'s video featured puppets from the 1980s UK sketch show Spitting Image.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Pain_(Three_Days_Grace_song)', 'track_name': 'Pain', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Pain_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Pain" is the second single from rock band Three Days Grace\'s 2006 album, One-X.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Animal_I_Have_Become', 'track_name': 'Animal I Have Become', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Animal_I_Have_Become', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Animal I Have Become" is the first single from Three Days Grace\'s second studio album, One-X. Unlike most singles, it was not released in stores, and only had one track. The song spent seven weeks at No. 1 on the US Mainstream Rock Tracks chart and two weeks at No. 1 on the US Modern Rock Tracks chart. Adam Gontier has stated that while he was addicted to the painkiller OxyContin, he was abusive and angry and had no idea who he was anymore. He wrote "Animal I Have Become" while in rehab for his addiction. The song alongside "Riot" are used in the video game, WWE SmackDown vs. Raw 2007. It is the band\'s first single with their fourth member Barry Stock.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Never_Too_Late_(Three_Days_Grace_song)', 'track_name': 'Never Too Late', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Never_Too_Late_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Never Too Late" is a song by the band Three Days Grace. It is the third single from the band\'s second album One-X.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Riot_(Three_Days_Grace_song)', 'track_name': 'Riot', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Riot_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Riot" is the fourth and final single from the album One-X by Three Days Grace. The song is about protesting against the negative things in life and was inspired by vocalist Adam Gontier\'s anger when he was in rehab for OxyContin addiction. The song was also featured in the video game WWE SmackDown vs. Raw 2007 as an edited version. It is one of only a few songs by the band to feature profanity. During radio play, the line "If you feel so filthy, so dirty, so fucked up", "fucked" is replaced with "messed", and in the WWE SmackDown vs. Raw 2007 video game, the word "fuck" in that line is backmasked so that it sounds somewhat like "if you feel so filthy, so dirty, so huffed up". It charted at number 65 in Canada, and number 12 and 21 on the US Mainstream Rock and Modern Rock charts respectively. To date, this is the band\'s only single to miss the top ten on the former chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Break_(Three_Days_Grace_song)', 'track_name': 'Break', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Break_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"Break" is the lead single from Three Days Grace\'s third album, Life Starts Now. It was released three weeks before the release of Life Starts Now.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Good_Life_(Three_Days_Grace_song)', 'track_name': 'The Good Life', 'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/The_Good_Life_(Three_Days_Grace_song)', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'abstract': '"The Good Life" is a song and the second single from Three Days Grace\'s 2009 album Life Starts Now. It was released for radio airplay on February 9, 2010. It charted at number 85 on the Canadian Hot 100 before becoming a single. The song also was featured on ESPN\'s Winter X Games XIV, and was used during the Professional Motocross Freestyle show Nuclear Cowboyz. "The Good Life" was the featured song for the 2010 ACC Men\'s Basketball Tournament, and also during the 2010 NFL Draft. The song was also performed during a concert of Three Days Grace along series of concerts during the 2010 Winter Olympics in Vancouver on February 15, 2010. The song hit number one on the Mainstream Rock Tracks and Rock Songs chart and number four on the Alternative Songs chart matching "Break". This is the most recent Three Days Grace song to hit the top 10 on the Alternative Songs chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Polyamorous_(song)', 'track_name': 'Polyamorous', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Polyamorous_(song)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"Polyamorous" is a song by American rock band Breaking Benjamin. It was released in July 2002 as the lead single from their debut album Saturate. The song reached number 31 on the US Billboard Alternative Songs chart and number 19 on the Mainstream Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Diary_of_Jane', 'track_name': 'The Diary of Jane', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/The_Diary_of_Jane', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"The Diary of Jane" is a song by American rock band Breaking Benjamin. It was released in June 2006 as the lead single from their third album, Phobia. The song, one of their most notable and successful, is the fastest-added single ever in the history of Hollywood Records. It gained a massive amount of radio play throughout the United States and reached number one under three rock charts. The single was certified 4× Platinum in the United States on February 3, 2021 and Silver in the United Kingdom on July 17, 2020, making it their most successful single in terms of sales internationally.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Breath_(Breaking_Benjamin_song)', 'track_name': 'Breath', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Breath_(Breaking_Benjamin_song)', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"Breath" is a song by American rock band Breaking Benjamin. It was released in January 2007 as the second single from their third album, Phobia. It was the band\'s fourth charted song on the US Hot 100 overall, and the second from Phobia. Although "Breath" failed to capture the pop success of "The Diary of Jane" at No. 50 where "Breath" hit No. 84 on the Billboard Hot 100, it was more successful on the rock charts where it hit No. 1 on the US Mainstream Rock Tracks chart, making it Breaking Benjamin\'s first number-one hit, staying there for seven weeks where "The Diary of Jane" hit No. 2 and it also hit No. 3 on the US Modern Rock Tracks chart, tying with "So Cold" as their highest-charting single on the chart where "The Diary of Jane" hit No. 4. The single was certified platinum by the RIAA in 2015.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Will_Not_Bow', 'track_name': 'I Will Not Bow', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/I_Will_Not_Bow', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"I Will Not Bow" is a song by American rock band Breaking Benjamin. It was released in August 2009 as the lead single from their fourth album Dear Agony. It was featured in the ending credits of the Bruce Willis film Surrogates. The song was not written specifically for the film, but according to drummer Chad Szeliga, "Ben sent a few songs to our record label, Hollywood Records," which is owned by Disney, who then decided they "wanted a Breaking Benjamin song for this movie." The song was also being used heavily on MLB Network as lead-in and lead-out music during the 2010 MLB postseason.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Blow_Me_Away', 'track_name': 'Blow Me Away', 'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Blow_Me_Away', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'abstract': '"Blow Me Away" is a song by American rock band Breaking Benjamin. The song is a non-album single because it was written in 2004 specifically for the Halo 2 Original Soundtrack. It was later released in 2010 as a digital single. In 2011, a remixed version of the song was released on Shallow Bay: The Best of Breaking Benjamin, featuring vocals of Sydnee Duran from Valora. Written by vocalist and guitarist Benjamin Burnley and then-drummer Jeremy Hummel, the song is described as featuring "hard rock roots, ... a vocal-centric aesthetic, heavy electric rhythm guitars", and "an aggressive male vocalist".'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Bleeding_(song)', 'track_name': 'The Bleeding', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/The_Bleeding_(song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"The Bleeding" is a song by American heavy metal band Five Finger Death Punch. It is the lead single from the band\'s first album The Way of the Fist (2007), released through Firm Music.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Never_Enough_(Five_Finger_Death_Punch_song)', 'track_name': 'Never Enough', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Never_Enough_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Never Enough" is a song by American heavy metal band Five Finger Death Punch. It was included as a bonus track on the re-release of their debut album, The Way of the Fist. It was also made available on the band\'s website to anyone who had purchased the a copy of the original release of the album. It was released as the second single from The Way of the Fist on July 15, 2008. The song peaked at number nine on the Billboard Mainstream Rock Tracks chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Under_and_Over_It', 'track_name': 'Under and Over It', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Under_and_Over_It', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Under and Over It" (initialized as "UAOI") is a song by American heavy metal band Five Finger Death Punch. It was released as the first single from their third album American Capitalist, and their tenth single overall. The song was released on July 27, 2011, and from July–November 2011, it was ranked as the number one song on SiriusXM\'s Octane (hard rock) channel\'s weekly countdown. "Under and Over It" reached number 77 on the Billboard Hot 100, and was their only entry on the chart until "Blue on Black" reached number 66.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/The_Pride_(Five_Finger_Death_Punch_song)', 'track_name': 'The Pride', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/The_Pride_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"The Pride" is a song by American heavy metal band Five Finger Death Punch. It is the third track from their third album American Capitalist, the fifth single from the album, and is the fourteenth single overall from the band.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Coming_Down_(Five_Finger_Death_Punch_song)', 'track_name': 'Coming Down', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Coming_Down_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Coming Down" is a song by American heavy metal band Five Finger Death Punch. The song was released as the fourth single from their third album, American Capitalist, and their thirteenth single overall. On the week of September 1, the song ranked first on the Billboard Hot Mainstream Rock Tracks chart (their first-ever number one single) and fourteenth on the Billboard Rock Songs chart. The music video premiered on Vevo on June 12, 2012. The song won a 2012 RadioContraband Rock Radio Award for Song of the Year.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Back_for_More_(Five_Finger_Death_Punch_song)', 'track_name': 'Back for More', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Back_for_More_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Back for More" is a song by American heavy metal band Five Finger Death Punch. It was released as the second single from their third album, American Capitalist. In October 2011, the song ranked third on the Billboard Hard Rock Digital Songs chart and 20th on the Billboard Rock Digital Songs chart. The song is included on the soundtrack for the video game Madden NFL 12.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Lift_Me_Up_(Five_Finger_Death_Punch_song)', 'track_name': 'Lift Me Up', 'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Lift_Me_Up_(Five_Finger_Death_Punch_song)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'abstract': '"Lift Me Up" is the first single from The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1, the fourth studio album from Five Finger Death Punch, and is the fifteenth single overall from the band. The song features Rob Halford, lead vocalist for Judas Priest. Halford joined the band at the Revolver Golden Gods Awards on May 2, 2013 to premiere the tune, with lead singer Ivan Moody referring to himself as being "the guest (vocalist)" on the song. The song was number one in the Internet music app Spotify in its first week of release over pop songs from Mariah Carey, Daft Punk, Fergie, and others. The list represents the most viral tracks on Spotify based on the number of people who shared it divided by the number who listened to it from Monday, May 13, to Sunday, May 19, via Facebook, Tumblr, Twitter and Spotify. In April 2014, the song won a Revolver Golden Gods Award for "Song of the Year."'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Arlington, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Arlington%2C_Texas', 'place': 'http://sws.geonames.org/4671240/', 'postal_code': '76015', 'geo_link': 'http://www.geonames.org/4671240/arlington.html', 'lat': '32.705', 'long': '-97.12277777777778', 'population': '365438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+    <t>{'track': 'http://dbpedia.org/resource/Monsters_(Shinedown_song)', 'track_name': 'Monsters', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Monsters_(Shinedown_song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"Monsters" is a song by American rock band Shinedown. It was their third single off of their sixth studio album Attention Attention. It reached the top of the Billboard Mainstream Rock Songs chart in June 2019. Upon reaching number one on the Mainstream Rock, Shinedown moved into second place for the most Mainstream Rock number ones with fourteen songs. "Monsters" was nominated for iHeartRadio\'s rock song of the year award.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hit_Me_with_Your_Best_Shot', 'track_name': 'Hit Me with Your Best Shot', 'artist': 'http://dbpedia.org/resource/Pat_Benatar', 'artist_name': 'Pat Benatar', 'wiki': 'http://en.wikipedia.org/wiki/Hit_Me_with_Your_Best_Shot', 'abstract': '"Hit Me with Your Best Shot" is a song recorded by American rock singer Pat Benatar and written by Eddie Schwartz. In 1980, it was released as the second single from her second album Crimes of Passion, which became her biggest-selling album. It hit No. 7 in Cash Box, and reached No. 9 on the Billboard Hot 100, becoming her first Top 10 hit in the US. It was particularly popular at album-rock radio stations, peaking at number 1 on the US Tunecaster Rock Tracks chart. It was also a Top 10 hit in Canada, although the only other country in which it charted was Australia where it reached the Top 40. "Hit Me with Your Best Shot" sold well over a million copies in the U.S., achieving a gold certification by the RIAA. The song is one of Benatar\'s most recognizable tracks. Heard at many baseball and soccer games, the song has been featured on many compilation albums, including both multi-artist works as well as those just focusing on Benatar (such as 10 Great Songs and Greatest Hits).'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Livin'_on_the_Edge", 'track_name': "Livin' on the Edge", 'artist': 'http://dbpedia.org/resource/Aerosmith', 'artist_name': 'Aerosmith', 'wiki': "http://en.wikipedia.org/wiki/Livin'_on_the_Edge", 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Livin\' on the Edge" is a song by American hard rock band Aerosmith. The song was written by Steven Tyler, Joe Perry, and Mark Hudson. It was released in 1993 as the first single from the band\'s commercially successful album Get a Grip. The single reached number 18 on the Billboard Hot 100 chart, number three on the Cash Box Top 100, and number one on the Billboard Album Rock Tracks chart, where it remained for nine weeks, making it Aerosmith\'s most successful single on that chart. In the UK, the song peaked at number 19 on the British pop chart in April 1993.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/N_2_Gether_Now', 'track_name': 'N 2 Gether Now', 'artist': 'http://dbpedia.org/resource/Limp_Bizkit', 'artist_name': 'Limp Bizkit', 'wiki': 'http://en.wikipedia.org/wiki/N_2_Gether_Now', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"N 2 Gether Now" is a hip hop song by the American band Limp Bizkit and the rapper Method Man. It was the third single released from their second studio album, Significant Other. The single was released with their last single "Break Stuff". The song does not include the instrumentalist members Sam Rivers and Wes Borland.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I'm_Yours_(Jason_Mraz_song)", 'track_name': "I'm Yours", 'artist': 'http://dbpedia.org/resource/Jason_Mraz', 'artist_name': 'Jason Mraz', 'wiki': "http://en.wikipedia.org/wiki/I'm_Yours_(Jason_Mraz_song)", 'abstract': '"I\'m Yours" is a song by American singer-songwriter Jason Mraz, released in 2008 as the first single from his third studio album We Sing. We Dance. We Steal Things.. The song was originally released on a limited edition EP called Extra Credit as a demo in 2005 to promote his second studio album Mr. A–Z. It was performed in his 2004 and 2005 gigs and already became a crowd favorite before its release. "I\'m Yours" was nominated for Song of the Year and Best Male Pop Vocal Performance at the 51st Grammy Awards. It was also used for the Australian Seven Network\'s promotion of the season premiere of Packed to the Rafters. "I\'m Yours" was immensely successful in the US on the Billboard charts. At 76 weeks on the Hot 100, it held the record for most weeks spent on the chart, breaking the previous record of 69 weeks set by LeAnn Rimes\' song "How Do I Live" in 1998; this record has since been broken by The Weeknd\'s "Blinding Lights", which spent 90 weeks on the chart, Imagine Dragons\' "Radioactive", which spent 87 weeks on the chart, and Awolnation\'s "Sail", which spent 79 weeks on the chart. As of January 2013, it is the tenth best-selling digital song of all time in the US, selling over 6 million downloads, and 12.2 million worldwide. It remains Mraz\'s biggest US hit single to date. It was the only song to crack Billboard\'s top 600 of all time despite never cracking the top 5. Mraz first launched the song from the La Costa Resort and Spa in Carlsbad, California, at Michele Clark\'s Sunset Sessions in 2008. He also sang a version on Sesame Street titled "Outdoors" and released a successful remixed version featuring Lil Wayne and Jah Cure.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sexy_and_I_Know_It', 'track_name': 'Sexy and I Know It', 'artist': 'http://dbpedia.org/resource/LMFAO', 'artist_name': 'LMFAO', 'wiki': 'http://en.wikipedia.org/wiki/Sexy_and_I_Know_It', 'hometown': 'http://dbpedia.org/resource/Pacific_Palisades,_Los_Angeles', 'abstract': '"Sexy and I Know It" is a hit song by American duo LMFAO from their second studio album, Sorry for Party Rocking. It was released as the third single from the album on September 16, 2011. The song was written by Stefan Kendal Gordy, GoonRock, Erin Beck, George M. Robertson and Kenneth Oliver, and it was produced by Party Rock. It went to number one on the Billboard Hot 100 on January 7, 2012, and remained there for two weeks. The song became LMFAO\'s second number one hit on the Billboard Hot 100 in the United States (after "Party Rock Anthem"), making them the first duo to have two successive number-one singles since Outkast\'s "Hey Ya!" (2003) and "The Way You Move" (2004). The song also reached number one in Australia, Canada, Israel and New Zealand, and charted within the top ten in nearly every country in which it charted.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Breaking_the_Law', 'track_name': 'Breaking the Law', 'artist': 'http://dbpedia.org/resource/Judas_Priest', 'artist_name': 'Judas Priest', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_the_Law', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Breaking the Law" is a song by English heavy metal band Judas Priest, originally released on their 1980 album British Steel. The song is one of the band\'s better known singles, and is readily recognized by its opening guitar riff.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Give_In_to_Me', 'track_name': 'Give In to Me', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Give_In_to_Me', 'abstract': '"Give In to Me" is the tenth track on Michael Jackson\'s 1991 studio album, Dangerous. The single peaked at number one in Ireland and in New Zealand for four consecutive weeks, and at number two on the UK Singles Chart. Stylistically, "Give In to Me" is a hard rock ballad that featured Guns N\' Roses guitarist Slash, who also had solos on "D.S.", "Morphine" and "Privacy". Some suggest that the song, also considered a heavy metal ballad, has an aggressive sexual flavor. The single was released in Europe, Australia and New Zealand only. The single release\'s B-sides include the album versions of "Dirty Diana" and "Beat It".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/This_Is_the_Last_Time', 'track_name': 'This Is the Last Time', 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_the_Last_Time', 'abstract': '"This Is the Last Time" is a song performed and composed by British rock band Keane, released on 13 October 2003 as the fourth commercial single from their debut album, Hopes and Fears (2004). It was first released with Fierce Panda Records and later in 2004 as a different version with Island Records. It was released as track two of the international version, but track nine on the British version. The single reached number 18 on the UK chart in November 2004.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Stressed_Out', 'track_name': 'Stressed Out', 'artist': 'http://dbpedia.org/resource/Twenty_One_Pilots', 'artist_name': 'Twenty One Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Stressed_Out', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'abstract': '"Stressed Out" is a song written and recorded by American musical duo Twenty One Pilots from their fourth studio album, Blurryface (2015). The track was produced by Mike Elizondo and recorded in Los Angeles, California and London, England. "Stressed Out" was first released as a promotional single through Fueled by Ramen on April 28, 2015. The song later impacted Contemporary hit radio stations as the album\'s fourth official single on November 10, 2015. Elizondo initially took issue with the nature of the song\'s lyrical content. However, he relaxed after lead vocalist and songwriter Tyler Joseph explained the larger album concept. "Stressed Out" is a midtempo alternative hip hop and rap rock song that contains a throwback to rock music and psychedelic pop with clear pop sensibilities. The track is built from synths and a Caribbean-style keyboard line alongside rapping vocals by Joseph. Lyrically, "Stressed Out" is about the harsh end of adolescence. The song is an ode that harbors a downbeat atmosphere and lyrics speaking on transitioning from adolescence to adulthood and nostalgia for the innocence of childhood. They touch on insecurities and address millennial angst while discussing life challenges. Throughout the song, Joseph personifies the album\'s titular character, "Blurryface." His self-deprecating lyrics express self-doubt and anxiety, stressing over personal issues ranging from his music to the idea of growing older becoming an adult. With the single, Twenty One Pilots became the very first rock act to have a song reach a billion streams on Spotify. Upon its release, "Stressed Out" received favorable reviews from contemporary music critics. The song was a sleeper hit, peaking at number two on the US Billboard Hot 100, giving the group their first top-10 hit in the United States. The song topped the US Billboard Hot Rock Songs for a record 23 weeks. It also peaked at number one on the Billboard airplay charts: Adult Top 40, Rock Airplay, and Mainstream Top 40. "Stressed Out" was certified Diamond by the Recording Industry Association of America (RIAA), for sales of over 10,000,000 copies. The song peaked within the top five of record charts in Russia, Mexico, Australia, Austria, the Belgium Flanders chart, Canada, Czech Republic, Ecuador, France, Germany, Ireland, Israel, the Netherlands, New Zealand, Portugal, Slovakia, and Switzerland. An accompanying music video for the single was directed by Eshleman and mostly filmed at drummer Josh Dun\'s home in Columbus, Ohio. It features a mixture of surrealistic visuals and existential scenes while portraying the duo riding three-wheelers for a playdate and attempting to relive their childhood. In the music video, black paint can be seen on the neck and hands of Tyler Joseph, referencing the character Blurryface. At the 59th Annual Grammy Awards, "Stressed Out" was nominated for Record of the Year and Best Pop Duo/Group Performance, winning the latter. The duo performed the song on their 2016 Emotional Roadshow World Tour and for the Late Night with Seth Meyers.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Closer_(The_Chainsmokers_song)', 'track_name': 'Closer', 'artist': 'http://dbpedia.org/resource/The_Chainsmokers', 'artist_name': 'The Chainsmokers', 'wiki': 'http://en.wikipedia.org/wiki/Closer_(The_Chainsmokers_song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': '"Closer" is a song by American DJ duo the Chainsmokers featuring American singer Halsey. Andrew Taggart (one half of the Chainsmokers) also provides his vocals in the song. It was released on July 29, 2016, through Disruptor Records and Columbia Records. The song was written by Taggart, Halsey, Shaun Frank, Freddy Kennett, Isaac Slade and Joe King, while the production was handled by the Chainsmokers. Musically, it is a future bass and pop song with a "retro" style synthesizer in the chorus. In the United States, "Closer" became both the Chainsmokers\' and Halsey\'s first number one single on the Billboard Hot 100. The song stayed at the top spot for 12 consecutive weeks. This is the highest EDM song that cracked the Billboard Decade-End in the 2010s according to Billboard. The Chainsmokers became the first act to have four songs ("Closer" being the fourth) that top the Dance/Electronic Songs chart, passing Calvin Harris, who held the previous record with three. Outside of the United States, "Closer" topped the charts in more than ten countries including Australia, Canada, New Zealand, Ireland and the United Kingdom, making it both the Chainsmokers\' and Halsey\'s first number-one single in all six countries. The song went on to become the first song to spend 26 weeks in the top five of the Billboard Hot 100 chart. It also became only the second song in the history of the Hot 100 chart to spend 32 weeks in the top ten of the chart. The song was performed live for the first time at the Coachella Valley Music and Arts Festival in April 2016. Halsey and the Chainsmokers performed the track live at the 2016 MTV Video Music Awards as well as a remix of the song at the 2016 American Music Awards. Its music video was released on October 23, 2016. It received a nomination for Best Pop Duo/Group Performance at the 2017 Grammy Awards. In 2018, the song received a diamond certification by the RIAA for selling 10 million units in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Saturday_Night_(Whigfield_song)', 'track_name': 'Saturday Night', 'artist': 'http://dbpedia.org/resource/Whigfield', 'artist_name': 'Whigfield', 'wiki': 'http://en.wikipedia.org/wiki/Saturday_Night_(Whigfield_song)', 'abstract': '"Saturday Night" is a song by Italian Eurodance project Whigfield, fronted by Danish-born Sannie Charlotte Carlson. It was first released in 1992 in Italy and November 1993 in Spain through Prodisc. In 1994, it was released in the rest of Europe, and experienced worldwide success. The song is written by Italian producers Larry Pignagnoli and Davide Riva, and produced by Pignagnoli. In 1994, the song was included on Carlson\'s debut album, Whigfield. The single entered at number one on the UK Singles Chart, making Whigfield the first artist to enter at the top in the UK with their debut single, dethroning Wet Wet Wet\'s 15-week chart-topper "Love Is All Around". As of October 2015, "Saturday Night" has sold a total of 1.18 million copies in the UK. It also reached number one in Germany, Ireland, Spain and Switzerland, and it became a top-10 hit in Austria, Denmark, France, Iceland, Italy, the Netherlands, Norway and Sweden. In Spain the single spent 11 weeks at the top position. Outside Europe, it peaked at number three in Zimbabwe, number 19 on the US Billboard Hot Dance Club Play chart and number 78 in Australia. NME magazine ranked "Saturday Night" at number 15 in their list of the 50 best songs of 1994. It was also nominated for Best Single, while Whigfield was nominated for Best New Act on the 7th annual Smash Hits Awards in 1995.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Intergalactic_(song)', 'track_name': 'Intergalactic', 'artist': 'http://dbpedia.org/resource/Beastie_Boys', 'artist_name': 'Beastie Boys', 'wiki': 'http://en.wikipedia.org/wiki/Intergalactic_(song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': '"Intergalactic" is a song by American rap rock group Beastie Boys. "Intergalactic" was released as the first single from their fifth studio album, Hello Nasty, on June 22, 1998. The single reached number 28 on the US Billboard Hot 100, making it the band\'s third top-40 single, and reached number five on the UK Singles Chart, where it remains the band\'s biggest hit. It received a Grammy Award for Best Rap Performance by a Duo or Group in 1999.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Where_Is_My_Mind%3F', 'track_name': 'Where Is My Mind?', 'artist': 'http://dbpedia.org/resource/Pixies_(band)', 'artist_name': 'Pixies', 'wiki': 'http://en.wikipedia.org/wiki/Where_Is_My_Mind%3F', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Where Is My Mind?" is a song by the American alternative rock band Pixies, and it is the seventh track on the band\'s 1988 debut album Surfer Rosa. Although the song was never released as a single, it is one of the band\'s signature songs, inspiring a multitude of covers. The song was featured on the 2021 version of Rolling Stone\'s 500 Greatest Songs of All Time, ranked at No. 493.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Right_Action', 'track_name': 'Right Action', 'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/Right_Action', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': '"Right Action" is a song by Scottish indie rock band Franz Ferdinand. It was released as the lead single from their fourth studio album, Right Thoughts, Right Words, Right Action, on 27 June 2013 in the United States and 18 August 2013 in the United Kingdom. It has been described as having a catchy, funk-like guitar sound. A music video of the song, directed by Jonas Odell, was released online on 7 July and features the band performing in an environment similar to their previous video "Take Me Out" (which was also directed by Odell) as the song\'s lyrics also appear on the screen. The song had moderate commercial success reaching number 39 on the UK Indie Chart, number 28 on the Billboard Alternative Songs chart in the United States and Number 22 in the Billboard Japan Hot 100 Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Self_Esteem_(song)', 'track_name': 'Self Esteem', 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/Self_Esteem_(song)', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"Self Esteem" is a song by the American punk rock band The Offspring. It is the eighth track and second single from their third studio album, Smash. The song was a worldwide hit, reaching number one in Iceland, Norway and Sweden. "Self Esteem" was nominated for the 1995 MTV Europe Music Awards for Best Song. The song also appears as the third track on their Greatest Hits (2005).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Back_to_Black_(song)', 'track_name': 'Back to Black', 'artist': 'http://dbpedia.org/resource/Amy_Winehouse', 'artist_name': 'Amy Winehouse', 'wiki': 'http://en.wikipedia.org/wiki/Back_to_Black_(song)', 'abstract': '"Back to Black" is a song by English singer and songwriter Amy Winehouse from her second and final studio album of the same name (2006). It was released by Island Records on 30 April 2007 as the album\'s third single. The song was written by Winehouse and Mark Ronson, and produced by the latter. "Back to Black" was inspired by Winehouse\'s relationship with Blake Fielder-Civil, who had left her for an ex-girlfriend. "Back to Black" received universal acclaim by music critics, who generally praised its throwback sound to girl groups from the 1960s. It was included on several compiled year and decade-end lists of the best in music and was further considered to be one of Winehouse\'s signature songs. The single peaked at number eight on the UK Singles Chart in the United Kingdom and is Winehouse\'s third best-selling single in that country. Many artists recorded covers of the song; most notably, Beyoncé and André 3000 covered it for the soundtrack of the 2013 film adaptation of the novel The Great Gatsby (1925). A documentary film based on the life and death of Winehouse, Amy (2015) features a videoed tape of Winehouse recording the song with Mark Ronson, in March 2006 and an a cappella melody was featured on the film\'s soundtrack.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/The_Kids_Aren't_Alright", 'track_name': "The Kids Aren't Alright", 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': "http://en.wikipedia.org/wiki/The_Kids_Aren't_Alright", 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"The Kids Aren\'t Alright" is a song by the Offspring. It is the fifth track from the band\'s fifth studio album, Americana (1998), and was released as its third single. It became another top 10 hit on the US Modern Rock Tracks chart. Despite not being as commercially successful as its predecessors, "The Kids Aren\'t Alright" remains the most-listened to Offspring song amongst Last.fm users, and still receives some radio play. The song was played over the end credits of Woodstock 99: Peace, Love, and Rage. The song was used in the opening scene of the film The Faculty and appears on the soundtrack album. It is also available as downloadable content for the Rock Band video game series. Q reported that the song\'s title is an allusion to the Who song "The Kids Are Alright" (from My Generation). The magazine also argued that the track "borrows heavily" from "Electricity" by Orchestral Manoeuvres in the Dark (OMD), and pointed to NOFX\'s punk rock cover of "Electricity" as evidence.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Lithium_(Nirvana_song)', 'track_name': 'Lithium', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Lithium_(Nirvana_song)', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'abstract': '"Lithium" is a song by the American rock band Nirvana, written by vocalist and guitarist, Kurt Cobain. It appears as the fifth track on the band\'s second album Nevermind, released by DGC Records in September 1991. "Lithium" was released as the album\'s third single in July 1992, peaking at number 64 on the US Billboard Hot 100 and number 11 on the UK Singles Chart. It was also a number 1 hit in Finland and a top 5 hit in Ireland and Portugal. The accompanying music video, directed by American filmmaker Kevin Kerslake, is a compilation of live footage.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Last_Train_to_London', 'track_name': 'Last Train to London', 'artist': 'http://dbpedia.org/resource/Electric_Light_Orchestra', 'artist_name': 'Electric Light Orchestra', 'wiki': 'http://en.wikipedia.org/wiki/Last_Train_to_London', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Last Train to London" is a song from the rock band Electric Light Orchestra (ELO), the fifth track from their album Discovery. The song was released in 1979 in the UK as a double A-side single with "Confusion". It peaked at number 8 in the UK Singles Chart. However, in the US the two songs charted separately, with "Confusion" in late 1979 followed by "Last Train to London" in early 1980. It peaked at number 39 on the Billboard Hot 100. Billboard Magazine described the song as having a "catchy pop melody with Beatlesque vocal qualities and a smooth layered sound." In Spain the single was released with the Spanish title "Último tren a Londres". There was a certain period when it seemed we spent years on trains going back and forth from Birmingham to the various TV and radio stations in London. —\u2009Discovery remaster (2001), Jeff Lynne'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Rat_in_Mi_Kitchen', 'track_name': 'Rat in Mi Kitchen', 'artist': 'http://dbpedia.org/resource/UB40', 'artist_name': 'UB40', 'wiki': 'http://en.wikipedia.org/wiki/Rat_in_Mi_Kitchen', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Rat in Mi Kitchen" is a song and single written and performed by British group, UB40. It features Herb Alpert on trumpet and was the sixth track on their album Rat in the Kitchen. Released in 1986, it reached Number 12 on the UK charts in 1987, staying for seven weeks. Although it is attributed to the whole group, like many UB40 songs, the song was written by Astro. At the time lead singer Ali Campbell had just moved into a new home in Balsall Heath, Birmingham and was troubled by rodents. When asked by Astro if he had any ideas for new songs he replied, "Oh God, I don\'t care about the album for a minute, I\'ve got a rat in the kitchen!" Astro, who sings lead vocals on the song, wrote the track in response.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Cantaloop_(Flip_Fantasia)', 'track_name': 'Cantaloop (Flip Fantasia)', 'artist': 'http://dbpedia.org/resource/Us3', 'artist_name': 'Us3', 'wiki': 'http://en.wikipedia.org/wiki/Cantaloop_(Flip_Fantasia)', 'abstract': '"Cantaloop (Flip Fantasia)" is a song by British jazz-rap group Us3. It was originally released in October 1992 as the lead single from their debut album, Hand On the Torch. The song was recorded as a demo a year before the group\'s first release and features a sample of Herbie Hancock\'s song "Cantaloupe Island". It did not chart in their native UK, but in the US, "Cantaloop (Flip Fantasia)" reached No. 9 on the Billboard Hot 100, becoming the group\'s only top 40 single. It was subsequently re-released in UK where it peaked at No. 23. "Cantaloop" was certified gold by the Recording Industry Association of America (RIAA) on March 25, 1994 for selling over 500,000 copies.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Wanna_Be_Startin'_Somethin'", 'track_name': "Wanna Be Startin' Somethin'", 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': "http://en.wikipedia.org/wiki/Wanna_Be_Startin'_Somethin'", 'abstract': '"Wanna Be Startin\' Somethin\'" is a song by American singer Michael Jackson recorded for his sixth studio album Thriller (1982). It is the opening track of the album and was released as its fourth single on May 8, 1983, by Epic Records. It was written by Jackson and produced by Jackson and Quincy Jones. The lyrics pertain to strangers spreading rumors to start an argument for no good reason. "Wanna Be Startin\' Somethin\'" evokes the disco sound of Jackson\'s previous studio album, Off the Wall, released in 1979. The song is characterized by a complex rhythm arrangement and a distinctive horn arrangement. "Wanna Be Startin\' Somethin\'" became Jackson\'s fourth consecutive top 10 single from Thriller on the Billboard Hot 100, peaking at number five. The song also topped the charts in Canada as well as the Netherlands and charted within the top 20 and top 30 in several countries. It was generally well received by contemporary music critics. As part of the release of Thriller 25, a remix of "Wanna Be Startin\' Somethin\'", entitled "Wanna Be Startin\' Somethin\' 2008 with Akon", was recorded with Akon, and released as the second single from the album. The remix was commercially successful, mainly charting within the top 10 in six countries, as well as the top 20 in several territories worldwide and top 40 in Canada. It was more successful internationally than in the United States, having peaked on the Billboard Hot 100 at number 81, which was the song\'s lowest charting position. Unlike previous singles from Thriller, "Wanna Be Startin\' Somethin\'" did not have a music video to accompany it but was performed by Jackson on world concert tours as both a member of The Jacksons and as a solo artist. Following Jackson\'s death in June 2009, the song re-entered music charts worldwide. "Wanna Be Startin\' Somethin\'" has been covered and sampled by multiple recording artists since its release, notably by Rihanna in her 2007 song "Don\'t Stop the Music", who was sued as a result. Aside from Thriller, the song appears on multiple compilation and greatest hits albums by Jackson.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Wake_Me_Up_(Avicii_song)', 'track_name': 'Wake Me Up', 'artist': 'http://dbpedia.org/resource/Avicii', 'artist_name': 'Avicii', 'wiki': 'http://en.wikipedia.org/wiki/Wake_Me_Up_(Avicii_song)', 'abstract': '"Wake Me Up" is a song by Swedish DJ and record producer Avicii, released as the lead single from his debut studio album True, released on CD by PRMD Music and Island Records on 17 June 2013. "Wake Me Up" was written by Avicii, Mike Einziger, and American soul singer Aloe Blacc. Aloe Blacc also provides vocals for the track and Mike Einziger of Incubus provides acoustic guitar. Peter Dyer also provides keyboard on the song. Avicii introduced "Wake Me Up!" for the first time live on stage at the Ultra Music Festival in Miami. The experimental rendering (it was accompanied by a live band with instruments and vocalists, including Blacc, Einziger and Incubus members Ben Kenney on bass and José Pasillas on drums) reportedly confused and angered a section of the electronic dance festival community. Subsequently, Avicii achieved critical and commercial success with the release of the single worldwide. Avicii\'s \'Wake Me Up\' has been named as the highest charting dance track of the decade (2010-2019), sitting at No. 13 in the 100-strong list from the official UK Singles Chart. It is the only song to crack the Billboard Decade-End without making the top 3 during any week. "Wake Me Up" peaked at number one in much of Europe and charted well in various countries. The song has been described as a "summer anthem" by Variance Magazine and, throughout the 2013 festival season, Avicii included it as part of the opening or closing sequence of his sets at EDC Las Vegas, EDC London, Tomorrowland, Creamfields, Electric Zoo and the iTunes Festival. Due to the success of the song, Blacc later released an acoustic version of "Wake Me Up" in his solo EP Wake Me Up. It was also released as a promotional stand-alone single on Interscope Records, made available online for downloads via iTunes. A separate music video was also made. The Blacc single also charted in its own right in various charts.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Call_Me_When_You're_Sober", 'track_name': "Call Me When You're Sober", 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': "http://en.wikipedia.org/wiki/Call_Me_When_You're_Sober", 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': '"Call Me When You\'re Sober" is a song by American rock band Evanescence recorded for their second studio album, The Open Door. Wind-up Records released it as the album\'s lead single on September 4, 2006; this release was preceded by the song\'s Internet leak and its earlier distribution to radio stations on July 31. The track was written by group members Amy Lee and Terry Balsamo, while Dave Fortman handled its production. Lee revealed that the song was inspired by an unsuccessful relationship with Shaun Morgan, lead singer of the band Seether. The track is an alternative metal, symphonic rock, and electropop piano ballad about a woman terminating a relationship with a love interest who suffers from an addiction. It received a polarized response from music critics; although some praised its radio appeal and the use of numerous musical styles and instruments paired with Lee\'s laudable vocal performance, others felt that it was not a worthy comeback song and found it inferior to previous songs by the band. "Call Me When You\'re Sober" was commercially successful in the US, where it peaked at number ten on the main Billboard Hot 100 and number four on the Alternative Songs chart in addition to entering the top ten of several Billboard component charts. It was a success elsewhere as well, peaking within the top ten on various charts internationally, including the UK, Australia, Finland and New Zealand. The single was certified platinum by the Recording Industry Association of America (RIAA) and gold by the Australian Recording Industry Association (ARIA). An accompanying music video for the song was directed by Marc Webb and filmed in Hollywood; it draws inspiration from the fairy tale "Little Red Riding Hood". It features British actor Oliver Goodwill as the Big Bad Wolf, trying to seduce Lee. The video was noted to contain metaphorical undertones as opposed to the song\'s literal lyrics. "Call Me When You\'re Sober" was part of the set lists during three of Evanescence\'s worldwide tours; The Open Door Tour (2006–07), the Evanescence Tour (2011–12) and the band\'s fourth worldwide tour (2016–17). It has been covered by American Idol contestant Gina Glocksen and used in several video games, including Rock Band.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Baker_Street_(song)', 'track_name': 'Baker Street', 'artist': 'http://dbpedia.org/resource/Undercover_(dance_group)', 'artist_name': 'Undercover', 'wiki': 'http://en.wikipedia.org/wiki/Baker_Street_(song)', 'abstract': '"Baker Street" is a song written and recorded by Scottish singer-songwriter Gerry Rafferty. Released as a single in 1978, it reached No. 1 in Cash Box and No. 2 on the Billboard Hot 100, where it held its Billboard position for six weeks, blocked from the top spot by Andy Gibb\'s "Shadow Dancing". It spent four weeks at No. 1 in Canada, No. 1 in Australia and South Africa, hit No. 3 in the United Kingdom, and the top 10 in the Netherlands. Rafferty received the 1978 Ivor Novello Award for Best Song Musically and Lyrically. The arrangement is known for its saxophone riff. In October 2010, the song was recognised by BMI for surpassing five million performances worldwide. It was awarded Gold Certification on two occasions, on 1 April 1978 and 22 July 2013 by the BPI in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Lie", 'track_name': "Don't Lie", 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': "http://en.wikipedia.org/wiki/Don't_Lie", 'abstract': '"Don\'t Lie" is a song performed by American recording group the Black Eyed Peas, taken from their fourth studio album, Monkey Business (2005). It was released as the second single from the album on June 29, 2005, after the successful "Don\'t Phunk with My Heart". "Don\'t Lie" was written by the band together with American production duo Peters &amp; Peters while band member will.i.am headed its production. It contains a vocal sample of Slick Rick\'s 1988 song "The Ruler\'s Back", from the album The Great Adventures of Slick Rick. The song was produced as a pop-oriented hip hop song with a Latin-tinged beat. The lyrics feature the protagonist apologizing for lies made during his relationship with another woman. Critical reception for the song was generally positive, with many praising its lyrics, noting that they diverge from the dangerous and hedonistic lyrics in hip-hop music. "Don\'t Lie" was commercially successful worldwide, nearly replicating the success of the album\'s previous single. It peaked at number fourteen on the Billboard Hot 100 and became their fifth top 40 hit on the chart. The song reached the top ten in several countries including Australia, Denmark, Italy and the United Kingdom. The music video for "Don\'t Lie" is set in Brazil.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Too_Shy', 'track_name': 'Too Shy', 'artist': 'http://dbpedia.org/resource/Kajagoogoo', 'artist_name': 'Kajagoogoo', 'wiki': 'http://en.wikipedia.org/wiki/Too_Shy', 'hometown': 'http://dbpedia.org/resource/Leighton_Buzzard', 'abstract': '"Too Shy" is a song written and recorded by English band Kajagoogoo, released in January 1983. The first single from their debut album White Feathers, the song was an immediate hit and reached number one on the UK Singles Chart for two weeks. It was also very successful in other European countries and Japan, spending five weeks at number one in Germany, also reaching number one in Belgium and Ireland, as well as reaching number two in France and Switzerland, and number four in Sweden, Austria and the Netherlands. Assisted by heavy rotation on MTV, the song later became a success in the United States, peaking at number 5 on the Billboard Hot 100. "Too Shy" is Kajagoogoo\'s only significant hit in the US, where the band is widely regarded as a one-hit wonder. In the UK, however, Kajagoogoo had further hits, including two more top 10 singles: "Ooh to Be Ah" and "Big Apple", both in 1983.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Another_Brick_in_the_Wall', 'track_name': 'Another Brick in the Wall', 'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/Another_Brick_in_the_Wall', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Another Brick in the Wall" is a three-part composition on Pink Floyd\'s 1979 rock opera The Wall, written by bassist Roger Waters. "Part 2", a protest song against rigid and abusive schooling, features a children\'s choir. At the suggestion of producer Bob Ezrin, Pink Floyd added elements of disco. "Part 2" was released as a single, Pink Floyd\'s first in the UK since "Point Me at the Sky" (1968). It sold over four million copies worldwide. It was nominated for a Grammy Award and was number 384 on Rolling Stone\'s list of "The 500 Greatest Songs of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Boulevard_of_Broken_Dreams_(Green_Day_song)', 'track_name': 'Boulevard of Broken Dreams', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Boulevard_of_Broken_Dreams_(Green_Day_song)', 'abstract': '"Boulevard of Broken Dreams" is a song by American rock band Green Day. It is the fourth track from their seventh studio album American Idiot (2004). Reprise Records released "Boulevard of Broken Dreams" as the second single from American Idiot on November 29, 2004. The song\'s lyrics were written by lead singer Billie Joe Armstrong, and the music was composed by the band. Production was handled by Rob Cavallo and Green Day. The song speaks from the point of view of American Idiot\'s main character, "Jesus of Suburbia", and is a moderate midtempo song characterized by somber and bleak lyrics. This is in contrast to the previous track on the album, "Holiday", which illustrates Jesus of Suburbia\'s high of being in The City. MTV\'s Green Day Makes a Video described "Holiday" as a party, and "Boulevard of Broken Dreams" as the subsequent hangover. The song was ranked number one on Rolling Stone\'s Reader\'s Choice: Singles of the Decade list in 2009 and number 65 on the 100 Best Songs of the Decade list in the same year. It has sold over 2 million copies in the United States as of 2010. The single peaked at number two on the Billboard Hot 100, behind "Candy Shop" by 50 Cent and Olivia, making it Green Day\'s most successful song in the United States. The song was the ninth-highest-selling single of the 2000–2009 decade with worldwide sales exceeding 5 million copies. As of 2021, "Boulevard of Broken Dreams" is the only song to win both the Grammy Award for Record of the Year and MTV Video Music Award for Video of the Year. It remains one of Green Day\'s signature songs.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sweet_Dreams_(Are_Made_of_This)', 'track_name': 'Sweet Dreams (Are Made of This)', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Sweet_Dreams_(Are_Made_of_This)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': '"Sweet Dreams (Are Made of This)" is a song by British new wave music duo Eurythmics. It is the title track of their album of the same name (1983) and was released as the fourth and final single from the album in early 1983. The song became their breakthrough hit, establishing the duo worldwide. Its music video helped to propel the song to number two on the UK Singles Chart and number one on the US Billboard Hot 100. It was the first single released by Eurythmics in the US. Recorded by the Eurythmics in a small project studio, the song\'s success heralded a trend of musicians abandoning larger recording studios for home recording methods. After the song\'s rise, the duo\'s previous single, "Love Is a Stranger", was re-released and also became a worldwide hit. On Rolling Stone\'s The 500 Greatest Songs of All Time issue in 2003, "Sweet Dreams (Are Made of This)" was ranked number 356. In 2020, the song was inducted into the Grammy Hall of Fame. Eurythmics have regularly performed the song in all their live sets since 1982, and it is often performed by Annie Lennox on her solo tours. In 1991, the song was remixed and reissued to promote Eurythmics\' Greatest Hits album. It re-charted in the UK, reaching number 48, and was also a moderate hit in dance clubs. Another remix by Steve Angello was released in France in 2006, along with the track "I\'ve Got a Life" (peaking at number 10).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Englishman_in_New_York', 'track_name': 'Englishman in New York', 'artist': 'http://dbpedia.org/resource/Sting_(musician)', 'artist_name': 'Sting', 'wiki': 'http://en.wikipedia.org/wiki/Englishman_in_New_York', 'abstract': '"Englishman in New York" is a song by English singer Sting, from his second studio album ...Nothing Like the Sun, released in October 1987. Branford Marsalis played soprano saxophone on the track, while the drums were played by Manu Katché and the percussion by Mino Cinélu. The single was released in February 1988 as the third single from the album, but only reached #51 on the UK Singles Chart. In the US, "Englishman in New York" peaked at #84 on the Billboard Hot 100 chart in April 1988 and reached #32 on the Billboard Mainstream Rock chart that same month. However, the single was more successful in continental Europe, becoming a hit in several countries, reaching the Top 40 (and sometimes the Top 20) in France, Netherlands, Spain, Belgium, etc. "Englishman in New York" was also a Top 20 hit in Ireland. In South Africa, it peaked at no. 9. In 1990, just prior to the release of his third studio album The Soul Cages, Sting\'s record label licensed Dutch DJ and producer Ben Liebrand to remix "Englishman in New York" and subsequently released it as a single. The remix played around with the introduction and some of the instrumentation, but the essence of the song remained the same. The new version was commercially successful, reaching number 15 in the UK charts in mid-1990. In 2010, Sting re-recorded the song in an orchestral version for his album Symphonicities. "Englishman/African In New York", a reworking of the song recorded with African artist Shirazee was released as a non-album digital-only single on 19 March 2021. Shirazee had previously covered the song as "African in New York" with Sting\'s approval. Sting and Shirazee released a music video and performed the song on ABC\'s Good Morning America.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/What_I've_Done", 'track_name': "What I've Done", 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': "http://en.wikipedia.org/wiki/What_I've_Done", 'abstract': '"What I\'ve Done" is a song by American rock band Linkin Park. It was released as the first single from their third studio album, Minutes to Midnight (2007), and is the sixth track. The song is composed in the key of G minor. The song was released as a radio single on April 1, 2007, as a digital download on April 2, and as a CD single on April 30. The live version of "What I\'ve Done" from Road to Revolution: Live at Milton Keynes was nominated for Best Hard Rock Performance at the 52nd Grammy Awards, but did not win. It also serves as the main theme of the 2007 science fiction film Transformers and also appears on Transformers: The Album (2007). Being certified five times platinum by the RIAA, it is the band\'s most commercially successful single in terms of pure sales, and reached number 7 on the Billboard Hot 100. "What I\'ve Done" was featured in the video game Guitar Hero World Tour. In January 2011, it was released in a Linkin Park DLC pack for Rock Band 3. The song is also a B-side to the UK single of "Iridescent". An instrumental version of the song is currently used by Sky UK as background music for their interactive services.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Promiscuous_(song)', 'track_name': 'Promiscuous', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Promiscuous_(song)', 'abstract': '"Promiscuous" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006), featuring Timbaland. The song was written by Furtado, Anthony Motz, Timbaland, and Nate "Danja" Hills. The song\'s lyrics, penned by Furtado and Timothy "Attitude" Clayton, feature a conversation between a man and woman who call each other promiscuous. The song was released as the second single from the album in early 2006. The song was well received by music critics, with some critics calling it the highlight of the album. "Promiscuous" was an international success and became Furtado\'s first number-one single in the US. It was the first number one by a Canadian female artist since 1998\'s "I\'m Your Angel" by R. Kelly and Celine Dion on the Billboard Hot 100 chart. The song also topped the chart in New Zealand and peaked in the top ten on many charts across Europe. The accompanying music video was directed by Little X, and features Furtado and Timbaland, in what Furtado describes as a "verbal Ping-Pong game". Cameo appearances are made by Keri Hilson, Justin Timberlake, and Bria Myles. The song won \'Best Pop Single of the Year\' at the 2006 Billboard Music Awards and received a nomination for the \'Best Pop Collaboration with Vocals\' at the 49th Grammy Awards, losing to Tony Bennett and Stevie Wonder\'s "For Once in My Life".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/So_Lonely', 'track_name': 'So Lonely', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/So_Lonely', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"So Lonely" is a song by English rock band The Police, released as the third and final single in November 1978 from their debut studio album Outlandos d\'Amour (1978), and again in February 1980 as a re-release. The song uses a reggae style, and featured Sting on lead vocals. "So Lonely" has since been covered by a variety of artists, such as Limbeck and The Militia Group. The song is known for a famous mondegreen where the title is often misheard as "Sue Lawley", a broadcaster famous for presenting Desert Island Discs on BBC Radio 4 from 1988 to 2006.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Black_Velvet_(song)', 'track_name': 'Black Velvet', 'artist': 'http://dbpedia.org/resource/Alannah_Myles', 'artist_name': 'Alannah Myles', 'wiki': 'http://en.wikipedia.org/wiki/Black_Velvet_(song)', 'abstract': '"Black Velvet" is a song written by Canadian songwriters Christopher Ward and David Tyson, and recorded by Canadian singer-songwriter Alannah Myles. It was released in January 1990 as one of four singles from Myles\' 1989 eponymous album from Atlantic Records. It became a number-one hit for two weeks on the Billboard Hot 100 charts in 1990 and reached number one on the Album Rock Tracks chart, as well as number ten in her native Canada and number two on the UK Singles Chart. The song also reached number one in Norway, Sweden, and Switzerland and was a major success in several other countries. It contains blues verses with a rock chorus. Myles won the 1991 Grammy for Best Female Rock Vocal Performance for the song and the 1990 Juno Award for Single of the Year. Since its release, the power ballad has received substantial airplay, receiving a "Millionaire Award" from ASCAP in 2005 for more than four million radio plays.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sleep_Now_in_the_Fire', 'track_name': 'Sleep Now in the Fire', 'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Sleep_Now_in_the_Fire', 'abstract': '"Sleep Now in the Fire" is a song by American rock band Rage Against the Machine from their 1999 album The Battle of Los Angeles. At the end of the song, a short sample of Korean artist Uhm Jung-hwa\'s 1998 song "Poison" can be heard — it was captured from a local Korean radio station broadcast through Morello\'s amplifier.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Someday_(Sugar_Ray_song)', 'track_name': 'Someday', 'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Someday_(Sugar_Ray_song)', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'abstract': '"Someday" is a song by American rock band Sugar Ray. First serviced to American radio in June 1999, the song was released on September 7, 1999, as the second single from the band\'s third album, 14:59 (1999). The song reached number seven on both the US Billboard Hot 100 and the Billboard Modern Rock Tracks chart, as well as number four on Canada\'s RPM Top Singles chart and number 25 in New Zealand.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Beautiful_Girls_(Sean_Kingston_song)', 'track_name': 'Beautiful Girls', 'artist': 'http://dbpedia.org/resource/Sean_Kingston', 'artist_name': 'Sean Kingston', 'wiki': 'http://en.wikipedia.org/wiki/Beautiful_Girls_(Sean_Kingston_song)', 'hometown': 'http://dbpedia.org/resource/Kingston,_Jamaica', 'abstract': '"Beautiful Girls" is the debut single by reggae-influenced musician Sean Kingston from his eponymous debut; it was first released in 2007, when Kingston was 17. The song samples Ben E. King\'s classic "Stand by Me". The song is about a boy who feels “suicidal” (or "in denial" in the edited version) over being unable to be with a "beautiful girl". It is Kingston\'s signature song. Rapper Lil Mama and actors Kenny Vibert and Lil\' JJ are featured in the music video directed by Marcus Raboy.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Want_to_Break_Free', 'track_name': 'I Want to Break Free', 'artist': 'http://dbpedia.org/resource/Queen_(band)', 'artist_name': 'Queen', 'wiki': 'http://en.wikipedia.org/wiki/I_Want_to_Break_Free', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"I Want to Break Free" is a song by the British rock band Queen, written by their bass guitarist John Deacon. It appears on the album The Works (1984), and was released in three versions: album, single and extended. It came to be included in most live concerts by the group, in several videos and in The Freddie Mercury Tribute Concert where it was sung by Lisa Stansfield. The song is largely known for its music video for which all the band members dressed in drag, a concept proposed by drummer Roger Taylor, which parodied the long-running ITV soap opera Coronation Street. The second part of the video included a composition rehearsed and performed with the Royal Ballet and choreographed by Wayne Eagling. Whereas the parody was acclaimed in the United Kingdom, where cross-dressing is a popular trope in British comedy, it received controversy in the United States. After its release in 1984, the song was well received in Europe and South America and is regarded as an anthem of the fight against oppression. The single reached only number 45 on the US Billboard Hot 100, but reached number three in the UK and was certified silver with over 200,000 copies sold. It also topped the charts of Austria, Belgium, and the Netherlands. The song features on the band\'s compilation album, Greatest Hits II.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Pompeii_(song)', 'track_name': 'Pompeii', 'artist': 'http://dbpedia.org/resource/Bastille_(band)', 'artist_name': 'Bastille', 'wiki': 'http://en.wikipedia.org/wiki/Pompeii_(song)', 'abstract': '"Pompeii" is a song by British band Bastille. It is the fourth single from their debut studio album Bad Blood and was released on 11 January 2013. The song\'s title and lyrics refer to the Roman town of the same name that was destroyed and buried in the eruption of Mount Vesuvius in AD 79. "Pompeii" became the band\'s breakthrough hit, peaking at number two on the UK Singles Chart and became the eleventh best-selling song that year and, until June 2014, was the country\'s most streamed single of all time. It was also successful worldwide, reaching the top ten in fifteen countries, including the United States where it peaked at number five on the Billboard Hot 100, becoming Bastille\'s most successful single to date, until "Happier" reached number two on both the UK and US charts in October 2018 and February 2019 respectively. The song was nominated for British Single of the Year at the 2014 BRIT Awards. A mashup of the song with Rudimental and Ella Eyre\'s "Waiting All Night" was performed live by Rudimental, Eyre and Bastille at the aforementioned ceremony, which reached number 21 in the UK. It was also performed at the 2014 iHeartRadio Music Awards, where it was nominated for Alternative Rock Song of the Year.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/You_Can_Leave_Your_Hat_On', 'track_name': 'You Can Leave Your Hat On', 'artist': 'http://dbpedia.org/resource/Joe_Cocker', 'artist_name': 'Joe Cocker', 'wiki': 'http://en.wikipedia.org/wiki/You_Can_Leave_Your_Hat_On', 'abstract': '"You Can Leave Your Hat On" is a song written by Randy Newman and appearing on his 1972 album Sail Away. According to a retrospective AllMusic review by Mark Deming, the song is a "potent mid-tempo rock tune" and a "witty and willfully perverse bit of erotic absurdity". Newman later admitted the song was, "too low for me to sing it. I can\'t rock it too hard, which maybe I should have...or maybe not."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Applause_(Lady_Gaga_song)', 'track_name': 'Applause', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Applause_(Lady_Gaga_song)', 'abstract': '"Applause" is a song by American singer Lady Gaga from her third studio album, Artpop (2013). It was released as the album\'s lead single through Interscope Records on August 12, 2013. Written and produced by Gaga, DJ White Shadow, Dino Zisis and Nick Monson, additional songwriters included Martin Bresso, Nicolas Mercier, Julien Arias and William Grigahcine. "Applause" was inspired by the cheering of her fans, which kept her motivated during the months she toured with the Born This Way Ball in pain, before cancelling it due to a hip injury, and pays respect to the art of performance. It is an electropop, dance-pop and Eurodance song built around synthesizers and hi-NRG beats, with lyrics addressing how Gaga is dependent upon her fans\' adoration and how she lives to perform. The song received generally positive reviews from music critics, who felt its chorus was catchy and favorably compared it to the material featured on Gaga\'s debut album, The Fame (2008). "Applause" achieved commercial success in a number of nations, topping the charts in Hungary, Lebanon, South Korea, and Spain while peaking within the top 10 in Belgium, Bulgaria, Canada, Finland, France, Germany, Ireland, Israel, Italy, Japan, New Zealand, Norway, Poland, Scotland, the United Kingdom, and the United States as well as the top 20 in Australia, the Czech Republic, the Netherlands, Slovakia, and Sweden. It was also certified multi-platinum in Canada, Sweden and the United States. An accompanying music video directed by fashion photography duo Inez and Vinoodh was released on August 19, 2013, and broadcast on jumbotrons across Times Square. The video received positive reviews from critics, who saw it as a profile of Gaga herself and noted references to German Expressionist cinema and Andy Warhol. To promote the record, Gaga opened the 2013 MTV Video Music Awards with a performance of the song in which she represented her career through several on-stage wardrobe changes. She also performed it live on Good Morning America, Saturday Night Live, her tours ArtRave: The Artpop Ball and the Joanne World Tour, and residency shows Lady Gaga Live at Roseland Ballroom and Enigma.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Selling_the_Drama', 'track_name': 'Selling the Drama', 'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Selling_the_Drama', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'abstract': '"Selling the Drama" is the first single from Live\'s 1994 album, Throwing Copper. It reached number one on the US Billboard Modern Rock Tracks chart, becoming their first of three singles to reach the top of this chart. The song also reached number 43 on the Billboard Hot 100, number 49 in Australia, number 41 in Canada and number 30 in the United Kingdom. It achieved its highest peak in the Netherlands, peaking at number 15 on both the Dutch Top 40 and Single Top 100 charts. Live\'s performance of "Selling the Drama" at Woodstock \'94 was their featured song on the Woodstock \'94 double album.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Killing_Me_Softly_with_His_Song', 'track_name': 'Killing Me Softly with His Song', 'artist': 'http://dbpedia.org/resource/Fugees', 'artist_name': 'Fugees', 'wiki': 'http://en.wikipedia.org/wiki/Killing_Me_Softly_with_His_Song', 'hometown': 'http://dbpedia.org/resource/South_Orange,_New_Jersey', 'abstract': '"Killing Me Softly with His Song" is a song composed by Charles Fox with lyrics by Norman Gimbel. The lyrics were written in collaboration with Lori Lieberman after she was inspired by a Don McLean performance in late 1971. Lieberman released her version of the song in 1972, but it did not chart. In 1973 it became a number-one hit in the United States, Australia and Canada for Roberta Flack, also reaching number six in the UK Singles Chart. In 1996, Fugees recorded the song with Lauryn Hill on lead vocals, their version became a number-one hit in twenty countries. The version by Flack won the 1974 Grammy for Record of the Year and Best Female Pop Vocal Performance, and the version by Fugees won the 1997 Grammy for Best R&amp;B Performance by a Duo or Group with Vocal. The song has been covered by many other artists. Both versions by the Fugees and Roberta Flack were placed on the 2021 revised list of Rolling Stone\'s 500 Greatest Songs of All Time. After decades of confirming Lieberman\'s contribution, Fox and Gimbel changed their story about the song\'s origins to downplay her role. Gimbel threatened McLean with a lawsuit in 2008, demanding he remove from his website an assertion that McLean was the inspiration for "Killing Me Softly," but McLean responded by showing Gimbel his own words confirming the inspiration, published in 1973.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Bodyrock_(song)', 'track_name': 'Bodyrock', 'artist': 'http://dbpedia.org/resource/Moby', 'artist_name': 'Moby', 'wiki': 'http://en.wikipedia.org/wiki/Bodyrock_(song)', 'abstract': '"Bodyrock" is a song by American electronica musician Moby. It was released as the third single from his fifth studio album Play on July 12, 1999. Heavily inspired by hip hop music, the song incorporates vocal samples from "Love Rap" by Spoonie Gee and the Treacherous Three. The single peaked at number 38 on the UK Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Cotton_Eye_Joe_(Rednex_song)', 'track_name': 'Cotton Eye Joe', 'artist': 'http://dbpedia.org/resource/Rednex', 'artist_name': 'Rednex', 'wiki': 'http://en.wikipedia.org/wiki/Cotton_Eye_Joe_(Rednex_song)', 'hometown': 'http://dbpedia.org/resource/Sweden', 'abstract': '"Cotton Eye Joe" is a song by Swedish Eurodance group Rednex from their debut studio album, Sex &amp; Violins (1995). Based on the traditional American folk song "Cotton-Eyed Joe", it combines the group\'s style with traditional American instruments such as banjos and fiddles. The vocal verses are performed by Annika Ljungberg, while the "Cotton Eye Joe" chorus is sung by Göran Danielsson, who never appears in the video. In 2002, "Cotton Eye Joe" was remixed in a dance version, and was released from Rednex\'s greatest hits album, The Best of the West.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Stop_'Til_You_Get_Enough", 'track_name': "Don't Stop 'Til You Get Enough", 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': "http://en.wikipedia.org/wiki/Don't_Stop_'Til_You_Get_Enough", 'abstract': '"Don\'t Stop \'Til You Get Enough" is a single written and recorded by American singer Michael Jackson. Released under Epic Records on July 10, 1979, the song is the first track on Jackson\'s fifth studio album Off the Wall (1979). It was the first solo recording over which Jackson had creative control. "Don\'t Stop \'Til You Get Enough" was Jackson\'s second single to hit number one on the Billboard Hot 100 chart, following "Ben" and his first solo number-one hit on the Billboard Soul Singles chart. It remained at number one for six weeks on Billboard Soul Singles chart. It is certified 3x Platinum by the Recording Industry Association of America (RIAA). The song was also worldwide success, reaching number one in nine other countries. "Don\'t Stop \'Til You Get Enough" was well received by contemporary music critics and is widely regarded as one of the greatest and most iconic disco songs of all time. An accompanying music video for "Don\'t Stop \'Til You Get Enough" was released in October 1979. The video shows Jackson dancing, as well as being shown in an innovative triplicate, in different color backgrounds. The song also won Jackson his first Grammy Award and American Music Awards. "Don\'t Stop \'Til You Get Enough" is considered to be the first song to showcase Jackson\'s talent as a solo artist, both as a singer and songwriter.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Mope', 'track_name': 'Mope', 'artist': 'http://dbpedia.org/resource/Bloodhound_Gang', 'artist_name': 'Bloodhound Gang', 'wiki': 'http://en.wikipedia.org/wiki/Mope', 'hometown': 'http://dbpedia.org/resource/Collegeville,_Pennsylvania', 'abstract': '"Mope" is the fourth single released from American music band the Bloodhound Gang\'s 1999 album Hooray for Boobies. A music video for the single was released in June 2000.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Instant_Crush', 'track_name': 'Instant Crush', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/Instant_Crush', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"Instant Crush" is a song written, produced, and performed by French electronic music duo Daft Punk and American musician Julian Casablancas. It was released as the fourth single from Daft Punk\'s fourth studio album, Random Access Memories (2013), on 22 November 2013. It was number 58 on Rolling Stone magazine\'s 100 Best Songs of 2013 list.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Rockabye_(song)', 'track_name': 'Rockabye', 'artist': 'http://dbpedia.org/resource/Clean_Bandit', 'artist_name': 'Clean Bandit', 'wiki': 'http://en.wikipedia.org/wiki/Rockabye_(song)', 'hometown': 'http://dbpedia.org/resource/Cambridge', 'abstract': '"Rockabye" is a song by British electronic group Clean Bandit, featuring English singer Anne-Marie as main vocalist together with Jamaican dancehall singer Sean Paul. It was released on 21 October 2016 and was their first single since Neil Amin-Smith\'s departure from the group and it serves as the second single from their second studio album, What Is Love? (2018). The song is about hardships of single mothers and alludes to the nursery rhyme and lullaby, Rock-a-bye Baby. "Rockabye" is included on the deluxe edition of Anne-Marie\'s debut studio album, Speak Your Mind. The song became the UK Christmas number one for 2016 on 23 December 2016. It is the first song in chart history to become Christmas number one after already being at the top of the charts for six weeks. In total, the song spent 9 weeks at the summit of the UK Singles Chart while also topping the charts in over 20 other countries.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Girls_&amp;_Boys_(Blur_song)', 'track_name': 'Girls &amp; Boys', 'artist': 'http://dbpedia.org/resource/Blur_(band)', 'artist_name': 'Blur', 'wiki': 'http://en.wikipedia.org/wiki/Girls_&amp;_Boys_(Blur_song)', 'abstract': '"Girls &amp; Boys" is a 1994 song by British rock band Blur. It was released as the lead single from the group\'s third album, Parklife. Charting at number five on the UK Singles Chart, "Girls &amp; Boys" was Blur\'s first top 5 hit and their most successful single until "Country House" reached number one the following year. The single surpassed their previous commercial peak "There\'s No Other Way" by three spots on the UK Singles Chart, and saw the group achieve greater worldwide success. In the US, the track reached number 59 on the Billboard Hot 100 singles chart, becoming the band\'s second single to hit the chart after "There\'s No Other Way". It also reached number four on the Modern Rock songs chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/How_Do_You_Do!', 'track_name': 'How Do You Do!', 'artist': 'http://dbpedia.org/resource/Roxette', 'artist_name': 'Roxette', 'wiki': 'http://en.wikipedia.org/wiki/How_Do_You_Do!', 'hometown': 'http://dbpedia.org/resource/Sweden', 'abstract': '"How Do You Do!" is a pop rock song by Swedish pop duo Roxette. It was released as the lead single from their fourth studio album Tourism on 3 July 1992. The music video was broadcast in the halftime of the UEFA Euro 1992 Final. The track was a commercial success upon release, topping the national singles charts in Norway and Spain. It also peaked at number two in several countries, including Austria, Belgium, Finland, Germany, the Netherlands, Sweden and Switzerland. It was held off the top spot in many of these territories by Dr. Alban\'s "It\'s My Life". The single was backed by several remixes created by Swedish production duo BomKrash, which consisted of Jacob Hellner and Carl-Michael Herlöfsson.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sad_but_True', 'track_name': 'Sad but True', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Sad_but_True', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': '"Sad but True" is a song by American heavy metal band Metallica. It was released in February 1993 as the fifth and final single from their eponymous fifth album, Metallica. The music video for the single was released in October 1992.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Just_Called_to_Say_I_Love_You', 'track_name': 'I Just Called to Say I Love You', 'artist': 'http://dbpedia.org/resource/Stevie_Wonder', 'artist_name': 'Stevie Wonder', 'wiki': 'http://en.wikipedia.org/wiki/I_Just_Called_to_Say_I_Love_You', 'abstract': '"I Just Called to Say I Love You" is a ballad written, produced, and performed by American R&amp;B singer and songwriter Stevie Wonder. It was a major international hit, and remains Wonder\'s best-selling single to date, having topped a record 19 charts. The song was the lead single from the 1984 soundtrack album The Woman in Red, along with two other songs by Wonder, and scored number one on the Billboard Hot 100 for three weeks from October 13 to October 27, 1984. It also became his tenth number-one on the R&amp;B chart, and his fourth on the adult contemporary chart; it spent three weeks at the top of both charts, and for the same weeks as on the Hot 100. The song also became Wonder\'s only solo UK number-one success, staying at the top for six weeks, in the process also becoming Motown Records\' biggest-selling single in the UK, a distinction it still held as of 2018. In addition, the song won both a Golden Globe and an Academy Award for Best Original Song. The song also received three nominations at the 27th Grammy Awards for Best Male Pop Vocal Performance, Song of the Year, and Best Pop Instrumental Performance. The song\'s lyrics have Wonder surprising his love interest with an unexpected telephone call. Throughout the song, Wonder lists events in a yearly calendar that might prompt someone to call a loved one. Yet he explains no special annual event such as New Year\'s Day or Halloween spurred the call. He simply wants to tell her he loves her from the bottom of his heart. There was a dispute among Wonder, his former writing partner Lee Garrett, and Lloyd Chiate as to who actually wrote the song. Chiate claimed in a lawsuit that he and Garrett wrote the song years before its 1984 release. However, a jury ultimately sided with Wonder.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Gimme_More', 'track_name': 'Gimme More', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Gimme_More', 'abstract': '"Gimme More" is a song by American singer Britney Spears. It was released on August 31, 2007, by Jive Records, as the lead single from Spears\' fifth studio album, Blackout (2007). "Gimme More" was recorded in 2006 during Spears\' second pregnancy and was one of the first solo productions by Danja. The song opens with an intro in which Spears utters the phrase "It\'s Britney, bitch". Musically, "Gimme More" is a dance-pop, electropop and EDM-pop song with breathy vocals. The track closes with a speak-sing outro by Danja. The song received critical acclaim and peaked at number three on the US Billboard Hot 100, becoming her second highest-peaking single at the time. It also peaked at the top of the charts in Canada, also charting with top-five positions in 14 countries. It is often considered one of the best pop songs of all time. The accompanying music video premiered on October 5, 2007. It displayed Spears as a stripper and featured a break from Spears\'s highly choreographed music videos. The video received mixed to negative reviews from critics, who panned Spears\'s pole dancing as well as the lack of storyline. An alternate cut was leaked on July 18, 2011. Spears first performed "Gimme More" at the 2007 MTV Video Music Awards on September 9, 2007, wearing a black, jewel-encrusted bikini. The performance was panned by many critics, who commented extensively on her "singing", dancing and wardrobe, with one deeming it as "one of the worst to grace the MTV Awards". On September 10, 2007, Cara Cunningham uploaded a video on YouTube in response to the criticism titled "Leave Britney Alone!", which made her an Internet celebrity and attracted attention from the media. Spears has also performed "Gimme More" at the Femme Fatale Tour (2011) and Britney: Piece of Me (2013). "Gimme More" has been covered and sampled by many artists, including Miley Cyrus, Sia, and Marié Digby.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/One_More_Time_(Daft_Punk_song)', 'track_name': 'One More Time', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/One_More_Time_(Daft_Punk_song)', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"One More Time" is a song by French electronic music duo Daft Punk, released as a single from their second album, Discovery (2001), on 13 November 2000. It is a French house song featuring a stylistically autotuned vocal performance by Romanthony. The music video of the song forms part of the 2003 anime film, Interstella 5555: The 5tory of the 5ecret 5tar 5ystem. "One More Time" was a commercial success, charting at number one on the French Singles Chart, number two on the UK Singles Chart, and number 61 on the US Billboard Hot 100. "One More Time" was listed at number five on Pitchfork\'s top 500 songs of the 2000s, with the magazine writing that it "distill[s] 25 years of pop and house into five and a half minutes of first-time joy." Rolling Stone listed it at number 33 of their top 100 songs of the decade (2000–2009) as well as number 307 on its amended "The 500 Greatest Songs of All Time" list in May 2010. It was voted by Mixmag readers as the greatest dance record of all time. Also, "One More Time" was ranked at number 11 on The Village Voice\'s Pazz &amp; Jop annual year-end critics\' poll. The song was uploaded on YouTube by Daft Punk on 24 February 2009.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Bad_Things_(Jace_Everett_song)', 'track_name': 'Bad Things', 'artist': 'http://dbpedia.org/resource/Jace_Everett', 'artist_name': 'Jace Everett', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Things_(Jace_Everett_song)', 'abstract': '"Bad Things" is a song written and recorded by American country music singer Jace Everett. It is included on his only album for Epic Records Nashville, the self-titled Jace Everett. Although released as a single in 2005, it did not chart on the Hot Country Songs charts that year. The song charted in the United Kingdom, Norway, and Sweden in 2009 after it was selected as the theme song for the HBO series True Blood.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Outside_(Calvin_Harris_song)', 'track_name': 'Outside', 'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/Outside_(Calvin_Harris_song)', 'abstract': '"Outside" is a song by Scottish DJ and record producer Calvin Harris, featuring English singer Ellie Goulding, from Harris\'s fourth studio album, Motion (2014). It was released on 20 October 2014 as the album\'s fourth single. The song also appears on the deluxe edition of Goulding\'s third studio album, Delirium (2015). "Outside" marks the second collaboration between Harris and Goulding, following the single "I Need Your Love" (2013).'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Don't_Tell_Me_(What_Love_Can_Do)", 'track_name': "Don't Tell Me (What Love Can Do)", 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': "http://en.wikipedia.org/wiki/Don't_Tell_Me_(What_Love_Can_Do)", 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'abstract': '"Don\'t Tell Me (What Love Can Do)" is a song by American hard rock band Van Halen from their 1995 album Balance. It is one of five singles issued for the album, and was the only one to reach #1 on the Billboard Album Rock Tracks chart, where it stayed for three weeks. Chuck Klosterman of Vulture.com ranked it the 67th-best Van Halen song, calling it "the best song off the worst Van Halen album that isn’t Van Halen III."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Mr._Jones_(Counting_Crows_song)', 'track_name': 'Mr. Jones', 'artist': 'http://dbpedia.org/resource/Counting_Crows', 'artist_name': 'Counting Crows', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Jones_(Counting_Crows_song)', 'hometown': 'http://dbpedia.org/resource/Berkeley,_California', 'abstract': '"Mr. Jones" is a song by American alternative rock band Counting Crows. It was released in December 1993 as the lead single from their debut album, August and Everything After (1993). It was the band\'s first radio hit and has been described as their breakout single. "Mr. Jones" reached number five on the Billboard Hot 100, and is to date their highest-charting single in the US. Internationally, the song peaked at number one in Canada and number seven in France.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/It_Must_Be_Love_(Labi_Siffre_song)', 'track_name': 'It Must Be Love', 'artist': 'http://dbpedia.org/resource/Madness_(band)', 'artist_name': 'Madness', 'wiki': 'http://en.wikipedia.org/wiki/It_Must_Be_Love_(Labi_Siffre_song)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"It Must Be Love" is a song written and originally recorded and released in 1971 by English singer Labi Siffre on his 1972 album Crying Laughing Loving Lying. It was also recorded by ska/pop band Madness in 1981.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Smooth_(Santana_song)', 'track_name': 'Smooth', 'artist': 'http://dbpedia.org/resource/Santana_(band)', 'artist_name': 'Santana', 'wiki': 'http://en.wikipedia.org/wiki/Smooth_(Santana_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Smooth" is a collaboration between Latin rock band Santana and Matchbox Twenty vocalist Rob Thomas. The song was written by Itaal Shur and Thomas, produced by Matt Serletic, and sung by Thomas. In the United States, it topped the Billboard Hot 100 for 12 weeks; it was the final number-one hit of the 1990s and the first number-one hit of the 2000s. "Smooth" is the only song to appear on two decade-end Billboard charts. In 2018 "Smooth" was ranked the second most successful song ever in Billboard\'s 60th anniversary all-time top 100 songs. It won three Grammy Awards: Record of the Year, Song of the Year, and Best Pop Collaboration with Vocals. The song reached number one in Canada and the top 10 in Australia, Austria, Ireland and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Africa_(Toto_song)', 'track_name': 'Africa', 'artist': 'http://dbpedia.org/resource/Toto_(band)', 'artist_name': 'Toto', 'wiki': 'http://en.wikipedia.org/wiki/Africa_(Toto_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Africa" is a song by American rock band Toto, the tenth and final track on their fourth studio album Toto IV (1982). It was released as a single in the US through Columbia Records in October 1982, the album\'s third single overall and second in Europe. The song was written by band members David Paich and Jeff Porcaro, produced by the band, and mixed by Grammy-winning engineer Elliot Scheiner. Critics praised its composition and Toto\'s performances. The song reached number one on the United States\' Billboard Hot 100 chart, the band\'s only Billboard number one, and number one on the Canadian charts. It also peaked in the top ten in the United Kingdom, Ireland, Netherlands, New Zealand, and Switzerland. The song was accompanied by a music video, which premiered in 1983, and was directed by Steve Barron, who collaborated previously with the group for "Rosanna". The video features Toto in a library, as they perform and showcase various aspects of African culture. While popular in the 1980s and 1990s, with the song being certified gold by the RIAA in 1991, "Africa" saw a resurgence in popularity via social media during the mid- to late 2010s, including a fan-requested cover by American rock band Weezer which peaked at number 51 on the Billboard Hot 100. It has since been certified six times platinum.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Salvation_(The_Cranberries_song)', 'track_name': 'Salvation', 'artist': 'http://dbpedia.org/resource/The_Cranberries', 'artist_name': 'The Cranberries', 'wiki': 'http://en.wikipedia.org/wiki/Salvation_(The_Cranberries_song)', 'hometown': 'http://dbpedia.org/resource/Limerick', 'abstract': '"Salvation" is the lead single from Irish rock band the Cranberries\' third studio album, To the Faithful Departed (1996). Released on 8 April 1996, the single reached number one on the US Billboard Modern Rock Tracks chart for four weeks and was a chart hit in Europe and Australia, peaking at number four in Iceland, number six in Italy, number seven in New Zealand, and number eight in Australia and Ireland.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/It's_No_Good", 'track_name': "It's No Good", 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': "http://en.wikipedia.org/wiki/It's_No_Good", 'hometown': 'http://dbpedia.org/resource/Basildon', 'abstract': '"It\'s No Good" a song by English electronic music band Depeche Mode, released on 31 March 1997 as the second single from their ninth studio album, Ultra (1997). It was commercially successful, reaching number-one in Denmark, Spain, Sweden and on the US Billboard Hot Dance Club Play chart. Additionally, it managed to climb into the Top 10 in Finland, Germany, Iceland, Italy, Scotland and the UK, where it peaked at number five. On 15 May 1997, the band went on The Tonight Show with Jay Leno and performed the song, a recording made available at the official Depeche Mode website. The B-side is an instrumental, called "Slowblow". It was the last actual B-side from the Ultra era, making the album the only one by Depeche Mode to not have a non-remix/non-live vocal B-side track (Although if you exclude non-exclusive songs, Black Celebration can count as well).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Scream_&amp;_Shout', 'track_name': 'Scream &amp; Shout', 'artist': 'http://dbpedia.org/resource/Will.i.am', 'artist_name': 'will.i.am', 'wiki': 'http://en.wikipedia.org/wiki/Scream_&amp;_Shout', 'abstract': '"Scream &amp; Shout" is a song by American singers will.i.am and Britney Spears, taken from the former\'s fourth studio album #willpower (2013). It was released on November 20, 2012, by Interscope Records as the second single from the album, and sent to mainstream radio in the United States on November 27. The song was written by will.i.am, Jef Martens, JAYLIEN Tulisa, Jean Baptiste and was produced by Martens under the alias Lazy Jay, with additional production by will.i.am. "Scream &amp; Shout" is an upbeat dance pop song; its lyrics are about having a good time on a night out. It includes a reference to the lyric "Britney, bitch" from Spears\' 2007 single "Gimme More". "Scream &amp; Shout" received mixed reviews from music critics. Some critics described the song as a dark club track, but others criticized the use of Auto-Tune on the vocals. The song was a commercial success worldwide, topping the charts in over 24 countries and reached the top five in Australia, Czech Republic, Russia, Slovakia, South Korea and Sweden. In the United States, the song peaked at number three on the Billboard Hot 100 and became the first number one song of the newly established Dance/Electronic Songs chart. In the United Kingdom, "Scream &amp; Shout" became will.i.am\'s second consecutive number one single, Spears\' sixth number one and her first chart-topper since "Everytime". An accompanying music video directed by Ben Mor was shot in October 2012, and premiered in the U.S. during a live episode of The X Factor on November 28. The theme of the music video is multiplicity, and critics complimented its futuristic setting. "Scream &amp; Shout" also served as the theme song for a television commercial for Beats by Dr. Dre Color headphones. A remixed version of the song, featuring rappers Hit-Boy, Waka Flocka Flame, Lil Wayne and Sean Combs, was uploaded to will.i.am\'s official YouTube account on January 25, 2013, after it was leaked on the internet earlier the same day. A music video for this version was filmed in January 2013 and released on February 14.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/We_Found_Love', 'track_name': 'We Found Love', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/We_Found_Love', 'abstract': '"We Found Love" is a song by Barbadian singer Rihanna from her sixth studio album, Talk That Talk (2011). It was written and produced by, and features Scottish DJ Calvin Harris; the song was also featured on his third album 18 Months (2012). "We Found Love" premiered on September 22, 2011, on the Capital FM radio station in the United Kingdom, and was made available to download on the same day as the lead single from Talk That Talk. "We Found Love" is an uptempo electro house song, with elements of dance-pop, techno and Europop. The song\'s lyrics speak of a couple who "found love in a hopeless place". The song topped the US Billboard Hot 100 for ten non-consecutive weeks, becoming the longest running number-one single of 2011. The single also surpassed "Umbrella" and became Rihanna\'s longest running number one single. It was the singer\'s eleventh song to top the Hot 100, placing her in third place among female recording artists amassing the most number one singles. Outside of the United States, "We Found Love" topped the charts in 25 other countries, including Canada, France, Germany, New Zealand, the Republic of Ireland, Russia, Scotland, Switzerland, and the United Kingdom. According to Billboard it is the 27th most successful single of all time in the US. As of 2015, the single has sold 10.5 million copies worldwide, thus being one of the best selling singles of all time. The song\'s accompanying music video, directed by Melina Matsoukas, depicts the singer as a drug-abusing thrill-seeker in a relationship that quickly spirals downward into addiction and violence. The video won a Grammy for "Best Short Form Music Video" at the 55th Annual Grammy Awards and "Video of the Year" at the 2012 MTV Video Music Awards. The song has been performed on both the UK and US versions of The X Factor, as well as at the 2012 Grammy Awards and the 2012 BRIT Awards. Multiple recording artists have covered "We Found Love" including British artists Coldplay and Jessie J.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Set_Fire_to_the_Rain', 'track_name': 'Set Fire to the Rain', 'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/Set_Fire_to_the_Rain', 'abstract': '"Set Fire to the Rain" is a song recorded by English singer-songwriter Adele for her second studio album, 21. The song was Adele\'s third consecutive US number-one single from 21 and reached the top ten in most of other foreign markets. The song was voted by readers of Billboard as their favorite number one hit of 2012. The song\'s live rendition from the DVD Live at the Royal Albert Hall won the Grammy Award for Best Pop Solo Performance at the 55th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Yummy_(Justin_Bieber_song)', 'track_name': 'Yummy', 'artist': 'http://dbpedia.org/resource/Justin_Bieber', 'artist_name': 'Justin Bieber', 'wiki': 'http://en.wikipedia.org/wiki/Yummy_(Justin_Bieber_song)', 'abstract': '"Yummy" is a song by Canadian singer Justin Bieber. It was released on January 3, 2020, along with a lyric video through Def Jam Recordings, as the lead single from his fifth studio album, Changes. The song is Bieber\'s first single as a solo artist to be released in almost four years, following his March 2016 single, "Company", a song from his 2015 album Purpose. Bieber joined the video-sharing social networking service TikTok on the day of the song\'s release. "Yummy" received mixed reviews from music critics, some of whom complimented on Bieber\'s vocal performance while others criticized the song\'s production, its songwriting, and Bieber\'s delivery. The song debuted at number two on the US Billboard Hot 100, while reaching the top five in Australia, Canada, the United Kingdom and various other countries, and hitting number one in New Zealand. The song\'s official music video was released on January 4, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Going_Under', 'track_name': 'Going Under', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Going_Under', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': '"Going Under" is a song by American rock band Evanescence. Recorded for their debut studio album, Fallen (2003), Wind-up Records released it as the album\'s second single on September 9, 2003. The song was written by Evanescence members Amy Lee, David Hodges and Ben Moody while its production was handled by Dave Fortman. The song contains rock and heavy metal elements and its instrumentation consists of drums and guitars built around Lee\'s soprano vocals. Lyrically, "Going Under" was written about an emotionally difficult past relationship. It received mostly positive reviews from music critics, most of whom praised its anthemic chorus and Lee\'s vocal performance. "Going Under" peaked at number five on the US Billboard Alternative Songs chart, charted in the top ten in Brazil, Italy, New Zealand and the UK and the top forty in various other European countries and Australia. It obtained a platinum certification in the latter country by the Australian Recording Industry Association (ARIA). A music video for the song was directed by Philipp Stölzl and it was filmed in May 2003 in Berlin. It features the band performing the song live, while spectators from the audience turn into zombies and water in which lead singer Lee drowns, illustrating the song\'s lyrics of sinking. The singer designed both of the dresses she wears in the video. Evanescence performed the song live during the set list of their concert tours in support of Fallen (2003-2004) and The Open Door (2006-2007) as well as the Evanescence Tour (2011-2012) in support of their self-titled third studio album. They also performed it during several of their televised appearances, such as the 2003 Teen Choice Awards, the 2003 American Music Awards and the Jimmy Kimmel Live! show in 2011.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Domino_Dancing', 'track_name': 'Domino Dancing', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/Domino_Dancing', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Domino Dancing" is a song by English synth-pop duo Pet Shop Boys, released as the lead single from their third studio album, Introspective (1988). It reached number seven on the UK Singles Chart and topped the charts in Finland, Poland and Spain.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Disturbia_(song)', 'track_name': 'Disturbia', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Disturbia_(song)', 'abstract': '"Disturbia" is a song recorded by Barbadian singer Rihanna for Good Girl Gone Bad: Reloaded (2008), a re-release of her third studio album Good Girl Gone Bad (2007). It was written by Andre Merritt, Chris Brown, Brian Kennedy and Rob. A!, with the production of the song helmed by Kennedy. The song was released as the third single from the reloaded edition of the album, and seventh overall. "Disturbia" was sent to US contemporary hit radio on June 17, 2008, and was released as a CD single in the United Kingdom on July 22, 2008. "Disturbia" is an uptempo dance-pop and electropop song with a "sizzling" beat. Lyrically, the song is about the experiences of anguish, anxiety, and confusion. The song received positive reviews from music critics, who generally praised its dark musical tone, lyrics and beat, and noted that it is reminiscent of Rihanna\'s previous single, "Don\'t Stop the Music" (2007). "Disturbia" earned Rihanna an award for Best International Song at the 2009 NRJ Music Awards and a nomination for Best Dance Recording at the 2009 Grammy Awards. "Disturbia" was a commercial success, and peaked at number one in Belgium (Flanders) and New Zealand and became a top-ten hit in more than twenty countries including Australia, Canada, and the United Kingdom. The song topped the US Billboard Hot 100 chart for two consecutive weeks, and became Rihanna\'s third number-one single from Good Girl Gone Bad and fourth overall on the Hot 100. The accompanying music video for "Disturbia" was directed by Anthony Mandler, which portrays Rihanna in various locations such as in a prison cell and gas chamber. "Disturbia" has regularly featured on the set lists of Rihanna\'s tours and live performances since its release.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Boston', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Boston', 'place': 'http://sws.geonames.org/4930956/', 'postal_code': '02210', 'geo_link': 'http://www.geonames.org/4930956/boston.html', 'lat': '42.35805555555555', 'long': '-71.06361111111111', 'population': '617594'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Tallahassee, Florida', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%BB%D0%BB%D0%B0%D1%85%D0%B0%D1%81%D1%81%D0%B8', 'place': 'http://sws.geonames.org/4174715/', 'postal_code': '32314', 'geo_link': 'http://www.geonames.org/4174715/tallahassee.html', 'lat': '30.455', 'long': '-84.25333333333333', 'population': '181376'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Braintree, Essex', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Braintree%2C_Essex', 'place': 'http://sws.geonames.org/2654938/', 'geo_link': 'http://www.geonames.org/2654938/braintree.html', 'lat': '51.878', 'long': '0.55', 'population': '46765'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Crawley', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Crawley', 'place': 'http://sws.geonames.org/7298686/', 'geo_link': 'http://www.geonames.org/7298686/crawley.html', 'lat': '51.10916666666667', 'long': '-0.1872222222222222'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Mechanicsburg, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Mechanicsburg%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5200657/', 'postal_code': '17050', 'geo_link': 'http://www.geonames.org/5200657/mechanicsburg.html', 'lat': '40.21222222222222', 'long': '-77.00611111111111', 'population': '8981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Madison, Wisconsin', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Madison%2C_Wisconsin', 'place': 'http://sws.geonames.org/5261457/', 'postal_code': '53725', 'geo_link': 'http://www.geonames.org/5261457/madison.html', 'lat': '43.06666666666667', 'long': '-89.4', 'population': '233209'}</t>
   </si>
   <si>
     <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Minas Gerais', 'country_code': 'BR', 'wiki': 'http://en.wikipedia.org/wiki/Minas_Gerais', 'place': 'http://sws.geonames.org/3457153/', 'geo_link': 'http://www.geonames.org/3457153/minas-gerais.html', 'lat': '-18', 'long': '-43.95', 'population': '19595309'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
+    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pacific Palisades, Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Pacific_Palisades%2C_Los_Angeles', 'place': 'http://sws.geonames.org/5380378/', 'postal_code': '90272', 'geo_link': 'http://www.geonames.org/5380378/pacific-palisades.html', 'lat': '34.04806', 'long': '-118.52556'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Columbus, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BB%D1%83%D0%BC%D0%B1%D1%83%D1%81_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/4509177/', 'postal_code': '43232', 'geo_link': 'http://www.geonames.org/4509177/columbus.html', 'lat': '39.983333333333334', 'long': '-82.98333333333333', 'population': '787033'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Aberdeen, Washington', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Aberdeen%2C_Washington', 'place': 'http://sws.geonames.org/5785243/', 'postal_code': '98520', 'geo_link': 'http://www.geonames.org/5785243/aberdeen.html', 'lat': '46.975833333333334', 'long': '-123.81861111111111', 'population': '16896'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Leighton Buzzard', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leighton_Buzzard', 'place': 'http://sws.geonames.org/2644652/', 'geo_link': 'http://www.geonames.org/2644652/leighton-buzzard.html', 'lat': '51.9165', 'long': '-0.6617', 'population': '33467'}</t>
   </si>
   <si>
     <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Linköping', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Link%C3%B6ping', 'place': 'http://sws.geonames.org/2694762/', 'geo_link': 'http://www.geonames.org/2694762/linkoeping.html', 'lat': '58.41583333333333', 'long': '15.625277777777777', 'population': '96732'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Berlin', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Berlin', 'place': 'http://sws.geonames.org/6547383/', 'postal_code': '10967', 'geo_link': 'http://www.geonames.org/2950157/land-berlin.html', 'lat': '52.5', 'long': '13.145833333333334', 'population': '3426354'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peoria, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Peoria%2C_Illinois', 'place': 'http://sws.geonames.org/4905687/', 'postal_code': '61638', 'geo_link': 'http://www.geonames.org/4905687/peoria.html', 'lat': '40.72083333333333', 'long': '-89.60944444444445', 'population': '115007'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sacramento, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%B8%D0%BD%D1%81%D1%82%D0%B2%D0%BE', 'place': 'http://sws.geonames.org/5389489/', 'postal_code': '94258', 'geo_link': 'http://www.geonames.org/5389489/sacramento.html', 'lat': '38.55555555555556', 'long': '-121.46888888888888', 'population': '466488'}</t>
-  </si>
-  <si>
     <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgend', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bridgend', 'place': 'http://sws.geonames.org/2654755/', 'geo_link': 'http://www.geonames.org/2654755/bridgend.html', 'lat': '51.5072', 'long': '-3.5784', 'population': '39429'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
+    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Kingston, Jamaica', 'country_code': 'JM', 'wiki': 'http://en.wikipedia.org/wiki/Kingston,_Jamaica', 'place': 'http://sws.geonames.org/3489854/', 'geo_link': 'http://www.geonames.org/3489854/kingston.html', 'lat': '17.983333333333334', 'long': '-76.8', 'population': '937700'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'South Orange, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/South_Orange%2C_New_Jersey', 'place': 'http://sws.geonames.org/7259012/', 'geo_link': 'http://www.geonames.org/7259012/south-orange.html', 'lat': '40.748811', 'long': '-74.261513'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Collegeville, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Collegeville%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5184966/', 'postal_code': '19426', 'geo_link': 'http://www.geonames.org/5184966/collegeville.html', 'lat': '40.18555555555555', 'long': '-75.45833333333333', 'population': '5089'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cambridge', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Cambridge', 'place': 'http://sws.geonames.org/2653940/', 'geo_link': 'http://www.geonames.org/2653940/cambridgeshire.html', 'lat': '52.205', 'long': '0.119', 'population': '752900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pasadena, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%B0%D1%81%D0%B0%D0%B4%D0%B8%D0%BD%D0%B0_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5381396/', 'postal_code': '91117', 'geo_link': 'http://www.geonames.org/5381396/pasadena.html', 'lat': '34.15611111111111', 'long': '-118.13194444444444', 'population': '137122'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Berkeley, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%91%D0%B5%D1%80%D0%BA%D0%BB%D0%B8', 'place': 'http://sws.geonames.org/5327684/', 'postal_code': '94707', 'geo_link': 'http://www.geonames.org/5327684/berkeley.html', 'lat': '37.87166666666667', 'long': '-122.27277777777778', 'population': '112580'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Limerick', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Limerick', 'place': 'http://sws.geonames.org/7778675/', 'geo_link': 'http://www.geonames.org/2962943/luimneach.html', 'lat': '52.6653', 'long': '-8.6238', 'population': '57106'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Basildon', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Basildon', 'place': 'http://sws.geonames.org/2656194/', 'geo_link': 'http://www.geonames.org/2656194/basildon.html', 'lat': '51.5761', 'long': '0.4886', 'population': '101362'}</t>
   </si>
 </sst>
 </file>
@@ -1761,37 +2289,31 @@
         <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H2" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="I2">
-        <v>3.936329126358032</v>
+        <v>5.420347213745117</v>
       </c>
       <c r="J2">
-        <v>1.671716451644897</v>
+        <v>11.09140729904175</v>
       </c>
       <c r="K2">
-        <v>0.09373116493225098</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1805,31 +2327,31 @@
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="G3" t="s">
-        <v>361</v>
+        <v>492</v>
       </c>
       <c r="H3" t="s">
-        <v>419</v>
+        <v>578</v>
       </c>
       <c r="I3">
-        <v>3.342957735061646</v>
+        <v>13.24685120582581</v>
       </c>
       <c r="J3">
-        <v>1.53088641166687</v>
+        <v>1.359054088592529</v>
       </c>
       <c r="K3">
-        <v>0.09372925758361816</v>
+        <v>0.1093661785125732</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1849,28 +2371,28 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>493</v>
       </c>
       <c r="H4" t="s">
-        <v>420</v>
+        <v>579</v>
       </c>
       <c r="I4">
-        <v>2.98344087600708</v>
+        <v>3.561389923095703</v>
       </c>
       <c r="J4">
-        <v>1.18743371963501</v>
+        <v>22.35432028770447</v>
       </c>
       <c r="K4">
-        <v>0.1093688011169434</v>
+        <v>0.09372878074645996</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1893,37 +2415,37 @@
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>363</v>
+        <v>494</v>
       </c>
       <c r="H5" t="s">
-        <v>421</v>
+        <v>580</v>
       </c>
       <c r="I5">
-        <v>5.686594009399414</v>
+        <v>4.31151294708252</v>
       </c>
       <c r="J5">
-        <v>1.999758243560791</v>
+        <v>1.21872878074646</v>
       </c>
       <c r="K5">
-        <v>0.1093554496765137</v>
+        <v>0.06222248077392578</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1937,37 +2459,31 @@
         <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H6" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="I6">
-        <v>4.514290332794189</v>
+        <v>6.310773372650146</v>
       </c>
       <c r="J6">
-        <v>1.609229564666748</v>
+        <v>13.18461298942566</v>
       </c>
       <c r="K6">
-        <v>0.1093480587005615</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1981,37 +2497,28 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="I7">
-        <v>4.717668294906616</v>
+        <v>0.4219355583190918</v>
       </c>
       <c r="J7">
-        <v>1.390296936035156</v>
+        <v>11.38800573348999</v>
       </c>
       <c r="K7">
-        <v>0.09372878074645996</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2025,34 +2532,34 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>310</v>
+      </c>
+      <c r="F8" t="s">
+        <v>400</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H8" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="I8">
-        <v>0.4686381816864014</v>
+        <v>4.79624080657959</v>
       </c>
       <c r="J8">
-        <v>1.765439033508301</v>
+        <v>6.779515981674194</v>
       </c>
       <c r="K8">
-        <v>0.09349560737609863</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2066,37 +2573,37 @@
         <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
-        <v>367</v>
+        <v>496</v>
       </c>
       <c r="H9" t="s">
-        <v>425</v>
+        <v>581</v>
       </c>
       <c r="I9">
-        <v>4.045669794082642</v>
+        <v>4.170837640762329</v>
       </c>
       <c r="J9">
-        <v>1.577978610992432</v>
+        <v>1.640471458435059</v>
       </c>
       <c r="K9">
-        <v>0.06250262260437012</v>
+        <v>0.09351229667663574</v>
       </c>
       <c r="L9">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2110,37 +2617,37 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="G10" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="H10" t="s">
-        <v>426</v>
+        <v>582</v>
       </c>
       <c r="I10">
-        <v>3.249001741409302</v>
+        <v>4.529956102371216</v>
       </c>
       <c r="J10">
-        <v>1.359285831451416</v>
+        <v>1.406182527542114</v>
       </c>
       <c r="K10">
-        <v>0.1093542575836182</v>
+        <v>0.109342098236084</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2154,31 +2661,37 @@
         <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>403</v>
+      </c>
+      <c r="G11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" t="s">
+        <v>581</v>
       </c>
       <c r="I11">
-        <v>9.013495683670044</v>
+        <v>3.670725584030151</v>
       </c>
       <c r="J11">
-        <v>13.57490921020508</v>
+        <v>1.327966213226318</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1094729900360107</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2192,28 +2705,28 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="G12" t="s">
-        <v>369</v>
+        <v>499</v>
       </c>
       <c r="H12" t="s">
-        <v>427</v>
+        <v>583</v>
       </c>
       <c r="I12">
-        <v>3.358349561691284</v>
+        <v>5.201664686203003</v>
       </c>
       <c r="J12">
-        <v>1.453015804290771</v>
+        <v>1.328043937683105</v>
       </c>
       <c r="K12">
-        <v>0.1093506813049316</v>
+        <v>0.1249690055847168</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2236,37 +2749,31 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" t="s">
-        <v>370</v>
-      </c>
-      <c r="H13" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="I13">
-        <v>4.842374324798584</v>
+        <v>2.686631441116333</v>
       </c>
       <c r="J13">
-        <v>1.171825170516968</v>
+        <v>12.91904997825623</v>
       </c>
       <c r="K13">
-        <v>0.1093487739562988</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2280,28 +2787,28 @@
         <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>429</v>
+        <v>584</v>
       </c>
       <c r="I14">
-        <v>4.498706340789795</v>
+        <v>4.280006408691406</v>
       </c>
       <c r="J14">
-        <v>1.218703985214233</v>
+        <v>1.312215089797974</v>
       </c>
       <c r="K14">
-        <v>0.1093344688415527</v>
+        <v>0.09393644332885742</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2310,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2324,37 +2831,37 @@
         <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>407</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>501</v>
       </c>
       <c r="H15" t="s">
-        <v>430</v>
+        <v>585</v>
       </c>
       <c r="I15">
-        <v>4.014443635940552</v>
+        <v>3.124260425567627</v>
       </c>
       <c r="J15">
-        <v>1.577985763549805</v>
+        <v>1.499642848968506</v>
       </c>
       <c r="K15">
-        <v>0.1249701976776123</v>
+        <v>0.1093542575836182</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2368,31 +2875,37 @@
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
+        <v>408</v>
+      </c>
+      <c r="G16" t="s">
+        <v>502</v>
+      </c>
+      <c r="H16" t="s">
+        <v>586</v>
       </c>
       <c r="I16">
-        <v>3.905089139938354</v>
+        <v>4.061309099197388</v>
       </c>
       <c r="J16">
-        <v>14.66863918304443</v>
+        <v>1.390525341033936</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1249673366546631</v>
       </c>
       <c r="L16">
         <v>0.8333333333333334</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2406,31 +2919,37 @@
         <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>409</v>
+      </c>
+      <c r="G17" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" t="s">
+        <v>587</v>
       </c>
       <c r="I17">
-        <v>4.123787879943848</v>
+        <v>3.202136754989624</v>
       </c>
       <c r="J17">
-        <v>12.96592092514038</v>
+        <v>1.249670505523682</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1096165180206299</v>
       </c>
       <c r="L17">
         <v>0.8333333333333334</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2444,31 +2963,31 @@
         <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="H18" t="s">
-        <v>431</v>
+        <v>588</v>
       </c>
       <c r="I18">
-        <v>5.373493909835815</v>
+        <v>5.82674765586853</v>
       </c>
       <c r="J18">
-        <v>1.312428951263428</v>
+        <v>1.421525955200195</v>
       </c>
       <c r="K18">
-        <v>0.09372377395629883</v>
+        <v>0.09373807907104492</v>
       </c>
       <c r="L18">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2488,31 +3007,31 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="G19" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="H19" t="s">
-        <v>428</v>
+        <v>589</v>
       </c>
       <c r="I19">
-        <v>3.187248468399048</v>
+        <v>2.718140602111816</v>
       </c>
       <c r="J19">
-        <v>1.249724864959717</v>
+        <v>1.249939203262329</v>
       </c>
       <c r="K19">
-        <v>0.09394383430480957</v>
+        <v>0.0934598445892334</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2532,37 +3051,34 @@
         <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="G20" t="s">
-        <v>375</v>
-      </c>
-      <c r="H20" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="I20">
-        <v>4.342486381530762</v>
+        <v>5.68592381477356</v>
       </c>
       <c r="J20">
-        <v>1.484259128570557</v>
+        <v>27.43124628067017</v>
       </c>
       <c r="K20">
-        <v>0.09372782707214355</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0.8333333333333334</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2576,28 +3092,28 @@
         <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>413</v>
       </c>
       <c r="G21" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="H21" t="s">
-        <v>433</v>
+        <v>590</v>
       </c>
       <c r="I21">
-        <v>4.186481714248657</v>
+        <v>2.702251434326172</v>
       </c>
       <c r="J21">
-        <v>1.671714782714844</v>
+        <v>1.156095743179321</v>
       </c>
       <c r="K21">
-        <v>0.1247653961181641</v>
+        <v>0.1094620227813721</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2606,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2620,28 +3136,28 @@
         <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>414</v>
       </c>
       <c r="G22" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
       <c r="H22" t="s">
-        <v>418</v>
+        <v>589</v>
       </c>
       <c r="I22">
-        <v>3.108405828475952</v>
+        <v>4.85797905921936</v>
       </c>
       <c r="J22">
-        <v>1.484265089035034</v>
+        <v>1.03124213218689</v>
       </c>
       <c r="K22">
-        <v>0.2343125343322754</v>
+        <v>0.07810330390930176</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2664,37 +3180,34 @@
         <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>378</v>
-      </c>
-      <c r="H23" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
       <c r="I23">
-        <v>7.169949054718018</v>
+        <v>4.186466932296753</v>
       </c>
       <c r="J23">
-        <v>1.609227895736694</v>
+        <v>2.171369552612305</v>
       </c>
       <c r="K23">
-        <v>0.07810163497924805</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2708,28 +3221,28 @@
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>591</v>
       </c>
       <c r="I24">
-        <v>4.670752763748169</v>
+        <v>5.170424938201904</v>
       </c>
       <c r="J24">
-        <v>1.749820947647095</v>
+        <v>22.19814300537109</v>
       </c>
       <c r="K24">
-        <v>0.1091327667236328</v>
+        <v>0.09372210502624512</v>
       </c>
       <c r="L24">
         <v>0.8333333333333334</v>
@@ -2738,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2752,34 +3265,37 @@
         <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>417</v>
       </c>
       <c r="G25" t="s">
-        <v>380</v>
+        <v>511</v>
+      </c>
+      <c r="H25" t="s">
+        <v>592</v>
       </c>
       <c r="I25">
-        <v>5.576803207397461</v>
+        <v>7.216804265975952</v>
       </c>
       <c r="J25">
-        <v>0.6717252731323242</v>
+        <v>1.187217950820923</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.09396910667419434</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2793,37 +3309,34 @@
         <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
-      </c>
-      <c r="H26" t="s">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="I26">
-        <v>4.217577695846558</v>
+        <v>5.076912403106689</v>
       </c>
       <c r="J26">
-        <v>6.857982158660889</v>
+        <v>1.624627828598022</v>
       </c>
       <c r="K26">
-        <v>0.2030179500579834</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N26">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2837,37 +3350,34 @@
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="F27" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="G27" t="s">
-        <v>382</v>
-      </c>
-      <c r="H27" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="I27">
-        <v>4.123792886734009</v>
+        <v>3.467928409576416</v>
       </c>
       <c r="J27">
-        <v>1.374915838241577</v>
+        <v>6.15479564666748</v>
       </c>
       <c r="K27">
-        <v>0.09372115135192871</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2881,37 +3391,31 @@
         <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
-      </c>
-      <c r="G28" t="s">
-        <v>383</v>
-      </c>
-      <c r="H28" t="s">
         <v>420</v>
       </c>
       <c r="I28">
-        <v>3.998820304870605</v>
+        <v>3.249203681945801</v>
       </c>
       <c r="J28">
-        <v>1.437400102615356</v>
+        <v>11.91908240318298</v>
       </c>
       <c r="K28">
-        <v>0.093719482421875</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2925,31 +3429,31 @@
         <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="G29" t="s">
-        <v>384</v>
+        <v>514</v>
       </c>
       <c r="H29" t="s">
-        <v>421</v>
+        <v>593</v>
       </c>
       <c r="I29">
-        <v>6.060832738876343</v>
+        <v>6.904384136199951</v>
       </c>
       <c r="J29">
-        <v>1.281179904937744</v>
+        <v>1.202811002731323</v>
       </c>
       <c r="K29">
-        <v>0.09372854232788086</v>
+        <v>0.1096148490905762</v>
       </c>
       <c r="L29">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2969,28 +3473,28 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E30" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>422</v>
       </c>
       <c r="G30" t="s">
-        <v>385</v>
+        <v>515</v>
       </c>
       <c r="H30" t="s">
-        <v>436</v>
+        <v>594</v>
       </c>
       <c r="I30">
-        <v>5.529701709747314</v>
+        <v>9.278784513473511</v>
       </c>
       <c r="J30">
-        <v>1.359317541122437</v>
+        <v>1.452858924865723</v>
       </c>
       <c r="K30">
-        <v>0.0937044620513916</v>
+        <v>0.09388232231140137</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3013,37 +3517,31 @@
         <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" t="s">
-        <v>386</v>
-      </c>
-      <c r="H31" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="I31">
-        <v>4.514326333999634</v>
+        <v>4.98296332359314</v>
       </c>
       <c r="J31">
-        <v>1.171866178512573</v>
+        <v>13.57518243789673</v>
       </c>
       <c r="K31">
-        <v>0.1093106269836426</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0.8333333333333334</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3057,37 +3555,34 @@
         <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>424</v>
       </c>
       <c r="G32" t="s">
-        <v>387</v>
-      </c>
-      <c r="H32" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="I32">
-        <v>3.280246496200562</v>
+        <v>7.013737440109253</v>
       </c>
       <c r="J32">
-        <v>1.171833276748657</v>
+        <v>5.515270471572876</v>
       </c>
       <c r="K32">
-        <v>0.1093480587005615</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0.8333333333333334</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3101,31 +3596,37 @@
         <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>425</v>
+      </c>
+      <c r="G33" t="s">
+        <v>517</v>
+      </c>
+      <c r="H33" t="s">
+        <v>594</v>
       </c>
       <c r="I33">
-        <v>3.264854907989502</v>
+        <v>5.248523712158203</v>
       </c>
       <c r="J33">
-        <v>11.85656452178955</v>
+        <v>1.234048843383789</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.09399199485778809</v>
       </c>
       <c r="L33">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3139,31 +3640,37 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>426</v>
+      </c>
+      <c r="G34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H34" t="s">
+        <v>590</v>
       </c>
       <c r="I34">
-        <v>3.811364650726318</v>
+        <v>10.66911792755127</v>
       </c>
       <c r="J34">
-        <v>13.40398621559143</v>
+        <v>0.999769926071167</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.109574556350708</v>
       </c>
       <c r="L34">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3177,31 +3684,37 @@
         <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>427</v>
+      </c>
+      <c r="G35" t="s">
+        <v>519</v>
+      </c>
+      <c r="H35" t="s">
+        <v>595</v>
       </c>
       <c r="I35">
-        <v>3.811599969863892</v>
+        <v>9.51314115524292</v>
       </c>
       <c r="J35">
-        <v>12.70012068748474</v>
+        <v>1.281183004379272</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.1093490123748779</v>
       </c>
       <c r="L35">
         <v>0.8333333333333334</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3215,31 +3728,37 @@
         <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>428</v>
+      </c>
+      <c r="G36" t="s">
+        <v>520</v>
+      </c>
+      <c r="H36" t="s">
+        <v>596</v>
       </c>
       <c r="I36">
-        <v>2.608518123626709</v>
+        <v>2.76497220993042</v>
       </c>
       <c r="J36">
-        <v>19.19881987571716</v>
+        <v>1.062335014343262</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.109264612197876</v>
       </c>
       <c r="L36">
         <v>0.8333333333333334</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3253,37 +3772,34 @@
         <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>429</v>
       </c>
       <c r="G37" t="s">
-        <v>388</v>
-      </c>
-      <c r="H37" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="I37">
-        <v>6.279506921768188</v>
+        <v>3.780128955841064</v>
       </c>
       <c r="J37">
-        <v>1.577989339828491</v>
+        <v>2.265320539474487</v>
       </c>
       <c r="K37">
-        <v>0.09376001358032227</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3297,31 +3813,37 @@
         <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>430</v>
+      </c>
+      <c r="G38" t="s">
+        <v>522</v>
+      </c>
+      <c r="H38" t="s">
+        <v>596</v>
       </c>
       <c r="I38">
-        <v>4.592427968978882</v>
+        <v>4.936103820800781</v>
       </c>
       <c r="J38">
-        <v>13.54389882087708</v>
+        <v>1.218689203262329</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.09372735023498535</v>
       </c>
       <c r="L38">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3335,28 +3857,28 @@
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>431</v>
       </c>
       <c r="G39" t="s">
-        <v>389</v>
+        <v>523</v>
       </c>
       <c r="H39" t="s">
-        <v>436</v>
+        <v>597</v>
       </c>
       <c r="I39">
-        <v>5.248682975769043</v>
+        <v>6.357639312744141</v>
       </c>
       <c r="J39">
-        <v>2.093254804611206</v>
+        <v>22.21372509002686</v>
       </c>
       <c r="K39">
-        <v>0.2187747955322266</v>
+        <v>0.1093502044677734</v>
       </c>
       <c r="L39">
         <v>0.8333333333333334</v>
@@ -3379,37 +3901,31 @@
         <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
-      </c>
-      <c r="G40" t="s">
-        <v>390</v>
-      </c>
-      <c r="H40" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I40">
-        <v>3.592666149139404</v>
+        <v>5.342217445373535</v>
       </c>
       <c r="J40">
-        <v>1.359288930892944</v>
+        <v>11.60686564445496</v>
       </c>
       <c r="K40">
-        <v>0.1093487739562988</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0.8333333333333334</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3423,37 +3939,37 @@
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>433</v>
       </c>
       <c r="G41" t="s">
-        <v>391</v>
+        <v>524</v>
       </c>
       <c r="H41" t="s">
-        <v>436</v>
+        <v>592</v>
       </c>
       <c r="I41">
-        <v>7.357399940490723</v>
+        <v>3.592883110046387</v>
       </c>
       <c r="J41">
-        <v>1.296800851821899</v>
+        <v>1.421574115753174</v>
       </c>
       <c r="K41">
-        <v>0.1093523502349854</v>
+        <v>0.1406059265136719</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3467,37 +3983,37 @@
         <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>434</v>
       </c>
       <c r="G42" t="s">
-        <v>392</v>
+        <v>525</v>
       </c>
       <c r="H42" t="s">
-        <v>436</v>
+        <v>592</v>
       </c>
       <c r="I42">
-        <v>4.170659065246582</v>
+        <v>3.546038866043091</v>
       </c>
       <c r="J42">
-        <v>1.390523910522461</v>
+        <v>1.28098726272583</v>
       </c>
       <c r="K42">
-        <v>0.09373331069946289</v>
+        <v>0.09368729591369629</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3511,37 +4027,34 @@
         <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="F43" t="s">
-        <v>303</v>
+        <v>435</v>
       </c>
       <c r="G43" t="s">
-        <v>393</v>
-      </c>
-      <c r="H43" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="I43">
-        <v>3.842576503753662</v>
+        <v>4.687015295028687</v>
       </c>
       <c r="J43">
-        <v>1.218491792678833</v>
+        <v>1.171831846237183</v>
       </c>
       <c r="K43">
-        <v>0.09395623207092285</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3555,19 +4068,22 @@
         <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>436</v>
+      </c>
+      <c r="G44" t="s">
+        <v>527</v>
       </c>
       <c r="I44">
-        <v>3.905829668045044</v>
+        <v>4.983198642730713</v>
       </c>
       <c r="J44">
-        <v>12.10674738883972</v>
+        <v>1.593371391296387</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3576,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3593,19 +4109,22 @@
         <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>437</v>
+      </c>
+      <c r="G45" t="s">
+        <v>528</v>
       </c>
       <c r="I45">
-        <v>3.342724561691284</v>
+        <v>7.216813564300537</v>
       </c>
       <c r="J45">
-        <v>13.63763475418091</v>
+        <v>1.984136343002319</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3614,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3631,28 +4150,28 @@
         <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>394</v>
+        <v>529</v>
       </c>
       <c r="H46" t="s">
-        <v>424</v>
+        <v>598</v>
       </c>
       <c r="I46">
-        <v>3.135275363922119</v>
+        <v>3.561642169952393</v>
       </c>
       <c r="J46">
-        <v>1.316816568374634</v>
+        <v>1.296830892562866</v>
       </c>
       <c r="K46">
-        <v>0.09372806549072266</v>
+        <v>0.109102725982666</v>
       </c>
       <c r="L46">
         <v>0.8333333333333334</v>
@@ -3675,37 +4194,31 @@
         <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="G47" t="s">
-        <v>395</v>
-      </c>
-      <c r="H47" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="I47">
-        <v>3.951920509338379</v>
+        <v>0.484532356262207</v>
       </c>
       <c r="J47">
-        <v>1.218726634979248</v>
+        <v>1.374640941619873</v>
       </c>
       <c r="K47">
-        <v>0.07811188697814941</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3719,37 +4232,31 @@
         <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" t="s">
-        <v>396</v>
-      </c>
-      <c r="H48" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="I48">
-        <v>4.748608112335205</v>
+        <v>3.233376502990723</v>
       </c>
       <c r="J48">
-        <v>1.54677414894104</v>
+        <v>10.99739074707031</v>
       </c>
       <c r="K48">
-        <v>0.09373188018798828</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0.8333333333333334</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3763,37 +4270,34 @@
         <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>309</v>
+        <v>440</v>
       </c>
       <c r="G49" t="s">
-        <v>397</v>
-      </c>
-      <c r="H49" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="I49">
-        <v>3.467656135559082</v>
+        <v>4.85799503326416</v>
       </c>
       <c r="J49">
-        <v>1.531154870986938</v>
+        <v>6.88923168182373</v>
       </c>
       <c r="K49">
-        <v>0.09373068809509277</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3807,28 +4311,28 @@
         <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="G50" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="H50" t="s">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="I50">
-        <v>4.264345169067383</v>
+        <v>3.577049732208252</v>
       </c>
       <c r="J50">
-        <v>1.453051805496216</v>
+        <v>1.234312295913696</v>
       </c>
       <c r="K50">
-        <v>0.09373211860656738</v>
+        <v>0.1249656677246094</v>
       </c>
       <c r="L50">
         <v>0.8333333333333334</v>
@@ -3837,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3851,37 +4355,37 @@
         <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="F51" t="s">
-        <v>311</v>
+        <v>442</v>
       </c>
       <c r="G51" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="H51" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="I51">
-        <v>2.82745885848999</v>
+        <v>4.483081817626953</v>
       </c>
       <c r="J51">
-        <v>1.718612909317017</v>
+        <v>2.796448230743408</v>
       </c>
       <c r="K51">
-        <v>0.09345650672912598</v>
+        <v>0.1093478202819824</v>
       </c>
       <c r="L51">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3895,19 +4399,22 @@
         <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>312</v>
+        <v>443</v>
+      </c>
+      <c r="G52" t="s">
+        <v>534</v>
       </c>
       <c r="I52">
-        <v>3.780379772186279</v>
+        <v>3.6866295337677</v>
       </c>
       <c r="J52">
-        <v>13.23125648498535</v>
+        <v>7.295154333114624</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3916,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3933,25 +4440,28 @@
         <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>444</v>
       </c>
       <c r="G53" t="s">
-        <v>400</v>
+        <v>535</v>
+      </c>
+      <c r="H53" t="s">
+        <v>601</v>
       </c>
       <c r="I53">
-        <v>2.655349969863892</v>
+        <v>3.342957019805908</v>
       </c>
       <c r="J53">
-        <v>1.468631982803345</v>
+        <v>1.281174659729004</v>
       </c>
       <c r="K53">
-        <v>0.1093571186065674</v>
+        <v>0.09349870681762695</v>
       </c>
       <c r="L53">
         <v>0.8333333333333334</v>
@@ -3960,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3974,31 +4484,31 @@
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="G54" t="s">
-        <v>401</v>
+        <v>536</v>
       </c>
       <c r="I54">
-        <v>2.702255249023438</v>
+        <v>2.889698028564453</v>
       </c>
       <c r="J54">
-        <v>1.781095504760742</v>
+        <v>2.062253713607788</v>
       </c>
       <c r="K54">
-        <v>0.06248641014099121</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4015,31 +4525,31 @@
         <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="F55" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
       <c r="G55" t="s">
-        <v>402</v>
+        <v>537</v>
       </c>
       <c r="I55">
-        <v>4.280232906341553</v>
+        <v>5.357876300811768</v>
       </c>
       <c r="J55">
-        <v>2.593368530273438</v>
+        <v>8.232662677764893</v>
       </c>
       <c r="K55">
-        <v>0.09346437454223633</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4056,31 +4566,31 @@
         <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="F56" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="G56" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
       <c r="I56">
-        <v>3.186479091644287</v>
+        <v>3.327068328857422</v>
       </c>
       <c r="J56">
-        <v>1.531149864196777</v>
+        <v>7.467255830764771</v>
       </c>
       <c r="K56">
-        <v>0.09373259544372559</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4097,31 +4607,37 @@
         <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>539</v>
+      </c>
+      <c r="H57" t="s">
+        <v>600</v>
       </c>
       <c r="I57">
-        <v>3.592613220214844</v>
+        <v>2.811610221862793</v>
       </c>
       <c r="J57">
-        <v>20.94845819473267</v>
+        <v>22.49586844444275</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.1093435287475586</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4135,28 +4651,31 @@
         <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="F58" t="s">
-        <v>318</v>
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>540</v>
       </c>
       <c r="I58">
-        <v>3.4991614818573</v>
+        <v>3.108383417129517</v>
       </c>
       <c r="J58">
-        <v>18.82435178756714</v>
+        <v>21.79297232627869</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4173,28 +4692,31 @@
         <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="F59" t="s">
-        <v>319</v>
+        <v>450</v>
+      </c>
+      <c r="G59" t="s">
+        <v>541</v>
       </c>
       <c r="I59">
-        <v>3.061541557312012</v>
+        <v>4.45198655128479</v>
       </c>
       <c r="J59">
-        <v>13.62204551696777</v>
+        <v>7.843962430953979</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4211,31 +4733,37 @@
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>451</v>
+      </c>
+      <c r="G60" t="s">
+        <v>542</v>
+      </c>
+      <c r="H60" t="s">
+        <v>602</v>
       </c>
       <c r="I60">
-        <v>2.670977354049683</v>
+        <v>3.233609914779663</v>
       </c>
       <c r="J60">
-        <v>12.66910862922668</v>
+        <v>1.390527248382568</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>0.09349465370178223</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4249,31 +4777,28 @@
         <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
-      </c>
-      <c r="G61" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="I61">
-        <v>3.545806646347046</v>
+        <v>4.561749219894409</v>
       </c>
       <c r="J61">
-        <v>3.077666282653809</v>
+        <v>35.9771203994751</v>
       </c>
       <c r="K61">
-        <v>0.09372615814208984</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4290,31 +4815,28 @@
         <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
-      </c>
-      <c r="G62" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="I62">
-        <v>3.077129364013672</v>
+        <v>4.843067169189453</v>
       </c>
       <c r="J62">
-        <v>1.702698707580566</v>
+        <v>11.59224367141724</v>
       </c>
       <c r="K62">
-        <v>0.09398508071899414</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4331,31 +4853,37 @@
         <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="F63" t="s">
-        <v>323</v>
+        <v>454</v>
+      </c>
+      <c r="G63" t="s">
+        <v>543</v>
+      </c>
+      <c r="H63" t="s">
+        <v>603</v>
       </c>
       <c r="I63">
-        <v>3.717592239379883</v>
+        <v>5.701542615890503</v>
       </c>
       <c r="J63">
-        <v>18.54276871681213</v>
+        <v>0.9372463226318359</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.1096115112304688</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4369,28 +4897,28 @@
         <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="F64" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="G64" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="H64" t="s">
-        <v>437</v>
+        <v>600</v>
       </c>
       <c r="I64">
-        <v>3.311482429504395</v>
+        <v>3.29586386680603</v>
       </c>
       <c r="J64">
-        <v>1.468669891357422</v>
+        <v>1.265559434890747</v>
       </c>
       <c r="K64">
-        <v>0.1093490123748779</v>
+        <v>0.124969482421875</v>
       </c>
       <c r="L64">
         <v>0.8333333333333334</v>
@@ -4413,28 +4941,31 @@
         <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="F65" t="s">
-        <v>325</v>
+        <v>456</v>
+      </c>
+      <c r="G65" t="s">
+        <v>545</v>
       </c>
       <c r="I65">
-        <v>3.405178070068359</v>
+        <v>4.014445066452026</v>
       </c>
       <c r="J65">
-        <v>14.65301847457886</v>
+        <v>1.203072547912598</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4451,19 +4982,22 @@
         <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>261</v>
+        <v>365</v>
       </c>
       <c r="F66" t="s">
-        <v>326</v>
+        <v>457</v>
+      </c>
+      <c r="G66" t="s">
+        <v>546</v>
       </c>
       <c r="I66">
-        <v>3.327337980270386</v>
+        <v>3.436453819274902</v>
       </c>
       <c r="J66">
-        <v>13.84113192558289</v>
+        <v>1.453012228012085</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4472,7 +5006,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4489,19 +5023,22 @@
         <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="F67" t="s">
-        <v>327</v>
+        <v>458</v>
+      </c>
+      <c r="G67" t="s">
+        <v>547</v>
       </c>
       <c r="I67">
-        <v>3.155240535736084</v>
+        <v>5.560953378677368</v>
       </c>
       <c r="J67">
-        <v>14.871746301651</v>
+        <v>2.155973434448242</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4510,7 +5047,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4527,28 +5064,28 @@
         <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>367</v>
       </c>
       <c r="F68" t="s">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="G68" t="s">
-        <v>407</v>
+        <v>548</v>
       </c>
       <c r="H68" t="s">
-        <v>437</v>
+        <v>604</v>
       </c>
       <c r="I68">
-        <v>2.811567306518555</v>
+        <v>3.233376026153564</v>
       </c>
       <c r="J68">
-        <v>1.109379291534424</v>
+        <v>1.140590906143188</v>
       </c>
       <c r="K68">
-        <v>0.1093504428863525</v>
+        <v>0.09372711181640625</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4557,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4571,37 +5108,34 @@
         <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="G69" t="s">
-        <v>408</v>
+        <v>549</v>
       </c>
       <c r="H69" t="s">
-        <v>437</v>
+        <v>605</v>
       </c>
       <c r="I69">
-        <v>3.436419725418091</v>
+        <v>0.4217796325683594</v>
       </c>
       <c r="J69">
-        <v>1.68737006187439</v>
+        <v>1.296802520751953</v>
       </c>
       <c r="K69">
-        <v>0.06248354911804199</v>
+        <v>0.07810378074645996</v>
       </c>
       <c r="L69">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4615,19 +5149,22 @@
         <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="F70" t="s">
-        <v>330</v>
+        <v>460</v>
+      </c>
+      <c r="G70" t="s">
+        <v>550</v>
       </c>
       <c r="I70">
-        <v>3.342995405197144</v>
+        <v>3.858464956283569</v>
       </c>
       <c r="J70">
-        <v>12.60639119148254</v>
+        <v>2.155502319335938</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4636,7 +5173,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4653,31 +5190,37 @@
         <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="F71" t="s">
-        <v>331</v>
+        <v>461</v>
+      </c>
+      <c r="G71" t="s">
+        <v>551</v>
+      </c>
+      <c r="H71" t="s">
+        <v>606</v>
       </c>
       <c r="I71">
-        <v>3.092944622039795</v>
+        <v>4.281746387481689</v>
       </c>
       <c r="J71">
-        <v>17.79270768165588</v>
+        <v>22.37035846710205</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.09430360794067383</v>
       </c>
       <c r="L71">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4691,28 +5234,31 @@
         <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>462</v>
+      </c>
+      <c r="G72" t="s">
+        <v>552</v>
       </c>
       <c r="I72">
-        <v>3.170966386795044</v>
+        <v>5.29538369178772</v>
       </c>
       <c r="J72">
-        <v>16.91803240776062</v>
+        <v>1.74981951713562</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4729,31 +5275,37 @@
         <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="F73" t="s">
-        <v>333</v>
+        <v>463</v>
+      </c>
+      <c r="G73" t="s">
+        <v>553</v>
+      </c>
+      <c r="H73" t="s">
+        <v>607</v>
       </c>
       <c r="I73">
-        <v>3.108372449874878</v>
+        <v>3.483319520950317</v>
       </c>
       <c r="J73">
-        <v>12.8722231388092</v>
+        <v>1.218695878982544</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.1405916213989258</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4767,37 +5319,37 @@
         <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>372</v>
       </c>
       <c r="F74" t="s">
-        <v>334</v>
+        <v>464</v>
       </c>
       <c r="G74" t="s">
-        <v>409</v>
+        <v>554</v>
       </c>
       <c r="H74" t="s">
-        <v>437</v>
+        <v>608</v>
       </c>
       <c r="I74">
-        <v>3.671465158462524</v>
+        <v>2.874085664749146</v>
       </c>
       <c r="J74">
-        <v>1.499911069869995</v>
+        <v>7.248306035995483</v>
       </c>
       <c r="K74">
-        <v>0.1405775547027588</v>
+        <v>0.09394288063049316</v>
       </c>
       <c r="L74">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4811,31 +5363,31 @@
         <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="F75" t="s">
-        <v>335</v>
+        <v>465</v>
       </c>
       <c r="G75" t="s">
-        <v>410</v>
+        <v>555</v>
       </c>
       <c r="H75" t="s">
-        <v>437</v>
+        <v>609</v>
       </c>
       <c r="I75">
-        <v>3.217716455459595</v>
+        <v>3.967577457427979</v>
       </c>
       <c r="J75">
-        <v>2.18695855140686</v>
+        <v>1.406148195266724</v>
       </c>
       <c r="K75">
-        <v>0.09398937225341797</v>
+        <v>0.07811307907104492</v>
       </c>
       <c r="L75">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4855,25 +5407,25 @@
         <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="F76" t="s">
-        <v>336</v>
+        <v>466</v>
       </c>
       <c r="I76">
-        <v>3.170895338058472</v>
+        <v>4.15503454208374</v>
       </c>
       <c r="J76">
-        <v>13.3564817905426</v>
+        <v>14.15313076972961</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -4893,28 +5445,31 @@
         <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>467</v>
+      </c>
+      <c r="G77" t="s">
+        <v>556</v>
       </c>
       <c r="I77">
-        <v>3.170854568481445</v>
+        <v>4.545759201049805</v>
       </c>
       <c r="J77">
-        <v>13.20024132728577</v>
+        <v>1.375419616699219</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4931,37 +5486,37 @@
         <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>376</v>
       </c>
       <c r="F78" t="s">
-        <v>338</v>
+        <v>468</v>
       </c>
       <c r="G78" t="s">
-        <v>411</v>
+        <v>557</v>
       </c>
       <c r="H78" t="s">
-        <v>438</v>
+        <v>606</v>
       </c>
       <c r="I78">
-        <v>3.045890092849731</v>
+        <v>3.7957603931427</v>
       </c>
       <c r="J78">
-        <v>1.296579599380493</v>
+        <v>1.296602964401245</v>
       </c>
       <c r="K78">
-        <v>0.1096024513244629</v>
+        <v>0.1251869201660156</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4975,31 +5530,37 @@
         <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="F79" t="s">
-        <v>339</v>
+        <v>469</v>
+      </c>
+      <c r="G79" t="s">
+        <v>558</v>
+      </c>
+      <c r="H79" t="s">
+        <v>610</v>
       </c>
       <c r="I79">
-        <v>3.405174970626831</v>
+        <v>5.779638528823853</v>
       </c>
       <c r="J79">
-        <v>12.26299405097961</v>
+        <v>22.46467709541321</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.10933518409729</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5013,28 +5574,31 @@
         <v>191</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="F80" t="s">
-        <v>340</v>
+        <v>470</v>
+      </c>
+      <c r="G80" t="s">
+        <v>559</v>
       </c>
       <c r="I80">
-        <v>3.623875856399536</v>
+        <v>3.233540296554565</v>
       </c>
       <c r="J80">
-        <v>12.52855443954468</v>
+        <v>2.095685482025146</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5051,19 +5615,22 @@
         <v>192</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="E81" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>471</v>
+      </c>
+      <c r="G81" t="s">
+        <v>560</v>
       </c>
       <c r="I81">
-        <v>3.217720746994019</v>
+        <v>6.138940095901489</v>
       </c>
       <c r="J81">
-        <v>11.96618843078613</v>
+        <v>2.09348726272583</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5072,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5089,37 +5656,31 @@
         <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="F82" t="s">
-        <v>342</v>
-      </c>
-      <c r="G82" t="s">
-        <v>412</v>
-      </c>
-      <c r="H82" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="I82">
-        <v>3.030535459518433</v>
+        <v>5.032291650772095</v>
       </c>
       <c r="J82">
-        <v>1.187490224838257</v>
+        <v>11.9661557674408</v>
       </c>
       <c r="K82">
-        <v>0.09345459938049316</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5133,31 +5694,37 @@
         <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="F83" t="s">
-        <v>343</v>
+        <v>473</v>
+      </c>
+      <c r="G83" t="s">
+        <v>561</v>
+      </c>
+      <c r="H83" t="s">
+        <v>608</v>
       </c>
       <c r="I83">
-        <v>3.092750787734985</v>
+        <v>4.529944896697998</v>
       </c>
       <c r="J83">
-        <v>11.52879238128662</v>
+        <v>6.233132362365723</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.09372758865356445</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5171,37 +5738,34 @@
         <v>195</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="F84" t="s">
-        <v>344</v>
+        <v>474</v>
       </c>
       <c r="G84" t="s">
-        <v>413</v>
-      </c>
-      <c r="H84" t="s">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="I84">
-        <v>4.295849800109863</v>
+        <v>2.921182870864868</v>
       </c>
       <c r="J84">
-        <v>1.140622138977051</v>
+        <v>0.8123111724853516</v>
       </c>
       <c r="K84">
-        <v>0.1090924739837646</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5215,37 +5779,34 @@
         <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="F85" t="s">
-        <v>345</v>
+        <v>475</v>
       </c>
       <c r="G85" t="s">
-        <v>414</v>
-      </c>
-      <c r="H85" t="s">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="I85">
-        <v>3.717603921890259</v>
+        <v>4.49870753288269</v>
       </c>
       <c r="J85">
-        <v>1.172569751739502</v>
+        <v>1.984137296676636</v>
       </c>
       <c r="K85">
-        <v>0.1093485355377197</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5259,31 +5820,31 @@
         <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="F86" t="s">
-        <v>346</v>
+        <v>476</v>
       </c>
       <c r="G86" t="s">
-        <v>415</v>
+        <v>564</v>
       </c>
       <c r="H86" t="s">
-        <v>438</v>
+        <v>611</v>
       </c>
       <c r="I86">
-        <v>3.655418872833252</v>
+        <v>3.561652660369873</v>
       </c>
       <c r="J86">
-        <v>1.109136581420898</v>
+        <v>1.171821594238281</v>
       </c>
       <c r="K86">
-        <v>0.0937037467956543</v>
+        <v>0.1247491836547852</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5303,31 +5864,37 @@
         <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="F87" t="s">
-        <v>347</v>
+        <v>477</v>
+      </c>
+      <c r="G87" t="s">
+        <v>565</v>
+      </c>
+      <c r="H87" t="s">
+        <v>612</v>
       </c>
       <c r="I87">
-        <v>3.373933792114258</v>
+        <v>3.342690706253052</v>
       </c>
       <c r="J87">
-        <v>13.82509112358093</v>
+        <v>1.234313488006592</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.09372830390930176</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5341,31 +5908,37 @@
         <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>385</v>
       </c>
       <c r="F88" t="s">
-        <v>348</v>
+        <v>478</v>
+      </c>
+      <c r="G88" t="s">
+        <v>566</v>
+      </c>
+      <c r="H88" t="s">
+        <v>600</v>
       </c>
       <c r="I88">
-        <v>3.139616966247559</v>
+        <v>5.107931137084961</v>
       </c>
       <c r="J88">
-        <v>13.45020937919617</v>
+        <v>1.718611001968384</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.1249711513519287</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5379,37 +5952,37 @@
         <v>200</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="F89" t="s">
-        <v>349</v>
+        <v>479</v>
       </c>
       <c r="G89" t="s">
-        <v>416</v>
+        <v>567</v>
       </c>
       <c r="H89" t="s">
-        <v>438</v>
+        <v>580</v>
       </c>
       <c r="I89">
-        <v>3.373934984207153</v>
+        <v>6.451600551605225</v>
       </c>
       <c r="J89">
-        <v>1.515533447265625</v>
+        <v>1.328051805496216</v>
       </c>
       <c r="K89">
-        <v>0.109349250793457</v>
+        <v>0.109112024307251</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5423,31 +5996,37 @@
         <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="F90" t="s">
-        <v>350</v>
+        <v>480</v>
+      </c>
+      <c r="G90" t="s">
+        <v>568</v>
+      </c>
+      <c r="H90" t="s">
+        <v>580</v>
       </c>
       <c r="I90">
-        <v>2.905586719512939</v>
+        <v>10.16945266723633</v>
       </c>
       <c r="J90">
-        <v>14.29350519180298</v>
+        <v>1.391229152679443</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>0.1091752052307129</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5461,31 +6040,37 @@
         <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="F91" t="s">
-        <v>351</v>
+        <v>481</v>
+      </c>
+      <c r="G91" t="s">
+        <v>569</v>
+      </c>
+      <c r="H91" t="s">
+        <v>613</v>
       </c>
       <c r="I91">
-        <v>3.34269118309021</v>
+        <v>3.499164581298828</v>
       </c>
       <c r="J91">
-        <v>13.04402375221252</v>
+        <v>1.48429536819458</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>0.1090826988220215</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5499,37 +6084,31 @@
         <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="F92" t="s">
-        <v>352</v>
-      </c>
-      <c r="G92" t="s">
-        <v>417</v>
-      </c>
-      <c r="H92" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="I92">
-        <v>3.842574119567871</v>
+        <v>3.405206680297852</v>
       </c>
       <c r="J92">
-        <v>1.531159639358521</v>
+        <v>13.23148441314697</v>
       </c>
       <c r="K92">
-        <v>0.09372401237487793</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5543,31 +6122,37 @@
         <v>204</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="E93" t="s">
-        <v>262</v>
+        <v>360</v>
       </c>
       <c r="F93" t="s">
-        <v>353</v>
+        <v>483</v>
+      </c>
+      <c r="G93" t="s">
+        <v>570</v>
+      </c>
+      <c r="H93" t="s">
+        <v>614</v>
       </c>
       <c r="I93">
-        <v>2.624220371246338</v>
+        <v>4.373970508575439</v>
       </c>
       <c r="J93">
-        <v>13.85625648498535</v>
+        <v>1.374907493591309</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.1091165542602539</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5581,28 +6166,31 @@
         <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
       <c r="F94" t="s">
-        <v>354</v>
+        <v>484</v>
+      </c>
+      <c r="G94" t="s">
+        <v>571</v>
       </c>
       <c r="I94">
-        <v>3.155233144760132</v>
+        <v>4.655151605606079</v>
       </c>
       <c r="J94">
-        <v>31.83674120903015</v>
+        <v>21.82377195358276</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5619,28 +6207,31 @@
         <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="F95" t="s">
-        <v>355</v>
+        <v>485</v>
+      </c>
+      <c r="G95" t="s">
+        <v>572</v>
       </c>
       <c r="I95">
-        <v>3.577226877212524</v>
+        <v>3.717612981796265</v>
       </c>
       <c r="J95">
-        <v>13.12195229530334</v>
+        <v>1.67318868637085</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5657,19 +6248,19 @@
         <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="F96" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="I96">
-        <v>4.233136892318726</v>
+        <v>3.124242305755615</v>
       </c>
       <c r="J96">
-        <v>11.77873039245605</v>
+        <v>11.55978441238403</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5695,28 +6286,31 @@
         <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>392</v>
       </c>
       <c r="F97" t="s">
-        <v>357</v>
+        <v>487</v>
+      </c>
+      <c r="G97" t="s">
+        <v>573</v>
       </c>
       <c r="I97">
-        <v>3.405181646347046</v>
+        <v>3.389660596847534</v>
       </c>
       <c r="J97">
-        <v>13.26272249221802</v>
+        <v>22.60419607162476</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5733,19 +6327,22 @@
         <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="F98" t="s">
-        <v>358</v>
+        <v>488</v>
+      </c>
+      <c r="G98" t="s">
+        <v>574</v>
       </c>
       <c r="I98">
-        <v>4.030029535293579</v>
+        <v>6.576416015625</v>
       </c>
       <c r="J98">
-        <v>12.46606945991516</v>
+        <v>23.35249519348145</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5754,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5768,34 +6365,40 @@
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D99" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="F99" t="s">
-        <v>356</v>
+        <v>489</v>
+      </c>
+      <c r="G99" t="s">
+        <v>575</v>
+      </c>
+      <c r="H99" t="s">
+        <v>598</v>
       </c>
       <c r="I99">
-        <v>1.968023300170898</v>
+        <v>2.936534404754639</v>
       </c>
       <c r="J99">
-        <v>0.1720952987670898</v>
+        <v>2.32784628868103</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>0.07810568809509277</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5806,34 +6409,40 @@
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="F100" t="s">
-        <v>358</v>
+        <v>490</v>
+      </c>
+      <c r="G100" t="s">
+        <v>576</v>
+      </c>
+      <c r="H100" t="s">
+        <v>600</v>
       </c>
       <c r="I100">
-        <v>2.358550548553467</v>
+        <v>5.451549768447876</v>
       </c>
       <c r="J100">
-        <v>0.1252374649047852</v>
+        <v>22.52709054946899</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1.077871322631836</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5844,22 +6453,25 @@
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="F101" t="s">
-        <v>359</v>
+        <v>491</v>
+      </c>
+      <c r="G101" t="s">
+        <v>577</v>
       </c>
       <c r="I101">
-        <v>3.592629432678223</v>
+        <v>5.139353036880493</v>
       </c>
       <c r="J101">
-        <v>13.24713826179504</v>
+        <v>2.094680309295654</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -5868,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N101">
         <v>0</v>

--- a/lod_analysis/excels/tracks_evaluation.xlsx
+++ b/lod_analysis/excels/tracks_evaluation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabio\Basso\Università\5° Anno 2021-2022 (Magistrale AI)\Sistemi Informativi e Web Semantico\Progetto SIWS\Music World 2.0\lod_analysis\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA775903-7969-492B-B743-0FA787CF7CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="36" yWindow="0" windowWidth="23004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tracks_evaluation.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1864,8 +1870,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1924,15 +1930,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1974,7 +1988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2006,9 +2020,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2040,6 +2072,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2215,29 +2265,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G75" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="1" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2298,7 +2338,7 @@
         <v>395</v>
       </c>
       <c r="I2">
-        <v>5.420347213745117</v>
+        <v>5.4203472137451172</v>
       </c>
       <c r="J2">
         <v>11.09140729904175</v>
@@ -2316,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2342,16 +2382,16 @@
         <v>578</v>
       </c>
       <c r="I3">
-        <v>13.24685120582581</v>
+        <v>13.246851205825809</v>
       </c>
       <c r="J3">
-        <v>1.359054088592529</v>
+        <v>1.3590540885925291</v>
       </c>
       <c r="K3">
         <v>0.1093661785125732</v>
       </c>
       <c r="L3">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -2360,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2386,13 +2426,13 @@
         <v>579</v>
       </c>
       <c r="I4">
-        <v>3.561389923095703</v>
+        <v>3.5613899230957031</v>
       </c>
       <c r="J4">
-        <v>22.35432028770447</v>
+        <v>22.354320287704471</v>
       </c>
       <c r="K4">
-        <v>0.09372878074645996</v>
+        <v>9.3728780746459961E-2</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2404,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2430,25 +2470,25 @@
         <v>580</v>
       </c>
       <c r="I5">
-        <v>4.31151294708252</v>
+        <v>4.3115129470825204</v>
       </c>
       <c r="J5">
         <v>1.21872878074646</v>
       </c>
       <c r="K5">
-        <v>0.06222248077392578</v>
+        <v>6.2222480773925781E-2</v>
       </c>
       <c r="L5">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2468,10 +2508,10 @@
         <v>399</v>
       </c>
       <c r="I6">
-        <v>6.310773372650146</v>
+        <v>6.3107733726501456</v>
       </c>
       <c r="J6">
-        <v>13.18461298942566</v>
+        <v>13.184612989425659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2486,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2521,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2544,16 +2584,16 @@
         <v>495</v>
       </c>
       <c r="I8">
-        <v>4.79624080657959</v>
+        <v>4.7962408065795898</v>
       </c>
       <c r="J8">
-        <v>6.779515981674194</v>
+        <v>6.7795159816741943</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M8">
         <v>0.8571428571428571</v>
@@ -2562,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2588,13 +2628,13 @@
         <v>581</v>
       </c>
       <c r="I9">
-        <v>4.170837640762329</v>
+        <v>4.1708376407623291</v>
       </c>
       <c r="J9">
         <v>1.640471458435059</v>
       </c>
       <c r="K9">
-        <v>0.09351229667663574</v>
+        <v>9.3512296676635742E-2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2603,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2632,7 +2672,7 @@
         <v>582</v>
       </c>
       <c r="I10">
-        <v>4.529956102371216</v>
+        <v>4.5299561023712158</v>
       </c>
       <c r="J10">
         <v>1.406182527542114</v>
@@ -2641,7 +2681,7 @@
         <v>0.109342098236084</v>
       </c>
       <c r="L10">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2650,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2676,25 +2716,25 @@
         <v>581</v>
       </c>
       <c r="I11">
-        <v>3.670725584030151</v>
+        <v>3.6707255840301509</v>
       </c>
       <c r="J11">
-        <v>1.327966213226318</v>
+        <v>1.3279662132263179</v>
       </c>
       <c r="K11">
         <v>0.1094729900360107</v>
       </c>
       <c r="L11">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2720,7 +2760,7 @@
         <v>583</v>
       </c>
       <c r="I12">
-        <v>5.201664686203003</v>
+        <v>5.2016646862030029</v>
       </c>
       <c r="J12">
         <v>1.328043937683105</v>
@@ -2735,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2761,13 +2801,13 @@
         <v>2.686631441116333</v>
       </c>
       <c r="J13">
-        <v>12.91904997825623</v>
+        <v>12.919049978256229</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2776,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2802,13 +2842,13 @@
         <v>584</v>
       </c>
       <c r="I14">
-        <v>4.280006408691406</v>
+        <v>4.2800064086914063</v>
       </c>
       <c r="J14">
-        <v>1.312215089797974</v>
+        <v>1.3122150897979741</v>
       </c>
       <c r="K14">
-        <v>0.09393644332885742</v>
+        <v>9.3936443328857422E-2</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2817,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2849,22 +2889,22 @@
         <v>3.124260425567627</v>
       </c>
       <c r="J15">
-        <v>1.499642848968506</v>
+        <v>1.4996428489685061</v>
       </c>
       <c r="K15">
-        <v>0.1093542575836182</v>
+        <v>0.10935425758361821</v>
       </c>
       <c r="L15">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2890,7 +2930,7 @@
         <v>586</v>
       </c>
       <c r="I16">
-        <v>4.061309099197388</v>
+        <v>4.0613090991973877</v>
       </c>
       <c r="J16">
         <v>1.390525341033936</v>
@@ -2899,7 +2939,7 @@
         <v>0.1249673366546631</v>
       </c>
       <c r="L16">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2908,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2937,13 +2977,13 @@
         <v>3.202136754989624</v>
       </c>
       <c r="J17">
-        <v>1.249670505523682</v>
+        <v>1.2496705055236821</v>
       </c>
       <c r="K17">
         <v>0.1096165180206299</v>
       </c>
       <c r="L17">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2952,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2978,13 +3018,13 @@
         <v>588</v>
       </c>
       <c r="I18">
-        <v>5.82674765586853</v>
+        <v>5.8267476558685303</v>
       </c>
       <c r="J18">
-        <v>1.421525955200195</v>
+        <v>1.4215259552001951</v>
       </c>
       <c r="K18">
-        <v>0.09373807907104492</v>
+        <v>9.3738079071044922E-2</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2996,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3025,13 +3065,13 @@
         <v>2.718140602111816</v>
       </c>
       <c r="J19">
-        <v>1.249939203262329</v>
+        <v>1.2499392032623291</v>
       </c>
       <c r="K19">
-        <v>0.0934598445892334</v>
+        <v>9.3459844589233398E-2</v>
       </c>
       <c r="L19">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -3040,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3063,7 +3103,7 @@
         <v>506</v>
       </c>
       <c r="I20">
-        <v>5.68592381477356</v>
+        <v>5.6859238147735596</v>
       </c>
       <c r="J20">
         <v>27.43124628067017</v>
@@ -3072,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M20">
         <v>0.8571428571428571</v>
@@ -3081,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3107,10 +3147,10 @@
         <v>590</v>
       </c>
       <c r="I21">
-        <v>2.702251434326172</v>
+        <v>2.7022514343261719</v>
       </c>
       <c r="J21">
-        <v>1.156095743179321</v>
+        <v>1.1560957431793211</v>
       </c>
       <c r="K21">
         <v>0.1094620227813721</v>
@@ -3122,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3151,13 +3191,13 @@
         <v>589</v>
       </c>
       <c r="I22">
-        <v>4.85797905921936</v>
+        <v>4.8579790592193604</v>
       </c>
       <c r="J22">
-        <v>1.03124213218689</v>
+        <v>1.0312421321868901</v>
       </c>
       <c r="K22">
-        <v>0.07810330390930176</v>
+        <v>7.8103303909301758E-2</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3169,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3192,10 +3232,10 @@
         <v>509</v>
       </c>
       <c r="I23">
-        <v>4.186466932296753</v>
+        <v>4.1864669322967529</v>
       </c>
       <c r="J23">
-        <v>2.171369552612305</v>
+        <v>2.1713695526123051</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3210,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3236,25 +3276,25 @@
         <v>591</v>
       </c>
       <c r="I24">
-        <v>5.170424938201904</v>
+        <v>5.1704249382019043</v>
       </c>
       <c r="J24">
         <v>22.19814300537109</v>
       </c>
       <c r="K24">
-        <v>0.09372210502624512</v>
+        <v>9.3722105026245117E-2</v>
       </c>
       <c r="L24">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3280,13 +3320,13 @@
         <v>592</v>
       </c>
       <c r="I25">
-        <v>7.216804265975952</v>
+        <v>7.2168042659759521</v>
       </c>
       <c r="J25">
-        <v>1.187217950820923</v>
+        <v>1.1872179508209231</v>
       </c>
       <c r="K25">
-        <v>0.09396910667419434</v>
+        <v>9.3969106674194336E-2</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -3295,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3321,7 +3361,7 @@
         <v>512</v>
       </c>
       <c r="I26">
-        <v>5.076912403106689</v>
+        <v>5.0769124031066886</v>
       </c>
       <c r="J26">
         <v>1.624627828598022</v>
@@ -3339,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3365,13 +3405,13 @@
         <v>3.467928409576416</v>
       </c>
       <c r="J27">
-        <v>6.15479564666748</v>
+        <v>6.1547956466674796</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M27">
         <v>0.8571428571428571</v>
@@ -3380,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3400,7 +3440,7 @@
         <v>420</v>
       </c>
       <c r="I28">
-        <v>3.249203681945801</v>
+        <v>3.2492036819458008</v>
       </c>
       <c r="J28">
         <v>11.91908240318298</v>
@@ -3418,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3444,7 +3484,7 @@
         <v>593</v>
       </c>
       <c r="I29">
-        <v>6.904384136199951</v>
+        <v>6.9043841361999512</v>
       </c>
       <c r="J29">
         <v>1.202811002731323</v>
@@ -3462,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3488,13 +3528,13 @@
         <v>594</v>
       </c>
       <c r="I30">
-        <v>9.278784513473511</v>
+        <v>9.2787845134735107</v>
       </c>
       <c r="J30">
-        <v>1.452858924865723</v>
+        <v>1.4528589248657231</v>
       </c>
       <c r="K30">
-        <v>0.09388232231140137</v>
+        <v>9.3882322311401367E-2</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3506,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3526,7 +3566,7 @@
         <v>423</v>
       </c>
       <c r="I31">
-        <v>4.98296332359314</v>
+        <v>4.9829633235931396</v>
       </c>
       <c r="J31">
         <v>13.57518243789673</v>
@@ -3535,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3544,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3567,7 +3607,7 @@
         <v>516</v>
       </c>
       <c r="I32">
-        <v>7.013737440109253</v>
+        <v>7.0137374401092529</v>
       </c>
       <c r="J32">
         <v>5.515270471572876</v>
@@ -3576,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M32">
         <v>0.8571428571428571</v>
@@ -3585,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3611,13 +3651,13 @@
         <v>594</v>
       </c>
       <c r="I33">
-        <v>5.248523712158203</v>
+        <v>5.2485237121582031</v>
       </c>
       <c r="J33">
-        <v>1.234048843383789</v>
+        <v>1.2340488433837891</v>
       </c>
       <c r="K33">
-        <v>0.09399199485778809</v>
+        <v>9.3991994857788086E-2</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -3629,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3658,10 +3698,10 @@
         <v>10.66911792755127</v>
       </c>
       <c r="J34">
-        <v>0.999769926071167</v>
+        <v>0.99976992607116699</v>
       </c>
       <c r="K34">
-        <v>0.109574556350708</v>
+        <v>0.10957455635070799</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3670,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3699,7 +3739,7 @@
         <v>595</v>
       </c>
       <c r="I35">
-        <v>9.51314115524292</v>
+        <v>9.5131411552429199</v>
       </c>
       <c r="J35">
         <v>1.281183004379272</v>
@@ -3708,16 +3748,16 @@
         <v>0.1093490123748779</v>
       </c>
       <c r="L35">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3743,16 +3783,16 @@
         <v>596</v>
       </c>
       <c r="I36">
-        <v>2.76497220993042</v>
+        <v>2.7649722099304199</v>
       </c>
       <c r="J36">
-        <v>1.062335014343262</v>
+        <v>1.0623350143432619</v>
       </c>
       <c r="K36">
         <v>0.109264612197876</v>
       </c>
       <c r="L36">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3761,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3787,7 +3827,7 @@
         <v>3.780128955841064</v>
       </c>
       <c r="J37">
-        <v>2.265320539474487</v>
+        <v>2.2653205394744869</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3802,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3828,13 +3868,13 @@
         <v>596</v>
       </c>
       <c r="I38">
-        <v>4.936103820800781</v>
+        <v>4.9361038208007813</v>
       </c>
       <c r="J38">
-        <v>1.218689203262329</v>
+        <v>1.2186892032623291</v>
       </c>
       <c r="K38">
-        <v>0.09372735023498535</v>
+        <v>9.3727350234985352E-2</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -3846,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3872,16 +3912,16 @@
         <v>597</v>
       </c>
       <c r="I39">
-        <v>6.357639312744141</v>
+        <v>6.3576393127441406</v>
       </c>
       <c r="J39">
-        <v>22.21372509002686</v>
+        <v>22.213725090026859</v>
       </c>
       <c r="K39">
         <v>0.1093502044677734</v>
       </c>
       <c r="L39">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -3890,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3910,7 +3950,7 @@
         <v>432</v>
       </c>
       <c r="I40">
-        <v>5.342217445373535</v>
+        <v>5.3422174453735352</v>
       </c>
       <c r="J40">
         <v>11.60686564445496</v>
@@ -3919,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3928,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3954,25 +3994,25 @@
         <v>592</v>
       </c>
       <c r="I41">
-        <v>3.592883110046387</v>
+        <v>3.5928831100463872</v>
       </c>
       <c r="J41">
-        <v>1.421574115753174</v>
+        <v>1.4215741157531741</v>
       </c>
       <c r="K41">
         <v>0.1406059265136719</v>
       </c>
       <c r="L41">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3998,25 +4038,25 @@
         <v>592</v>
       </c>
       <c r="I42">
-        <v>3.546038866043091</v>
+        <v>3.5460388660430908</v>
       </c>
       <c r="J42">
-        <v>1.28098726272583</v>
+        <v>1.2809872627258301</v>
       </c>
       <c r="K42">
-        <v>0.09368729591369629</v>
+        <v>9.3687295913696289E-2</v>
       </c>
       <c r="L42">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4039,10 +4079,10 @@
         <v>526</v>
       </c>
       <c r="I43">
-        <v>4.687015295028687</v>
+        <v>4.6870152950286874</v>
       </c>
       <c r="J43">
-        <v>1.171831846237183</v>
+        <v>1.1718318462371831</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4057,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4080,10 +4120,10 @@
         <v>527</v>
       </c>
       <c r="I44">
-        <v>4.983198642730713</v>
+        <v>4.9831986427307129</v>
       </c>
       <c r="J44">
-        <v>1.593371391296387</v>
+        <v>1.5933713912963869</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4098,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4121,10 +4161,10 @@
         <v>528</v>
       </c>
       <c r="I45">
-        <v>7.216813564300537</v>
+        <v>7.2168135643005371</v>
       </c>
       <c r="J45">
-        <v>1.984136343002319</v>
+        <v>1.9841363430023189</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4139,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4174,7 +4214,7 @@
         <v>0.109102725982666</v>
       </c>
       <c r="L46">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -4183,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4203,7 +4243,7 @@
         <v>530</v>
       </c>
       <c r="I47">
-        <v>0.484532356262207</v>
+        <v>0.48453235626220698</v>
       </c>
       <c r="J47">
         <v>1.374640941619873</v>
@@ -4221,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4241,16 +4281,16 @@
         <v>439</v>
       </c>
       <c r="I48">
-        <v>3.233376502990723</v>
+        <v>3.2333765029907231</v>
       </c>
       <c r="J48">
-        <v>10.99739074707031</v>
+        <v>10.997390747070311</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4259,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4282,10 +4322,10 @@
         <v>531</v>
       </c>
       <c r="I49">
-        <v>4.85799503326416</v>
+        <v>4.8579950332641602</v>
       </c>
       <c r="J49">
-        <v>6.88923168182373</v>
+        <v>6.8892316818237296</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4300,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4329,22 +4369,22 @@
         <v>3.577049732208252</v>
       </c>
       <c r="J50">
-        <v>1.234312295913696</v>
+        <v>1.2343122959136961</v>
       </c>
       <c r="K50">
         <v>0.1249656677246094</v>
       </c>
       <c r="L50">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4370,13 +4410,13 @@
         <v>600</v>
       </c>
       <c r="I51">
-        <v>4.483081817626953</v>
+        <v>4.4830818176269531</v>
       </c>
       <c r="J51">
-        <v>2.796448230743408</v>
+        <v>2.7964482307434082</v>
       </c>
       <c r="K51">
-        <v>0.1093478202819824</v>
+        <v>0.10934782028198239</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -4385,10 +4425,10 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4411,7 +4451,7 @@
         <v>534</v>
       </c>
       <c r="I52">
-        <v>3.6866295337677</v>
+        <v>3.6866295337677002</v>
       </c>
       <c r="J52">
         <v>7.295154333114624</v>
@@ -4429,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4455,16 +4495,16 @@
         <v>601</v>
       </c>
       <c r="I53">
-        <v>3.342957019805908</v>
+        <v>3.3429570198059082</v>
       </c>
       <c r="J53">
-        <v>1.281174659729004</v>
+        <v>1.2811746597290039</v>
       </c>
       <c r="K53">
-        <v>0.09349870681762695</v>
+        <v>9.3498706817626953E-2</v>
       </c>
       <c r="L53">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -4473,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4496,10 +4536,10 @@
         <v>536</v>
       </c>
       <c r="I54">
-        <v>2.889698028564453</v>
+        <v>2.8896980285644531</v>
       </c>
       <c r="J54">
-        <v>2.062253713607788</v>
+        <v>2.0622537136077881</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4514,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4537,16 +4577,16 @@
         <v>537</v>
       </c>
       <c r="I55">
-        <v>5.357876300811768</v>
+        <v>5.3578763008117676</v>
       </c>
       <c r="J55">
-        <v>8.232662677764893</v>
+        <v>8.2326626777648926</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M55">
         <v>0.8571428571428571</v>
@@ -4555,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4578,10 +4618,10 @@
         <v>538</v>
       </c>
       <c r="I56">
-        <v>3.327068328857422</v>
+        <v>3.3270683288574219</v>
       </c>
       <c r="J56">
-        <v>7.467255830764771</v>
+        <v>7.4672558307647714</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4596,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4625,10 +4665,10 @@
         <v>2.811610221862793</v>
       </c>
       <c r="J57">
-        <v>22.49586844444275</v>
+        <v>22.495868444442749</v>
       </c>
       <c r="K57">
-        <v>0.1093435287475586</v>
+        <v>0.10934352874755859</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -4637,10 +4677,10 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4672,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M58">
         <v>0.8571428571428571</v>
@@ -4681,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4707,7 +4747,7 @@
         <v>4.45198655128479</v>
       </c>
       <c r="J59">
-        <v>7.843962430953979</v>
+        <v>7.8439624309539786</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4722,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4748,25 +4788,25 @@
         <v>602</v>
       </c>
       <c r="I60">
-        <v>3.233609914779663</v>
+        <v>3.2336099147796631</v>
       </c>
       <c r="J60">
-        <v>1.390527248382568</v>
+        <v>1.3905272483825679</v>
       </c>
       <c r="K60">
-        <v>0.09349465370178223</v>
+        <v>9.3494653701782227E-2</v>
       </c>
       <c r="L60">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4786,16 +4826,16 @@
         <v>452</v>
       </c>
       <c r="I61">
-        <v>4.561749219894409</v>
+        <v>4.5617492198944092</v>
       </c>
       <c r="J61">
-        <v>35.9771203994751</v>
+        <v>35.977120399475098</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4804,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4824,7 +4864,7 @@
         <v>453</v>
       </c>
       <c r="I62">
-        <v>4.843067169189453</v>
+        <v>4.8430671691894531</v>
       </c>
       <c r="J62">
         <v>11.59224367141724</v>
@@ -4833,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4842,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4868,13 +4908,13 @@
         <v>603</v>
       </c>
       <c r="I63">
-        <v>5.701542615890503</v>
+        <v>5.7015426158905029</v>
       </c>
       <c r="J63">
-        <v>0.9372463226318359</v>
+        <v>0.93724632263183594</v>
       </c>
       <c r="K63">
-        <v>0.1096115112304688</v>
+        <v>0.10961151123046881</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4883,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4912,25 +4952,25 @@
         <v>600</v>
       </c>
       <c r="I64">
-        <v>3.29586386680603</v>
+        <v>3.2958638668060298</v>
       </c>
       <c r="J64">
-        <v>1.265559434890747</v>
+        <v>1.2655594348907471</v>
       </c>
       <c r="K64">
         <v>0.124969482421875</v>
       </c>
       <c r="L64">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4953,10 +4993,10 @@
         <v>545</v>
       </c>
       <c r="I65">
-        <v>4.014445066452026</v>
+        <v>4.0144450664520264</v>
       </c>
       <c r="J65">
-        <v>1.203072547912598</v>
+        <v>1.2030725479125981</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4971,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4994,7 +5034,7 @@
         <v>546</v>
       </c>
       <c r="I66">
-        <v>3.436453819274902</v>
+        <v>3.4364538192749019</v>
       </c>
       <c r="J66">
         <v>1.453012228012085</v>
@@ -5003,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M66">
         <v>0.8571428571428571</v>
@@ -5012,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5035,16 +5075,16 @@
         <v>547</v>
       </c>
       <c r="I67">
-        <v>5.560953378677368</v>
+        <v>5.5609533786773682</v>
       </c>
       <c r="J67">
-        <v>2.155973434448242</v>
+        <v>2.1559734344482422</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M67">
         <v>0.8571428571428571</v>
@@ -5053,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5085,7 +5125,7 @@
         <v>1.140590906143188</v>
       </c>
       <c r="K68">
-        <v>0.09372711181640625</v>
+        <v>9.372711181640625E-2</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -5097,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5120,13 +5160,13 @@
         <v>605</v>
       </c>
       <c r="I69">
-        <v>0.4217796325683594</v>
+        <v>0.42177963256835938</v>
       </c>
       <c r="J69">
-        <v>1.296802520751953</v>
+        <v>1.2968025207519529</v>
       </c>
       <c r="K69">
-        <v>0.07810378074645996</v>
+        <v>7.8103780746459961E-2</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5135,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5161,16 +5201,16 @@
         <v>550</v>
       </c>
       <c r="I70">
-        <v>3.858464956283569</v>
+        <v>3.8584649562835689</v>
       </c>
       <c r="J70">
-        <v>2.155502319335938</v>
+        <v>2.1555023193359379</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M70">
         <v>0.8571428571428571</v>
@@ -5179,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5205,13 +5245,13 @@
         <v>606</v>
       </c>
       <c r="I71">
-        <v>4.281746387481689</v>
+        <v>4.2817463874816886</v>
       </c>
       <c r="J71">
-        <v>22.37035846710205</v>
+        <v>22.370358467102051</v>
       </c>
       <c r="K71">
-        <v>0.09430360794067383</v>
+        <v>9.4303607940673828E-2</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -5220,10 +5260,10 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5246,10 +5286,10 @@
         <v>552</v>
       </c>
       <c r="I72">
-        <v>5.29538369178772</v>
+        <v>5.2953836917877197</v>
       </c>
       <c r="J72">
-        <v>1.74981951713562</v>
+        <v>1.7498195171356199</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5264,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5290,13 +5330,13 @@
         <v>607</v>
       </c>
       <c r="I73">
-        <v>3.483319520950317</v>
+        <v>3.4833195209503169</v>
       </c>
       <c r="J73">
-        <v>1.218695878982544</v>
+        <v>1.2186958789825439</v>
       </c>
       <c r="K73">
-        <v>0.1405916213989258</v>
+        <v>0.14059162139892581</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -5308,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5337,10 +5377,10 @@
         <v>2.874085664749146</v>
       </c>
       <c r="J74">
-        <v>7.248306035995483</v>
+        <v>7.2483060359954834</v>
       </c>
       <c r="K74">
-        <v>0.09394288063049316</v>
+        <v>9.3942880630493164E-2</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -5352,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5381,10 +5421,10 @@
         <v>3.967577457427979</v>
       </c>
       <c r="J75">
-        <v>1.406148195266724</v>
+        <v>1.4061481952667241</v>
       </c>
       <c r="K75">
-        <v>0.07811307907104492</v>
+        <v>7.8113079071044922E-2</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -5393,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5416,16 +5456,16 @@
         <v>466</v>
       </c>
       <c r="I76">
-        <v>4.15503454208374</v>
+        <v>4.1550345420837402</v>
       </c>
       <c r="J76">
-        <v>14.15313076972961</v>
+        <v>14.153130769729611</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5434,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5457,7 +5497,7 @@
         <v>556</v>
       </c>
       <c r="I77">
-        <v>4.545759201049805</v>
+        <v>4.5457592010498047</v>
       </c>
       <c r="J77">
         <v>1.375419616699219</v>
@@ -5466,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M77">
         <v>0.8571428571428571</v>
@@ -5475,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5501,25 +5541,25 @@
         <v>606</v>
       </c>
       <c r="I78">
-        <v>3.7957603931427</v>
+        <v>3.7957603931427002</v>
       </c>
       <c r="J78">
-        <v>1.296602964401245</v>
+        <v>1.2966029644012449</v>
       </c>
       <c r="K78">
         <v>0.1251869201660156</v>
       </c>
       <c r="L78">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
       <c r="N78">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5545,10 +5585,10 @@
         <v>610</v>
       </c>
       <c r="I79">
-        <v>5.779638528823853</v>
+        <v>5.7796385288238534</v>
       </c>
       <c r="J79">
-        <v>22.46467709541321</v>
+        <v>22.464677095413212</v>
       </c>
       <c r="K79">
         <v>0.10933518409729</v>
@@ -5563,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5595,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M80">
         <v>0.8571428571428571</v>
@@ -5604,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5627,10 +5667,10 @@
         <v>560</v>
       </c>
       <c r="I81">
-        <v>6.138940095901489</v>
+        <v>6.1389400959014893</v>
       </c>
       <c r="J81">
-        <v>2.09348726272583</v>
+        <v>2.0934872627258301</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5645,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5665,10 +5705,10 @@
         <v>472</v>
       </c>
       <c r="I82">
-        <v>5.032291650772095</v>
+        <v>5.0322916507720947</v>
       </c>
       <c r="J82">
-        <v>11.9661557674408</v>
+        <v>11.966155767440799</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5683,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5712,13 +5752,13 @@
         <v>4.529944896697998</v>
       </c>
       <c r="J83">
-        <v>6.233132362365723</v>
+        <v>6.2331323623657227</v>
       </c>
       <c r="K83">
-        <v>0.09372758865356445</v>
+        <v>9.3727588653564453E-2</v>
       </c>
       <c r="L83">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -5727,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5750,16 +5790,16 @@
         <v>562</v>
       </c>
       <c r="I84">
-        <v>2.921182870864868</v>
+        <v>2.9211828708648682</v>
       </c>
       <c r="J84">
-        <v>0.8123111724853516</v>
+        <v>0.81231117248535156</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M84">
         <v>0.8571428571428571</v>
@@ -5768,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5791,7 +5831,7 @@
         <v>563</v>
       </c>
       <c r="I85">
-        <v>4.49870753288269</v>
+        <v>4.4987075328826904</v>
       </c>
       <c r="J85">
         <v>1.984137296676636</v>
@@ -5800,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M85">
         <v>0.8571428571428571</v>
@@ -5809,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5844,7 +5884,7 @@
         <v>0.1247491836547852</v>
       </c>
       <c r="L86">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5853,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5879,13 +5919,13 @@
         <v>612</v>
       </c>
       <c r="I87">
-        <v>3.342690706253052</v>
+        <v>3.3426907062530522</v>
       </c>
       <c r="J87">
         <v>1.234313488006592</v>
       </c>
       <c r="K87">
-        <v>0.09372830390930176</v>
+        <v>9.3728303909301758E-2</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5897,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5923,7 +5963,7 @@
         <v>600</v>
       </c>
       <c r="I88">
-        <v>5.107931137084961</v>
+        <v>5.1079311370849609</v>
       </c>
       <c r="J88">
         <v>1.718611001968384</v>
@@ -5932,16 +5972,16 @@
         <v>0.1249711513519287</v>
       </c>
       <c r="L88">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5967,7 +6007,7 @@
         <v>580</v>
       </c>
       <c r="I89">
-        <v>6.451600551605225</v>
+        <v>6.4516005516052246</v>
       </c>
       <c r="J89">
         <v>1.328051805496216</v>
@@ -5976,16 +6016,16 @@
         <v>0.109112024307251</v>
       </c>
       <c r="L89">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6014,22 +6054,22 @@
         <v>10.16945266723633</v>
       </c>
       <c r="J90">
-        <v>1.391229152679443</v>
+        <v>1.3912291526794429</v>
       </c>
       <c r="K90">
         <v>0.1091752052307129</v>
       </c>
       <c r="L90">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M90">
         <v>1</v>
       </c>
       <c r="N90">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6055,25 +6095,25 @@
         <v>613</v>
       </c>
       <c r="I91">
-        <v>3.499164581298828</v>
+        <v>3.4991645812988281</v>
       </c>
       <c r="J91">
-        <v>1.48429536819458</v>
+        <v>1.4842953681945801</v>
       </c>
       <c r="K91">
         <v>0.1090826988220215</v>
       </c>
       <c r="L91">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6096,7 +6136,7 @@
         <v>3.405206680297852</v>
       </c>
       <c r="J92">
-        <v>13.23148441314697</v>
+        <v>13.231484413146971</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -6111,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6137,25 +6177,25 @@
         <v>614</v>
       </c>
       <c r="I93">
-        <v>4.373970508575439</v>
+        <v>4.3739705085754386</v>
       </c>
       <c r="J93">
         <v>1.374907493591309</v>
       </c>
       <c r="K93">
-        <v>0.1091165542602539</v>
+        <v>0.10911655426025391</v>
       </c>
       <c r="L93">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M93">
         <v>1</v>
       </c>
       <c r="N93">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6178,7 +6218,7 @@
         <v>571</v>
       </c>
       <c r="I94">
-        <v>4.655151605606079</v>
+        <v>4.6551516056060791</v>
       </c>
       <c r="J94">
         <v>21.82377195358276</v>
@@ -6187,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M94">
         <v>0.8571428571428571</v>
@@ -6196,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6219,16 +6259,16 @@
         <v>572</v>
       </c>
       <c r="I95">
-        <v>3.717612981796265</v>
+        <v>3.7176129817962651</v>
       </c>
       <c r="J95">
-        <v>1.67318868637085</v>
+        <v>1.6731886863708501</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M95">
         <v>0.8571428571428571</v>
@@ -6237,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6257,7 +6297,7 @@
         <v>486</v>
       </c>
       <c r="I96">
-        <v>3.124242305755615</v>
+        <v>3.1242423057556148</v>
       </c>
       <c r="J96">
         <v>11.55978441238403</v>
@@ -6275,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6298,16 +6338,16 @@
         <v>573</v>
       </c>
       <c r="I97">
-        <v>3.389660596847534</v>
+        <v>3.3896605968475342</v>
       </c>
       <c r="J97">
-        <v>22.60419607162476</v>
+        <v>22.604196071624759</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M97">
         <v>0.8571428571428571</v>
@@ -6316,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6342,7 +6382,7 @@
         <v>6.576416015625</v>
       </c>
       <c r="J98">
-        <v>23.35249519348145</v>
+        <v>23.352495193481449</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6357,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6383,13 +6423,13 @@
         <v>598</v>
       </c>
       <c r="I99">
-        <v>2.936534404754639</v>
+        <v>2.9365344047546391</v>
       </c>
       <c r="J99">
-        <v>2.32784628868103</v>
+        <v>2.3278462886810298</v>
       </c>
       <c r="K99">
-        <v>0.07810568809509277</v>
+        <v>7.8105688095092773E-2</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6401,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6430,22 +6470,22 @@
         <v>5.451549768447876</v>
       </c>
       <c r="J100">
-        <v>22.52709054946899</v>
+        <v>22.527090549468991</v>
       </c>
       <c r="K100">
-        <v>1.077871322631836</v>
+        <v>0.12945619999999999</v>
       </c>
       <c r="L100">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M100">
         <v>1</v>
       </c>
       <c r="N100">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6468,10 +6508,10 @@
         <v>577</v>
       </c>
       <c r="I101">
-        <v>5.139353036880493</v>
+        <v>5.1393530368804932</v>
       </c>
       <c r="J101">
-        <v>2.094680309295654</v>
+        <v>2.0946803092956539</v>
       </c>
       <c r="K101">
         <v>0</v>

--- a/lod_analysis/excels/tracks_evaluation.xlsx
+++ b/lod_analysis/excels/tracks_evaluation.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabio\Basso\Università\5° Anno 2021-2022 (Magistrale AI)\Sistemi Informativi e Web Semantico\Progetto SIWS\Music World 2.0\lod_analysis\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA775903-7969-492B-B743-0FA787CF7CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="0" windowWidth="23004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="tracks_evaluation.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="596">
   <si>
     <t>track_id</t>
   </si>
@@ -61,1817 +55,1760 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>2mt1IqcFyY1zmYZT8Q3xw9</t>
-  </si>
-  <si>
-    <t>1QEEqeFIZktqIpPI4jSVSF</t>
-  </si>
-  <si>
-    <t>01z3wyn02forxUQHEDAa0R</t>
-  </si>
-  <si>
-    <t>1yKu2MhpwzDXXH2tzG6xoa</t>
-  </si>
-  <si>
-    <t>5Z9KJZvQzH6PFmb8SNkxuk</t>
-  </si>
-  <si>
-    <t>4do0Z0rHdFUV3RSMxMQsdq</t>
-  </si>
-  <si>
-    <t>2aI21FnmY7TJVKeMaoQZ0t</t>
-  </si>
-  <si>
-    <t>086myS9r57YsLbJpU0TgK9</t>
-  </si>
-  <si>
-    <t>4zyHANHgTs2XZfZtw7QFoR</t>
-  </si>
-  <si>
-    <t>0M3adYbGtyRHACP86dey1H</t>
-  </si>
-  <si>
-    <t>5oPUBUzrAnwvlmMzl1VW7Y</t>
+    <t>7ja8PPUWKBaIOUHVNaBI0D</t>
+  </si>
+  <si>
+    <t>1rAzW6aco1ZtxLRx4XOagB</t>
+  </si>
+  <si>
+    <t>1fBl642IhJOE5U319Gy2Go</t>
+  </si>
+  <si>
+    <t>1wgqttlPacpvmX5DKVboOa</t>
+  </si>
+  <si>
+    <t>1pHPpLVH2XEN0xYRoQs4wq</t>
+  </si>
+  <si>
+    <t>07q0QVgO56EorrSGHC48y3</t>
+  </si>
+  <si>
+    <t>29wJiSQcze8HEmxkUQykyp</t>
+  </si>
+  <si>
+    <t>3CisGh5CyKBDnGtjmsszSo</t>
+  </si>
+  <si>
+    <t>6gfDXAX85YWdVwxpbz0npv</t>
+  </si>
+  <si>
+    <t>0wokCRaKD0zPNhMRXAgVsr</t>
+  </si>
+  <si>
+    <t>6QgjcU0zLnzq5OrUoSZ3OK</t>
+  </si>
+  <si>
+    <t>4h8VwCb1MTGoLKueQ1WgbD</t>
+  </si>
+  <si>
+    <t>6ZOBP3NvffbU4SZcrnt1k6</t>
+  </si>
+  <si>
+    <t>7ElF5zxOwYP4qVSWVvse3W</t>
+  </si>
+  <si>
+    <t>33iv3wnGMrrDugd7GBso1z</t>
+  </si>
+  <si>
+    <t>59ZTxQo8rBycIXPLUIKvE2</t>
+  </si>
+  <si>
+    <t>7LzouaWGFCy4tkXDOOnEyM</t>
+  </si>
+  <si>
+    <t>4sEKv3Ofgz8f1Z80WVenRR</t>
+  </si>
+  <si>
+    <t>7HDWE2Ib7cjkhzULV4K8y3</t>
+  </si>
+  <si>
+    <t>6W21LNLz9Sw7sUSNWMSHRu</t>
+  </si>
+  <si>
+    <t>3DQVgcqaP3iSMbaKsd57l5</t>
+  </si>
+  <si>
+    <t>3cbV252akVZInSvJk7jAYX</t>
+  </si>
+  <si>
+    <t>0SiywuOBRcynK0uKGWdCnn</t>
+  </si>
+  <si>
+    <t>0qi4b1l0eT3jpzeNHeFXDT</t>
+  </si>
+  <si>
+    <t>20I6sIOMTCkB6w7ryavxtO</t>
+  </si>
+  <si>
+    <t>59qPP8coY8EWIQ9nQDThui</t>
+  </si>
+  <si>
+    <t>2tkbtyIBe9ynJnrkYcpc0M</t>
+  </si>
+  <si>
+    <t>4QRkCwqwHFaZ7xeoR9CHL6</t>
+  </si>
+  <si>
+    <t>6aJ90LBl96bly9zuEH1U2X</t>
+  </si>
+  <si>
+    <t>4WamMWxFi6ts3xkIhivF5c</t>
+  </si>
+  <si>
+    <t>4no2qCaEGeaYSNIj8pDcMf</t>
+  </si>
+  <si>
+    <t>0n2SEXB2qoRQg171q7XqeW</t>
+  </si>
+  <si>
+    <t>3LTJjpjOGt6lW8TaenjHlr</t>
+  </si>
+  <si>
+    <t>4T5Y25pWs2pVZVcFIqFuf8</t>
+  </si>
+  <si>
+    <t>7MmG8p0F9N3C4AXdK6o6Eb</t>
+  </si>
+  <si>
+    <t>6naxalmIoLFWR0siv8dnQQ</t>
+  </si>
+  <si>
+    <t>6Gl1VEl3eBQ97Ie1f78KMf</t>
+  </si>
+  <si>
+    <t>6Mt9WkHRfG8eX0f5a5JgSb</t>
+  </si>
+  <si>
+    <t>4frAG7YThT9usBt30jGT3N</t>
+  </si>
+  <si>
+    <t>1uxNeN5106dIHNA0iNKaNX</t>
+  </si>
+  <si>
+    <t>3cHyrEgdyYRjgJKSOiOtcS</t>
+  </si>
+  <si>
+    <t>0weAUscowxeqDtpCgtbpgp</t>
+  </si>
+  <si>
+    <t>5kxVyCgEUND7E2QKG7JmoF</t>
+  </si>
+  <si>
+    <t>57RA3JGafJm5zRtKJiKPIm</t>
+  </si>
+  <si>
+    <t>0dOg1ySSI7NkpAe89Zo0b9</t>
+  </si>
+  <si>
+    <t>0MKGH8UMfCnq5w7nG06oM5</t>
+  </si>
+  <si>
+    <t>1yjY7rpaAQvKwpdUliHx0d</t>
+  </si>
+  <si>
+    <t>7uSsHbBFFAnkRQR1rDwP3L</t>
+  </si>
+  <si>
+    <t>7hDVYcQq6MxkdJGweuCtl9</t>
+  </si>
+  <si>
+    <t>6ioBgySxoeQKALvAeLEmId</t>
+  </si>
+  <si>
+    <t>5yR9u8QiOt8hJaddv32oo7</t>
+  </si>
+  <si>
+    <t>6dgWWAs5yhWPOtvE1zuoQ1</t>
+  </si>
+  <si>
+    <t>1gT2IVtBEiEfedxp1xXk3U</t>
+  </si>
+  <si>
+    <t>6Dj0RpOdgzXWnxf7wyZhay</t>
+  </si>
+  <si>
+    <t>4ZtFanR9U6ndgddUvNcjcG</t>
+  </si>
+  <si>
+    <t>6IVlHRrjTKep5SS9kbcpTa</t>
+  </si>
+  <si>
+    <t>08mG3Y1vljYA6bvDt4Wqkj</t>
+  </si>
+  <si>
+    <t>1hlveB9M6ijHZRbzZ2teyh</t>
+  </si>
+  <si>
+    <t>6FUwPb4mGlUDbx42uspXaZ</t>
+  </si>
+  <si>
+    <t>7o9uu2GDtVDr9nsR7ZRN73</t>
+  </si>
+  <si>
+    <t>37f4ITSlgPX81ad2EvmVQr</t>
+  </si>
+  <si>
+    <t>5cZqsjVs6MevCnAkasbEOX</t>
+  </si>
+  <si>
+    <t>5Rjm3VIMlxAEIEy5gU2bF7</t>
+  </si>
+  <si>
+    <t>0yac0FPhLRH9i9lOng3f81</t>
+  </si>
+  <si>
+    <t>4VTNTmWxCPJJehcXT0jxVa</t>
+  </si>
+  <si>
+    <t>75NQydSjbz14rmt6j2UaMz</t>
+  </si>
+  <si>
+    <t>6qn9YLKt13AGvpq9jfO8py</t>
+  </si>
+  <si>
+    <t>06Qha323s06okpZ4LmMX7P</t>
+  </si>
+  <si>
+    <t>79z9QkhHePTFsSeVw9uyj0</t>
+  </si>
+  <si>
+    <t>3afa8APvNYE2tIUsJajAja</t>
+  </si>
+  <si>
+    <t>4UE8T2GKceEaNhn5ORTkyo</t>
+  </si>
+  <si>
+    <t>0eGsygTp906u18L0Oimnem</t>
+  </si>
+  <si>
+    <t>0PXw9NKvolWTo7U9JkNzmc</t>
+  </si>
+  <si>
+    <t>2hHLbkatPwOOmrNxTiD41L</t>
   </si>
   <si>
     <t>1H5VQuShs4qfwBXyHF0PeH</t>
   </si>
   <si>
-    <t>0C2eEsMBj78CLkHNJPjohc</t>
-  </si>
-  <si>
-    <t>25jSwur7S47WCiH0hQNUAo</t>
-  </si>
-  <si>
-    <t>1Z6lKdYhwp8WYoBqGCKxlM</t>
-  </si>
-  <si>
-    <t>7Jb0dd0swg2VtD4cf18MCa</t>
-  </si>
-  <si>
-    <t>5sFDReWLrZHLFZFjHsjUTS</t>
-  </si>
-  <si>
-    <t>1qAuIPMALdFtGv2Ymjy5l0</t>
-  </si>
-  <si>
-    <t>2ri1QFlmi2PRyzJ6bMjYg9</t>
-  </si>
-  <si>
-    <t>4avSaixVwu8uqfSs7zgoj3</t>
-  </si>
-  <si>
-    <t>5SEBSAio1N77Vbrj1cAEGb</t>
-  </si>
-  <si>
-    <t>3S0OXQeoh0w6AY8WQVckRW</t>
-  </si>
-  <si>
-    <t>2OBKvpCTPo0q4qQELJ1n7h</t>
-  </si>
-  <si>
-    <t>2RaA6kIcvomt77qlIgGhCT</t>
-  </si>
-  <si>
-    <t>1euDTbMNRPNfKd8zZz4zTT</t>
-  </si>
-  <si>
-    <t>6IVlHRrjTKep5SS9kbcpTa</t>
-  </si>
-  <si>
-    <t>3EAFamlgsYPA3HijLUPszI</t>
-  </si>
-  <si>
-    <t>3CRDbSIZ4r5MsZ0YwxuEkn</t>
-  </si>
-  <si>
-    <t>7BKLCZ1jbUBVqRi2FVlTVw</t>
-  </si>
-  <si>
-    <t>0BxfFnk0YzONqvmrkO0QrB</t>
-  </si>
-  <si>
-    <t>3M1q2Wy2dAKiWV6oE6Koou</t>
-  </si>
-  <si>
-    <t>5fpizYGbi5IQoEraj6FP0R</t>
-  </si>
-  <si>
-    <t>5BP0oaQ1VhuaznT77CBXQp</t>
-  </si>
-  <si>
-    <t>6hADH7b57N5666cGv624vg</t>
-  </si>
-  <si>
-    <t>6EsBn1Md8C5YdbCzvwvZq8</t>
-  </si>
-  <si>
-    <t>30FURVTCpbKyykjSEQzGkH</t>
-  </si>
-  <si>
-    <t>4EchqUKQ3qAQuRNKmeIpnf</t>
-  </si>
-  <si>
-    <t>26D1PRJjD9Jj1JGRk88KVc</t>
-  </si>
-  <si>
-    <t>0P7yKadIJtft3LYWTQ6Y4n</t>
-  </si>
-  <si>
-    <t>6xE6ZWzK1YDDSYzqOCoQlz</t>
-  </si>
-  <si>
-    <t>2ojhyfZMmaXQFqA1YLofwo</t>
-  </si>
-  <si>
-    <t>06DSI8L6IT8SizCw3JLckz</t>
-  </si>
-  <si>
-    <t>2kulOHR2XY6YDZCWXb38hn</t>
-  </si>
-  <si>
-    <t>4h8VwCb1MTGoLKueQ1WgbD</t>
-  </si>
-  <si>
-    <t>663Karu2rvKLdnY0eo1n3M</t>
-  </si>
-  <si>
-    <t>2DTQUOfYJAjdo7utgjnU4u</t>
-  </si>
-  <si>
-    <t>2ijit5crURH5jhIc4YoKgA</t>
-  </si>
-  <si>
-    <t>6tp27J7xy18DQiQXut3GsF</t>
-  </si>
-  <si>
-    <t>6WEBIVqiEsevfgJefTyuQQ</t>
-  </si>
-  <si>
-    <t>09BINxFxiDeywjfC39nRFi</t>
-  </si>
-  <si>
-    <t>5GorCbAP4aL0EJ16frG2hd</t>
-  </si>
-  <si>
-    <t>1ENLIbxO4Uma773neTHxbp</t>
-  </si>
-  <si>
-    <t>1yrNoXJopuBtsL5Vj62ESi</t>
-  </si>
-  <si>
-    <t>18lR4BzEs7e3qzc0KVkTpU</t>
-  </si>
-  <si>
-    <t>2gam98EZKrF9XuOkU13ApN</t>
-  </si>
-  <si>
-    <t>2wnsBaxrmkthIFAm6vqCuX</t>
-  </si>
-  <si>
-    <t>1KU5EHSz04JhGg3rReGJ0N</t>
-  </si>
-  <si>
-    <t>1MQTmpYOZ6fcMQc56Hdo7T</t>
-  </si>
-  <si>
-    <t>6zeDYmP3ARpURvpK29Q09P</t>
-  </si>
-  <si>
-    <t>6ZCyDN2ArlWB4GKAj644Cd</t>
-  </si>
-  <si>
-    <t>3ZfMci7n6qk9nRodX8BfIb</t>
-  </si>
-  <si>
-    <t>1hGy2eLcmC8eKx7qr1tOqx</t>
-  </si>
-  <si>
-    <t>7iAqvWLgZzXvH38lA06QZg</t>
-  </si>
-  <si>
-    <t>6fNhZRFEkBfgW39W3wKARJ</t>
-  </si>
-  <si>
-    <t>1x9iOd3K1JC6tdjGZJpFgZ</t>
-  </si>
-  <si>
-    <t>5ka2ajep9OAvU5Sgduhiex</t>
-  </si>
-  <si>
-    <t>5hE3T2329sdMmIrHxjhQDL</t>
-  </si>
-  <si>
-    <t>2HAVFycrhtbmLxyyxpm6JI</t>
-  </si>
-  <si>
-    <t>3aTb5EUBOlNDSEcaTFI7Jj</t>
-  </si>
-  <si>
-    <t>06hsdMbBxWGqBO0TV0Zrkf</t>
-  </si>
-  <si>
-    <t>1HRtVWNhS9tEvDQyOKD9Fs</t>
-  </si>
-  <si>
-    <t>1M3Q6JBxczHas388EfotPV</t>
-  </si>
-  <si>
-    <t>2cGxRwrMyEAp8dEbuZaVv6</t>
-  </si>
-  <si>
-    <t>2hrUO4drrO63i7FYbCLBl2</t>
-  </si>
-  <si>
-    <t>1c0zagykmGPDYuxJeDqZhJ</t>
-  </si>
-  <si>
-    <t>5CeL9C3bsoe4yzYS1Qz8cw</t>
-  </si>
-  <si>
-    <t>4Hn14NabX651eOOzsLL8Uc</t>
+    <t>6kQz6t5z1FK4uohPh8Kd73</t>
+  </si>
+  <si>
+    <t>0ARK753YaiJbpLUk7z5yIM</t>
+  </si>
+  <si>
+    <t>2qrpTk3EImToad3sUazcuf</t>
+  </si>
+  <si>
+    <t>5lUTzPuiloBHm1qEaJcJfF</t>
+  </si>
+  <si>
+    <t>0M955bMOoilikPXwKLYpoi</t>
+  </si>
+  <si>
+    <t>1rzYrkxgRuLLJDqWdB32pK</t>
+  </si>
+  <si>
+    <t>4wH4dJgrsxONID6KS2tDQM</t>
+  </si>
+  <si>
+    <t>0iOu4s8w3pE9vbpb1SHXsL</t>
+  </si>
+  <si>
+    <t>62nQ8UZVqR2RMvkJHkcO2o</t>
+  </si>
+  <si>
+    <t>0rKtyWc8bvkriBthvHKY8d</t>
+  </si>
+  <si>
+    <t>2VSbEXqs6NbNiZSTcHlIDR</t>
   </si>
   <si>
     <t>1PhLYngBKbeDtdmDzCg3Pb</t>
   </si>
   <si>
-    <t>6RNDeRnWsRMjPdNVgupZCs</t>
-  </si>
-  <si>
-    <t>6ic8OlLUNEATToEFU3xmaH</t>
-  </si>
-  <si>
-    <t>7y7w4tl4MaRC2UMEj1mPtr</t>
-  </si>
-  <si>
-    <t>0DiWol3AO6WpXZgp0goxAV</t>
-  </si>
-  <si>
-    <t>4VIDVd87GQcBSbofvDp8Pj</t>
-  </si>
-  <si>
-    <t>7MmG8p0F9N3C4AXdK6o6Eb</t>
-  </si>
-  <si>
-    <t>4kqhpdBNKywstQpWMnEglC</t>
-  </si>
-  <si>
-    <t>5DiXcVovI0FcY2s0icWWUu</t>
-  </si>
-  <si>
-    <t>3q2gRjU2UdOYRDY1p4cNHr</t>
-  </si>
-  <si>
-    <t>0n2SEXB2qoRQg171q7XqeW</t>
-  </si>
-  <si>
-    <t>5tJjo5JDF9zhzYD7yQfATH</t>
-  </si>
-  <si>
-    <t>0ql91Km4bA2AIHRCHhs3nS</t>
-  </si>
-  <si>
-    <t>6Kzi4F77twuPRkNhxonUET</t>
-  </si>
-  <si>
-    <t>7HDWE2Ib7cjkhzULV4K8y3</t>
-  </si>
-  <si>
-    <t>2iJuuzV8P9Yz0VSurttIV5</t>
-  </si>
-  <si>
-    <t>6qn9YLKt13AGvpq9jfO8py</t>
-  </si>
-  <si>
-    <t>1YhiWWFrbdd3kAVhSYDhZ7</t>
-  </si>
-  <si>
-    <t>3CKCZ9pfwAfoMZlMncA1Nc</t>
-  </si>
-  <si>
-    <t>16wAOAZ2OkqoIDN7TpChjR</t>
-  </si>
-  <si>
-    <t>3UygY7qW2cvG9Llkay6i1i</t>
-  </si>
-  <si>
-    <t>4N3hMqfpyJl4MB2EVrUDAR</t>
-  </si>
-  <si>
-    <t>2VOomzT6VavJOGBeySqaMc</t>
-  </si>
-  <si>
-    <t>hot girl bummer</t>
-  </si>
-  <si>
-    <t>More Than a Feeling</t>
-  </si>
-  <si>
-    <t>What's This Life For</t>
-  </si>
-  <si>
-    <t>Beverly Hills</t>
-  </si>
-  <si>
-    <t>INDUSTRY BABY (feat. Jack Harlow)</t>
-  </si>
-  <si>
-    <t>Crimson and Clover</t>
-  </si>
-  <si>
-    <t>Say It Right</t>
-  </si>
-  <si>
-    <t>Why'd You Only Call Me When You're High?</t>
-  </si>
-  <si>
-    <t>I'm A Believer - Radio Edit</t>
-  </si>
-  <si>
-    <t>Throne</t>
-  </si>
-  <si>
-    <t>Breathe</t>
+    <t>5r67bGhYXZNqk2m2Wupfmu</t>
+  </si>
+  <si>
+    <t>1vvNmPOiUuyCbgWmtc6yfm</t>
+  </si>
+  <si>
+    <t>1HPJOoIVdUPuaebxzMrVaD</t>
+  </si>
+  <si>
+    <t>4iihDHIoKZdOeOW1kFDUtR</t>
+  </si>
+  <si>
+    <t>4I2GdvjRKP5KbTUn43dPsK</t>
+  </si>
+  <si>
+    <t>1ZseaIKt19broBzze3F8hz</t>
+  </si>
+  <si>
+    <t>5rwdhliMmo0aAQ08vU0AOZ</t>
+  </si>
+  <si>
+    <t>583xVl0Sbj93uU4ceixgU8</t>
+  </si>
+  <si>
+    <t>4j2Xkx947eebgeZQBw6pEQ</t>
+  </si>
+  <si>
+    <t>1bNl9932PbUOu7Zw1xe2fR</t>
+  </si>
+  <si>
+    <t>2iUXsYOEPhVqEBwsqP70rE</t>
+  </si>
+  <si>
+    <t>0h8KNwmDto5ndOqdUOVZGQ</t>
+  </si>
+  <si>
+    <t>4V9BTST4BSkvOL4xIQNHuS</t>
+  </si>
+  <si>
+    <t>Get Over You</t>
+  </si>
+  <si>
+    <t>Only God Knows Why</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Paper Planes</t>
+  </si>
+  <si>
+    <t>Word Up!</t>
+  </si>
+  <si>
+    <t>I Was Made For Lovin' You</t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>Original Prankster</t>
+  </si>
+  <si>
+    <t>Ordinary World</t>
+  </si>
+  <si>
+    <t>Feel It Still</t>
+  </si>
+  <si>
+    <t>Wake Me Up</t>
+  </si>
+  <si>
+    <t>Kryptonite</t>
+  </si>
+  <si>
+    <t>Break Your Heart</t>
+  </si>
+  <si>
+    <t>My Own Worst Enemy</t>
+  </si>
+  <si>
+    <t>Dirrty (feat. Redman)</t>
+  </si>
+  <si>
+    <t>Liar</t>
+  </si>
+  <si>
+    <t>The Miracle (Of Joey Ramone)</t>
+  </si>
+  <si>
+    <t>It's No Good</t>
+  </si>
+  <si>
+    <t>Freak On a Leash</t>
+  </si>
+  <si>
+    <t>I Bet You Look Good On The Dancefloor</t>
+  </si>
+  <si>
+    <t>Flashdance...What a Feeling - Radio Edit</t>
+  </si>
+  <si>
+    <t>Bad Romance</t>
+  </si>
+  <si>
+    <t>Just Can't Get Enough</t>
+  </si>
+  <si>
+    <t>Call Me Maybe</t>
+  </si>
+  <si>
+    <t>Give It 2 Me</t>
+  </si>
+  <si>
+    <t>Outtathaway</t>
+  </si>
+  <si>
+    <t>Sovereign Light Café</t>
+  </si>
+  <si>
+    <t>This Is How We Do It</t>
+  </si>
+  <si>
+    <t>Kitty</t>
+  </si>
+  <si>
+    <t>Walking On Sunshine (25th Anniversary) - 2010 Remaster</t>
+  </si>
+  <si>
+    <t>Smooth (feat. Rob Thomas)</t>
+  </si>
+  <si>
+    <t>Cocody Rock</t>
+  </si>
+  <si>
+    <t>You Should Be Dancing</t>
+  </si>
+  <si>
+    <t>Outside (feat. Ellie Goulding)</t>
+  </si>
+  <si>
+    <t>Oops!...I Did It Again</t>
+  </si>
+  <si>
+    <t>Howlin' for You</t>
+  </si>
+  <si>
+    <t>Lights Up</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>American Bad Ass</t>
+  </si>
+  <si>
+    <t>Timber (feat. Ke$ha)</t>
+  </si>
+  <si>
+    <t>Gettin' Jiggy Wit It</t>
+  </si>
+  <si>
+    <t>Teddy Picker</t>
+  </si>
+  <si>
+    <t>Are You Bored Yet? (feat. Clairo)</t>
+  </si>
+  <si>
+    <t>Born in the U.S.A.</t>
+  </si>
+  <si>
+    <t>Come As You Are</t>
+  </si>
+  <si>
+    <t>Still into You</t>
+  </si>
+  <si>
+    <t>Black Betty - Edit</t>
+  </si>
+  <si>
+    <t>ocean eyes</t>
+  </si>
+  <si>
+    <t>Express Yourself</t>
+  </si>
+  <si>
+    <t>I Feel for You</t>
+  </si>
+  <si>
+    <t>Big Girls Don't Cry (Personal)</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Favourite Shirts (Boy Meets Girl)</t>
+  </si>
+  <si>
+    <t>good 4 u</t>
+  </si>
+  <si>
+    <t>This Is The Last Time</t>
+  </si>
+  <si>
+    <t>Back In Black</t>
+  </si>
+  <si>
+    <t>We're Not Gonna Take It</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Time After Time</t>
+  </si>
+  <si>
+    <t>Fight Song</t>
+  </si>
+  <si>
+    <t>Break Stuff</t>
+  </si>
+  <si>
+    <t>Last of the American Girls</t>
+  </si>
+  <si>
+    <t>Everybody's Changing</t>
+  </si>
+  <si>
+    <t>Henrietta</t>
+  </si>
+  <si>
+    <t>The World Is New</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>Love Illumination</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Caught in the Middle</t>
+  </si>
+  <si>
+    <t>Mr. Brightside</t>
+  </si>
+  <si>
+    <t>The Heat Is On - From "Beverly Hills Cop" Soundtrack</t>
+  </si>
+  <si>
+    <t>I Really Like You</t>
   </si>
   <si>
     <t>Narcotic - Radio Edit</t>
   </si>
   <si>
-    <t>Boys Don't Cry</t>
-  </si>
-  <si>
-    <t>Words As Weapons</t>
-  </si>
-  <si>
-    <t>Unskinny Bop</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Would?</t>
-  </si>
-  <si>
-    <t>MONSTERS</t>
-  </si>
-  <si>
-    <t>Hit Me With Your Best Shot</t>
-  </si>
-  <si>
-    <t>Livin' On The Edge</t>
-  </si>
-  <si>
-    <t>N 2 Gether Now</t>
-  </si>
-  <si>
-    <t>I'm Yours</t>
-  </si>
-  <si>
-    <t>Sexy And I Know It</t>
-  </si>
-  <si>
-    <t>Breaking the Law</t>
-  </si>
-  <si>
-    <t>Give In to Me</t>
-  </si>
-  <si>
-    <t>This Is The Last Time</t>
-  </si>
-  <si>
-    <t>She Sells Sanctuary (2009 Re-master)</t>
-  </si>
-  <si>
-    <t>Stressed Out</t>
-  </si>
-  <si>
-    <t>Closer</t>
-  </si>
-  <si>
-    <t>Don't Cha</t>
-  </si>
-  <si>
-    <t>Saturday Night - Radio Edit</t>
-  </si>
-  <si>
-    <t>Intergalactic - Remastered 2009</t>
-  </si>
-  <si>
-    <t>Where Is My Mind?</t>
-  </si>
-  <si>
-    <t>Right Action</t>
-  </si>
-  <si>
-    <t>Self Esteem</t>
-  </si>
-  <si>
-    <t>Back To Black</t>
-  </si>
-  <si>
-    <t>The Kids Aren't Alright</t>
-  </si>
-  <si>
-    <t>Lithium</t>
-  </si>
-  <si>
-    <t>Ready or Not</t>
-  </si>
-  <si>
-    <t>Last Train to London</t>
-  </si>
-  <si>
-    <t>Rat In Mi Kitchen</t>
-  </si>
-  <si>
-    <t>Cantaloop (Flip Fantasia)</t>
-  </si>
-  <si>
-    <t>Wanna Be Startin' Somethin'</t>
-  </si>
-  <si>
-    <t>Wake Me Up</t>
-  </si>
-  <si>
-    <t>Call Me When You're Sober</t>
-  </si>
-  <si>
-    <t>Baker Street</t>
-  </si>
-  <si>
-    <t>Love Me Like You</t>
-  </si>
-  <si>
-    <t>Don't Lie</t>
-  </si>
-  <si>
-    <t>Too Shy</t>
-  </si>
-  <si>
-    <t>Another Brick in the Wall, Pt. 2</t>
-  </si>
-  <si>
-    <t>Boulevard of Broken Dreams</t>
-  </si>
-  <si>
-    <t>Sweet Dreams (Are Made Of This)</t>
-  </si>
-  <si>
-    <t>Englishman In New York</t>
-  </si>
-  <si>
-    <t>What I've Done</t>
-  </si>
-  <si>
-    <t>Promiscuous</t>
-  </si>
-  <si>
-    <t>So Lonely</t>
-  </si>
-  <si>
-    <t>Black Velvet</t>
-  </si>
-  <si>
-    <t>Sleep Now In the Fire</t>
-  </si>
-  <si>
-    <t>Someday</t>
-  </si>
-  <si>
-    <t>Strangelove</t>
-  </si>
-  <si>
-    <t>Girl Gone Wild</t>
-  </si>
-  <si>
-    <t>Beautiful Girls</t>
-  </si>
-  <si>
-    <t>I Want To Break Free</t>
-  </si>
-  <si>
-    <t>Pompeii</t>
-  </si>
-  <si>
-    <t>You Can Leave Your Hat On</t>
-  </si>
-  <si>
-    <t>Applause</t>
-  </si>
-  <si>
-    <t>Selling The Drama</t>
-  </si>
-  <si>
-    <t>Killing Me Softly With His Song</t>
-  </si>
-  <si>
-    <t>Bodyrock</t>
-  </si>
-  <si>
-    <t>Cotton Eye Joe</t>
-  </si>
-  <si>
-    <t>Don't Stop 'Til You Get Enough - 2003 Edit</t>
-  </si>
-  <si>
-    <t>Mope</t>
-  </si>
-  <si>
-    <t>Instant Crush (feat. Julian Casablancas)</t>
-  </si>
-  <si>
-    <t>Rockabye (feat. Sean Paul &amp; Anne-Marie)</t>
-  </si>
-  <si>
-    <t>World Hold on (Children of the Sky) [Radio Edit]</t>
-  </si>
-  <si>
-    <t>Girls &amp; Boys</t>
-  </si>
-  <si>
-    <t>How Do You Do!</t>
+    <t>Let's Get Loud</t>
+  </si>
+  <si>
+    <t>Dilemma</t>
+  </si>
+  <si>
+    <t>Chelsea Dagger</t>
+  </si>
+  <si>
+    <t>Candyman</t>
+  </si>
+  <si>
+    <t>I Hate Everything About You</t>
+  </si>
+  <si>
+    <t>Little Sister</t>
+  </si>
+  <si>
+    <t>Maneater</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>SLOW DANCING IN THE DARK</t>
+  </si>
+  <si>
+    <t>My Sacrifice</t>
   </si>
   <si>
     <t>Sad But True</t>
   </si>
   <si>
-    <t>I Just Called To Say I Love You</t>
-  </si>
-  <si>
-    <t>Gimme More</t>
-  </si>
-  <si>
-    <t>Come &amp; Go (with Marshmello)</t>
-  </si>
-  <si>
-    <t>One More Time</t>
-  </si>
-  <si>
-    <t>Bad Things</t>
-  </si>
-  <si>
-    <t>Outside (feat. Ellie Goulding)</t>
-  </si>
-  <si>
-    <t>Don't Tell Me</t>
-  </si>
-  <si>
-    <t>Mr. Jones</t>
-  </si>
-  <si>
-    <t>It Must Be Love</t>
-  </si>
-  <si>
-    <t>Smooth (feat. Rob Thomas)</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Salvation</t>
-  </si>
-  <si>
-    <t>One in a Million</t>
-  </si>
-  <si>
-    <t>It's No Good</t>
-  </si>
-  <si>
-    <t>Scream &amp; Shout</t>
-  </si>
-  <si>
-    <t>We Found Love</t>
-  </si>
-  <si>
-    <t>American Life</t>
-  </si>
-  <si>
-    <t>Set Fire to the Rain</t>
-  </si>
-  <si>
-    <t>Yummy</t>
-  </si>
-  <si>
-    <t>Going Under</t>
-  </si>
-  <si>
-    <t>Domino Dancing - 2003 Remaster</t>
-  </si>
-  <si>
-    <t>Disturbia</t>
-  </si>
-  <si>
-    <t>2cFrymmkijnjDg9SS92EPM</t>
-  </si>
-  <si>
-    <t>29kkCKKGXheHuoO829FxWK</t>
+    <t>Pour It Up</t>
+  </si>
+  <si>
+    <t>My Way</t>
+  </si>
+  <si>
+    <t>Words - Original Version 1983</t>
+  </si>
+  <si>
+    <t>Jaded</t>
+  </si>
+  <si>
+    <t>L.A. Woman</t>
+  </si>
+  <si>
+    <t>Hello, Anxiety</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>I'm Outta Love - Radio Edit</t>
+  </si>
+  <si>
+    <t>Closer to Free</t>
+  </si>
+  <si>
+    <t>Point Of View - Radio Edit</t>
+  </si>
+  <si>
+    <t>Youngblood</t>
+  </si>
+  <si>
+    <t>Psychotic Kids</t>
+  </si>
+  <si>
+    <t>Heaven Is a Place on Earth</t>
+  </si>
+  <si>
+    <t>2cBh5lVMg222FFuRU7EfDE</t>
+  </si>
+  <si>
+    <t>7dOBabd5O4CvKrg4iriHTM</t>
+  </si>
+  <si>
+    <t>0RpddSzUHfncUWNJXKOsjy</t>
+  </si>
+  <si>
+    <t>0QJIPDAEDILuo8AIq3pMuU</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>07XSN3sPlIlB2L2XNcTwJw</t>
+  </si>
+  <si>
+    <t>7Js6Lde8thlIHXggv2SCBz</t>
+  </si>
+  <si>
+    <t>0s5gpeqAWjt0XLkMTAAFU8</t>
+  </si>
+  <si>
+    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>4kI8Ie27vjvonwaB2ePh8T</t>
+  </si>
+  <si>
+    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
+  </si>
+  <si>
+    <t>2RTUTCvo6onsAnheUk3aL9</t>
+  </si>
+  <si>
+    <t>6MF9fzBmfXghAz953czmBC</t>
+  </si>
+  <si>
+    <t>5mgr0FFpvy267wKVAYg8qp</t>
+  </si>
+  <si>
+    <t>1l7ZsJRRS8wlW3WfJfPfNS</t>
+  </si>
+  <si>
+    <t>4nDoRrQiYLoBzwC5BhVJzF</t>
+  </si>
+  <si>
+    <t>51Blml2LZPmy7TTiAg47vQ</t>
+  </si>
+  <si>
+    <t>762310PdDnwsDxAQxzQkfX</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>6sFIWsNpZYqfjUpaCgueju</t>
+  </si>
+  <si>
+    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
+  </si>
+  <si>
+    <t>7vkiEK5D7Gf0z4M1Va0CXD</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>0iVrCROxeyon7MZUW3MfzT</t>
+  </si>
+  <si>
+    <t>1lZvg4fNAqHoj6I9N8naBM</t>
+  </si>
+  <si>
+    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
+  </si>
+  <si>
+    <t>6GI52t8N5F02MxU0g5U69P</t>
+  </si>
+  <si>
+    <t>41ekW4MXG59xJMXR8dX1OG</t>
+  </si>
+  <si>
+    <t>1LZEQNv7sE11VDY3SdxQeN</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>26dSoYclwsYLMAKD3tpOr4</t>
+  </si>
+  <si>
+    <t>7mnBLXK823vNxN3UWB7Gfz</t>
+  </si>
+  <si>
+    <t>6KImCVD70vtIoJWnq6nGn3</t>
+  </si>
+  <si>
+    <t>1bj5GrcLom5gZFF5t949Xl</t>
+  </si>
+  <si>
+    <t>0TnOYISbd1XYRBk9myaseg</t>
+  </si>
+  <si>
+    <t>41qil2VaGbD194gaEcmmyx</t>
+  </si>
+  <si>
+    <t>0NIPkIjTV8mB795yEIiPYL</t>
+  </si>
+  <si>
+    <t>3eqjTLE0HfPfh78zjh6TqT</t>
+  </si>
+  <si>
+    <t>6olE6TJLqED3rqDCT0FyPh</t>
+  </si>
+  <si>
+    <t>74XFHRwlV6OrjEM0A2NCMF</t>
+  </si>
+  <si>
+    <t>6P7kkhED6EPrfoZuxz20Fo</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
+  </si>
+  <si>
+    <t>6mQfAAqZGBzIfrmlZCeaYT</t>
+  </si>
+  <si>
+    <t>3r17AfJCCUqC9Lf0OAc73G</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>6imyM8T1Xbe8v2iZe41dR7</t>
+  </si>
+  <si>
+    <t>1McMsnEElThX1knmY4oliG</t>
+  </si>
+  <si>
+    <t>711MCceyCBcFnzjGY4Q7Un</t>
+  </si>
+  <si>
+    <t>7b85ve82Sh36a3UAx74wut</t>
+  </si>
+  <si>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>2BTZIqw0ntH9MvilQ3ewNY</t>
+  </si>
+  <si>
+    <t>3QLIkT4rD2FMusaqmkepbq</t>
+  </si>
+  <si>
+    <t>165ZgPlLkK7bf5bDoFc6Sb</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
+  </si>
+  <si>
+    <t>3M4ThdJR28z9eSMcQHAZ5G</t>
+  </si>
+  <si>
+    <t>1PAi6SNPtaiFqTRiTfecFr</t>
+  </si>
+  <si>
+    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
+  </si>
+  <si>
+    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
+  </si>
+  <si>
+    <t>13saZpZnCDWOI9D4IJhp1f</t>
+  </si>
+  <si>
+    <t>5SHQUMAmEK5KmuSb0aDvsn</t>
+  </si>
+  <si>
+    <t>5lPsVvHVDr6R5mDxRUXdOs</t>
+  </si>
+  <si>
+    <t>0C0XlULifJtAgn6ZNCW2eu</t>
+  </si>
+  <si>
+    <t>3vMWY1bUrmYoSoEWLiQWOZ</t>
+  </si>
+  <si>
+    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
+  </si>
+  <si>
+    <t>2DlGxzQSjYe5N6G9nkYghR</t>
+  </si>
+  <si>
+    <t>2gBjLmx6zQnFGQJCAQpRgw</t>
+  </si>
+  <si>
+    <t>2xiIXseIJcq3nG7C8fHeBj</t>
+  </si>
+  <si>
+    <t>4pejUc4iciQfgdX6OKulQn</t>
+  </si>
+  <si>
+    <t>2jw70GZXlAI8QzWeY2bgRc</t>
+  </si>
+  <si>
+    <t>1w5Kfo2jwwIPruYS2UWh56</t>
+  </si>
+  <si>
+    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
   </si>
   <si>
     <t>43sZBwHjahUvgbx1WNIkIz</t>
   </si>
   <si>
-    <t>3jOstUTkEu2JkjvRdBA5Gu</t>
-  </si>
-  <si>
-    <t>7jVv8c5Fj3E9VhNjxT4snq</t>
-  </si>
-  <si>
-    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
-  </si>
-  <si>
-    <t>2jw70GZXlAI8QzWeY2bgRc</t>
-  </si>
-  <si>
-    <t>7Ln80lUS6He07XvHI8qqHH</t>
-  </si>
-  <si>
-    <t>2iEvnFsWxR0Syqu2JNopAd</t>
-  </si>
-  <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>4k1ELeJKT1ISyDv8JivPpB</t>
-  </si>
-  <si>
-    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
-  </si>
-  <si>
-    <t>7bu3H8JO7d0UbMoVzbo70s</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>1fBCIkoPOPCDLUxGuWNvyo</t>
-  </si>
-  <si>
-    <t>6S0GHTqz5sxK5f9HtLXn9q</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>43mhFhQ4JAknA7Ik1bOZuV</t>
+    <t>6GnCucI2uDaYj1j39GFxkn</t>
   </si>
   <si>
     <t>7Ey4PD4MYsKc5I2dolUwbH</t>
   </si>
   <si>
-    <t>165ZgPlLkK7bf5bDoFc6Sb</t>
-  </si>
-  <si>
-    <t>4phGZZrJZRo4ElhRtViYdl</t>
-  </si>
-  <si>
-    <t>3sgFRtyBnxXD5ESfmbK4dl</t>
-  </si>
-  <si>
-    <t>2tRsMl4eGxwoNabM08Dm4I</t>
-  </si>
-  <si>
-    <t>3fMbdgg4jU18AjLCKBhRSm</t>
-  </si>
-  <si>
-    <t>53A0W3U0s8diEn9RhXQhVz</t>
-  </si>
-  <si>
-    <t>49DW3KvkyjHO35mK1JnSyS</t>
-  </si>
-  <si>
-    <t>3YQKmKGau1PzlVlkL1iodx</t>
-  </si>
-  <si>
-    <t>69GGBxA162lTqCwzJG5jLp</t>
-  </si>
-  <si>
-    <t>6wPhSqRtPu1UhRCDX5yaDJ</t>
-  </si>
-  <si>
-    <t>0lHoDF96DNKSIcIpcOfMnq</t>
-  </si>
-  <si>
-    <t>03r4iKL2g2442PT9n2UKsx</t>
-  </si>
-  <si>
-    <t>6zvul52xwTWzilBZl6BUbT</t>
-  </si>
-  <si>
-    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>6Q192DXotxtaysaqNPy5yR</t>
-  </si>
-  <si>
-    <t>6olE6TJLqED3rqDCT0FyPh</t>
-  </si>
-  <si>
-    <t>4VhL8KLjVso4vLfOLVViTb</t>
-  </si>
-  <si>
-    <t>7jefIIksOi1EazgRTfW2Pk</t>
-  </si>
-  <si>
-    <t>69MEO1AADKg1IZrq2XLzo5</t>
-  </si>
-  <si>
-    <t>4LtIfuFeAamus9OOItuWDD</t>
-  </si>
-  <si>
-    <t>1vCWHaC5f2uS3yhpwWbIA6</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>5EQMhqNfNmnIIAgwQX1WZ7</t>
-  </si>
-  <si>
-    <t>0P2q6xyNc2hVFkG3ThjYcJ</t>
-  </si>
-  <si>
-    <t>1yxSLGMDHlW21z4YXirZDS</t>
-  </si>
-  <si>
-    <t>0f3kLT4wvi2mFHlHJgV8Hl</t>
-  </si>
-  <si>
-    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
-  </si>
-  <si>
-    <t>7oPftvlwr6VrsViSDV7fJY</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>0Ty63ceoRnnJKVEYP0VQpk</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>5NGO30tJxFlKixkPSgXcFE</t>
-  </si>
-  <si>
-    <t>6IYnSXO40Bh7Zdqhf6rQoj</t>
-  </si>
-  <si>
-    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
-  </si>
-  <si>
-    <t>4uN3DsfENc7dp0OLO0FEIb</t>
-  </si>
-  <si>
-    <t>762310PdDnwsDxAQxzQkfX</t>
-  </si>
-  <si>
-    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
-  </si>
-  <si>
-    <t>6S0dmVVn4udvppDhZIWxCr</t>
-  </si>
-  <si>
-    <t>1dfeR4HaWDbWqFHLkxsg1d</t>
-  </si>
-  <si>
-    <t>7EQ0qTo7fWT7DPxmxtSYEc</t>
-  </si>
-  <si>
-    <t>3pFCERyEiP5xeN2EsPXhjI</t>
-  </si>
-  <si>
-    <t>1HY2Jd0NmPuamShAr6KMms</t>
-  </si>
-  <si>
-    <t>6eoJpTIlcuxJNjV5fDzDJH</t>
-  </si>
-  <si>
-    <t>2WKdxPFRD7IqZvlIAvhMgY</t>
-  </si>
-  <si>
-    <t>3OsRAKCvk37zwYcnzRf5XF</t>
-  </si>
-  <si>
-    <t>22Zqu1yyebVnbve8FxbJ2g</t>
-  </si>
-  <si>
-    <t>6nDLku5uL3ou60kvCGZorh</t>
-  </si>
-  <si>
-    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
-  </si>
-  <si>
-    <t>6MDME20pz9RveH9rEXvrOM</t>
-  </si>
-  <si>
-    <t>5YFS41yoX0YuFY39fq21oN</t>
-  </si>
-  <si>
-    <t>7MhMgCo0Bl0Kukl93PZbYS</t>
-  </si>
-  <si>
-    <t>2SHhfs4BiDxGQ3oxqf0UHY</t>
-  </si>
-  <si>
-    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
-  </si>
-  <si>
-    <t>7guDJrEfX3qb6FEbdPA5qi</t>
-  </si>
-  <si>
-    <t>26dSoYclwsYLMAKD3tpOr4</t>
-  </si>
-  <si>
-    <t>4MCBfE4596Uoi2O4DtmEMz</t>
-  </si>
-  <si>
-    <t>47DQBkDU2VieRG0aJUcPJs</t>
-  </si>
-  <si>
-    <t>7CajNmpbOovFoOoasH2HaY</t>
-  </si>
-  <si>
-    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
-  </si>
-  <si>
-    <t>0vEsuISMWAKNctLlUAhSZC</t>
-  </si>
-  <si>
-    <t>4AYkFtEBnNnGuoo8HaHErd</t>
-  </si>
-  <si>
-    <t>6GI52t8N5F02MxU0g5U69P</t>
-  </si>
-  <si>
-    <t>0PFtn5NtBbbUNbU9EAmIWF</t>
-  </si>
-  <si>
-    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
-  </si>
-  <si>
-    <t>3daM7asS0gCFvyLemNx2EE</t>
-  </si>
-  <si>
-    <t>085pc2PYOi8bGKj0PNjekA</t>
-  </si>
-  <si>
-    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
-  </si>
-  <si>
-    <t>4dpARuHxo51G3z768sgnrY</t>
-  </si>
-  <si>
-    <t>1uNFoZAHBGtllmzznpCI3s</t>
-  </si>
-  <si>
-    <t>2ycnb8Er79LoH2AsR5ldjh</t>
-  </si>
-  <si>
-    <t>blackbear</t>
-  </si>
-  <si>
-    <t>Boston</t>
+    <t>7lzordPuZEXxwt9aoVZYmG</t>
+  </si>
+  <si>
+    <t>5mqguTgtaoCMNMZD6txCh6</t>
+  </si>
+  <si>
+    <t>04gDigrS5kc9YWfZHwBETP</t>
+  </si>
+  <si>
+    <t>2siHvYaxjaW5rKVRiIrMYH</t>
+  </si>
+  <si>
+    <t>2D2qwEatKbBSKhBCfP6lyn</t>
+  </si>
+  <si>
+    <t>17jVKTope5TIJoBQBTzaxj</t>
+  </si>
+  <si>
+    <t>5Rl15oVamLq7FbSb0NNBNy</t>
+  </si>
+  <si>
+    <t>6Ad91Jof8Niiw0lGLLi3NW</t>
+  </si>
+  <si>
+    <t>7xkAwz0bQTGDSbkofyQt3U</t>
+  </si>
+  <si>
+    <t>Sophie Ellis-Bextor</t>
+  </si>
+  <si>
+    <t>Kid Rock</t>
+  </si>
+  <si>
+    <t>Neon Trees</t>
+  </si>
+  <si>
+    <t>M.I.A.</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>The Offspring</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>3 Doors Down</t>
+  </si>
+  <si>
+    <t>Taio Cruz</t>
+  </si>
+  <si>
+    <t>Lit</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Camila Cabello</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Irene Cara</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Carly Rae Jepsen</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>The Vines</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>Montell Jordan</t>
+  </si>
+  <si>
+    <t>The Presidents Of The United States Of America</t>
+  </si>
+  <si>
+    <t>Katrina &amp; The Waves</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Alpha Blondy</t>
+  </si>
+  <si>
+    <t>Bee Gees</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>The Black Keys</t>
+  </si>
+  <si>
+    <t>Harry Styles</t>
+  </si>
+  <si>
+    <t>Martin Solveig</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Wallows</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>Paramore</t>
+  </si>
+  <si>
+    <t>Spiderbait</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>Chaka Khan</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Haircut 100</t>
+  </si>
+  <si>
+    <t>Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>Twisted Sister</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Rachel Platten</t>
+  </si>
+  <si>
+    <t>Limp Bizkit</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>The Fratellis</t>
+  </si>
+  <si>
+    <t>Save Ferris</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
+  </si>
+  <si>
+    <t>Lily Allen</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>The Killers</t>
+  </si>
+  <si>
+    <t>Glenn Frey</t>
+  </si>
+  <si>
+    <t>Liquido</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Three Days Grace</t>
+  </si>
+  <si>
+    <t>Queens of the Stone Age</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Pearl Jam</t>
+  </si>
+  <si>
+    <t>Joji</t>
   </si>
   <si>
     <t>Creed</t>
   </si>
   <si>
-    <t>Weezer</t>
-  </si>
-  <si>
-    <t>Lil Nas X</t>
-  </si>
-  <si>
-    <t>Joan Jett &amp; The Blackhearts</t>
-  </si>
-  <si>
-    <t>Nelly Furtado</t>
-  </si>
-  <si>
-    <t>Arctic Monkeys</t>
-  </si>
-  <si>
-    <t>Smash Mouth</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>The Prodigy</t>
-  </si>
-  <si>
-    <t>Liquido</t>
-  </si>
-  <si>
-    <t>The Cure</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>Garbage</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Pat Benatar</t>
+    <t>F.R. David</t>
   </si>
   <si>
     <t>Aerosmith</t>
   </si>
   <si>
-    <t>Limp Bizkit</t>
-  </si>
-  <si>
-    <t>Jason Mraz</t>
-  </si>
-  <si>
-    <t>LMFAO</t>
-  </si>
-  <si>
-    <t>Judas Priest</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Keane</t>
-  </si>
-  <si>
-    <t>The Cult</t>
-  </si>
-  <si>
-    <t>Twenty One Pilots</t>
-  </si>
-  <si>
-    <t>The Chainsmokers</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls</t>
-  </si>
-  <si>
-    <t>Whigfield</t>
-  </si>
-  <si>
-    <t>Beastie Boys</t>
-  </si>
-  <si>
-    <t>Pixies</t>
-  </si>
-  <si>
-    <t>Franz Ferdinand</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>Nirvana</t>
-  </si>
-  <si>
-    <t>Bridgit Mendler</t>
-  </si>
-  <si>
-    <t>Electric Light Orchestra</t>
-  </si>
-  <si>
-    <t>UB40</t>
-  </si>
-  <si>
-    <t>Us3</t>
-  </si>
-  <si>
-    <t>Avicii</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Undercover</t>
-  </si>
-  <si>
-    <t>The Magic Numbers</t>
-  </si>
-  <si>
-    <t>Black Eyed Peas</t>
-  </si>
-  <si>
-    <t>Kajagoogoo</t>
-  </si>
-  <si>
-    <t>Pink Floyd</t>
-  </si>
-  <si>
-    <t>Green Day</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Sting</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>The Police</t>
-  </si>
-  <si>
-    <t>Alannah Myles</t>
-  </si>
-  <si>
-    <t>Rage Against The Machine</t>
-  </si>
-  <si>
-    <t>Sugar Ray</t>
-  </si>
-  <si>
-    <t>Depeche Mode</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>Sean Kingston</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Bastille</t>
-  </si>
-  <si>
-    <t>Joe Cocker</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Fugees</t>
-  </si>
-  <si>
-    <t>Moby</t>
-  </si>
-  <si>
-    <t>Rednex</t>
-  </si>
-  <si>
-    <t>Bloodhound Gang</t>
-  </si>
-  <si>
-    <t>Daft Punk</t>
-  </si>
-  <si>
-    <t>Clean Bandit</t>
-  </si>
-  <si>
-    <t>Bob Sinclar</t>
-  </si>
-  <si>
-    <t>Blur</t>
-  </si>
-  <si>
-    <t>Roxette</t>
-  </si>
-  <si>
-    <t>Metallica</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Juice WRLD</t>
-  </si>
-  <si>
-    <t>Jace Everett</t>
-  </si>
-  <si>
-    <t>Calvin Harris</t>
-  </si>
-  <si>
-    <t>Van Halen</t>
-  </si>
-  <si>
-    <t>Counting Crows</t>
-  </si>
-  <si>
-    <t>Madness</t>
-  </si>
-  <si>
-    <t>Santana</t>
-  </si>
-  <si>
-    <t>TOTO</t>
-  </si>
-  <si>
-    <t>The Cranberries</t>
-  </si>
-  <si>
-    <t>The Romantics</t>
-  </si>
-  <si>
-    <t>will.i.am</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>Pet Shop Boys</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Blackbear-hot-girl-bummer-lyrics', 'lyrics': '[Intro]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Verse 1]\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nThis that throw up in your Birkin bag\nHook up with someone random\nThis that social awkward suicide\nThat buy your lips and buy your likes\nI swear she had a man\nBut shit hit different when it\'s Thursday night\n\n[Pre-Chorus]\nThat college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that 10K on the table\nJust so we can be secluded\nAnd the vodka came diluted\nOne more line, I\'m superhuman\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Verse 2]\nThis that hot girl bummer two-step\nThey can\'t box me in, I\'m too left\nThis that drip, it\'s more like oceans\nThey can\'t fit me in a Trojan\nOut of pocket, but I\'m always in my bag\nYeah, that\'s the slogan\nThis that, "Who\'s all there?"\nI\'m pullin\' up wit\' a emo chick that\'s broken\n\n[Pre-Chorus]\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that 10K on the table\nJust so we can be secluded\nAnd the vodka came diluted\nOne more line, I\'m superhuman\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\n\n[Bridge]\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nThis that college dropout music\nEvery day leg day, she be too thick\nAnd my friends are all annoying\nBut we go dumb, yeah, we go stupid\nWe go stupid, we go stupid, we go—\nAnd you want me to change? Fuck you!\n\n[Chorus]\nFuck you, and you, and you\nI hate your friends and they hate me too\nI\'m through, I\'m through, I\'m through\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum\nFuck you, and you, and you\nI hate your friends and they hate me too\nFuck you, and you, and you\nThis that hot girl bummer anthem\nTurn it up and throw a tantrum', 'annotations': {'description': '&lt;p&gt;“hot girl bummer,” blackbear’s first single since his fifth studio album, &lt;a href="https://genius.com/albums/Blackbear/Anonymous" rel="noopener" data-api_path="/albums/456629"&gt;&lt;i&gt;ANONYMOUS&lt;/i&gt;&lt;/a&gt;, was released alongside &lt;a href="https://www.youtube.com/watch?v=yMlKJGKyoCo" rel="noopener nofollow"&gt;a low-budget music video&lt;/a&gt; directed by &lt;a href="https://www.imdb.com/name/nm0871808/" rel="noopener nofollow"&gt;Gilbert Trejo&lt;/a&gt;, which blackbear and his best friend Cesar Silva creative directed.  This was followed on November 21st, 2019 by a new, &lt;a href="https://www.youtube.com/watch?v=5cPW0ggFq04" rel="noopener nofollow"&gt;higher budget video&lt;/a&gt; via Vevo, directed by &lt;a href="http://adam-powell.com/" rel="noopener nofollow"&gt;Adam Powell&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song is blackbear’s spin on the &lt;a href="https://www.vox.com/the-goods/2019/7/12/20690515/hot-girl-summer-meme-define-explained" rel="noopener nofollow"&gt;#hotgirlsummer trend&lt;/a&gt;. Megan Thee Stallion fans, who &lt;a href="https://knowyourmeme.com/memes/hot-girl-summer" rel="noopener nofollow"&gt;originated the trend&lt;/a&gt;, inspiring the song &lt;a href="https://genius.com/Megan-thee-stallion-hot-girl-summer-lyrics" rel="noopener" data-api_path="/songs/4714934"&gt;“Hot Girl Summer”&lt;/a&gt; reacted negatively to the song, claiming that blackbear appropriated the idea. blackbear, however, claimed the song &lt;a href="https://images.genius.com/79d200a0585f91aa3ee550c9d5a89fde.658x137x1.png" rel="noopener"&gt;“has to do [with] the caption trend”&lt;/a&gt; and doesn’t parody the song. In fact, he teased the song and title during July 2019, before the release of Megan’s “Hot Girl Summer” on August 9th, 2019.&lt;/p&gt;\n\n&lt;p&gt;On the cover art of this playful, energetic track, &lt;a href="https://www.imdb.com/name/nm10132731/" rel="noopener nofollow"&gt;Maddy Crum&lt;/a&gt;, who was previously featured in Aidan Cullen-directed short film, &lt;a href="https://www.youtube.com/watch?v=oF0--5rrEos" rel="noopener nofollow"&gt;&lt;i&gt;THE ANONYMOUS SAGA&lt;/i&gt;,&lt;/a&gt; is pictured with a face covered in colorful stickers and a nosebleed. &lt;a href="https://youtu.be/v78iL0NvGG4" rel="noopener nofollow"&gt;She shared an Instagram story&lt;/a&gt; wearing merchandise and another using the official Snapchat filter designed by Harley Wrecks to mimic the cover a few hours before release.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/faf746ee0369415edc3fbb55fec35516.450x800x1.jpg" alt="" width="450" height="800" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The release date, August 23rd, 2019, marks the one year anniversary of &lt;a href="https://genius.com/Blackbear-the-1-lyrics" rel="noopener" data-api_path="/songs/3864163"&gt;“the 1”&lt;/a&gt; and the sixth year anniversary of &lt;a href="https://genius.com/Blackbear-n-y-l-a-single-lyrics" rel="noopener" data-api_path="/songs/1994894"&gt;“N Y L A,”&lt;/a&gt; both singles of his.&lt;/p&gt;', 'producers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': '\u200bblackbear', 'url': 'https://genius.com/artists/Blackbear'}], 'writers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': '\u200bblackbear', 'url': 'https://genius.com/artists/Blackbear'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Beartrap', 'url': 'https://genius.com/artists/Beartrap'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Boston-more-than-a-feeling-lyrics', 'lyrics': "[Verse 1]\nI looked out this morning and the sun was gone\nTurned on some music to start my day\nI lost myself in a familiar song\nI closed my eyes and I slipped away\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away\nI see my Marianne walking away\n\n[Verse 2]\nSo many people have come and gone\nTheir faces fade as the years go by\nYet, I still recall as I wander on\nAs clear as the sun in the summer sky\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away\nI see my Marianne walking away\n[Guitar Solo]\n\n[Verse 3]\nWhen I'm tired and thinking cold\nI hide in my music, forget the day\nAnd dream of a girl I used to know\nI closed my eyes and she slipped away\nShe slipped away\n\n[Chorus]\nIt's more than a feeling (more than a feeling)\nWhen I hear that old song they used to play (more than a feeling)\nAnd I begin dreaming (more than a feeling)\n'Til I see Marianne walk away", 'annotations': {'description': '&lt;p&gt;This is the first track off of Boston’s self-titled debut album, which describes the emotions that the singer is going through when he hears a particular song that takes him back to his memories of Marianne.&lt;/p&gt;', 'producers': [{'name': 'John Boylan', 'url': 'https://genius.com/artists/John-boylan'}, {'name': 'Tom Scholz', 'url': 'https://genius.com/artists/Tom-scholz'}], 'writers': [{'name': 'Tom Scholz', 'url': 'https://genius.com/artists/Tom-scholz'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Creed-whats-this-life-for-lyrics', 'lyrics': "[Verse 1]\nHurray for a child that makes it through\nIf there's any way because the answer lies in you\nThey're laid to rest before they've known just what to do\nTheir souls are lost because\nThey could never find\n\n[Chorus 1]\nWhat's this life for? What's this life for?\nWhat's this life for? What's this life for?\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\nYou could never find\n\n[Chorus 2]\nI see your soul, it's kind of gray\nYou see my heart, you look away\nYou see my wrist, I know your pain\nI know your purpose on your plane\nDon't say a last prayer because\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle the score\nBecause we all live under the reign\nOf one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf just as you know of one king, one king, one king\n\n[Chorus 3]\nBut they aren't here anymore\nDon't have to settle no goddamn score\nBecause we all live under the reign\nOf one king", 'annotations': {'description': '', 'producers': [{'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Weezer-beverly-hills-lyrics', 'lyrics': "[Verse 1]\nWhere I come from isn't all that great\nMy automobile is a piece of crap\nMy fashion sense is a little whack\nAnd my friends are just as screwed as me\nI didn't go to boarding schools\nPreppy girls never looked at me\nWhy should they? I ain't nobody\nGot nothing in my pocket\n\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n\n[Verse 2]\nLook at all those movie stars\nThey're all so beautiful and clean\nWhen the housemaids scrub the floors\nThey get the spaces in between\nI wanna live a life like that\nI wanna be just like a king\nTake my picture by the pool\nCause I'm the next big thing\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n\n[Guitar Solo]\n\n[Bridge]\nThe truth is\nI don't stand a chance\nIt's something that you're born into\nAnd I just don't belong\n\n[Verse 3]\nNo I don't, I'm just a no class, beat down fool\nAnd I will always be that way\nI might as well enjoy my life\nAnd watch the stars play\n\n[Chorus]\nBeverly Hills, that's where I want to be\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\nBeverly Hills, rollin' like a celebrity\n(Gimme gimme, gimme gimme)\nLivin' in Beverly Hills\n[Outro]\nBeverly Hills\nBeverly Hills\nBeverly Hills\nBeverly Hills, livin' in Beverly Hills", 'annotations': {'description': '&lt;p&gt;This song is off of Weezer’s 5th album called Make Believe, produced by Rick Rubin. It was the first single off this album.  Many Weezer fans might notice that the chord progression and rhythm closely resemble the song &lt;em&gt;“Blast Off”&lt;/em&gt; from their unreleased rock opera &lt;em&gt;“Songs from the Black Hole.”&lt;/em&gt;&lt;/p&gt;', 'producers': [{'name': 'Chad Bamford', 'url': 'https://genius.com/artists/Chad-bamford'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Rivers Cuomo', 'url': 'https://genius.com/artists/Rivers-cuomo'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics', 'lyrics': "[Intro: Lil Nas X]\n(D-D-Daytrip took it to ten, hey)\nBaby back, ayy, couple racks, ayy\nCouple Grammys on him, couple plaques, ayy\nThat's a fact, ayy, throw it back, ayy\nThrow it back, ayy\n[Pre-Chorus: Lil Nas X]\nAnd this one is for the champions\nI ain't lost since I began, yeah\nFunny how you said it was the end, yeah\nThen I went did it again, yeah\n\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low\nYou was never really rooting for me anyway\nWhen I'm back up at the top, I wanna hear you say\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over\n\n[Verse 1: Lil Nas X]\nUh, need to, uh\nNeed to get this album done\nNeed a couple number onеs\nNeed a plaque on every song\nNeed mе like one with Nicki now\nTell a rap nigga I don't see ya, hah\nI'm a pop nigga like Bieber, hah\nI don't fuck bitches, I'm queer, hah\nBut these niggas bitches like Madea, yeah, yeah, yeah, ayy (Yeah)\nOh, let's do it\nI ain't fall off, I just ain't release my new shit\nI blew up, now everybody tryna sue me\nYou call me Nas, but the hood call me Doobie, yeah\n[Pre-Chorus: Lil Nas X]\nAnd this one is for the champions\nI ain't lost since I began, yeah\nFunny how you said it was the end, yeah\nThen I went did it again, yeah\n\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for (I got what they're waiting for)\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low (Bitch, I ain't runnin' from nowhere)\nYou was never really rooting for me anyway (Ooh, ooh)\nWhen I'm back up at the top, I wanna hear you say (Ooh, ooh)\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over (Yeah)\n\n[Verse 2: Jack Harlow]\nMy track record so clean, they couldn't wait to just bash me\nI must be gettin' too flashy, y'all shouldn't have let the world gas me (Woo)\nIt's too late 'cause I'm here to stay and these girls know that I'm nasty (Mmm)\nI sent her back to her boyfriend with my handprint on her ass cheek\nCity talkin', we takin' notes\nTell 'em all to keep makin' posts\nWish he could, but he can't get close\nOG so proud of me that he chokin' up while he makin' toasts\nI'm the type that you can't control, said I would, then I made it so\nI don't clear up rumors (Ayy), where's y'all sense of humor? (Ayy)\nI'm done makin' jokes 'cause they got old like baby boomers\nTurned my haters to consumers, I make vets feel like they juniors (Juniors)\nSay your time is comin' soon, but just like Oklahoma (Mmm)\nMine is comin' sooner (Mmm), I'm just a late bloomer (Mmm)\nI didn't peak in high school, I'm still out here gettin' cuter (Woo)\nAll these social networks and computers\nGot these pussies walkin' 'round like they ain't losers\n[Chorus: Lil Nas X]\nI told you long ago on the road\nI got what they waiting for (I got what they waiting for)\nI don't run from nothing, dog\nGet your soldiers, tell 'em I ain't layin' low (Bitch, I ain't runnin' from nowhere)\nYou was never really rooting for me anyway\nWhen I'm back up at the top, I wanna hear you say\nHe don't run from nothin', dog\nGet your soldiers, tell 'em that the break is over\n[Outro: Lil Nas X]\nYeah\nI'm the industry baby, mmm\nI'm the industry baby\nYeah", 'annotations': {'description': '&lt;p&gt;Lil Nas X recruits Louisville native Jack Harlow for “INDUSTRY BABY,” a boisterous song where they rap about their fame and success, blowing up, and their newfound statuses in the rap game. The title plays on the term &lt;a href="https://medium.com/@ftp96/what-are-industry-plants-and-are-they-ruining-the-rap-culture-1588ebc2ce6b#:~:text=The%20common%20definition%20of%20an,create%20a%20pseudo%20organic%20following." rel="noopener nofollow"&gt;“industry plant,”&lt;/a&gt; which are people who are backed by a major label at the start, but play into an image of being organic and all by themselves.&lt;/p&gt;\n\n&lt;p&gt;The song was first &lt;a href="https://twitter.com/LilNasX/status/1319044444247605248" rel="noopener nofollow"&gt;teased&lt;/a&gt; on October 22, 2020 with a snippet showing Nas X dancing to the song with the producer duo, &lt;a href="https://genius.com/artists/Take-a-daytrip" rel="noopener" data-api_path="/artists/643219"&gt;Take a Daytrip&lt;/a&gt;. A &lt;a href="https://genius.com/Lil-nas-x-industry-baby-demo-lyrics" rel="noopener" data-api_path="/songs/6958019"&gt;demo version&lt;/a&gt; of the song leaked in full late June 2021, with the demo version using a slightly different instrumental and containing no feature. A week before its release, the rapper &lt;a href="https://twitter.com/LilNasX/status/1415734630536269830" rel="noopener nofollow"&gt;tweeted a promise&lt;/a&gt;, claiming he would drop “INDUSTRY BABY” once the June 2019 track, &lt;a href="https://genius.com/Lil-nas-x-panini-lyrics" rel="noopener" data-api_path="/songs/4442107"&gt;“Panini,”&lt;/a&gt; hit 400 Million views on YouTube.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=bXcSLI58-h8" rel="noopener nofollow"&gt;music video&lt;/a&gt; hit the goal shortly after and Lil Nas announced the song on July 19th, through a &lt;a href="https://www.youtube.com/watch?v=5QLFrE2qSZo" rel="noopener nofollow"&gt;trailer&lt;/a&gt; which portrays him being sentenced to jail in relation to his &lt;a href="https://www.bbc.com/news/business-56572245" rel="noopener nofollow"&gt;Nike court case&lt;/a&gt;. The trailer revealed the release date, producers, and Jack Harlow as the feature.&lt;/p&gt;', 'producers': [{'name': 'Nick Lee', 'url': 'https://genius.com/artists/Nick-lee'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Take a Daytrip', 'url': 'https://genius.com/artists/Take-a-daytrip'}], 'writers': [{'name': 'Roy Lenzo', 'url': 'https://genius.com/artists/Roy-lenzo'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Raul Cubina', 'url': 'https://genius.com/artists/Raul-cubina'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Nick Lee', 'url': 'https://genius.com/artists/Nick-lee'}, {'name': 'David Biral', 'url': 'https://genius.com/artists/David-biral'}, {'name': 'Denzel Baptiste', 'url': 'https://genius.com/artists/Denzel-baptiste'}, {'name': 'Jack Harlow', 'url': 'https://genius.com/artists/Jack-harlow'}, {'name': 'Lil Nas X', 'url': 'https://genius.com/artists/Lil-nas-x'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nelly-furtado-say-it-right-lyrics', 'lyrics': "[Intro: Timbaland]\nFrk-frk-down\nHey\nYou don't mean nothin' at all to me\nHey, hey\n\n[Verse 1: Nelly Furtado]\nIn the day, in the night\nSay it right, say it all\nYou either got it, or you don't\nYou either stand, or you fall\nWhen your will is broken\nWhen it slips from your hand\nWhen there's no time for jokin'\nThere's a hole in the plan\n\n[Chorus: Nelly Furtado &amp; (Timbaland)]\nOh, you don't mean nothing at all to me (Hey, oh, oh, hey)\nNo, you don't mean nothing at all to me (Hey, oh, oh, hey)\nBut you got what it takes to set me free (Hey, oh, oh, hey)\nOh, you could mean everything to me (Hey, oh, oh, hey)\n\n[Verse 2: Nelly Furtado]\nI can't say (Say) that I'm not (Not)\nLost (Lost) and at fault (Fault)\nI can't say (Say) that I don't (Don't)\nLove the light (Love) and the dark\nI can't say that I don't (Don't)\nKnow that I am alive\nAnd all of what I feel (Feel)\nI could show (Show you) you tonight, you tonight\n[Chorus: Nelly Furtado &amp; (Timbaland)]\nOh, you don't mean nothing at all to me (Hey, oh, oh, hey)\nNo, you don't mean nothing at all to me (Hey, oh, oh, hey)\nBut you got what it takes to set me free (Hey, oh, oh, hey)\nOh, you could mean everything to me (Hey, oh, oh, hey)\n\n[Verse 3: Nelly Furtado]\nFrom my hands I could give you\nSomething that I made\nFrom my mouth, I could sing you another brick that I laid\nFrom my body (From my body), I could show you (I could show you)\nA place (A place) God knows (That only God knows)\nYou should know the space is holy (Ah-ah-ah-ah)\nDo you really wanna go?\n(Three, four)\n\n[Outro: Timbaland]\nHey, hey, hey\nYou don't mean nothin' at all to me\nHey, hey\nHey, hey, hey\nYou don't mean nothin' at all to me\nHey, hey", 'annotations': {'description': '&lt;p&gt;The third single from Nelly Furtado’s &lt;em&gt;Loose&lt;/em&gt;, a keyboard-driven pop song inspired by the &lt;a href="https://genius.com/artists/Eurythmics" rel="noopener" data-api_path="/artists/829"&gt;Eurythmics&lt;/a&gt;  discussing love in a spiritual way.&lt;/p&gt;\n\n&lt;p&gt;The single reached\xa0#1 on the Billboard Hot 100. It also topped the charts in a few other countries and made it to the top 10 of some others. It also made it to #9 on the year-end Hot 100 charts.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Arctic-monkeys-whyd-you-only-call-me-when-youre-high-lyrics', 'lyrics': '[Verse 1]\nThe mirror\'s image tells me it\'s home time\nBut I\'m not finished, \'cause you\'re not by my side\nAnd as I arrived I thought I saw you leavin\'\nCarryin\' your shoes\nDecided that once again I was just dreamin\'\nOf bumpin\' into you\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply\n"Why\'d you only call me when you\'re high?"\n"High, why\'d you only call me when you\'re high?"\n\n[Verse 2]\nSomewhere darker, talkin\' the same shite\nI need a partner, well are you out tonight?\nIt\'s harder and harder to get you to listen\nMore I get through the gears\nIncapable of makin\' alright decisions\nAnd having bad ideas\n\n[Chorus]\nNow, it\'s three in the mornin\'\nAnd I\'m tryna\' change your mind\nLeft you multiple missed calls\nAnd to my message, you reply (Message, you reply)\n"Why\'d you only call me when you\'re high?"\n(Why\'d you only call me when you\'re)\n"High, why\'d you only call me when you\'re high?"\n[Bridge]\nAnd I can\'t see you here, wonder where I might\nIt sort of feels like I\'m runnin\' out of time\nI haven\'t found all I was hopin\' to find\nYou said you got to be up in the mornin\'\nGonna have an early night\nAnd you\'re startin\' to bore me, baby\n"Why\'d you only call me when you\'re high?"\n\n[Outro]\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re high?"\n"Why\'d you only ever phone me when you\'re (high)?"', 'annotations': {'description': '&lt;p&gt;A single off the Arctic Monkeys 5th album AM, “Why’d You Only Call Me When You’re High?” is a &lt;a href="http://www.rollingstone.com/music/news/josh-homme-arctic-monkeys-album-is-a-sexy-after-midnight-record-20130711" rel="noopener nofollow"&gt;sexy&lt;/a&gt; record, that has the band experimenting with R&amp;amp;B sounds.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/4184d64723bc93b6180b3bdcc39d5294.820x546x1.jpg" alt="" width="820" height="546" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Alex’s story is made clear on the apropo video, which starts as the previous single &lt;a href="https://genius.com/Arctic-monkeys-do-i-wanna-know-lyrics" rel="noopener" data-api_path="/songs/154314"&gt;“Do I Wanna Know?”&lt;/a&gt; tapers off in a club:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6366dxFf-Os?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Ross Orton', 'url': 'https://genius.com/artists/Ross-orton'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Smash-mouth-im-a-believer-lyrics', 'lyrics': "[Verse 1]\nI thought love was only true in fairy tales\nMeant for someone else but not for me\nLove was out to get me\nThat's the way it seemed\nDisappointment haunted all my dreams\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n\n[Verse 2]\nI thought love was more or less a given thing\nMore I gave the less I got, oh yeah\nWhat's the use in trying?\nAll you get is pain\nWhen I wanted sunshine, I got rain\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n[Bridge]\nWhat's the use in trying?\nAll you get is pain\nWhen I wanted sunshine\nI got rain\n\n[Chorus]\nAnd then I saw her face\nNow I'm a believer\nAnd not a trace\nOf doubt in my mind\nI'm in love, I'm a believer\nI couldn't leave her if I tried\n\n[Outro]\nThen I saw her face\nNow I'm a believer\nNot a trace\nOf doubt in my mind\nNow I'm a believer\nYeah, yeah, yeah, yeah, yeah\nNow I'm a believer\nThen I saw her face\nNow I'm a believer\nNot a trace\nOf doubt in my mind\nI'm a believer", 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Smash-mouth" rel="noopener" data-api_path="/artists/1371"&gt;Smash Mouth&lt;/a&gt;’s version of “I’m a Believer”: written by &lt;a href="https://genius.com/artists/Neil-diamond" rel="noopener" data-api_path="/artists/44735"&gt;Neil Diamond&lt;/a&gt; and &lt;a href="https://genius.com/The-monkees-im-a-believer-lyrics" rel="noopener" data-api_path="/songs/512809"&gt;originally played&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-monkees" rel="noopener" data-api_path="/artists/34609"&gt;The Monkees&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It got a popularity resurgence once included on the &lt;a href="https://genius.com/albums/Various-artists/Shrek-music-from-the-original-motion-picture" rel="noopener" data-api_path="/albums/221306"&gt;&lt;em&gt;Shrek&lt;/em&gt; soundtrack&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/0mYBSayCsH0?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Neil Diamond', 'url': 'https://genius.com/artists/Neil-diamond'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bring-me-the-horizon-throne-lyrics', 'lyrics': "[Verse 1]\nRemember the moment you left me alone and\nBroke every promise you ever made\nI was an ocean, lost in the open\nNothin' could take the pain away\n\n[Chorus]\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\n\n[Verse 2]\nThe sticks and the stones that you used to throw have\nBuilt me an empire, so don't even try\nTo cry me a river, 'cause I forgive you\nYou are the reason I still fight\n\n[Chorus]\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne\n[Bridge]\nI'll leave you choking on every word you left unspoken\nRebuild all that you've broken and now you know (Know)\nI'll leave you choking on every word you left unspoken\nRebuild all that you've broken and now you know\n\n[Chorus]\nEvery wound will shape me, every scar will build my throne\nSo you can throw me to the wolves\nTomorrow I will come back, leader of the whole pack\nBeat me black and blue\nEvery wound will shape me, every scar will build my throne", 'annotations': {'description': '&lt;p&gt;“Throne” is the second official single released for &lt;em&gt;That’s The Spirit&lt;/em&gt;. Keyboardist Jordan Fish told &lt;a href="http://www.rollingstone.com/music/news/bring-me-the-horizon-on-ditching-metalcore-for-poppy-positive-new-lp-20150723" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that the song represents a completely new musical and emotional space for the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s one of the most simple and straightforward songs we did… Its got some elements we had on the last album [2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt;], with an up-tempo rhythm and really strong melodies. So it seemed like an obvious choice for the first single because it’s so immediately catchy and has such a good level of energy&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song reflects a more positive outlook on life than previous BMTH material. Fish states that this reflects the upcoming album’s theme.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everyone has their own issues and anxieties, and mostly the new songs are about accepting them and trying to remain positive because there’s nothing else you can do.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}], 'writers': [{'name': 'Lee Malia', 'url': 'https://genius.com/artists/Lee-malia'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Matt Nicholls', 'url': 'https://genius.com/artists/Matt-nicholls'}, {'name': 'Matt Kean', 'url': 'https://genius.com/artists/Matt-kean'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-prodigy-breathe-lyrics', 'lyrics': "[Intro: Maxim]\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n[Refrain: Maxim]\nBreathe with me\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale\n\n[Refrain: Maxim]\nBreathe with me\n\n[Verse: Keith Flint &amp; Maxim]\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\nBreathe the pressure\nCome play my game, I'll test ya\nPsychosomatic, addict, insane\n[Chorus: Keith Flint &amp; Maxim]\n(Come play my game)\nInhale, inhale, you're the victim\n(Come play my game)\nExhale, exhale, exhale", 'annotations': {'description': '&lt;p&gt;“Breathe” was released as a single in November of 1996. The song was one of The Prodigy’s most successful, peaking at number one in &lt;a href="http://www.officialcharts.com/search/singles/breathe/" rel="noopener nofollow"&gt;various global charts&lt;/a&gt; including the UK Singles Chart and The Eurochart Hot 100.&lt;/p&gt;\n\n&lt;p&gt;The song also featured on the album &lt;em&gt;The Fat of the Land&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Walter Stern directed music video featured shots of the band in an abandoned building filled with various bugs and insects. The video won the 1997 MTV Music Awards &lt;a href="https://en.wikipedia.org/wiki/1997_MTV_Video_Music_Awards#Viewer.27s_Choice" rel="noopener nofollow"&gt;Viewer’s Choice Award&lt;/a&gt; as well as the &lt;a href="https://en.wikipedia.org/wiki/1997_MTV_Video_Music_Awards#MTV_Europe" rel="noopener nofollow"&gt;International Viewer’s Choice Award for Europe&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://youtu.be/1eLhaGH5scU?t=620" rel="noopener nofollow"&gt;Maxim has stated that this song is a representation of their vibe they create on stage.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'writers': [{'name': 'Maxim Reality', 'url': 'https://genius.com/artists/Maxim-reality'}, {'name': 'Keith Flint', 'url': 'https://genius.com/artists/Keith-flint'}, {'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+    <t>Billy Idol</t>
+  </si>
+  <si>
+    <t>Phum Viphurit</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Anastacia</t>
+  </si>
+  <si>
+    <t>Bodeans</t>
+  </si>
+  <si>
+    <t>DB Boulevard</t>
+  </si>
+  <si>
+    <t>5 Seconds of Summer</t>
+  </si>
+  <si>
+    <t>YUNGBLUD</t>
+  </si>
+  <si>
+    <t>Belinda Carlisle</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Sophie-ellis-bextor-get-over-you-lyrics', 'lyrics': '[Verse 1]\nYou think you\'ve got your way\nBut, baby there\'s a catch\nDon\'t need your foul play\nNow you have met your match\nYou think you\'re in control\nBut that won\'t last that long\nYou thought you wore the crown\nHoney, you were wrong\n\n[Pre-Chorus]\nYou had me taken in\nBut know I\'ve found you out\nAnd I won\'t go through that again\nYou\'ve always had to win\nYou\'ll have to go without\nYou don\'t know where to stop\nNo, no, no, no\n\n[Chorus]\nGo, go, go, go, go, I\'ll get over you\nYou drive me crazy up the wall\nThink you\'re Mr. "Know It All"\nGo, go, go, go, go, I\'ll get over you\nYou drive me crazy up the wall\nGoodbye, Mr. "Know It All"\n[Verse 2]\nI let you have your say\nYou never compromised\nComplaining everyday\nAbout everything in sight\nI\'ve let your stay a while\nNow i am getting bored\nNo substance in your style and\nYou\'re not the man i thought you were\n\n[Pre-Chorus]\nYou had me taken in\nBut know I\'ve found you out\nAnd I won\'t go through that again\nYou\'ve always had to win\nYou\'ll have to go without\nYou don\'t know where to stop\nI\'ll get over you\nNo, no, no, no\n\n[Chorus]\nGo, go, go, go, go, I\'ll get over you\nYou drive me crazy up the wall\nThink you\'re Mr. "Know It All"\nGo, go, go, go, go, I\'ll get over you\nYou drive me crazy up the wall\nGoodbye, Mr. "Know It All" (I\'ll get over you)\n[Bridge]\nYou think you\'ve got your way\nBut, baby there\'s a catch\nDon\'t need your foul play\nNow you have met your match\n\n[Chorus]\nNo, no, no, no\nGo, go, go, go, go, I\'ll get over you\nYou drive me crazy up the wall\nThink you\'re Mr. "Know It All"\nGo, go, go, go, go, I\'ll get over you\nYou drive me crazy, up the wall\nGoodbye, Mr. "Know It All"\nI\'ll get over you\nI\'ll get over you\nI\'ll get over you\nI\'ll get over you', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;“Get Over You”&lt;/strong&gt; was released alongside &lt;a href="https://genius.com/Sophie-ellis-bextor-move-this-mountain-lyrics" rel="noopener" data-api_path="/songs/2286357"&gt;“Move This Mountain”&lt;/a&gt; as a double A-side single from her debut studio album, &lt;a href="https://genius.com/albums/Sophie-ellis-bextor/Read-my-lips" rel="noopener" data-api_path="/albums/129352"&gt;&lt;em&gt;Read My Lips&lt;/em&gt;&lt;/a&gt; on 10 June 2002.&lt;/p&gt;\n\n&lt;p&gt;The single was her third top 3 hit, peaking at number three on the UK Singles Chart.&lt;/p&gt;', 'producers': [{'name': 'Korpi &amp; Blackcell', 'url': 'https://genius.com/artists/Korpi-and-blackcell'}], 'writers': [{'name': 'Sophie Ellis-Bextor', 'url': 'https://genius.com/artists/Sophie-ellis-bextor'}, {'name': 'Rob Davis', 'url': 'https://genius.com/artists/Rob-davis'}, {'name': 'Nina Woodford', 'url': 'https://genius.com/artists/Nina-woodford'}, {'name': 'Korpi &amp; Blackcell', 'url': 'https://genius.com/artists/Korpi-and-blackcell'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kid-rock-only-god-knows-why-lyrics', 'lyrics': "[Verse 1]\nI've been sittin' here tryin' to find myself\nI get behind myself, I need to rewind myself\nLookin' for the payback, listen for the playback\nThey say that every man bleeds just like me\nAnd I feel like number one, yet I'm last in line\nI watch my youngest son and it helps to pass the time\nI take too many pills that helps to ease the pain\nI made a couple dollar bills, still I feel the same\nEverybody knows my name they say it way out loud\nA lot of folks fuck with me, it's hard to hang out in crowds\nI guess that's the price you pay to be some big shot like I am\nOutstretched hands and one night stands, still I can't find love\n\n[Chorus]\nAnd when your walls come tumblin' down\nI will always be around\nAnd when your walls come tumblin' down\nI will always be around\n\n[Verse 2]\nPeople don't know 'bout the things I say and do\nThey don't understand about the shit I've been through\nIt's been so long since I've been home\nI've been gone, I've been gone for way too long\nMaybe I've forgot all the things I miss\nOh, somehow I know there's more to life than this\nI've said it too many times and I still stand firm\nYou get what you put in and people get what they deserve\n[Bridge]\nStill I ain't seen mine\nNo, I ain't seen mine\nI've been givin', just ain't been gettin'\nI've been walkin' that there line\nSo, I think I'll keep walkin' with my head held high\nI keep movin' on and only God knows why\nOnly God, Only God, Only God knows why\nOnly God knows why, why, why\nOnly God knows why\n\n[Outro]\nTake me to the river, ey\nWon't you take me to the river, hey, hey, yeah", 'annotations': {'description': '&lt;p&gt;Kid Rock began writing &lt;a href="https://www.rollingstone.com/music/music-features/the-low-times-and-high-life-of-kid-rock-200153/" rel="noopener nofollow"&gt;Only God Knows Why&lt;/a&gt; in jail after he and friends spent the night there after their celebrations on the day they were signed to Atlantic Records mutated into a bar brawl. In the cell, he started singing the first verse –&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’ve been sittin’ here&lt;br&gt;\nTryin’ to find myself&lt;br&gt;\nI get behind myself&lt;br&gt;\nI need to rewind myself&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Afterward he finished it; a strange, haunting song about the pressures of a success he was yet to taste.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everybody knows my name&lt;br&gt;\nThey say it way out loud&lt;br&gt;\nA lot of folks fuck with me&lt;br&gt;\nIt’s hard to hang out in crowds.&lt;br&gt;\nI guess that’s the price you pay&lt;br&gt;\nTo be some big shot like I am.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the interview, he says of this instance,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It wasn’t hard to fucking hang out in a crowd when I wrote that song. No one knew who the fuck I was. I just knew that was what it was going to be like. Pretty good prediction. Nostra-rockus.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'John Travis', 'url': 'https://genius.com/artists/John-travis'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}], 'writers': [{'name': 'Uncle Kracker', 'url': 'https://genius.com/artists/Uncle-kracker'}, {'name': 'John Travis', 'url': 'https://genius.com/artists/John-travis'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Neon-trees-animal-lyrics', 'lyrics': "[Verse 1]\nHere we go again\nI kinda wanna be more than friends\nSo take it easy on me\nI'm afraid you're never satisfied\nHere we go again\nWe're sick like animals, we play pretend\nYou're just a cannibal\nAnd I'm afraid I won't get out alive\nNo, I won't sleep tonight\n\n[Chorus]\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nTake a bite of my heart tonight\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nWhat are you waiting for?\nSay goodbye to my heart tonight\n\n[Verse 2]\nHere we are again\nI feel the chemicals kickin' in\nIt's getting heavy and I wanna run and hide\nI wanna run and hide\nI do it every time\nYou're killin' me now\nAnd I won't be denied by you\nThe animal inside of you\n[Chorus]\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nTake a bite of my heart tonight\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nWhat are you waiting for?\nSay goodbye to my heart tonight\n\n[Bridge]\nHush, hush, the world is quiet\nHush, hush, we both can't fight it\nIt's us that made this mess\nWhy can't you understand?\nWoah, I won't sleep tonight\n(I won't sleep tonight)\n\n[Pre-Chorus]\nHere we go again (Here we go again)\nHere we go again\n\n[Chorus]\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nTake a bite of my heart tonight\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nWhat are you waiting for?\nWhat are you waiting—\nHere we go again (Oh-oh)\nHere we go again (Oh-oh)\nHere we go again (Oh-oh)\nSay goodbye to my heart tonight\n[Outro]\nOh-oh, I want some more\nOh-oh, what are you waiting for?\nWhat are you waiting for?\nSay goodbye to my heart tonight", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/0d8e346202075b97ff4170f1ab3ac996.280x280x1.jpg" alt="" width="280" height="280" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Tim Pagnotta', 'url': 'https://genius.com/artists/Tim-pagnotta'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}], 'writers': [{'name': 'Tim Pagnotta', 'url': 'https://genius.com/artists/Tim-pagnotta'}, {'name': 'Tyler Glenn', 'url': 'https://genius.com/artists/Tyler-glenn'}, {'name': 'Elaine Bradley', 'url': 'https://genius.com/artists/Elaine-bradley'}, {'name': 'Branden Campbell', 'url': 'https://genius.com/artists/Branden-campbell'}, {'name': 'Chris Allen', 'url': 'https://genius.com/artists/Chris-allen'}], 'labels': [{'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Mia-paper-planes-lyrics', 'lyrics': "[Verse 1]\nI fly like paper, get high like planes\nIf you catch me at the border I got visas in my name\nIf you come around here, I make 'em all day\nI get one done in a second if you wait\nI fly like paper, get high like planes\nIf you catch me at the border I got visas in my name\nIf you come around here, I make 'em all day\nI get one done in a second if you wait\n\n[Verse 2]\nSometimes I think sittin' on trains\nEvery stop I get to I'm clocking that game\nEveryone's a winner, we're making our fame\nBona fide hustler making my name\nSometimes I think sittin' on trains\nEvery stop I get to I'm clocking that game\nEveryone's a winner, we're making our fame\nBona fide hustler making my name\n\n[Chorus]\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\n[Verse 3]\nPirate skulls and bones\nSticks and stones and weed and bongs\nRunning when we hit 'em\nLethal poison for the system\nPirate skulls and bones\nSticks and stones and weed and bongs\nRunning when we hit 'em\nLethal poison for the system\n\n[Verse 4]\nNo one on the corner has swagger like us\nHit me on my burner prepaid wireless\nWe pack and deliver like UPS trucks\nAlready going hard, just pumping that gas\nNo one on the corner has swagger like us\nHit me on my burner prepaid wireless\nWe pack and deliver like UPS trucks\nAlready going hard, just pumping that gas\n\n[Chorus]\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\n[Bridge]\nM.I.A, third world democracy\nYeah, I've got more records than the KGB\nSo, uh, no funny business (Are you ready all?)\nSome some some I some I murder\nSome I some I let go\nSome some some I some I murder\nSome I some I let go\n\n[Chorus]\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money\nAll I wanna do is–, and a–\nAnd take your money", 'annotations': {'description': '&lt;p&gt;This penultimate song on &lt;em&gt;&lt;a href="https://genius.com/albums/Mia/Kala" rel="noopener" data-api_path="/albums/5687"&gt;Kala&lt;/a&gt;&lt;/em&gt; marries a deceptively airy beat with a song about tourist-murdering passport-counterfeiting thieves. The song can be read as the clichéd story of immigrants or the owner of an arms industry. The title subtly refers to &lt;a href="https://en.wikipedia.org/wiki/Travel_visa" rel="noopener nofollow"&gt;transit visas&lt;/a&gt; (from Latin, &lt;em&gt;charta visa&lt;/em&gt; means “paper that has been seen”).&lt;/p&gt;\n\n&lt;p&gt;It samples the 1982 Clash song &lt;a href="https://genius.com/The-clash-straight-to-hell-lyrics" rel="noopener" data-api_path="/songs/76483"&gt;“Straight to Hell”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song climbed into to the Top 10 of the US Hot 100 in mid-2008 after being featured in the trailer for the movie &lt;a href="https://youtu.be/BWZt4v6b1hI?t=1m18s" rel="noopener nofollow"&gt;&lt;em&gt;Pineapple Express&lt;/em&gt;&lt;/a&gt;, and then later used in the soundtrack for 2008 film &lt;a href="https://youtu.be/ZiWFn20P8oE?t=33s" rel="noopener nofollow"&gt;&lt;em&gt;Slumdog Millionaire&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Switch', 'url': 'https://genius.com/artists/Switch'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}], 'writers': [{'name': 'M.I.A.', 'url': 'https://genius.com/artists/Mia'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}, {'name': 'Topper Headon', 'url': 'https://genius.com/artists/Topper-headon'}, {'name': 'Paul Simonon', 'url': 'https://genius.com/artists/Paul-simonon'}, {'name': 'Mick Jones', 'url': 'https://genius.com/artists/Mick-jones'}, {'name': 'Joe Strummer', 'url': 'https://genius.com/artists/Joe-strummer'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Korn-word-up-lyrics', 'lyrics': "[Verse 1]\nYo, pretty ladies around the world\nGot a weird thing to show ya, so tell all the boys and girls\nTell your brother, your sister and your mama too\nWe're about to go down, and you know just what to do\nWave your hands in the air like you don't care\nGlide by the people as they start to look and stare\nDo your dance, do your dance, do your dance quick, mama\nCome on, baby, tell me what's the word\n\n[Chorus]\nOh, word up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard\n\n[Verse 2]\nNow all you sucker DJs who think you're fly\nThere's got to be a reason, and we know the reason why\nYou try to put on those airs and act real cool\nBut you got to realize that you're acting like fools\nIf there's music, we can use it, be free to dance\nWe don't have the time for psychological romance\nNo romance, no romance, no romance for me, mama\nCome on, baby, tell me what's the word\n[Chorus]\nOh, word up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard\n\n[Chorus]\nWord up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard\nWord up, everybody say\nWhen you hear the call, you've got to get it on the way\nWord up, it's the code word\nNo matter where you say it, you know that you'll be heard", 'annotations': {'description': '&lt;p&gt;A cover of Cameo’s hit dance track, “Word Up!” somehow worked perfectly for a band more known for death and darkness. Every dog has his day!&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'writers': [{'name': 'Larry Blackmon', 'url': 'https://genius.com/artists/Larry-blackmon'}, {'name': 'Thomas Jenkins', 'url': 'https://genius.com/artists/Thomas-jenkins'}], 'labels': [{'name': 'Legacy Recordings', 'url': 'https://genius.com/artists/Legacy-recordings'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kiss-i-was-made-for-lovin-you-lyrics', 'lyrics': "[Intro]\nMmm, yeah, ha\nDo, do, do, do, do, do, do, do, do\nDo, do, do, do, do, do, do\nDo, do, do, do, do, do, do, do, do\nDo, do, do, do, do, do, do\n\n[Verse 1]\nTonight I wanna give it all to you\nIn the darkness there's so much I want to do\nAnd tonight I wanna lay it at your feet\n'Cause, girl, I was made for you\nAnd, girl, you were made for me\n\n[Chorus]\nI was made for loving you, baby\nYou were made for loving me\nAnd I can't get enough of you, baby\nCan you get enough of me?\n\n[Verse 2]\nTonight I wanna see it in your eyes\nFeel the magic, there's something that drives me wild\nAnd tonight we're going to make it all come true\n'Cause, girl, you were made for me\nAnd, girl, I was made for you\n[Chorus]\nI was made for loving you, baby\nYou were made for loving me\nAnd I can't get enough of you, baby\nCan you get enough of me?\nI was made for loving you, baby\nYou were made for loving me\nAnd I can give it all to you, baby\nCan you give it all to me?\n\n[Bridge]\nOh, can't get enough, oh, oh\nI can't get enough, oh, oh\nI can't get enough\nYeah, ha\n\n[Guitar Solo]\n\n[Bridge]\nDo, do, do, do, do, do, do, do, do\nDo, do, do, do, do, do, do\nDo, do, do, do, do, do, do, do, do\nDo, do, do, do, do, do, do\n\n[Chorus]\nI was made for loving you, baby\nYou were made for loving me\nAnd I can't get enough of you, baby\nCan you get enough of me?\n[Bridge]\nOh, I was made\nYou were made\nI can't get enough\nNo, I can't get enough\n\n[Chorus]\nI was made for loving you, baby\nYou were made for loving me\nAnd I can't get enough of you, baby\nCan you get enough of me?\n\n[Outro]\nI was made for loving you, baby", 'annotations': {'description': '&lt;p&gt;“‘I Was Made For Lovin’ You\' the band’s second Gold single, selling over 1 million copies”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://en.wikipedia.org/wiki/I_Was_Made_for_Lovin%27_You"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://upload.wikimedia.org/wikipedia/en/2/28/KISSIWasMadeForLovinYouFrench7InchSingleCover.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;I Was Made for Lovin\' You - Wikipedia&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Wikipedia&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;The music video of "I Was Made for Lovin\' You" was filmed on June 20, 1979 in the Savannah Civic Center in Savannah, Georgia. After the show was cancelled, it was decided to use the already completed stage to film two videos.&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Vini Poncia', 'url': 'https://genius.com/artists/Vini-poncia'}], 'writers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Vini Poncia', 'url': 'https://genius.com/artists/Vini-poncia'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}, {'name': 'Casablanca Records', 'url': 'https://genius.com/artists/Casablanca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Europe-carrie-lyrics', 'lyrics': "[Verse 1: Joey Tempest]\nWhen lights go down\nI see no reason\nFor you to cry\nWe've been through this before\nIn every time\nIn every season\nGod knows I've tried\nSo please don't ask for more\n\n[Bridge: Joey Tempest]\nCan't you see it in my eyes?\nThat this might be our last goodbye\n\n[Chorus: Joey Tempest]\nCarrie, Carrie\nThings they change, my friend, whoa\nCarrie, Carrie\nMaybe we'll meet again\nSomewhere again\n\n[Verse 2: Joey Tempest]\nI read your mind\nWith no intentions\nOf being unkind\nI wish I could explain\nIt all takes time\nA whole lot of patience\nIf it's a crime\nHow come I feel no pain?\n[Bridge: Joey Tempest]\nCan't you see it in my eyes?\nThat this might be our last goodbye (Oh, oh, oh)\n\n[Chorus: Joey Tempest]\nCarrie, Carrie\nOh, things they change, my friend, whoa\nCarrie, Carrie\nMaybe we'll meet again\n\n[Instrumental]\n\n[Bridge: Joey Tempest]\nOh, can't you see it in my eyes?\nThat this might be our last goodbye, oh (Oh, oh, oh)\n\n[Chorus: Joey Tempest]\nCarrie, Carrie\nOh, things they change\nCarrie, Carrie, Carrie\nCarrie, Carrie\nMaybe we'll meet again\nOh, somewhere again\n\n[Outro: Joey Tempest]\nWhen lights go down", 'annotations': {'description': '', 'producers': [{'name': 'Kevin Elson', 'url': 'https://genius.com/artists/Kevin-elson'}], 'writers': [{'name': 'Joey Tempest', 'url': 'https://genius.com/artists/Joey-tempest'}, {'name': 'Mic Michaeli', 'url': 'https://genius.com/artists/Mic-michaeli'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Smiledk-butterfly-lyrics', 'lyrics': "[Intro/Hook]\nAy, iyaiyai\nAy, iyaiyai\nAy, iyaiyai\nWhere's my samurai?\n\n[Verse 1]\nI've been searching for a man\nAll across Japan\nJust to find, to find my samurai\nSomeone who is strong\nBut still a little shy\nYes I need, I need my samurai\n\n[Chorus]\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\n\n[Verse 2]\nI've been searching in the woods\nAnd high upon the hills\nJust to find, to find my samurai\nSomeone who won't regret\nTo keep me in his net\nYes I need, I need my samurai\n[Chorus]\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\n\n[Hook]\nAy, iyaiyai\nAy, iyaiyai\nAy, iyaiyai\nWhere's my samurai?\nAy, iyaiyai\nAy, iyaiyai\nAy, iyaiyai\nWhere's my samurai?\n\n[Bridge]\nOh, oh, ah, ah, ah, ah\nOh, oh, ah, ah, ah, ah\n\n[Chorus]\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky\n[Hook]\nAy, iyaiyai\nAy, iyaiyai\nAy, iyaiyai\nWhere's my samurai?\nAy, iyaiyai\nAy, iyaiyai\nAy, iyaiyai\nWhere's my samurai?\n\n[Outro]\nAy, ay, ay\nI'm your little butterfly\nGreen, black and blue\nMake the colours in the sky", 'annotations': {'description': '&lt;p&gt;“Butterfly” is the debut single from Smile.dk and lead for their debut album album &lt;em&gt;Smile&lt;/em&gt;. The song was a major success, being featured in the &lt;a href="https://en.wikipedia.org/wiki/Butterfly_%28Smile.dk_song" rel="noopener nofollow"&gt;&lt;em&gt;Dance Dance Revolution&lt;/em&gt; series and is one of the most popular songs in the series.&lt;/a&gt; It &lt;a href="http://www.bubblegumdancer.com/17-Smile.dk/project/#ixzz5OBNo4wsF" rel="noopener nofollow"&gt;went to number one on Japanese dance charts&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Robin Rex', 'url': 'https://genius.com/artists/Robin-rex'}, {'name': 'Robert Uhlmann', 'url': 'https://genius.com/artists/Robert-uhlmann'}], 'writers': [{'name': 'Robin Rex', 'url': 'https://genius.com/artists/Robin-rex'}, {'name': 'Robert Uhlmann', 'url': 'https://genius.com/artists/Robert-uhlmann'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-offspring-original-prankster-lyrics', 'lyrics': "[Intro]\nYou can do it!\n\n[Verse 1: Offspring]\nUntil the break of dawn - life, life\nCannot go by the letter - time, time\nProzac can make it better - noise, noise\nAny kind will do;\nCan you feel it slip away when it's all on you (hey, hey)\nCrime, crime - rockin' like Janet Reno - time time\nEighteen and life in Chino - Freud, Freud\nAll along it's true;\nWell you'll see there comes a day catches up to you, yeah!\n\n[Chorus: Offspring and Redman]\nKnock down the walls (It's alive in you!)\nKnock down the place (You're alone, it's true!)\nKnock down the walls (It's alive in you!)\nYou gotta keep your head up through it all\nYou're gonna bust out on it (Original Prankster)\nBreak out, yeah! (Original, yeah)\nBust out on it (Original Prankster)\nYou never stop now, stop now\nThat's what the main man say!\n\n[Interlude]\nYou can do it!\n[Verse 2: Offspring]\nYou know it smells like shit - God damn!\nTag Team the Double Header\nSon of Sam; fire always makes it better\nNavigate with style and aplomb\n'Cause wherever you're at, that's the tip youse on (hey, hey)\nLies lies - says he's down in the Bahamas - tries tries\nBangin' little hoochie mamas - no way\nNone of this is true\nWell you'll see there comes a day when the joke's on you yeah!\n\n[Chorus]\nKnock down the walls (It's alive in you!)\nKnock down the place (You're alone, it's true!)\nKnock down the walls (It's alive in you!)\nYou gotta keep your head up through it all\nYou're gonna bust out on it (Original Prankster)\nBreak out, yeah! (Original, yeah)\nBust out on it (Original Prankster)\nYou never stop now, stop now\nThat's what the main man say!\n\n[Interlude]\n(Hey) You can do it!\n\n[Bridge]\nDime, dime - so good to see ya\nNine, nine - don't wanna be ya\nDime, dime - so good to see ya\nNine, nine - don't wanna be ya\nCrime, crime - fine sensimilla\nCrime, crime - fine sensimilla\nCrime, crime - fine sensimilla\nWell you'll see there comes a day catches up to you, yeah!\n[Chorus]\nKnock down the walls (It's alive in you!)\nKnock down the place (You're alone, it's true!)\nKnock down the walls (It's alive in you!)\nYou gotta keep your head up through it all\nYou're gonna bust out on it (Original Prankster)\nBreak out, yeah! (Original, yeah)\nBust out on it (Original Prankster)\nYou never stop now, stop now\nStop now, stop now\nThat's what the main man say!", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Original Prankster&lt;/em&gt; is the third track and first single from The Offspring’s &lt;em&gt;Conspiracy of One&lt;/em&gt;. The song is unlike most of their other songs, combining hip-hop elements with punk rock elements, making for an interesting listen. The song also features &lt;a href="https://genius.com/artists/Redman" rel="noopener" data-api_path="/artists/229"&gt;Redman&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song’s title is based on Ice-T’s &lt;em&gt;Original Gangster&lt;/em&gt;, and some call it a sequel to &lt;em&gt;Pretty Fly (For A White Guy)&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song also held a contest where a random winner who downloaded the song on MP3 would receive $1 million dollars.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Original Prankster&lt;/em&gt; is about a person who pulls pranks. The Offspring are saying that there’s going to be a time he regrets pulling all of these pranks.&lt;/p&gt;\n\n&lt;p&gt;According to the booklet for the album, the song uses segments of War’s Low Rider.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/705ed8a2dc8e0e0b651311f588078961.300x260x1.jpg" alt="" width="300" height="260" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Kevin “Noodles” Wasserman', 'url': 'https://genius.com/artists/Kevin-noodles-wasserman'}, {'name': 'Greg Kriesel', 'url': 'https://genius.com/artists/Greg-kriesel'}, {'name': 'Ron Welty', 'url': 'https://genius.com/artists/Ron-welty'}, {'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Duran-duran-ordinary-world-lyrics', 'lyrics': '[Verse 1]\nCame in from a rainy Thursday\nOn the avenue\nThought I heard you talking softly\nI turned on the lights, the TV\nAnd the radio\nStill I can\'t escape the ghost of you\n\n[Pre-Chorus]\nWhat has happened to it all?\nCrazy, some\'d say\nWhere is the life that I recognize?\nGone away\n\n[Chorus]\nBut I won\'t cry for yesterday\nThere\'s an ordinary world\nSomehow I have to find\nAnd as I try to make my way\nTo the ordinary world\nI will learn to survive\n\n[Verse 2]\nPassion or coincidence\nOnce prompted you to say\n"Pride will tear us both apart"\nWell now pride\'s gone out the window\nCross the rooftops\nRun away\nLeft me in the vacuum of my heart\n[Pre-Chorus]\nWhat is happening to me?\nCrazy, some\'d say\nWhere is my friend when I need you most?\nGone away\n\n[Chorus]\nBut I won\'t cry for yesterday\nThere\'s an ordinary world\nSomehow I have to find\nAnd as I try to make my way\nTo the ordinary world\nI will learn to survive\n\n[Bridge]\nPapers in the roadside\nTell of suffering and greed\nFear today, forgot tomorrow\nOoh, here beside the news\nOf holy war and holy need\nOurs is just a little sorrowed talk\n\n(Just blown away)\n\n[Chorus]\nAnd I don\'t cry for yesterday\nThere\'s an ordinary world\nSomehow I have to find\nAnd as I try to make my way\nTo the ordinary world\nI will learn to survive\n[Outro]\nEvery world\nIs my world\n(I will learn to survive)\nAny world\nIs my world\n(I will learn to survive)\nAny world\nIs my world\nEvery world\nIs my world', 'annotations': {'description': '&lt;p&gt;“Ordinary World” is the second track off of Duran Duran’s 1993 self titled album, known as “The Wedding Album.“ It was a big comeback single for the band, and is one of the two singles that made Duran Duran relevant again; Simon LeBon says he was inspired to write it after not being recognized in the supermarket after a long period of sustained fame, hence being once again part of an "ordinary world.”&lt;/p&gt;', 'producers': [{'name': 'John Jones', 'url': 'https://genius.com/artists/John-jones'}, {'name': 'Duran Duran', 'url': 'https://genius.com/artists/Duran-duran'}], 'writers': [{'name': 'John Taylor', 'url': 'https://genius.com/artists/John-taylor'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}, {'name': 'Warren Cuccurullo', 'url': 'https://genius.com/artists/Warren-cuccurullo'}, {'name': 'Simon Le Bon', 'url': 'https://genius.com/artists/Simon-le-bon'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Portugal-the-man-feel-it-still-lyrics', 'lyrics': "[Verse 1]\nCan't keep my hands to myself\nThink I'll dust 'em off, put 'em back up on the shelf\nIn case my little baby girl is in need\nAm I coming out of left field?\n\n[Chorus]\nOoh woo, I'm a rebel just for kicks, now\nI been feeling it since 1966, now\nMight be over now, but I feel it still\nOoh woo, I'm a rebel just for kicks, now\nLet me kick it like it's 1986, now\nMight be over now, but I feel it still\n\n[Verse 2]\nGot another mouth to feed\nLeave it with a baby sitter, mama, call the grave digger\nGone with the fallen leaves\nAm I coming out of left field?\n[Chorus]\nOoh woo, I'm a rebel just for kicks, now\nI been feeling it since 1966, now\nMight've had your fill, but you feel it still\nOoh woo, I'm a rebel just for kicks, now\nLet me kick it like it's 1986, now\nMight be over now, but I feel it still\n[Verse 3]\nWe could fight a war for peace\n(Ooh woo, I'm a rebel just for kicks, now)\nGive in to that easy living\nGoodbye to my hopes and dreams\nStart flipping for my enemies\nWe could wait until the walls come down\n(Ooh woo, I'm a rebel just for kicks, now)\nIt's time to give a little to the kids in the middle\nBut, oh until it falls won't bother me\n\n[Bridge]\nIs it coming?\nIs it coming?\nIs it coming?\nIs it coming?\nIs it coming?\nIs it coming back?\n\n[Pre-Chorus]\nOoh woo, I'm a rebel just for kicks, yeah\nYour love is an abyss for my heart to eclipse, now\nMight be over now, but I feel it still\n\n[Chorus]\nOoh woo, I'm a rebel just for kicks, now\nI've been feeling it since 1966, now\nMight be over now, but I feel it still\nOoh woo, I'm a rebel just for kicks, now\nLet me kick it like it's 1986, now\nMight be over now, but I feel it still\nMight've had your fill, but I feel it still", 'annotations': {'description': '&lt;p&gt;“Feel It Still” was the second single from the 8th studio album by &lt;a href="https://genius.com/artists/Portugal-the-man" rel="noopener" data-api_path="/artists/52078"&gt;Portugal. The Man&lt;/a&gt;, entitled &lt;em&gt;Woodstock&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song won the Grammy Award for Best Pop Duo/Group Performance at the 2018 Grammys held on Jan. 28, 2018.&lt;/p&gt;', 'producers': [{'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Asa Taccone', 'url': 'https://genius.com/artists/Asa-taccone'}], 'writers': [{'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Asa Taccone', 'url': 'https://genius.com/artists/Asa-taccone'}, {'name': 'Jason Sechrist', 'url': 'https://genius.com/artists/Jason-sechrist'}, {'name': 'Kyle O’Quin', 'url': 'https://genius.com/artists/Kyle-oquin'}, {'name': 'Eric Howk', 'url': 'https://genius.com/artists/Eric-howk'}, {'name': 'Brian Holland', 'url': 'https://genius.com/artists/Brian-holland'}, {'name': 'Freddie Gorman', 'url': 'https://genius.com/artists/Freddie-gorman'}, {'name': 'Zachary Carothers', 'url': 'https://genius.com/artists/Zachary-carothers'}, {'name': 'Robert Bateman', 'url': 'https://genius.com/artists/Robert-bateman'}, {'name': 'John Gourley', 'url': 'https://genius.com/artists/John-gourley'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Avicii-wake-me-up-lyrics', 'lyrics': "[Verse 1]\nFeeling my way through the darkness\nGuided by a beating heart\nI can't tell where the journey will end\nBut I know where to start\nThey tell me I'm too young to understand\nThey say I'm caught up in a dream\nWell life will pass me by if I don't open up my eyes\nWell that's fine by me\n\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know \ufeffI was lost\n\n[Instrumental Break]\n\n[Verse 2]\nI tried carrying the weight of the world\nBut I only have two hands\nI hope I get the chance to travel the world\nBut I don't have any plans\nWish that I could stay forever this young\nNot afraid to close my eyes\nLife's a game\ufeff made for everyone\nAnd love is the prize\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know I was lost\n\n[Outro]\nI didn't know I was lost\nI didn't know I was lost\nI didn't know I was lost\nI didn't know, I didn't know, I didn't know", 'annotations': {'description': '&lt;p&gt;“Wake Me Up” is the lead single for Avicii’s first studio album &lt;em&gt;&lt;a href="https://genius.com/albums/avicii/true" rel="noopener" data-api_path="/albums/37018"&gt;#True&lt;/a&gt;&lt;/em&gt;. It features Aloe Blacc, who &lt;a href="https://www.youtube.com/watch?v=5ApBhsqo8_0#t=543" rel="noopener nofollow"&gt;wrote the lyrics&lt;/a&gt; on a plane flying from Geneva, Switzerland, to L.A.&lt;/p&gt;\n\n&lt;p&gt;Like many other Avicii hits, this song was first introduced at the Ultra Music Festival &lt;a href="https://www.youtube.com/watch?v=HCQXbekahGI" rel="noopener nofollow"&gt;with the live performance of a bluegrass band&lt;/a&gt;, swaying so far away from the typical EDM spectrum. It infuses Irish folk music with house beats, with vocals from American soul singer &lt;a href="https://genius.com/artists/Aloe-blacc" rel="noopener" data-api_path="/artists/3896"&gt;Aloe Blacc&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song spent 53 weeks on the &lt;em&gt;Billboard&lt;/em&gt; charts (21 of them being in the top 10), making it the first Dance/Electronic song to stay over a year on that chart. It never reached the #1 spot, though; it only peaked at #4.&lt;/p&gt;\n\n&lt;p&gt;The song also broke all of Avicii’s personal records of sales, topping music charts in 22 different countries as well as breaking the top 10 mark in 6 others. Commercially, the song has been a bigger hit than his previous &lt;a href="http://rock.genius.com/Avicii-levels-lyrics" rel="noopener" data-api_path="/songs/66020"&gt;“Levels”&lt;/a&gt; that only peaked at #60 on &lt;em&gt;Billboard&lt;/em&gt;’s Top 100 and only spent 20 weeks on the charts.&lt;/p&gt;', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}], 'writers': [{'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Aloe Blacc', 'url': 'https://genius.com/artists/Aloe-blacc'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'PRMD Records', 'url': 'https://genius.com/artists/Prmd-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/3-doors-down-kryptonite-lyrics', 'lyrics': "[Verse 1]\nWell, I took a walk around the world to ease my troubled mind\nI left my body lying somewhere in the sands of time\nBut I watched the world float to the dark side of the moon\nI feel there's nothing I can do, yeah\n\n[Verse 2]\nI watched the world float to the dark side of the moon\nAfter all I knew, it had to be something to do with you\nI really don't mind what happens now and then\nAs long as you'll be my friend at the end\n\n[Chorus]\nIf I go crazy then will you still call me Superman?\nIf I'm alive and well, will you be there and holding my hand?\nI'll keep you by my side with my superhuman might\nKryptonite\n\n[Verse 3]\nYou called me strong, you called me weak\nBut still your secrets I will keep\nYou took for granted all the times I never let you down\nYou stumbled in and bumped your head\nIf not for me then you'd be dead\nI picked you up and put you back on solid ground\n[Chorus]\nIf I go crazy then will you still call me Superman?\nIf I'm alive and well, will you be there and holding my hand?\nI'll keep you by my side with my superhuman might\nKryptonite\n\n[Instrumental Interlude]\n\n[Chorus]\nIf I go crazy then will you still call me Superman?\nIf I'm alive and well, will you be there holding my hand?\nI'll keep you by my side with my superhuman might\nKryptonite, yeah\nIf I go crazy then will you still call me Superman?\nIf I'm alive and well, will you be there and holding my hand?\nI'll keep you by my side with my superhuman might\nKryptonite\n\n[Outro]\nWhoa, whoa, whoa\nWhoa, whoa, whoa\nWhoa, whoa, whoa", 'annotations': {'description': '&lt;p&gt;The song was written by drummer/vocalist Brad Arnold in a mathematics class when he was fifteen and was one of the first songs he ever wrote.&lt;/p&gt;\n\n&lt;p&gt;In terms of the song’s meaning Arnold has said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That song seems like it’s really just kind of like asking a question. Its question is kind of a strange one. It’s not just asking, “If I fall down, will you be there for me?” Because it’s easy to be there for someone when they’re down. But it’s not always easy to be there for somebody when they’re doing good. And that’s the question it’s asking. It’s like, “If I go crazy, will you still call me Superman?” It’s asking, “If I’m down, will you still be there for me?” But at the same time, “If I’m alive and well, will you be there holding my hand?” That’s kind of asking, “If I’m doing good, will you be there for me? Will you not be jealous of me?” That’s the basic question that song’s asking, and maybe throughout the years of singing that song, I might have come up with more meanings for it than it actually might have originally had.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Paul Ebersold', 'url': 'https://genius.com/artists/Paul-ebersold'}], 'writers': [{'name': 'Matt Roberts', 'url': 'https://genius.com/artists/Matt-roberts'}, {'name': 'Todd Harrell', 'url': 'https://genius.com/artists/Todd-harrell'}, {'name': 'Brad Arnold', 'url': 'https://genius.com/artists/Brad-arnold'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Taio-cruz-break-your-heart-lyrics', 'lyrics': "[Intro]\nWhoa, oh\nWhoa, oh\nWhoa, oh\nWhoa, oh\n\n[Verse 1]\nNow listen to me, baby\nBefore I love and leave you\nThey call me heartbreaker\nI don't wanna deceive you\n\n[Pre-Chorus]\nIf you fall for me\nI'm not easy to please\nI might tear you apart\nTold you from the start, baby, from the start\n\n[Chorus]\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\n\n[Verse 2]\nThere's no point trying to hide it\nNo point trying to evade it\nI know I got a problem\nProblem with misbehavin'\n[Pre-Chorus]\nIf you fall for me\nI'm not easy to please\nI might tear you apart\nTold you from the start, baby, from the start\n\n[Chorus]\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\n\n[Post-Chorus]\nWhoa, oh\nWhoa, oh\nWhoa, oh\nWhoa, oh\nWhoa, oh\n\n[Bridge]\nAnd I know karma's gonna get me back for being so cold\nLike a big bad wolf, I'm born to be bad and bad to the bone\nIf you fall for me, I'm only gonna tear you apart\nTold you from the start\n\n[Chorus]\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\nI'm only gonna break break your break break your heart\n[Outro]\nWhoa, oh\nWhoa, oh\nWhoa, oh\nWhoa, oh", 'annotations': {'description': '&lt;p&gt;“Break Your Heart” is a song by Taio Cruz, which served as the lead single from his second studio album, &lt;a href="https://genius.com/albums/Taio-cruz/Rokstarr" rel="noopener" data-api_path="/albums/27592"&gt;&lt;em&gt;Rokstarr&lt;/em&gt;&lt;/a&gt;. The solo version has since been removed from the standard edition. The song was first released in the United Kingdom on September 20th, 2009, followed by a release in the United States on February 2nd, 2010. The song reached #1 on he Billboard Hot 100 and became Taio Cruz\' first #1 of his career in the United States.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song is a warning to someone about being a heartbreaker.&lt;/p&gt;', 'producers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}], 'writers': [{'name': 'Taio Cruz', 'url': 'https://genius.com/artists/Taio-cruz'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lit-my-own-worst-enemy-lyrics', 'lyrics': "[Verse 1]\nCan we forget about the things I said when I was drunk?\nI didn't mean to call you that\nI can't remember what was said or what you threw at me\nPlease tell me\n\n[Chorus]\nPlease tell me why\nMy car is in the front yard, and I'm\nSleeping with my clothes on\nI came in through the window last night\nAnd you're long gone, gone\n\n[Verse 2]\nIt's no surprise to me, I am my own worst enemy\n'Cause every now and then, I kick the living shit out of me\nThe smoke alarm is going off, and there's a cigarette\nStill burning\n\n[Chorus]\nPlease tell me why\nMy car is in the front yard, and I'm\nSleeping with my clothes on\nI came in through the window last night\nAnd you're long gone, gone\n[Instrumental Bridge]\n\n[Chorus]\nPlease tell me why\nMy car is in the front yard, and I'm\nSleeping with my clothes on\nI came in through the window last night\n\n[Outro]\n(Ah-ooh) It's no surprise to me, I am my own worst enemy\n(Ah-ooh) 'Cause every now and then, I kick the living shit out of me\n(Ah-ooh) Can we forget about the things I said when I was drunk?\n(Ah-ooh) I didn't mean to call you that\n(Ooh, ooh-ooh, ooh-ooh, ooh-ooh-ooh)", 'annotations': {'description': '&lt;p&gt;“My Own Worst Enemy” is the lead single from Lit’s second album &lt;em&gt;A Place in the Sun&lt;/em&gt;. It is the band’s most popular song, spending eleven weeks at number 1 on the US Modern Rock Tracks chart.&lt;/p&gt;\n\n&lt;p&gt;The song is a playable song on &lt;a href="http://en.wikipedia.org/wiki/Rock_Band_2" rel="noopener nofollow"&gt;&lt;em&gt;Rock Band 2&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://en.m.wikipedia.org/wiki/Rock_Band_Unplugged" rel="noopener nofollow"&gt;&lt;em&gt;Rock Band Unplugged&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'A. Jay Popoff', 'url': 'https://genius.com/artists/A-jay-popoff'}, {'name': 'Allen Shellenberger', 'url': 'https://genius.com/artists/Allen-shellenberger'}, {'name': 'Jeremy Popoff', 'url': 'https://genius.com/artists/Jeremy-popoff'}, {'name': 'Kevin Baldes', 'url': 'https://genius.com/artists/Kevin-baldes'}], 'writers': [{'name': 'A. Jay Popoff', 'url': 'https://genius.com/artists/A-jay-popoff'}, {'name': 'Jeremy Popoff', 'url': 'https://genius.com/artists/Jeremy-popoff'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Christina-aguilera-dirrty-lyrics', 'lyrics': "[Intro: Redman &amp; Christina Aguilera]\nAhh, dirty, dirty, filthy, filthy, nasty\nChristina, you nasty (Yeah)\nToo dirty to clean my act up (Haha)\nIf you ain't dirty, you ain't here to party (Woo)\nLadies, move, gentleman, move\nSomebody ring the alarm, a fire on the roof\nRing the alarm, and I'm throwin' elbows\nRing the alarm, and I'm throwin' elbows\nRing the alarm, and I'm throwin' elbows\nRing the alarm, and I'm throwin' elbows (Get up, who ready to party out there?)\nRing the alarm, and I'm throwin' elbows\nRing the alarm, and I'm throwin' elbows\nRing the alarm, and I'm throwin' elbows (Where my dawgs at?)\nUh, let me loose\n\n[Verse 1: Christina Aguilera]\nOoh, I'm overdue\nGive me some room, I'm comin' through\nPaid my dues, in the mood\nMe and my girls come to shake the room\nDJ spinnin' (Show your hands)\nLet's get dirty (That's my jam)\nI need that, uh, to get me off (Yeah)\nSweatin' 'til my clothes come off\nIt's explosive, speakers are thumpin'\nStill jumpin', six in the mornin'\nTable dancin', glasses are crashin'\nNo question, time for some action\nTemperature's up (Can you feel it?), 'bout to erupt\nGonna get my girls, get your boys, gonna make some noise\n[Chorus: Christina Aguilera]\nGonna get rowdy\nGonna get a little unruly\nGet it fired up in a hurry\nWanna get dirty\nIt's about time that I came to start the party\nSweat drippin' over my body\nDancin', getting just a little naughty\nWanna get dirty, it's about time for my arrival\n\n[Verse 2: Christina Aguilera]\nAh, heat is up\nLadies, fellas, drop your cups\nBodies packed front to back\nMove your ass, I like that\nTight hip-huggers (Low for sure)\nShake a little somethin' (On the floor)\nI need that, uh, to get me off\nSweatin' 'til my clothes come off\nLet's get open, cause a commotion\nStill goin', eight in the mornin'\nThere's no stoppin', we keep it poppin'\nHard rockin', everyone's talkin'\nGive all you got (Give it to me), just hit the spot\nGonna get my girls, get your boys, gonna make some noise\n[Chorus: Christina Aguilera]\nRowdy\nGonna get a little unruly\nGet it fired up in a hurry\nWanna get dirty\nIt's about time that I came to start the party\nOoh, sweat drippin' over my body\nDancing, getting just a little naughty\nWanna get dirty, it's about time for my arrival\n\n[Bridge: Christina Aguilera]\nHere it comes, it's the one you been waitin' on\nGet up, get it rough, yup, that's what's up\nGivin' just what you love to the maximum\nUh-oh (Uh-oh), here we go (Here we go)\nWhat to do when the music starts to drop\nThat's when we take it to the parking lot\nAnd I bet you somebody's gonna call the cops\nUh-oh (Uh-oh), here we go (Here we go)\nWoah, yeah, yeah\n\n[Verse 3: Redman &amp; Christina Aguilera]\nYo, hot damn, Doc a jam like a summer show\nI keep my car looking like a crash dummy drove\nMy gear look like the bank got my money froze\nFor dead presidents, I pimp like Huddy roll\nDoc the one that excite ya divas (Ow)\nF the media shine, I'm shining with both of the sleeves up\nYo, Christina (What?), better hop in here\nMy block live and in color like Rodman hair (Yeah)\nThe club is packed, the bar is filled\nI'm waiting for sister to act like Lauryn Hill\nFrankly, it's a wrap, no bargain deals\nI drive a four-wheel ride with foreign wheels\nThrow it up, baby, it's Brick City, you heard of that\nWe blessed, and hung low like Bernie Mac (Bernie Mac?)\nDogs, let 'em out, women, let 'em in\nIt's like I'm ODB the way I'm freakin'\n[Chorus: Christina Aguilera]\nGonna get rowdy (Rowdy)\nGonna get a little unruly (Unruly)\nGet it fired up in a hurry (Hurry)\nWanna get dirty\nIt's about time that I came to start the party (Party)\nSweat drippin' over my body (Body)\nDancing, getting just a little naughty\nWanna get dirty, it's about time for my arrival\nRowdy, gonna get a little unruly\nGet it fired up in a hurry\nWanna get dirty\nIt's about time that I came to start the party\nOoh, sweat drippin' over my body\nDancing, getting just a little naughty\nWanna get dirty, it's about time for my arrival\nGonna get rowdy\nBound to get a little unruly\nGet it fired up in a hurry\nLet's get dirty\nIt's about time that I came to start the party (Oh, baby)\nSweat drippin' over my body\nWanna get a little bit naughty\nWanna get dirty\nIt's about time for my arrival\n\n[Outro: Christina Aguilera &amp; Redman]\nUh, what?\nAnother Rockwilder production", 'annotations': {'description': '&lt;p&gt;“Dirrty” is a track from &lt;a href="https://genius.com/artists/Christina-aguilera" rel="noopener" data-api_path="/artists/1211"&gt;Christina Aguilera&lt;/a&gt;’s fourth studio album, &lt;a href="https://genius.com/albums/Christina-aguilera/Stripped" rel="noopener" data-api_path="/albums/6143"&gt;&lt;em&gt;Stripped&lt;/em&gt;&lt;/a&gt;. It was released as the album’s lead single on September 14, 2002, featuring rapper &lt;a href="https://genius.com/artists/Redman" rel="noopener" data-api_path="/artists/229"&gt;Redman&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;“Dirrty” received mixed reviews from music critics, who were ambivalent towards its composition. The song was nominated a Grammy Award for Best Pop Collaboration with Vocals in 2003.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ee3cf259a614a9c4dad906e255460ad3.640x640x1.jpg" alt="" width="640" height="640" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Rockwilder', 'url': 'https://genius.com/artists/Rockwilder'}, {'name': 'Christina Aguilera', 'url': 'https://genius.com/artists/Christina-aguilera'}], 'writers': [{'name': 'Christina Aguilera', 'url': 'https://genius.com/artists/Christina-aguilera'}, {'name': 'Rockwilder', 'url': 'https://genius.com/artists/Rockwilder'}, {'name': 'Redman', 'url': 'https://genius.com/artists/Redman'}, {'name': 'Jasper Cameron', 'url': 'https://genius.com/artists/Jasper-cameron'}, {'name': 'Balewa Muhammad', 'url': 'https://genius.com/artists/Balewa-muhammad'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Camila-cabello-liar-lyrics', 'lyrics': "[Verse 1]\nI don't care if you're here\nOr if you're not alone\nI don't care, it's been too\u2005long\nIt's\u2005kinda like we\u2005didn't happen\nThe way that your lips\u2005move\nThe way you whisper slow\nI don't care, it's good as gone (Ah)\n\n[Pre-Chorus]\nI said I won't lose control, I don't want it (Ooh)\nI said I won't get too close, but I can't stop it (Ooh)\n\n[Chorus]\nOh no, there you go, making me a liar\nGot me begging you for more\nOh no, there I go, startin' up a fire\nOh no, no\nOh no, there you go, you're making me a liar\nI kinda like it though\nOh no, there I go, startin' up a fire\nOh no, no (Ooh)\n\n[Verse 2]\nYou're watching, I feel it (Hey)\nI know I shouldn't stay (Yeah, yeah)\nI picture your hands on me (I think I wanna let it happen)\nBut what if you kiss me? (Yeah)\nAnd what if I like it?\nAnd no one sees it\n[Pre-Chorus]\nI said I won't lose control, I don't want it (Ooh)\nI said I won't get too close, but I can't stop it (No, ooh)\n\n[Chorus]\nOh no, there you go, making me a liar\nGot me begging you for more\nOh no, there I go, startin' up a fire\nOh no, no (Oh no)\nOh no, there you go, you're making me a liar\nI kinda like it though\nOh no, there I go, startin' up a fire\nOh no, no\n\n[Post-Chorus]\nOh no, no, no\nYeah, here comes trouble, no, no\nStartin' up a fire\n\n[Bridge]\nI don't believe myself when I\nSay that I don't need you, oh\nI don't believe myself when I say it\nSo, don't believe me\n\n[Chorus]\nOh no, there you go, you're making me a liar\nGot me begging you for more\nOh no, there I go, startin' up a fire\nOh no, no (Oh no)\nOh no, there you go, you're making me a liar\nI kinda like it though\nOh no, there I go, startin' up a fire\nOh no, no\n[Post-Chorus]\nYeah\nUh, yeah, yeah\nNah, yeah\nOh no, no, no\nOh no, no, no\nOh no, you're making me a liar\n'Cause my clothes are on the floor\n\n[Outro]\nHuh, huh, huh\nUh\nOh no, no, no\nAnother fire", 'annotations': {'description': '&lt;p&gt;“Liar” is a song by singer-songwriter Camila Cabello released alongside &lt;a href="https://genius.com/Camila-cabello-shameless-lyrics" rel="noopener" data-api_path="/songs/4780917"&gt;“Shameless”&lt;/a&gt;. This release was dubbed as &lt;a href="https://www.instagram.com/p/B1_sYo6HVyn/" rel="noopener nofollow"&gt;“Installment One”&lt;/a&gt; of her sophomore album, &lt;i&gt;&lt;a href="https://genius.com/albums/Camila-cabello/Romance" rel="noopener" data-api_path="/albums/559376"&gt;Romance&lt;/a&gt;&lt;/i&gt;. A &lt;a href="https://www.instagram.com/p/B2SsyVnnJ0R/" rel="noopener nofollow"&gt;music video&lt;/a&gt; for the song was released on September 12. This isn’t the first time Camila has given fans two tracks concurrently, with chart-topper &lt;a href="https://genius.com/Camila-cabello-havana-lyrics" rel="noopener" data-api_path="/songs/2992529"&gt;“Havana”&lt;/a&gt; accompanying &lt;a href="https://genius.com/Camila-cabello-omg-lyrics" rel="noopener" data-api_path="/songs/3133056"&gt;“OMG”&lt;/a&gt; as 2017 &lt;a href="https://twitter.com/Camila_Cabello/status/892249542485213185?s=20" rel="noopener nofollow"&gt;“Summer Double Features.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The jazz-tinged song – which samples &lt;a href="https://genius.com/artists/Ace-of-base" rel="noopener" data-api_path="/artists/39126"&gt;Ace Of Base&lt;/a&gt;’s 90s hit &lt;a href="https://genius.com/Ace-of-base-all-that-she-wants-lyrics" rel="noopener" data-api_path="/songs/434050"&gt;“All That She Wants”&lt;/a&gt;“ and &lt;a href="https://genius.com/artists/Lionel-richie" rel="noopener" data-api_path="/artists/22272"&gt;Lionel Richie&lt;/a&gt;’s 1983 song &lt;a href="https://genius.com/Lionel-richie-all-night-long-all-night-lyrics" rel="noopener" data-api_path="/songs/416180"&gt;“All Night Long (All Night)”&lt;/a&gt;–finds Camila losing control as she falls in love, despite denying her feelings.&lt;/p&gt;\n\n&lt;p&gt;Camila summarised the track in Spotify’s &lt;a href="https://open.spotify.com/track/3EQZRC67ESQMtgVkQuh6Zg?context=spotify%3Aplaylist%3A37i9dQZF1DX0LpVh8OqcuH&amp;amp;si=IBoYy0GsSzuixrHpqRrz9A" rel="noopener nofollow"&gt;“The &lt;em&gt;Romance&lt;/em&gt; Experience”&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s like the person you don’t wanna like. ‘Cause you know that he would just mess me up, and my stomach would be in knots. It just got to the point where it was funny because every time I’d be like, \'I don’t like him’ […] I knew I was just lying to myself.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}], 'writers': [{'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Malin Berggren', 'url': 'https://genius.com/artists/Malin-berggren'}, {'name': 'Camila Cabello', 'url': 'https://genius.com/artists/Camila-cabello'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Jon Bellion', 'url': 'https://genius.com/artists/Jon-bellion'}, {'name': 'Jenny Berggren', 'url': 'https://genius.com/artists/Jenny-berggren'}, {'name': 'Lionel Richie', 'url': 'https://genius.com/artists/Lionel-richie'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}, {'name': 'Ali Tamposi', 'url': 'https://genius.com/artists/Ali-tamposi'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Syco Records', 'url': 'https://genius.com/artists/Syco-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/U2-the-miracle-of-joey-ramone-lyrics', 'lyrics': "[Verse 1]\nI was chasing down the days of fear\nChasing down a dream before it disappeared\nI was aching to be somewhere near\nYour voice was all I heard\nI was shaking from a storm in me\nHaunted by the spectres that we had to see\nYeah, I wanted to be the melody\nAbove the noise, above the hurt\n\n[Pre-Chorus]\nI was young, not dumb\nJust wishing to be blinded\nBy you, brand new\nAnd we were pilgrims on our way\n\n[Chorus 1]\nI woke up at the moment when the miracle occurred\nHeard a song that made some sense out of the world\nEverything I ever lost now has been returned\nThe most beautiful sound I'd ever heard\n\n[Verse 2]\nWe got language so we can't communicate\nReligion so I can love and hate\nMusic so I can exaggerate my pain\nAnd give it a name\n[Pre-Chorus]\nI was young, not dumb\nJust wishing to be blinded\nBy you, brand new\nAnd we were pilgrims on our way\n\n[Chorus 1]\nI woke up at the moment when the miracle occurred\nHeard a song that made some sense out of the world\nEverything I ever lost now has been returned\nThe most beautiful sound I'd ever heard\n\n[Bridge]\nWe can hear you (hear you)\nWe can hear you\nWe can hear you (hear you, ooh)\n\n[Chorus 2]\nI woke up at the moment when the miracle had come\nI get so many things I don't deserve\nAll the stolen voices will some day be returned\nThe most beautiful sound I'd ever heard\n\n[Outro]\nYour voices will be heard\nYour voices will be heard", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/2d56b5ec5a8d09a35bfd9cd51f49388c.527x185x1.jpg" alt="" width="527" height="185" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The triumphant opening track on &lt;a href="https://genius.com/artists/U2" rel="noopener" data-api_path="/artists/23895"&gt;U2&lt;/a&gt;’s thirteenth studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/U2/Songs-of-innocence" rel="noopener" data-api_path="/albums/112028"&gt;Songs of Innocence&lt;/a&gt;&lt;/em&gt;, is about the glorious discovery of punk rock. Wait, what?&lt;/p&gt;', 'producers': [{'name': 'Danger Mouse', 'url': 'https://genius.com/artists/Danger-mouse'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Paul Epworth', 'url': 'https://genius.com/artists/Paul-epworth'}], 'writers': [{'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-its-no-good-lyrics', 'lyrics': "[Verse 1]\nI'm gonna take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\nThe gods decree\nYou'll be right here by my side\nRight next to me\nYou can run but you cannot hide\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Verse 2]\nI'll be fine\nI'll be waiting patiently\nTill you see the signs\nAnd come running to my open arms\nWhen will you realise?\nDo we have to wait till our worlds collide?\nOpen up your eyes\nYou can't turn back the tide\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Interlude]\n\n[Verse 3]\nI'm going to take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good", 'annotations': {'description': '&lt;p&gt;The meaning of “It’s No Good” is a bit vain. It’s about someone lusting over their crush, denying that the feeling isn’t mutual. It can be assumed that he was rejected, and he’s grieving, hitting the first stage, denial.&lt;/p&gt;', 'producers': [{'name': 'Tim Simenon', 'url': 'https://genius.com/artists/Tim-simenon'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Korn-freak-on-a-leash-lyrics', 'lyrics': "[Verse 1]\nSomething takes a part of me\nSomething lost and never seen\nEvery time I start to believe\nSomething's raped and taken from me, from me\nLife's gotta always be messin' with me (You wanna see the light)\nCan't they chill and let me be free? (So do I)\nCan't I take away all this pain? (You wanna see the light)\nI try to every night, all in vain, in vain\n\n[Pre-Chorus]\nSometimes I cannot take this place\nSometimes it's my life I can't taste\nSometimes I cannot feel my face\nYou'll never see me fall from grace\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Verse 2]\nFeelin' like a freak on a leash (You wanna see the light)\nFeeling like I have no release (So do I)\nHow many times have I felt diseased? (You wanna see the light)\nNothing in my life is free, is free\n[Pre-Chorus]\nSometimes I cannot take this place\nSometimes it's my life I can't taste\nSometimes I cannot feel my face\nYou'll never see me fall from grace\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Bridge]\nBoom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nDa-boom-da-da-mmm-dum-na-ee-ma\nGo!\n[Hook]\nSo buy, something on the ming-a-boo\nBuy, some things they buy\nSo, something on the ming-a-boo\nBuy, some things they buy\nBuy, something off the hee-a-hoo\nNo, some things they buy\nBuy, something on the ming-a-hoo\nBuy, some things they buy\n\n[Chorus]\nSomething takes a part of me\nYou and I were meant to be\nA cheap fuck for me to lay\nSomething takes a part of me\n\n[Outro]\nPart of me\nPart of me\nPart of me", 'annotations': {'description': '&lt;p&gt;“Freak on a Leash” was Jonathan Davis\' complaint against the music industry that abuses him, leaving him feeling like &lt;a href="http://www.msopr.com/press-releases/a-cut-by-cut-look-at-korns-follow-the-leader-with-jonathan/" rel="noopener nofollow"&gt;“a freak touring corporate America fucking making all the money while it’s taking a part of me.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The music video was directed by &lt;a href="http://en.wikipedia.org/wiki/Todd_McFarlane" rel="noopener nofollow"&gt;Todd McFarlane&lt;/a&gt;, with help from Jonathan Dayton and Valerie Faris, and features animated segments reminiscent of the &lt;a href="https://genius.com/Korn-follow-the-leader-album-art-annotated" rel="noopener" data-api_path="/songs/1194448"&gt;&lt;em&gt;Follow the Leader&lt;/em&gt; cover&lt;/a&gt; drawn by McFarlane himself. It won Best Editing and Best Rock Video at the MTV Music Awards in 1999, as well as the Grammy for Best Short Form Music Video in 2000.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?v=jRGrNDV2mKc" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=jRGrNDV2mKc&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}], 'writers': [{'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}], 'labels': [{'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Arctic-monkeys-i-bet-you-look-good-on-the-dancefloor-lyrics', 'lyrics': "[Verse 1]\nStop making the eyes at me\nI'll stop making the eyes at you\nWhat it is that surprises me\nIs that I don't really want you to\n\n[Pre-Chorus]\nAnd your shoulders are frozen (Cold as the night)\nOh, but you're an explosion (You're dynamite)\nYour name isn't Rio, but I don't care for sand\nAnd lighting the fuse might result in a bang, b-b-bang-oh\n\n[Chorus]\nI bet that you look good on the dancefloor\nI don't know if you're looking for romance or\nI don't know what you're looking for\nI said, I bet that you look good on the dancefloor\nDancing to electro-pop like a robot from 1984\nWell, from 1984\n\n[Verse 2]\nI wish you'd stop ignoring me\nBecause it's sending me to despair\nWithout a sound, yeah, you're calling me\nAnd I don't think it's very fair\n[Pre-Chorus]\nThat your shoulders are frozen (Cold as the night)\nOh, but you're an explosion (You're dynamite)\nYour name isn't Rio, but I don't care for sand\nAnd lighting the fuse might result in a bang, b-b-bang-oh\n\n[Chorus]\nI bet that you look good on the dancefloor\nI don't know if you're looking for romance or\nI don't know what you're looking for\nI said, I bet that you look good on the dancefloor\nDancing to electro-pop like a robot from 1984\nWell, from 1984\n\n[Bridge]\nAnd no, there in't no love\nNo Montagues or Capulets\nJust banging tunes and DJ sets and\nDirty dancefloors and dreams of naughtiness\n\n[Chorus]\nWell, I bet that you look good on the dancefloor\nI don't know if you're looking for romance or\nI don't know what you're looking for\nI said, I bet that you look good on the dancefloor\nDancing to electro-pop like a robot from 1984\nSaid, from ", 'annotations': {'description': '&lt;p&gt;The breakout and first single by Arctic Monkeys, from their debut album &lt;i&gt;Whatever People Say I Am, That’s What I’m Not&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;It’s about seeing a girl in a mundane, everyday situation and wondering what she might look like on a night out.&lt;/p&gt;\n\n&lt;p&gt;The song was released on October 17, 2005. On its first day of release, &lt;i&gt;I Bet You Look Good on the Dancefloor&lt;/i&gt;  sold over 120,000 UK copies on its first day of release.&lt;/p&gt;', 'producers': [{'name': 'Jim Abbiss', 'url': 'https://genius.com/artists/Jim-abbiss'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Irene-cara-flashdance-what-a-feeling-lyrics', 'lyrics': "[Intro]\nFirst, when there's nothing, but a slow glowing dream\nThat your fear seems to hide deep inside your mind\nAll alone, I have cried, silent tears full of pride\nIn a world made of steel, made of stone\n\n[Verse 1]\nWell, I hear the music, close my eyes, feel the rhythm\nWrap around, take a hold of my heart\n\n[Chorus]\nWhat a feelin', being's believin'\nI can have it all, now I'm dancing for my life\nTake your passion, and make it happen\nPictures come alive, you can dance right through your life\n\n[Verse 2]\nNow I hear the music, close my eyes, I am rhythm\nIn a flash, it takes hold of my heart\n\n[Chorus]\nWhat a feelin', being's believin'\nI can have it all, now I'm dancing for my life\nTake your passion, and make it happen\nPictures come alive, now I'm dancing through my life\n[Interlude]\nWhat a feelin'\n\n[Instrumental Break]\n\n[Chorus / Outro]\nWhat a feelin', being's believin' (I am music now, I am rhythm now)\nPictures come alive, you can dance right through your life\n\nWhat a feelin', what a feelin'\n(I can really have it all, pictures come alive when I call)\nI can have it all, have it all\n(I can really have it all, pictures come alive when I call)\n\n(Call, call, call, call, what a feelin')\nI can have it all\nBeing's believin' (Being's believin', take your passion)\nMake it happen, what a feelin' (Make it happen, what a feelin')", 'annotations': {'description': '&lt;p&gt;“Flashdance… What a Feeling” is the title song to the 1983 film &lt;em&gt;Flashdance&lt;/em&gt;. It is Irene Cara’s only number-one hit on the Billboard Hot 100, reaching the top that spring. It also won the Academy and Golden Globe Award for &lt;em&gt;Best Original Song&lt;/em&gt; and was certified gold.&lt;/p&gt;\n\n&lt;p&gt;The song also hit #1 in nine more countries around the world. In the UK, it reached #2, held from the top spot by Rod Stewart’s “Baby Jane”.&lt;/p&gt;\n\n&lt;p&gt;Cara and co-writer Keith Forsey wrote the lyrics while driving to a recording session.&lt;/p&gt;', 'producers': [{'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}], 'writers': [{'name': 'Giorgio Moroder', 'url': 'https://genius.com/artists/Giorgio-moroder'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Irene Cara', 'url': 'https://genius.com/artists/Irene-cara'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-bad-romance-lyrics', 'lyrics': '[Intro]\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\nCaught in a bad romance\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\nCaught in a bad romance\nRa-ra-ah-ah-ah\nRoma Roma-ma\nGaga, "Ooh la-la"\nWant your bad romance\nRa-ra-ah-ah-ah\nRoma, Roma-ma\nGaga, "Ooh la-la"\nWant your bad romance\n\n[Verse 1]\nI want your ugly, I want your disease\nI want your everything as long as it’s free\nI want your love\nLove, love, love, I want your love, oh, ey\nI want your drama, the touch of your hand (Hey!)\nI want your leather-studded kiss in the sand\nI want your love\nLove, love, love, I want your love\n(Love, love, love, I want your love)\n\n[Pre-Chorus]\nYou know that I want you\nAnd you know that I need you\nI want it bad\nYour bad romance\n[Chorus]\nI want your love, and I want your revenge\nYou and me could write a bad romance (Oh-oh-oh-oh-oh)\nI want your love, and all your lover\'s revenge\nYou and me could write a bad romance\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\nCaught in a bad romance\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\nCaught in a bad romance\n\n[Post-Chorus]\nRa-ra-ah-ah-ah\nRoma-roma-ma\nGaga, "Ooh la-la"\nWant your bad romance\n\n[Verse 2]\nI want your horror, I want your design\n‘Cause you’re a criminal as long as you’re mine\nI want your love\nLove, love, love, I want your love, uh\nI want your psycho, your vertigo schtick (Schtick, hey!)\nWant you in my rear window, baby, you\'re sick\nI want your love\nLove, love, love, I want your love\n(Love, love, love, I want your love)\n[Pre-Chorus]\nYou know that I want you\nAnd you know that I need you (\'Cause I\'m a free bitch, baby)\nI want it bad\nYour bad romance\n\n[Chorus]\nI want your love, and I want your revenge\nYou and me could write a bad romance (Oh-oh-oh-oh-oh)\nI want your love, and all your lover\'s revenge\nYou and me could write a bad romance\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\nCaught in a bad romance\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\nCaught in a bad romance\n\n[Post-Chorus]\nRa-ra-ah-ah-ah\nRoma-roma-ma\nGaga, "Ooh la-la"\nWant your bad romance\nRa-ra-ah-ah-ah\nRoma-roma-ma\nGaga, "Ooh la-la"\nWant your bad romance\n[Bridge 1]\nWalk, walk, fashion, baby\nWork it, move that bitch crazy\nWalk, walk, fashion, baby\nWork it, move that bitch crazy\nWalk, walk, fashion, baby\nWork it, move that bitch crazy\nWalk, walk, passion, baby\nWork it, I\'m a free bitch, baby\n\n[Bridge 2]\nI want your love, and I want your revenge\nI want your love, I don\'t wanna be friends\nJe veux ton amour et je veux ta revanche\nJe veux ton amour, I don\'t wanna be friends\n(Oh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh)\n(I want you back) No, I don\'t wanna be friends\n(Caught in a bad romance) I don\'t wanna be friends\nWant your bad romance\n(Caught in a bad romance) Want your bad romance\n\n[Chorus]\nI want your love, and I want your revenge\nYou and me could write a bad romance (Oh-oh-oh-oh-oh)\nI want your love, and all your lover\'s revenge\nYou and me could write a bad romance\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\n(Want your bad romance)\nCaught in a bad romance (Want your bad romance)\nOh-oh-oh-oh-oh, oh-oh-oh-oh, oh-oh-oh\n(Want your bad romance)\nCaught in a bad romance\n\n[Post-Chorus]\nRa-ra-ah-ah-ah\nRoma, Roma-ma\nGaga, "Ooh la-la"\nWant your bad romance', 'annotations': {'description': '&lt;p&gt;“Bad Romance” represents the &lt;a href="https://genius.com/albums/Lady-gaga/The-fame-monster" rel="noopener" data-api_path="/albums/11681"&gt;Fear of Love Monster&lt;/a&gt; from the eight new songs in Lady Gaga’s re-release of &lt;em&gt;The Fame&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Gaga talked to &lt;em&gt;Grazia&lt;/em&gt; about writing this record saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was in Russia, then Germany, and spent a lot of time in Eastern Europe. There is this amazing German house-techno music, so I wanted to make a pop experimental record. I kind of wanted to leave the ‘80s a little bit, so the chorus is a \'90s melody, which is what the inspiration was. There was certainly some whisky involved in the writing of the record. It’s about being in love with your best friend.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'writers': [{'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Depeche-mode-just-cant-get-enough-lyrics', 'lyrics': "[Verse 1]\nWhen I'm with you baby\nI go out of my head\nAnd I just can't get enough\nAnd I just can't get enough\nAll the things you do to me\nAnd everything you said\nI just can't get enough\nI just can't get enough\n\n[Chorus]\nWe slip and slide as we fall in love\nAnd I just can't seem to get enough of\n\n[Verse 2]\nWe walk together\nWe're walking down the street\nAnd I just can't get enough\nAnd I just can't get enough\nEvery time I think of you\nI know we have to meet\nAnd I just can't get enough\nAnd I just can't get enough\n\n[Chorus]\nIt's getting hotter, it's a burning love\nAnd I just can't seem to get enough of\n[Interlude]\n\n[Bridge]\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\n\n[Verse 3]\nAnd when it rains\nYou're shining down for me\nAnd I just can't get enough\nAnd I just can't get enough\nJust like a rainbow\nYou know you set me free\nAnd I just can't get enough\nAnd I just can't get enough\n[Chorus]\nYou're like an angel and you give me your love\nAnd I just can't seem to get enough of\n\n[Interlude]\n\n[Outro]\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough\nI just can't get enough...", 'annotations': {'description': '&lt;p&gt;“Just Can’t Get Enough” is the 3rd single of 1980s electro-pop group Depeche Mode and the 11th track from the album “Speak &amp;amp; Spell”.&lt;/p&gt;\n\n&lt;p&gt;The single peaked at #8 in the UK, making it their highest-charting single at the time.&lt;/p&gt;\n\n&lt;p&gt;The B-side is “Any Second Now”.&lt;/p&gt;\n\n&lt;p&gt;There is a Schizo Mix-Version of the track.&lt;/p&gt;\n\n&lt;p&gt;It was the last single written by band leader Vince Clarke, who left the band soon after the song’s release in November 1981.&lt;/p&gt;', 'producers': [{'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}, {'name': 'Daniel Miller', 'url': 'https://genius.com/artists/Daniel-miller'}], 'writers': [{'name': 'Vince Clarke', 'url': 'https://genius.com/artists/Vince-clarke'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Carly-rae-jepsen-call-me-maybe-lyrics', 'lyrics': "[Verse 1]\nI threw a wish in the well\nDon't ask me, I'll never tell\nI looked to you as it fell\nAnd now you're in my way\nI trade my soul for a wish\nPennies and dimes for a kiss\nI wasn't looking for this\nBut now you're in my way\n\n[Pre-Chorus]\nYour stare was holding\nRipped jeans, skin was showin'\nHot night, wind was blowin'\nWhere you think you're going, baby?\n\n[Chorus]\nHey, I just met you, and this is crazy\nBut here's my number, so call me maybe\nIt's hard to look right at you, baby\nBut here's my number, so call me maybe\nHey, I just met you, and this is crazy\nBut here's my number, so call me maybe\nAnd all the other boys try to chase me\nBut here's my number, so call me maybe\n[Verse 2]\nYou took your time with the call\nI took no time with the fall\nYou gave me nothing at all\nBut still you're in my way\nI beg and borrow and steal\nAt first sight and it's real\nI didn't know I would feel it\nBut it's in my way\n\n[Pre-Chorus]\nYour stare was holding\nRipped jeans, skin was showing\nHot night, wind was blowing\nWhere you think you're going, baby?\n\n[Chorus]\nHey, I just met you, and this is crazy\nBut here's my number, so call me maybe\nIt's hard to look right at you, baby\nBut here's my number, so call me maybe\nHey, I just met you, and this is crazy\nBut here's my number, so call me maybe\nAnd all the other boys try to chase me\nBut here's my number, so call me maybe\n[Bridge]\nBefore you came into my life, I missed you so bad\nI missed you so bad\nI missed you so, so bad\nBefore you came into my life, I missed you so bad\nAnd you should know that\nI missed you so, so bad\n\n[Pre-Chorus]\nIt's hard to look right at you, baby\nBut here's my number, so call me maybe\n\n[Chorus]\nHey, I just met you, and this is crazy\nBut here's my number, so call me maybe\nAnd all the other boys try to chase me\nBut here's my number, so call me maybe\n\n[Outro]\nBefore you came into my life, I missed you so bad\nI missed you so bad\nI missed you so, so bad\nBefore you came into my life, I missed you so bad\nAnd you should know that\nSo call me maybe", 'annotations': {'description': '&lt;p&gt;“Call Me Maybe” debuted on the Hot 100 on March 10, 2012, eventually clocking 50 total weeks on the chart. Jepsen released her album Kiss that September, but the rest of the singles didn’t reach the heights of “Call Me Maybe,” which remains Jepsen’s biggest hit to date.When Justin Bieber calls your single “possibly the catchiest song I’ve ever heard,” you know you’re destined to attract a few listeners. Bieber undoubtedly upped the song’s cool factor and made it something every teen wanted to be singing out with friends on a Friday night.&lt;/p&gt;', 'producers': [{'name': 'Josh Ramsay', 'url': 'https://genius.com/artists/Josh-ramsay'}], 'writers': [{'name': 'Tavish Crowe', 'url': 'https://genius.com/artists/Tavish-crowe'}, {'name': 'Carly Rae Jepsen', 'url': 'https://genius.com/artists/Carly-rae-jepsen'}, {'name': 'Josh Ramsay', 'url': 'https://genius.com/artists/Josh-ramsay'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Schoolboy Records', 'url': 'https://genius.com/artists/Schoolboy-records'}, {'name': '604 Records', 'url': 'https://genius.com/artists/604-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-give-it-2-me-lyrics', 'lyrics': "[Verse 1: Madonna]\nWhat are you waiting for? Nobody's gonna show you how\nWhy wait for someone else to do what you can do right now?\nGot no boundaries and no limits\nIf there's excitement, put me in it\nIf it's against the law, arrest me\nIf you can handle it, undress me\n\n[Pre-Chorus: Madonna]\nDon't stop me now, don't need to catch my breath\nI can go on, and on, and on\nWhen the lights go down and there's no one left\nI can go on, and on, and on\n\n[Chorus: Madonna]\nGive it to me, yeah\nNo one's gonna show me how\nGive it to me, yeah\nNo one's gonna stop me now\n\n[Verse 2: Madonna &amp; Pharrell Williams]\nThey say that a good thing never lasts, and then it has to fall\nThose are the people that did not amount to much at all\nGimme the baseline, and I'll shake it\nGimme a record, and I'll break it\nThere's no beginning and no ending\nGive me a chance to go, and I'll take it\n[Pre-Chorus: Madonna]\nDon't stop me now, don't need to catch my breath\nI can go on, and on, and on\nWhen the lights go down and there's no one left\nI can go on, and on, and on\n\n[Chorus: Madonna]\nGive it to me, yeah\nNo one's gonna show me how\nGive it to me, yeah\nNo one's gonna stop me now\n\n[Bridge: Madonna, Pharrell Williams]\nWatch this\nGet stupid, get stupid, get stupid, don't stop it (What?)\nGet stupid, get stupid, get stupid, don't stop it (What?)\nGet stupid, get stupid, get stupid, don't stop it (What?)\nGet stupid, get stupid, get stupid, don't stop it (What?)\nGet stupid, get stupid, get stupid, don't stop it (To the left, to the right, to the left, to the right)\nGet stupid, get stupid, get stupid, don't stop it (To the left, to the right, to the left, to the right)\nGet stupid, get stupid, get stupid, don't stop it (To the left, left, right, right, left, left, right, right)\nGet stupid, stupid, stupid, stupid, stupid, stupid, stupid, stupid (Left, left, right, right, left, left, right, right)\n\n[Pre-Chorus: Madonna]\nDon't stop me now, don't need to catch my breath\nI can go on, and on, and on\nWhen the lights go down and there's no one left\nI can go on, and on, and on\n[Chorus: Madonna]\nGive it to me, yeah\nNo one's gonna show me how\nGive it to me, yeah\nNo one's gonna stop me now\n\n[Breakdown: Madonna]\nYou're only here to win\nGet what they say?\nYou're only here to win\nGet what they do?\nThey'd do it too if they were you\nYou done it all before, it ain’t nothing new\nYou're only here to win\nGet what they say?\nYou're only here to win\nGet what they do?\nThey'd do it too if they were you\nYou done it all before, it ain’t nothing new\n\n[Chorus: Madonna]\nGive it to me, yeah\nNo one's gonna show me how\nGive it to me, yeah\nNo one's gonna stop me now\nGive it to me, yeah\nNo one's gonna show me how\nGive it to me, yeah\nNo one's gonna stop me now\nGive it to me", 'annotations': {'description': '&lt;p&gt;“Give It 2 Me” is a song by American singer and songwriter Madonna, featured on her eleventh studio album, &lt;a href="https://genius.com/albums/Madonna/Hard-candy" rel="noopener" data-api_path="/albums/6006"&gt;&lt;em&gt;Hard Candy&lt;/em&gt;&lt;/a&gt;. It was released as the second single from the album. The song &lt;a href="https://www.billboard.com/music/Madonna/chart-history/DSI" rel="noopener nofollow"&gt;became&lt;/a&gt; Madonna’s 39th number-one single on the Billboard Hot Dance Club Play chart and peaked at #57 on the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}], 'writers': [{'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-vines-outtathaway-lyrics', 'lyrics': "Well, I'm fuckin' allowed!\n\nI get\nWhat I own don't let\nThe feelings that I choose\n'Cause everybody else do\n\nGotta get outtathaway\nNo time for me to say\nEveryone in the world don't affect you\n\nWe think\nYou're a lot different\nYour number ain't your thing\nYou're always on the wrong end\n\nGotta get outtathaway\nNo time for me to say\nEveryone in the world don't affect you\n\nNow come on\n\nGotta get outtathaway\nNo time for me to say\nWhen I speak out of line\nI don't believe in time", 'annotations': {'description': '', 'producers': [{'name': 'Rob Schnapf', 'url': 'https://genius.com/artists/Rob-schnapf'}], 'writers': [{'name': 'Craig Nicholls', 'url': 'https://genius.com/artists/Craig-nicholls'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Keane-sovereign-light-cafe-lyrics', 'lyrics': "[Verse 1]\nI'm going back to a time when we owned this town\nDown Powder Mill Lane, in the battlegrounds\nWe were friends and lovers and clueless clowns\nI didn't know I was finding out how I'd be torn from you\nWhen we talked about things we were gonna do\nWe were wide eyed dreamers and wiser too\n\n[Chorus 1]\nWe'd go down to the rides on East Parade\nBy the lights of the Palace Arcade\nWatch night coming down on the Sovereign Light Café\n\n[Verse 2]\nI'm begging you for some sign\nBut you've still got nothing to say\nDon't turn your back on me, don't walk away\nI'm a better man now than I was that day\n\n[Chorus 2]\nLet's go down to the rides on East Parade\nBy the lights of the Palace Arcade\nWatch night coming down on the Sovereign Light Café\nLet's go down to the bandstand on the pier\nWatch the drunks and the lovers appear\nTo take turns, as the stars of the Sovereign Light Café\n[Bridge]\nI wheel my bike off the train\nUp the North Trade Road\nLook for you on Marley Lane\nIn every building, every street sign\nOh why did we ever go so far from home?\n\n[Verse 3]\nWell you've got nothing to hide\nYou can't change who you really are\nYou can get a big house and a faster car\nYou can run away boy, but you won't go far\n\n[Chorus 2]\nLet's go down to the rides on East Parade\nBy the lights of the Palace Arcade\nWatch night coming down on the Sovereign Light Café\nLet's go down to the bandstand on the pier\nWatch the drunks and the lovers appear\nTo take turns, as the stars of the Sovereign Light Café\n\n[Outro]\nSha La la la la la Yeah Yeah\nI'm going where the people know my name", 'annotations': {'description': '', 'producers': [{'name': 'Dan Grech-Marguerat', 'url': 'https://genius.com/artists/Dan-grech-marguerat'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'Jesse Quin', 'url': 'https://genius.com/artists/Jesse-quin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Montell-jordan-this-is-how-we-do-it-lyrics', 'lyrics': '[Intro]\n(Background chatter)\nThis is how we do it!\n(This is how we do it!)\nSha la la la la la lo\nShabada lo lo lo, whoa\n(This is how we do it!)\nLo lo lo low-oh-oh\n\n[Verse 1]\nThis is how we do it\nIt\'s Friday night, and I feel alright\nThe party is here on the West Side\nSo I reach for my 40 and I turn it up\nDesignated driver, take the keys to my truck\nHit the \'shaw cause I\'m faded\nHonies in the street say, "Monty, yo, we made it!"\nIt feels so good in my hood tonight\nThe summertime skirts and the guys in Kani\nAll the gangbangers forgot about the drive-by\nYou gotta get your groove on, before you go get paid\nSo tip up your cup and throw your hands up\nAnd let me hear the party say\n\n[Chorus]\nI\'m kinda buzzed and it\'s all because (This is how we do it)\nSouth Central does it like nobody does (This is how we do it)\nTo all my neighbors, you got much flavor (This is how we do it)\nLet\'s flip the track, bring the old school back (this is how we do it)\n[Verse 2]\nThis is how we do it, all hands are in the air\nAnd wave them from here to there\nIf you\'re an O.G. mack or a wannabe player\nYou see the hood\'s been good to me\nEver since I was a lower-case g\nBut now I\'m a big G\nThe girls see I got the money\nHundred-dollar bills, y\'all\nIf you were from where I\'m from then you would know\nThat I gotta get mine in a big black truck\nYou can get yours in a \'64\nWhatever it is, the party\'s underway\nSo tip up your cup and throw your hands up\nAnd let me hear the party say...\n\n[Chorus]\nI\'m kinda buzzed and it\'s all because (This is how we do it)\nSouth Central does it like nobody does (This is how we do it)\nTo all my neighbors you got much flavor (This is how we do it)\nLet\'s flip the track, bring the old school back (This is how we do it)\nI\'m kinda buzzed and it\'s all because (This is how we do it)\nSouth Central does it like nobody does (This is how we do it)\nY?N-Vee, SCC (This is how we do it)\nI\'ll never come wack on an old school track (This is how we do it)\n[Verse 3]\nCheck it out!\nOnce upon a time in \'94\nMontell made no money and life sure was slow\nAll they said was 6\' 8" he stood\nAnd people thought the music that he made was good\nThere lived a D.J. and Paul was his name\nHe came up to Monty, this is what he said\nYou and Oji are gonna make some cash\nSell a million records and we\'re makin\' tha dash\n\n[Chorus]\nOhh, I\'m buzzin\' because... (This is how we do it)\nSouth Central does it like nobody does (This is how we do it)\nTo all my neighbors you got much flavor (This is how we do it)\nI\'ll never come wack on an old school track (This is how we do it)\nI\'m kinda buzzed and it\'s all because (This is how we do it)\nSouth Central does it like nobody does (This is how we do it)\n\n[Outro]\nOh, it\'s party time! (This is how we do it)\nStraight up comin\' from the West Side (This is how we do it)\nOG\'s got the flavor, yeah (This is how we do it)\nAnd Monty does it like nobody does (This is how we do it)\nC\'mon now, Def Jam, you know what it is (This is how we do it)\n[Spoken Interlude]\nYo Montell, this Percy, man\nThe barber, your barber\nMan I\'m sitting up here listening to ya tape, dude\nAnd this shit is on, man\nYou gon\' make it, fool\nKeep on doing what you doing, man\nMy phone number is area code\nNine oh nine, zero, eighty-\nGimme a call, man\nWe getting ready to step out to the Fox Hills Mall right now\nBut, uh\nIt\'s Monday morning, about a quarter to eleven, peace', 'annotations': {'description': '&lt;p&gt;“This Is How We Do It” is the debut single by American singer Montell Jordan, released as the lead single from his debut album of the &lt;a href="https://genius.com/albums/Montell-jordan/This-is-how-we-do-it" rel="noopener" data-api_path="/albums/6289"&gt;same name&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song was a massive hit, peaking at number one on the Billboard Hot 100, making it his only single to reach the top spot. The song also earned Jordan a Grammy Award nomination for “Best Male R&amp;amp;B Vocal Performance” at the 38th Annual Grammy Awards.&lt;/p&gt;', 'producers': [{'name': 'Oji Pierce', 'url': 'https://genius.com/artists/Oji-pierce'}, {'name': 'Montell Jordan', 'url': 'https://genius.com/artists/Montell-jordan'}], 'writers': [{'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Oji Pierce', 'url': 'https://genius.com/artists/Oji-pierce'}, {'name': 'Montell Jordan', 'url': 'https://genius.com/artists/Montell-jordan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-presidents-of-the-united-states-of-america-kitty-lyrics', 'lyrics': "Meow, meow, meow-meow, meow-meow\n\nMeow, meow\nMeow, meow\n\nLittle bag of bones been out all night\nLittle bag of bones been out all night\nCan you hear him scratchin' at the screen door?\nCan you hear him scratchin' at the screen door?\nLittle bag of bones been out all night\nHe needs some pettin' and lovin' on his head\nHe needs some pettin' and lovin' on his rain-soaked hide\nHe's circlin' around my ankle\nHe's circlin' around my ankle\nHe needs some pettin' and lovin' on his hide\nKitty, won't you come inside?\nKitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\n\nKitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I want to touch it\nMeow, meow, meow, meow, meow-meow\n\nMeow, meow\nMeow, meow\n\nA pussy purrin' and lookin' so satisfied\nA pussy purrin' and lookin' so satisfied\nI'm lost in his little yellow round eye\nLost in his little yellow round eye\nPussy purrin' and lookin' so satisfied\n\nKitty rear up and scratch me through my jeans\nKitty rear up and scratch me through my jeans\nFuck you kitty; you're gonna to spend the night (Meow?)\nFuck you kitty; you're gonna to spend the night (Meow!)\nFuck you kitty; you're gonna to spend the night OUTSIDE\n\nKitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\n\nKitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I wanna touch it\nA kitty at my foot and I want to touch it\nTouch it\nI wanna touch it\nI wanna touch it\nI wanna touch it\nWanna touch it\nWanna touch it\nI wanna touch it\n...Touch it\n\nKitty, kitty, kitty, kitty, kitty, kitty, touch it\nKitty, kitty, kitty, kitty, kitty, kitty, touch it\nKitty, kitty, kitty, kitty, kitty, kitty, touch it\nKitty at my foot and I want to touch it", 'annotations': {'description': "&lt;p&gt;Chris:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This song started out as a jam at Mark Sandman’s house. His roommate had a cat that was always purring and moving around my feet, then when I picked it up it would scratch my eyes out! We were playing in the living room and I started singing the “kitty at my foot and I want to touch it” part. Later t turned into a more solid song on the 4-track, then PUSA got a hold of it and finished it up. It is a favorite live song that we never practice.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;strong&gt;Q:&lt;/strong&gt; So, what’s the real story behind the unusual guitar and bass tunings on this album? Your guitar only has three strings and the bass only has two. Also, all the strings are tuned a half step lower than standard tuning!&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;A: Chris&lt;/strong&gt; The note choice was a function of my singing voice. I could sing a lot of different things comfortably in C-sharp, we found, so that was it. The 2-string and 3-string thing just came out of breaking strings on a cheap-o acoustic I had and not having the money to buy more. I worked out a 4-string tuning for a year or so, and then Mark Sandman from Morphine showed me the 2-string option and it all clicked into place. It just felt like all things were possible when I strapped on a 2-string. It felt like I didn’t owe the history of rock anything and I could be myself.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;A: Dave&lt;/strong&gt; Chris and I have collaborated for years and traded songs and home-studio 4-track tapes back and forth many times. In 1992 or ‘93, he gave me a tape that had a sound I loved and some songs that I liked. When Chris moved back to Seattle in the summer or fall of '93, I suggested we get some gigs and play the songs on that tape. The songs were all based on the 3-string and 2-string tunings he’d been playing in with Sandman, and it just took off from there. I, too, love the freedom from clichés that the tuning offers. Everything is new again in this tuning-even if you play a familiar chord progression, the voicings are going to sound distinctive.&lt;/p&gt;\n\n&lt;p&gt;Source: Presidents of the United States of America (Authentic Guitar Tab Edition)&lt;/p&gt;", 'producers': [{'name': 'Conrad Uno', 'url': 'https://genius.com/artists/Conrad-uno'}], 'writers': [{'name': 'Chris Ballew', 'url': 'https://genius.com/artists/Chris-ballew'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Katrina-and-the-waves-walking-on-sunshine-lyrics', 'lyrics': "[Intro]\nOw!\nHeeey, yeah!\n\n[Verse 1]\nI used to think maybe you loved me, now, baby, I'm sure\nAnd I just can't wait 'till the day when you knock on my door\nNow every time I go for the mailbox, gotta hold myself down\n'Cause I just can't wait 'till you write me you're coming around\n\n[Hook]\nNow I'm walking on sunshine, whoa\nI'm walking on sunshine, whoa\nI'm walking on sunshine, whoa\nAnd don't it feel good\nHey, all right now\nAnd don't it feel good\nHey, yeah\n\n[Verse 2]\nI used to think maybe you loved me, now I know that it's true\nAnd I don't want to spend my whole life just a-waiting for you\nNow, I don't want you back for the weekend, not back for a day, no, no, no\nI said, baby, I just want you back, and I want you to stay\n\n[Hook]\nNow I'm walking on sunshine, whoa\nI'm walking on sunshine, whoa\nI'm walking on sunshine, whoa\nAnd don't it feel good\nHey, all right now\nAnd don't it feel good\nYeah, oh yeah\nAnd don't it feel good\n[Bridge]\nWalking on sunshine\nWalking on sunshine\n\nI feel alive, I feel the love, I feel the love that's really real\nI feel alive, I feel the love, I feel the love that's really real\nI'm on sunshine, baby, oh\nOh, yeah, I'm on sunshine, baby\nOw!\n\n[Outro]\nI'm walking on sunshine, whoa\nI'm walking on sunshine, whoa\nI'm walking on sunshine, whoa\nAnd don't it feel good\nHey, all right now\nAnd don't it feel good\nI say it, I say it, I say it again, now\nAnd don't it feel good\nHey, yeah, now\nAnd don't it feel good\nAnd don't it, don't it, don't it, don't it, don't it, and don't it feel good\nI say it, I say it, I say it again, now\nAnd don't it feel good\nAnd don't it, don't it, don't it, don't it, don't it, and don't it feel good\nAnd tell me, tell me, tell me it again now\nAnd don't it feel good\nHooooh, yeah now\nAnd don't it feel good\nAnd don't it, don't it, don't it, don't it, don't it, and don't it feel good\nHooooh, yeah, Hooooh, yeah, Hooooh, yeah, yeah, yeah, yeah, yeah", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Walking on Sunshine&lt;/em&gt;, the eponymous track of Katrina and the Waves\' 1983 debut album, is undeniably their most popular song.&lt;/p&gt;\n\n&lt;p&gt;Famous for its upbeat and feel-good atmosphere, the song has been covered by many artists &lt;a href="https://www.youtube.com/watch?v=wRmLi-ctGeo" rel="noopener nofollow"&gt;including Dolly Parton,&lt;/a&gt; and has been used in countless advertisements and movies, from &lt;a href="https://www.imdb.com/title/tt0144084/" rel="noopener nofollow"&gt;American Psycho&lt;/a&gt; to &lt;a href="https://www.imdb.com/title/tt0317303/" rel="noopener nofollow"&gt;Daddy Day Care.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song is estimated to have earned the band $1 million annually for ten years from royalties. Due to its high demand, advertisers typically pay $150,000 to $200,000 to use it in commercials.&lt;/p&gt;\n\n&lt;p&gt;In an &lt;a href="https://www.theguardian.com/culture/2015/sep/01/katrina-and-the-waves-how-we-made-walking-on-sunshine" rel="noopener nofollow"&gt;interview with &lt;em&gt;The Guardian&lt;/em&gt;,&lt;/a&gt; guitarist and writer of the song, &lt;a href="https://en.wikipedia.org/wiki/Kimberley_Rew" rel="noopener nofollow"&gt;Kimberley Rew&lt;/a&gt; said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d love to say &lt;em&gt;Walking on Sunshine&lt;/em&gt; relates to a significant event in my life, like walking out of my front door, seeing a comet and being inspired. But it’s just a piece of simple fun, an optimistic song&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Nevertheless, the song has certainly made waves all across the world.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/iPUmE-tne5U?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Pat Collier', 'url': 'https://genius.com/artists/Pat-collier'}], 'writers': [{'name': 'Kimberley Rew', 'url': 'https://genius.com/artists/Kimberley-rew'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Santana-smooth-lyrics', 'lyrics': '[Verse 1]\nMan, it\'s a hot one\nLike seven inches from the midday sun\nI hear you whisper and the words melt everyone\nBut you stay so cool\nMy muñequita, my Spanish Harlem Mona Lisa\nYou\'re my reason for reason, the step in my groove\n\n[Pre-Chorus]\nAnd if you say this life ain\'t good enough\nI would give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth\nGimme your heart, make it real, or else forget about it\n\n[Verse 2]\nI\'ll tell you one thing\nIf you would leave it would be a crying shame\nIn every breath and every word\nI hear your name calling me out\nOut from the barrio, you hear my rhythm on the radio\nYou feel the turning of the world so soft and slow, turnin\' you round and round\n[Pre-Chorus]\nAnd if you said, "This life ain\'t good enough"\nI\'d give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth, and\n\n[Chorus]\nOh, and it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, yeah\n\n[Guitar Solo]\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, damn\n\n[Outro]\nOr else forget about it\nOh, or else forget about it\nOh, let\'s don\'t forget about it\n(Gimme your heart, make it real) Let\'s don\'t forget about it, hey\nLet\'s don\'t forget about it, no, oh, no, oh\nLet\'s don\'t forget about it, no, no, no, oh\nLet\'s don\'t forget about it, hey, no, no, oh\nLet\'s don\'t forget about it, hey, hey, hey', 'annotations': {'description': '&lt;p&gt;“Smooth” is a collaboration between Matchbox Twenty frontman Rob Thomas and Latin rock band Santana. Written by Thomas, and Itaal Shur, “Smooth” won three Grammys for “Song of the Year”, “Record of the Year”, and “Best Pop Collaboration with Vocals” in 2000. “Smooth” is a pinnacle of the tail end of the rock era, and a perfect example of a smooth transition from the classic rock sound (Santana) to modern adult contemporary music (Thomas).&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Itaal Shur', 'url': 'https://genius.com/artists/Itaal-shur'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Alpha-blondy-cocody-rock-lyrics', 'lyrics': "Rockin' Rocker\nRockin' Rocker from Zion I.C\nWe're ready ready ready, ready to rock\nWe are the rockers from Zion Ivory Coast\nWe're ready ready ready, ready to rock\n\nWe sayin'\n\nCoco, Coco, is Cocody Rock\nCoco, Coco, is Cocody Rasta\nCoco, Coco now, Cocody Rock\nCoco, Coco, is Cocody Rasta\n\nSomebody, somebody is working out the sound system\n(The sound system)\nSay Jah Jah rythm\n(Jah Jah rythm)\nWe movin through space and time\nBrother Tom fear\nAin't got nothin', he's beatin' down the bass line\nWhy don't you get on board the Zion Express\n\nWe sayin'\n\nCoco, Coco, is Cocody Rock\nCoco, Coco, is Cocody Rasta\nCoco, Coco now, Cocody Rock\nCoco, Coco, is Cocody Rasta\nRockin' in, rockin' out\nRockin' in, rockin' out\nWe're gonna rock you\nIn the night, in the day\nWe bound to rock your soul\nWe positively movin up - oh\nWeavin' Jah time\nNo matter what you say or do\nJah bound to rock you down\nThat's why we're sayin'\n\nCoco, Coco, is Cocody Rock\nCoco, Coco, is Cocody Rasta\nCoco, Coco now, Cocody Rock\nCoco, Coco, is Cocody Rasta\n\nRockin' in, rockin' out\nRockin' in, rockin' out\nWe're gonna rock you\nIn the night, in the day\nWe bound to rock your soul\nWe positively movin up - oh\nWeavin' Jah time\nNo matter what you say or do\nJah bound to rock you down\nThat's why we're sayin'\nCoco, Coco, is Cocody Rock\nCoco, Coco, is Cocody Rasta\nCoco, Coco now, Cocody Rock\nCoco, Coco, is Cocody Rasta\n\nCoco, Coco now, Cocody Rock\nCoco, Coco, is Cocody Rasta\nCoco, Coco now, Cocody Rock\nCoco, Coco, is Cocody Rasta\nCoco, Coco now, Cocody Rock...", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bee-gees-you-should-be-dancing-lyrics', 'lyrics': "[Verse 1]\nMy baby moves at midnight\nGoes right on 'till the dawn\nMy woman, take me higher\nMy woman, keep me warm\n\n[Hook]\nWhat you doin' on your bed on your back? Hey!\nWhat you doin' on your bed on your back? Hey!\nYou should be dancing, yeah\nDancing, yeah\n\n[Verse 2]\nShe's juicy and she's trouble\nShe gets it to me good\nMy woman, give me power\nGo right down to my blood\n\n[Hook]\nWhat you doin' on your bed on your back? Hey!\nWhat you doin' on your bed on your back? Hey!\nYou should be dancing, yeah\nDancing, yeah\nWhat you doin' on your bed on your back?\nWhat you doin' on your bed on your back? Hey!\nYou should be dancing, yeah\nDancing, yeah\n[Instrumental Solo]\n\n[Verse 1]\nMy baby moves at midnight, yeah\nGoes right on 'till the dawn, yeah\nMy woman takes me higher\nMy woman, keep me warm\n\n[Hook]\nWhat you doin' on your bed on your back?\nWhat you doin' on your bed on your back?\nYou should be dancing, yeah\nDancing, yeah\n\n[Hook]\nWhat you doin' on your bed on your back? Hey!\nWhat you doin' on your bed on your back? Hey!\nYou should be dancing, yeah\nDancing, yeah\nWhat you doin' on your back? (Hey, hey)\nWhat you doin' on your back? Hey!\nYou should be dancing, yeah\nDancing, yeah\n\n[Short Break]\n[Outro]\nYou should be dancing, yeah\nYou should be dancing, yeah\nYou should be dancing, yeah\nYou should be dancing, yeah\nYou should be dancing, yeah\nYou should be dancing, yeah\nYou should be dancing, yeah\nYou should be dancing, yeah", 'annotations': {'description': '&lt;p&gt;Released as the first single off of their fourteenth studio album &lt;a href="https://genius.com/albums/The-bee-gees/Children-of-the-world" rel="noopener" data-api_path="/albums/125421"&gt;&lt;em&gt;Children of the World&lt;/em&gt;&lt;/a&gt; in 1976, “You Should Be Dancing” spent a single week at the summit of the US Billboard Hot 100, and the top five in the UK. The song was prominently featured in the 1978 film &lt;a href="http://www.imdb.com/title/tt0076666/" rel="noopener nofollow"&gt;Saturday Night Fever&lt;/a&gt;, which lead to a resurgence in popularity. It was the Bee Gees\' first US chart topper to feature Barry Gibb’s signature falsetto vocals. Previously they had employed a more melodic, blue eyed soul style. A &lt;a href="https://www.youtube.com/watch?v=g9oKvuB0iM8" rel="noopener nofollow"&gt;live version&lt;/a&gt; of the song on the band’s 1979 Spirits Having Flown Tour featured their younger brother Andy Gibb on backing vocals.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/7dfa07bd60dca2526f5963b51623e805.388x401x1.jpg" alt="" width="388" height="401" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bee Gees', 'url': 'https://genius.com/artists/Bee-gees'}, {'name': 'Karl Richardson', 'url': 'https://genius.com/artists/Karl-richardson'}, {'name': 'Albhy Galuten', 'url': 'https://genius.com/artists/Albhy-galuten'}], 'writers': [{'name': 'Maurice Gibb', 'url': 'https://genius.com/artists/Maurice-gibb'}, {'name': 'Robin Gibb', 'url': 'https://genius.com/artists/Robin-gibb'}, {'name': 'Barry Gibb', 'url': 'https://genius.com/artists/Barry-gibb'}], 'labels': [{'name': 'RSO Records, Inc.', 'url': 'https://genius.com/artists/Rso-records-inc'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Calvin-harris-outside-lyrics', 'lyrics': "[Verse 1]\nLook at what you've done\nStand still, fallin' away from me\nWhen it takes so long\nFire's out, what do you want to be?\n\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Verse 2]\nSo you give me no reason\nFor me to stay close to you\nTell me what lovers do\nHow are we still breathing?\nIt's never for us to choose\nI'll be the strength in you\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Outro]\nI'll show you what it feels like\nNow I'm on the outside\nI'll show you what it feels like\nShow you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside", 'annotations': {'description': '&lt;p&gt;With just over 10 days before the release of his fourth studio album “&lt;a href="https://genius.com/albums/calvin-harris/motion" rel="noopener" data-api_path="/albums/113798"&gt;Motion&lt;/a&gt;”, Calvin Harris releases his 5th single from the project. Here he teams up with fellow Brit, &lt;a href="https://genius.com/artists/Ellie-goulding" rel="noopener" data-api_path="/artists/1838"&gt;Ellie Goulding&lt;/a&gt; who of course he has collaborated with in the past on the smash hit “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Britney-spears-oops-i-did-it-again-lyrics', 'lyrics': '[Intro]\nMmm, yeah\nYeah, yeah, yeah, yeah, yeah, yeah\nYeah, yeah, yeah, yeah, yeah, yeah\n\n[Verse 1]\nI think I did it again\nI made you believe we\'re more than just friends\nOh, baby, it might seem like a crush\nBut it doesn\'t mean that I\'m serious\n\n[Pre-Chorus]\n\'Cause to lose all my senses\nThat is just so typically me\nOoh, baby, baby\n\n[Chorus]\nOops, I did it again\nI played with your heart\nGot lost in the game\nOh, baby, baby\nOops, you think I\'m in love\nThat I\'m sent from above\nI\'m not that innocent\n\n[Verse 2]\nYou see, my problem is this\nI\'m dreaming away\nWishing that heroes, they truly exist\nI cry watching the days\nCan\'t you see I\'m a fool in so many ways?\n[Pre-Chorus]\nBut to lose all my senses\nThat is just so typically me\nOh, baby, oh\n\n[Chorus]\nOops, I did it again\nI played with your heart\nGot lost in the game\nOh, baby, baby\nOops, you think I\'m in love\nThat I\'m sent from above\nI\'m not that innocent\n\n[Post-Chorus]\nYeah, yeah, yeah, yeah, yeah, yeah\nYeah, yeah, yeah, yeah, yeah, yeah\n\n[Interlude]\n"All aboard!"\n"Britney! Before you go, there\'s something I want you to have."\n"Oh, it\'s beautiful! But wait a minute, isn\'t this...?"\n"Yeah, yes, it is."\n"But I thought the old lady dropped it into the ocean in the end."\n"Well, baby, I went down and got it for ya."\n"Aw, you shouldn\'t have!"\n[Chorus]\nOops, I did it again to your heart\nGot lost in this game, oh, baby\nOops, you (Oops, you) think that I\'m sent from above\nI\'m not that innocent\n\n[Chorus]\nOops, I did it again\nI played with your heart\nGot lost in the game (Yeah, yeah)\nOh, baby, baby\nOops, you think I\'m in love\nThat I\'m sent from above (Yeah)\nI\'m not that innocent\n\n[Chorus]\nOops, I (Oops, I) did it again (Did it again to your heart)\nI played with your heart (Got lost)\nGot lost in the game (In this game, oh, baby)\nOh, baby, baby\nOops, you (Oops, you) think I\'m in love (Think that I\'m sent)\nThat I\'m sent from above\nI\'m not that innocent', 'annotations': {'description': '&lt;p&gt;“Oops!… I Did It Again” is a song recorded by Britney Spears for her second studio album, &lt;a href="http://rock.genius.com/albums/Britney-spears/Oops-i-did-it-again" rel="noopener" data-api_path="/albums/28252"&gt;Oops!… I Did It Again&lt;/a&gt; (2000).&lt;/p&gt;\n\n&lt;p&gt;It was nominated for the Grammy Award for Best Female Pop Vocal Performance during the 2001 ceremony. Commercially, the track peaked at number nine on the U.S. Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;Producer and writer Max Martin intended this to be &lt;a href="http://www.maxmartinfansite.com/Time-Top%20of%20the%20Pops.htm" rel="noopener nofollow"&gt;his version of Barbra Streisand’s “Woman In Love.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'writers': [{'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-black-keys-howlin-for-you-lyrics', 'lyrics': "[Intro]\nAlright\nYeah\nWell now\n\n[Verse 1]\nI must admit, I can't explain\nAny of these thoughts racin' through my brain, it's true\nA-baby, I'm howlin' for you\n\n[Verse 2]\nAlright\nThere's something wrong with this plot\nThe actors here have not got a clue\nBaby, I'm howlin' for you\n\n[Chorus]\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\n\n[Verse 3]\nMockingbird, can't you see\nLittle girl's got a hold on me, like glue\nBaby, I'm howlin' for you\n[Verse 4]\nYeah\nThrow the ball, to the stick\nSwing and miss and catcher's mitt, strike two\nBaby I'm howlin' for you\nYeah\nYeah\n\n[Chorus]\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\n\n[Outro]\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da\nDa-da da-da da, da-da da-da da", 'annotations': {'description': "&lt;p&gt;A pretty straightforward love song about being completely struck by a woman’s beauty,  The Black Keys' “Howlin' For You” has been featured in a variety of films, commercials and television shows, sending the duo’s popularity skyrocketing. The Grindhouse style video is a consummate marriage of sleazy rock and roll and flashy and often sexy images, following a wronged woman along a sordid path of revenge.&lt;/p&gt;", 'producers': [{'name': 'Dan Auerbach', 'url': 'https://genius.com/artists/Dan-auerbach'}, {'name': 'Patrick Carney', 'url': 'https://genius.com/artists/Patrick-carney'}, {'name': 'Mark Neill', 'url': 'https://genius.com/artists/Mark-neill'}], 'writers': [{'name': 'Patrick Carney', 'url': 'https://genius.com/artists/Patrick-carney'}, {'name': 'Dan Auerbach', 'url': 'https://genius.com/artists/Dan-auerbach'}], 'labels': [{'name': 'Nonesuch', 'url': 'https://genius.com/artists/Nonesuch'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Harry-styles-lights-up-lyrics', 'lyrics': "[Verse 1]\nWhat do you mean?\nI'm sorry by the way\nNever coming back down\nCan't you see?\nI could, but\u2005wouldn't\u2005stay\nWouldn't put it\u2005like that\nWhat do you mean?\nI'm sorry\u2005by the way\nNever coming around\nIt'd be so sweet if things just stayed the same\nLa-da-da-da-da\n\n[Chorus]\nAll the lights couldn't put out the dark\nRunnin' through my heart\nLights up and they know who you are\nKnow who you are\nDo you know who you are? (Oh)\n\n[Bridge]\nShine, step into the light\nShine, so bright sometimes\nShine, I'm not ever going back\nShine, step into the light\nShine, so bright sometimes\nShine, I'm not ever going back\nShine, step into the light\nShine, so bright sometimes\nShine, I'm not ever (Ooh)\n[Verse 2]\nWhat do you mean?\nI'm sorry by the way\nNever going back now\nIt'd be so sweet if things just stayed the same\nLa-da-da-da-da\nLa-da-da-da-da\nLa-da-da-da-da (Oh)\nLa-da-da-da-da (Oh)\nLa-da-da-da-da (Oh)\n\n[Chorus]\nAll the lights couldn't put out the dark\nRunnin' through my heart\nLights up and they know who you are\nKnow who you are\nDo you know who you are?", 'annotations': {'description': '&lt;p&gt;“Lights Up” is Harry Styles\' first single of 2019, featuring harmonious vocals and melancholy lyrics. The song marks Harry’s first release since his eponymous May 2017 album, &lt;a href="https://genius.com/albums/Harry-styles/Harry-styles" rel="noopener" data-api_path="/albums/339829"&gt;&lt;em&gt;Harry Styles&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The track’s release coincided with &lt;a href="https://www.hrc.org/resources/national-coming-out-day" rel="noopener nofollow"&gt;National Coming Out Day&lt;/a&gt;. It was accompanied by a &lt;a href="https://www.youtube.com/watch?v=9NZvM1918_E" rel="noopener nofollow"&gt;music video&lt;/a&gt;, which features Harry surrounded by scantily-clad men and women. Styles was relatively tight-lipped about the track leading up to its debut, only posting the artwork on &lt;a href="https://www.instagram.com/p/B3dn_pbnHms/" rel="noopener nofollow"&gt;Instagram&lt;/a&gt; hours before the drop; his first post in over a year.&lt;/p&gt;', 'producers': [{'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Tyler Johnson', 'url': 'https://genius.com/artists/Tyler-johnson'}], 'writers': [{'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Tyler Johnson', 'url': 'https://genius.com/artists/Tyler-johnson'}, {'name': 'Harry Styles', 'url': 'https://genius.com/artists/Harry-styles'}], 'labels': [{'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}, {'name': 'Erskine Records', 'url': 'https://genius.com/artists/Erskine-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Martin-solveig-and-dragonette-hello-lyrics', 'lyrics': "[Intro]\n(Hey, hey, hey, hey)\n\n[Chorus]\nI could stick around and get along with you\nHello, oh-oh-oh\nIt doesn't really mean that I'm into you\nHello, oh-oh-oh\n\n[Verse 1]\nYou're alright but I'm here, darling, to enjoy the party\nDon't get too excited 'cause that's all you'll get from me, hey\nYeah, I think you're cute, but really you should know\n\n[Chorus]\nI just came to say hello\nHello, hello, hello, oh-oh-oh\nI'm not the kinda girl to get messed up with you\nHello, oh-oh-oh\nI'mma let you try to convince me to\nHello, oh-oh-oh\n\n[Verse 2]\nOh, it's alright, I'm getting dizzy, just enjoy the party\nIt's okay with me if you don't have that much to say, hey\nKinda like this game, but there's something you should know\n[Chorus]\nI just came to say hello\nHey, hey\n\n[Chorus]\nI could stick around and get along with you\nHello, oh-oh-oh\nDoesn't really mean that I'm into you\nHello, oh-oh-oh\n\n[Bridge]\nAh, you're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\nYou're alright but I'm here, darling, to enjoy the party, hey\n(I'm here, darling, to enjoy the party, hey)\n(I'm here, darling, to enjoy the party, hey)\n(I'm here, darling, to enjoy the party, hey, hey)\n\n[Chorus]\nI just came to say hello\nHello, hello, hello, oh-oh-oh\nI'm not the kinda girl to get messed up with you\nHello, oh-oh-oh\nI'mma let you try to convince me to\nHello, oh-oh-oh\n[Verse 2]\nOh, it's alright, I'm getting dizzy, just enjoy the party\nIt's okay with me if you don't have that much to say, hey\nKinda like this game, but there's something you should know\n\n[Outro]\nI just came to say hello\nHey\nHey", 'annotations': {'description': '&lt;p&gt;&lt;a href="http://pop.genius.com/Martin-solveig-hello-lyrics" rel="noopener" data-api_path="/songs/512262"&gt;“Hello”&lt;/a&gt; is a song performed by French DJ and producer &lt;a href="https://genius.com/artists/Martin-solveig" rel="noopener" data-api_path="/artists/15695"&gt;Martin Solveig&lt;/a&gt;, taken from his fifth studio album &lt;em&gt;Smash&lt;/em&gt; which was released in 2011. It features vocals from Martina Sorbara of Canadian electro pop band &lt;a href="https://genius.com/artists/Dragonette" rel="noopener" data-api_path="/artists/15696"&gt;Dragonette&lt;/a&gt;. The song was released as the album’s second single on September 6, 2010 by Mercury Records.&lt;/p&gt;\n\n&lt;p&gt;It is Solveig’s most successful single to date, peaking at number one in Austria, Belgium Flanders, Czech Republic and the Netherlands, while charting within the top 10 in ten other countries. It also reached number one on the Hot Dance Club Songs chart in the United States. Additionally, the song charted at number 46 on the Billboard Hot 100 in April 2011; becoming Solveig’s and Dragonette’s first appearances on the chart. It has since been certified gold by the Recording Industry Association of America (RIAA) for sales of 500,000 units. The song has been featured in 90210, The Vampire Diaries, Gossip Girl and in Tim Hortons\' 2013 ad for their ‘Roll up the Rim to Win’ promotion. It also used as the intro theme to the TV series Cheer! on CMT. The song appears in the video game Dance Central 3.&lt;/p&gt;', 'producers': [{'name': 'Martin Solveig', 'url': 'https://genius.com/artists/Martin-solveig'}], 'writers': [{'name': 'Martin Solveig', 'url': 'https://genius.com/artists/Martin-solveig'}, {'name': 'Martina Sorbara', 'url': 'https://genius.com/artists/Martina-sorbara'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Kid-rock-american-bad-ass-lyrics', 'lyrics': '[Intro]\nYeah! and I\'ve set up and torn down this stage with my own two hands\nWe\'ve traveled this land packed tight in minivans\nAnd all this for the fans, girls, money, and fame\nI play their game, and then they scream my name\nI will show no shame, I live and die for this\nIf I come off soft, then chew on this....\nAre you scared?\n\n[Verse 1]\nDevil without cause, and I\'m back\nWith the beaver hats and Ben Davis slacks\n30-pack of Stroh\'s, 30-pack of hoes\nNo rogaine in the propane flows\nChosen one, I\'m the living proof\nWith the gift of gab from the city of truth\nI jabbed and stabbed and knocked critics back\nAnd I did not stutter when I said that\nI\'m goin platinum sellin\' rhymes\nI went platinum seven times\nAnd still they ill they wanna see us fry\nI guess because of only God knows why\nWhy why why why\n\n[Chorus]\nOhhhhh\nThey call me cowboy, I\'m the singer in black\nThrow a finger in the air, let me see where you\'re at\nAnd say (Hey, hey)\nLet me hear where you\'re at and say (Hey, hey)\nI\'m giving it back so say (Hey, hey)\nShow me some metal and say (Hey, hey, hey, hey)\n(Fuck all y\'all)\n[Verse 2]\nI like AC/DC and ZZ Top\nBocephus, Beasties, and the Kings of Rock\nSkynyrd, Seger, Limp, Korn, the Stones\nDavid Allan Coe, and No Show Jones\nYeah! Pass that bottle around\nGot the rock from Detroit and soul from Motown\nThe underground stoned fuckin\' pimp\nWith tracks that mack and slap back the whack\nNever gayed away, I don\'t play with ass\nBut watch me rock with Liberace flash\nPunk rock the Clash, boy bands are trash\nI like Johnny Cash and Grandmaster Flash\n\n[Chorus]\nOhhhhh\nThey call me cowboy, I\'m the singer in black\nThrow a finger in the air, let me see where you\'re at\nAnd say "Hey, hey"\nLet me hear where you\'re at and say (Hey, hey)\nI\'m giving it back so say (Hey, hey)\nShow me some metal and say (Hey, hey, hey, hey)\n\n[Bridge]\nYeah, I saw your band\nJumping around on stage like a bunch of wounded ducks (Psh!)\nWhen you gonna learn sucker?\nYou just can\'t fuck with Twisted Brown Trucker!\n[Verse 3]\nI\'m an American Bad Ass, watch me kick\nYou can roll with Rock or you can suck my dick\nI\'m a porno flick, I\'m like Amazing Grace\nI\'m gonna fuck some hoes after I rock this place\nSuper fly living double wide\nSide car on my Glide so Joe C can ride\nFull sack to share, bringin flash and flair\nGot the long hair swinging, middle finger in the air\nSnake skin suit, 65 Chevelle\nSee me ride in sin hear the rebel yell\nI won\'t live to tell, so if you do\nGive the next generation a big "Fuck you!"\nWho knew I\'d blow up like Oklahoma\nSaid fuck high school, pissed on my diploma\nSmell the aroma, check my hits\nI know it stinks in here, cause I\'m the shit\n\n[Chorus]\nOhhhhh\nThey call me cowboy, I\'m the singer in black\nThrow a finger in the air, let me see where you\'re at\nAnd say (Hey, hey)\nLet me hear where you\'re at and say (Hey, hey)\nI\'m giving it back so say (Hey, hey)\nShow me some metal and say (Hey, hey, hey, hey)\n[Outro]\nI\'m a cowboy, bad ass in black singing\n(Hey, hey, hey, hey)\nFrom side to side, from front to back Say\n(Hey, hey, hey, hey)\nI put Detroit City back on the map by singin\'\n(Hey, hey, hey, hey)\nKid Rock\'s in the house and that\'s where I\'m at!', 'annotations': {'description': '&lt;p&gt;The first song on his second major album, “American Bad Ass” describes Kid Rock in a nutshell – all the things that make up his style and personality and musical influences.  The &lt;a href="http://www.whosampled.com/American-Bad-Ass/Kid-Rock/" rel="noopener nofollow"&gt;song samples&lt;/a&gt; Metallica’s &lt;a href="https://genius.com/Metallica-sad-but-true-lyrics" rel="noopener" data-api_path="/songs/86099"&gt;“Sad But True”&lt;/a&gt; for the main track line, as well as a small piece of “Hobo Scratch” by Malcolm McLaren and World’s Famous Supreme Team.&lt;/p&gt;', 'producers': [{'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}], 'writers': [{'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pitbull-timber-lyrics', 'lyrics': "[Chorus: Kesha]\nIt's goin' down, I'm yellin' timber\nYou better move, you better dance\nLet's make a night you won't remember\nI'll be the one you won't forget\n\n[Post-Chorus: Kesha &amp; Pitbull]\nOoh-ooh (Timber), ooh-ooh (Timber)\nOoh-ooh-ooh-ooh-ooh-ooh (It's goin' down)\nOoh-ooh (Timber), ooh-ooh (Timber)\nOoh-ooh-ooh-ooh-ooh-ooh (It's goin' down)\n(Woo!)\n\n[Verse 1: Pitbull]\nThe bigger they are, the harder they fall\nThis biggity boy's a diggity dog\nI have 'em like Miley Cyrus, clothes off\nTwerking in their bras and thongs (Timber)\nFace down, booty up (Timber)\nThat's the way we like the what (Timber)\nI'm slicker than an oil spill\nShe say she won't, but I bet she will (Timber)\n\n[Pre-Chorus: Pitbull &amp; Kesha]\nSwing your partner 'round and 'round\nEnd of the night, it's goin' down\nOne more shot, another round\nEnd of the night, it's goin' down\nSwing your partner 'round and 'round\nEnd of the night, it's goin' down (Oh-oh-oh)\nOne more shot, another round\nEnd of the night, it's goin' down\n[Chorus: Kesha]\nIt's goin' down, I'm yellin' timber\nYou better move, you better dance\nLet's make a night you won't remember\nI'll be the one you won't forget\nIt's goin' down (It's goin' down), I'm yellin' timber\nYou better move (You better move), you better dance (You better dance)\nLet's make a night you won't remember\nI'll be the one you won't forget (You won't forget)\n\n[Post-Chorus: Kesha &amp; Pitbull]\nOoh-ooh (Timber), ooh-ooh (Timber)\nOoh-ooh-ooh-ooh-ooh-ooh (It's goin' down)\nOoh-ooh (Timber), ooh-ooh (Timber)\nOoh-ooh-ooh-ooh-ooh-ooh (It's goin' down)\n(Woo!)\n\n[Verse 2: Pitbull]\nLook up in the sky, it's a bird? It's a plane?\nNah, it's just me, ain't a damn thing changed\nLive in hotels, swing on planes\nBlessed to say, money ain't a thing\nClub jumping like LeBron, now Voli\nOrder me another round, homie\nWe about to climb, why?\n'Cause it's about to go down\n[Pre-Chorus: Pitbull with Kesha &amp; Kesha]\nSwing your partner 'round and 'round\nEnd of the night, it's goin' down\nOne more shot, another round\nEnd of the night, it's goin' down\nSwing your partner 'round and 'round\nEnd of the night, it's goin' down (Oh-oh-oh)\nOne more shot, another round\nEnd of the night, it's goin' down (It's goin' down)\n\n[Chorus: Kesha]\nIt's goin' down, I'm yellin' timber\nYou better move, you better dance\nLet's make a night you won't remember\nI'll be the one you won't forget\nIt's goin' down (It's goin' down), I'm yellin' timber\nYou better move, you better dance (You better dance)\nLet's make a night (Let's make a night) you won't remember\nI'll be the one (I'll be the one) you won't forget (You won't forget)\n\n[Outro: Kesha &amp; Pitbull]\nWhoa-oh-oh (Timber)\nWhoa-oh-oh (Hey)\nWoah-oh-oh-oh-oh-oh-oh-oh (It's goin' down)\n(Pitbull) Woah-oh-oh (Oh)\nWhoa-oh-oh\nWoah-oh-oh-oh-oh-oh-oh-oh (It's goin' down)\nWhoa-oh-oh (Timber)\nWhoa-oh-oh (Come on)\nWoah-oh-oh-oh-oh-oh-oh-oh (It's goin' down)\n(It's goin' down)\nWhoa-oh-oh (Timber)\nWhoa-oh-oh (You won't forget)\nWoah-oh-oh-oh-oh-oh-oh-oh (Timber)", 'annotations': {'description': '&lt;p&gt;&lt;a href="http://youtu.be/hHUbLv4ThOo" rel="noopener nofollow"&gt;http://youtu.be/hHUbLv4ThOo&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;“Timber” is a song by American rapper Pitbull, featuring recording artist Kesha. The song was released on October 7, 2013 as the lead single from Pitbull’s EP, Meltdown. The song was produced by Dr. Luke, Cirkut, and Sermstyle, with additional production by Nick Seeley. The song interpolates the song “San Francisco Bay”, written by Lee Oskar, Keri Oskar, and Greg Errico.&lt;/p&gt;\n\n&lt;p&gt;The song features harmonica player Paul Harrington of Rockwall, Texas who plays through the entire song. He was told to emulate War harmonica player Lee Oskar.&lt;/p&gt;\n\n&lt;p&gt;In an interview in December 2013, Pitbull revealed that the featured artist on “Timber” was originally supposed to be Rihanna. At the time, however, he stated that Rihanna was already asked to be the featured artist on the lead single off Shakira’s upcoming album and didn’t have time to record “Timber”. Pitbull later asked Ke$ha to be the featured artist and she accepted.&lt;/p&gt;', 'producers': [{'name': 'Nick Seeley', 'url': 'https://genius.com/artists/Nick-seeley'}, {'name': 'Sermstyle', 'url': 'https://genius.com/artists/Sermstyle'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}], 'writers': [{'name': 'Roger Parker', 'url': 'https://genius.com/artists/Roger-parker'}, {'name': 'Buddy Hankerson', 'url': 'https://genius.com/artists/Buddy-hankerson'}, {'name': 'Charles Carter', 'url': 'https://genius.com/artists/Charles-carter'}, {'name': 'Steve Arrington', 'url': 'https://genius.com/artists/Steve-arrington'}, {'name': 'Greg Errico', 'url': 'https://genius.com/artists/Greg-errico'}, {'name': 'Keri Oskar', 'url': 'https://genius.com/artists/Keri-oskar'}, {'name': 'Lee Oskar', 'url': 'https://genius.com/artists/Lee-oskar'}, {'name': 'Pebe Sebert', 'url': 'https://genius.com/artists/Pebe-sebert'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Breyan Isaac', 'url': 'https://genius.com/artists/Breyan-isaac'}, {'name': 'Sermstyle', 'url': 'https://genius.com/artists/Sermstyle'}, {'name': 'Priscilla Renea', 'url': 'https://genius.com/artists/Priscilla-renea'}, {'name': 'Aaron Davis Arnold', 'url': 'https://genius.com/artists/Aaron-davis-arnold'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'Kesha', 'url': 'https://genius.com/artists/Kesha'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Will-smith-gettin-jiggy-wit-it-lyrics', 'lyrics': "[Intro]\n(Bring it)\nWooooo\nUh, uh, uh, uh\nHaha, haha\nWhat, what, what, what\nUh\n\n[Verse 1]\nOn your mark ready set let's go, dance floor pro\nI know you know I go psycho (Woo)\nWhen my new joint hit, just can't sit\nGotta get jiggy wit it, ooh, that's it\nNow honey honey come ride, DKNY\nAll up in my eye, you got a Prada\nBag with a lot-a, stuff in it (Ugh, ugh, ugh)\nGive it to your friend let's spin, everybody lookin' at me\nGlancin' the kid, wishing they was dancin' a jig\nHere with this handsome kid, ciga-cigar\nRight from Cuba-Cuba, I just bite it\nIt's for the look, I don't light it\nIllway the an-may on the ance-day oor-flay (Haha)\nGive it up jiggy make it feel like foreplay (Woo)\nYo my cardio is infinite, ha-ha\nBig Willie style's all in it\nGettin' jiggy wit it\n[Chorus]\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\n\n[Verse 2]\nWhat? You want to ball with the kid?\nWatch your step (Woo), you might fall trying to do what I did\nMama (Ugh) mama (Ugh) mama come closer\nIn the middle of the club with the rub-a-dub, uh\nNo love for the haters, the haters\nMad 'cause I got floor seats at the Lakers\nSee me on the fifty-yard line with the Raiders\nMet Ali—he told me I'm the greatest\nI got the fever for the flavor of a crowd-pleaser\nDJ play another from the prince of this\nYour highness, only mad chicks ride in my whips\nSouth to the West to the East to the North\nBought my hits and watch them go off, a-go off\nAh, yes-yes y'all (Woo), ya don't stop\nIn the winter or the (Summertime), I makes it hot\nGettin' jiggy wit 'em\n[Chorus]\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\n\n[Verse 3]\nEight-fifty I.S. if you need a lift\nWho's the kid in the drop? Who else Will Smith\nLiving that life some consider a myth\nRock from South Street to one-two-fifth\nWomen used to tease me, give it to me now nice and easy\nSince I moved up like George and Weezie\nC.R.E.A.M. to the maximum I be asking 'em\nWould you like to bounce with the brother that's platinum?\nNever see Will attacking 'em\nRather play ball with Shaq and 'em, flatten 'em\nPsych, kidding\nThought I took a spill, but I didn't\nTrust the lady of my life she hitting\nHit her with a drop top with the ribbon\nCrib for my mom on the outskirts of Philly\nYou trying to flex on me?\nDon't be silly\nGettin' jiggy wit it\n[Outro]\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nGettin' jiggy wit it\n(Na na na na na na na)\n(Na na na na na na)\nUh uh\n(Na na na na na na)\n(Na na na na na na)\n(Na na na na na na na)\n(Na na na na na na)\n(Na na na na na na na)\n(Na na na na na na)\n(Na na na na na na na)\n(Na na na na na na)\n(Na na na na na na na)\n(Na na na na na na na)", 'annotations': {'description': '&lt;p&gt;The first hit single from Will’s 1997 album &lt;em&gt;&lt;a href="https://genius.com/albums/Will-smith/Big-willie-style" rel="noopener" data-api_path="/albums/3199"&gt;Big Willie Style&lt;/a&gt;&lt;/em&gt;, this song was so significant that the particular time period in hip-hop from which it came is often called &lt;a href="https://www.vice.com/en_ca/article/vbbwwb/were-very-sorry-but-will-smiths-midlife-crisis-is-officially-here" rel="noopener nofollow"&gt;“The Jiggy Era”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It certainly represents those years in which rap music became ultra mainstream; marked by flashy videos, shiny suits, club-oriented beats, and forgettable lyricism.&lt;/p&gt;\n\n&lt;p&gt;The track samples &lt;a href="https://genius.com/Sister-sledge-hes-the-greatest-dancer-lyrics" rel="noopener" data-api_path="/songs/450391"&gt;“He’s the Greatest Dancer”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Sister-sledge" rel="noopener" data-api_path="/artists/53451"&gt;Sister Sledge&lt;/a&gt; and borrows from the intro of &lt;a href="https://genius.com/artists/The-barkays" rel="noopener" data-api_path="/artists/8978"&gt;The Bar-Kays&lt;/a&gt; song “Sang and Dance”. Nile Rodgers once mentioned that “Gettin\' Jiggy wit It” was &lt;a href="http://twentyfirstcenturymusic.blogspot.ae/2011/11/nile-rodgers-interviewed-by-peter.html" rel="noopener nofollow"&gt;one of his favorite tracks&lt;/a&gt; that sampled his band &lt;a href="https://genius.com/artists/Chic" rel="noopener" data-api_path="/artists/1557518"&gt;Chic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;“Gettin\' Jiggy wit It” went to #1 in the US and reached the top 20 in eight other countries. &lt;em&gt;Billboard&lt;/em&gt; declared it the &lt;a href="https://web.archive.org/web/20090309202636/http://longboredsurfer.com/charts.php?year=1998" rel="noopener nofollow"&gt;#14 song of 1998&lt;/a&gt;. The track also received five Grammy nominations, winning Best Rap Solo Performance.&lt;/p&gt;\n\n&lt;p&gt;Smith &lt;a href="https://web.archive.org/web/20090222201537/http://www.blender.com/guide/articles.aspx?id=1604" rel="noopener nofollow"&gt;told &lt;em&gt;Blender&lt;/em&gt; Magazine&lt;/a&gt; that the single was doing well, but after &lt;a href="https://getyarn.io/yarn-clip/280d0a41-85c6-46c6-8509-068f1cc81c7b" rel="noopener nofollow"&gt;Jerry Seinfeld said the line&lt;/a&gt;, “I was ready to get jiggy with it” on an episode of his show &lt;em&gt;Seinfeld&lt;/em&gt;, that’s when the song ‘just went through the roof’.&lt;/p&gt;\n\n&lt;p&gt;Later, “Gettin\' Jiggy wit It” was featured on the 2004 soundtrack for the film &lt;em&gt;Shark Tale&lt;/em&gt;, which starred Will Smith.&lt;/p&gt;\n\n&lt;p&gt;Although it was once thought that &lt;a href="https://genius.com/artists/Nas" rel="noopener" data-api_path="/artists/56"&gt;Nas&lt;/a&gt; had ghostwritten the song, the rapper revealed in a 2014 &lt;a href="http://hiphopdx.com/news/id.28334/title.nas-says-will-smith-wrote-gettin-jiggy-wit-it-details-career-in-reddit-ama#" rel="noopener nofollow"&gt;Reddit AMA&lt;/a&gt; that “Will Smith wrote that song.”&lt;/p&gt;\n\n&lt;p&gt;“Gettin\' Jiggy wit It” is remembered both positively and negatively by the media. &lt;a href="https://www.stereogum.com/7468/vh1s_greatest_songs_of_the_90s_not_enough_pavement/franchises/list/" rel="noopener nofollow"&gt;VH1 named it&lt;/a&gt; one of the Greatest Songs of the 90s and &lt;a href="https://www.gq.com/story/a-love-letter-to-will-smiths-gettin-jiggy-wit-it-which-has-somehow-aged-perfectly" rel="noopener nofollow"&gt;&lt;em&gt;GQ&lt;/em&gt; said in 2015&lt;/a&gt; that it “somehow aged perfectly”. However, &lt;a href="https://pitchfork.com/features/lists-and-guides/7856-a-feature-about-nothing-the-1990s-in-lists/?page=2" rel="noopener nofollow"&gt;Pitchfork called it&lt;/a&gt; one of the 7 worst songs of the 90s.&lt;/p&gt;', 'producers': [{'name': 'Poke', 'url': 'https://genius.com/artists/Poke'}, {'name': 'Tone', 'url': 'https://genius.com/artists/Tone'}], 'writers': [{'name': 'Will Smith', 'url': 'https://genius.com/artists/Will-smith'}, {'name': 'Poke', 'url': 'https://genius.com/artists/Poke'}, {'name': 'Tone', 'url': 'https://genius.com/artists/Tone'}, {'name': 'Bernard Edwards', 'url': 'https://genius.com/artists/Bernard-edwards'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}, {'name': 'Joey Robinson Jr.', 'url': 'https://genius.com/artists/Joey-robinson-jr'}, {'name': 'David Porter', 'url': 'https://genius.com/artists/David-porter'}, {'name': 'Harvey Henderson', 'url': 'https://genius.com/artists/Harvey-henderson'}, {'name': 'James Alexander', 'url': 'https://genius.com/artists/James-alexander'}, {'name': 'Larry Dodson', 'url': 'https://genius.com/artists/Larry-dodson'}, {'name': 'Willie Hall', 'url': 'https://genius.com/artists/Willie-hall'}, {'name': 'Winston Stewart', 'url': 'https://genius.com/artists/Winston-stewart'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Arctic-monkeys-teddy-picker-lyrics', 'lyrics': '[Verse 1]\nThey\'ve sped up to the point where they provoke\nThe punchline before they have told the joke\nPlenty of desperation to be seen\nStaring at the television screen\nThey\'ve sped up to the point where they provoke\nYou to tell the fucking punchline before you have told the joke\nWell sorry, sunshine, it doesn\'t exist\nIt wasn\'t in the Top 100 list\n\n[Chorus]\nAnd it\'s the thousandth time that it\'s even bolder\nDon\'t be surprised when you get bent over\nThey told you, but you were dying for it\n\n[Post-Chorus]\nShe saw it and she grabbed it and it wasn\'t what it seemed\nThe kids all dream of making it, whatever that means\n\n[Verse 2]\nAnother variation on a theme\nA tangle on the television and the magazine\nD\'you reckon that they do it for a joke?\nD\'you reckon that they make \'em take an oath\nThat says that "We are defenders of any poser\nOr professional pretender around"\n[Chorus]\nAnd when did your list replace the twist and turn\nLike a fist replaced a kiss?\nDon\'t concern us with your bollocks, I don\'t want your prayer\nSave it for the morning after\n\n[Guitar Solo]\n\n[Chorus]\nAnd it\'s the thousandth time that it\'s even bolder\nDon\'t be surprised when you get bent over\nThey told you, but you were gagging for it\n\n[Bridge]\nLet\'s have a game on the teddy picker\nNot quick enough, can I have it quicker?\nAlready thick and you\'re getting thicker\nLet\'s have a game on the teddy picker\nNot quick enough, can I have it quicker?\nAlready thick and you\'re getting thicker\n\n[Outro]\nPresuming that all things are equal\nWho\'d want to be men of the people\nWhen there\'s people like you?', 'annotations': {'description': '&lt;p&gt;This song refers to the striving for fame, and once having it, the not so great side of it. Overall it is essentially be careful what you wish for. The Teddy Picker refers to a claw machine, and going after what you want.&lt;/p&gt;', 'producers': [{'name': 'Mike Crossey', 'url': 'https://genius.com/artists/Mike-crossey'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Wallows-are-you-bored-yet-lyrics', 'lyrics': '[Verse 1: Dylan Minnette with Clairo]\nWhat\'s wrong?\nYou\'ve been asking but I don\'t have an answer\nHow come?\nI\'m still thinking, let\'s pretend to fall asleep now\nWhen we get old, will we regret this?\nToo young to think about all that shit\nAnd stalling only goes so far when you\'ve got a head start\n\n[Chorus: Dylan Minnette with Clairo]\n\'Cause we could stay at home and watch the sunset\nBut I can\'t help from asking, "Are you bored yet?"\nAnd if you\'re feeling lonely you should tell me\nBefore this ends up as another memory\nWill you tell the truth so I don\'t have to lie?\nWill you tell the truth so I don\'t have to lie?\n\n[Verse 2: Clairo]\nFeels like I\'ve known you my whole life\nI can see right through your lies\nI don\'t know where we\'re going\nBut I\'d like to be by your side\nIf you could tell me how you\'re feeling\nMaybe we\'d get through this undefeated\nHolding on for so long\n[Chorus: Dylan Minnette with Clairo]\n\'Cause we could stay at home and watch the sunset\nBut I can\'t help from asking, "Are you bored yet?"\nAnd if you\'re feeling lonely you should tell me\nBefore this ends up as another memory\nWill you tell the truth so I don\'t have to lie?\nWill you tell the truth so I don\'t have to lie?', 'annotations': {'description': '&lt;p&gt;“Are You Bored Yet?” is Wallows\' first-ever feature, a collaboration with singer-songwriter &lt;a href="https://genius.com/artists/Clairo" rel="noopener" data-api_path="/artists/1144133"&gt;Clairo.&lt;/a&gt; The track is also the lead single for the trio’s debut LP &lt;a href="https://genius.com/albums/Wallows/Nothing-happens" rel="noopener" data-api_path="/albums/500711"&gt;&lt;em&gt;Nothing Happens.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Wallows &lt;a href="https://www.clashmusic.com/features/wallows-walk-clash-through-debut-album-nothing-happens" rel="noopener nofollow"&gt;explained the track’s lyrical content to &lt;em&gt;Clash Music:&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Lyrically the song is about the idea of someone being bored with a relationship that you have been in for a while, and the fear that you or the other person is ready to move on.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'John Congleton', 'url': 'https://genius.com/artists/John-congleton'}], 'writers': [{'name': 'Dylan Minnette', 'url': 'https://genius.com/artists/Dylan-minnette'}, {'name': 'Cole Preston', 'url': 'https://genius.com/artists/Cole-preston'}, {'name': 'Clairo', 'url': 'https://genius.com/artists/Clairo'}, {'name': 'Braeden Lemasters', 'url': 'https://genius.com/artists/Braeden-lemasters'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bruce-springsteen-born-in-the-usa-lyrics', 'lyrics': '[Verse 1]\nBorn down in a dead man\'s town\nThe first kick I took was when I hit the ground\nYou end up like a dog that\'s been beat too much\n\'Til you spend half your life just coverin\' up\n[Chorus]\nBorn in the U.S.A\nI was born in the U.S.A\nI was born in the U.S.A\nBorn in the U.S.A\n[Verse 2]\nGot in a little hometown jam\nSo they put a rifle in my hand\nSent me off to a foreign land\nTo go and kill the yellow man\n[Chorus]\nBorn in the U.S.A\nI was born in the U.S.A\nI was born in the U.S.A\nI was born in the U.S.A\n[Verse 3]\nCome back home to the refinery\nHiring man says, "Son if it was up to me"\nWent down to see my V.A. man\nHe said, "Son, don\'t you understand"\n[Verse 4]\nI had a brother at Khe Sanh\nFighting off the Viet Cong\nThey\'re still there, he\'s all gone\nHe had a woman he loved in Saigon\nI got a picture of him in her arms now\n[Verse 5]\nDown in the shadow of the penitentiary\nOut by the gas fires of the refinery\nI\'m ten years burning down the road\nNowhere to run ain\'t got nowhere to go\n[Chorus]\nBorn in the U.S.A\nI was born in the U.S.A. now\nBorn in the U.S.A\nI\'m a long gone Daddy in the U.S.A. now\nBorn in the U.S.A\nBorn in the U.S.A\nBorn in the U.S.A\nI\'m a cool rockin\' Daddy in the U.S.A. now', 'annotations': {'description': '&lt;p&gt;One of Springsteen’s most iconic songs, “Born in the U.S.A.” &lt;a href="http://www.songfacts.com/detail.php?id=1014" rel="noopener nofollow"&gt;is about&lt;/a&gt; the troubled return home of a Vietnam veteran. It’s original working title was “Vietnam Blues”.&lt;/p&gt;\n\n&lt;p&gt;On January 3, 1982, Bruce recorded the demos that would become the &lt;em&gt;Nebraska&lt;/em&gt; album. Born In the U.S.A. was downbeat and somber – a straightforward fit sonically for the song’s sad story.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/E3PkmGgY4iw?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;On April 27, 1982, Springsteen and the E Street Band recorded the hard-rocking version that was released in 1984, infused with a sense of bitter sarcasm that’s at the center of what makes it such a classic. It was internationally successful, &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Bruce+Springsteen&amp;amp;titel=Born+In+The+U%2ES%2EA%2E&amp;amp;cat=s" rel="noopener nofollow"&gt;reaching&lt;/a&gt; the top 20 in nine countries including &lt;a href="https://www.billboard.com/music/bruce-springsteen-the-e-street-band/chart-history" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/26627/bruce-springsteen/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;. It’s is Springsteen’s highest-charting single in the US, peaking at #2.&lt;/p&gt;', 'producers': [{'name': 'Little Steven', 'url': 'https://genius.com/artists/Little-steven'}, {'name': 'Bruce Springsteen', 'url': 'https://genius.com/artists/Bruce-springsteen'}, {'name': 'Chuck Plotkin', 'url': 'https://genius.com/artists/Chuck-plotkin'}, {'name': 'Jon Landau', 'url': 'https://genius.com/artists/Jon-landau'}], 'writers': [{'name': 'Bruce Springsteen', 'url': 'https://genius.com/artists/Bruce-springsteen'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nirvana-come-as-you-are-lyrics', 'lyrics': "[Verse 1]\nCome as you are, as you were\nAs I want you to be\nAs a friend, as a friend\nAs an old enemy\nTake your time, hurry up\nChoice is yours, don't be late\nTake a rest as a friend\nAs an old memoria\n\n[Refrain]\nMemoria\nMemoria\nMemoria\n[Verse 2]\nCome doused in mud, soaked in bleach\nAs I want you to be\nAs a trend, as a friend\nAs an old memoria\n\n[Refrain]\nMemoria\nMemoria\nMemoria\n[Chorus]\nAnd I swear that I don't have a gun\nNo, I don't have a gun\nNo, I don't have a gun\n\n[Guitar Solo]\n\n[Refrain]\nMemoria\nMemoria\nMemoria\nMemoria (No, I don't have a gun)\n\n[Chorus]\nAnd I swear that I don't have a gun\nNo, I don't have a gun\nNo, I don't have a gun\nNo, I don't have a gun\nNo, I don't have a gun\n\n[Refrain]\nMemoria\nMemoria", 'annotations': {'description': '&lt;p&gt;Initially thought to have great crossover potential by their management, “Come As You Are” was intended be the main single on Nirvana’s second album, &lt;a href="https://genius.com/albums/Nirvana/Nevermind" rel="noopener" data-api_path="/albums/11569"&gt;&lt;em&gt;Nevermind&lt;/em&gt;&lt;/a&gt;.   (&lt;a href="https://genius.com/Nirvana-smells-like-teen-spirit-lyrics" rel="noopener" data-api_path="/songs/52968"&gt;“Smells Like Teen Spirit”&lt;/a&gt; was imagined as more for committed grunge fans.) However, the surprise success of &lt;a href="https://genius.com/Nirvana-smells-like-teen-spirit-lyrics" rel="noopener" data-api_path="/songs/52968"&gt;“Smells Like Teen Spirit”&lt;/a&gt;, which came to be considered their signature song, made this plan inconsequential. Despite this overshadowing, the song had good commercial success, peaking at 32 on the Billboard and 9 on the UK singles charts.&lt;/p&gt;\n\n&lt;p&gt;The song’s lyrics appear to have a foreshadowing tone given Cobain’s death by self-inflicted gunshot wound. However, in the context of the song they seem to be an ironic comment about people’s bad intentions.&lt;/p&gt;\n\n&lt;p&gt;Kurt Cobain spoke about the lyrics on &lt;a href="https://www.youtube.com/watch?v=VpLZ8IpIZuc" rel="noopener nofollow"&gt;&lt;em&gt;Nevermind: It’s An Interview&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The lines in the song are really contradictory. One after another they are kind of a rebuttal to each line. It’s kind of confusing I guess. It’s just about people and what they are expected to act like.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song’s distinctive guitar riff was heavily borrowed from Killing Joke’s song “The Eighties,” a fact that made the band hesitate to release the song as a single. Nirvana manager Danny Goldberg told Rolling Stone:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Kurt was nervous about ‘Come as You Are’ because it was too similar to a Killing Joke song “Eighties”, but we all thought it was still the better song to go with. And, he was right, Killing Joke later did complain about it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Despite their complaints, Killing Joke never filed suit against Nirvana.&lt;/p&gt;\n\n&lt;p&gt;The song also includes a rare extended guitar solo for Cobain, whose immersion in stripped-down punk aesthetics meant he didn’t often engage in musical self-indulgence. Producer Butch Vig recalled:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Kurt really did not play a lot of solos. This one is more of a melodic part based on the vocal melody. It’s not trying to show off pyrotechnics. It complements the melody of the song.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In Aberdeen, Washington, which is the birthplace of Cobain, he is commemorated by a sign which says “Come as you are”:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/91bb45ce441b33ba6ea0efbb57041dca.1000x664x1.jpg" alt="" width="1000" height="664" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Paramore-still-into-you-lyrics', 'lyrics': "[Verse 1]\nCan't count the years on one hand\nThat we've been together\nI need the other one to hold you\nMake you feel, make you feel better\nIt's not a walk in the park\nTo love each other\nBut when our fingers interlock\nCan't deny, can't deny you're worth it\n\n[Pre-Chorus]\n'Cause after all this time, I'm still into you\n\n[Chorus]\nI should be over all the butterflies\nBut I'm into you (I'm into you)\nAnd baby even on our worst nights\nI'm into you (I'm into you)\nLet 'em wonder how we got this far\n'Cause I don't really need to wonder at all\nYeah, after all this time, I'm still into you\n\n[Verse 2]\nRecount the night that I first met your mother\nAnd on the drive back to my house\nI told you that, I told you that I loved ya\nYou felt the weight of the world\nFall off your shoulder\nAnd to your favorite song\nWe sang along to the start of forever\n[Pre-Chorus]\nAnd after all this time, I'm still into you\n\n[Chorus]\nI should be over all the butterflies\nBut I'm into you (I'm into you)\nAnd baby, even on our worst nights\nI'm into you (I'm into you)\nLet 'em wonder how we got this far\n'Cause I don't really need to wonder at all\nYeah, after all this time, I'm still into you\n\n[Bridge]\nWell, some things just, some things just make sense\nAnd one of those is you and I (Hey)\nSome things just, some things just make sense\nAnd even after all this time (Hey)\nI'm into you\nBaby, not a day goes by\nThat I'm not into you\n\n[Chorus]\nI should be over all the butterflies\nBut I'm into you (I'm into you)\nAnd baby, even on our worst nights\nI'm into you (I'm into you)\nLet 'em wonder how we got this far\n'Cause I don't really need to wonder at all\nYeah, after all this time, I'm still into you\n[Outro]\nI'm still into you\nI'm still into you", 'annotations': {'description': '&lt;p&gt;A very upbeat and happy number off their fourth studio album, &lt;em&gt;Paramore&lt;/em&gt;, that seems to wrap up lead singer Hayley Williams and lead singer of band &lt;em&gt;What’s Eating Gilbert&lt;/em&gt;/&lt;em&gt;New Found Glory&lt;/em&gt; guitarist Chad Gilbert’s relationship. Still into You is the ninth track on the album and the second to be released as a single.&lt;/p&gt;\n\n&lt;p&gt;Still Into You peaked at No. 24 on the Billboard Hot 100, at the time the second-highest a Paramore song had ever reached. Hayley talked about its commercial success when the song was played during her hosting appearance on the Sirius XM Hits 1 Weekend Countdown:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This song, I’m so so happy that this song is getting played on the radio. It’s probably my favorite Paramore song that we’ve ever written, actually. It’s about commitment to that one person that you just fall in love with and you have to just choose and you have to work so hard to stay in love. It’s not an easy task. It’s not a walk in the park, if you will.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;She told &lt;a href="http://www.pmoreonline.com/english/saturday-night-online-interviews-hayley-and-jeremy" rel="noopener nofollow"&gt;DIY&lt;/a&gt; that during the writing process, she knew it had the potential to be big.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Still Into You was one that five minutes into writing, it scared me. I loved it so much that it really actually scared me. Like, I feel like this is a big song, but you never know.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Still, Hayley said during the band’s interview on Good Morning America that the song nearly wasn’t released as a single:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We just didn’t think that a love song would work as a Paramore hit. But we’ve always loved it. It was just like really? That’s going to work?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song highlights the band’s shift to more of a pop sound, something they had reservations about doing, especially when it came to the song’s chorus. Hayley said in &lt;a href="http://www.youtube.com/watch?v=rDCPaxEmiqw" rel="noopener nofollow"&gt;Still Into You’s Beyond the Video&lt;/a&gt;, “When we got to the chorus I remember asking Taylor. I was like, “Is this too poppy? Can I do this? Can I say it like this or can I sing it like this?” And I just remember Taylor being like, “Do you like it?” And I was like, “I love it!” And he was like, then who cares, just do it anyways. I think that’s sort of a testament to how the entire writing and recording process went. If we liked something and we believed in it, we did it. We didn’t back down from it just because it was different.”&lt;/p&gt;\n\n&lt;p&gt;Hayley &lt;a href="https://www.youtube.com/watch?v=ThMb45jhvlc#t=504" rel="noopener nofollow"&gt;talked to Fuse&lt;/a&gt; about Chad’s reaction when she first showed him the song.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;He got super shy. He didn’t look at me the whole time that we listened to it. Of course I was super psyched like, ‘Look at this song about you! YEAH!’ I’m psyched because Paramore, we don’t have a lot of love songs. I can probably count on one hand how many happy, positive songs that we’ve ever written. So I’ve just always been super emo at heart. So yeah, I’m just really excited that we have a song like this. Because it feels so good.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Justin Meldal-Johnsen', 'url': 'https://genius.com/artists/Justin-meldal-johnsen'}], 'writers': [{'name': 'Taylor York', 'url': 'https://genius.com/artists/Taylor-york'}, {'name': 'Hayley Williams', 'url': 'https://genius.com/artists/Hayley-williams'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Spiderbait-black-betty-lyrics', 'lyrics': "Whoa, Black Betty (Bam-ba-lam)\nYeah, Black Betty (Bam-ba-lam)\nBlack Betty had a child (Bam-ba-lam)\nDamn thing gone wild (Bam-ba-lam)\nShe's always ready (Bam-ba-lam)\nShe's so rock steady (Bam-ba-lam)\nWhoa, Black Betty (Bam-ba-lam)\nYeah, Black Betty (Bam-ba-lam)\n\nAlright!\n\nWhoa, Black Betty (Bam-ba-lam)\nYeah, Black Betty (Bam-ba-lam)\nShe really gets me high (Bam-ba-lam)\nYou know that's no lie (Bam-ba-lam)\nShe's always ready (Bam-ba-lam)\nShe's so rock steady (Bam-ba-lam)\nWhoa, Black Betty (Bam-ba-lam)\nYeah, Black Betty (Bam-ba-lam)\n\nYeah!\n\nOh yeah, alright\nOh yeah, alright\nOh yeah, alright\nOh yeah!\nOh yeah!\nWhoa, Black Betty (Bam-ba-lam)\nYeah, Black Betty (Bam-ba-lam)\nShe's from Birmingham (Bam-ba-lam)\nWay down in Alabam' (Bam-ba-lam)\nBlack Betty had a child (Bam-ba-lam)\nDamn thing gone blind (Bam-ba-lam)\nWhoa, Black Betty (Bam-ba-lam)\nYeah, Black Betty (Bam-ba-lam)\n\nOh yeah\nAlright\nOh yeah!\nOh yeah\nBam-ba-lam!", 'annotations': {'description': '&lt;p&gt;This cover of Ram Jam’s classic is prominently featured in the soundtrack for Need for Speed Underground 2.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/49c20ef2e04f69888c190b56c69df7fa.256x364x1.jpg" alt="" width="256" height="364" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Sylvia Massy Shivy', 'url': 'https://genius.com/artists/Sylvia-massy-shivy'}], 'writers': [{'name': 'Lead Belly', 'url': 'https://genius.com/artists/Lead-belly'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Billie-eilish-ocean-eyes-lyrics', 'lyrics': "[Verse 1]\nI've been watchin' you for some time\nCan't stop starin' at those ocean eyes\nBurning cities and napalm skies\nFifteen flares inside those ocean eyes\nYour ocean eyes\n\n[Chorus]\nNo fair\nYou really know how to make me cry\nWhen you give me those ocean eyes\nI'm scared\nI've never fallen from quite this high\nFallin' into your ocean eyes\nThose ocean eyes\n\n[Verse 2]\nI've been walkin' through a world gone blind\nCan't stop thinkin' of your diamond mind\nCareful creature made friends with time\nHe left her lonely with a diamond mind\nAnd those ocean eyes\n\n[Chorus]\nNo fair (No fair)\nYou really know how to make me cry\nWhen you give me those ocean eyes (Those ocean eyes)\nI'm scared (I'm scared)\nI've never fallen from quite this high\nFallin' into your ocean eyes\nThose ocean eyes\n[Bridge]\n(Seye naeco esoht)\n(Seye naeco ruoy otni 'nillaf)\nDa-da-da-da-da, da-da-da-da-da (Hgih siht etiuq morf nellaf reven ev'I)\n(Deracs m'I) Da-da-da-da-da-da\nDa-da-da (Seye naeco esoht em evig uoy nehw)\nMmm (Yrc em ekam ot woh wonk yllaer uoy)\nMmm (Riaf on)\n\n[Chorus]\nNo fair\nYou really know how to make me cry\nWhen you give me those ocean eyes\nI'm scared\nI've never fallen from quite this high\nFallin' into your ocean eyes\nThose ocean eyes", 'annotations': {'description': '&lt;p&gt;“ocean eyes” is the debut single from then 13-year-old Billie Eilish. She posted the song on SoundCloud where it organically went viral, generating over a million plays. The song has been officially remixed four times, featured in the extended play, &lt;a href="https://genius.com/albums/Billie-eilish/Ocean-eyes-the-remixes" rel="noopener" data-api_path="/albums/358403"&gt;&lt;em&gt;Ocean Eyes (The Remixes)&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In this song, Billie Eilish puts herself in the position of someone she hurt deeply, trying to understand what they went through.&lt;/p&gt;\n\n&lt;p&gt;The track has two music videos, with the first being the &lt;a href="https://www.youtube.com/watch?v=viimfQi_pUw" rel="noopener nofollow"&gt;original, homemade version.&lt;/a&gt; It features Eilish against a flowing curtain, singing soulfully to the camera, filmed in one take on her own property. She goes on to talk more about the process of making the music video on a &lt;a href="http://youtu.be/85zda2P4-E" rel="noopener nofollow"&gt;YouTube video with FBE&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This was the day after my birthday that we shot this. I had just turned 14. They put makeup on me that I did not want, and they did my hair very fucking weird. The difference between a 13-year-old and then a 16-year-old is so different.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The second is a &lt;a href="https://youtu.be/hG4lT4fxj8M" rel="noopener nofollow"&gt;dance video,&lt;/a&gt; highlighting Eilish’s passion for dance with vivid, interpretive choreography.&lt;/p&gt;', 'producers': [{'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'writers': [{'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Darkroom Records', 'url': 'https://genius.com/artists/Darkroom-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Madonna-express-yourself-lyrics', 'lyrics': "[Intro]\n(Hoo!)\n(Hoo!)\nCome on, girls!\nDo you believe in love?\n'Cause I got something to say about it\nAnd it goes something like this\n\n[Chorus]\nDon't go for second best, baby\nPut your love to the test\nYou know, you know, you've got to\nMake him express how he feels\nAnd maybe then you'll know your love is real\n\n[Verse 1]\nYou don't need diamond rings\nOr eighteen karat gold\nFancy cars that go very fast\nYou know they never last, no no\nWhat you need is a big strong hand\nTo lift you to your higher ground\nMake you feel like a queen on a throne\nMake him love you 'til you can't come down\n(You'll never come down)\n[Chorus]\nDon't go for second best, baby\nPut your love to the test\nYou know, you know, you've got to\nMake him express how he feels\nAnd maybe then you'll know your love is real\n\n[Verse 2]\nLong stem roses are the way to your heart\nBut he needs to start with your head\nSatin sheets are very romantic\nWhat happens when you're not in bed?\nYou deserve the best in life\nSo if the time isn't right, then move on\nSecond best is never enough\nYou'll do much better, baby, on your own\n(Baby, on your own)\n\n[Chorus]\nDon't go for second best, baby\nPut your love to the test\nYou know, you know, you've got to\nMake him express how he feels\nAnd maybe then you'll know your love is real\n\nExpress yourself\nYou've got to make him express himself\nHey, hey, hey, hey\nSo if you want it right now, make him show you how\nExpress what he's got, oh baby, ready or not\n[Bridge]\nAnd when you're gone he might regret it\nThink about the love he once had\nTry to carry on, but he just won't get it\nHe'll be back on his knees\nTo express himself\nYou've got to make him express himself\nHey, hey\n\n[Verse 3]\nWhat you need is a big strong hand\nTo lift you to your higher ground\nMake you feel like a queen on a throne\nMake him love you 'til you can't come down\n(You'll never come down)\n\n[Bridge]\nAnd when you're gone he might regret it\nThink about the love he once had\nTry to carry on, but he just won't get it\nHe'll be back on his knees, so please\n\n[Chorus]\nDon't go for second best, baby\nPut your love to the test\nYou know, you know, you've got to\nMake him express how he feels\nAnd maybe then you'll know your love is real\nExpress yourself\nYou've got to make him express himself\nHey, hey, hey, hey\nSo if you want it right now, make him show you how\nExpress what he's got, oh baby, ready or not\n\nExpress yourself\n(You've got to make him) So you can respect yourself\nHey, hey\nSo if you want it right now, make him show you how\nExpress what he's got, oh baby, ready or not\nExpress yourself", 'annotations': {'description': '&lt;p&gt;“Express Yourself” was the second single released from Madonna’s &lt;em&gt;Like a Prayer&lt;/em&gt;. The anthemic ode to female empowerment was originally a sonic homage to the ‘70s funk-soul of &lt;a href="https://genius.com/artists/Sly-and-the-family-stone" rel="noopener" data-api_path="/artists/19504"&gt;Sly &amp;amp; The Family Stone&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-staple-singers" rel="noopener" data-api_path="/artists/36507"&gt;The Staples Singers&lt;/a&gt;. For radio (and dance clubs) the song was completely overhauled into an electronic-pop banger via a now-legendary &lt;a href="https://genius.com/Madonna-express-yourself-non-stop-express-mix-lyrics" rel="noopener" data-api_path="/songs/4412003"&gt;remix&lt;/a&gt; by &lt;a href="https://genius.com/artists/Shep-pettibone" rel="noopener" data-api_path="/artists/60709"&gt;Shep Pettibone&lt;/a&gt; . (A version of which was immortalized on the 1990 greatest hits package &lt;a href="https://genius.com/albums/Madonna/The-immaculate-collection" rel="noopener" data-api_path="/albums/129524"&gt;&lt;em&gt;The Immaculate Collection&lt;/em&gt;.&lt;/a&gt;)&lt;/p&gt;\n\n&lt;p&gt;Abetted by a gorgeously elaborate music video directed by David Fincher, “Express Yourself” became a world-wide hit (it reached #2 on the Billboard Hot 100, #5 on the UK singles chart, and #1 on the Billboard Dance chart) and a staple in Madonna’s live sets.&lt;/p&gt;\n\n&lt;p&gt;Musically, Madonna reworked themes from the song &lt;a href="https://genius.com/The-staple-singers-respect-yourself-lyrics" rel="noopener" data-api_path="/songs/449547"&gt;“Respect Yourself”&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-staple-singers" rel="noopener" data-api_path="/artists/36507"&gt;The Staple Singers&lt;/a&gt;, which was meant to be an empowering song for the African-American community during the Civil Rights Movement in the 1960s. Madonna flipped the song and created an empowering feminist song, creating a turning point in 1980s feminism.&lt;/p&gt;', 'producers': [{'name': 'Stephen Bray', 'url': 'https://genius.com/artists/Stephen-bray'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Stephen Bray', 'url': 'https://genius.com/artists/Stephen-bray'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Sire Records', 'url': 'https://genius.com/artists/Sire-records'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Chaka-khan-i-feel-for-you-lyrics', 'lyrics': "MELLE MEL:\nChaka, Chaka, Chaka, Chaka Khan\nChaka Khan, Chaka Khan, Chaka Khan\nChaka Khan, let me rock you\nLet me rock you, Chaka Khan\nLet me rock you, that's all I wanna do\nChaka Khan, let me rock you\nLet me rock you, Chaka Khan\nLet me rock you, let me feel for you\nChaka Khan let me tell you what I wanna do\nDo you feel for me, the way I feel for you\nChaka Khan let me tell you what I wanna do\nI wanna love you, wanna hug you, wanna squeeze you too\nLet me take you in my arms\nLet me fill you with my charms, Chaka\nCause you know that I'm the one to keep you warm\nChaka, I'll make you more than just a physical dream\nI wanna rock you, Chaka\nBaby, cause you make me wanna scream\nLet me rock you, rock you\n\nBaby, baby, when I look at you\nI get a warm feeling inside\nThere's something about the things you do\nThat keeps me satisfied\nI wouldn't lie to you, baby\nIt's mainly a physical thing\nThis feeling that i got for you, baby\nMakes me wanna sing\n\nChorus:\nI feel for you\nI think I love you\nI feel for you\nI think I love you\n\nMELLE MEL:\nChaka Khan, let me rock you\nLet me rock you, Chaka Khan\nLet me rock you, that's all I wanna do\nChaka Khan, let me rock you\nLet me rock you, Chaka Khan\nLet me rock you, let me feel for you\nFeel for you\n\nBaby, baby, when I lay with you\nThere's no place I'd rather be\nI can't believe, can't believe it's true\nThe things that you do to me\n\nI wouldn't lie to you, baby\nI'm physically attracted to you\nThis feeling that I got for you, baby\nThere's nothing that I wouldn't do\nChorus:\nI feel for you\nI think I love you\nI feel for you\nI think I love you\n\nYes sir, one more time\nSay yeah\nI feel for you (I think I love you)\nI feel for you (I, I, I think I love you)\n\nMELLE MEL:\nChaka, Chaka, Chaka, Chaka Khan\nChaka Khan, Chaka Khan, Chaka Khan\nChaka Khan, let me rock you\nLet me rock you, Chaka Khan\nLet me rock you, that's all I wanna do\nChaka Khan, let me rock you\nLet me rock you, Chaka Khan\nLet me rock you, let me feel for you\nChaka Khan let me tell you what I wanna do\nDo you feel for me, the way I feel for you\nChaka Khan let me tell you what I wanna do\nI wanna love you, wanna hug you, wanna squeeze you too\nLet me take you in my arms\nLet me fill you with my charms, Chaka\nCause you know that I'm the one to keep you warm\nChaka, I'll make you more than just a physical dream\nI wanna rock you, Chaka\nBaby, cause you make me wanna scream\nLet me rock you, rock you\nI feel for you (Oooh, feel for you)\nI feel it too (Oooh, feel for you)\nI feel for you (Oooh, feel for you)\n\nChorus:\nI feel for you\nI think I love you\nI feel for you\nI think I love you\nI feel for you\nI think I love you\nI feel for you\nI think I love you\nI feel for you\nI think I love you\nI feel for you\nI think I love you", 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mel&lt;/a&gt;’s lines are his own; &lt;a href="https://genius.com/artists/Chaka-khan" rel="noopener" data-api_path="/artists/5116"&gt;Chaka Khan&lt;/a&gt;’s lines are almost all from &lt;a href="https://genius.com/artists/Prince" rel="noopener" data-api_path="/artists/660"&gt;Prince&lt;/a&gt;’s &lt;a href="https://genius.com/Prince-i-feel-for-you-lyrics" rel="noopener" data-api_path="/songs/435754"&gt;original version&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Fun Fact:&lt;/strong&gt; The &lt;a href="https://genius.com/artists/Pointer-sisters" rel="noopener" data-api_path="/artists/44020"&gt;Pointer Sisters&lt;/a&gt; &lt;em&gt;really&lt;/em&gt; wanted to run wild on “I Feel for You” two years before Chaka Khan released this single. Their producer &lt;a href="https://genius.com/artists/Richard-perry" rel="noopener" data-api_path="/artists/151285"&gt;Richard Perry&lt;/a&gt; insisted that it didn’t suit the group’s act.&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;(Source: &lt;a href="https://genius.com/artists/Ruth-pointer" rel="noopener" data-api_path="/artists/387241"&gt;Ruth Pointer&lt;/a&gt;’s autobiography, &lt;em&gt;&lt;a href="http://www.thepointersisters.com/news-reviews/entry/ruth-pointer-s-autobiography-still-so-excited-my-life-as-a-pointer-sister-hardcover-release-date-february-1-2016-triumph-books" rel="noopener nofollow"&gt;Still So Excited! My Life as a Pointer Sister&lt;/a&gt;&lt;/em&gt;)&lt;/small&gt;&lt;/p&gt;', 'producers': [{'name': 'Arif Mardin', 'url': 'https://genius.com/artists/Arif-mardin'}], 'writers': [{'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Fergie-big-girls-dont-cry-personal-lyrics', 'lyrics': "[Intro]\nLa, da, da, da\n\n[Verse 1]\nThe smell of your skin lingers on me now\nYou're probably on your flight back to your hometown\nI need some shelter of my own protection, baby\nBe with myself and center\nClarity, peace, serenity\n\n[Chorus]\nI hope you know, I hope you know\nThat this has nothing to do with you\nIt's personal, myself and I\nWe got some straightening out to do\nAnd I'm gonna miss you like a child misses their blanket\nBut I've got to get a move on with my life\nIt's time to be a big girl now\nAnd big girls don't cry\nDon't cry, don't cry, don't cry\n\n[Verse 2]\nThe path that I'm walking, I must go alone\nI must take the baby steps 'til I'm full grown, full grown\nFairytales don't always have a happy ending, do they?\nAnd I foresee the dark ahead if I stay\n[Chorus]\nI hope you know, I hope you know\nThat this has nothing to do with you\nIt's personal, myself and I\nWe got some straightening out to do\nAnd I'm gonna miss you like a child misses their blanket\nBut I've got to get a move on with my life\nIt's time to be a big girl now\nAnd big girls don't cry\n\n[Bridge]\nLike the little schoolmate in the school yard\nWe'll play jacks and UNO cards\nI'll be your best friend and you'll be my Valentine\nYes, you can hold my hand if you want to\n'Cause I wanna hold yours too\nWe'll be playmates and lovers\nAnd share our secret worlds\nBut it's time for me to go home\nIt's getting late and dark outside\nI need to be with myself and center\nClarity, peace, serenity, yeah\n\n[Chorus]\nI hope you know, I hope you know\nThat this has nothing to do with you\nIt's personal, myself and I\nWe got some straightening out to do\nAnd I'm gonna miss you like a child misses their blanket\nBut I've got to get a move on with my life\nIt's time to be a big girl now\nAnd big girls don't cry\nDon't cry, don't cry, don't cry\n[Outro]\nLa, da, da, da, da, da", 'annotations': {'description': '&lt;p&gt;“Big Girls Don’t Cry” serves as the tenth track from &lt;a href="https://genius.com/artists/Fergie" rel="noopener" data-api_path="/artists/950"&gt;Fergie&lt;/a&gt;’s debut studio album, &lt;a href="https://genius.com/Fergie-big-girls-dont-cry-personal-lyrics" rel="noopener" data-api_path="/songs/268843"&gt;&lt;em&gt;The Dutchess&lt;/em&gt;&lt;/a&gt; and was released as the fourth single from the album. The song became the third number one single from the album, making Fergie the first female artist to have three number one singles from a single album since &lt;a href="https://genius.com/artists/Christina-aguilera" rel="noopener" data-api_path="/artists/1211"&gt;Christina Aguilera&lt;/a&gt; achieved the record seven years prior. The song was also present on the Hot 100 for nearly a year and reached the top 10 within nearly every international music market.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': 'Toby Gad', 'url': 'https://genius.com/artists/Toby-gad'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ellie-goulding-burn-lyrics', 'lyrics': "[Verse 1]\nWe, we don't have to worry 'bout nothing\n'Cause we got the fire\nAnd we're burning one hell of a something\nThey, they gonna see us from outer space\nOuter space, light it up\nLike we're the stars of the human race, human race\n\n[Chorus]\nWhen the lights turned down, they don't know what they heard\nStrike the match, play it loud, giving love to the world\nWe'll be raising our hands, shining up to the sky\n'Cause we got the fire, fire, fire\nYeah, we got the fire, fire, fire\n\n[Hook]\nAnd we gonna let it burn, burn, burn, burn\nWe gonna let it burn, burn, burn, burn\nGonna let it burn, burn, burn, burn\nWe gonna let it burn, burn, burn, burn\n\n[Verse 2]\nWe don't wanna leave\nNo, we just wanna be right now, right, ri-ri-right now\nAnd what we see, is everybody's on the floor\nActing crazy, getting loco 'til the light's out\nMusic's on, I'm waking up\nWe start the fire, and we burn it up\nAnd it's over now, we got the love\nThere's no sleeping now, no sleeping now, sleeping now\n[Chorus]\nWhen the lights turned down, they don't know what they heard\nStrike the match, play it loud, giving love to the world\nWe'll be raising our hands, shining up to the sky\n'Cause we got the fire, fire, fire\nYeah, we got the fire, fire, fire\n\n[Hook]\nAnd we gonna let it burn, burn, burn, burn\nWe gonna let it burn, burn, burn, burn\nGonna let it burn, burn, burn, burn\nWe gonna let it burn, burn, burn, burn\n\n[Bridge 1]\nWhen the lights turned down, they don't know what they heard\nStrike the match, play it loud, giving love to the world\nWe gonna let it burn, burn, burn, burn, burn, burn (ooh)\nBurn, burn, burn, burn, burn, burn (ooh)\n\n[Bridge 2]\nWe can light it up, up, up\nSo they can't put it out, out, out\nWe can light it up, up, up\nSo they can't put it out, out, out\nWe can light it up, up, up\nSo they can't put it out, out, out\nWe can light it up, up, up\nSo they can't put it out, out, out\n[Chorus]\nWhen the lights turned down, they don't know what they heard\nStrike the match, play it loud, giving love to the world\nWe'll be raising our hands, shining up to the sky\n'Cause we got the fire, fire, fire\nYeah, we got the fire, fire, fire\n\n[Hook]\nAnd we gonna let it burn, burn, burn, burn\nWe gonna let it burn, burn, burn, burn\nGonna let it burn, burn, burn, burn\nWe gonna let it burn, burn, burn, burn (let it burn)\n\n[Outro]\nWhen the lights turned down, they don't know what they heard\nStrike the match, play it loud, giving love to the world\nWe'll be raising our hands, shining up to the sky (burn, burn, burn, burn, we gonna let it burn, burn, let it burn)\n'Cause we got the fire, fire, fire\nYeah, we got the fire, fire, fire\nAnd we're gonna let it burn", 'annotations': {'description': '&lt;p&gt;“Burn” is a song by English recording artist Ellie Goulding from &lt;em&gt;Halcyon Days&lt;/em&gt; (2013), the reissue of her second studio album, &lt;em&gt;Halcyon&lt;/em&gt; (2012). Originally a &lt;a href="http://www.youtube.com/watch?v=d2Nl45PeZYg" rel="noopener nofollow"&gt;demo by Leona Lewis&lt;/a&gt;, “Burn” was released by Goulding in July 2013 as the lead single from the reissue.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/1135e86a3474211eb0e0476eb5e36f41.1000x562x1.jpg" alt="" width="1000" height="562" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Upon its release, “Burn” was met with a mixed response from music critics. They recognized that it may be the &lt;a href="http://www.digitalspy.com/music/review/a502434/ellie-goulding-burn-single-review.html#~pgrMmf8Fq3LHmT" rel="noopener nofollow"&gt;“radio-friendly”&lt;/a&gt; hit she needed, but questioned whether it would be the &lt;a href="http://popcrush.com/ellie-goulding-burn/" rel="noopener nofollow"&gt;“pivotal track which will elevate her career even further in the mainstream radio world.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;It sold 116,857 copies in its first week and became Goulding’s first number-one single on the UK Singles Chart, where it would stay for three consecutive weeks.&lt;/p&gt;\n\n&lt;p&gt;The track achieved similar success internationally, reaching the top ten in Australia, Austria, Belgium, Germany, Ireland, Italy, New Zealand and Sweden. It was Goulding’s third single to reach the top twenty in the United States.&lt;/p&gt;', 'producers': [{'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}], 'writers': [{'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}], 'labels': [{'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Haircut-100-favourite-shirts-boy-meets-girl-lyrics', 'lyrics': "Time can't afford no time\nCan't afford the rhyme\nNevermind, someday maybe\nBoy meets girl\nAnd love, love is on it's way\nBoy meets girl\nBoy meets girl\nBang, feel a little love\nCarino dime\nNever mind, someday Terry\nFeel the pain\nHit, feel, rap, sweat\nWhy, feel the floor\nSweets for my way\nBoy meets girl\nBoy meets girl\nWhy, feel the floor\nSweets for my way\nBoy meets girl\nBoy meets girl\nFeel the rhyme\nTake the time\nGo fighting to the top\nGo number one\nStick a honeybun\nYour mind begins to flop\nNow take your steam\nRecall your dream\nHey Camisas\nYour favourite shirt is on the bed\nDo a somersault on your head\nBoy meets girl\nBoy meets girl", 'annotations': {'description': '', 'producers': [{'name': 'Bob Sargeant', 'url': 'https://genius.com/artists/Bob-sargeant'}], 'writers': [{'name': 'Nick Heyward', 'url': 'https://genius.com/artists/Nick-heyward'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Olivia-rodrigo-good-4-u-lyrics', 'lyrics': "[Intro]\n(Ah)\n\n[Verse 1]\nWell, good for you, I guess you moved on really easily\nYou found a new girl and it only took a couple weeks\nRemember when you said that you wanted to give me the world?\n(World)\nAnd good for you, I guess that you've been workin' on yourself\nI guess that therapist I found for you, she really helped\nNow you can be a better man for your brand new girl (Girl)\n\n[Chorus]\nWell, good for you\nYou look happy and healthy, not me\nIf you ever cared to ask\nGood for you\nYou're doin' great out there without me, baby\nGod, I wish that I could do that\nI've lost my mind, I've spent the night\nCryin' on the floor of my bathroom\nBut you're so unaffected, I really don't get it\nBut I guess good for you\n\n[Verse 2]\nWell, good for you, I guess you're gettin' everything you want (Ah)\nYou bought a new car and your career's really takin' off (Ah)\nIt's like we never even happened\nBaby, what the fuck is up with that? (Ah)\nAnd good for you, it's like you never even met me\nRemember when you swore to God I was the only\nPerson who ever got you? Well, screw that, and screw you\nYou will never have to hurt the way you know that I do\n[Chorus]\nWell, good for you\nYou look happy and healthy, not me\nIf you ever cared to ask\nGood for you\nYou're doin' great out there without me, baby\nGod, I wish that I could do that\nI've lost my mind, I've spent the night\nCryin' on the floor of my bathroom\nBut you're so unaffected, I really don't get it\nBut I guess good for you\n\n[Break]\n(Ah-ah-ah-ah)\n(Ah-ah-ah-ah)\n\n[Bridge]\nMaybe I'm too emotional\nBut your apathy's like a wound in salt\nMaybe I'm too emotional\nOr maybe you never cared at all\nMaybe I'm too emotional\nYour apathy is like a wound in salt\nMaybe I'm too emotional\nOr maybe you never cared at all\n[Chorus]\nWell, good for you\nYou look happy and healthy, not me\nIf you ever cared to ask\nGood for you\nYou're doin' great out there without me, baby\nLike a damn sociopath\nI've lost my mind, I've spent the night\nCryin' on the floor of my bathroom\nBut you're so unaffected, I really don't get it\nBut I guess good for you\n\n[Outro]\nWell, good for you, I guess you moved on really easily", 'annotations': {'description': '&lt;p&gt;“good 4 u” is the third single from Olivia Rodrigo’s debut studio album, &lt;a href="https://genius.com/Olivia-rodrigo/Sour" rel="noopener"&gt;&lt;em&gt;SOUR.&lt;/em&gt;&lt;/a&gt; The song’s hook is laced with sarcasm, as Olivia sharply addresses her former partner for quickly moving on from their relationship without much of an issue or any care towards her at all. Like with her previous single, &lt;a href="https://genius.com/Olivia-rodrigo-deja-vu-lyrics" rel="noopener" data-api_path="/songs/6649389"&gt;“deja vu,”&lt;/a&gt; Olivia again experiments musically, this time using drums and a guitar as primary instruments to emphasize her anger building up as the song progresses. Its angsty, pop-rock sound has drawn &lt;a href="https://www.complex.com/music/olivia-rodrigo-single-video-good-4-u" rel="noopener nofollow"&gt;comparisons&lt;/a&gt; to 2000s acts like &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt; and &lt;a href="https://genius.com/artists/Avril-lavigne" rel="noopener" data-api_path="/artists/2224"&gt;Avril Lavigne.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In the &lt;a href="https://www.youtube.com/watch?v=gNi_6U5Pm_o" rel="noopener nofollow"&gt;music video,&lt;/a&gt; Olivia plays a high school cheerleader who is feeling distraught and vindictive over her former partner. She purchases a container of gasoline from a convenience store and appears to destroy her ex’s bedroom, setting it ablaze and causing it to flood. In the final shot, Olivia submerges herself into a lake with glowing red eyes—a subtle homage to the 2009 cult classic &lt;a href="https://www.imdb.com/title/tt1131734/" rel="noopener nofollow"&gt;&lt;em&gt;Jennifer’s Body&lt;/em&gt;&lt;/a&gt; in which Jennifer stares into the camera with bloodshot eyes while swimming in a lake.&lt;/p&gt;\n\n&lt;p&gt;Olivia first teased the song and its music video on April 26, 2021, by posting an &lt;a href="https://www.instagram.com/p/COJYgP_rWYK/" rel="noopener nofollow"&gt;Instagram photo&lt;/a&gt; showing her dressed as a cheerleader. On &lt;a href="https://twitter.com/IMAX/status/1389967269443297283" rel="noopener nofollow"&gt;May 9, 2021,&lt;/a&gt; the song was revealed to be her next single in &lt;em&gt;SOUR&lt;/em&gt;’s &lt;a href="https://www.youtube.com/watch?v=AI53uIAy_BQ&amp;amp;t=110s" rel="noopener nofollow"&gt;album trailer&lt;/a&gt; shown at theatrical screenings of &lt;a href="https://www.imdb.com/title/tt1321510/" rel="noopener nofollow"&gt;&lt;em&gt;In The Heights.&lt;/em&gt;&lt;/a&gt; The next day, its release was officially announced by Olivia on &lt;a href="https://www.instagram.com/p/COsqZJarHaT/" rel="noopener nofollow"&gt;Instagram.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In the US, “good 4 u” debuted at #1 on May 29, 2021, her second chart-topper there. In the UK, it debuted at #2, then held the top spot for five weeks – the most by a guitar-driven song since the four weeks spent by Evanescence’s &lt;a href="https://genius.com/3558511/Evanescence-bring-me-to-life/Bring-me-to-life" rel="noopener" data-api_path="/referents/3558511"&gt;“Bring Me To Life”&lt;/a&gt; in 2003. The song has also topped pop charts in over a dozen more countries around the world.&lt;/p&gt;', 'producers': [{'name': 'Alexander 23', 'url': 'https://genius.com/artists/Alexander-23'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}], 'writers': [{'name': 'Josh Farro', 'url': 'https://genius.com/artists/Josh-farro'}, {'name': 'Hayley Williams', 'url': 'https://genius.com/artists/Hayley-williams'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Keane-this-is-the-last-time-lyrics', 'lyrics': "[Verse 1]\nThis is the last time\nThat I will say these words\nI remember the first time\nThe first of many lies\nSweep it into the corner\nOr hide it under the bed\nSay these things, they go away\nBut they never do\n\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Verse 2]\nThis is the last time\nThat I will show my face\nOne last tender lie and\nThen I'm out of this place\nTread it into the carpet\nOr hide it under the stairs\nYou say that some things never die\nWell, I tried and I tried\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind", 'annotations': {'description': '&lt;p&gt;Tim Rice-Oxley describes the song as “mainly about regret. I was thinking about how you can have a huge amount of affection for someone and yet not have that magic spark that makes you feel like you’re in love … you have a bond with someone but you don’t want to stay with them forever. So you decide to go. But you’re not saying, ’I hate you and I’m leaving.’ You’re trying to say, ‘I think you’re great, but I’ve seen that there’s something more perfect and magical out there for me and I need to find it. But I will always be your friend if you need me.’”&lt;/p&gt;', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Ac-dc-back-in-black-lyrics', 'lyrics': "[Verse 1]\nBack in black, I hit the sack\nI've been too long, I'm glad to be back\nYes, I'm let loose from the noose\nThat's kept me hanging about\nI'm just looking at the sky 'cause it's getting me high\nForget the hearse, 'cause I'll never die\nI got nine lives, cat's eyes\nAbusing every one of them and running wild\n\n[Chorus]\n'Cause I'm back, yes I'm back\nWell, I'm back, yes I'm back\nWell, I'm back, back\nWell, I'm back in black\nYes, I'm back in black\n\n[Verse 2]\nBack in the back of a Cadillac\nNumber one with a bullet, I'm a power pack\nYes, I'm in a bang with a gang\nThey've got to catch me if they want me to hang\n'Cause I'm back on the track and I'm beatin' the flack\nNobody's gonna get me on another rap\nSo, look at me now, I'm just making my play\nDon't try to push your luck, just get out of my way\n[Chorus]\n'Cause I'm back, yes I'm back\nWell, I'm back, yes I'm back\nWell, I'm back, back\nWell, I'm back in black\nYes, I'm back in black\n\n[Guitar Solo]\n\n[Chorus]\nWell, I'm back, yes I'm back\nWell, I'm back, yes I'm back\nWell, I'm back, back\nWell, I'm back in black\nYes, I'm back in black, yow\n\n[Bridge]\nAh, yeah\nOh, yeah\nTake my love\nYeah, yeah\nYeah\nAh, hey yeah\nOoh, yeah\n\n[Chorus]\nWell, I'm back (I'm back)\nBack, well I'm (I'm back)\nBack (I'm back)\nBack (I'm back)\nBack (I'm back)\nBack, back in black\nYes, I'm back in black\n[Outro]\nI've hit the sack\n\n[Guitar Solo]", 'annotations': {'description': '&lt;p&gt;“Back In Black” is the title track off AC/DC’s first album with Brian Johnson, and became its third single. The song is a tribute to deceased frontman Bon Scott. When Brian Johnson was told to write a song, the members said, &lt;a href="https://books.google.com/books?id=qqFNcCPIqI8C&amp;amp;pg=PA113&amp;amp;lpg=PA113" rel="noopener nofollow"&gt;“It can’t be morbid – it has to be for Bon and it has to be a celebration.”&lt;/a&gt; And so they wrote it from Bon’s perpective. The song has since become a mainstay of their concerts, and the riff is one of the most iconic in rock music – for instance, it was the first song &lt;a href="https://genius.com/artists/Kurt-cobain" rel="noopener" data-api_path="/artists/23665"&gt;Kurt Cobain&lt;/a&gt; &lt;a href="https://books.google.com/books?id=b-HqBQAAQBAJ&amp;amp;pg=PT137" rel="noopener nofollow"&gt;learned to play, at the age of 14&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Malcolm Young', 'url': 'https://genius.com/artists/Malcolm-young'}, {'name': 'Angus Young', 'url': 'https://genius.com/artists/Angus-young'}, {'name': 'Brian Johnson', 'url': 'https://genius.com/artists/Brian-johnson'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Albert Productions', 'url': 'https://genius.com/artists/Albert-productions'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Twisted-sister-were-not-gonna-take-it-lyrics', 'lyrics': "[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\n\n[Verse 1]\nWe've got the right to choose, and\nThere ain't no way we'll lose it\nThis is our life, this is our song\nWe'll fight the powers that be, just\nDon't pick our destiny, 'cause\nYou don't know us, you don't belong\n\n[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\n\n[Verse 2]\nOh, you're so condescending\nYour gall is never ending\nWe don't want anything, not a thing from you\nYour life is trite and jaded\nBoring and confiscated\nIf that's your best, your best won't do\n[Refrain]\nWoah-oh-oh\nWoah-oh-oh\nWe're right! (Yeah!)\nWe're free! (Yeah!)\nWe'll fight! (Yeah!)\nYou'll see! (Yeah!)\n\n[Chorus]\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\nOh, we're not gonna take it\nNo, we ain't gonna take it\nOh, we're not gonna take it anymore\nNo way!\n\n[Guitar Solo]\n\n[Refrain]\nWoah-oh-oh\nWoah-oh-oh\nWe're right! (Yeah!)\nWe're free! (Yeah!)\nWe'll fight! (Yeah!)\nYou'll see! (Yeah!)\n[Chorus]\nWe're not gonna take it\nNo, we ain't gonna take it\nWe're not gonna take it anymore\nWe're not gonna take it (No!)\nNo, we ain't gonna take it\nWe're not gonna take it anymore\n(Just you try and make us!)\nOh, we're not gonna take it (Come on!)\nNo, we ain't gonna take it\n(You're all worthless and weak!)\nWe're not gonna take it anymore\n(Now drop and give me twenty!)\nOh, we're not gonna take it (A pledge pin?!)\nNo, we ain't gonna take it (On your uniform!)\nWe're not gonna take it anymore", 'annotations': {'description': '&lt;p&gt;“We’re Not Gonna Take It” is Twisted Sister’s signature song. Snider wrote the song’s hook &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;three years prior to its release&lt;/a&gt; but ‘could never figure out how to write a verse for it’. Studying Mutt Lange’s work with Def Leppard on their 1983 album &lt;em&gt;Pyromania&lt;/em&gt; helped inspire him on how to eventually finish the song.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s most successful song in the US, peaking at #21 in 1984. Its rebellion-meets-cartoon violence video, featuring a storyline similar to (and including an actor from) the film &lt;em&gt;Animal House&lt;/em&gt;, was very popular on MTV that year.&lt;/p&gt;\n\n&lt;p&gt;The song scored its highest peak in New Zealand, &lt;a href="https://charts.nz/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=We%27re+Not+Gonna+Take+It&amp;amp;cat=s" rel="noopener nofollow"&gt;reaching #2&lt;/a&gt; there. In the UK, it was moderately successful, &lt;a href="http://www.officialcharts.com/artist/20262/twisted-sister/" rel="noopener nofollow"&gt;peaking at #58&lt;/a&gt;. The band had four other songs chart higher there in the mid-80s.&lt;/p&gt;\n\n&lt;p&gt;In 1985, the PMRC included “We’re Not Gonna Take It” on their infamous &lt;a href="https://www.rollingstone.com/music/music-lists/pmrcs-filthy-15-where-are-they-now-60601/" rel="noopener nofollow"&gt;‘filthy fifteen’&lt;/a&gt;, citing it for ‘violence’, as part of their campaign to get records they found offensive labeled with a parental advisory sticker. Snider testified in court against them, pointing out, “there is absolutely no violence of any type either sung about or implied anywhere in the song”.&lt;/p&gt;\n\n&lt;p&gt;Due to its similarity to the Christmas song “O Come All Ye Faithful”, with Snider later stating, “turns out I stole the chord progression”, the band released &lt;a href="https://genius.com/Twisted-sister-oh-come-all-ye-faithful-lyrics" rel="noopener" data-api_path="/songs/1467420"&gt;“O Come All Ye Faithful”&lt;/a&gt; on their 2006 holiday album &lt;em&gt;A Twisted Christmas&lt;/em&gt; with the music of “We’re Not Gonna Take It” performed behind the lyrics.&lt;/p&gt;\n\n&lt;p&gt;“We’re Not Gonna Take It” &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;continues to be&lt;/a&gt; a popular choice for sporting events, protests and political rallies, including &lt;a href="http://loudwire.com/twisted-sister-dodged-publicly-shaming-donald-trump-were-not-gonna-take-it/" rel="noopener nofollow"&gt;Trump’s 2016 presidential campaign&lt;/a&gt; – which the band privately asked them to stop doing. In 2009, it was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=twisted+sister#search_section" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; for selling over half-million digital downloads.&lt;/p&gt;\n\n&lt;p&gt;Despite their next single reaching #68 and the lead single of their next album peaking at #53 &lt;a href="https://www.billboard.com/music/twisted-sister/chart-history" rel="noopener nofollow"&gt;in the US&lt;/a&gt;, the band is still often labeled a one hit wonder there. One example is in 2013 when &lt;a href="http://www.vh1.com/news/1243/100-greatest-one-hit-wonders-of-the-80s/" rel="noopener nofollow"&gt;VH1 named the band&lt;/a&gt; the #20 greatest one hit wonder.&lt;/p&gt;', 'producers': [{'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Dee Snider', 'url': 'https://genius.com/artists/Dee-snider'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Metallica-fuel-lyrics', 'lyrics': "[Intro]\nGive me fuel, give me fire\nGive me that which I desire, ooh!\n\n[Verse 1]\nYeah\nTurn on, I see red\nAdrenaline crash and crack my head\nNitro junkie, paint me dead\nAnd I see red\nA hundred plus through black and white\nWar horse, warhead\nFuck 'em man, white-knuckle tight\nThrough black and white\n\n[Chorus]\nOoh, on I burn\nFuel is pumping engines\nBurning hard, loose and clean\nAnd I burn, churning my direction\nQuench my thirst with gasoline\nSo give me fuel, give me fire\nGive me that which I desire\nHey!\n\n[Verse 2]\nTurn on beyond the bone\nSwallow future, spit out home\nBurn your face upon the chrome\nYeah!\nTake the corner, join the crash\nHeadlights, headlines\nAnother Junkie lives too fast\nYeah lives way too fast, fast, fast, ooh\n[Chorus]\nOoh, on I burn\nFuel is pumping engines\nBurning hard, loose and clean\nAnd I burn, churning my direction\nQuench my thirst with gasoline\nSo give me fuel, give me fire\nGive me that which I desire, ooh, yeah-heh\nWhite knuckle tight!\n\n[Guitar Solo]\n\n[Bridge]\nGive me fuel (On I burn, on and on)\nGive me fire (On I burn, on and on)\nMy desire (On I burn, on and on)\n\n[Chorus]\nOoh, on I burn\nFuel is pumping engines\nBurning hard, loose and clean\nAnd I burn, churning my direction\nQuench my thirst with gasoline\nSo give me fuel, give me fire\nGive me that which I desire\nOn I burn", 'annotations': {'description': '&lt;p&gt;This song is one of the most popular tracks from Metallica’s 7th studio album ReLoad. The song is about cars and the adrenalin kick you get off riding fast cars. &lt;em&gt;ReLoad&lt;/em&gt; is one of Metallica’s softer albums but this song is a good head banging type of song with a hard hitting riff and high tempo, to the point “Fuel” remains a mainstay of the band’s concerts.&lt;/p&gt;', 'producers': [{'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}], 'writers': [{'name': 'Kirk Hammett', 'url': 'https://genius.com/artists/Kirk-hammett'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Cyndi-lauper-time-after-time-lyrics', 'lyrics': '[Verse 1]\nLying in my bed\nI hear the clock tick, and think of you\nCaught up in circles\nConfusion is nothing new\nFlashback, warm nights\nAlmost left behind\nSuitcase of memories\nTime after—\n\n[Verse 2]\nSometimes, you picture me\nI\'m walking too far ahead\nYou\'re calling to me\nI can\'t hear what you\'ve said\nThen you say, "Go slow"\nI fall behind\nThe second hand unwinds\n\n[Chorus]\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting\nTime after time\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting (I will be waiting)\nTime after time\n[Verse 3]\nAfter my picture fades\nAnd darkness has turned to gray\nWatching through windows\nYou\'re wondering if I\'m okay\nSecrets stolen from deep inside\nThe drum beats out of time\n\n[Chorus]\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting\nTime after time\n\n[Instrumental Break]\n\n[Bridge]\nYou said, "Go slow"\nI fall behind\nThe second hand unwinds\n\n[Chorus]\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting\nTime after time\nIf you\'re lost, you can look and you will find me\nTime after time\nIf you fall, I will catch you, I\'ll be waiting (I will be waiting)\nTime after time\n[Outro]\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time\nTime after time', 'annotations': {'description': '&lt;p&gt;Written by Lauper, with assistance from Rob Hyman, “Time After Time” is one of the all-time great love ballads. It was Lauper’s first #1 hit and arguably her signature song.&lt;/p&gt;\n\n&lt;p&gt;After Lauper had already recorded the large majority of her debut album—&lt;em&gt;She’s So Unusual&lt;/em&gt;—her producer Rick Chertoff insisted she needed “one more song.” Chertoff introduced her to Hyman and they began working on the song.&lt;/p&gt;\n\n&lt;p&gt;Lauper came up with the title while reading &lt;a href="https://en.wikipedia.org/wiki/TV_Guide" rel="noopener nofollow"&gt;&lt;em&gt;TV Guide&lt;/em&gt;&lt;/a&gt;—&lt;a href="https://en.wikipedia.org/wiki/Time_After_Time_%281979_film%29" rel="noopener nofollow"&gt;&lt;em&gt;Time After Time&lt;/em&gt;&lt;/a&gt; was a 1979 science fiction movie starring &lt;a href="https://en.wikipedia.org/wiki/Malcolm_McDowell" rel="noopener nofollow"&gt;Malcolm McDowell&lt;/a&gt; as H. G. Wells, portraying him inventing a time traveling machine.&lt;/p&gt;\n\n&lt;p&gt;Lauper’s label initially wanted this song to be her first single before she convinced them to go with “Girls Just Want To Have Fun.” In &lt;a href="https://books.google.com/books?id=rkU8DhNi86YC&amp;amp;printsec=frontcover&amp;amp;dq=cyndi+lauper+book&amp;amp;hl=pt-BR&amp;amp;sa=X&amp;amp;ei=Ad29U8eWA-q78gHYk4GwDw&amp;amp;ved=0CCQQ6AEwAQ#v=onepage&amp;amp;q=time%20after%20time&amp;amp;f=false" rel="noopener nofollow"&gt;her memoir&lt;/a&gt;, Lauper recounts:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When the album was completed, the label wanted the first single to be “Time After Time.” But I kept saying to them, “Listen to me—releasing a ballad first defines you in a certain way. You become known as a balladeer, and it can kill your career.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'William Wittman', 'url': 'https://genius.com/artists/William-wittman'}, {'name': 'Rick Chertoff', 'url': 'https://genius.com/artists/Rick-chertoff'}], 'writers': [{'name': 'Cyndi Lauper', 'url': 'https://genius.com/artists/Cyndi-lauper'}, {'name': 'Rob Hyman', 'url': 'https://genius.com/artists/Rob-hyman'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rachel-platten-fight-song-lyrics', 'lyrics': "[Verse 1]\nLike a small boat on the ocean\nSending big waves into motion\nLike how a single word\nCan make a heart open\nI might only have one match\nBut I can make an explosion\n\n[Pre-Chorus]\nAnd all those things I didn't say\nWere wrecking balls inside my brain\nI will scream them loud tonight\nCan you hear my voice this time?\n\n[Chorus]\nThis is my fight song\nTake back my life song\nProve I'm alright song\nMy power's turned on\nStarting right now, I'll be strong\nI'll play my fight song\nAnd I don't really care\nIf nobody else believes\n'Cause I've still got\nA lot of fight left in me\n[Verse 2]\nLosing friends and I'm chasing sleep\nEverybody's worried about me\nIn too deep, say I'm in too deep (In too deep)\nAnd it's been two years, I miss my home\nBut there's a fire burning in my bones\nStill believe\nYeah, I still believe\n\n[Pre-Chorus]\nAnd all those things I didn't say\nWrecking balls inside my brain\nI will scream them loud tonight\nCan you hear my voice this time?\n\n[Chorus]\nThis is my fight song\nTake back my life song\nProve I'm alright song\nMy power's turned on\nStarting right now, I'll be strong\nI'll play my fight song\nAnd I don't really care\nIf nobody else believes\n'Cause I've still got\nA lot of fight left in me\nA lot of fight left in me\n[Bridge]\nLike a small boat on the ocean\nSending big waves into motion\nLike how a single word\nCan make a heart open\nI might only have one match\nBut I can make an explosion\n\n[Chorus]\nThis is my fight song (Hey!)\nTake back my life song (Hey!)\nProve I'm alright song (Hey!)\nMy power's turned on\nStarting right now, I'll be strong (I'll be strong)\nI'll play my fight song\nAnd I don't really care\nIf nobody else believes\n'Cause I've still got\nA lot of fight left in me\n\n[Outro]\nNo, I've still got a lot of fight left in me", 'annotations': {'description': '&lt;p&gt;“Fight Song” is the empowering title track to Rachel Platten’s debut extended play, &lt;a href="https://genius.com/albums/Rachel-platten/Fight-song-ep" rel="noopener" data-api_path="/albums/125038"&gt;&lt;em&gt;Fight Song&lt;/em&gt;&lt;/a&gt;. A year later, the song was included on her debut studio album, &lt;a href="https://genius.com/albums/Rachel-platten/Wildfire" rel="noopener" data-api_path="/albums/139118"&gt;&lt;em&gt;Wildfire&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song’s motivating tone conveys the song’s message to believe in yourself.&lt;/p&gt;', 'producers': [{'name': 'Jon Levine', 'url': 'https://genius.com/artists/Jon-levine'}], 'writers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Jon Levine', 'url': 'https://genius.com/artists/Jon-levine'}, {'name': 'Rachel Platten', 'url': 'https://genius.com/artists/Rachel-platten'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Limp-bizkit-break-stuff-lyrics', 'lyrics': "[Verse 1]\nIt's just one of those days when you don't wanna wake up\nEverything is fucked, everybody sucks\nYou don't really know why, but you wanna justify\nRippin' someone's head off\nNo human contact, and if you interact\nYour life is on contract\nYour best bet is to stay away, motherfucker!\nIt's just one of those days\n\n[Chorus]\nIt's all about the he says/she says bullshit\nI think you better quit lettin' shit slip\nOr you'll be leavin' with a fat lip\nIt's all about the he says/she says bullshit\nI think you better quit talkin' that shit\n\n[Verse 2]\nIt's just one of those days, feelin' like a freight train\nFirst one to complain leaves with a blood stain\nDamn right, I'm a maniac, you better watch your back\n'Cause I'm fuckin' up your program!\nAnd if you're stuck up, you're just lucked up\nNext in line to get fucked up\nYour best bet is to stay away, motherfucker!\nIt's just one of those days\n[Chorus]\nIt's all about the he says/she says bullshit\nI think you better quit lettin' shit slip\nOr you'll be leavin' with a fat lip\nIt's all about the he says/she says bullshit\nI think you better quit talkin' that shit\nPunk, so come and get it\n\n[Bridge]\nI feel like shit\nMy suggestion is to keep your distance\n'Cause right now I'm dangerous\nWe've all felt like shit and been treated like shit\nAll those motherfuckers that want to step up\nI hope you know I pack a chainsaw\nI'll skin your ass raw\nAnd if my day keeps goin' this way\nI just might break somethin' tonight\nI pack a chainsaw\nI'll skin your ass raw\nAnd if my day keeps goin' this way\nI just might break somethin' tonight\nI pack a chainsaw\nI'll skin your ass raw\nAnd if my day keeps goin' this way\nI just might break your fuckin' face tonight!\nGive me somethin' to break\nGive me somethin' to break\nJust give me somethin' to break\nHow 'bout your fuckin' face?\nI hope you know I pack a chainsaw (What?)\nA chainsaw (What?)\nA motherfuckin' chainsaw (What?)\nSo come and get it\n[Chorus]\nIt's all about the he says/she says bullshit\nI think you better quit lettin' shit slip\nOr you'll be leavin' with a fat lip\nIt's all about the he says/she says bullshit\nI think you better quit talkin' that shit, punk\nSo come and get it", 'annotations': {'description': '&lt;p&gt;“Break Stuff” is a song by the nu-metal band Limp Bizkit, and is a song about…well, breaking stuff and overall anger. It was released as the fourth and final single for their album &lt;em&gt;Significant Other&lt;/em&gt;. This song stirred up controversy when the band played it live at Woodstock ‘99, which resulted in violence.&lt;/p&gt;\n\n&lt;p&gt;The music video was recored at Skatelab and included cameos from various celebrities and fellow artists, including Jonathan Davis of Korn, Eminem and his daughter Hailie, Dr. Dre, Alec Baldwin, Pauly Shore, Derek Jeter, Roger Daltrey, Bam Margera, Bucky Lasek, Seth Green, Stryker, Riley Hawk, Aaron Lewis, Lily Aldridge, Richard Lewis, and Flea of Red Hot Chili Peppers.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/ZpUYjpKg9KY?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Wes Borland', 'url': 'https://genius.com/artists/Wes-borland'}, {'name': 'Sam Rivers', 'url': 'https://genius.com/artists/Sam-rivers'}, {'name': 'John Otto', 'url': 'https://genius.com/artists/John-otto'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}], 'labels': [{'name': 'Flip Records', 'url': 'https://genius.com/artists/Flip-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Green-day-last-of-the-american-girls-lyrics', 'lyrics': "[Intro]\nShe puts her makeup on like graffiti on the walls of the heartland\nShe's got her little book of conspiracies right in her hand\nShe is paranoid, endangered species headed into extinction\nShe is one of a kind, well she's the last of the American girls\n\n[Verse 1]\nShe wears her overcoat for the coming of the nuclear winter\nShe is riding her bike like the fugitive of Critical Mass\nShe's on a hunger strike for the ones who won't make it for dinner\nShe makes enough to survive for a holiday of working class\n\n[Chorus]\nShe's a runaway of the establishment incorporated\nShe won't cooperate, well she's the last of the American girls\n\n[Verse 2]\nShe plays her vinyl records, singing songs on the eve of destruction\nShe's a sucker for all the criminals breaking the laws\nShe will come in first for the end of western civilization\nShe's an endless war, she's a hero for the lost cause\n\n[Chorus]\nLike a hurricane in the heart of the devastation\nShe's a natural disaster, she's the last of the American girls\n[Instrumental Bridge]\n\n[Chorus]\nShe puts her makeup on like graffiti on the walls of the heartland\nShe's got her little book of conspiracies right in her hand\nShe will come in first for the end of western civilization\nShe's a natural disaster, she's the last of the American girls\n\n[Outro]\nAw, yeah\nAlright\nAw, yeah", 'annotations': {'description': '&lt;p&gt;“Last of the American Girls” is about the increasing lack of American people willing to stand up for their ideals. The “last of the American girls” here refers both to Gloria—one of the two characters of the album, beside Christian—and to frontman &lt;a href="https://genius.com/artists/Billie-joe-armstrong" rel="noopener" data-api_path="/artists/55027"&gt;Billie Joe Armstrong&lt;/a&gt;’s wife Adrienne.&lt;/p&gt;\n\n&lt;p&gt;One of the inspirations for this pop-punk number was the &lt;a href="http://www.nme.com/news/music/green-day-252-1338965" rel="noopener nofollow"&gt;time vocalist Billie Joe Armstrong spent in New Orleans&lt;/a&gt; helping build houses for those made homeless by &lt;a href="https://en.wikipedia.org/wiki/Hurricane_Katrina" rel="noopener nofollow"&gt;Hurricane Katrina&lt;/a&gt;. In May 2009 he explained to &lt;a href="https://en.wikipedia.org/wiki/Q_%28magazine%29" rel="noopener nofollow"&gt;&lt;em&gt;Q&lt;/em&gt; magazine&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I started writing it for my wife, but there’s elements of Hurricane Katrina and (pro-cycling activists) Critical Mass. It adds those elements to one character who has this left wing strength.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}], 'writers': [{'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Keane-everybodys-changing-lyrics', 'lyrics': "[Verse 1]\nYou say you wander your own land\nBut when I think about it\nI don't see how you can\nYou're aching, you're breaking\nAnd I can see the pain in your eyes\nSays everybody's changing\nAnd I don't know why\n\n[Chorus]\nSo little time\nTry to understand that I'm\nTrying to make a move just to stay in the game, I\nTry to stay awake and remember my name, but\nEverybody's changing\nAnd I don't feel the same\n\n[Verse 2]\nYou're gone from here\nSoon you will disappear\nFading into beautiful light\n'Cause everybody's changing\nAnd I don't feel right\n\n[Chorus]\nSo little time\nTry to understand that I'm\nTrying to make a move just to stay in the game, I\nTry to stay awake and remember my name, but\nEverybody's changing\nAnd I don't feel the same\n[Interlude]\n\n[Chorus]\nSo little time\nTry to understand that I'm\nTrying to make a move just to stay in the game, I\nTry to stay awake and remember my name, but\nEverybody's changing\nAnd I don't feel the same\n\nAh! Everybody's changing\nAnd I don't feel the same", 'annotations': {'description': '', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-fratellis-henrietta-lyrics', 'lyrics': "[Verse 1]\nHenrietta, we got no flowers for you\nJust these three miserable cunts\nSitting on the back seat, tapping on the off beat\nWe know you love us and you probably do\nAlthough your husband may cut us\nHe's an animal, though anything is possible\n\n[Chorus]\nGive us a kiss and maybe we can go out\nIt's hard to miss you when you follow us about\nBuy us some shoes and maybe take us for cola\nWe'll get you there in some filthy big gondola\nAnd it's, clean out the bank and bump off your daddy\nYou can come live with us amongst the has-beens and the addicts\nThese are crazy times down at Costello music\nYou can answer the phone and talk anyway you choose it, come on\n\n[Post-Chorus]\nOh, come on\nOh, come on\nOh-oh-oh-oh-oh-oh-oh-oh\nUh-uh-uh-uh\n\n[Verse 2]\nDear Henrietta, we're just three lonely boys\nThough the girls love us, we're so\nInto you incredibly, we'd love to see you terribly\nWe'd love to hate ya, but we don't have no choice\nCome be our wa-ha-ha-ha\nHoney, three four, one time, once more\n[Chorus]\nGive us a kiss and maybe we can go out\nIt's hard to miss you when you follow us about\nBuy us some shoes and maybe take us for cola\nWe'll get you there in some filthy big gondola\nAnd it's, clean out the bank and bump off your daddy\nYou can come live with us amongst the has-beens and the addicts\nThese are crazy times down at Costello music\nYou can answer the phone and talk anyway you choose it, come on\n\n[Bridge]\nOh-oh-oh-oh\nOh-oh-oh-oh-oh-oh-oh\nOh-oh-oh-oh\nOh-oh-oh-oh-oh-oh-oh\n\n[Outro]\nClean out the bank and bump off your daddy\nYou can come live with us amongst the has-beens and the addicts\nThese are crazy times down at Costello music\nYou can answer the phone and talk anyway you choose it, come on\nClean out the bank and bump off your daddy\nYou can come live with us amongst the has-beens and the addicts\nThese are crazy times down at Costello music\nYou can answer the phone and talk anyway you choose it, come on\nOh, come on\nOh, come on\nOh, come on\nOh, come on\nOh, come on\nOh, come on\nOh-oh-oh-oh-oh-oh-oh-oh", 'annotations': {'description': '', 'producers': [{'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'writers': [{'name': 'The Fratellis', 'url': 'https://genius.com/artists/The-fratellis'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Save-ferris-the-world-is-new-lyrics', 'lyrics': "[Verse 1]\nI was sitting and waiting\nJust thinking, contemplating\nMy life when I heard the phone\nI picked up the receiver\nAnd I did not believe her\nWhen I heard a voice say you're not alone\n\n[Chorus]\nWhen I am down and I am blue\nAll I have to do\nIs close my eyes and think of you\nAnd the world is new\n\n[Verse 2]\nOh, life was getting hectic\nAnd things were unexpected\nWhen I first received your call\nBut now it is the best thing\nThat filled up what was missing\nAnd now my life is envied by all\n\n[Chorus]\nWhen I am down and I am blue\nAll I have to do\nIs close my eyes and think of you\nAnd the world is new\n[Verse 1]\nI was sitting and waiting\nJust thinking, contemplating\nMy life when I heard the phone\nI picked up the receiver\nAnd I did not believe her\nWhen I heard a voice say you're not alone\n\n[Chorus]\nWhen I am down and I am blue\nAll I have to do\nIs close my eyes and think of you\nAnd the world is new", 'annotations': {'description': '', 'producers': [{'name': 'Clive Goddard', 'url': 'https://genius.com/artists/Clive-goddard'}, {'name': 'Save Ferris', 'url': 'https://genius.com/artists/Save-ferris'}, {'name': 'Craig Nepp', 'url': 'https://genius.com/artists/Craig-nepp'}], 'writers': [{'name': 'Brian Mashburn', 'url': 'https://genius.com/artists/Brian-mashburn'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Rihanna-we-found-love-lyrics', 'lyrics': "[Video Intro: Agyness Deyn]\nIt's like you're screaming, and no one can hear\nYou almost feel ashamed, that someone could be that important\nThat without them, you feel like nothing\nNo one will ever understand how much it hurts\nYou feel hopeless, like nothing can save you\nAnd when it's over and it's gone\nYou almost wish you could have all that bad stuff back\nSo that you could have the good\n\n[Verse 1: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\nWhat it takes to come alive\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Verse 2: Rihanna]\nShine a light through an open door\nLove and life, I will divide\nTurn away 'cause I need you more\nFeel the heartbeat in my mind\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n\n[Bridge: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place", 'annotations': {'description': '&lt;p&gt;This is a single off Rihanna’s sixth studio album &lt;em&gt;Talk that Talk.&lt;/em&gt; It was also included on &lt;em&gt;18 Months,&lt;/em&gt; the third album from Scottish electronic artist and this song’s producer Calvin Harris, who penned the lyrics as well.&lt;/p&gt;\n\n&lt;p&gt;This song became one of the bestselling singles of all time, and Rihanna’s longest running single, outlasting her smash hit “Umbrella” on top of the Billboard Hot 100 charts. This was Harris\' first time on the Hot 100, and became a huge boon to his career. He’d been releasing music since 2007. Harris &lt;a href="https://www.thesun.co.uk/archives/news/1010674/calvin-harris-rihanna-is-the-best-thing-that-could-have-happened-to-me/" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It changed absolutely everything. Career-wise it was the best thing that could ever have happened. For example, in America my tune ‘Feel So Close’ came out about three months before. But when ‘We Found Love’ came out, the radio started playing ‘Feel So Close’ like it was the single after. Then that did really well, it charted well and sold a lot of copies."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Harris was able to tap Rihanna for the song after he opening for her on a leg of her Loud tour in 2011. When Rihanna announced the collaboration to Twitter fans, the &lt;a href="http://www.capitalfm.com/artists/rihanna/news/fans-calvin-harris-single/" rel="noopener nofollow"&gt;Rihanna Navy jumped on Harris,&lt;/a&gt; ensuring he would produce a hit. Luckily he didn’t disappoint.&lt;/p&gt;\n\n&lt;p&gt;The original version of the song was recorded by UK singer Leona Lewis. She told &lt;a href="http://www.nme.com/news/calvin-harris/84798" rel="noopener nofollow"&gt;NME&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a bit annoying to see how big a hit it was but if I’d released it maybe it wouldn’t have done as well.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video, directed by Melissa Matsoukas,  depicts two lovers are in an unsustainable relationship based on passion and drugs, more like an addiction than a healthy interest. The video features a lot of drug usage and a Chris Brown lookalike, which was controversial, given their real-life abusive relationship. Matsoukas addressed the rumors about the controversial video in an interview with &lt;a href="http://www.mtv.com/news/1672957/rihanna-we-found-love-melina-matsoukas/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Again, it goes back to a story that we all can relate to. It’s not Rihanna’s story; it’s her story in the video, and she’s acting. But everybody’s [as well]. Obviously, there’s a lot of comparisons to her real life , and that’s not at all the intention.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Franz-ferdinand-love-illumination-lyrics', 'lyrics': "[Verse 1]\nWhen you're half way from a dream\nIs it hard to work out what is real?\nIs the real over there\nMore vivid than here ever feels?\nWe could love, we could love you\nIf you need somebody to love you\nWhile you're looking for somebody to love\n\n[Chorus]\nSweet love illumination\nSweet, sweet love elevation\nOutside, fresh avaricide\nBut inside our love, you'll be alright\n\nSweet love illumination\nSweet, sweet love celebration\nCop car burn, reason turn\nBut it'll bring you up, you'll be alright\nYou'll be alright\n\n[Verse 2]\nIs the Blackpool bright light\nBrighter than the light in your home?\nWere you born to be loved\nBut nobody else seems to know?\nWe could love, we could love you\nIf you need somebody to love you\nWhile you're looking for somebody to love\n[Chorus]\nSweet love illumination\nSweet, sweet love elevation\nOutside, fresh avaricide\nBut inside our love, you'll be alright\n\nSweet love illumination\nSweet, sweet love celebration\nCop car burn, reason term\nBut it'll bring you up, you'll be alright\n\n[Instrumental Break]\n\n[Bridge]\nWe could love, we could love you\nIf you need somebody to love you\nWhile you're looking for somebody\nWe're all looking for somebody\nWe're all looking for (All looking for)\nSomebody to love\n\n[Chorus]\nSweet love illumination\nSweet, sweet love elevation\nOutside, fresh avaricide\nBut inside our love, you'll be alright\nSweet love illumination\nSweet, sweet love celebration\nCop car burn, reason turn\nBut it'll bring you up, you'll be alright\n\n[Outro]\nSweet love\nSweet, sweet love\nSweet, sweet love\nSweet, sweet love\nSweet, sweet love\nSweet love", 'annotations': {'description': '&lt;p&gt;The second single from the album.&lt;/p&gt;', 'producers': [{'name': 'Alex Kapranos', 'url': 'https://genius.com/artists/Alex-kapranos'}], 'writers': [{'name': 'Nick McCarthy', 'url': 'https://genius.com/artists/Nick-mccarthy'}, {'name': 'Alex Kapranos', 'url': 'https://genius.com/artists/Alex-kapranos'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lily-allen-smile-lyrics', 'lyrics': "[Verse 1]\nWhen you first left me\nI was wantin' more\nBut you were fucking that girl next door\nWhat'cha do that for? (What'cha do that for?)\nWhen you first left me\nI didn't know what to say (Say)\nI never been on my own that way\nJust sat by myself all day\n\n[Pre-Chorus]\nI was so lost back then\nBut with a little help from my friends\nI found a light in the tunnel at the end\nNow you're calling me up on the phone\nSo you can have a little whine and a moan\nAnd it's only because you're feelin' alone\n\n[Chorus]\nAt first, when I see you cry\nYeah, it makes me smile\nYeah, it makes me smile\nAt worst, I feel bad for a while\nBut then I just smile\nI go ahead and smile\n[Verse 2]\nWhenever you see me\nYou say that you want me back (Want me back)\nAnd I tell you it don't mean jack (It don't mean jack)\nNo, it don't mean jack (No, it don't mean jack)\nI couldn't stop laughin'\nNo, I just couldn't help myself (Help myself)\nSee, you messed up my mental health (Mental health)\nI was quite unwell\n\n[Pre-Chorus]\nI was so lost back then\nBut with a little help from my friends\nI found a light in the tunnel at the end\nNow you're calling me up on the phone\nSo you can have a little whine and a moan\nAnd it's only because you're feelin' alone\n\n[Chorus]\nAt first, when I see you cry (When I see you cry)\nYeah, it makes me smile (It makes me smile)\nYeah, it makes me smile (Yeah, it makes me smile)\nAt worst, I feel bad for a while (I feel bad for a while)\nBut then I just smile (But then I just smile)\nI go ahead and smile (I go ahead and smile)\n[Bridge]\nLa-la-la, la-la-la, la-la-la, la-la-la\nLa-la-la, la-la-la, la-la-la, la-la-la\nLa-la-la, la-la-la, la-la-la, la-la-la, la-la-la\n\n[Chorus]\nAt first, when I see you cry (When I see you cry)\nYeah, it makes me smile (It makes me smile)\nYeah, it makes me smile (It makes me smile)\nAt worst, I feel bad for a while (I feel bad for a while)\nBut then I just smile (But then I just smile)\nI go ahead and smile\nI go ahead and smile", 'annotations': {'description': '&lt;p&gt;“Smile” was Lily’s debut single from her debut album &lt;em&gt;Alright Still&lt;/em&gt; with B sides &lt;a href="https://genius.com/Lily-allen-cheryl-tweedy-lyrics" rel="noopener" data-api_path="/songs/364033"&gt;“Cheryl Tweedy”&lt;/a&gt; and &lt;a href="https://genius.com/Lily-allen-absolutely-nothing-lyrics" rel="noopener" data-api_path="/songs/364034"&gt;“Absolutely Nothing”&lt;/a&gt;. The track reached number one in the UK singles chart and remained there for two weeks.&lt;/p&gt;\n\n&lt;p&gt;The song is about a woman’s anger towards a cheating ex-boyfriend. Initially she is heartbroken, and describes how the feeling of hurt, and longing turn into anger, bitterness and a thirst for revenge. Eventually she enjoys seeing him alone and desperate in the same way that she once felt.&lt;/p&gt;\n\n&lt;p&gt;The lyrics suggest heavily that the song may be about Lily’s ex-partner &lt;a href="http://www.twitter.com/lesterlloyd" rel="noopener nofollow"&gt;DJ Lester Lloyd&lt;/a&gt; and the controversial music video, directed by &lt;a href="https://genius.com/artists/Sophie-muller" rel="noopener" data-api_path="/artists/1116395"&gt;Sophie Muller&lt;/a&gt;, removes any doubt as a DJ character is cast as the protagonist.&lt;/p&gt;\n\n&lt;p&gt;Throughout the video Lily arranges for him to be beaten up, spiked with laxatives and his home invaded while Lily smiles.&lt;/p&gt;\n\n&lt;p&gt;However Lily has never admitted the link between the fictional character and her ex-partner, and &lt;a href="http://www.digitalspy.com/showbiz/news/a35392/lily-allens-ex-boyfriend-denies-cheating/" rel="noopener nofollow"&gt;Lloyd claims&lt;/a&gt; he never cheated on Lily.&lt;/p&gt;\n\n&lt;p&gt;The track is built on a &lt;a href="https://www.whosampled.com/sample/1959/Lily-Allen-Smile-Jackie-Mittoo-The-Soul-Brothers-Free-Soul/" rel="noopener nofollow"&gt;sample&lt;/a&gt; from the Soul Brothers 1960’s “Free Soul”&lt;/p&gt;', 'producers': [{'name': 'Future Cut', 'url': 'https://genius.com/artists/Future-cut'}], 'writers': [{'name': 'Jackie Mittoo', 'url': 'https://genius.com/artists/Jackie-mittoo'}, {'name': 'Clement Dodd', 'url': 'https://genius.com/artists/Clement-dodd'}, {'name': 'Iyiola Babalola', 'url': 'https://genius.com/artists/Iyiola-babalola'}, {'name': 'Darren Lewis', 'url': 'https://genius.com/artists/Darren-lewis'}, {'name': 'Lily Allen', 'url': 'https://genius.com/artists/Lily-allen'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Hole-malibu-lyrics', 'lyrics': "[Verse 1]\nCrash and burn\nAll the stars explode tonight\nHow'd you get so desperate?\nHow'd you stay alive?\nHelp me, please\nBurn the sorrow from your eyes\nOh, come on be alive again\nDon't lay down and die\n\n[Chorus]\nHey, hey\nYou know what to do\nOh, baby, drive away\nTo Malibu\n\n[Verse 2]\nGet well soon\nPlease don't go any higher\nHow are you so burnt\nWhen you're barely on fire?\nCry to the angels\nI'm gonna rescue you\nI'm gonna set you free tonight, baby\nPour over me\n[Chorus]\nHey, hey\nWe're all watching you\nOh, baby, fly away\nTo Malibu\nCry to the angels\nAnd let them swallow you\nGo and part the sea, yeah\nIn Malibu\n\n[Bridge]\nAnd the sun goes down\nI watch you slip away\nAnd the sun goes down\nI walk into the waves\nAnd the sun goes down\nI watch you slip away\nAnd I would\n\n[Interlude]\nAnd I knew love would tear you apart\nOh, and I knew the darkest secret of your heart\n\n[Chorus]\nHey, hey\nI'm gonna follow you\nOh baby, fly away, yeah\nTo Malibu\nOceans of angels\nOceans of stars\nDown by the sea\nIs where you drown your scars\n[Outro]\nI can't be near you\nThe light just radiates\nI can't be near you\nThe light just radiates", 'annotations': {'description': '&lt;p&gt;“Malibu” is the second single from Hole’s third studio album, &lt;em&gt;Celebrity Skin&lt;/em&gt;, and was released on December 29, 1998 on Geffen Records.&lt;/p&gt;\n\n&lt;p&gt;“Malibu” was one of the Hole’s most commercially and critically successful songs. The song peaked at number three on the US Modern Rock Tracks chart, and garnered a Grammy nomination in 1999. The song charted at number 264 on The 500 Greatest Songs Since You Were Born list by Blender Magazine in 2005. The single features “Drag” as well as a cover of Bob Dylan’s “It’s All Over Now, Baby Blue” as B-sides.&lt;/p&gt;\n\n&lt;p&gt;The song was co-written by &lt;a href="https://genius.com/artists/Billy-corgan" rel="noopener" data-api_path="/artists/42637"&gt;Billy Corgan&lt;/a&gt; of &lt;a href="https://genius.com/artists/Smashing-pumpkins" rel="noopener" data-api_path="/artists/12025"&gt;The Smashing Pumpkins&lt;/a&gt;.  Shortly after the release, &lt;a href="http://www.rollingstone.com/music/news/courtney-love-targets-billy-corgan-beef-were-older-get-over-it-20140904" rel="noopener nofollow"&gt;Corgan told Rolling Stone&lt;/a&gt; that his songs being included in the album “left a bad taste in [his] mouth.”&lt;/p&gt;\n\n&lt;p&gt;Love claims she wrote the lyrics to the song based on her late husband’s stay at a rehabilitation clinic in Malibu, California while receiving treatment for his heroin addiction prior to his suicide in 1994.&lt;/p&gt;', 'producers': [{'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}], 'writers': [{'name': 'Courtney Love', 'url': 'https://genius.com/artists/Courtney-love'}, {'name': 'Eric Erlandson', 'url': 'https://genius.com/artists/Eric-erlandson'}, {'name': 'Billy Corgan', 'url': 'https://genius.com/artists/Billy-corgan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/A1-band-caught-in-the-middle-lyrics', 'lyrics': "[Verse 1: Paul]\nYou said that love was just a state of mind\nA puzzle made of pieces you can't find\nAnd for me you never really had the time, and\nI was blind\n\n[Verse 2: Christian]\nAnd everything that you meant to me\nIs written in the pages of my history\nBut it's over now as far as I can see\nSuddenly\n\n[Chorus: Ben, All]\nThings are so different now you're gone\nI thought it'd be easy, I was wrong\n(And now I'm caught)\nAnd now, I'm caught in the middle\nEven though I'm with someone new\nAll I can think about is you\n(And now I'm caught)\nAnd now, I'm caught in the middle\n\n[Verse 3: Mark]\nMoving on, she brings me brighter days\nThoughts of you are in my mind always\nLike a memory that I can't erase\nIt's here to stay\n[Chorus: Ben, All]\nThings are so different now you're gone\nI thought it'd be easy, I was wrong\n(And now I'm caught)\nAnd now, I'm caught in the middle\nEven though I'm with someone new\nAll I can think about is you\n(And now I'm caught)\nAnd now, I'm caught in the middle\n\n[Bridge: All, Mark, Paul, Ben]\nSo different (It's so different)\nSo easy (So easy)\nBut I can't get over you (I can't get over you)\nSo different (It's so different)\nSo easy (So easy)\nBut I can't get over you (And I can't get over you)\n\n[Chorus: Ben, All]\nThings are so different now you're gone\nI thought it'd be easy, I was wrong\n(And now I'm caught)\nAnd now, I'm caught in the middle\nEven though I'm with someone new\nAll I can think about is you\n(And now I'm caught)\nAnd now, I'm caught in the middle\nThings are so different now you're gone\nI thought it'd be easy, I was wrong\n(And now I'm caught)\nAnd now, I'm caught in the middle\nEven though I'm with someone new\nAll I can think about is you\n(And now I'm caught)\nAnd now, I'm caught in the middle\n\nThings are so different now you're gone\nI thought it'd be easy, I was wrong\nAnd now, I'm caught in the middle\nEven though I'm with someone new\nAll I can think about is you\nAnd now, I'm caught in the middle", 'annotations': {'description': '&lt;p&gt;It was released on 21 January 2002 as the lead single from their third studio album, Make It Good. The song peaked at number two on the UK Singles Chart and received a Silver certification from the British Phonographic Industry in October 2018. It became one of their most successful and recognised singles. It was also released in a French-English version with singer Eve Angeli.&lt;/p&gt;\n\n&lt;p&gt;In the United States, the song received moderate airplay and charted for seven weeks in the top 50 of the Radio &amp;amp; Records Mainstream chart, peaking at number 46. It was their only single to chart in the United States.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the singer is an individual lamenting the fact that they cannot seem to stop dwelling on a previous partner despite the fact that their new relationship and situation are better, which they acknowledge&lt;/p&gt;', 'producers': [{'name': 'Chris Blair', 'url': 'https://genius.com/artists/Chris-blair'}, {'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Mike Hedges', 'url': 'https://genius.com/artists/Mike-hedges'}], 'writers': [{'name': 'Rick Mitra', 'url': 'https://genius.com/artists/Rick-mitra'}, {'name': 'Chris Porter', 'url': 'https://genius.com/artists/Chris-porter'}, {'name': 'Paul Marazzi', 'url': 'https://genius.com/artists/Paul-marazzi'}, {'name': 'Ben Adams', 'url': 'https://genius.com/artists/Ben-adams'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-killers-mr-brightside-lyrics', 'lyrics': "[Verse]\nComing out of my cage and I've been doing just fine\nGotta, gotta be down because I want it all\nIt started out with a kiss; how did it end up like this?\nIt was only a kiss; it was only a kiss\nNow I'm falling asleep and she's calling a cab\nWhile he's having a smoke and she's taking a drag\nNow they're going to bed, and my stomach is sick\nAnd it's all in my head, but she's touching his\n\n[Pre-Chorus]\nChest now, he takes off her\nDress now, let me go\nAnd I just can't look; it's killing me\nThey're taking control\n\n[Chorus]\nJealousy, turning saints into the sea\nSwimming through sick lullabies, choking on your alibis\nBut it's just the price I pay, destiny is calling me\nOpen up my eager eyes, 'cause I'm Mr. Brightside\n[Instrumental Bridge]\n[Verse]\nI'm coming out of my cage, and I've been doing just fine\nGotta, gotta be down because I want it all\nIt started out with a kiss; how did it end up like this?\nIt was only a kiss, it was only a kiss\nNow I'm falling asleep and she's calling a cab\nWhile he's having a smoke and she's taking a drag\nNow they're going to bed, and my stomach is sick\nAnd it's all in my head, but she's touching his\n[Pre-Chorus]\nChest now, he takes off her\nDress now, let me go\n'Cause I just can't look, it's killing me\nThey're taking control\n\n[Chorus]\nJealousy, turning saints into the sea\nSwimming through sick lullabies, choking on your alibis\nBut it's just the price I pay, destiny is calling me\nOpen up my eager eyes, 'cause I'm Mr. Brightside\n[Instrumental Bridge]\n\n[Outro]\nI never...\nI never...\nI never...\nI never...", 'annotations': {'description': "&lt;p&gt;This was The Killers' first ever recorded song for their 2002 demo. The song was composed by guitarist Dave Keuning and the lyrics written by Brandon Flowers. It was re-recorded and released as a single in 2004.&lt;/p&gt;\n\n&lt;p&gt;Despite its upbeat feel, the song deals with issues of infidelity, paranoia, and jealousy. This is due to Brandon Flowers' heartache when his ex-girlfriend cheated on him while they were together.&lt;/p&gt;\n\n&lt;p&gt;The single went 2x Platinum in the US, selling over 2 million copies and is 3x Platinum in the UK, selling almost 1 million copies. It has also clocked over 200 weeks in the UK Top 100, more than any other song.&lt;/p&gt;\n\n&lt;p&gt;The single also won ‘Best New Artist in a Video’, ‘Best International video’ and is often referred to as one of the best songs of the 2000’s.&lt;/p&gt;", 'producers': [{'name': 'Jeff Saltzman', 'url': 'https://genius.com/artists/Jeff-saltzman'}, {'name': 'The Killers', 'url': 'https://genius.com/artists/The-killers'}], 'writers': [{'name': 'Dave Keuning', 'url': 'https://genius.com/artists/Dave-keuning'}, {'name': 'Brandon Flowers', 'url': 'https://genius.com/artists/Brandon-flowers'}], 'labels': [{'name': 'Lizard King Records', 'url': 'https://genius.com/artists/Lizard-king-records'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Glenn-frey-the-heat-is-on-lyrics', 'lyrics': "The heat is on, on the street\nInside your head, on every beat\nAnd the beat's so loud, deep inside\nThe pressure's high, just to stay alive\n'Cause the heat is on\n\nOh-wo-ho, oh-wo-ho\nCaught up in the action I've been looking out for you\nOh-wo-ho, oh-wo-ho\n(Tell me can you feel it)\n(Tell me can you feel it)\n(Tell me can you feel it)\nThe heat is on, the heat is on, the heat is on\nOh it's on the street, the heat is on\n\nOh-wo-ho, oh-wo-ho\nCaught up in the action I've been looking out for you\nOh-wo-ho, oh-wo-ho\n(Tell me can you feel it)\n(Tell me can you feel it)\n(Tell me can you feel it)\nThe heat is on, the heat is on, the heat is on\nOh it's on the street, the heat is on\n\nThe shadows high on the darker side\nBehind those doors, it's a wilder ride\nYou can make a break, you can win or lose\nThat's a chance you take, when the heat's on you\nWhen the heat is on\nOh-wo-ho, oh-wo-ho\nCaught up in the action I've been looking out for you\nOh-wo-ho, oh-wo-ho\n(Tell me can you feel it)\n(Tell me can you feel it)\n(Tell me can you feel it)\nThe heat is on, the heat is on, the heat is on\nOh it's on the street, the heat is on\n\nIt's on the street\nThe heat is on, the heat is on, the heat is on\nYeah it's on the street\nThe heat is on", 'annotations': {'description': '', 'producers': [{'name': 'Allan Blazek', 'url': 'https://genius.com/artists/Allan-blazek'}, {'name': 'Glenn Frey', 'url': 'https://genius.com/artists/Glenn-frey'}], 'writers': [{'name': 'Harold Faltermeyer', 'url': 'https://genius.com/artists/Harold-faltermeyer'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Carly-rae-jepsen-i-really-like-you-lyrics', 'lyrics': "[Verse 1]\nI really wanna stop, but I just got the taste for it\nI feel like I could fly with the boy on the moon\nSo honey, hold my hand, you like making me wait for it\nI feel like I could die walking up to the room, oh yeah\n\n[Pre-Chorus]\nLate night watching television\nBut how'd we get in this position?\nIt's way too soon, I know this isn't love\nBut I need to tell you something\n\n[Chorus]\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\nOh, did I say too much?\nI’m so in my head when we’re out of touch\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\n\n[Verse 2]\nIt's like everything you say is a sweet revelation\nAll I wanna do is get into your head\nYeah, we could stay alone\nYou and me, and this temptation\nSipping on your lips, hanging on by a thread, baby\n[Pre-Chorus]\nLate night watching television\nBut how'd we get in this position?\nIt's way too soon, I know this isn't love (Love)\nBut I need to tell you something\n\n[Chorus]\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\nOh, did I say too much?\nI’m so in my head when we’re out of touch (When we’re out of touch!)\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\n\n[Bridge]\nWho gave you eyes like that?\nSaid you could keep them\nI don’t know how to act\nOr if I should be leaving\nI’m running out of time\nGoing out of my mind\nI need to tell you something\nYeah, I need to tell you something\nYeah!\n[Chorus]\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too?\nI really, really, really, really, really, really like you (Oh oh oh)\nAnd I want you, do you want me, do you want me too?\nOh, did I say too much? (Did I say too much?)\nI’m so in my head when we’re out of touch (I’m so in my head, when we’re out of touch)\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too? (Yeah!)\nI really, really, really, really, really, really like you\nAnd I want you, do you want me, do you want me too? (Yeah, I need to tell you something)\nI really, really, really, really, really, really like you (Oh, yeah)\nAnd I want you, do you want me, do you want me too?", 'annotations': {'description': '&lt;p&gt;“I Really Like You” is the lead single from Carly Rae Jepsen’s third studio album, &lt;a href="https://genius.com/albums/Carly-rae-jepsen/Emotion" rel="noopener" data-api_path="/albums/125572"&gt;&lt;em&gt;E•MO•TION&lt;/em&gt;.&lt;/a&gt; Lyrically, it features the saccharine, adolescent hallmarks of her breakout hit &lt;a href="https://genius.com/Carly-rae-jepsen-call-me-maybe-lyrics" rel="noopener" data-api_path="/songs/70085"&gt;“Call Me Maybe”.&lt;/a&gt; It came accompanied by a charming video starring Tom Hanks, who was asked to star by Jepsen’s manager Scooter Braun over drinks and dinner. Hanks was only too willing to join.&lt;/p&gt;\n\n&lt;p&gt;As the album’s first single, Carly explained that she sent song after song to the label, without really knowing which would work. She admitted to &lt;em&gt;The Guardian&lt;/em&gt; that she has “zero ear for the radio apparently”. In subject matter, it is similar to the adolescent, innocent kind of love affair of “Call Me Maybe”:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s basically saying, ‘It’s not love yet, but I like you, so what do you think?’ It’s a bit of a hook-up…I mean, there’s no spanking going on if that’s what you’re asking. You’re barking up the wrong tree!&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Scooter reportedly told Carly that &lt;a href="http://www.rollingstone.com/music/news/carly-rae-jepsen-really-really-likes-crush-on-shimmering-new-single-20150302" rel="noopener nofollow"&gt;she wasn’t allowed to put out a new single&lt;/a&gt; until “it was on the level of ‘Call Me Maybe’”. In response, she understood the burden of having one song completely outshine all the others on the album, leading to her surprise slow-burner &lt;a href="https://genius.com/Carly-rae-jepsen-all-that-lyrics" rel="noopener" data-api_path="/songs/740203"&gt;“All That”&lt;/a&gt; released as a promotional single.&lt;/p&gt;', 'producers': [{'name': 'Jeff Halavacs', 'url': 'https://genius.com/artists/Jeff-halavacs'}, {'name': 'Peter Svensson', 'url': 'https://genius.com/artists/Peter-svensson'}], 'writers': [{'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Carly Rae Jepsen', 'url': 'https://genius.com/artists/Carly-rae-jepsen'}, {'name': 'Peter Svensson', 'url': 'https://genius.com/artists/Peter-svensson'}], 'labels': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Liquido-narcotic-lyrics', 'lyrics': "[Verse 1]\nSo you face it with a smile\nThere is no need to cry\nFor a trifle's more than this\nWill you still recall my name?\nAnd the month it all began?\nWill you release me with a kiss?\nHave I tried to draw the veil?\nIf I have, how could I fail?\nDid I fear the consequence?\n\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Verse 2]\nNow you shaped that liquid wax\nFit it out with crater cracks\nSweet devotion, my delight\nOh, you're such a pretty one\nAnd the naked thrills of flesh and skin\nWould tease me through the night\nNow, I hate to leave you bare\nIf you need me, I'll be there\nDon't you ever let me down\n[Pre-Chorus]\nDazed by careless words\nCozy in my mind\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\n\n[Bridge]\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nLike an addicted to cocaine\nCalls for the stuff he'd rather blame\nAnd I touched your face\nNarcotic mind from lazed, Mary-Jane\nAnd I called your name\nMy cocaine\n\n[Chorus]\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go\nI don't mind, I think so\nI will let you go", 'annotations': {'description': '', 'producers': [{'name': 'Olaf Opal', 'url': 'https://genius.com/artists/Olaf-opal'}, {'name': 'Liquido', 'url': 'https://genius.com/artists/Liquido'}], 'writers': [{'name': 'Wolfgang Schrödl', 'url': 'https://genius.com/artists/Wolfgang-schrodl'}], 'labels': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/The-cure-boys-dont-cry-lyrics', 'lyrics': "[Verse 1]\nI would say I'm sorry\nIf I thought that it would change your mind\nBut I know that this time\nI have said too much, been too unkind\n\n[Chorus]\nI tried to laugh about it\nCover it all up with lies\nI tried to laugh about it\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n\n[Verse 2]\nI would break down at your feet\nAnd beg forgiveness, plead with you\nBut I know that it's too late\nAnd now there's nothing I can do\n\n[Chorus]\nSo I try to laugh about it\nCover it all up with lies\nI try to laugh about it\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n[Verse 3]\nI would tell you that I loved you\nIf I thought that you would stay\nBut I know that it's no use\nAnd you've already gone away\n\n[Bridge]\nMisjudged your limits\nPushed you too far\nTook you for granted\nI thought that you needed me more, more, more\n\n[Chorus]\nNow I would do 'most anything\nTo get you back by my side\nBut I just keep on laughing\nHiding the tears in my eyes\n'Cause boys don't cry\nBoys don't cry\n\n[Outro]\nBoys don't cry", 'annotations': {'description': '&lt;p&gt;“Boys Don’t Cry” was released on 15 June 1979 as a standalone single and not originally included on The Cure’s homeland UK debut album &lt;em&gt;Three Imaginary Boys&lt;/em&gt;, but was included on its namesake North American debut &lt;em&gt;Boys Don’t Cry&lt;/em&gt;, released 5 February 1980. On original release, it only found chart success in New Zealand, reaching #22 in May 1980.&lt;/p&gt;\n\n&lt;p&gt;In 1986, after the international success of the band’s sixth album &lt;em&gt;The Head On The Door&lt;/em&gt;, a new version of the song was released as a single and found top 30 success in five countries, including their homeland of the UK and an even higher peak in New Zealand.&lt;/p&gt;', 'producers': [{'name': 'Chris Parry', 'url': 'https://genius.com/artists/Chris-parry'}], 'writers': [{'name': 'Michael Dempsey', 'url': 'https://genius.com/artists/Michael-dempsey'}, {'name': 'Lol Tolhurst', 'url': 'https://genius.com/artists/Lol-tolhurst'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}], 'labels': [{'name': 'Fiction Records', 'url': 'https://genius.com/artists/Fiction-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Seether-words-as-weapons-lyrics', 'lyrics': "[Intro]\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n\n[Verse 1]\nKeep me locked up in your broken mind\nI keep searching, never been able to find\nA light behind your dead eyes\nNot anything at all\n\n[Pre-Chorus 1]\nYou keep living in your own lie\nEver deceitful and ever unfaithful\nKeep me guessing, keep me terrified\nTake everything from my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Verse 2]\nKeep me dumb, keep me paralyzed\nWhy try swimming? I'm drowning in fables\nYou're not that saint that you externalize\nYou're not anything at all\n[Pre-Chorus 2]\nIt's oh, so playful when you demonize\nTo spit out the hateful, you're willing and able\nYour words are weapons of the terrified\nYou're nothing in my world\n\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Bridge]\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nYou keep living in your own lie\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\n\n[Middle 8]\nYou keep living in your own lie\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nAll I really want is something beautiful to say\n[Chorus]\nSay can you help me right before the fall\nTake what you can and leave me to the wolves\n\n[Outro]\nAll I really want is something beautiful to say\nWords are weapons of the terrified\nAll I really want is something beautiful to say\nKeep me guessing, keep me terrified\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever\nAll I really want is something beautiful to say\nTo never fade away, I wanna live forever", 'annotations': {'description': '&lt;p&gt;Track number 3 and also the lead single from &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt;’s &lt;a href="https://genius.com/albums/Seether/Isolate-and-medicate" rel="noopener" data-api_path="/albums/99504"&gt;sixth studio album&lt;/a&gt;, Words as Weapons is song sound founded in alternative metal and the post-grunge subgenre roots. It was released on 1 May 2014 and &lt;a href="http://www.billboard.com/artist/278593/Seether/chart?f=376" rel="noopener nofollow"&gt;topped the Billboard chart for Mainstream Rock&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Poison-unskinny-bop-lyrics', 'lyrics': "[Verse 1]\nA-what's got you so jumpy?\nWhy can't you sit still, yeah?\nLike gasoline, you wanna pump me\nAnd leave me when you get your fill, yeah\n\nEvery time I touch you, honey, you get hot\nI wanna make love, you never stop\nCome up for air, you pull me to the floor\nWhat's been going on in that head of yours?\n\n[Chorus]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\nUnskinny bop, nothin' more to say\n\n[Verse 2]\nYou look at me so funny\nLove bite got you acting oh so strange\nYou got too many bees in your honey\nAm I just another word in your page, yeah, yeah?\nEvery time I touch you, honey, you get hot\nI wanna make love, you never stop\nCome up for air, you pull me to the floor\nWhat's been going on in that head of yours?\n\n[Chorus]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\nUnskinny bop, nothin' more to say\n\n[Bridge]\nYou're saying my love won't do ya\nThat ain't love written on your face\nWell, honey, I can see right through ya\nWell, who's ridin' who at the end of the race?\n\nWhat's right?\nWhat's wrong?\nWhat's left?\nWhat the hell is going on?\n\n[Chorus &amp; outro]\nUnskinny bop\nJust blows me away, yeah\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nShe just loves to play, yeah\n(Up for air, pulled to the floor)\nUnskinny bop\nNo good, no good, no good, no good\nUnskinny bop, bop\nAll night and day, yeah\nUnskinny bop, bop, bop, bop\nNo good, no good, no good, no good", 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;&lt;em&gt;Unskinny Bop&lt;/em&gt;&lt;/strong&gt; was the first single from &lt;a href="https://genius.com/artists/Poison" rel="noopener" data-api_path="/artists/32611"&gt;Poison&lt;/a&gt;’s third album &lt;em&gt;Flesh &amp;amp; Blood&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to C.C. Deville, the song title does not have any particular meaning. He came up with the phrase as a temporary measure while he was writing the song and it was used on the basis that it was phonetically suited to the music.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at #3 on the Billboard Hot 100 and #5 on Billboard’s Mainstream Rock Tracks chart in 1990.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/c10952c211391897f5ddf2f305c33729.300x313x1.jpg" alt="" width="300" height="313" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Rikki Rockett', 'url': 'https://genius.com/artists/Rikki-rockett'}, {'name': 'Bobby Dall', 'url': 'https://genius.com/artists/Bobby-dall'}, {'name': 'Bret Michaels', 'url': 'https://genius.com/artists/Bret-michaels'}, {'name': 'C.C. DeVille', 'url': 'https://genius.com/artists/Cc-deville'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Garbage-special-lyrics', 'lyrics': "[Verse 1]\nI've been living without you\nI know all about you\nI have run you down into the ground\nSpread disease about you over town\n\nI used to adore you\nI couldn't control you\nThere was nothing that I wouldn't do\nTo keep myself around and close to you\n\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\nBut I've run out of patience\nI couldn't care less\n\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\n\n[Verse 2]\nI used to amuse you\nI knew that I'd lose you\nNow you're here and begging for a chance\nBut there's no way in hell I'd take you back\n[Chorus]\nDo you have an opinion?\nA mind of your own?\nI thought you were special\nI thought you should know\nBut I've run out of patience\nI've run out of comments\nI'm tired of the violence\nI couldn't care less\n\n[Outro]\nI'm looking for a new\nI'm looking for a new\nI'm looking for a new\nI'm looking for a new\n\nWe were the talk of the town\nWe were the talk of the town\nWe were the talk of the town\nWe were the talk of the town\n\nI thought you were special\nI thought you were special\nI thought you were special\nI thought you were special", 'annotations': {'description': '&lt;p&gt;“Special” is the third single from &lt;a href="https://genius.com/artists/Garbage" rel="noopener" data-api_path="/artists/18769"&gt;Garbage&lt;/a&gt;’s multi-platinum selling album &lt;em&gt;Version 2.0&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The lyrics concern a friendship that Shirley Manson had moved on from after her friend had let her down. From a Melody Maker interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Ultimately it’s about those feelings of betrayal you have for people when you set your sights too high and expect too much and how that can lead to disappointment in the end.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=raRGnueg8Lo" rel="noopener nofollow"&gt;music video&lt;/a&gt; was directed by Dawn Shadforth.&lt;/p&gt;', 'producers': [{'name': 'Garbage', 'url': 'https://genius.com/artists/Garbage'}], 'writers': [{'name': 'Shirley Manson', 'url': 'https://genius.com/artists/Shirley-manson'}, {'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}, {'name': 'Steve Marker', 'url': 'https://genius.com/artists/Steve-marker'}, {'name': 'Duke Erikson', 'url': 'https://genius.com/artists/Duke-erikson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alice-in-chains-would-lyrics', 'lyrics': '[Verse 1: Jerry Cantrell]\nKnow me, broken by my master\nTeach thee on child, of love hereafter\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Verse 2: Jerry Cantrell]\nDrifting body, its sole desertion\nFlying, not yet quite the notion\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n\n[Guitar Solo: Jerry Cantrell]\n\n[Chorus: Layne Staley]\nInto the flood again\nSame old trip it was back then\nSo I made a big mistake\nTry to see it once my way\n[Outro: Layne Staley]\nAm I wrong?\nHave I run too far to get home?\nHave I gone?\nLeft you here alone\nAm I wrong?\nHave I run too far to get home? Yeah\nHave I gone?\nLeft you here alone\nIf I would, could you?', 'annotations': {'description': '&lt;p&gt;The song concerns the late lead singer of Mother Love Bone, Andrew Wood, who died of a heroin overdose in 1990.  Would? and Wood are homophones.&lt;br&gt;\nIt is written by Jerry Cantrell and produced by Rick Parashar.&lt;/p&gt;', 'producers': [{'name': 'Alice in Chains', 'url': 'https://genius.com/artists/Alice-in-chains'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Shinedown-monsters-lyrics', 'lyrics': "[Verse 1]\nGood for you, you fooled everybody\nGood for you, you fooled everyone\nGood for you, now you're somebody\nGood for you, you fooled everyone\n\n[Pre-Chorus 1]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real\n\n[Verse 2]\nGood for you, you hurt everybody\nGood for you, you hurt everyone\nGood for you, you love nobody\nGood for you, you owe no one\n\n[Pre-Chorus 2]\nLeave your weapon on the table\nWrapped in burlap, barely able\nCall a doctor, say a prayer\nChoose a god you think is fair\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\n'Cause my monsters are real\n\n[Bridge]\nLeave your weapon on the table\nWrapped in burlap, barely able\nDon't get angry, don't discourage\nTake a shot of liquid courage\nLeave a light on if you're able\n'Cause we both know you're unstable\nCall a doctor, say a prayer\nChoose a god you think is fair\n\n[Chorus]\n'Cause my monsters are real, and they're trained how to kill\nAnd there's no comin' back and they just laugh at how I feel\nAnd these monsters can fly, and they'll never say die\nAnd there's no goin' back, if I get trapped I'll never heal\nYeah, my monsters are real", 'annotations': {'description': '&lt;p&gt;From Jeff Gorra’s (@ArtistWaves) interview with frontman Brent Smith:&lt;/p&gt;\n\n&lt;p&gt;“There’s a song called “Monsters”. When I make that statement about “My monsters are real, and they’re trained how to kill”, that’s about as blunt and bold as I can be about those voices that I did say were legendary, but can also be my demise if I let them. Personally, it has a lot to do with substance abuse. I will forever be an addict. I’m clean now, but the fact is\u200a—\u200aI have to take it day-by-day. Those pathways are already paved in my brain. I know exactly what’s on those roads. For me to think I can go into a bar today and just have one drink, that would be great, but that’s not reality. If I were to go into a bar and have one drink I would end up drinking every single one in the building and probably wind up in jail. I know the parts of me that I must respect. It doesn’t mean I have to like it, but I do have to respect it. It’s something I can’t think about in the future, I literally have to take one day at a time. I haven’t gone to rehab, I don’t do self-help, nor am I a part of a 12-step program, I only know how to do it this way. I’m also very lucky because the other three guys I’m in a band with are my brothers and they’ve never judged me. They’ve just been there to pick me up when I fell.”&lt;/p&gt;', 'producers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}], 'writers': [{'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pat-benatar-hit-me-with-your-best-shot-lyrics', 'lyrics': "[Intro]\n\n[Verse 1]\nWell you're the real tough cookie with a long history\nOf breaking little hearts like the one in me\nThat's okay, let's see how you do it\nPut up your dukes, let's get down to it\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away\n\n[Verse 2]\nYou come on with it, come on, you don't fight fair\nThat's okay, see if I care\nKnock me down, it's all in vain\nI get right back on my feet again\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away\n[Instrumental]\n\n[Verse 3]\nWell you're the real tough cookie with a long history\nOf breaking little hearts like the one in me\nBefore I put another notch in my lipstick case\nYou better make sure you put me in my place\n\n[Chorus]\nHit me with your best shot\nC'mon, hit me with your best shot\nHit me with your best shot\nFire away\n\n[Chorus]\nHit me with your best shot\nWhy don't you hit me with your best shot\nHit me with your best shot\nFire away", 'annotations': {'description': '&lt;p&gt;Pat Benatar’s 1980 first top 10 single, achieving Gold record status.&lt;/p&gt;\n\n&lt;p&gt;A direct challenge to a hurtful lover, without any hint of self depreciation.&lt;/p&gt;\n\n&lt;p&gt;A true feminist statement.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5mgvz4egl87trnqtvg4bt7u5u.220x222x1.jpg" alt="" width="220" height="222" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Keith Olsen', 'url': 'https://genius.com/artists/Keith-olsen'}], 'writers': [{'name': 'Eddie Schwartz', 'url': 'https://genius.com/artists/Eddie-schwartz'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Aerosmith-livin-on-the-edge-lyrics', 'lyrics': "[Verse 1]\nThere's something wrong with the world today\nI don't know what it is\nSomething's wrong with our eyes\nWe're seeing things in a different way\nAnd God knows it ain't His\nIt sure ain't no surprise, yeah\n\n[Chorus]\nWe're livin' on the edge\nLivin' on the edge\nLivin' on the edge\nLivin' on the edge\n\n[Verse 2]\nThere's something wrong with the world today\nThe light bulb's getting dim\nThere's meltdown in the sky (ahh)\nIf you can judge a wise man\nBy the color of his skin\nThen mister, you're a better man than I\n\n[Chorus]\nWe're livin' on the edge\n(You can't help yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(You can't help yourself at all) (Everybody, everybody)\nLivin' on the edge\n(You can't stop yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(Everybody, everybody)\n[Verse 3]\nTell me what you think about your situation\nComplication, aggravation is getting to you, yeah\nIf Chicken Little tells you that the sky is falling\nEven if it wasn't, would you still come crawling\nBack again?\nI bet you would, my friend\nAgain and again and again and again and again\n\nTell me what you think about your situation\nComplication, aggravation is getting to you, yeah\nIf Chicken Little tells you that the sky is falling\nEven if it wasn't, would you still come crawling\nBack again?\nI bet you would, my friend\nAgain and again and again and again and\n\n[Bridge]\nThere's something right with the world today\nAnd everybody knows it's wrong\nBut we can tell 'em no or we could let it go\nBut I'd would rather be a hangin' on\n\n[Chorus]\nLivin' on the edge\n(You can't help yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(You can't help yourself at all) (Everybody, everybody)\nLivin' on the edge\n(You can't stop yourself from falling) (Everybody, everybody)\nLivin' on the edge\n(Everybody, everybody)\n[Outro]\nLivin' on the edge\nLivin' on the edge\nLivin' on the edge\nYeah, yeah, yeah, yeah, yeah, yeah, yeah\n\nLivin' on the edge (You can't help yourself from falling)\nLivin' on the edge (You can't help yourself at all)\nLivin' on the edge (You can't stop yourself from falling)\nLivin' on the edge\n\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself at all)\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself, you can't help yourself)\nLivin' on the edge (You can't help yourself from falling)\nLivin' on the edge\nYeah, yeah\nYeah yeah yeah yeah yeah yeah\nYeah yeah yeah yeah yeah yeah", 'annotations': {'description': '&lt;p&gt;“Livin on the Edge” is a slow, trippy rock song that plays similarly to a ballad, but with lyrics focusing more on lifestyle and mortality than love, romance and other subject matters to which ballads are normally attached. It was &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;’s first single from &lt;em&gt;Get a Grip&lt;/em&gt;, and was one of four Top 40 hits from the album.&lt;/p&gt;\n\n&lt;p&gt;The meaning behind this song isn’t very apparent from the lyrics.  By reading the lyrics while watching the video, you can see what the lyricist meant by the “edge”.  The edge can be interpreted in a few ways.  Living on the edge could be taken as living a risky lifestyle (as when the kid crashed his car into the blinking road construction sign and throwing away the condom that the Dad gives the kid) or living on the edge of gender (constant references to crossdressing and feminization of males and masculinization of females).  It seems that Aerosmith is commenting on the reversal of the natural state of our society by the elites.  The lyric, “something’s wrong in the world today and God knows it ain’t his”, speaks to the fact that Aerosmith is referencing a patriarchal social structure as the norm.  The video is heavily influenced by Fraternal Imagery and phallic symbols.  This fraternal influence is hidden from the general public, that think the natural evolution of society is toward more gender bending and androgyny, but this trend is actually being forced on us by the power elites to make us more easily controllable.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/9c1457644fbba62429364a4e249daf95.448x252x1.jpg" alt="" width="448" height="252" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Marc Hudson', 'url': 'https://genius.com/artists/Marc-hudson'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}, {'name': 'Joe Perry', 'url': 'https://genius.com/artists/Joe-perry'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Limp-bizkit-n-2-gether-now-lyrics', 'lyrics': "[Produced by DJ Premier]\nDJ Premier\nUh, uh, uh\n\n[Verse 1: Fred Durst &amp; Method Man]\nWho could be the boss? Look up to the cross\nStranded in the land of the lost\nStandin' up, I'm sideways\nI'm blazin' up the path, runnin' on the highways of rap\nChoked up by the smoke and the charcoal\nA lotta stamps and brands, we like a bar code\nI'm bashin' all the media strikes to keep the media dykes\nAs reinforcement for the fight\nAnd that alone'll keep John Gotti on the phone\nI'm tangled in the zone, I got the bees on the track\nWhere the fuck you at? (Tical!)\nLet me hear you pigeons run ya mouth now (Shut the fuck up!)\nI'm pluggin' in them social skills that keep my total bills\nOver a million the last time I checked it\nThank God, I'm blessed with a mind that'll wreck it\nWait until the second round and knock 'em out\n\n[Verse 2: Method Man]\nThey call me Big John Studd, my middle name Mud\nDirty water flow, too much for you thug\nThey can't stand the flood – what up, doc?\nHold big gun like Elmer Fudd,  the sureshot\nMr. Meth I'm unplugged (learn!)\nTemperatures too hot for sunblock (burn!)\nPlayin' wit' minds that get you state time\nLocked behind 12 bars from a great mind\nKilla bees in the club wit' this ladybug\nBrought a sword to the dance floor to cut a rug\nLove is love all day, 'til they throw slugs\nAnd take another life in cold blood, can't feel me 'til its your blood\nMurder rates tremendous, crime is endless\nSame shit different day, Father forgive us\nThey know not what they do, all praise is due\nI'm big like E-Z and Big Bambu\n[Chorus: Method Man]\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\n\n[Verse 3: Method Man with Fred Durst]\nHeadstrong, dead calm, Dead by Dawn\nDead weight, they dead wrong, let's get it on\nTwelve rounds of throw down – who hold crown?\nProtect land wit' four pound, Limp Bizkit\nGet around like merry-go, bust a scenario\nComin' through your stereo, why risk it?\nLifestyles of the prolific and gifted\nEight essential vitamins and minerals, delicious\nWord on the street is, they bit my thesis\nKnocked out they front teefes, tryin' to taste mine\nActin' like they heard it through the grapevine\nDope fiendin' for the bassline, to provide rhyme\nPharmaceuticals, hard as nails to the cuticles\nWhere'd you find that monster? She beautiful\nWu-Tang and Limp Bizkit, roll on the set\nKick a hole in the speaker, pull the plug, and then jet\n[Verse 4: Fred Durst &amp; Method Man]\nMic check, so what's it all about? And where we gonna run?\nMaybe we can meet up on the sun\nDiscretion is advised for the blood of virgin eyes\nWe limpin' on the track with the Method\nSo get the sunblock, you gettin' one-shot\nUntil you dissolve, I revolve around everything you got\nFrom outta nowhere, prepare, you be blinded by the glare\nI told you not to stare, now you're turned into stone\nWithout a microphone, but don't you forget you're in a zone\nSo shut the fuck up, and take that shit back\n'Cause all your shit's wack (Doo doo is doo doo)\nWhen its weighed out like that\nBurnin' up your brain like a piston\nSo all those that didn't listen\nNever even knew what they were missin'\nAnd never even knew that the sky was fallin' down\nWu-Tang-Clan for the crown\n\n[Chorus: Method Man]\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\nWhat's that? I didn't hear you\nShut the fuck up!\nCome on, a little louder!\nShut the fuck up!\nEverybody in together now\nShut the fuck up!\nWhat, huh?\nJust shut the fuck up, just shut the fuck up!\n[Outro: Method Man]\nIt was over your head – all day, every day\nS.I.N.Y. 10304\nWu-Tang Killa Bees\nAnd the Limp B-I-Z-K-I-T\nY'all know the time, y'all know the rhyme\nIt ain't easy bein' greazy in a world full of cleanliness\nAnd, you know, all that other madness\nWe gone, peace!\nLimp Bizkit, Method Man\nRock the house y'all! Bring it on!\n\n[Hidden Track]\nHey wait up, where you guys goin'?\nYou're not recordin', are you?\nAre you?\nBut I'm all alone\nI can't do this!\nFeel it, uh\nFeel it, feel it, feel it\nYou guys feel it out there?\nShake your head if you feel it\nHey, hey, hey\nEvery day is brighter than the next day\nAt least that's what you think\nEvery day is brighter than the next day\nAt least that's what you think", 'annotations': {'description': '&lt;p&gt;Beat courtesy of famed hip hop producer DJ Premier, it was released as the third single for “Significant Other” along with “Break Stuff”, and is definitely not a Nu-Metal song. It features Method Man as both of them mess around on the mic..the music video filmed for N 2 Gether Now has the two battling it out and features a cameo from Pauly Shore, it also uses a different beat to the original: &lt;a href="http://www.youtube.com/watch?v=tMLetx7SjCw" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=tMLetx7SjCw&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;For the original audio: &lt;a href="http://www.youtube.com/watch?v=okpp83_RIcE" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=okpp83_RIcE&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Limp Bizkit', 'url': 'https://genius.com/artists/Limp-bizkit'}, {'name': 'DJ Premier', 'url': 'https://genius.com/artists/Dj-premier'}], 'writers': [{'name': 'Method Man', 'url': 'https://genius.com/artists/Method-man'}, {'name': 'DJ Premier', 'url': 'https://genius.com/artists/Dj-premier'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}], 'labels': [{'name': 'Flip Records', 'url': 'https://genius.com/artists/Flip-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Jason-mraz-im-yours-lyrics', 'lyrics': "[Verse 1]\nWell you done done me in; you bet I felt it\nI tried to be chill but you're so hot that I melted\nI fell right through the cracks\nNow I'm trying to get back\n\nBefore the cool done run out\nI'll be giving it my bestest\nNothing's going to stop me but divine intervention\nI reckon it's again my turn to win some or learn some\n\n[Chorus]\nBut I won't hesitate no more, no more\nIt cannot wait, I'm yours\n\n[Verse 2]\nWell open up your mind and see like me\nOpen up your plans and damn you're free\nLook into your heart and you'll find\nLove, love, love, love\n\nListen to the music of the moment, people dance and sing\nWe're just one big family\nAnd it's our God-forsaken right to be\nLoved, love, love, love, loved\n[Chorus]\nSo I won't hesitate no more, no more\nIt cannot wait, I'm sure\nThere's no need to complicate\nOur time is short\nThis is our fate, I'm yours\n\n[Bridge]\nDo you want to come on scootch on over closer, dear\nAnd I will nibble your ear\n\n[Verse 3]\nI've been spending way too long checking my tongue in the mirror\nAnd bending over backwards just to try to see it clearer\nBut my breath fogged up the glass\nAnd so I drew a new face and I laughed\n\nI guess what I be saying is there ain't no better reason\nTo rid yourself of vanities and just go with the seasons\nIt's what we aim to do\nOur name is our virtue\n\n[Chorus]\nBut I won't hesitate no more, no more\nIt cannot wait – I'm yours\n[Outro]\nWell open up your mind and see like me (I won't hesitate)\nOpen up your plans and damn you're free (No more, no more)\nLook into your heart and you'll find (It cannot wait)\nThe sky is yours (I'm sure)\nSo please don't, please don't, please don't (No need to complicate)\nThere's no need to complicate (Our time is short)\n'Cause our time is short (This is)\nThis oh, this oh, this is our fate (our fate)\nI'm yours", 'annotations': {'description': '', 'producers': [{'name': 'Martin Terefe', 'url': 'https://genius.com/artists/Martin-terefe'}], 'writers': [{'name': 'Jason Mraz', 'url': 'https://genius.com/artists/Jason-mraz'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Lmfao-sexy-and-i-know-it-lyrics', 'lyrics': '[Intro]\nYeah, yeah\n\n[Verse 1]\nWhen I walk on by, girls be looking like, "Damn, he fly"\nI pimp to the beat, walking down the street in my new LaFreak\nYeah, this is how I roll, animal print, pants outta control\nIt\'s Redfoo with the big afro\nAnd like Bruce Leroy, I got the glow, yeah\n\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Chorus]\nWhen I walk in the spot (Yeah), this is what I see (Okay)\nEverybody stops and is staring at me\nI got passion in my pants and I ain\'t afraid to show it\nShow it, show it, show it\nI\'m sexy and I know it\nI\'m sexy and I know it\n[Verse 2]\nYeah\nWhen I\'m at the mall, security just can\'t fight \'em all\nAnd when I\'m at the beach, I\'m in a speedo trying to tan my cheeks (What)\nThis is how I roll, come on, ladies, it\'s time to go\nWe headed to the bar, baby, don\'t be nervous\nNo shoes, no shirt, and I still get service, watch\n\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Chorus]\nWhen I walk in the spot (Yeah), this is what I see (Okay)\nEverybody stops and is staring at me\nI got passion in my pants and I ain\'t afraid to show it\nShow it, show it, show it\nI\'m sexy and I know it (Ay)\nI\'m sexy and I know it\n\n[Bridge]\nCheck it out, check it out\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, wiggle, yeah\nWiggle, wiggle, wiggle, wiggle, yeah, yeah\nDo the wiggle, man, I do the wiggle, man\nYeah, I\'m sexy and I know it\nAy, yeah\n[Pre-Chorus]\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\nGirl, look at that body\nGirl, look at that body\nGirl, look at that body (I-I-I work out)\n\n[Outro]\nI\'m sexy and I know it', 'annotations': {'description': '&lt;p&gt;In this #1 hit from &lt;a href="https://genius.com/albums/Lmfao/Sorry-for-party-rocking" rel="noopener" data-api_path="/albums/12286"&gt;&lt;em&gt;Sorry for Party Rocking&lt;/em&gt;&lt;/a&gt;, RedFoo shows displays self-confidence and self-awareness in his impressive physique (or at least, what he &lt;strong&gt;thinks&lt;/strong&gt; is impressive physique).&lt;/p&gt;\n\n&lt;p&gt;This is his definition of “sexy”, in his own words:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;a href="http://www.mtv.com/news/1671012/lmfao-sexy-and-i-know-it/" rel="noopener nofollow"&gt;Sexy is confidence. It’s ‘I don’t care what other people think, but I want them to think that I’m sexy at the same time. It’s a Catch-22. I want to be seen. Sexy is you want attention and you gotta have moves. You gotta have moves, whether it be in the bedroom [or] on the dance floor — just the way you walk, the way you talk.&lt;/a&gt;&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=wyx6JDQCslE" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=wyx6JDQCslE&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}, {'name': 'Audiobot', 'url': 'https://genius.com/artists/Audiobot'}], 'writers': [{'name': 'George Matthew Robertson', 'url': 'https://genius.com/artists/George-matthew-robertson'}, {'name': '8ky', 'url': 'https://genius.com/artists/8ky'}, {'name': 'Audiobot', 'url': 'https://genius.com/artists/Audiobot'}, {'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Erin Beck', 'url': 'https://genius.com/artists/Erin-beck'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Judas-priest-breaking-the-law-lyrics', 'lyrics': "[Verse 1]\nThere I was completely wasting, out of work and down\nAll inside it's so frustrating as I drift from town to town\nFeel as though nobody cares if I live or die\nSo I might as well begin to put some action in my life\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Verse 2]\nSo much for the golden future, I can't even start\nI've had every promise broken, there's anger in my heart\nYou don't know what it's like, you don't have a clue\nIf you did you'd find yourselves doing the same thing too\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Bridge]\nYou don't know what it's like\n[Instrumental Interlude]\n\n[Chorus]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\n\n[Outro]\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law\nBreaking the law, breaking the law", 'annotations': {'description': '&lt;p&gt;The lyrics talk about some who (probably) was fired, can’t find a new job, is unhappy, and feels as if everyone and everything is against him.&lt;/p&gt;\n\n&lt;p&gt;The song features some sound effects, including the sound of breaking glass and a police siren. For the breaking glass effect, the band used milk bottles, and the police siren was actually guitarist K. K. Downing using the tremolo arm on his Stratocaster.&lt;/p&gt;\n\n&lt;p&gt;After 40 years from &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;the album&lt;/a&gt; release, &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt; realized an official lyric video for the song, published on April 16th, 2020:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/eRorNhiUM8U?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Tom Allom', 'url': 'https://genius.com/artists/Tom-allom'}], 'writers': [{'name': 'Glenn Tipton', 'url': 'https://genius.com/artists/Glenn-tipton'}, {'name': 'Rob Halford', 'url': 'https://genius.com/artists/Rob-halford'}, {'name': 'K.K. Downing', 'url': 'https://genius.com/artists/Kk-downing'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Michael-jackson-and-slash-give-in-to-me-lyrics', 'lyrics': "[Verse 1]\nShe always takes it with a heart of stone\n'Cause all she does is throw it back to me\nI've spent a lifetime looking for someone\nDon't try to understand me\nJust simply do the things I say\n\n[Chorus]\nLove is a feeling\nGive it when I want it\n'Cause I'm on fire\nQuench my desire\nGive it when I want it\nTalk to me, woman\nGive in to me, give in to me\n\n[Verse 2]\nYou always knew just how to make me cry\nAnd never did I ask you questions why\nIt seems you get your kicks from hurting me\nDon't try to understand me\nBecause your words just aren't enough\n\n[Chorus]\nLove is a feeling\nQuench my desire\nGive it when I want it\nTakin' me higher\nLove is a woman\nI don't wanna hear it\nGive in to me, give in to me\n[Bridge]\nYou and your friends were laughing at me in town\nBut it's okay and it's okay\nYou won't be laughing, girl, when I'm not around\nI'll be okay\nAnd I'd, I'd never find\nBetter, a peace of mind, no\n\n[Guitar Solo]\n\n[Pre-Chorus]\nDon't try to tell me\nBecause your words just aren't enough\n\n[Chorus]\nLove is a feeling\nQuench my desire\nGive it when I want it\nTakin' me higher\nTalk to me, woman\nLove is a feeling\nGive in to me, give in to me, give in to me\nOh, love is a feeling\nI don't wanna hear it\nQuench my desire\nTakin' me higher\nTell it to the preacher\nSatisfy the feeling\nGive in to me, give in to me\n[Guitar Solo]\n\n[Outro]\nI don't wanna, I don't wanna, I don't wanna hear it\nGive in to the fire\nTalk to me, woman\nQuench my desire\nI'd like a lady\nTalk to me, baby\nGive in to me\nGive in to the fire\nGive in to me\nGive in to me\nGive in to me\nLove is a woman\nGive in to me\nGive in to me\nGive in to me\nGive in to me\n'Cause I'm on fire\nTalk to me, woman\nQuench my desire\nGive in to the feeling", 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Give In To Me&lt;/em&gt; is the 10th track on &lt;a href="https://genius.com/albums/michael-jackson/dangerous" rel="noopener" data-api_path="/albums/6296"&gt;&lt;em&gt;Dangerous&lt;/em&gt;&lt;/a&gt;, Michael Jackson’s 8th album.  In an album that heavily features the &lt;a href="https://en.wikipedia.org/wiki/New_jack_swing" rel="noopener nofollow"&gt;New Jack Swing&lt;/a&gt; style, this rock ballad once again shows Michael’s range and creative diversity.&lt;/p&gt;\n\n&lt;p&gt;The song features &lt;a href="https://genius.com/artists/Guns-n-roses" rel="noopener" data-api_path="/artists/637"&gt;Guns N\' Roses&lt;/a&gt; guitarist &lt;a href="https://genius.com/artists/Slash" rel="noopener" data-api_path="/artists/10939"&gt;Slash&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/32da2923e639ab6f2424c54e93c9ae61.888x663x1.jpg" alt="" width="888" height="663" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The song can be compared to another rock ballad, &lt;a href="https://genius.com/Michael-jackson-dirty-diana-lyrics" rel="noopener" data-api_path="/songs/2907"&gt;“Dirty Diana”&lt;/a&gt;, from &lt;a href="https://genius.com/albums/Michael-Jackson/bad" rel="noopener" data-api_path="/albums/11195"&gt;&lt;em&gt;Bad&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/45e8537b08c05b28320cbdab69df6561.583x833x1.jpg" alt="" width="583" height="833" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Keane-this-is-the-last-time-lyrics', 'lyrics': "[Verse 1]\nThis is the last time\nThat I will say these words\nI remember the first time\nThe first of many lies\nSweep it into the corner\nOr hide it under the bed\nSay these things, they go away\nBut they never do\n\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Verse 2]\nThis is the last time\nThat I will show my face\nOne last tender lie and\nThen I'm out of this place\nTread it into the carpet\nOr hide it under the stairs\nYou say that some things never die\nWell, I tried and I tried\n[Pre-Chorus]\nSomething I wasn't sure of\nBut I was in the middle of\nSomething I forget now\nBut I've seen too little of\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind\n\n[Chorus]\nThe last time\nYou fall on me for anything you like\nYour one last line\nYou fall on me for anything you like\nAnd years make everything alright\nYou fall on me for anything you like\nAnd I, no, I don't mind", 'annotations': {'description': '&lt;p&gt;Tim Rice-Oxley describes the song as “mainly about regret. I was thinking about how you can have a huge amount of affection for someone and yet not have that magic spark that makes you feel like you’re in love … you have a bond with someone but you don’t want to stay with them forever. So you decide to go. But you’re not saying, ’I hate you and I’m leaving.’ You’re trying to say, ‘I think you’re great, but I’ve seen that there’s something more perfect and magical out there for me and I need to find it. But I will always be your friend if you need me.’”&lt;/p&gt;', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'writers': [{'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}, {'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'James Sanger', 'url': 'https://genius.com/artists/James-sanger'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-cult-she-sells-sanctuary-2009-re-master-lyrics', 'lyrics': "Oh the heads that turn\nMake my back burn\nOh the heads that turn\nMake my back, make my back burn\n\nThe sparkle in your eyes\nKeeps me alive\nAnd the sparkle in your eyes\nKeeps me alive, keeps a man alive\n\nAnd the world, and the world\nAnd the world turns around\nThe world, and the world, yeah\nThe world drags me down\n\nWell the heads that turn\nMake my back burn\nAnd the heads that turn\nMake my back, make my back burn, yeah\nYeah-ah-ah-ah\nYeah-ah-ah-ah\n\nThe fire in your eyes\nKeeps me alive\nAnd the fire in your eyes\nKeeps me alive\nI'm sure in her you'll find\nThe sanctuary\nI'm sure in her you'll find\nThe sanctuary\n\nAnd the world\nThe world turns around\nAnd the world, and the world\nThe world drags me down\n\nAnd the world, and the world, and the world\nThe world turns around\nAnd the world, and the world, and the world, and the world\nThe world drags me down\n\nHey-yeah-ah-ah\nHey-yeah-ah-ah\n\nAnd the world\nAnd the world turns around\nAnd the world, and the world\nYeah, the world drags me down\n\nAnd the world\nYeah, the world turns around\nAnd the world, and the world\nThe world drags me down\nSanctuary\nSanctuary\nSanctuary\nSanctuary", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Twenty-one-pilots-stressed-out-lyrics', 'lyrics': '[Verse 1]\nI wish I found some better sounds no one\'s ever heard\nI wish I had a better voice that sang some better words\nI wish I found some chords in an order that is new\nI wish I didn\'t have to rhyme every time I sang\nI was told, when I get older, all my fears would shrink\nBut now I\'m insecure, and I care what people think\n\n[Pre-Chorus]\nMy name\'s Blurryface and I care what you think\nMy name\'s Blurryface and I care what you think\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\nWe\'re stressed out\n\n[Verse 2]\nSometimes a certain smell will take me back to when I was young\nHow come I\'m never able to identify where it\'s comin\' from?\nI\'d make a candle out of it, if I ever found it\nTry to sell it, never sell out of it, I\'d probably only sell one\nIt\'d be to my brother, \'cause we have the same nose\nSame clothes, homegrown, a stone\'s throw from a creek we used to roam\nBut it would remind us of when nothing really mattered\nOut of student loans and treehouse homes, we all would take the latter\n[Pre-Chorus]\nMy-my-my name\'s Blurryface and I care what you think\nMy name\'s Blurryface and I care what you think\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\n[Bridge]\nWe used to play pretend, give each other different names\nWe would build a rocket ship an\' then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah\nWe used to play pretend, give each other different names\nWe would build a rocket ship an\' then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah\n\n[Chorus]\nWish we could turn back time to the good old days\nWhen our momma sang us to sleep, but now we\'re stressed out\n(Oh) Wish we could turn back time (Oh) to the good old days (Oh)\nWhen our momma sang us to sleep, but now we\'re stressed out\n[Outro]\nWe used to play pretend, used to play pretend, money\nWe used to play pretend, wake up, you need the money\nUsed to play pretend, used to play pretend, money\nWe used to play pretend, wake up, you need the money\nUsed to play pretend, give each other different names\nWe would build a rocket ship and then we\'d fly it far away\nUsed to dream of outer space, but now they\'re laughin\' at our face\nSayin\', "Wake up, you need to make money!," yeah', 'annotations': {'description': '&lt;p&gt;The lyrics of “Stressed Out” are told in the first person, with the story being told by both the character Blurryface (a representation of Tyler’s insecurities) and an anxious Tyler feeling intense childhood nostalgia. The song is primarily about a wish to regain the innocence and carefree nature of childhood, before insecurities (i.e. Blurryface) existed.&lt;/p&gt;\n\n&lt;p&gt;It was released on April 27, 2015 as the third single from their second studio album, &lt;em&gt;Blurryface&lt;/em&gt;. In February 2016, &lt;a href="http://www.billboard.com/artist/430557/twenty-one-pilots/chart" rel="noopener nofollow"&gt;it managed to reach number two on the Hot 100&lt;/a&gt;, becoming their first single to reach that height.&lt;/p&gt;\n\n&lt;p&gt;The music video features Josh Dun and Tyler Joseph riding big-wheels and hanging out in their childhood bedrooms, suggesting a state of crippling nostalgia and perhaps even arrested development.&lt;/p&gt;\n\n&lt;p&gt;On April 30, 2021 “Stressed Out” was certified Diamond by the &lt;a href="https://www.riaa.com/gold-platinum/" rel="noopener nofollow"&gt;RIAA&lt;/a&gt;, their first Diamond certification.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}], 'writers': [{'name': 'Tyler Joseph', 'url': 'https://genius.com/artists/Tyler-joseph'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Fueled By Ramen', 'url': 'https://genius.com/artists/Fueled-by-ramen'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-chainsmokers-closer-lyrics', 'lyrics': "[Verse 1: Andrew Taggart]\nHey, I was doing just fine before I met you\nI drink too much\nAnd that's an issue, but I'm okay\nHey, you tell your friends\nIt was nice to meet them\nBut I hope I never see them again\n\n[Pre-Chorus: Andrew Taggart]\nI know it breaks your heart\nMoved to the city in a broke-down car\nAnd four years, no calls\nNow you're lookin' pretty in a hotel bar\nAnd I-I-I can't stop\nNo, I-I-I can't stop\n\n[Chorus: Andrew Taggart]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n[Post-Chorus: Andrew Taggart]\nWe ain't ever getting older\nWe ain't ever getting older\n\n[Verse 2: Halsey]\nYou look as good as the day I met you\nI forget just why I left you, I was insane\nStay and play that blink-182 song\nThat we beat to death in Tucson, okay\n\n[Pre-Chorus: Halsey]\nI know it breaks your heart\nMoved to the city in a broke-down car\nAnd four years, no call\nNow I'm lookin' pretty in a hotel bar\nAnd I-I-I can't stop\nNo, I-I-I can't stop\n\n[Chorus: Andrew Taggart &amp; Halsey]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n[Post-Chorus: Andrew Taggart &amp; Halsey]\nWe ain't ever getting older\nWe ain't ever getting older\n\n[Chorus: Andrew Taggart]\nSo, baby, pull me closer\nIn the backseat of your Rover\nThat I know you can't afford\nBite that tattoo on your shoulder\nPull the sheets right off the corner\nOf the mattress that you stole\nFrom your roommate back in Boulder\nWe ain't ever getting older\n\n[Post-Chorus: Andrew Taggart &amp; Halsey]\nWe ain't ever getting older\n(No, we ain't ever getting older)\nWe ain't ever getting older\n(No, we ain't ever getting older)\nWe ain't ever getting older\n(We ain't ever getting older)\nWe ain't ever getting older\n(No, we ain't ever getting older)\n(We ain't ever getting older)\n(No, we ain't ever getting older)", 'annotations': {'description': '&lt;p&gt;“Closer” is a millennial romance anthem that celebrates youth and heartbreak. It features vocals from singer-songwriter &lt;a href="https://genius.com/artists/Halsey" rel="noopener" data-api_path="/artists/228636"&gt;Halsey&lt;/a&gt; and Chainsmokers member Andrew Taggart, marking the first time the Chainsmokers feature their vocals on a track—Taggart previously &lt;a href="https://www.youtube.com/watch?v=HlUGRbPLn-4&amp;amp;feature=youtu.be&amp;amp;t=21m" rel="noopener nofollow"&gt;performed backing vocals&lt;/a&gt; for the chorus of &lt;a href="https://genius.com/The-chainsmokers-roses-lyrics" rel="noopener" data-api_path="/songs/2138429"&gt;“Roses”&lt;/a&gt;. It is also their first collaboration with Halsey.&lt;/p&gt;\n\n&lt;p&gt;At the &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;2016 MTV VMAs&lt;/a&gt;, both the duo and Halsey performed “Closer”. The duo teased the performance as &lt;a href="https://twitter.com/TheChainsmokers/status/770178202744590336" rel="noopener nofollow"&gt;“new level” on Twitter&lt;/a&gt;. This was &lt;a href="http://www.mtv.com/news/2924529/chainsmokers-halsey-closer-performance-vmas-2016/" rel="noopener nofollow"&gt;the second time that “Closer” was performed at Madison Square Garden&lt;/a&gt; — the first being at Halsey’s &lt;a href="http://www.billboard.com/articles/news/6762299/halsey-sells-out-madison-square-garden" rel="noopener nofollow"&gt;sold-out&lt;/a&gt; Badlands Tour &lt;a href="http://www.thegarden.com/events/2016/august/halsey.html" rel="noopener nofollow"&gt;show on August 13th, 2016&lt;/a&gt; where The Chainsmokers performed as guests.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/agFMqNB9BYM?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;In September 2016, after “Closer” had already reached the summit of the Billboard Hot 100, &lt;a href="https://genius.com/artists/Isaac-slade" rel="noopener" data-api_path="/artists/149826"&gt;Isaac Slade&lt;/a&gt; and &lt;a href="https://genius.com/artists/Joe-king" rel="noopener" data-api_path="/artists/658975"&gt;Joe King&lt;/a&gt;, respectively the lead singer and guitarist of &lt;a href="https://genius.com/artists/The-fray" rel="noopener" data-api_path="/artists/7807"&gt;The Fray&lt;/a&gt;, &lt;a href="http://www.billboard.com/articles/news/dance/7495958/chainsmokers-closer-the-fray-songwriting-credits" rel="noopener nofollow"&gt;were given additional songwriting credits&lt;/a&gt; on the song due to the similarity of its chorus to the verses of their 2005 breakout hit, &lt;a href="https://genius.com/the-fray-over-my-head-cable-car-lyrics" rel="noopener" data-api_path="/songs/197591"&gt;“Over My Head (Cable Car).”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On the March-25-dated chart, “Closer” &lt;a href="http://www.billboard.com/articles/columns/chart-beat/7720945/hot-100-chainsmokers-closer-ties-record-most-weeks-top-ten" rel="noopener nofollow"&gt;tied&lt;/a&gt; &lt;a href="https://genius.com/artists/Leann-rimes" rel="noopener" data-api_path="/artists/63143"&gt;LeAnn Rimes Cibrian&lt;/a&gt;’s 32 week record in the &lt;em&gt;Billboard Hot 100&lt;/em&gt; top 10. The singer held it for 20 years –\xa0beginning December 13, 1997 – with her single &lt;a href="https://genius.com/Leann-rimes-how-do-i-live-lyrics" rel="noopener" data-api_path="/songs/384569"&gt;“How Do I Live.”&lt;/a&gt; She &lt;a href="https://twitter.com/leannrimes/status/843917019053481985" rel="noopener nofollow"&gt;congratulated&lt;/a&gt; the hitmaker duo on Twitter by singing a mashup of “Closer” and her own song.&lt;/p&gt;\n\n&lt;p&gt;On September 15, 2018, the song was &lt;a href="https://www.billboard.com/articles/news/dance/8475327/chainsmokers-halsey-closer-diamond-certified-riaa-instagram" rel="noopener nofollow"&gt;certified Diamond by the RCAA&lt;/a&gt;, verifying that the song had sold an equivalent ten million units in the United States alone.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Related:&lt;/strong&gt; &lt;a href="https://genius.com/a/how-blink-182-s-i-miss-you-inspired-the-chainsmokers-and-halsey-s-closer" rel="noopener" data-api_path="/articles/507"&gt;How Blink 182’s “I Miss You” Inspired The Chainsmokers And Halsey’s “Closer”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'DJ Swivel', 'url': 'https://genius.com/artists/Dj-swivel'}, {'name': 'The Chainsmokers', 'url': 'https://genius.com/artists/The-chainsmokers'}], 'writers': [{'name': 'Frederic Kennett', 'url': 'https://genius.com/artists/Frederic-kennett'}, {'name': 'Joe King', 'url': 'https://genius.com/artists/Joe-king'}, {'name': 'Isaac Slade', 'url': 'https://genius.com/artists/Isaac-slade'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Shaun Frank', 'url': 'https://genius.com/artists/Shaun-frank'}, {'name': 'Andrew Taggart', 'url': 'https://genius.com/artists/Andrew-taggart'}], 'labels': [{'name': 'Disruptor Records', 'url': 'https://genius.com/artists/Disruptor-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-pussycat-dolls-dont-cha-lyrics', 'lyrics': "[Intro: Busta Rhymes &amp; Nicole Scherzinger]\nOkay (Ahh)\nYeah (Ahh)\nOh, we about to get it just a little hot and sweaty in this– (Ooh, baby)\nLadies, let's go (Uhh)\nSoldiers, let's go (Dolls)\nLet me talk to y'all and just, you know, give you a little situation\nListen (Fellas)\n\n[Verse 1: Busta Rhymes &amp; Nicole Scherzinger]\nYou see this **** get hot\nEvery time I come through when I step up in the spot (Are you ready?)\nMake the place sizzle like a summertime cookout\nProwl for the best chick, yes, I'm on the lookout (Let's dance)\nSlow bangin' shorty like a belly dancer wit' it\nSmell good, pretty skin, so gangsta wit' it (Ooh, baby)\nNo tricks, only diamonds under my sleeve\nGimme the number, but make sure you call before you leave\n\n[Verse 2: Nicole Scherzinger]\nI know you like me (I know you like me)\nI know you do (I know you do)\nThat's why whenever I come around, she's all over you\nAnd I know you want it (I know you want it)\nIt's easy to see (It's easy to see)\nAnd in the back of your mind\nI know you should be fuckin' with me\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me?\nDon't cha wish your girlfriend was a freak like me?\nDon't cha? Don't cha?\nDon't cha wish your girlfriend was raw like me?\nDon't cha wish your girlfriend was fun like me?\nDon't cha? (Ah-ah-ah) Don't cha?\n\n[Verse 3: Nicole Scherzinger]\nFight the feeling (Fight the feeling)\nLeave it alone (Leave it alone)\n'Cause if it ain't love\nIt just ain't enough to leave a happy home (Uh-uh, uh-uh)\nLet's keep it friendly (Let's keep it friendly)\nYou have to play fair (You have to play fair, yeah)\nSee, I don't care\nBut I know, she ain't gon' wanna share (Ah, ah-ah)\n\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me? (Oh)\nDon't cha wish your girlfriend was a freak like me? (Like me)\nDon't cha? Don't cha, baby?\nDon't cha? Alright, sing\nDon't cha wish your girlfriend was raw like me? (Raw)\nDon't cha wish your girlfriend was fun like me? (Big fun)\nDon't cha? (Ah-ah-ah) Don't cha?\n[Interlude: Busta Rhymes]\nOkay, I see how it's goin' down\nSeem like shorty wanna little ménage pop off or somethin'\nLet's go\n\n[Verse 4: Busta Rhymes]\nWell, let me get straight to it\nEvery broad wanna watch a ***** when I come through it\nIt's the God almighty, lookin' all brand new\nIf shorty wanna jump in my Aston Vanquish\nLookin' at me all like she really wanna do it\nTryna put it on me 'til my ***** black and blueish\nYou wanna play with a player, girl, then play on\nStrip out the Chanel and leave the lingerie on (Ha)\nWatch me and I'ma watch you at the same time\nLookin' at you wanna break my back\nYou're the very reason why I keep a pack of the Magnum\nAnd with the wagon, hit you in the back of the Magnum\nFor the record, don't think it was something you did\nShorty all on me 'cause it's hard to resist the kid\nI got a idea that's dope for y'all\nAs y'all could get cold so I could hit the both of y'all\n\n[Verse 5: Nicole Scherzinger]\nSee, I know she loves ya (I know she loves ya)\nI understand (I understand, yeah)\nI'd probably be just as crazy about you if you were my own man\nMaybe next lifetime (Maybe next lifetime)\nPossibly (Possibly)\nUntil then, old friend, your secret is safe with me (Shh, hot)\n[Chorus: The Pussycat Dolls]\nDon't cha wish your girlfriend was hot like me? (Oh)\nDon't cha wish your girlfriend was a freak like me? (Like me)\nDon't cha? Don't cha, baby?\nDon't cha? Alright, sing\nDon't cha wish your girlfriend was raw like me? (Raw)\nDon't cha wish your girlfriend was fun like me? (Big fun)\nDon't cha? (Ah-ah-ah) Don't cha?", 'annotations': {'description': '&lt;p&gt;“Don’t Cha” was officially released as the first single from The Pussycat Dolls\' debut album, &lt;a href="https://genius.com/albums/The-pussycat-dolls/Pcd" rel="noopener" data-api_path="/albums/6051"&gt;&lt;em&gt;PCD&lt;/em&gt;&lt;/a&gt;. The song features guest vocals from rapper &lt;a href="https://genius.com/artists/Busta-rhymes" rel="noopener" data-api_path="/artists/338"&gt;Busta Rhymes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song debuted on the Hot 100 at &lt;a href="http://www.billboard.com/articles/news/63105/stefani-single-ousts-50-cent-from-no-1" rel="noopener nofollow"&gt;#95&lt;/a&gt; back in 2005. The song would eventually climb and peak at &lt;a href="http://www.billboard.com/artist/418902/pussycat-dolls/chart?f=379" rel="noopener nofollow"&gt;#2&lt;/a&gt; making the song their biggest hit.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song is about a girl who is taunting a guy about his girlfriend, asking if he wishes that the girlfriend he has was as hot as her.&lt;/p&gt;', 'producers': [{'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}], 'writers': [{'name': 'Busta Rhymes', 'url': 'https://genius.com/artists/Busta-rhymes'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'Sir Mix-a-Lot', 'url': 'https://genius.com/artists/Sir-mix-a-lot'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Whigfield-saturday-night-lyrics', 'lyrics': '[Intro: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, Dee, dee, na, na, na\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n\n[Verse: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday night I feel the air is getting hot (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Like you baby\nI\'ll make you mine, you know I\'ll take you to the top (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) I\'ll drive you crazy\nSaturday night, dance, I like the way you move (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Pretty baby\nIt\'s party time and not one minute we can lose (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Be my baby\n\n[Refrain: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nDa ba da dan, dee dee dee da nee na na na (Man, man, man, man, man, man, man, man)\nBe my baby (Man, man, man, man, man, man, man, man)\nDa ba da dan, dee dee dee da nee na na na (Man, man, man, man, man, man, man, man)\nPretty baby (Man, man, man, man, man, man, man, man)\n\n[Post-Refrain: Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n[Verse: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday night I feel the air is getting hot (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Like you baby\nI\'ll make you mine, you know I\'ll take you to the top (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) I\'ll drive you crazy\nSaturday night, dance, I like the way you move (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Pretty baby\nIt\'s party time and not one minute we can lose (Man, man, man, man, man, man, man, man)\n(Man, man, man, man, man, man, man, man) Be my baby\n\n[Bridge: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nSaturday night, dance, I like the way you move\nPretty baby\nIt\'s party time and not one minute we can lose\nBe my baby\nOoh, ooh\n\n[Break: Rockets - "Synthetic Man" Sample]\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\nMan, man, man, man, man, man, man, man\n[Outro: Whigfield &amp; Rockets - "Synthetic Man" Sample]\nSaturday (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Da ba da dan, dee dee dee/Man, man, man, man)\nSaturday (Da nee na na na/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (It\'s party time, hey!/Man, man, man, man)\nSaturday (It\'s party time, oh!/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (It\'s party time, hey!/Man, man, man, man)\nSaturday (It\'s party time, oh!/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday (Man, man, man, man)\nSaturday (Ooh, hoo/Man, man, man, man)\nSaturday night (Man, man, man, man)\nSaturday night (Man, man, man, man)', 'annotations': {'description': '&lt;p&gt;The debut single by Whigfield aka Danish Eurodance singer Sannie Carlson. She landed on the number one spot of the UK singles chart in September 1994, becoming the first person to do so with their debut single. With this song, she also topped numerous other charts across Europe.&lt;/p&gt;', 'producers': [{'name': 'Larry Pignagnoli', 'url': 'https://genius.com/artists/Larry-pignagnoli'}], 'writers': [{'name': 'Larry Pignagnoli', 'url': 'https://genius.com/artists/Larry-pignagnoli'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Beastie-boys-intergalactic-lyrics', 'lyrics': '[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\n\n[Verse 1: Mike D]\nWell, now, don\'t you tell me to smile\nYou stick around, I\'ll make it worth your while\nGot numbers beyond what you can dial\nMaybe it\'s because I\'m so versatile\nStyle, profile\n\n[Verse 2: Ad-Rock]\nI said it always brings me back when I hear, "ooh child"\nFrom the Hudson River out to the Nile\nI run the marathons \'til the very last mile\n\n[Verse 3: MCA]\nWell, if you battle me, I will revile\nPeople always saying my style is wild\nYou\'ve got gall, you\'ve got guile (guile)\nTo step to me, I’m a rapophile\n[Verse 4: Mike D]\nIf you wanna battle, you\'re in denial\nComing from Uranus to check my style\nGo ahead; put my rhymes on trial\nCast you off into exile\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\n\n[Verse 5: Ad-Rock]\nJazz and AWOL, that\'s our team\nStep inside the party, disrupt the whole scene\nWhen it comes to beats, well, I\'m a fiend\nI like my sugar with coffee and cream\n\n[Verse 6: MCA]\nWell, I gotta keep it going, keep it going full steam\nToo sweet to be sour; too nice to be mean\nWell, on the tough guy style, I\'m not too keen\nTrying to change the world, I will plot and scheme\n\n[Verse 7: Mike D]\nMario C likes to keep it clean (clean)\nGoin\' to shine like a sunbeam\nKeep on rapping \'cause that\'s my dream\nGot an A from Moe Dee for sticking to themes\n[Verse 8: Ad-Rock]\nNow when it comes to envy, y\'all is green\nJealous of the rhyme and the rhyme routine (\'tine)\nAnother dimension, new galaxy\nIntergalactic planetary\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\n\n[Verse 9: MCA]\nWe\'re from the family tree of old school hip-hop\nKick off your shoes and relax your socks\nThe rhymes will spread just like a pox\n\'Cause the music is live, like an electric shock\n\n[Verse 10: Mike D]\nI am known to do the wop (wop)\nAlso known for the Flintstone Flop\nTammy D getting biz on the crop (crop)\nBeatsie Boys known to let the beat\n"MMM, D-r-r-rop!"\nDo it\n[Verse 11: Ad-Rock]\nNow when I wrote graffiti, my name was Slop\nIf my rap\'s soup, my beats is stock\nStep from the table when I start to chop\nI\'m the lumberjack, DJ Adrock\n\n[Verse 12: MCA]\nIf you try to knock me, you\'ll get mocked\nI\'ll stir fry you in my wok\nYour knees\'ll start shaking and your fingers pop\nLike a pinch on the neck of Mr. Spock\n\n[Chorus]\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nIntergalactic planetary, planetary intergalactic\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\nAnother dimension, another dimension\n\n[Outro]\nDo it', 'annotations': {'description': '&lt;p&gt;“Intergalactic" is track #7 on Beastie Boys 5th (full-length) studio album, &lt;em&gt;Hello Nasty&lt;/em&gt;, released 7.14.1998.  In addition to producing, Mario Caldato, Jr. shares a writing credit with the Boys.  It was dropped as a single on 5.12.1998, the group’s 3rd Top 40 single, hitting #28 on the Billboard Hot 100 charts and #5 on the UK Singles Chart — the Beasties\' biggest hit in that country.  “Intergalactic" received the Grammy Award for Best Rap Performance by a Duo or Group in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/f0bah2ku2d173blbipnyq811a.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Source: &lt;a href="http://typophile.com/node/68006" rel="noopener nofollow"&gt;typophile&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Samples include:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="http://www.whosampled.com/sample/view/9108/Beastie%20Boys-Intergalactic_Les%20Baxter-Prelude%20in%20C#%20Minor/" rel="noopener nofollow"&gt;Prelude C# Minor&lt;/a&gt;“ composed by Rachmaninoff and performed by Lex Baxter&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="http://www.youtube.com/watch?v=iS_f7ic5RtQ" rel="noopener nofollow"&gt;Love is Blue&lt;/a&gt;“ by The Jazz Crusaders, on their album, &lt;em&gt;Powerhouse&lt;/em&gt; (1969)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;“&lt;a href="https://genius.com/Beastie-boys-the-new-style-lyrics" rel="noopener" data-api_path="/songs/9409"&gt;The New Style&lt;/a&gt;” from Beastie Boys’ &lt;em&gt;Licensed to Ill&lt;/em&gt; (1986)&lt;/p&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/2c67uygjjro2r5f1rblkns06t.447x448x1.jpg" alt="" width="447" height="448" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Source: &lt;a href="http://eil.com/shop/moreinfo.asp?catalogid=113970" rel="noopener nofollow"&gt;eil&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.beastiemania.com/songspotlight/show.php?band=b&amp;amp;s=intergalacticPerformed" rel="noopener nofollow"&gt;Beastiemania&lt;/a&gt; reports the song has been performed in 189 known Concerts.&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;1st Known Performance: &lt;a href="http://www.beastiemania.com/gigog/show.php?g=19980610" rel="noopener nofollow"&gt;6.10.1998&lt;/a&gt; — Electric Factory, Philadelphia, PA, US&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=kCGNWdrN3yw" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=kCGNWdrN3yw&lt;/a&gt;&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?feature=player_detailpage&amp;amp;v=X8vsLWonkpQ#t=174s" rel="noopener nofollow"&gt;https://www.youtube.com/watch?feature=player_detailpage&amp;amp;v=X8vsLWonkpQ#t=174s&lt;/a&gt;&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=0Hxv1QfQlnU" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=0Hxv1QfQlnU&lt;/a&gt;&lt;br&gt;\n&lt;a href="http://www.youtube.com/watch?v=LBxfGG0OVgU" rel="noopener nofollow"&gt;http://www.youtube.com/watch?v=LBxfGG0OVgU&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Last Known Performance: &lt;a href="http://www.beastiemania.com/gigog/show.php?g=20090612" rel="noopener nofollow"&gt;6.12.2009&lt;/a&gt; — Great Stage Park, Manchester, TN, US&lt;/li&gt;\n&lt;/ul&gt;', 'producers': [{'name': 'Beastie Boys', 'url': 'https://genius.com/artists/Beastie-boys'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Mike D', 'url': 'https://genius.com/artists/Mike-d'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Mario Caldato Jr.', 'url': 'https://genius.com/artists/Mario-caldato-jr'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Grand Royal Records', 'url': 'https://genius.com/artists/Grand-royal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pixies-where-is-my-mind-lyrics', 'lyrics': "[Intro: Black Francis, Kim Deal]\nOoh—stop\n\n[Verse 1: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah (Yeah)\nYour head will collapse, and there's nothing in it\nAnd you'll ask yourself\n\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n\n[Verse 2: Black Francis]\nI was swimmin' in the Caribbean\nAnimals were hiding behind the rocks\nExcept the little fish\nBumped into me, I swear he was trying to talk to me, koi-koi\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n[Verse 3: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah\nYour head will collapse, and there's nothing in it\nAnd you'll ask yourself\n\n[Chorus: Black Francis]\nWhere is my mind?\nWhere is my mind?\nWhere is my mind?\nWay out in the water, see it swimmin'\n\n[Outro: Black Francis]\nWith your feet on the air and your head on the ground\nTry this trick and spin it, yeah", 'annotations': {'description': '&lt;p&gt;Black Francis says that “Where Is My Mind?” was written during the time he was attending the University of Massachusetts Amherst, and was inspired by the experience of having a small fish chase him while he was snorkeling in the Caribbean.&lt;/p&gt;\n\n&lt;p&gt;David Lovering and Joey Santiago on writing the song and its use in at the end of the iconic movie &lt;em&gt;Fight Club&lt;/em&gt; (1999) (Warning: Movie spoilers):&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/sMeZDlJ_YYM?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}], 'labels': [{'name': 'Rough Trade Records', 'url': 'https://genius.com/artists/Rough-trade-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Franz-ferdinand-right-action-lyrics', 'lyrics': '[Verse 1]\nCome home, practically all is nearly forgiven\nRight thoughts, right words, right action\nAlmost everything could be forgotten\nRight thoughts, right words, right action\n\n[Chorus]\nOh, how can we leave you\nTo a Saturday night on a Sunday morning?\nGood morning\n\n[Verse 2]\nSometimes, wish you were here, weather permitting\nRight thoughts, right words, right action\nThis time, same as before, love you forever\nRight thoughts, right words, right action\n\n[Chorus]\nBut how can we leave you\nTo a Saturday night on a Sunday morning?\nGood morning\n\n[Refrain]\nDo-do-n-do-do-do\nDo-do-n-do-do-do\nDo-do-do-do, do, do, do\n[Bridge]\n11 Chalcot Gardens\nEngland’s Lane, Hampstead, London\n\n[Refrain]\nDo-do-n-do-do-do\nDo-do-n-do-do-do\nDo-do-do-do, do-do\n\n[Outro]\nSometimes, wish you were here, weather permitting\nRight thoughts, right words, right action\nRight thoughts, right words, right action\nRight thoughts, right words, right action\nRight thoughts, right words, right action', 'annotations': {'description': '&lt;p&gt;The opening song to their 2013 album “Right Thoughts, Right Words, Right Action.” It is an upbeat song whose narrator seems to emphasize those principles in its\' chorus, but ends up being rather passive-aggressive in the verses.&lt;br&gt;\n&lt;a href="https://www.youtube.com/watch?v=RqTsUtQLRFk" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=RqTsUtQLRFk&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Alexis Taylor', 'url': 'https://genius.com/artists/Alexis-taylor'}, {'name': 'Joe Goddard', 'url': 'https://genius.com/artists/Joe-goddard'}], 'writers': [{'name': 'Bob Hardy', 'url': 'https://genius.com/artists/Bob-hardy'}, {'name': 'Nick McCarthy', 'url': 'https://genius.com/artists/Nick-mccarthy'}, {'name': 'Alex Kapranos', 'url': 'https://genius.com/artists/Alex-kapranos'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-offspring-self-esteem-lyrics', 'lyrics': "[Intro]\nLa, la, la, la, la\nLa, la, la, la, la\n\n[Verse 1]\nI wrote her off for the tenth time today\nAnd practiced all the things I would say\nBut she came over, I lost my nerve\nI took her back and made her dessert\nNow I know I'm being used\nThat's okay, man, 'cause I like the abuse\nI know she's playing with me\nThat's okay 'cause I've got no self-esteem\n\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Verse 2]\nWe make plans to go out at night\nI wait 'til two, then I turn out the light\nThis rejection's got me so low\nIf she keeps it up, I just might tell her so\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Bridge]\nWhen she's saying, oh, that she wants only me\nThen I wonder why she sleeps with my friends\nWhen she's saying, oh, that I'm like a disease\nThen I wonder how much more I can spend\nWell, I guess I should stick up for myself\nBut I really think it's better this way\nThe more you suffer\nThe more it shows you really care\nRight? Yeah, yeah, yeah\n\n[Verse 3]\nNow I'll relate this little bit\nIt happens more than I'd like to admit\nLate at night, she knocks on my door\nShe's drunk again and looking to score\nNow I know I should say no\nBut it's kind of hard when she's ready to go\nI may be dumb, but I'm not a dweeb\nI'm just a sucker with no self-esteem\n[Chorus]\nOh hey yeah yeah\nOh yeah yeah\nOh yeah yeah\nOh yeah yeah\n\n[Bridge]\nWhen she's saying, oh, that she wants only me\nThen I wonder why she sleeps with my friends\nWhen she's saying, oh, that I'm like a disease\nThen I wonder how much more I can spend\nWell, I guess I should stick up for myself\nBut I really think it's better this way\nThe more you suffer\nThe more it shows you really care\nRight? Yeah, yeah, yeah", 'annotations': {'description': '&lt;p&gt;The song that got millions of mid-90s teenage boys self-righteously indignant. Believe us – we were there…&lt;/p&gt;\n\n&lt;p&gt;Dexter Holland has said that people have often thought that this was a song based on him because the song is spoken in a first person perspective, but he got the idea from other people he knew about.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/a725efa76cfb27b653ef8f9e1b86214e.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;For many years, this has been the last song played at an Offspring concert.&lt;/p&gt;', 'producers': [{'name': 'Thom Wilson', 'url': 'https://genius.com/artists/Thom-wilson'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Amy-winehouse-back-to-black-lyrics', 'lyrics': "[Verse 1]\nHe left no time to regret\nKept his dick wet with his same old safe bet\nMe and my head high\nAnd my tears dry, get on without my guy\nYou went back to what you know\nSo far removed from all that we went through\nAnd I tread a troubled track\nMy odds are stacked, I'll go back to black\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nI go back to us\n\n[Verse 2]\nI love you much, it's not enough\nYou love blow and I love puff\nAnd life is like a pipe\nAnd I'm a tiny penny rollin' up the walls inside\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\n[Bridge]\nBlack, black, black, black\nBlack, black, black\nI go back to\nI go back to\n\n[Chorus]\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to\nWe only said goodbye with words\nI died a hundred times\nYou go back to her and I go back to black", 'annotations': {'description': '&lt;p&gt;Ranked as the &lt;a href="https://www.rollingstone.com/music/music-lists/100-best-songs-of-the-2000s-153056/" rel="noopener nofollow"&gt;#98 best song of the 2000’s&lt;/a&gt;, “Back to Black” details the harsh reality Winehouse faced after her then-boyfriend, Blake Fielder-Civil, ended their relationship to return to his ex-girlfriend.&lt;/p&gt;\n\n&lt;p&gt;The titular “black” to which Winehouse goes back refers to the dark moments of depression and the reliance on alcohol to cope with her heartache. Winehouse commented on the depressing period of time during a 2007 interview with &lt;a href="https://youtu.be/BUO31yMztxE" rel="noopener nofollow"&gt;&lt;em&gt;CNN&lt;/em&gt;&lt;/a&gt;, saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was drinking a lot – not anything terrible, I was just tryna forget about the fact that I had finished this relationship.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The song was released as the third single from the 2006 album of the same name, and, as of July 2015, has sold over &lt;a href="https://www.officialcharts.com/chart-news/amy-winehouse-s-back-to-black-in-numbers__10090/" rel="noopener nofollow"&gt;350,000 copies&lt;/a&gt; in the United Kingdom alone.&lt;/p&gt;\n\n&lt;p&gt;The song was written in March 2006 in New York alongside British songwriter and producer &lt;a href="https://genius.com/artists/Mark-ronson" rel="noopener" data-api_path="/artists/8231"&gt;Mark Ronson&lt;/a&gt;, who also helped to craft five more songs on the album. During an interview with &lt;a href="https://youtu.be/dG2-WapOt1A?t=838" rel="noopener nofollow"&gt;Red Bull Music Academy&lt;/a&gt; in April 2015, Ronson expanded on the creation of the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt; The song – it took me about one night to lay the foundation of that track and then Amy wrote the lyrics and the melody especially fast, so it was like half a day, and then we probably recorded the rhythm track in three hours.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}], 'writers': [{'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Amy Winehouse', 'url': 'https://genius.com/artists/Amy-winehouse'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-offspring-the-kids-arent-alright-lyrics', 'lyrics': "[Verse 1]\nWhen we were young the future was so bright (Woah)\nThe old neighborhood was so alive (Woah)\nAnd every kid on the whole damn street (Woah)\nWas gonna make it big and not be beat\nNow the neighborhood's cracked and torn (Woah)\nThe kids are grown up but their lives are worn (Woah)\nHow can one little street\nSwallow so many lives?\n\n[Chorus]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams\n(Go!)\n\n[Verse 2]\nJamie had a chance, well she really did (Woah)\nInstead she dropped out and had a couple of kids (Woah)\nMark still lives at home 'cause he's got no job (Woah)\nHe just plays guitar and smokes a lot of pot\nJay committed suicide (Woah)\nBrandon OD'd and died (Woah)\nWhat the hell is going on?\nThe cruelest dream, reality\n[Chorus]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams\n(Go!)\n\n[Outro]\nChances thrown, nothing's free\nLonging for what used to be\nStill it's hard, hard to see\nFragile lives, shattered dreams", 'annotations': {'description': '&lt;p&gt;“The Kids Aren’t Alright” is the third single from the album &lt;a href="http://rock.genius.com/albums/The-offspring/Americana" rel="noopener" data-api_path="/albums/28406"&gt;&lt;em&gt;Americana&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Its title is an allusion to &lt;a href="https://genius.com/artists/The-who" rel="noopener" data-api_path="/artists/17846"&gt;The Who&lt;/a&gt; song “&lt;a href="http://rock.genius.com/The-who-the-kids-are-alright-lyrics" rel="noopener" data-api_path="/songs/140269"&gt;The Kids Are Alright&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In the video below, Dexter talks more about the song. One of the things that inspired the song was that someone from his neighborhood that he grew up with died from getting hit by a car.&lt;/p&gt;\n\n&lt;p&gt;Though the song plays B flat, G flat, D flat, and A flat, Noodles said if the song were to be transposed down a note, he could have done more with the songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/UNtwlhFOQGg?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nirvana-lithium-lyrics', 'lyrics': "[Verse 1]\nI'm so happy, 'cause today I found my friends, they're in my head\nI'm so ugly, that's okay, 'cause so are you, broke our mirrors\nSunday mornin' is every day for all I care, and I'm not scared\nLight my candles in a daze, 'cause I've found God\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n\n[Verse 2]\nI'm so lonely, that's okay, I shaved my head, and I'm not sad\nAnd just maybe I'm to blame for all I've hurt, but I'm not sure\nI'm so excited, I can't wait to meet you there, and I don't care\nI'm so horny, that's okay, my will is good\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n[Bridge]\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\n\n[Verse 1]\nI'm so happy, 'cause today I found my friends, they're in my head\nI'm so ugly, that's okay, 'cause so are you, broke our mirrors\nSunday mornin' is every day for all I care, and I'm not scared\nLight my candles in a daze, 'cause I've found God\n\n[Chorus]\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah, yeah\nYeah\n\n[Bridge]\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack\nI like it, I'm not gonna crack\nI miss you, I'm not gonna crack\nI love you, I'm not gonna crack\nI killed you, I'm not gonna crack", 'annotations': {'description': '&lt;p&gt;“Lithium” is a perfect description of manic depression, where every line is both happy and sad, up and down, while having references to God recalling when Kurt lived with a devout Christian family. The title invokes &lt;a href="https://en.wikipedia.org/wiki/Lithium_%28medication%29" rel="noopener nofollow"&gt;lithium salts&lt;/a&gt;, a key drug in treating the disorder.&lt;/p&gt;\n\n&lt;p&gt;The CD single contained a sonogram photo of Kurt Cobain and Courtney Love’s still to be born child, Frances Bean; Kurt said he thought he saw Frances doing the heavy metal devil horn hand gesture when he watched the sonogram.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/5bd6a4460b8c4a71a9c91e2230ed2082.500x500x1.jpg" alt="" width="500" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}], 'writers': [{'name': 'Kurt Cobain', 'url': 'https://genius.com/artists/Kurt-cobain'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bridgit-mendler-ready-or-not-lyrics', 'lyrics': "[Intro]\nHey-ey-ey\nHey-ey-ey\nOoh\n\n[Verse 1]\nI'm the kind of girl who doesn't say a word\nWho sits at the curb and waits for the world\nBut I'm about to break out, about to break out\nI'm like a crook tonight\nI caught you staring at me, and I was thinking clearly\nAnd now I'm like a bee and I'm hunting for the honey\nAnd I'm kinda shy, but you're super fly, yeah\nI could be your kryptonite, like\n\n[Pre-Chorus]\n(Oh, oh-oh-oh, oh-oh-oh)\nLight my heart up, baby, like a matchstick\n(Oh, oh-oh-oh, oh-oh-oh)\nAnd hit the gas quick\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young\nIn the crowd, the music's loud\nBut I will find you\nReady or not, here I come\nI like your face, do you like my song?\nJust sing it, la-la-la-la-la-la-la\nAnd I'll find you\n[Hook]\nReady or not (woah, woah, oh, woah, oh)\nReady or not (woah, woah, oh, woah, oh)\n\n[Verse 2]\nHello, my name is (Bridgit), nice to meet you\nI think you're famous, where have I seen you?\nYou'll be my William, I'll be your Kate\nLiving like a fairy tale\nWe could have a palace right next to Oprah\nThirty-seven cars and a yacht down in Boca\nTake me away, wherever you say\nYeah, we could be setting sail, like\n\n[Pre-Chorus]\n(Oh, oh-oh-oh, oh-oh-oh)\nLight my heart up, baby, like a matchstick\n(Oh, oh-oh-oh, oh-oh-oh)\nAnd hit the gas quick\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young\nIn the crowd (oh-oh), the music's loud\nBut I will find you\nReady or not, here I come\nI like your face, do you like my song? (yeah)\nJust sing it, la-la-la-la-la-la-la (la-la-la-la-la)\nAnd I'll find you\n[Hook]\nReady or not (woah, woah, oh, woah, oh)\nReady or not (woah, woah, oh, woah, oh)\nNot, no, woah, oh, woah, oh!\n\n[Bridge]\nReady or not, here I come, here I come\nYou're like a breath of fresh air in my lungs\nYou made me dance from the night to the dawn\nReady or not, here I come boy, it's on\nReady or not, here I come, here I come\nYou're like a breath of fresh air in my lungs\nYou made me dance from the night to the dawn\nReady or not, here I come boy, it's on\n\n[Chorus]\nReady or not, here I come\nWhere you at? The night is young (yeah)\nIn the crowd, the music's loud\nBut I will find you (I'll find you)\nReady or not, here I come\nI like your face, do you like my song?\nJust sing it, la-la-la-la-la-la-la (la-la-la-la)\nAnd I'll find you\n\n[Outro]\nReady or not (ready or not) (woah, woah, oh, woah, oh)\n(You're like a breath of fresh air in my lungs)\nReady or not (here I come!) (woah, woah, oh, woah, oh)\nOh! Ready or not (ready or not, woo!)\nReady or not (ready or not, ready or not, boom-batta-boom, batta-boom, batta-boom, batta-boom)\nReady or not", 'annotations': {'description': '&lt;p&gt;“Ready or Not” is Bridgit Mendler’s  debut single, and is the lead single from her debut studio album, &lt;i&gt;Hello My Name Is …&lt;/i&gt; It was released on August 3, 2012 and was released as a digital download on August 7, 2012.&lt;/p&gt;\n\n&lt;p&gt;The song was played during commercial breaks on Disney Channel due to Mendler’s roles in &lt;i&gt;Good Luck Charlie&lt;/i&gt; and &lt;i&gt;Wizards of Waverly Place&lt;/i&gt;, helping it to gain popularity and eventually peak at #49 on the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}], 'writers': [{'name': 'Andrew Goldstein', 'url': 'https://genius.com/artists/Andrew-goldstein'}, {'name': 'E. Kidd Bogart', 'url': 'https://genius.com/artists/E-kidd-bogart'}, {'name': 'Bridgit Mendler', 'url': 'https://genius.com/artists/Bridgit-mendler'}, {'name': 'William Hart', 'url': 'https://genius.com/artists/William-hart'}, {'name': 'Thom Bell', 'url': 'https://genius.com/artists/Thom-bell'}, {'name': 'Emanuel Kiriakou', 'url': 'https://genius.com/artists/Emanuel-kiriakou'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Electric-light-orchestra-last-train-to-london-lyrics', 'lyrics': "[Verse 1]\nIt was 9:29\n9:29, back street, big city\nThe sun was going down\nThere was music all around\nIt felt so right\n\n[Verse 2]\nIt was one of those nights\nOne of those nights when you feel the world stop turning\nYou were standing there\nThere was music in the air\nI should've been away\nBut I knew I had to stay\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n\n[Verse 3]\nIt was one of those nights\nOne of those nights when you feel a fire is burning\nEverybody was there\nEverybody to share\nIt was so right\n[Verse 4]\nThere you were on your own\nLooking like you were the only one around\nI had to be with you\nNothing else that I could do\nI should've been away\nBut I knew I had to stay\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n\n[Verse 5]\nUnderneath a starry sky\nTime was still, but hours must really have rushed by\nI didn't realize\nBut love was in your eyes\nI really should've gone\nBut love went on and on\n\n[Chorus]\nLast train to London, just heading out\nLast train to London, just leaving town\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight\n[Outro]\nBut I really want tonight to last forever\nI really wanna be with you\nLet the music play on down the line tonight", 'annotations': {'description': '&lt;p&gt;“Last Train to London” is a single by &lt;a href="https://genius.com/artists/Electric-light-orchestra" rel="noopener" data-api_path="/artists/29232"&gt;Electric Light Orchestra&lt;/a&gt; and the fifth track from their album &lt;a href="https://genius.com/albums/Electric-light-orchestra/Discovery" rel="noopener" data-api_path="/albums/69084"&gt;&lt;em&gt;Discovery&lt;/em&gt;&lt;/a&gt;. Written and produced by &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, the song reached No. 39 the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Discovery&lt;/em&gt; remaster (2001), &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;There was a certain period when it seemed we spent years on trains going back and forth from Birmingham to the various TV and radio stations in London.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'writers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Ub40-rat-in-mi-kitchen-lyrics', 'lyrics': "[Intro]\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\n\nWhen you open your mouth you don't talk, you shout\nAnd you give every body the blame\nBut when they catch you up\nThey will shut you up\nAnd you got no one to blame\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWhen you out on the street\nYou practice lies and deceit\nAnd you scandalise my name\nBut when I catch you up\nI'm gonna pull you up\nI'm gonna check-out inside your brain\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWhen yo deh pon the scene\nYou make everyone scream\nBecause they know you're so unjust\nBut when they catch you up\nThey will kick you up\nBecause you're someone they cannot trust\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\nWo, wo, wo, jee\nO jee, je\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do\nI'm gonna fix that rat\n\n[Chorus]\nThere's a rat in mi kitchen what am I gonna do?\nThere's a rat in mi kitchen what am I gonna do?\nI'm gonna fix that rat, that's what I'm gonna do", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/88e5503eb1009ec2605d22e90e11e4eb.400x394x1.jpg" alt="" width="400" height="394" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This track was written by Astro, in response to Ali Campbell being troubled by rodents in his new home, which he had just moved into at the time.&lt;br&gt;\nThe rat in the kitchen refers to Margaret Thatcher, who was the Prime Minister of The United Kingdom at the time.&lt;/p&gt;\n\n&lt;p&gt;Herb Alpert, who is the co-founder of A&amp;amp;M records, features on trumpet.&lt;/p&gt;', 'producers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'writers': [{'name': 'UB40', 'url': 'https://genius.com/artists/Ub40'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Us3-cantaloop-flip-fantasia-lyrics', 'lyrics': "[Intro]\nLadies and gentlemen, as you know we have something special down here at Birdland this evening\nA recording for Blue Note Records\n\nWhat's that? Yeah...yeah...yeah\nFunky, funky\nHow 'bout a big hand now\nWait, wait a minute\n\n[Verse 1]\nGroovy groovy jazzy funky pounce bounce dance as we\nDip in the melodic sea, the rhythm keeps flowin', and drips to MC\nSweet sugar pop sugar pop rocks it pop\nYa dont stop 'til the sweet beat drops\nI show and prove as I stick and move\nVivid poems recited on top of the groove\nSmooth, my, floating like a butterfly\nNotes set afloat, sung like a lullaby\nBrace yourself as the beat hits ya\nDip trip, flip fantasia\n\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n[Verse 2]\nFeel the beat drop, jazz and hip hop\nDrippin' in your dome, makes you zone and bop\nFunk and fusion, a fly illusion\nKeeps ya coastin' on the rhythm you're cruisin'\nUp down, round and round, rhymes profound\nBut nevertheless ya gots to get down\nFantasy freak thru the beat so unique\nYa move your feet, the sweat from the heat\nBack to the fact I'm the mack and I know that\nThe way I kick the rhymes, some would call me a poet\nPoems steady flowin', growin', showin' sights and sound\nCaught in the groove in Fantasia I'm found\nMany trip the tour upon the rhymes they soar\nTo an infinite height to the realm of the hardcore\nHere we go off I take ya\nDip trip, flip fantasia\n(Yeah...yeah...yeah...What's that?)\nItty bitty bop (Yeah)\nItty bitty bop (Funky, funky)\n\n(Yeah...yeah...yeah...What's that?)\n(Yeah...yeah...yeah...Funky, funky)\n\n[Verse 3]\nJump to the jam, boogie woogie jam slam\nBust the dialect, I'm the man in command\nCome flow with the sounds of the mighty mic master\nRhyming on the mic, I'm bringing suckas their disaster\nBeaucoup ducs but I still rock Nike\nWith the razzle dazzle, star I might be\nScribble drabble scrabble on the microphone I babble\nAs I flip the funky words, into a puzzle\nYes yes yes, on and on as I flex\nGet with the flow, words manifest\nFeel the vibe from here to Asia\nDip trip, flip fantasia\nOut\n\n[Outro]\nYa don't stop\nC'mon, c'mon, c'mon, c'mon\nC'mon, c'mon, c'mon\nGimme more\nOf that funky horn", 'annotations': {'description': '&lt;p&gt;Us3’s extensive use of samples from the Blue Note Records catalog got the attention of Blue Note who surprised them with an offer for a record deal. (Richard Cook, Blue Note Records: The Biography, p226)&lt;/p&gt;\n\n&lt;p&gt;Main sample is from &lt;a href="https://genius.com/artists/Herbie-hancock" rel="noopener" data-api_path="/artists/6238"&gt;Herbie Hancock&lt;/a&gt;’s &lt;a href="http://www.whosampled.com/sample/172/Us3-Cantaloop-%28Flip-Fantasia%29-Herbie-Hancock-Cantaloupe-Island/" rel="noopener nofollow"&gt;“Cantaloupe Island”&lt;/a&gt; (Blue Note, 1964)&lt;/p&gt;\n\n&lt;p&gt;A great version of Canteloupe Island by Herbie Hancock is the opening spot on the famous “A Night with Blue Note” concert in 1985.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SgBs5IFP1v8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Michael-jackson-wanna-be-startin-somethin-lyrics', 'lyrics': '[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Verse 1]\nI took my baby to the doctor with a fever\nBut nothin\' he found\nBy the time this hit the street\nThey said she had a breakdown\nSomeone\'s always tryin\'\nTo start my baby cryin\'\nTalkin\', squealin\', lyin\'\nSayin\' you just want to be startin\' somethin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n[Verse 2]\nYou love to pretend that you\'re good\nWhen you\'re always up to no good\nYou really can\'t make him hate her\nSo your tongue became a razor\nSomeone\'s always tryin\'\nTo keep my baby cryin\'\nTreacherous, cunnin\', declinin\'\nYou got my baby cryin\' (Hee)\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nStill they hate you (Still they hate you)\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re just a buffet (You\'re just a buffet) (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nThey eat off of you (They eat off of you) (You\'re a vegetable)\nYou\'re a vegetable, aaow!\n[Verse 3]\nBillie Jean is always talkin\' when nobody else is talkin\'\nTellin\' lies and rubbin\' shoulders\nSo they called her mouth a motor\nSomeone\'s always tryin\'\nTo start my baby cryin\'\nTalkin\', squealin\', spyin\'\nSayin\' you just want to be startin\' somethin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nStill they hate you (Still they hate you)\nYou\'re a vegetable (You\'re a vegetable)\nYou\'re just a buffet (You\'re just a buffet) (You\'re a vegetable)\nYou\'re a vegetable (You\'re a vegetable)\nThey eat off of you (They eat off of you) (You\'re a vegetable)\nYou\'re a vegetable, aaow!\n[Instrumental Interlude]\nAaow!\nHee-haw! (Ooh!)\n\n[Verse 4]\nIf you can\'t feed your baby (Yeah, yeah)\nThen don\'t have a baby (Yeah, yeah)\nAnd don\'t think maybe (Yeah, yeah)\nIf you can\'t feed your baby (Yeah, yeah)\nYou\'ll be always tryin\'\nTo stop that child from cryin\'\nHustlin\', stealin\', lyin\'\nNow baby\'s slowly dyin\'\n\n[Chorus]\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nI said you wanna be startin\' somethin\'\nYou got to be startin\' somethin\'\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\nIt\'s too high to get over (Yeah, yeah)\nYou\'re too low to get under (Yeah, yeah)\nYou\'re stuck in the middle (Yeah, yeah)\nAnd the pain is thunder (Yeah, yeah)\n\n[Bridge]\nLift your head up high and scream out to the world\n"I know I am someone," and let the truth unfurl (Hee-ha)\nNo one can hurt you now because you know what\'s true\nYes, I believe in me, so do believe in you\n\n[Outro]\nHelp me sing it\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it, babe)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Yeah, sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it out loud)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah  (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Help me sing it)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hee-hee-hee)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Yeah)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it to the world)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Sing it out loud)\nMa-ma-say, ma-ma-sah, ma-ma-coo-sah (Hoo-hoo)', 'annotations': {'description': '&lt;p&gt;As the opening song and fourth single of &lt;em&gt;Thriller&lt;/em&gt;, “Wanna Be Startin\' Somethin\'” picks up where &lt;em&gt;Off the Wall&lt;/em&gt; left off and begins the new phenomenon of &lt;em&gt;Thriller&lt;/em&gt;. According to Epic Records notes, the song was written in part by Michael for his sister &lt;a href="https://genius.com/artists/Latoya-jackson" rel="noopener" data-api_path="/artists/141665"&gt;LaToya&lt;/a&gt; as a response to negative reports about her relationship with her sisters, but Michael recorded it himself. Released on its own on May 8, 1983, “Wanna Be Startin\' Somethin\'” went #1 in Canada and the Netherlands and cracked in the Top 40 in 13 regions. It charted again in Denmark, Italy and Switzerland in 2008 following the release of its &lt;a href="https://genius.com/Michael-jackson-wanna-be-startin-somethin-2008-lyrics" rel="noopener" data-api_path="/songs/188874"&gt;successful remix&lt;/a&gt; for &lt;em&gt;Thriller 25&lt;/em&gt;, and at #25 in America following Jackson’s death on June 25, 2009.&lt;/p&gt;\n\n&lt;p&gt;The iconic outro of the song, repeating the Cameroonian phrase “Mama Se, Mama Sa, Ma Makusa” has never been outright defined. A lawsuit decided that Jackson (and &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;, who sampled the song for &lt;a href="https://genius.com/Rihanna-dont-stop-the-music-lyrics" rel="noopener" data-api_path="/songs/97149"&gt;“Don’t Stop the Music”&lt;/a&gt;) had illegally sampled &lt;a href="https://genius.com/Manu-dibango-soul-makossa-lyrics" rel="noopener" data-api_path="/songs/1152123"&gt;“Soul Makossa”&lt;/a&gt; by Manu DiBango, released in 1972 that was popular in the underground New York disco scene.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When &lt;em&gt;Thriller&lt;/em&gt; opens, those 100 million sales feel just. “Wanna Be Startin\' Somethin\'” is pure confused, shocked teenage rush. So there’s another theory: Thriller is the best-selling record ever because it’s the best record ever. That one holds up for six minutes and two seconds, during which Jackson and Quincy Jones mix the tension of rock\'n\'roll with the rapture of disco and hit perfection.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;— &lt;a href="http://pitchfork.com/reviews/albums/11163-thriller-25th-anniversary-edition/" rel="noopener nofollow"&gt;Pitchfork&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'writers': [{'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Avicii-wake-me-up-lyrics', 'lyrics': "[Verse 1]\nFeeling my way through the darkness\nGuided by a beating heart\nI can't tell where the journey will end\nBut I know where to start\nThey tell me I'm too young to understand\nThey say I'm caught up in a dream\nWell life will pass me by if I don't open up my eyes\nWell that's fine by me\n\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know \ufeffI was lost\n\n[Instrumental Break]\n\n[Verse 2]\nI tried carrying the weight of the world\nBut I only have two hands\nI hope I get the chance to travel the world\nBut I don't have any plans\nWish that I could stay forever this young\nNot afraid to close my eyes\nLife's a game\ufeff made for everyone\nAnd love is the prize\n[Chorus]\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know\ufeff I was lost\nSo wake me up when it's all over\nWhen I'm wiser and I'm older\nAll this time I was finding myself\nAnd I didn't know I was lost\n\n[Outro]\nI didn't know I was lost\nI didn't know I was lost\nI didn't know I was lost\nI didn't know, I didn't know, I didn't know", 'annotations': {'description': '&lt;p&gt;“Wake Me Up” is the lead single for Avicii’s first studio album &lt;em&gt;&lt;a href="https://genius.com/albums/avicii/true" rel="noopener" data-api_path="/albums/37018"&gt;#True&lt;/a&gt;&lt;/em&gt;. It features Aloe Blacc, who &lt;a href="https://www.youtube.com/watch?v=5ApBhsqo8_0#t=543" rel="noopener nofollow"&gt;wrote the lyrics&lt;/a&gt; on a plane flying from Geneva, Switzerland, to L.A.&lt;/p&gt;\n\n&lt;p&gt;Like many other Avicii hits, this song was first introduced at the Ultra Music Festival &lt;a href="https://www.youtube.com/watch?v=HCQXbekahGI" rel="noopener nofollow"&gt;with the live performance of a bluegrass band&lt;/a&gt;, swaying so far away from the typical EDM spectrum. It infuses Irish folk music with house beats, with vocals from American soul singer &lt;a href="https://genius.com/artists/Aloe-blacc" rel="noopener" data-api_path="/artists/3896"&gt;Aloe Blacc&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song spent 53 weeks on the &lt;em&gt;Billboard&lt;/em&gt; charts (21 of them being in the top 10), making it the first Dance/Electronic song to stay over a year on that chart. It never reached the #1 spot, though; it only peaked at #4.&lt;/p&gt;\n\n&lt;p&gt;The song also broke all of Avicii’s personal records of sales, topping music charts in 22 different countries as well as breaking the top 10 mark in 6 others. Commercially, the song has been a bigger hit than his previous &lt;a href="http://rock.genius.com/Avicii-levels-lyrics" rel="noopener" data-api_path="/songs/66020"&gt;“Levels”&lt;/a&gt; that only peaked at #60 on &lt;em&gt;Billboard&lt;/em&gt;’s Top 100 and only spent 20 weeks on the charts.&lt;/p&gt;', 'producers': [{'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}], 'writers': [{'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Aloe Blacc', 'url': 'https://genius.com/artists/Aloe-blacc'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'PRMD Records', 'url': 'https://genius.com/artists/Prmd-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Evanescence-call-me-when-youre-sober-lyrics', 'lyrics': "[Intro]\nDon't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Verse 1]\nShould I let you fall, lose it all?\nSo maybe you can remember yourself\nCan't keep believing\nWe're only deceiving ourselves\nAnd I'm sick of the lie\nAnd you're too late\n\n[Chorus]\nDon't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Verse 2]\nCouldn't take the blame, sick with shame\nMust be exhausting to lose your own game\nSelfishly hated, no wonder you're jaded\nYou can't play the victim this time\nAnd you're too late\n[Chorus]\nSo don't cry to me\nIf you loved me\nYou would be here with me\nYou want me\nCome find me\nMake up your mind\n\n[Bridge]\nYou never call me when you're sober\nYou only want it 'cause it's over, it's over\nHow could I have burned paradise?\nHow could I - you were never mine\n\n[Outro]\nSo don't cry to me\nIf you loved me\nYou would be here with me\nDon't lie to me\nJust get your things\nI've made up your mind", 'annotations': {'description': '&lt;p&gt;As one of the last songs recorded for &lt;a href="https://genius.com/albums/Evanescence/The-open-door" rel="noopener" data-api_path="/albums/19236"&gt;&lt;em&gt;The Open Door&lt;/em&gt;&lt;/a&gt;, “Call Me When You’re Sober” was predominantly inspired by Amy Lee’s ex-boyfriend and &lt;a href="https://genius.com/artists/Seether" rel="noopener" data-api_path="/artists/20913"&gt;Seether&lt;/a&gt; frontman, Shaun Morgan. In an &lt;a href="http://www.mtv.com/news/1538267/evanescence-set-for-fall-tour-amy-lee-reveals-inspiration-behind-sober/" rel="noopener nofollow"&gt;MTV News interview&lt;/a&gt;, Amy Lee spoke about the song being very personal to her:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was very brave for me, the lyric writing, because I was just sick of hiding behind metaphors in all that I had been writing. So much of the record was about the turmoil I was going through, with choosing between happiness and comfort. In the end, I had to choose happiness and health for myself. I made the right decision. I was letting myself be run down.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Directed by &lt;a href="https://en.wikipedia.org/wiki/Marc_Webb#Music_videos" rel="noopener nofollow"&gt;Marc Webb&lt;/a&gt;, the accompanying music video is based upon modern re-imagining of &lt;em&gt;Little Red Riding Hood&lt;/em&gt;. Due to the literal nature of the song and its lyrics, &lt;a href="http://www.mtv.com/news/1537409/evanescences-amy-lee-isnt-afraid-of-big-bad-wolf-in-sober-clip/" rel="noopener nofollow"&gt;Amy Lee explained&lt;/a&gt; the importance for the video to “have the freedom to go in a less literal direction.” In 2007, “Call Me When You’re Sober” earned Evanescence two nominations in the best video categories at the &lt;em&gt;MuchMusic Video Awards&lt;/em&gt; and &lt;em&gt;NRJ Music Awards&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song wasn’t originally intended for inclusion on the album, &lt;a href="https://evanescencereference.info/wiki/index.php?title=John_Lee_on_The_Open_Door" rel="noopener nofollow"&gt;according&lt;/a&gt; to Amy Lee’s father, &lt;a href="https://genius.com/artists/John-patrick-lee" rel="noopener" data-api_path="/artists/1672457"&gt;John Lee&lt;/a&gt;. “It was just a little ditty she was working on and singing on her piano at home to purge herself of a past boyfriend. She said she would laugh out loud while she was writing and singing it and thought it was funny,” he added.&lt;/p&gt;\n\n&lt;p&gt;Upon its release, “Call Me When You’re Sober” received generally positive reviews from critics, and the song peaked at number 10 on the &lt;em&gt;Billboard Top 100&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Terry Balsamo', 'url': 'https://genius.com/artists/Terry-balsamo'}, {'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-magic-numbers-love-me-like-you-lyrics', 'lyrics': "Don't let your white dress wear you out\nOh it hurts to look in your eyes\n'Cause honey I can see him\n\nAll my life\nI'd hurt the ones I'd loved\nOh but baby you can turn it round\n\nShe don't love me like you\nShe don't know what you do\nAnd it's so hard\nShe don't care what you say\nSo just say it, say it anyway\nIt's so hard\n\nAll my life, they tried to push me down\nOh but baby you can turn it round\nOh but honey I still see him\n\nDon't let your friends tell you why\n'Cause I'm a bad, bad, bad\nI'm the one\nOh but baby you can turn it on\n\nShe don't love me like you\nShe don't know what you do\nAnd it's so hard\nShe don't care what you say\nSo just say it, say it anyway\nIt's so hard\nAll those years gone by\nI only wanna find a way\nTo make it hard for you\n\nAll those years gone by\nI only wanna find a way\nTo make it hard for you\n\nYou'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nTo make it hard for you\n\nYou'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nTo make it hard for you\n\nShe'll never forget it\nThe way that she let\nShe don't feel no pain\nI only wanna find a way\nTo make it up to you\nShe'll never forget it\nThe way that she let\nShe don't feel the same\nI only wanna find a way\nI only wanna find\nI only wanna find\n\nShe don't love me like you\nShe don't love me like you\nShe don't love me like you\nShe don't love me like you\nShe don't love\nShe don't", 'annotations': {'description': '', 'producers': [{'name': 'Craig Silvey', 'url': 'https://genius.com/artists/Craig-silvey'}, {'name': 'Romeo Stodart', 'url': 'https://genius.com/artists/Romeo-stodart'}], 'writers': [{'name': 'Romeo Stodart', 'url': 'https://genius.com/artists/Romeo-stodart'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Black-eyed-peas-dont-lie-lyrics', 'lyrics': '[Intro: will.i.am &amp; Fergie]\nYeah, uh-uh\nLa, da, da, da, da-da\nSorry, sorry, sorry, sorry\n\n[Verse 1: will.i.am]\nHey baby, my nose is gettin\' big\nI noticed it be growin\' when I be tellin\' them fibs, now\nYou say your trust\'s gettin\' weaker\nProbably \'cause my lies just started gettin\' deeper\nAnd the reason for my confession is that I learned my lesson\nAnd I really think you ought to know the truth\nBecause I lied and I cheated and I lied a little more\nBut after I did it, I don\'t know what I did it for\nI admit that I\'ve been a little immature\nWith your heart like I was the predator\nIn my book of lies, I was the editor\nAnd the author, I forged my signature\nAnd now I apologize for what I did to ya\n\'Cause what you did to me I did to you\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try\nWhat you gonna do when it all comes out\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\n\'Cause you know, you know, you know, you know\nYou know you gotta try (Stop, st-stop, stop, st-stop stop lying)\n[Verse 2: apl.de.ap]\nShe said, "I\'m leaving"\n\'Cause she can\'t take the pain\nIt\'s hard to continue this love, it ain\'t the same\nCan\'t forget the things that I\'ve done inside her brain\nToo many lies committed, too many games\nShe feelin\' like a fool gettin\' on the last train\nTryna maintain, but the feeling won\'t change\nI\'m sorry for the things that I\'ve done and what I became\nCaught up in living my life in the fast lane\nBlinded by lights, cameras, you know the fame\nI don\'t know the reason why I did these things\n\n[Pre-Chorus 1: apl.de.ap, Fergie, will.i.am]\nOh, and I lie and I lie and I lie and I lie\nAnd now our emotions are drained\n\'Cause I lie and I lie and a little lie, lie\nAnd now your emotions are drained\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie (Don\'t, don\'t you lie)\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try (Got to, got to try)\nWhat you gonna do when it all comes out (What you gonna do, baby?)\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\nBecause you know, you know, you know, you know\nYou know you gotta try\n[Bridge: will.i.am &amp; Fergie]\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da, ba da, ba ba ba ba)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da da, ba da da, ba da da, ba da da)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da, ba da, ba ba ba ba)\nOoh-ooh ooh ooh, ooh-ooh ooh (Ba da da, ba da da, ba da da, ba da da)\n\n[Verse 3: Taboo]\nHmm, yo, I\'m lyin\' to my girl\nEven though I love her and she all in my world\nI give her all my attention and diamonds and pearls\nShe the one that make me feel on top of the world\nStill I\'m lyin\' to my girl, I do it\n\n[Pre-Chorus 2: Fergie &amp; Taboo, Both]\nOh, and I lie and I lie and I lie and then I lie\n\'Til there\'s not turning back\nI don\'t know why I lie and I lie\n\'Til I don\'t know who I am\nBut then I tell myself\n\n[Chorus: Fergie]\nNo, no, no, no, baby, no, no, no, no, don\'t lie (Don\'t you lie)\n\'Cause you know, know, know, know\nYeah, you know, know, know, know, you gotta try (You know, you know you gotta)\nWhat you gonna do when it all comes out\nWhen I really see you, what you\'re all about?\nNo, no, no, no, baby, no, no, no, no, don\'t lie\nNo, no, no, no, baby, no, no, no, no\n(Stop, st-stop, stop, st-stop stop lying)', 'annotations': {'description': '&lt;p&gt;A classic track in BEP’s back catalogue, released at the height of their worldwide popularity. As the second single, it achieved &lt;a href="https://en.wikipedia.org/wiki/Don\'t_Lie#Charts_and_certifications" rel="noopener nofollow"&gt;massive chart success,&lt;/a&gt; reaching the top 50 in 21 different countries.&lt;/p&gt;\n\n&lt;p&gt;It’s further proof of their new focus on a real pop-centric sound. The acoustic guitar loop was &lt;a href="https://www.youtube.com/watch?v=6rgStv12dwA" rel="noopener nofollow"&gt;actually ahead of its time,&lt;/a&gt; but the bad guy/good girl dynamic the lyrics produced was a tried and tested trope.&lt;/p&gt;\n\n&lt;p&gt;A &lt;a href="https://www.youtube.com/watch?v=WbJNkH-pDd8" rel="noopener nofollow"&gt;summer music video&lt;/a&gt; was released, and although Fergie really only provides the hook, she really pulls the entire narrative together, giving a nice, easy, repeatable sound that sticks in the mind of the listener.&lt;/p&gt;', 'producers': [{'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}], 'writers': [{'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Peters Peters', 'url': 'https://genius.com/artists/Peters-peters'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Kajagoogoo-too-shy-lyrics', 'lyrics': "[Verse 1]\nTongue tied or short of breath\nDon't even try\nTry a little harder\nSomething's wrong\nYou're not naive, you must be strong\nOoh, baby try\n\n[Pre-Chorus]\nHey girl, move a little closer\n\n[Chorus]\nYou're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy, hush hush eye to eye\nToo, shy shy, hush hush\n\n[Verse 2]\nModern medicine falls short of your complaint\nOoh, try a little harder\nMoving in circles won't you dilate\nOoh, baby try\n\n[Pre-Chorus]\nHey girl, move a little closer\n[Chorus]\n'Cause you're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy hush hush eye to eye\nToo, shy shy, hush hush\n\n[Instrumental Break]\n\n[Chorus]\nYou're too shy shy, hush hush eye to eye\nToo, shy shy, hush hush, eye to eye\nToo shy shy, hush hush eye to eye\nToo, shy shy, hush hush", 'annotations': {'description': '&lt;p&gt;“Too Shy”, the debut single of Kajagoogoo, was &lt;a href="https://www.ultratop.be/nl/song/3a3/Kajagoogoo-Too-Shy" rel="noopener nofollow"&gt;an international hit&lt;/a&gt; and &lt;a href="https://www.billboard.com/charts/hot-100/1983-07-06/" rel="noopener nofollow"&gt;reached #5&lt;/a&gt; in the US in the summer of 1983. It was produced by Duran Duran keyboard player Nick Rhodes.&lt;/p&gt;\n\n&lt;p&gt;In the US, the band never scored another top 40 hit, earning them the label of one-hit wonder there. In fact, VH1 &lt;a href="https://web.archive.org/web/20090806041321/http://blog.vh1.com/2009-04-01/100-greatest-one-hit-wonders-of-the-80s-read-the-list-2/" rel="noopener nofollow"&gt;ranked the song&lt;/a&gt; at #9 on their one-hit wonders of all time list in 2009. Kajagoogoo had more success overseas – in a half-dozen countries, the band reached the top 20 at least one more time.&lt;/p&gt;', 'producers': [{'name': 'Colin Thurston', 'url': 'https://genius.com/artists/Colin-thurston'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}], 'writers': [{'name': 'Limahl', 'url': 'https://genius.com/artists/Limahl'}, {'name': 'Jez Strode', 'url': 'https://genius.com/artists/Jez-strode'}, {'name': 'Stuart Neale', 'url': 'https://genius.com/artists/Stuart-neale'}, {'name': 'Nick Beggs', 'url': 'https://genius.com/artists/Nick-beggs'}, {'name': 'Steve Askew', 'url': 'https://genius.com/artists/Steve-askew'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pink-floyd-another-brick-in-the-wall-pt-2-lyrics', 'lyrics': "[Intro]\n\n[Verse 1: Roger Waters &amp; David Gilmour]\nWe don't need no education\nWe don't need no thought control\nNo dark sarcasm in the classroom\nTeacher, leave them kids alone\nHey! Teacher! Leave them kids alone!\n\n[Chorus: Roger Waters &amp; David Gilmour]\nAll in all, it's just another brick in the wall\nAll in all, you're just another brick in the wall\n[Verse 2: Islington Green School Students]\nWe don't need no education\nWe don't need no thought control\nNo dark sarcasm in the classroom\nTeachers, leave them kids alone\nHey! Teacher! Leave us kids alone!\n\n[Chorus: Islington Green School Students]\nAll in all, you're just another brick in the wall\nAll in all, you're just another brick in the wall\n[Guitar Solo]\n[Outro: Roger Waters]\nWrong, do it again! (*Children playing*)\nWrong, do it again!\nIf you don't eat your meat, you can't have any pudding!\n(Wrong, do it again!)\nHow can you have any pudding if you don't eat your meat?\n(Wrong, do it again!)\nYou! Yes! You behind the bike sheds! Stand still, laddie!\n(If you don't eat your meat, you can't have any pudding!\nHow can you have any pudding if you don't eat your meat?)\n(You! Yes! You behind the bike sheds! Stand still, laddie!)\n*Children playing*\n*Phone beeping sound*", 'annotations': {'description': '&lt;p&gt;“Another Brick in the Wall, Pt. 2” is Pink Floyd’s only number one hit in both &lt;a href="https://www.billboard.com/music/pink-floyd" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="https://www.officialcharts.com/artist/28142/pink-floyd/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;, and was a chart-topper in at least &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Pink+Floyd&amp;amp;titel=Another+Brick+In+The+Wall+%28Part+II%29&amp;amp;cat=s" rel="noopener nofollow"&gt;six other countries&lt;/a&gt; overseas in the spring of 1980.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-pt-1-lyrics" rel="noopener" data-api_path="/songs/116425"&gt;“Part 1”&lt;/a&gt; had come two tracks earlier, and even the immediately preceding song, &lt;a href="https://genius.com/Pink-floyd-the-happiest-days-of-our-lives-lyrics" rel="noopener" data-api_path="/songs/116430"&gt;“The Happiest Days of Our Lives”&lt;/a&gt; was thematically similar, to the point where &lt;a href="https://genius.com/7389696" rel="noopener" data-api_path="/referents/7389696"&gt;one radio edit combines both songs&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;David Gilmour &lt;a href="https://web.archive.org/web/20170810032322/http://www.guitarworld.com:80/pink-floyd-goodbye-blue-sky#:~:text=it%20wasn%E2%80%99t%20my%20idea%20to%20do%20disco%20music%2C%20it%20was%20bob%E2%80%99s" rel="noopener nofollow"&gt;credits&lt;/a&gt; producer Bob Ezrin for the song’s disco sound:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;He said to me, “Go to a couple of clubs and listen to what’s happening with disco music,” so I forced myself out and listened to loud, four-to-the-bar bass drums and stuff and thought, Gawd, awful! Then we went back and tried to turn one of the “Another Brick in the Wall” parts into one of those so it would be catchy. We did the same exercise on “Run Like Hell.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;But Roger Waters is &lt;a href="https://www.wsj.com/articles/roger-waters-on-another-brick-in-the-wall-1442855084#:~:text=The%20song%20ran,It%E2%80%99s%20very%20cool." rel="noopener nofollow"&gt;more reluctant to embrace the disco classification&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song ran slow, almost like a chant or mantra, at 100 beats per minute. To give it a bit of punch, Bob Ezrin added a kick drum on every beat, which made the song a different animal than something strummed on an acoustic guitar. It’s not a disco beat, as many people have said, but more of a heart beat. It’s very cool.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}, {'name': 'James Guthrie', 'url': 'https://genius.com/artists/James-guthrie'}, {'name': 'David Gilmour', 'url': 'https://genius.com/artists/David-gilmour'}, {'name': 'Bob Ezrin', 'url': 'https://genius.com/artists/Bob-ezrin'}], 'writers': [{'name': 'Roger Waters', 'url': 'https://genius.com/artists/Roger-waters'}], 'labels': [{'name': 'Harvest Records', 'url': 'https://genius.com/artists/Harvest-records'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Green-day-boulevard-of-broken-dreams-lyrics', 'lyrics': "[Verse 1]\nI walk a lonely road\nThe only one that I have ever known\nDon't know where it goes\nBut it's home to me, and I walk alone\nI walk this empty street\nOn the Boulevard of Broken Dreams\nWhere the city sleeps\nAnd I'm the only one, and I walk alone\nI walk alone, I walk alone\nI walk alone, I walk a-\n\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Post-Chorus]\nAh-ah, ah-ah, ah-ah, ah-ah\nAh-ah, ah-ah, ah-ah\n\n[Verse 2]\nI'm walking down the line\nThat divides me somewhere in my mind\nOn the borderline\nOf the edge and where I walk alone\nRead between the lines\nWhat's fucked up, and everything's all right\nCheck my vital signs\nTo know I'm still alive, and I walk alone\nI walk alone, I walk alone\nI walk alone, I walk a-\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Post-Chorus]\nAh-ah, ah-ah, ah-ah, ah-ah\nAh-ah, ah-ah\nI walk alone, I walk a-\n\n[Guitar Solo]\n\n[Bridge]\nI walk this empty street\nOn the Boulevard of Broken Dreams\nWhere the city sleeps\nAnd I'm the only one, and I walk a-\n\n[Chorus]\nMy shadow's the only one that walks beside me\nMy shallow heart's the only thing that's beating\nSometimes I wish someone out there will find me\n'Til then I walk alone\n\n[Instrumental Outro]", 'annotations': {'description': '&lt;p&gt;“Boulevard of Broken Dreams” sees the album’s main character, &lt;a href="https://genius.com/Green-day-jesus-of-suburbia-lyrics" rel="noopener" data-api_path="/songs/63752"&gt;the Jesus of Suburbia&lt;/a&gt;, aimlessly roaming the city’s streets with nothing to do and nowhere to go. After &lt;a href="https://genius.com/547332" rel="noopener" data-api_path="/referents/547332"&gt;leaving his hometown&lt;/a&gt; and &lt;a href="https://genius.com/Green-day-holiday-lyrics" rel="noopener" data-api_path="/songs/63758"&gt;venturing into the city&lt;/a&gt;, Jesus has come down from his excitement to find that he’s surrounded by strangers, completely alone in an unfamiliar environment. The realization that he has no one pushes Jesus to his emotional breaking point and drives him to &lt;a href="https://genius.com/978407" rel="noopener" data-api_path="/referents/978407"&gt;borderline insanity&lt;/a&gt;, as implied by the &lt;a href="https://genius.com/Green-day-st-jimmy-lyrics" rel="noopener" data-api_path="/songs/63762"&gt;creation of St. Jimmy&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://web.archive.org/web/20121011102748/http://music.yahoo.com/blogs/yradish/biggest-selling-singles-since-the-year-2000.html" rel="noopener nofollow"&gt;Selling over five-million copies&lt;/a&gt; as of September 1, 2009, it was Green Day’s most successful song on the Billboard charts, &lt;a href="https://www.billboard.com/music/Green-Day/chart-history/HSI/song/461283" rel="noopener nofollow"&gt;peaking at #2 on the Hot 100 list&lt;/a&gt;. It also &lt;a href="https://web.archive.org/web/20060316002151/https://www.grammy.com/GRAMMY_Awards/Annual_Show/48_nominees.aspx" rel="noopener nofollow"&gt;won the Grammy Award for “Record of the Year”&lt;/a&gt; in 2006.&lt;/p&gt;', 'producers': [{'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Marilyn-manson-sweet-dreams-are-made-of-this-lyrics', 'lyrics': "[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Instrumental Interlude]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Chorus]\nI wanna use you and abuse you\nI wanna know what's inside you\n[Bridge]\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on (Hold your head up)\nMovin' on (Keep your head up)\nMovin' on!\n\n[Guitar Solo]\n\n[Verse]\nSweet dreams are made of this\nWho am I to disagree?\nTravel the world and the seven seas\nEverybody's looking for something\nSome of them want to use you\nSome of them want to get used by you\nSome of them want to abuse you\nSome of them want to be abused\n\n[Outro]\nI'm gonna use you and abuse you\nI'm gonna know what's inside\nGonna use you and abuse you\nI'm gonna know what's inside you", 'annotations': {'description': '&lt;p&gt;A cover of The Eurythmics\' &lt;a href="https://genius.com/Eurythmics-sweet-dreams-lyrics" rel="noopener" data-api_path="/songs/1640"&gt;breakthrough hit song&lt;/a&gt; from the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Manson has two additions to the song:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanna use you and abuse you&lt;br&gt;\nI wanna know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;and&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m gonna use you and abuse you&lt;br&gt;\nI gotta know what’s inside you&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}], 'writers': [{'name': 'David A. Stewart', 'url': 'https://genius.com/artists/David-a-stewart'}, {'name': 'Annie Lennox', 'url': 'https://genius.com/artists/Annie-lennox'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sting-englishman-in-new-york-lyrics', 'lyrics': '[Verse 1]\nI don\'t drink coffee, I\'ll take tea my dear\nI like my toast done on one side\nAnd you can hear it in my accent when I talk\nI\'m an Englishman in New York\n\n[Verse 2]\nSee me walking down Fifth Avenue\nA walking cane here at my side\nI take it everywhere I walk\nI\'m an Englishman in New York\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n\n[Verse 3]\nIf "manners maketh man" as someone said\nThen he\'s the hero of the day\nIt takes a man to suffer ignorance and smile\nBe yourself, no matter what they say\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n[Bridge]\nModesty, propriety, can lead to notoriety\nYou could end up as the only one\nGentleness, sobriety are rare in this society\nAt night a candle\'s brighter than the sun\n\n[Saxophone solo followed by drums]\n\n[Verse 4]\nTakes more than combat gear to make a man\nTakes more than a license for a gun\nConfront your enemies, avoid them when you can\nA gentleman will walk but never run\n\n[Verse 3]\nIf "manners maketh man" as someone said\nThen he\'s the hero of the day\nIt takes a man to suffer ignorance and smile\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\nBe yourself, no matter what they say\n\n[Chorus]\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\nI\'m an Englishman in New York\n[Outro]\nI\'m an alien, I\'m a legal alien\n(Be yourself, no matter what they say)\nI\'m an Englishman in New York\nI\'m an alien, I\'m a legal alien\n(Be yourself, no matter what they say)\nI\'m an Englishman in New York', 'annotations': {'description': '&lt;p&gt;“Englishman in New York” was released as a single in 1988. The song’s main subject was &lt;a href="http://www.biography.com/people/quentin-crisp-251028" rel="noopener nofollow"&gt;Quentin Crisp&lt;/a&gt;, a British writer. Sting said this about the song in the liner notes for &lt;em&gt;Nothing Like the Sun&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wrote “Englishman in New York for a friend of mine who moved from London to New York in his early seventies to a small rented apartment in the Bowery at a time in his life when most people have settled down forever. He once told me over dinner that he looked forward to receiving his naturalization papers so that he could commit a crime and not be deported. "What kind of crime?” I asked anxiously. “Oh, something glamorous, non-violent, with a dash of style” he replied. “Crime is so rarely glamorous these days.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/425984c83416cd0598ed95bb68f7bfd9.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Neil Dorfsman', 'url': 'https://genius.com/artists/Neil-dorfsman'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Linkin-park-what-ive-done-lyrics', 'lyrics': "[Verse 1]\nIn this farewell\nThere's no blood, there's no alibi\n'Cause I've drawn regret\nFrom the truth of a thousand lies\nSo let mercy come and wash away\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n\n[Verse 2]\nPut to rest what you thought of me\nWhile I clean this slate\nWith the hands of uncertainty\nSo let mercy come and wash away\n\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n[Bridge]\nFor what I've done\nI start again\nAnd whatever pain may come\nToday this ends\nI'm forgiving\n\n[Chorus]\nWhat I've done\nI'll face myself\nTo cross out what I've become\nErase myself\nAnd let go of what I've done\n\n[Outro]\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\nWhat I've done\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\nForgiving what I've done\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)\n(Na-na na na)", 'annotations': {'description': '&lt;p&gt;This song shows one regretting over the bad things he has done. The video shows the effect of wars, poverty, murder, drugs, etc. etc. These are meant to depict that humanity has done a lot of wrong.&lt;/p&gt;\n\n&lt;p&gt;During the outro, he is optimistic. Optimistic that the time is not over to do the right thing.&lt;/p&gt;\n\n&lt;p&gt;The song was released as the first single from their third album, &lt;em&gt;Minutes to Midnight&lt;/em&gt;. The song is composed in the key of G minor and is set in 4/4 time. The song was released as a radio single on April 1, 2007, as a digital download on April 2, and as a CD single on April 30. The live version of “What I’ve Done” from Road to Revolution: Live at Milton Keynes was nominated for Best Hard Rock Performance at the 52nd Grammy Awards, but did not win. It is also featured on the Transformers soundtrack, &lt;a href="http://en.wikipedia.org/wiki/Transformers:_The_Album#Not_included_in_the_Soundtrack" rel="noopener nofollow"&gt;Transformers: The Album&lt;/a&gt;. The song is featured in the 2008 video game &lt;a href="http://en.wikipedia.org/wiki/Guitar_Hero_World_Tour" rel="noopener nofollow"&gt;Guitar Hero World Tour&lt;/a&gt; and was released in a Linkin Park &lt;a href="http://en.wikipedia.org/wiki/List_of_songs_in_Rock_Band_3#Downloadable_songs" rel="noopener nofollow"&gt;DLC pack for Rock Band 3&lt;/a&gt; in January 2011. The song is also a b-side to the UK single of &lt;a href="https://genius.com/Linkin-park-iridescent-lyrics" rel="noopener" data-api_path="/songs/230135"&gt;&lt;em&gt;Iridescent&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Booklet notes: One of the last songs finished for the album, the lyrics for this song were intended to work on many levels, including freedom, art, and death metaphors.&lt;/p&gt;', 'producers': [{'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Nelly-furtado-promiscuous-lyrics', 'lyrics': "[Intro: Nelly Furtado &amp; Timbaland]\nAm I throwin' you off?\nNope\nDidn't think so\n\n[Verse 1: Nelly Furtado &amp; Timbaland]\nHow you doin', young lady?\nThat feeling that you giving really drives me crazy\nYou're dope, have a player 'bout to choke\nI was at a loss for words first time that we spoke\nYou lookin' for a girl that'll treat you right?\nHow you lookin' for her in the daytime with the light?\nYou might be the type if I play my cards right\nI'll find out by the end of the night\nYou expect me to just let you hit it?\nBut will you still respect me if you get it?\nAll I can do is try, gimme one chance (Chance)\nWhat's the problem? I don't see no ring on your hand (Hand)\nI'll be the first to admit it\nI'm curious about you, you seem so innocent\nYou wanna get in my world, get lost in it?\nBoy, I'm tired of runnin', let's walk for a minute\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, you already know\nThat I'm all yours, what you waiting for?\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, let's get to the point\n'Cause we're on a roll, you ready?\n[Verse 2: Nelly Furtado &amp; Timbaland]\nRoses are red, some diamonds are blue\nChivalry is dead, but you're still kinda cute\nHey, I can't keep my mind off you\nWhere you at? Do you mind if I come through?\nI'm out of this world, come with me to my planet\nGet you on my level, do you think that you can handle it?\nThey call me Thomas, last name Crown\nRecognize game, I'ma lay mine's down\nI'm a big girl, I can handle myself\nBut if I get lonely, I'ma need your help\nPay attention to me, I don't talk for my health\nI want you on my team -- So does everybody else\nShh, baby, we can keep it on the low (Low)\nLet your guard down, ain't nobody gotta know (Know)\nIf you with it, girl, I know a place we can go\nWhat kind of girl do you take me for?\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, you already know\nThat I'm all yours, what you waiting for?\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, let's get to the point\n'Cause we're on a roll, you ready?\n[Bridge: Nelly Furtado &amp; Timbaland]\nDon't be mad, don't get mean\nDon't get mad, don't be mean\nHey, don't be mad, don't get mean\nDon't get mad, don't be mean\n\n[Verse 3: Nelly Furtado &amp; Timbaland]\nWait, I don't mean no harm\nI can see you with my t-shirt on\nI can see you with nothin' on\nFeelin' on me before you bring that on\nBring that on?! -- You know what I mean\nGirl, I'm a freak, you shouldn't say those things\nI'm only trying to get inside of your brain\nTo see if you can work me the way you say\nIt's okay, it's alright\nI got something that you gon' like\nHey, is that the truth or are you talking trash?\nIs your game M.V.P like Steve Nash?\n\n[Chorus: Nelly Furtado &amp; Timbaland]\nPromiscuous girl, wherever you are\nI'm all alone, and it's you that I want\nPromiscuous boy, I'm callin' ya name\nBut you're drivin' me crazy the way you're makin' me wait\nPromiscuous girl, you're teasin' me\nYou know what I want, and I got what you need\nPromiscuous boy, we're one in the same\nSo we don't gotta play games no more", 'annotations': {'description': '&lt;p&gt;The first single of Nelly Furtado’s &lt;em&gt;Loose&lt;/em&gt; album (2006) and quickly became a chart topping hit, Furtado’s first number one single in the United States. It features two “promiscuous” people (Nelly and producer &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt;) flirting back and forth with each other.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Attitude', 'url': 'https://genius.com/artists/Attitude'}, {'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}], 'labels': [{'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-police-so-lonely-lyrics', 'lyrics': "[Verse 1]\nWell, someone told me yesterday\nThat when you throw your love away\nYou act as if you just don't care\nYou look as if you're going somewhere\nBut I just can't convince myself\nI couldn't live with no one else\nAnd I can only play that part\nAnd sit and nurse my broken heart\n\n[Chorus]\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\n\n[Verse 2]\nNow no one's knocked upon my door\nFor a thousand years or more\nAll made up and nowhere to go\nWelcome to this one-man show\nJust take a seat, they're always free\nNo surprise, no mystery\nIn this theatre that I call my soul\nI always play the starring role\n[Chorus]\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\nSo lonely\n\n[Bridge]\nLonely, I'm so lonely\nI feel so alone\nI feel low\nI feel so\nFeel so low\nI feel low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nI feel low, low, low\nLow, I feel low\nI feel low\nI feel low\nI feel so lonely\nI feel so lonely\nI feel so lonely, lonely, lonely, lone\nLone, lone, lone\nI feel so lonely\n[Chorus]\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)\nSo lonely (I feel so alone)\nSo lonely (I feel so alone)\nSo lonely (I feel so lonely)", 'annotations': {'description': '&lt;p&gt;“So Lonely” was The Police’s &lt;a href="https://www.sting.com/news/article/4251" rel="noopener nofollow"&gt;first fusing of punk and reggae&lt;/a&gt; that would become not only a pioneering new sound in rock, but also their signature sound. It was the band’s third single, the last from their debut album, peaking at &lt;a href="http://www.officialcharts.com/search/singles/so%20lonely/" rel="noopener nofollow"&gt;#6 in the UK&lt;/a&gt; and #7 in Ireland.&lt;/p&gt;\n\n&lt;p&gt;Its lyrics &lt;a href="http://www.stingme.dk/Lyrics/Sting%20Fool%20in%20love.htm" rel="noopener nofollow"&gt;were taken from&lt;/a&gt; “Fool In Love”, a song from Sting’s previous band Last Exit. Its chorus, &lt;a href="https://www.sting.com/discography/index/album/albumId/143/tagName/Singles%20%28The%20Police" rel="noopener nofollow"&gt;Sting has admitted&lt;/a&gt;, is a sped-up reinterpretation of Bob Marley’s &lt;a href="https://genius.com/Bob-marley-and-the-wailers-no-woman-no-cry-lyrics" rel="noopener" data-api_path="/songs/57824"&gt;“No Woman No Cry”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'The Police', 'url': 'https://genius.com/artists/The-police'}], 'writers': [{'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Alannah-myles-black-velvet-lyrics', 'lyrics': '[Verse 1]\nMississippi in the middle of a dry spell\nJimmy Rogers on the Victrola up high\nMama\'s dancin\' with baby on her shoulder\nThe sun is settin\' like molasses in the sky\n\n[Pre-Chorus]\nThe boy could sing\nKnew how to move, everything\nAlways wanting more\nHe\'d leave you longing for\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\n\n[Verse 2]\nUp in Memphis\nThe music\'s like a heatwave\nWhite lightning\nBound to drive you wild\nMama\'s baby\'s in the heart of every schoolgirl\n"Love Me Tender" leaves \'em cryin\' in the aisle\n[Pre-Chorus]\nThe way he moved\nIt was a sin\nSo sweet and true\nAlways wanting more\nHe\'d leave you longing for\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\n\n[Bridge]\nEvery word of every song\nThat he sang was for you\nIn a flash, he was gone\nIt happened so soon\nWhat could you do?\n\n[Chorus]\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\nBlack velvet if you please\nBlack velvet\nAnd that little boy\'s smile\nBlack velvet\nWith that slow southern style\nA new religion that\'ll bring ya to your knees\n[Outro]\nBlack velvet if you please\nIf you please\nIf you please\nIf you please', 'annotations': {'description': '&lt;p&gt;“Black Velvet” was an international smash hit, &lt;a href="https://www.billboard.com/music/alannah-myles/chart-history/hot-100/song/318720" rel="noopener nofollow"&gt;topping&lt;/a&gt; the US Hot 100 in spring 1990, &lt;a href="http://www.officialcharts.com/artist/26020/alannah-myles/" rel="noopener nofollow"&gt;reaching #2 in the UK&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/26020/alannah-myles/" rel="noopener nofollow"&gt;breaking the top five&lt;/a&gt; in nine more European countries.&lt;/p&gt;\n\n&lt;p&gt;It was written in 1987 as a tribute to Elvis Presley by Myles\' then-boyfriend Christopher Ward while he was on a bus of Elvis fanatics as they rode to Memphis to attend the 10th anniversary of his death.&lt;/p&gt;\n\n&lt;p&gt;According to Fred Bronson’s book &lt;em&gt;The Billboard Book of Number One Hits&lt;/em&gt;, on the day Myles recorded her vocals, it was a hot &amp;amp; humid day and she was in a basement recording studio with no air conditioning, so she sang it shirtless (in a bikini).&lt;/p&gt;\n\n&lt;p&gt;“Black Velvet” was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=ALANNAH+MYLES&amp;amp;ti=BLACK+VELVET" rel="noopener nofollow"&gt;certified Gold&lt;/a&gt; in less than two months. It was ranked the &lt;a href="https://www.musicoutfitters.com/topsongs/1990.htm" rel="noopener nofollow"&gt;#18 song of 1990&lt;/a&gt; by Billboard magazine.&lt;/p&gt;\n\n&lt;p&gt;In 2008, Myles &lt;a href="https://www.rollingstone.com/music/music-lists/where-are-they-now-pops-class-of-1990-10478/alannah-myles-34052/" rel="noopener nofollow"&gt;re-recorded the song&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'David Tyson', 'url': 'https://genius.com/artists/David-tyson'}], 'writers': [{'name': 'Christopher Ward', 'url': 'https://genius.com/artists/Christopher-ward'}, {'name': 'David Tyson', 'url': 'https://genius.com/artists/David-tyson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rage-against-the-machine-sleep-now-in-the-fire-lyrics', 'lyrics': "[Verse 1]\nYeah\nThe world is my expense\nThe cost of my desire\nJesus blessed me with its future\nAnd I protect it with fire\nSo raise your fists and march around\nJust don't take what you need\nI'll jail and bury those committed\nAnd smother the rest in greed\nCrawl with me into tomorrow\nOr I'll drag you to your grave\nI'm deep inside your children\nThey'll betray you in my name\n\n[Chorus]\nHey, hey\nSleep now in the fire\nHey, hey\nSleep now in the fire\n\n[Verse 2]\nThe lie is my expense\nThe scope of my desire\nThe party blessed me with its future\nAnd I protect it with fire\n[Pre-Chorus]\nI am the Niña, the Pinta, the Santa Maria\nThe noose and the rapist, the fields' overseer\nThe agents of orange, the priests of Hiroshima\nThe cost of my desire\nSleep now in the fire\n\n[Chorus]\nHey, hey\nSleep now in the fire\nHey, hey, hey\nSleep now in the fire\n\n[Verse 3]\nFor it's the end of history\nIt's caged and frozen still\nThere is no other pill to take\nSo swallow the one that makes you ill\n\n[Pre-Chorus]\nThe Niña, the Pinta, the Santa Maria\nThe noose and the rapist, the fields' overseer\nThe agents of orange, the priests of Hiroshima\nThe cost of my desire\nSleep now in the fire\nYeah\n[Guitar Solo]\n\n[Outro]\nSleep now in the fire\nSleep now in the fire\nSleep now in the fire\nSleep now in the fire", 'annotations': {'description': "&lt;p&gt;“Sleep Now in the Fire” is the fifth track from the 1999 album The Battle of Los Angeles by the band Rage Against the Machine. It was released as a single on November 4, 1999. The song contains lyrics about greed, such as the conquest of Native Americans, Christopher Columbus' voyage by Nina, the Pinta, and Santa Maria and U.S. slavery in the 19th century as well as criticism of actions taken by the US government in wartime, including the bombing of Hiroshima and the use of Agent Orange in the Vietnam War. The guitar riff is a reworking of The Stooges TV Eye, from 1970s Fun House. The song’s main riff is similar to Nirvana’s 1991 song, “Breed”; although Sleep Now In The Fire is one and a half pitch higher.&lt;br&gt;\nGuitarist Tom Morello’s solo is also notable as he simply uses feedback from the amp, along with using his whammy bar to adjust the pitch of the feedback. By flicking his toggle switch on and off, he is able to create the high-pitched solo. At the end of the recording, a Korean radio station is heard coming from Morello’s amplifier.&lt;/p&gt;", 'producers': [{'name': 'Rage Against the Machine', 'url': 'https://genius.com/artists/Rage-against-the-machine'}, {'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'Brad Wilk', 'url': 'https://genius.com/artists/Brad-wilk'}, {'name': 'Tim Commerford', 'url': 'https://genius.com/artists/Tim-commerford'}, {'name': 'Zack de la Rocha', 'url': 'https://genius.com/artists/Zack-de-la-rocha'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sugar-ray-someday-lyrics', 'lyrics': "[Verse 1]\nSomeday, when my life has passed me by\nI'll lay around and wonder why, you were always there for me\nOne way, in the eyes of a passer by\nI'll look around for another try and they'll fade away\n\n[Chorus]\nJust close your eyes and I'll take you there\nThis place is warm and without a care\nWe'll take a swim in the deep blue sea\nI go to leave as you reach for me\n\n[Verse 2]\nSome say, better things will come our way\nNo matter what they try to say, you were always there for me\nSome way, when the sun begins to shine\nI hear a song from another time and they fade away\nAnd fade they away\n\n[Chorus]\nJust close your eyes and I'll take you there\nThis place is warm and without a care\nWe'll take a swim in the deep blue sea\nI go to leave as you reach for me\n\n[Bridge]\nSomeone said we tried too long (Someday will pass me by)\nSomeone said we got it all wrong (Someday, I wonder why)\nSomeone said we tried too long (Someday will pass me by)\nIs there a place where I belong? (Someday will)\n[Verse 3]\nSo far\nSo long\nSo far away\nSo far\nSo wrong\nSo far away away away\n\n[Verse 1 repeated]\nSomeday, when my life has passed me by\nI'll lay around and wonder why, you were always there for me\nOne way, in the eyes of a passer by\nI'll look around for another try and they'll fade away\n\n[Outro]\nAnd they fade away (repeats many times until it fades out)", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/8daae879b74a99a1638c1147e02e6908.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Someday is a single from Sugar Ray’s album &lt;em&gt;14:59&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;One interpretation is that it’s about how one man continues to mess up in his relationship, but the woman continues to stay with him because she loves him.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Sugar Ray', 'url': 'https://genius.com/artists/Sugar-ray'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Depeche-mode-strangelove-lyrics', 'lyrics': "[Verse 1]\nThere'll be times when my crimes\nWill seem almost unforgivable\nI give in to sin\nBecause you have to make this life livable\nBut when you think I've had enough from your sea of love\nI'll take more than another riverful\nYes, and I'll make it all worthwhile\nI'll make your heart smile\n\n[Chorus]\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\n\n[Post-Chorus]\nWill you take the pain I will give to you\nAgain and again and will you return it?\n\n[Verse 2]\nThere'll be days when I'll stray\nI may appear to be constantly out of reach\nI give in to sin\nBecause I like to practice what I preach\nI'm not trying to say I'll have it all my way\nI'm always willing to learn when you've got something to teach\nOh, and I'll make it all worthwhile\nI'll make your heart smile\n[Bridge]\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI'll say it again: pain\nPain, will you return it?\nI won't say it again\n\n[Chorus]\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\nStrangelove, strange highs and strange lows\nStrangelove, that's how my love goes\nStrangelove, will you give it to me?\n\n[Outro]\nI give in\nAgain and again\nI give in\nWill you give it to me?\nI give in\nI'll say it again\nI give in\nI give in\nAgain and again\nI give in\nThat's how my love goes\nI give in\nI'll say it again\nI give in", 'annotations': {'description': '', 'producers': [{'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Depeche Mode', 'url': 'https://genius.com/artists/Depeche-mode'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Madonna-girl-gone-wild-lyrics', 'lyrics': "[Spoken Intro]\nOh my God (God)\nI am heartly sorry for having offended thee\nAnd I detest all my sins\nBecause I dread the loss of Heaven (Heaven)\nAnd the pain of Hell (Hell)\nBut most of all, because I love thee (Thee)\nAnd I want so badly to be good (Good, good, good, good, good)\n\n[Verse 1]\nIt's so hypnotic (Hypnotic)\nThe way he pulls on me\nIt's like the force of gravity\nRight up under my feet\nIt's so erotic (Erotic)\nThis feeling can't be beat\nIt's coursing through my whole body\nFeel the heat\n\n[Pre-Chorus]\nI got that burnin' hot desire\nAnd no one can put out my fire\nIt's coming right down through the wire\nHere it comes\nWhen I hear them 808 drums\nIt's got me singing\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Interlude]\nLike a girl gone wild, a good girl gone wild\nI'm like a girl gone wild, a good girl gone wild\n\n[Verse 2]\nThe room is spinning (Spinning)\nIt must be the Tanqueray\nI'm about to go astray\nMy inhibition's gone away\nI feel like sinning (Sinning)\nYou got me in the zone\nDJ, play my favorite song\nTurn me on\n[Pre-Chorus]\nI got that burnin' hot desire\nAnd no one can put out my fire\nIt's coming right down through the wire\nHere it comes\nWhen I hear them 808 drums\nIt's got me singing\n\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Bridge]\nI know, I know, I know I shouldn't act this way\nI know, I know, I know good girls don't misbehave\nMisbehave\nBut I'm a bad girl anyway, hey\nForgive me\n[Chorus]\nHey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\nI'm like, hey-ey-ey-ey-ey-ey\nLike a girl gone wild, a good girl gone wild\n\n[Post-Chorus]\nGirls, they just wanna have some fun\nGet fired up like a smokin' gun\nOn the floor, 'til the daylight comes\nGirls, they just wanna have some fun\n\n[Outro]\nI'm like a girl gone wild, a good girl gone wild\nI'm like a girl gone wild, a good girl gone wild", 'annotations': {'description': '&lt;p&gt;“Girl Gone Wild” was the second single released from Madonna’s twelfth album, &lt;a href="https://genius.com/albums/Madonna/Mdna" rel="noopener" data-api_path="/albums/14693"&gt;&lt;em&gt;MDNA&lt;/em&gt;&lt;/a&gt;. The upbeat EDM track is a return to one of Madonna’s favorite lyrical topics: escapism on the dance floor (with a dose of religious iconography via the song’s spoken intro).&lt;/p&gt;\n\n&lt;p&gt;The black and white &lt;a href="https://www.youtube.com/watch?v=tYkwziTrv5o" rel="noopener nofollow"&gt;music video&lt;/a&gt;, directed by fashion photographer duo &lt;a href="https://en.wikipedia.org/wiki/Mert_and_Marcus" rel="noopener nofollow"&gt;Mert and marcus&lt;/a&gt;, features Madonna and a number of male models in different looks, dancing with Ukrainian group &lt;a href="https://en.wikipedia.org/wiki/Kazaky" rel="noopener nofollow"&gt;Kazaky&lt;/a&gt;.  It received critical acclaim for the editing and the visuals, while reviewers noted that it took inspiration from Madonna’s older videos, such as “Erotica”, “Justify My Love”, “Human Nature” and “Vogue”.&lt;/p&gt;', 'producers': [{'name': 'Alle Benassi', 'url': 'https://genius.com/artists/Alle-benassi'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Jenson Vaughan', 'url': 'https://genius.com/artists/Jenson-vaughan'}, {'name': 'Alle Benassi', 'url': 'https://genius.com/artists/Alle-benassi'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Sean-kingston-beautiful-girls-lyrics', 'lyrics': "[Intro: J.R. Rotem]\nJ.R., Sean Kingston\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 1: Sean Kingston]\nSee, it started at the park\nUsed to chill after dark\nOh, when you took my heart\nThat's when we fell apart\n'Cause we both thought\nThat love last forever (Last forever)\nThey say we're too young\nTo get ourselves sprung\nOh, we didn't care\nWe made it very clear\nAnd they also said\nThat we couldn't last together (Last together)\n[Pre-Chorus: Sean Kingston]\nSee, it's very defined\nYou're one of a kind\nBut you mash up my mind\nYou haffi get declined\nOh Lord, my baby is drivin' me crazy\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 2: Sean Kingston]\nIt was back in '99\nWatchin' movies all the time\nOh, when I went away for doin' my first crime\nAnd I never thought\nThat we was gonna see each other (See each other)\nAnd then I came out\nMami moved me down south\nOh I'm with my girl who I thought was my world\nIt came out to be\nThat she wasn't the girl for me (Girl for me)\n[Pre-Chorus: Sean Kingston]\nSee, it's very defined\nYou're one of a kind\nBut you mash up my mind\nYou haffi get declined\nOh Lord, my baby is drivin' me crazy\n\n[Chorus: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal\nWhen you say it's over\nDamn all these beautiful girls\nThey only wanna do you dirt\nThey'll have you suicidal, suicidal\nWhen they say it's over\n\n[Verse 3: Sean Kingston]\nNow we're fussin'\nAnd now we're fightin'\nPlease tell me why\nI'm feelin' slighted\nAnd I don't know\nHow to make it better (Make it better)\nYou're datin' other guys\nYou're tellin' me lies\nOh, I can't believe\nWhat I'm seein' with my eyes\nI'm losin' my mind\nAnd I don't think it's clever (Think it's clever)\n[Outro: Sean Kingston]\nYou're way too beautiful, girl\nThat's why it'll never work\nYou have me suicidal, suicidal, suicidal", 'annotations': {'description': '&lt;p&gt;Will Sean Kingston ever top his chart-smashing 2007 single? It rocketed to number 1 on the &lt;em&gt;US Billboard 100&lt;/em&gt;, and spring boarded the Jamaican singer into the pop stratosphere for a period of time.&lt;/p&gt;\n\n&lt;p&gt;It’s an incredibly simple track, but Kingston proves how important he is to the success of the melody in the &lt;a href="https://www.youtube.com/watch?v=MrTz5xjmso4" rel="noopener nofollow"&gt;video,&lt;/a&gt; where he intro’s the song by singing the hook acapella. Even without the playful bass line and jazzy groove, Kingston is catchy and memorable. Despite the mentions of suicide in the hook, it doesn’t appear to have a dark undertone. It’s a sunny song with Kingston lamenting his inability to recover from women ending their relationship with him.&lt;/p&gt;\n\n&lt;p&gt;In terms of one hit wonders, Kingston almost enters in a league of his own. The song reached number 1 in 7 countries, and it sold a staggering 2 million ringtones in the US alone.&lt;/p&gt;', 'producers': [{'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}], 'writers': [{'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'Mike Stoller', 'url': 'https://genius.com/artists/Mike-stoller'}, {'name': 'Jerry Leiber', 'url': 'https://genius.com/artists/Jerry-leiber'}, {'name': 'Ben E. King', 'url': 'https://genius.com/artists/Ben-e-king'}, {'name': 'Sean Kingston', 'url': 'https://genius.com/artists/Sean-kingston'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Queen-i-want-to-break-free-lyrics', 'lyrics': "[Verse 1]\nI want to break free\nI want to break free\nI want to break free from your lies\nYou're so self-satisfied, I don't need you\nI've got to break free\nGod knows, God knows I want to break free\n[Verse 2]\nI've fallen in love\nI've fallen in love for the first time\nAnd this time I know it's for real\nI've fallen in love, yeah\nGod knows, God knows I've fallen in love\n[Bridge]\nIt's strange but it's true, yeah\nI can't get over the way you love me like you do\nBut I have to be sure\nWhen I walk out that door\nOh, how I want to be free, baby\nOh, how I want to be free\nOh, how I want to break free\n\n[Verse 3]\nBut life still goes on\nI can't get used to living without, living without\nLiving without you by my side\nI don't want to live alone, hey\nGod knows, got to make it on my own\nSo baby, can't you see?\nI've got to break free\n[Outro]\nI've got to break free\nI want to break free, yeah\nI want, I want, I want, I want to break free", 'annotations': {'description': '&lt;p&gt;The second single from Queen’s 11th studio album &lt;a href="https://genius.com/albums/Queen/The-works" rel="noopener" data-api_path="/albums/68152"&gt;&lt;em&gt;The Works&lt;/em&gt;&lt;/a&gt;, “I Want To Break Free” gained notoriety primarily for its controversial music video. The video featured the band dressed as the cast of the popular soap opera &lt;em&gt;Coronation Street&lt;/em&gt; and has Freddie Mercury dancing with members of the Royal Ballet Theatre. Mercury plays a housewife who wants to “break free” from his constraining life.&lt;/p&gt;\n\n&lt;p&gt;Although music video is often believed to be Freddie Mercury’s idea, in an interview with &lt;a href="https://brianmay.com/brian/briannews/briannewsmar11a.html" rel="noopener nofollow"&gt;Q magazine March 2011&lt;/a&gt;, when Brian May was asked whether each band member’s character in the video was an accurate reflection of their personalities, he answered:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Of Course! Everybody thinks that was Freddie’s idea because it looks like something that he would love to do but it actually came from Roger’s girlfriend at the time, strangely enough. It was her idea to pastiche the Coronation Street women.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Freddie, although shocked that the others suggested dressing up in drag for the video, doesn’t deny that he was actually dying to dress up in drag, and it was something in the back of his mind.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/6xOhAHdF96E?modestbranding=1&amp;amp;start=294&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/LrOCwdFjZdQ?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;The soap opera parody was missed in the  United States, where the video was interpreted as a celebration of transvestism and subsequently banned from MTV, which may have led to the song’s lack of success in the US as compared to the rest of the world.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4676742925be5a83957b80b470e14602.300x300x1.jpg" alt="" width="300" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;The musicians dressed as female characters from Coronation Street. Left to right: Roger Taylor (as Suzie Birchall), Brian May (Hilda Ogden), Freddie Mercury (Bet Lynch) and John Deacon (Ena Sharples).&lt;/p&gt;', 'producers': [{'name': 'Queen', 'url': 'https://genius.com/artists/Queen'}, {'name': 'Reinhold Mack', 'url': 'https://genius.com/artists/Reinhold-mack'}], 'writers': [{'name': 'John Deacon', 'url': 'https://genius.com/artists/John-deacon'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bastille-pompeii-lyrics', 'lyrics': "[Directed by Jesse John Jenkins]\n[Intro]\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\n\n[Verse 1]\nI was left to my own devices\nMany days fell away with nothing to show\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\nGrey clouds roll over the hills, bringing darkness from above\n\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\n[Verse 2]\nWe were caught up and lost in all of our vices\nIn your pose as the dust settled around us\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\nGrey clouds roll over the hills, bringing darkness from above\n\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\n\n[Bridge]\nOh, where do we begin, the rubble or our sins?\nOh, where do we begin, the rubble or our sins?\n\n[Pre-Chorus]\nAnd the walls kept tumbling down in the city that we love\n(Oh, where do we begin, the rubble or our sins?)\nGrey clouds roll over the hills bringing darkness from above\n(Oh, where do we begin, the rubble or our sins?)\n[Chorus]\nBut if you close your eyes\nDoes it almost feel like nothing changed at all?\nAnd if you close your eyes\nDoes it almost feel like you've been here before?\nHow am I going to be an optimist about this?\nHow am I going to be an optimist about this?\nIf you close your eyes\nDoes it almost feel like nothing changed at all?\n[Outro]\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu\nEh, eheu, eheu", 'annotations': {'description': '&lt;p&gt;“Pompeii” was the fourth song to be released from Bastille’s debut album &lt;a href="https://genius.com/albums/Bastille/Bad-blood" rel="noopener" data-api_path="/albums/30558"&gt;&lt;em&gt;Bad Blood&lt;/em&gt;&lt;/a&gt;. It has reached number 2 on the UK Singles Chart, topped the Scottish charts, and reached the number 5 on the Billboard Hot 100. &lt;a href="http://www.officialcharts.com/chart-news/the-top-10-most-streamed-songs-and-artists-of-all-time-revealed-__4249/" rel="noopener nofollow"&gt;According to the Official Charts Company&lt;/a&gt;, it was the UK’s most streamed song up to June 2014.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.youtube.com/watch?feature=player_embedded&amp;amp;v=qpRIPTKsC8w#t=19s" rel="noopener nofollow"&gt;In an interview with NME&lt;/a&gt;, Dan explains that it is indeed about Pompeii, and a conversation among some of its citizens as the smoke comes down:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s really about what happened in Pompeii and the city. Famously, the city was sort of dug up and people who were wiped out by the volcano were kind of discovered – or the negative space of their body was discovered – in the poses in which they died, and I just thought that was such an interesting image. And a really happy one as well. So the song is sort of imagining a conversation between two of those people.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;He also reacts to the huge success the song has been:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When I was writing “Pompeii”, I like honestly recorded it in my bedroom and it didn’t even occur to me – like, you know, we’ve been so taken aback and kind of surprised at how it’s done and never ever expected it to be like anywhere in the charts or anything so, yeah, it’s a massive surprise.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="http://www.telegraph.co.uk/culture/music/rockandpopfeatures/10400588/Bastilles-storming-success.html" rel="noopener nofollow"&gt;In an interview with The Telegraph&lt;/a&gt;, Dan adds:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“It is essentially about fear of stasis and boredom. Being quite a shy, self-conscious person, I was afraid my life might get stuck.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Dan Smith', 'url': 'https://genius.com/artists/Dan-smith'}, {'name': 'Mark Crew', 'url': 'https://genius.com/artists/Mark-crew'}], 'writers': [{'name': 'Dan Smith', 'url': 'https://genius.com/artists/Dan-smith'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Joe-cocker-you-can-leave-your-hat-on-lyrics', 'lyrics': "Baby take off your coat\nReal slow\nTake off your shoes\nI'll take off your shoes\nBaby, take off your dress\nYes, yes, yes\n\nYou can leave your hat on\nYou can leave your hat on\nYou can leave your hat on\n\nGo over there, turn on the lights\nAll the lights\nCome back here, stand on that chair\nGet up woman, that's right\nRaise your arms up in the air\nAnd now shake 'em\n\nYou give me reason to live\nYou give me reason to live\nYou give me reason to live\nYou give me reason to live\n\nSweet darling\n(You can leave your hat on)\nJust leave your hat on, girl\nA little wild man\n(You can leave your hat on)\nLeave your hat on\n(You can leave your hat on)\n(You can leave your hat on)\nSuspicious minds are talkin'\nThey're tryin' to tear us apart\nThey don't believe in this love of mine\nThey don't know what love is\n\nThey don't know what love is\nThey don't know what love is\nThey don't know what love is\nI know what love is\n\nAnd baby, put it my way\n(You can leave your hat on)\nAnd just leave your hat on now\nThey don't wanna\n(You can leave your hat on)\nWon't you do that for me, babe?\n(You can leave your hat on)\nAnd just leave your hat on, girl\n(You can leave your hat on)", 'annotations': {'description': '&lt;p&gt;“You Can Leave Your Hat On” was written by Randy Newman in 1969.  It appears on the Joe Cocker album &lt;em&gt;Cocker&lt;/em&gt; (1986).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/1c7e1a10ca6ec8bffdf99e7b74fd8648.320x320x1.jpg" alt="" width="320" height="320" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This song became part of the soundtrack for the movie &lt;a href="http://www.imdb.com/title/tt0091635/" rel="noopener nofollow"&gt;&lt;em&gt;9 ½ Weeks&lt;/em&gt; (1986)&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When Newman wrote the song he said he pictured the protagonist “as kind of a weak fellow”, but Cocker’s version is done with swagger, and it adds a lot to the sexuality of it.&lt;/p&gt;', 'producers': [{'name': 'Richie Zito', 'url': 'https://genius.com/artists/Richie-zito'}], 'writers': [{'name': 'Randy Newman', 'url': 'https://genius.com/artists/Randy-newman'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Lady-gaga-applause-lyrics', 'lyrics': '[Verse 1]\nI stand here waiting for you to bang the gong\nTo crash the critic saying, "Is it right or is it wrong?"\nIf only fame had an IV, baby, could I bear\nBeing away from you? I found the vein, put it in here\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Verse 2]\nI\'ve overheard your theory, "Nostalgia\'s for geeks"\nI guess sir, if you say so, some of us just like to read\nOne second I\'m a Koons, then suddenly the Koons is me\nPop culture was in art, now art\'s in pop culture, in me\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Bridge]\nWoo... touch, touch\nWoo... touch, touch\nNow... woo-oh-oh-oh...\nWoo-oh-oh-oh...\n\n[Pre-Chorus]\nI live for the applause, applause, applause\nI live for the applause-plause, live for the applause-plause\nLive for the way that you cheer and scream for me\nThe applause, applause, applause\n\n[Chorus]\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\nGive me that thing that I love (I\'ll turn the lights out)\nPut your hands up, make \'em touch, touch (Make it real loud)\n\n[Post-Chorus]\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\nA-P-P-L-A-U-S-E (Make it real loud)\nA-P-P-L-A-U-S-E\nPut your hands up, make \'em touch, touch\n[Outro]\nA-R-T-P-O-P', 'annotations': {'description': '&lt;p&gt;“Applause” is an EDM/electro-pop celebration of sticking it to the haters, doing what one loves, and embracing the thrill of the crowd. Bed-ridden and forced to cancel tour dates due to a 2013 hip injury, Gaga yearned for the love – * the applause* – of her fans, inspiring her to write this song.&lt;/p&gt;\n\n&lt;p&gt;The song is the lead single off of Lady Gaga’s &lt;em&gt;ARTPOP&lt;/em&gt;. It’s less robust than her previous lead singles, like &lt;a href="https://genius.com/Lady-gaga-bad-romance-lyrics" rel="noopener" data-api_path="/songs/1313"&gt;“Bad Romance”&lt;/a&gt; and &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, but what it lacks in length it displays in nightclub-ready energy and unapologetic campiness.&lt;/p&gt;\n\n&lt;p&gt;The song’s cover art is possibly &lt;a href="http://flavorwire.com/407489/the-cover-of-lady-gagas-new-single-applause-looks-a-whole-lot-like-david-bowies-scary-monsters" rel="noopener nofollow"&gt;Bowie-influenced.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ec0c9d97237b28c537dc33b5edb3e8f6.607x469x1.png" alt="" width="607" height="469" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}], 'writers': [{'name': 'Steve Guess', 'url': 'https://genius.com/artists/Steve-guess'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'Tchami', 'url': 'https://genius.com/artists/Tchami'}, {'name': 'Julien Arias', 'url': 'https://genius.com/artists/Julien-arias'}, {'name': 'Nicolas Mercier', 'url': 'https://genius.com/artists/Nicolas-mercier'}, {'name': 'Nick Monson', 'url': 'https://genius.com/artists/Nick-monson'}, {'name': 'Dino Zisis', 'url': 'https://genius.com/artists/Dino-zisis'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Live-band-selling-the-drama-lyrics', 'lyrics': "[Verse 1]\nAnd to love, the God\nAnd to fear, the flame\nAnd to burn, the crowd that has a name\n\n[Verse 2]\nAnd to right or wrong\nAnd to meek or strong\nIt is known, just scream it from the wall\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that\n\n[Verse 3]\nIt's the sun that burns\nIt's the wheel that turns\nIt's the way we sing that makes 'em dream\n[Verse 4]\nAnd to Christ, a cross\nAnd to me, a chair\nI will sit and earn the ransom from up here\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that, scarred like that\n(We won't, we won't, we won't, we won't)\n\n[Verse 5]\nAnd to love, a God\nAnd to fear, a flame\nAnd to burn, a love that has a name\n\n[Pre-Chorus]\nI've willed, I've walked\nI've read, I've talked\nI know, I know\nI've been here before\n[Chorus]\nHey, now we won't be raped\nHey, now we won't be scarred like that\nHey, now we won't be raped\nHey, now we won't be scarred like that, scarred like that\n\n[Outro]\nHey, now, no, no\nWe won't be scarred like that\nWow we won't be scarred like that", 'annotations': {'description': '&lt;p&gt;The title of this song refers to religion and spirituality, in both western and eastern guises. “Drama” refers to both the theatrics of organized religions and the Hindu cosmological concept of Lila (the universal “play” of Brahman). On the one hand, the song is about how some churches/institutions “sell” religion like a commodity. On the other, the singer questions whether the truth of Hindu lila is something that even &lt;em&gt;can&lt;/em&gt; be sold.&lt;/p&gt;', 'producers': [{'name': 'LIVE (Band)', 'url': 'https://genius.com/artists/Live-band'}, {'name': 'Jerry Harrison', 'url': 'https://genius.com/artists/Jerry-harrison'}], 'writers': [{'name': 'Ed Kowalczyk', 'url': 'https://genius.com/artists/Ed-kowalczyk'}], 'labels': [{'name': 'Radioactive Records', 'url': 'https://genius.com/artists/Radioactive-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Moby-bodyrock-lyrics', 'lyrics': "[Hook]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNo stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is...\n[Chorus]\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Hook]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is\n[Chorus]\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Instrumental Break]\n[Breakdown]\nRock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\n\n[Hook]\nToday is rock y'all\nNo stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is rock y'all\nNon-stop y'all\nTo the beat y'all\nThe body rock y'all\nToday is\n\n[Bridge]\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to set you freaking\n\n[Chorus]\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nWe rock the party\nRock the party\nCome on\nGet down\nWhen we're going to make you freak\n\n[Outro]\nRock rock the party\nWe rock the party\nCome on get down", 'annotations': {'description': '&lt;p&gt;“Bodyrock” was the third single released from Moby’s 1999 album &lt;em&gt;Play&lt;/em&gt;. It charted in the UK Top 40 and was eventually nominated for a Grammy for Best Rock Instrumental.&lt;/p&gt;\n\n&lt;p&gt;As with most of the commercially released singles from the album, “Bodyrock” is based around a sample; in this case it’s from &lt;a href="https://genius.com/artists/Spoonie-gee" rel="noopener" data-api_path="/artists/9763"&gt;Spoonie Gee’s&lt;/a&gt; &lt;a href="https://genius.com/Spoonie-gee-love-rap-lyrics" rel="noopener" data-api_path="/songs/939348"&gt;“Love Rap”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Treacherous-three" rel="noopener" data-api_path="/artists/9762"&gt;Treacherous Three&lt;/a&gt;’s &lt;a href="https://genius.com/Treacherous-three-body-rock-lyrics" rel="noopener" data-api_path="/songs/52446"&gt;“Body Rock”&lt;/a&gt;, which Moby surrounds with old school drum loops, layers of electric guitar, synthesized strings, and piano.&lt;/p&gt;\n\n&lt;p&gt;A decade after releasing the song, Moby &lt;a href="http://www.rollingstone.com/music/news/play-10-years-later-mobys-track-by-track-guide-to-1999s-global-smash-20090702#ixzz3lTLYnTAC" rel="noopener nofollow"&gt;reflected&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Bodyrock” was the song both of my managers tried to get me to take off the record. They thought it was really tacky. They thought it sounded like a &lt;a href="https://genius.com/artists/Fatboy-slim" rel="noopener" data-api_path="/artists/2957"&gt;Fatboy Slim&lt;/a&gt; ripoff — which I guess it kind of did. I like it because the hip-hop sample was off the first mixtape I ever got, maybe in 1981, off of the Mr. Magic Show on WBLS. The guitar is directly inspired by &lt;a href="https://genius.com/Gang-of-four-what-we-all-want-lyrics" rel="noopener" data-api_path="/songs/874571"&gt;“What We All Want”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Gang-of-four" rel="noopener" data-api_path="/artists/75518"&gt;Gang of Four&lt;/a&gt;. And I thought it was kind of funny to have an orchestral chorus on what is essentially a hip-hip song.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;sub&gt;Spoonie Gee and the Treacherous Three’s “Love Rap”:&lt;/sub&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YfWfiP_x6WE?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;sub&gt;The American version of the “Bodyrock” video:&lt;/sub&gt;&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/QwG49y-RMe4?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}], 'writers': [{'name': 'Bobby Robinson', 'url': 'https://genius.com/artists/Bobby-robinson'}, {'name': 'Spoonie Gee', 'url': 'https://genius.com/artists/Spoonie-gee'}, {'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rednex-cotton-eye-joe-lyrics', 'lyrics': "[Intro]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Verse 1]\nHe came to town like a midwinter storm\nHe rode through the fields, so handsome and strong\nHis eyes was his tools and his smile was his gun\nBut all he had come for was havin' some fun\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\n\n[Verse 2]\nHe brought disaster wherever he went\nThe hearts of the girls was to hell broken sent\nThey all ran away so nobody would know\nAnd left only men 'cause of Cotton-Eyed Joe\n\n[Chorus]\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?\nIf it hadn't been for Cotton-Eyed Joe\nI'd been married long time ago\nWhere did you come from? Where did you go?\nWhere did you come from, Cotton-Eyed Joe?", 'annotations': {'description': '&lt;p&gt;Cotton Eye Joe is an American folk song which was written in 1861. Rednex provides an EDM remix of it.&lt;/p&gt;', 'producers': [{'name': 'Pat Reiniz', 'url': 'https://genius.com/artists/Pat-reiniz'}], 'writers': [{'name': 'Oban', 'url': 'https://genius.com/artists/Oban'}, {'name': 'Pat Reiniz', 'url': 'https://genius.com/artists/Pat-reiniz'}, {'name': 'Jan Mikael Ericsson', 'url': 'https://genius.com/artists/Jan-mikael-ericsson'}], 'labels': [{'name': 'Battery Records', 'url': 'https://genius.com/artists/Battery-records'}, {'name': 'ZYX Music', 'url': 'https://genius.com/artists/Zyx-music'}, {'name': 'Internal Affairs', 'url': 'https://genius.com/artists/Internal-affairs'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Michael-jackson-dont-stop-til-you-get-enough-lyrics', 'lyrics': "[Spoken Intro]\nYou know, I was\nI was wondering, you know\nIf you could keep on\nBecause the force\nIt's got a lot of power\nAnd it make me feel like ah\nIt make me feel like… ooh!\n\n[Verse 1]\nLovely is the feelin' now\nFever, temperatures risin' now\nPower (Oh power) is the force, the vow\nThat makes it happen, it asks no questions why (Ooh)\nSo get closer (Closer now)\nTo my body now\nJust love me\n'Till you don't know how (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n[Verse 2]\nTouch me and I feel on fire\nAin’t nothin' like a love desire (Ooh)\nI'm melting (I'm melting)\nLike hot candle wax\nSensation (Oh sensation)\nLovely where we're at (Ooh!)\nSo let love take us through the hours\nI won't be complainin' (Aah)\n'Cause this is love power (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n\n[Instrumental Interlude]\nOoh!\nOh, baby\nKeep on\nKeep on\n[Verse 3]\nHeartbreak enemy despise\nEternal (Oh eternal)\nLove shines in my eyes (Ooh)\nSo let love take us through the hours (Oh, let love)\nI won't be complainin' (No, no) (Hoo!)\n'Cause your love is alright, alright (Ooh)\n\n[Chorus]\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Don't stop, baby)\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough (Oh, my baby)\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\n[Refrain]\nLovely is the feelin' now\nI won't be complainin' (Ooh, ooh)\nThe force is love power\n\n[Chorus / Outro]\nKeep on with the force don't stop\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't stop, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't, baby)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Love power, yeah)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Love power)\nDon't stop 'til you get enough\nKeep on with the force don't stop\n(Keep on with the power, would ya, ooh)\nDon't stop 'til you get enough\n(Don't stop 'til you get enough, ooh)\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Keep on, yeah)\nDon't stop 'til you get enough (Ah, ah now)\nKeep on with the force, don't stop (Yeah)\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Keep on, baby)\nDon't stop 'til you get enough\nKeep on with the force, don't stop (Don't 'til you get enough)\nDon't stop 'til you get enough\nKeep on with the force, don't stop\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on, darlin')\nDon't stop 'til you get enough\nKeep on with the force don't stop (Alright, yeah)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Keep on baby)\nDon't stop 'til you get enough\nKeep on with the force don't stop (Don't stop)", 'annotations': {'description': "&lt;p&gt;In 1978, Michael Jackson starred as the scarecrow in &lt;em&gt;The Wiz&lt;/em&gt;. After filming, MIchael contacted the films musical directer to discuss a possible solo album. After reviewing hundreds of demos, “Don’t Stop ‘Til You Get Enough” was chosen along with several others to make up Michael’s album, &lt;em&gt;Off the Wall&lt;/em&gt;.“Don’t Stop 'Til You Get Enough” received criticism for the songs supposed “sexual referencing” lyrics.&lt;/p&gt;\n\n&lt;p&gt;Michael Jackson claimed people often misinterpret the song, saying the song was about never quitting, regardless of what your dream was. At that time, perhaps his dream was to succeed as a solo artist. And succeed he did. Michael Jackson won his first Grammy Award for this song, taking the title for Best R&amp;amp;B Vocal Performance, Male. This was Michael’s first #1 since “Ben” in 1972.&lt;/p&gt;", 'producers': [{'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'writers': [{'name': 'Greg Phillinganes', 'url': 'https://genius.com/artists/Greg-phillinganes'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bloodhound-gang-mope-lyrics', 'lyrics': '[Intro: Jimmy Pop, Evil Jared Hasselhoff, &amp; Falco sample]\nWe gonna drop this next bomb for a money makin\' playa that ain\'t with us no mo\'\nYeah, Notorious B.I.G.!\nHell no, we gonna do this for a gangbanging thug that never seen it comin\'\nYeah, 2Pac Shakur!\nNah, bitch, I\'m talkin\' \'bout motherfuckin\' Falco and shit\nWhat? Falco?\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\nOoh, rock me, Amadeus\n\n[Verse 1: Jimmy Pop]\nTried to O.D. on the Cold-Eeze\nGolden Girls got me sweatin\' to the oldies\nHanging out like double-Ds, sip Long Island Iced Teas\nWrote to Mayor McCheese, "Send a Shamrock Shake, please!"\nThree o\' clock on the dot, time to cruise for eighth graders\nRather tape the Weather Channel so that I can watch it later\nReruns of Rerun! So, what\'s happening?\nDee\'s knocked up and Rog\'s on crack again\nDeepthroat a whole Nutty Buddy\nMake whoopie to a batch of Silly Putty\nMade a Spam and Colgate sandwich and ate it\nGo through National Geographic and draw panties on the natives\nSo I like to dance naked in front of my pets\nBut my cat was inattentive, so I sent him UPS\nPlaying spin the bottle with my mom\nI watch COPS with no pants on\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes to Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n\n[Verse 2: Jimmy Pop]\nNowhere to go, I can\'t wake up late\nJust sit around and wait for my Old Spice to activate\nStalemate jail-bait in my so-called-life imprisonment\nAmazing what a good breakfast pickles make, isn\'t it?\nI like to pretend I\'m speed reading\nNever lose the sight of the thrill of sneezing\nDon\'t need a shower today, just some Brut by Faberge\nSmell the ass of my jeans--clean, they\'ll do another day\nAnd I recycle; I sniff my own farts\nI dial the wrong number, hope a conversation starts\nI mean, I might as well be listening to Journey\nGivin\' myself a mullet, hook the Flowbee to the Kirby\nMake a prank call pretending I\'m a mime\nGet stuck in traffic just to pass the time\nSent a letter in the mail, in Braille, to Jonny Quest\n"Send me back my Etch-A-Sketch!"\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes To Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n\n[Post-Chorus: Jimmy Pop &amp; Frankie Goes to Hollywood]\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\nI\'m mighty tighty whitey and I\'m smugglin\' plums\nWhen you wanna cum\n[Refrain: Jimmy Pop, Evil Jared Hasselhoff, &amp; Pac-Man]\nYo, yo, yo, yo, yo! What it is, motherfuckers?\nAw shit, here comes Pac-Man\nHey Pac-Man, what\'s up?\nMe, you bitches, I\'m high on crack! Wanna freebase?\nNo, Pac-Man, drugs are bad!\nNope, can\'t help you, mane\nPussies! Whoa! Holy shit!\n\n[Pre-Chorus: Jimmy Pop]\nMust\'ve blown a fuse, nothing\'s going on\nLamer than the Pope, climb the walls like King Kong\nBuggin\' out like Tori Spelling\'s eyes\nDeader than the parents on A Party of Five\nLuciano Pavarotti on a treadmill\nNot going nowhere, slim chance we will\nLess hip than Bo Jackson, bored like wood\nDick around like Frankie Goes To Hollywood\n\n[Chorus: Frankie Goes to Hollywood]\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\nRelax, don\'t do it, when you wanna go to it\nRelax, don\'t do it, when you wanna cum\n[Outro: Homer Simpson]\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni\nHoly macaroni', 'annotations': {'description': '&lt;p&gt;This song is about being bored, home alone with nothing better to do and doing random shit to pass the time.&lt;/p&gt;', 'producers': [{'name': 'Jimmy Pop', 'url': 'https://genius.com/artists/Jimmy-pop'}], 'writers': [{'name': 'David X. Cohen', 'url': 'https://genius.com/artists/David-x-cohen'}, {'name': 'Steve Tompkins', 'url': 'https://genius.com/artists/Steve-tompkins'}, {'name': 'John Swartzwelder', 'url': 'https://genius.com/artists/John-swartzwelder'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Mark O’Toole', 'url': 'https://genius.com/artists/Mark-otoole'}, {'name': 'Holly Johnson', 'url': 'https://genius.com/artists/Holly-johnson'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Peter Gill', 'url': 'https://genius.com/artists/Peter-gill'}, {'name': 'Cliff Burton', 'url': 'https://genius.com/artists/Cliff-burton'}, {'name': 'Robert J. Bolland', 'url': 'https://genius.com/artists/Robert-j-bolland'}, {'name': 'Ferdi Bolland', 'url': 'https://genius.com/artists/Ferdi-bolland'}, {'name': 'Falco', 'url': 'https://genius.com/artists/Falco'}, {'name': 'Jimmy Pop', 'url': 'https://genius.com/artists/Jimmy-pop'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Daft-punk-instant-crush-lyrics', 'lyrics': '[Verse 1]\nI didn\'t want to be the one to forget\nI thought of everything I\'d never regret\nA little time with you is all that I get\nThat\'s all we need because it\'s all we can take\nOne thing I never see the same when you\'re \'round\nI don’t believe in him, his lips on the ground\nI wanna take you to that place in the Roche\nBut no one gives us any time anymore\nHe asks me once if I\'d look in on his dog\nYou made an offer for it, then you ran off\nI got this picture of us kids in my head\nAnd all I hear is the last thing that you said\n\n[Pre-Chorus]\n"I listened to your problems, now listen to mine"\nI didn\'t want to anymore, oh-oh-oh\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\nSome more again\n[Verse 2]\nIt didn\'t matter what they wanted to see\nHe thought he saw someone that looked just like me\nThe summer memory that just never dies\nWe worked too long and hard to give it no time\nHe sees right through me, it\'s so easy with lies\nCracks in the road that I would try and disguise\nHe runs his scissors at the seam in the wall\nHe cannot break it down or else he would fall\nOne thousand lonely stars hiding in the cold\nTake it, oh, I don\'t wanna sing anymore\n\n[Instrumental Break]\n\n[Pre-Chorus]\n"I listened to your problems, now listen to mine"\nI didn\'t want to anymore, oh-oh-oh\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a–\n[Bridge]\nI don\'t understand, don\'t get upset\nI\'m not with you\nWe\'re swimming around, it\'s all I do\nWhen I\'m with you\n\n[Chorus]\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\nAnd we will never be alone again\n\'Cause it doesn\'t happen every day\nKinda counted on you being a friend\nCan I give it up or give it away?\nNow I thought about what I wanna say\nBut I never really know where to go\nSo I chained myself to a friend\n\'Cause I know it unlocks like a door\n[Produced by Daft Punk, Julian Casablancas, John "JR" Robinson, &amp; Nathan East]', 'annotations': {'description': '&lt;p&gt;“Instant Crush,” the fourth single off of &lt;em&gt;Random Access Memories&lt;/em&gt;, sees Daft Punk team up with Julian Casablancas from &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; in a mid tempo song with bass driven mellow verses and uplifting synth based choruses.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/ea01f2ad3d31a0eb1c3da56d3f2c5d2f.500x332x1.jpg" alt="" width="500" height="332" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Julian Casablancas', 'url': 'https://genius.com/artists/Julian-casablancas'}, {'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}], 'labels': [{'name': 'Daft Life', 'url': 'https://genius.com/artists/Daft-life'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Clean-bandit-rockabye-lyrics', 'lyrics': '[Intro: Sean Paul]\nCall it love and devotion\nCall it a mom\'s adoration, foundation\nA special bond of creation, hah\nFor all the single moms out there\nGoing through frustration\nClean Bandit, Sean-da-Paul, Anne-Marie\nSing, make them hear\n\n[Verse 1: Anne-Marie &amp; Sean Paul]\nShe works at nights, by the water\nShe\'s gone astray, so far away\nFrom her father\'s daughter\nShe just wants a life for her baby\nAll on her own, no one will come\nShe\'s got to save him (Daily struggle)\n\n[Pre-Chorus 1: Anne-Marie &amp; Sean Paul]\nShe tells him, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n(Stay up there, stay up there!)\nShe tells him, "Your life ain\'t gon\' be nothing like my life." (Straight!)\n"You\'re gonna grow and have a good life."\n"I\'m gonna do what I\'ve got to do."\n(Stay up there, stay up there!)\n[Chorus: Anne-Marie]\nSo, rockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nSomebody\'s got you\nRockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nAh, rockabye, no\n\n[Post-Chorus 1: Sean Paul &amp; Anne-Marie]\nRockabye, rocka-rocka-rocka-bye\n(Rockabye, yeah, yeah)\nRockabye, rocka-rocka-rocka-bye\n\n[Verse 2: Sean Paul &amp; Anne-Marie, Both]\nSingle mum, how\'re you doing out there?\nFacing the hard life, without no fear (Yeah!)\nJust so you know that you really care\n\'Cause any obstacle come, you\'re well prepared (Oh, no!)\nAnd no, mama, you never shed tear\n\'Cause you have to shed things year after year (Na, na, na, na)\nAnd you give the yout love beyond compare (Yeah!)\nYou find his school fee and the bus fare (Yeah!)\nMh, all when di pops disappear\nInna rum bar, can\'t find him nowhere\nSteadily your workflow, heavily you know\nSo your non-stop, no time, no time for ya dear\n[Bridge: Anne-Marie]\nNow she got a six-year-old\nTrying to keep him warm\nTrying to keep out the cold\nWhen he looks in her eyes\nHe don\'t know he is safe\n\n[Pre-Chorus 2: Anne-Marie]\nWhen she says, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n\n[Chorus: Anne-Marie &amp; Sean Paul]\nSo, rockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\nSomebody\'s got you\nRockabye, baby, rockabye\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Badda-bang-bang-bang, alright then)\nAh, rockabye, no\n\n[Post-Chorus 2: Sean Paul &amp; Anne-Marie]\nRockabye, rocka-rocka-rocka-bye\n(Rockabye, yeah, yeah)\nRockabye, rocka-rocka-rocka-bye\nRockabye, don\'t bother cry\nLift up your head, lift it up to the sky, yo\nRockabye, don\'t bother cry\nAngels surround you, just dry your eye\n[Bridge: Anne-Marie]\nNow she got a six-year-old\nTrying to keep him warm\nTrying to keep out the cold\nWhen he looks in her eyes\nHe don\'t know he is safe when she says\n\n[Pre-Chorus 1: Anne-Marie &amp; Sean Paul]\nShe tells him, "Oh, love, no one\'s ever gonna hurt you, love."\n"I\'m gonna give you all of my love."\n"Nobody matters like you."\n(Stay up there, stay up there!)\nShe tells him, "Your life ain\'t gon\' be nothing like my life." (Straight!)\n"You\'re gonna grow and have a good life."\n"I\'m gonna do what I got to do.", yeah\n\n[Chorus: Anne-Marie &amp; Sean Paul]\nSo, rockabye, baby, rockabye\n(Rockabye, rocka-rocka-rocka-bye)\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Rockabye, rocka-rocka-rocka-bye)\nSomebody\'s got you\nRockabye, baby, rockabye\n(Rockabye-rocka-rocka-rocka-bye)\nI\'m gonna rock you\nRockabye, baby, don\'t you cry\n(Badda-bang-bang-bang, alright then)\nAh, rockabye\n\n[Post-Chorus 3: Sean Paul &amp; Anne-Marie]\nRockabye, don\'t bother cry\nLift up your head, lift it up to the sky (Ah, Rockabye!)\nRockabye, don\'t bother cry (Yeah!)\nAngels surround you, just dry your eye (Yeah, ah, rockabye!)\nRockabye, don\'t bother cry (No!)\nLift up your head, lift it up to the sky (Oh, Rockabye!)\nRockabye, don\'t bother cry\nAngels surround you, just dry your eye', 'annotations': {'description': '&lt;p&gt;“Rockabye” is a dancehall song about all of the single and struggling mothers in the world. The track is the second single released from &lt;a href="https://genius.com/artists/Clean-bandit" rel="noopener" data-api_path="/artists/106693"&gt;Clean Bandit’s&lt;/a&gt; second studio album &lt;a href="https://genius.com/albums/Clean-bandit/What-is-love" rel="noopener" data-api_path="/albums/375274"&gt;&lt;em&gt;What Is Love?&lt;/em&gt;,&lt;/a&gt; and their first single as a trio after violinist Neil Milan left the band earlier in the same week. It features guest vocals from Jamaican rapper &lt;a href="https://genius.com/artists/Sean-paul" rel="noopener" data-api_path="/artists/740"&gt;Sean Paul&lt;/a&gt; and English singer &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song’s lyrics describe how single mothers bear hardships to raise their children and give them the best possible life, and the upbeat music turns that theme into a motivational track.&lt;/p&gt;\n\n&lt;p&gt;“Rockabye” was leaked onto the internet prematurely on the 20th October and was officially released the day after.&lt;/p&gt;', 'producers': [{'name': 'Jack Patterson', 'url': 'https://genius.com/artists/Jack-patterson'}, {'name': 'Steve Mac', 'url': 'https://genius.com/artists/Steve-mac'}, {'name': 'Mark Ralph', 'url': 'https://genius.com/artists/Mark-ralph'}], 'writers': [{'name': 'Sean Paul', 'url': 'https://genius.com/artists/Sean-paul'}, {'name': 'Steve Mac', 'url': 'https://genius.com/artists/Steve-mac'}, {'name': 'Ina Wroldsen', 'url': 'https://genius.com/artists/Ina-wroldsen'}, {'name': 'Jack Patterson', 'url': 'https://genius.com/artists/Jack-patterson'}, {'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Bob-sinclar-world-hold-on-children-of-the-sky-lyrics', 'lyrics': "Oh yeah, yeah…\nOpen up your heart, what do you feel\nOpen up your heart, what do you feel… is real\n\nThe big bang may be a million years away\nBut I can't think of a better time to say\n\nWorld, hold on\nInstead of messing with our future, open up inside\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nInstead of messing with our future\nTell me no more lies\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nChildren of the sky…\nChildren of the sky…\n\nLook inside, you'll find a deeper love\nThe kind that only comes from high above\n\nIf you ever meet your inner child, don't cry\nTell them everything is gonna be alright\nWorld, hold on\nInstead of messing with our future, open up inside\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nChildren of the sky… alright\nOpen up your heart\nTell me, how do you feel\n\nListen now, tell them everything, right here right now\nAlright, everybody, here in the world\nYou are all the children, alright\n\nTogether now, unite, and fight… oooh\nOpen up you heart, no, peace, love for everyone\n\nOh, no no no no no, alright, to the four corners of the world\nSing it loud, sing it loud, sing it loud loud loud\nWorld hold on on\n\nSing it loud, sing it proud\nEverybody, yeah yeah yeah yeah, oooh\nDon't take no for an answer, no no, not today\nRight here,spread love, everybody join together now\nOne [race], one heart, love and unity, everybody sing\nYeah!\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky\n\nWorld, hold on\nCome one, everybody in the universe, come on\nWorld, hold on\nOne day you will have to answer to the children of the sky", 'annotations': {'description': '', 'producers': [{'name': 'Michael Tordjman', 'url': 'https://genius.com/artists/Michael-tordjman'}, {'name': 'Bob Sinclar', 'url': 'https://genius.com/artists/Bob-sinclar'}], 'writers': [{'name': 'Steve Edwards', 'url': 'https://genius.com/artists/Steve-edwards'}, {'name': 'Michael Tordjman', 'url': 'https://genius.com/artists/Michael-tordjman'}, {'name': 'Bob Sinclar', 'url': 'https://genius.com/artists/Bob-sinclar'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Blur-girls-and-boys-lyrics', 'lyrics': "[Verse 1]\nStreets like a jungle\nSo call the police\nFollowing the herd\nDown to Greece\nOn holiday\nLove in the '90s\nIs paranoid\nOn sunny beaches\nTake your chances\nLooking for\n\n[Chorus]\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\n\n[Verse 2]\nAvoiding all work\n'Cause there's none available\nLike battery thinkers\nCount your thoughts\nOn one, two, three, four, five fingers\nNothing is wasted\nOnly reproduced\nYou get nasty blisters\nDu bist sehr schön\nBut we haven't been introduced\n[Chorus]\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\n\n[Bridge]\nOh, oh, oh, oh-oh, oh\nOh, oh, oh, oh-oh\n\n[Chorus]\nLooking for girls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone you really love\nGirls who are boys who like boys to be girls\nWho do boys like they're girls, who do girls like they're boys\nAlways should be someone to really love\n[Outro]\nOh, oh, oh, oh-oh, oh\nOh, oh, oh, oh-oh", 'annotations': {'description': '&lt;p&gt;Peaking a #5 in the UK charts and considered a comeback hit in its day after poor sales of Blur’s second album &lt;em&gt;Modern Life Is Rubbish&lt;/em&gt;. It was named song of the year 1994 by NME and Melody Maker magazines.&lt;/p&gt;\n\n&lt;p&gt;The single’s cover art was taken from a condom wrapper, reflecting the song’s focus on sexual promiscuity on summer holidays in Europe. The music has a convergence of various pop and dance styles, summed up by bassist Alex James as “Disco drums, nasty guitars and &lt;a href="https://genius.com/artists/Duran-duran" rel="noopener" data-api_path="/artists/22720"&gt;Duran Duran&lt;/a&gt; bass", with the first being done by a drum machine.&lt;/p&gt;', 'producers': [{'name': 'Stephen Street', 'url': 'https://genius.com/artists/Stephen-street'}], 'writers': [{'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}, {'name': 'Graham Coxon', 'url': 'https://genius.com/artists/Graham-coxon'}, {'name': 'Dave Rowntree', 'url': 'https://genius.com/artists/Dave-rowntree'}, {'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Roxette-how-do-you-do-lyrics', 'lyrics': "I see you comb your hair and gimme that grin\nIt's makin me spin now, spinning within\nBefore I melt like snow, I say hello\nHow do you do!\n\nI love the way you undress now, baby begin\nDo your caress, honey, my heart's in a mess\nI love your blue eyed voice, like Tiny Tim shines through\nHow do you do!\n\nWell, here we are, crackin' jokes in the corner of our mouths\nAnd I feel like I'm laughin' in a dream\nIf I was young, I would wait outside your school\n'Cause your face is like the cover of a magazine\n\nHow do you do the things that you do?\nNo-one I know could ever keep up with you\nHow do you do!\nDid it ever make sense to you to say bye, bye, bye?\n\nI see you in that chair with perfect skin\nWell, how have you been, baby, livin' in sin?\nHey, I gotta know did you say hello? How do you do?\n\nWell, here we are, spending time in the louder part of town\nAnd it feels like everything's surreal\nWhen I get old I will wait outside your house\n'Cause your hands have got the power meant to heal\nHow do you do the things that you do?\nNo-one I know could ever keep up with you\nHow do you do!\nDid it ever make sense to you to say bye, bye, bye?", 'annotations': {'description': '', 'producers': [{'name': 'Clarence Öfwerman', 'url': 'https://genius.com/artists/Clarence-ofwerman'}], 'writers': [{'name': 'Per Gessle', 'url': 'https://genius.com/artists/Per-gessle'}], 'labels': []}}</t>
+    <t>{'url': 'https://genius.com/Jennifer-lopez-lets-get-loud-lyrics', 'lyrics': "[Intro]\n(Hey, hey, hey, hey, hey, hey, hey, hey)\nYa Jeny llegó, presente! (Hey, hey, hey, hey)\n(Hey, hey, hey, hey, hey, hey, hey, hey, hey, hey, hey, hey)\nHere we go!\n\n[Chorus]\nLet's get loud, let's get loud\nTurn the music up, let's do it\nCome on people, let's get loud\nLet's get loud, let's get loud\nTurn the music up to hear that sound\nLet's get loud, let's get loud\nAin't nobody gotta tell ya what you gotta do\n\n[Verse 1]\nIf you wanna live your life\nLive it all the way, and don't you waste it\nEvery feeling, every beat\nCan be so very sweet, you gotta taste it (Uh-huh)\n\n[Refrain]\nYou gotta do it (You gotta do it), you gotta do it your way\nYou gotta prove it (You gotta prove it), you gotta mean what you say (Come on, you know what we're here for)\nYou gotta do it (Do it), you gotta do it your way\nYou gotta prove it (Prove it), you gotta mean what you say\n[Verse 2]\nLife's a party, make it hot\nDance, don't ever stop, whatever rhythm\nEvery minute, every day\nTake them all the way, you gotta live them (Hey, hey, hey, hey, hey, hey, 'cause I'ma live my life)\n\n[Refrain]\nYou gotta do it (You gotta do it), you gotta do it your way\nYou gotta prove it (You gotta prove it), you gotta mean what you say\nYou gotta do it (Do it), you gotta do it your way\nYou gotta prove it (Prove it), you gotta mean what you say\n\n[Chorus]\nLet's get loud, let's get loud\nTurn the music up to hear that sound\nLet's get loud, let's get loud\nAin't nobody gotta tell ya what you gotta do, no, no\n\n[Interlude]\nYeah, I like this groove (Ah)\nMake it hot, ayy papi (Haha)\nLet's get down\nLet's get down\nLet's get down\nIt's just a party, baby, come on\nLet's get loud (Ooh!)\nLet's get loud\nLet's get loud\nPump it up! (Ah)\n(Hey, hey, hey, hey, hey, hey, hey, hey, hey, hey, hey, hey)\nMake it boogie now\n(Hey, hey, hey, hey, hey, hey, hey, hey, hey, hey, hey, hey)\n[Verse 3]\nLife is meant to be big fun\nYou're not hurtin' anyone, nobody loses\nLet the music make you free\nBe what you wanna be, make no excuses\n\n[Refrain]\nYou gotta do it (Do what you want), you gotta do it your way\nYou gotta prove it (Say what you want), you gotta mean what you say\nYou gotta do it (Steady go where you want), you gotta do it your way\nYou gotta prove it (Just do it, oh), you gotta mean what you say\n\n[Chorus]\nLet's get loud, let's get loud\nTurn the music up to hear that sound\nLet's get loud, let's get loud\nAin't nobody gotta tell ya what you gotta do\n\n[Interlude]\nEso! (Hey, hey)\nAsí, así es que me gusta, ya tú sabes (Hey, hey, hey, hey)\n¡Échale candela! (Hey, hey, hey, hey, hey, hey, haha)\nLet's get loud\nLet's get loud\nLet's get loud\nLet's get loud\n[Chorus]\nLet's get loud, let's get loud (Hey, hey, hey, hey, hey)\nTurn the music up to hear that sound\nLet's get loud, let's get loud (Hey, hey, hey, hey, hey)\nAin't nobody gotta tell ya what you gotta do (Ah)\n\n[Outro]\nYou didn't know I could do that, did you?", 'annotations': {'description': '&lt;p&gt;Originally written by the song’s co-writer Gloria Estefan for herself, she felt as if the song was too similar to her previous material and passed it onto Lopez. Estefan, who co-wrote the song alongside Kike Santander, stated that she would have “more fun with it” and would put “a new spin” on it.&lt;br&gt;\nThe track is often regarded as Lopez’s signature song.&lt;/p&gt;\n\n&lt;p&gt;Since its release, it charted on several charts around the world, reaching the top ten on five European countries. Despite not being released in the United States, it also charted on the US Billboard Hot Dance Club Songs.&lt;/p&gt;\n\n&lt;p&gt;It also received positive critical response and at the 43rd Grammy Awards in 2001, Lopez earned her second consecutive nomination for the Grammy Award for Best Dance Recording.&lt;/p&gt;', 'producers': [{'name': 'Kike Santander', 'url': 'https://genius.com/artists/Kike-santander'}, {'name': 'Emilio Estefan', 'url': 'https://genius.com/artists/Emilio-estefan'}], 'writers': [{'name': 'Gloria Estefan', 'url': 'https://genius.com/artists/Gloria-estefan'}, {'name': 'Kike Santander', 'url': 'https://genius.com/artists/Kike-santander'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-dilemma-lyrics', 'lyrics': '[Intro: Kelly Rowland]\nI love you\nAnd I need you\nNelly, I love you\nI do need you\n\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Verse 1: Nelly &amp; Kelly Rowland]\nI met this chick and she just moved right up the block from me\nAnd uh, she got the hots for me\nThe finest thing my hood done seen\nBut oh no, oh no\nShe got a man and a son though\nBut that\'s okay \'cause I\nWait for my cue and just listen, play my position\nLike a shortstop, pick up e\'rything mami hittin\'\nAnd in no time, I plan to make this one here mine\nAnd that\'s for sure \'cause I\nI never been the type to break up a happy home, but uh\nThere\'s somethin\' \'bout baby girl I just can\'t leave alone\nSo tell me, Ma, what\'s it gonna be?\nShe said: "You don\'t know what you mean to me"\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Verse 2: Nelly &amp; Kelly Rowland]\nI see a lot, and you look, and I never say a word\nI know how niggas start actin\' trippin\' out here about they girls\nAnd there\'s no way\nNelly gon\' fight over no dame\nAs you can see, but I\nI like your steez, your style, your whole demeanor\nThe way you come through and holla\nAnd swoop me in his two-seater\nNow that\'s gangsta\nAnd I got special ways to thank ya\nDon\'t you forget it\nBut uh, it ain\'t that easy for you to pack up and leave him\nBut uh, you and dirty got ties for different reasons\nI respect that, and right before I turn to leave\nShe said: "You don\'t know what you mean to me"\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Interlude: Nelly]\nSing it for me, K!\n\n[Bridge: Kelly Rowland &amp; Nelly]\nI love you (Word?) and I need you\nNelly I love you, I do (Come on, girl)\nAnd it\'s more than you\'ll ever know\nBoy, it\'s for sure\nYou can always count on my love\nForevermore, yeah, yeah\n\n[Break: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\n[Chorus: Kelly Rowland]\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nYou know I\'m crazy over you\n\n[Break: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\nEast Coast, you still shakin\' right\nDown South, I see you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\n\n[Chorus: Kelly Rowland &amp; Nelly]\nNo matter what I do (Woo!)\nAll I think about is you (Uh-huh)\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\nNo matter what I do\nAll I think about is you\nEven when I\'m with my boo\nBoy, you know I\'m crazy over you\n\n[Outro: Nelly &amp; Kelly Rowland]\nEast Coast, I know you shakin\' right\nDown South, I know you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right\nEast Coast, you still shakin\' right\nDown South, I see you bouncin\' right\nWest Coast, I know you walkin\' right, \'cause\nYou don\'t know what you mean to me\nMidwest, I see you swingin\' right', 'annotations': {'description': '&lt;p&gt;A hugely popular song from 2002 which appeared on both &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Nelly/Nellyville" rel="noopener" data-api_path="/albums/7138"&gt;Nellyville&lt;/a&gt;&lt;/em&gt; and &lt;a href="https://genius.com/artists/Kelly-rowland" rel="noopener" data-api_path="/artists/1302"&gt;Kelly Rowland&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Kelly-rowland/Simply-deep" rel="noopener" data-api_path="/albums/19852"&gt;Simply Deep&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;This song is arguably the most successful, ‘biggest’ song of both Nelly’s career and Rowland’s solo career (aside from her featured vocals in &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt;’s &lt;a href="https://genius.com/David-guetta-when-love-takes-over-lyrics" rel="noopener" data-api_path="/songs/776113"&gt;“When Love Takes Over”&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;It was Nelly’s first #1 single in countries such as the UK, Ireland, Australia, Belgium, Germany and the Netherlands. It followed on from the success of his previous single &lt;a href="https://genius.com/Nelly-hot-in-herre-lyrics" rel="noopener" data-api_path="/songs/35301"&gt;“Hot in Herre”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;It was – and remains to be – Rowland’s highest selling single in the US and the UK, as it has sold over 935,000 copies as of November 2017.&lt;/p&gt;', 'producers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}], 'writers': [{'name': 'Antoine “Bam” Macon', 'url': 'https://genius.com/artists/Antoine-bam-macon'}, {'name': 'Ryan Bowser', 'url': 'https://genius.com/artists/Ryan-bowser'}, {'name': 'Bunny Sigler', 'url': 'https://genius.com/artists/Bunny-sigler'}, {'name': 'Kenneth Gamble', 'url': 'https://genius.com/artists/Kenneth-gamble'}, {'name': 'Kelly Rowland', 'url': 'https://genius.com/artists/Kelly-rowland'}, {'name': 'Nelly', 'url': 'https://genius.com/artists/Nelly'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/The-fratellis-chelsea-dagger-lyrics', 'lyrics': '[Verse 1]\nWell, you must be a girl with shoes like that\nShe said, "You know me well"\nI seen you and little Steven and Joanna\n\'Round the back of my hotel, oh yeah\nSomeone said you was asking after me\nBut I know you best as a blagger\nI said, "Tell me your name, is it sweet?"\nShe said, "My boy, it\'s Dagger", oh yeah\n\n[Chorus]\nI was good, she was hot\nStealin\' everything she got\nI was bold, she was over the worst of it\nGave me gear; thank you, dear\nBring your sister over here\nLet her dance with me just for the hell of it\n\n[Verse 2]\nWell, you must be a boy with bones like that\nShe said, "You got me wrong"\nI would\'ve sold them to you if I could\'ve\nJust to have kept the last of my clothes on, oh yeah\nCall me up, take me down with you when you go\nI could be your regular belle\nAnd I shall dance for little Steven and Joanna\n\'Round the back of my hotel, oh yeah\n[Chorus]\nI was good, she was hot\nStealin\' everything she got\nI was bold, she was over the worst of it\nGave me gear; thank you, dear\nBring your sister over here\nLet her dance with me just for the hell of it\n\n[Bridge]\nChelsea, Chelsea, I believe\nWhen you\'re dancing slowly, sucking your sleeve\nThe boys get lonely after you leave\nIt\'s one for the Dagger\nAnd another for the one you believe\nChelsea, I believe\nWhen you\'re dancing slowly, sucking your sleeve\nThe boys get lonely after you leave\nIt\'s one for the Dagger\nAnd another for the one you believe\n\n[Outro]\nOne you believe\nOne you believe, oh no', 'annotations': {'description': '&lt;p&gt;A rocking homage to &lt;a href="http://www.scotsman.com/news/one-for-the-dagger-1-1088298#axzz3p7gT2k7J" rel="noopener nofollow"&gt;a burlesque dancer, who’s married to The Fratellis\' singer&lt;/a&gt;. Known in the hockey world as &lt;a href="https://www.youtube.com/watch?v=m3cV688Fi-g" rel="noopener nofollow"&gt;the Chicago Blackhawks goal song.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=u-LQ8B7Zd0U" rel="noopener nofollow"&gt;https://www.youtube.com/watch?v=u-LQ8B7Zd0U&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Tony Hoffer', 'url': 'https://genius.com/artists/Tony-hoffer'}], 'writers': [{'name': 'Jon Fratelli', 'url': 'https://genius.com/artists/Jon-fratelli'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Christina-aguilera-candyman-lyrics', 'lyrics': "[Intro]\nTarzan and Jane were swingin' on a vine\nCandyman, Candyman\nSippin' from a bottle of vodka double wine\nSweet sugar, Candyman\nHey, hey yeah, uh\n\n[Verse 1]\nI met him out for dinner on a Friday night\nHe really had me workin' up an appetite\nHe had tattoos up and down his arm\nThere's nothin' more dangerous than a boy with charm\n\n[Chorus]\nHe's a one-stop shop, makes the panties drop\nHe's a sweet-talkin', sugar-coated Candyman\nA sweet-talkin', sugar-coated Candyman\n\n[Interlude]\nOoh yeah, yeah-eah\n\n[Verse 2]\nHe took me to the Spider Club at Hollywood and Vine\nWe drank champagne and we danced all night\nWe shook the paparazzi for a big surprise (for a big surprise)\nThe gossip tonight will be tomorrow's headline (oh oh, oh)\n[Chorus]\nHe's a one-stop shop, makes my cherry pop\nHe's a sweet-talkin', sugar-coated Candyman (ooh yeah)\nA sweet-talkin', sugar-coated Candyman\n\n[Bridge 1]\nOh, shoo-bi-doo-dwee-da-bap\nShoo-bap, ba-doo-da-dwee-da-dum-bow, bow-bow\nHey hey yeah!\n(Sha-boo-ba-di-ba-doo-ba-di-da-bow)\nYeah-eah-eah-eah-eah-eah-eah, yeah!\n(Sha-boo-ba-di-ba-doo-ba-di-da-bow)\nOh yeah, yeah, swee-dam-ba\n(Sha-boo-ba-di-ba-doo-ba-di-da-bow)\n\n[Chorus]\nHe's a one-stop shop, makes my cherry pop\nHe's a sweet-talkin', sugar-coated Candyman (oh!)\nA sweet-talkin', sugar-coated Candyman\n\n[Interlude]\nOh whoa, yeah, yeah\n\n[Verse 3]\nWell, by now I'm getting all bothered and hot\nWhen he kissed my mouth, he really hit the spot\nHe had lips like sugar cane (oh!)\nGood things come for boys who wait\n[Interlude]\nTarzan and Jane were swingin' on a vine\nCandyman, Candyman\nSippin' from a bottle of vodka double wine\nCandyman, Candyman\n\n[Bridge 2]\n(Sweet sugar, Candyman)\nHe's a one-stop, gotcha hot, makin' all the panties drop\n(Sweet sugar, Candyman)\nHe's a one-stop, got me hot, making my (uh) pop\n(Sweet sugar, Candyman)\nHe's a one-stop, get it while it's hot, baby, don't stop\n(Sweet sugar)\n\n[Chorus]\nHe got those lips like sugar cane (hey!)\nGood things come for boys who wait\nHe's a one-stop shop with a real big (uh)\nHe's a sweet-talkin', sugar-coated Candyman (say what?)\nA sweet-talkin', sugar-coated Candyman (say!)\nSweet-talkin', sugar-coated Candyman (woo!)\nSweet-talkin', sugar-coated Candyman (hey!)\n\n[Post-Chorus]\nCandyman\nCandyman\nCandyman (hey, oh ooh, oh)\nCandyman\nCandyman, Candyman\nCandyman, Candyman\nCandyman, Candyman\n[Outro]\nTarzan and Jane were swingin' on a vine\n(Tarzan and Jane were swingin' on a vine)\nSippin' from a bottle of vodka double wine\n(Sippin' from a bottle of vodka double wine)\nJane lost her grip and a-down she fell\n(Jane lost her grip and a-down she fell)\nSquared herself away as she let out a yell\n(Squared herself away as she let out a yell)", 'annotations': {'description': '&lt;p&gt;“Candyman” is &lt;a href="https://genius.com/artists/Christina-aguilera" rel="noopener" data-api_path="/artists/1211"&gt;Christina Aguilera&lt;/a&gt;’s third single from her fifth studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Christina-aguilera/Back-to-basics" rel="noopener" data-api_path="/albums/42414"&gt;Back to Basics&lt;/a&gt;&lt;/em&gt; (2006).&lt;/p&gt;\n\n&lt;p&gt;“Candyman” received mainly positive reviews from music critics, who praised the track’s melody and deemed it one of the standout tracks on the second disc of &lt;em&gt;Back to Basics&lt;/em&gt; while some criticized its sexual content.&lt;/p&gt;', 'producers': [{'name': 'Linda Perry', 'url': 'https://genius.com/artists/Linda-perry'}], 'writers': [{'name': 'Christina Aguilera', 'url': 'https://genius.com/artists/Christina-aguilera'}, {'name': 'Linda Perry', 'url': 'https://genius.com/artists/Linda-perry'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Three-days-grace-i-hate-everything-about-you-lyrics', 'lyrics': "[Verse 1]\nEvery time we lie awake\nAfter every hit we take\nEvery feeling that I get\nBut I haven't missed you yet\nEvery roommate kept awake\nBy every sigh and scream we make\nAll the feelings that I get\nBut I still don't miss you yet\nOnly when I stop to think about it\n\n[Chorus]\nI hate everything about you\nWhy do I love you?\nI hate everything about you\nWhy do I love you?\n\n[Verse 2]\nEvery time we lie awake\nAfter every hit we take\nEvery feeling that I get\nBut I haven't missed you yet\nOnly when I stop to think about it\n\n[Chorus]\nI hate everything about you\nWhy do I love you?\nI hate everything about you\nWhy do I love you?\n[Bridge]\nOnly when I stop to think about you, I know\nOnly when you stop to think about me, do you know?\n\n[Outro]\nI hate everything about you\nWhy do I love you?\nYou hate everything about me\nWhy do you love me?\nI hate, you hate\nI hate, you love me\nI hate everything about you\nWhy do I love you?", 'annotations': {'description': '&lt;p&gt;“I Hate Everything About You” is the Three Days Grace’s debut single from their debut self-titled album. In the track, Adam Gontier sings about being conflicted between loving and hating someone in a toxic relationship.&lt;/p&gt;\n\n&lt;p&gt;The song peaked at number 55 on the Billboard Hot 100 chart, and is one of the band’s most popular songs.&lt;/p&gt;', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Queens-of-the-stone-age-little-sister-lyrics', 'lyrics': "[Verse 1]\nHey, sister, why you all alone?\nI'm standing out your window\nHey, little sister, can I come inside, dear?\nI want to show you all my love\nI want to be the only one\nI know you like nobody ever, baby\n\n[Chorus 1]\nLittle sister, can't you find another way?\nNo more living life behind a shadow\nLittle sister, can't you find another way?\nNo more living life behind a shadow\n\n[Verse 2]\nYou whisper secrets in my ear\nSlowly dancing cheek to cheek\nSuch a sweet thing when you open up, baby\nThey say I'll only do you wrong\nCome together 'cause I understand\nJust who you really are, yeah, baby\n\n[Chorus 2]\nLittle sister, can't you find another way?\nNo more living life behind a shadow\nLittle sister, can't you find another way?\nNo more living life behind a shadow\nA shadow", 'annotations': {'description': '&lt;p&gt;“Little Sister” was released as the first single off &lt;em&gt;Lullabies To Paralyze&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Somewhat famous for being one of a selected few successful rock songs to incorporate the cowbell instrument (another notable song being Blue Öyster Cult’s &lt;a href="https://genius.com/Blue-oyster-cult-dont-fear-the-reaper-lyrics" rel="noopener" data-api_path="/songs/133685"&gt;“(Don’t Fear) The Reaper.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was inspired by Elvis Presley’s &lt;a href="https://genius.com/Elvis-presley-little-sister-lyrics" rel="noopener" data-api_path="/songs/197280"&gt;song of the same name&lt;/a&gt;. The recorded version was done in one take in the studio.&lt;/p&gt;', 'producers': [{'name': 'Joe Barresi', 'url': 'https://genius.com/artists/Joe-barresi'}, {'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}], 'writers': [{'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}, {'name': 'Troy Van Leeuwen', 'url': 'https://genius.com/artists/Troy-van-leeuwen'}, {'name': 'Joey Castillo', 'url': 'https://genius.com/artists/Joey-castillo'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Nelly-furtado-maneater-lyrics', 'lyrics': "[Intro: Timbaland]\nTake it back, take it back, take it back\nOh oh oh ah oh\nOh ah oh oh oh ah\n\n[Verse 1: Nelly Furtado &amp; (Timbaland)]\nEverybody look at me, me (Oh)\nI walk in the door, you start screaming (Oh)\nCome on, everybody, what you here for? (Oh)\nMove your body around like a nympho (Oh)\nEverybody get your necks to crack around (Oh)\nAll you crazy people, come on, jump around (Oh)\nI wanna see you all on your knees, knees (Oh)\nYou either wanna be with me, or be me\n(Come on, now)\n\n[Chorus: Nelly Furtado]\nManeater, make you work hard\nMake you spend hard, make you want all of her love\nShe's a maneater, make you buy cars\nMake you cut cards, make you fall real hard in love\nShe's a maneater, make you work hard\nMake you spend hard, make you want all of her love\nShe's a maneater, make you buy cars\nMake you cut cards, wish you never ever met her at all\n[Verse 2: Nelly Furtado &amp; (Timbaland)]\nAnd when she walks, she walks with passion (Oh)\nWhen she talks, she talks like she can handle it (Oh)\nWhen she asks for somethin', boy, she means it (Oh)\nEven if you never ever seen it (Oh)\nEverybody get your necks to crack around (Oh)\nAll you crazy people, come on, jump around (Oh)\nYou doin' anything to keep her by your side (Oh)\nBecause, she said she love you, love you long time\n(Come on, now)\n\n[Chorus: Nelly Furtado]\nManeater, make you work hard\nMake you spend hard, make you want all of her love\nShe's a maneater, make you buy cars\nMake you cut cards, make you fall real hard in love\nShe's a maneater, make you work hard\nMake you spend hard, make you want all of her love\nShe's a maneater, make you buy cars\nMake you cut cards, wish you never ever met her at all\n\n[Bridge: Nelly Furtado &amp; (Timbaland)]\n(Oh)\nAh-ah-ah-ah, oh (Oh)\nAh-ah-ah-ah, oh (Oh)\nAh-ah-ah-ah, oh (Oh)\nAh-ah-ah-ah, yeah\n(Come on, now)\n[Chorus: Nelly Furtado]\nManeater, make you work hard\nMake you spend hard, make you want all of her love\nShe's a maneater, make you buy cars\nMake you cut cards, make you fall real hard in love\nShe's a maneater, make you work hard\nMake you spend hard, make you want all of her love\nShe's a maneater, make you buy cars\nMake you cut cards, wish you never ever met her at all\n\n[Outro: Nelly Furtado &amp; (Timbaland)]\nNo, never ever met her at all (What you sayin' girl?)\nYou wish you never ever met her at all (What you sayin' girl?)\nYou wish you never ever met her at all (What you sayin' girl?)\nYou wish you never ever met her at all (Come on!)\nYou wish you never ever met her at all (What you sayin' girl?)\nYou wish you never ever met her at all (What you sayin' girl?)\nYou wish you never ever met her at all (What you sayin' girl?)\nYou wish you never ever met her at all (Break!)\n(I been around the world I ain't never meet a girl like this)\nShe's a maneater, a maneater\n(I been around the world I ain't never meet a girl like this)\nShe's a maneater, a maneater\n(I been around the world I ain't never meet a girl like this)\nShe's a maneater, a maneater\n(I been around the world I ain't never meet a girl like this)\nLike this, like this, like this, like this", 'annotations': {'description': '&lt;p&gt;“Maneater” is a song by Canadian singer Nelly Furtado from her third studio album &lt;a href="https://genius.com/albums/Nelly-furtado/Loose" rel="noopener" data-api_path="/albums/6405"&gt;Loose&lt;/a&gt;. The song’s musical style and production were inspired by pop arrangements from the 1980s by bands such as &lt;a href="https://en.wikipedia.org/wiki/Eurythmics" rel="noopener nofollow"&gt;Eurythmics&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Hall_%26_Oates" rel="noopener nofollow"&gt;Hall &amp;amp; Oates&lt;/a&gt;. Furtado stated that Hall &amp;amp; Oates\' &lt;a href="https://www.youtube.com/watch?v=yRYFKcMa_Ek" rel="noopener nofollow"&gt;song of the same name&lt;/a&gt; was an influence during the writing and recording of the song.&lt;/p&gt;\n\n&lt;p&gt;Outside North America, “Maneater” became one of Furtado’s most popular singles, topping the charts in the United Kingdom and peaking within the top ten of the charts across much of Europe and Australia. It became a club hit in North America but was less commercially successful than the lead single &lt;a href="https://genius.com/Nelly-furtado-promiscuous-lyrics" rel="noopener" data-api_path="/songs/3343"&gt;“Promiscuous”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Nelly Furtado', 'url': 'https://genius.com/artists/Nelly-furtado'}, {'name': 'Jim Beanz', 'url': 'https://genius.com/artists/Jim-beanz'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Lady-gaga-alejandro-lyrics', 'lyrics': "[Intro]\nI know that we are young, and I know that you may love me\nBut I just can't be with you like this anymore\nAlejandro...\n\n[Verse 1]\nShe's got both hands in her pocket\nAnd she won't look at you, won't look at you\nShe hides true love, en su bolsillo\nShe's got a halo around her finger, around you\n\n[Pre-Chorus]\nYou know that I love you, boy\nHot, like Mexico, rejoice\nAt this point, I've gotta choose\nNothing to lose\n\n[Chorus]\nDon't call my name, don't call my name, Alejandro\nI'm not your babe, I'm not your babe, Fernando\nDon't wanna kiss, don't wanna touch\nJust smoke my cigarette and hush\nDon't call my name, don't call my name, Roberto\nAlejandro, Alejandro\nAle-Alejandro, Ale-Alejandro\nAlejandro, Alejandro\nAle-Alejandro, Ale-Alejandro\n[Interlude]\nStop, please, just let me go\nAlejandro, just let me go\n\n[Verse 2]\nShe's not broken\nShe's just a baby\nBut her boyfriend's like her dad, just like her dad\nAnd all those flames that burned before him\nNow he's gotta firefight, gotta cool the bad\n\n[Pre-Chorus]\nYou know that I love you, boy\nHot, like Mexico, rejoice\nAt this point, I've gotta choose\nNothing to lose\n\n[Chorus]\nDon't call my name, don't call my name, Alejandro\nI'm not your babe, I'm not your babe, Fernando\nDon't wanna kiss, don't wanna touch\nJust smoke my cigarette and hush\nDon't call my name, don't call my name, Roberto\nAlejandro, Alejandro\nAle-Alejandro, Ale-Alejandro\nAlejandro, Alejandro\nAle-Alejandro, Ale-Alejandro\n[Bridge]\nDon't bother me, don't bother me\nAlejandro\nDon't call my name, don't call my name\nBye, Fernando\nI'm not your babe, I'm not your babe\nAlejandro\nDon't wanna kiss\nDon't wanna touch\nFernando\nDon't call my name, don't call my name\nAlejandro\nI'm not your babe, I'm not your babe\nFernando\nDon't wanna kiss, don't wanna touch\nJust smoke my cigarette and hush\nDon't call my name, don't call my name\nRoberto\n\n[Outro]\nAlejandro, Alejandro\nAle-Alejandro, Ale-Alejandro\nAlejandro, Alejandro\nAle-Alejandro, Ale-Alejandro\n(Don't call my name, don't call my name) Alejandro, Alejandro\n(I'm not your babe, I'm not your babe) Ale-Alejandro, Ale-Alejandro (Fernando)\n(Don't wanna kiss, don't wanna touch) Alejandro, Alejandro\nAle-Alejandro, Ale-Alejandro (Just smoke my cigarette and hush)\n(Don't call my name, don't call my name) Alejandro, Alejandro\nAle-Alejandro, Ale-Alejandro (Roberto)\nAlejandro", 'annotations': {'description': '&lt;p&gt;“Alejandro” was the third single released from Lady Gaga’s EP &lt;a href="https://genius.com/albums/Lady-gaga/The-fame-monster" rel="noopener" data-api_path="/albums/11681"&gt;&lt;em&gt;The Fame Monster&lt;/em&gt;&lt;/a&gt;, following her blockbuster debut album &lt;a href="https://genius.com/albums/Lady-gaga/The-fame" rel="noopener" data-api_path="/albums/17375"&gt;The Fame&lt;/a&gt;. In some markets, &lt;em&gt;The Fame Monster&lt;/em&gt; was issued with &lt;em&gt;The Fame&lt;/em&gt; as a re-release.&lt;/p&gt;\n\n&lt;p&gt;The song showcases her sense of cynicism towards deciding if Alejandro (or any of the men mentioned in the song) are the one. The song is sonically inspired by Swedish pop groups &lt;a href="https://genius.com/artists/Abba" rel="noopener" data-api_path="/artists/33385"&gt;ABBA&lt;/a&gt;  &amp;amp; &lt;a href="https://genius.com/artists/Ace-of-base" rel="noopener" data-api_path="/artists/39126"&gt;Ace of Base&lt;/a&gt;. Gaga, speaking about &lt;em&gt;The Fame Monster&lt;/em&gt;, said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;…I realized that I had written each song about a particular fear that I had come across on my journey promoting the fame….&lt;br&gt;\nMany interpret &lt;em&gt;Alejandro&lt;/em&gt; as her lamentation of it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Alejandro’s nine-minute video, directed by photographer &lt;a href="https://genius.com/artists/Steven-klein" rel="noopener" data-api_path="/artists/237788"&gt;Steven Klein&lt;/a&gt;, features totalitarian imagery and plays upon imagery from the 1930’s. The hispanic consonance of the names referred to in the song might lead one to think it’s about &lt;a href="https://en.wikipedia.org/wiki/Francoist_Spain" rel="noopener nofollow"&gt;Franco’s Regime&lt;/a&gt;. But it is also said that the video references the treatment of homosexuals in Nazi Germany &amp;amp; the Weimar Republic. These references are rooted in imagery from the 1972 Bob Fosse film &lt;a href="https://genius.com/albums/John-kander/Cabaret-original-broadway-cast-recording" rel="noopener" data-api_path="/albums/330512"&gt;&lt;em&gt;Cabaret&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Speaking to Larry King on Larry King Live in 2010, Gaga spoke of the music video saying it’s:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;… a celebration of my love and appreciation for the gay community. My admiration of their bravery and their love for one another, their courage in their relationships. It’s something I have yet to – yet to nail on the head with a man…"&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}], 'writers': [{'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Pearl-jam-jeremy-lyrics', 'lyrics': '[Verse 1]\nAt home drawin\' pictures of mountain tops\nWith him on top, lemon yellow sun\nArms raised in a "V"\nAnd the dead lay in pools of maroon below\n\n[Pre-Chorus 1]\nDaddy didn\'t give attention\nOh, to the fact that mommy didn\'t care\nKing Jeremy the wicked\nOh, ruled his world\n[Chorus]\nJeremy spoke in class today\nJeremy spoke in class today\n\n[Verse 2]\nClearly, I remember picking on the boy\nSeemed a harmless little fuck\nOoh, but we unleashed a lion\nGnashed his teeth and bit the recess lady\'s breast, how could I forget?\nAnd he hit me with a surprise left\nMy jaw left hurting, ooh, dropped wide open\nJust like the day, oh, like the day I heard\n\n[Pre-Chorus 2]\nDaddy didn\'t give affection, no\nAnd the boy was something that mommy wouldn\'t wear\nKing Jeremy the wicked\nOh, ruled his world\n[Chorus]\nJeremy spoke in class today\nJeremy spoke in class today\nJeremy spoke in class today\n\n[Bridge]\nTry to forget this (Try to forget this)\nTry to erase this (Try to erase this)\nFrom the blackboard\n[Chorus]\nJeremy spoke in class today\nJeremy spoke in class today\nJeremy spoke in, spoke in\nJeremy spoke in, spoke in\nJeremy spoke in class today\n\n[Outro]\n(Spoke in, spoke in)\n(Spoke in, spoke in, spoke in, spoke in...)\n(Spoke in, spoke in)\nOoh oh, oh, oh, oh oh oh, oh oh oh, oh oh oh, oh oh oh oh\nOoh oh, oh (Spoke in...)', 'annotations': {'description': '&lt;p&gt;“Jeremy” is based on two different true stories. The song takes its main inspiration from a newspaper article about a 16-year-old boy named Jeremy Wade Delle from Richardson, Texas who killed himself in front of his English classmates at Richardson High School on Tuesday morning of January 8, 1991, at about 9:45 am.&lt;/p&gt;\n\n&lt;p&gt;In a 2009 interview, Vedder said that he felt “the need to take that small article and make something of it—to give that action, to give it reaction, to give it more importance.” When asked about the song, Vedder explained:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It came from a small paragraph in a paper which means you kill yourself and you make a big old sacrifice and try to get your revenge. That all you’re gonna end up with is a paragraph in a newspaper. Sixty-three degrees and cloudy in a suburban neighborhood. That’s the beginning of the video and that’s the same thing is that in the end, it does nothing… nothing changes. The world goes on and you’re gone. The best revenge is to live on and prove yourself. Be stronger than those people. And then you can come back.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The other story that the song is based on involved a student that Vedder knew from his junior high school in San Diego, California. He elaborated further in a 1991 interview:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I actually knew somebody in junior high school, in San Diego, California, that did the same thing, just about, didn’t take his life but ended up shooting up an oceanography room. I remember being in the halls and hearing it and I had actually had altercations with this kid in the past. I was kind of a rebellious fifth-grader and I think we got in fights and stuff. So it’s a bit about this kid named Jeremy and it’s also a bit about a kid named Brian that I knew and I don’t know… the song, I think it says a lot. I think it goes somewhere…and a lot of people interpret it different ways and it’s just been recently that I’ve been talking about the true meaning behind it and I hope no one’s offended and believe me, I think of Jeremy when I sing it.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Pearl Jam', 'url': 'https://genius.com/artists/Pearl-jam'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Jeff Ament', 'url': 'https://genius.com/artists/Jeff-ament'}, {'name': 'Eddie Vedder', 'url': 'https://genius.com/artists/Eddie-vedder'}], 'labels': [{'name': 'Legacy Recordings', 'url': 'https://genius.com/artists/Legacy-recordings'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Joji-slow-dancing-in-the-dark-lyrics', 'lyrics': "[Verse 1]\nI don't want a friend (Just one more night)\nI want my life in two (My life in two)\nPlease one more night\nWaiting to get there\nWaiting for you (Waiting for you)\nJust one more night\nI'm done fighting all night\n\n[Pre-Chorus 1]\nWhen I'm around slow dancing in the dark\nDon't follow me, you'll end up in my arms\nYou done made up your mind\nI don't need no more signs\nCan you?\nCan you?\n\n[Chorus]\nGive me reasons we should be complete\nYou should be with him, I can't compete\nYou looked at me like I was someone else, oh well\nCan't you see? (Can't you see?)\nI don't wanna slow dance (I don't wanna slow dance)\nIn the dark, dark\n\n[Verse 2]\nWhen you gotta run\nJust hear my voice in you (My voice in you)\nShutting me out you (Shutting me out)\nDoing so great (So great, so great)\nYou\n[Pre-Chorus 2]\nUsed to be the one to hold you when you fall\nYeah, yeah, yeah (When you fall, when you fall)\nI don't fuck with your tone (I don't fuck with your tone)\nI don't wanna go home (I don't wanna go home)\nCan it be one night?\nCan you?\nCan you?\n\n[Chorus]\nGive me reasons we should be complete\nYou should be with him, I can't compete\nYou looked at me like I was someone else, oh well\nCan't you see?\nI don't wanna slow dance (I don't wanna slow dance)\nIn the dark, dark\nIn the dark, dark", 'annotations': {'description': '&lt;p&gt;On “SLOW DANCING IN THE DARK,” Joji continues the lovelorn narrative from his previous single &lt;a href="https://genius.com/Joji-yeah-right-lyrics" rel="noopener" data-api_path="/songs/3672034"&gt;“YEAH RIGHT”&lt;/a&gt; over a dark, ambient instrumental.&lt;/p&gt;\n\n&lt;p&gt;This time around, he uses the metaphor of slow dancing in the dark to characterize a failing relationship—just like a slow dance where you can’t see your partner’s face, his relationship with this person is intimate but ultimately impersonal.&lt;/p&gt;\n\n&lt;p&gt;Joji first previewed the song on May 12, 2018, at the &lt;a href="http://www.youtube.com/watch?v=_shJdVsoZeg" rel="noopener nofollow"&gt;Blurry Vision Festival&lt;/a&gt;. He &lt;a href="https://twitter.com/sushitrash/status/1038107034766503936" rel="noopener nofollow"&gt;announced its official release&lt;/a&gt; on September 7th, along with teaser photos from the music video.&lt;/p&gt;', 'producers': [{'name': 'Joji', 'url': 'https://genius.com/artists/Joji'}, {'name': 'Patrick Wimberly', 'url': 'https://genius.com/artists/Patrick-wimberly'}], 'writers': [{'name': 'Patrick Wimberly', 'url': 'https://genius.com/artists/Patrick-wimberly'}, {'name': 'Joji', 'url': 'https://genius.com/artists/Joji'}], 'labels': [{'name': '12Tone Music', 'url': 'https://genius.com/artists/12tone-music'}, {'name': '88rising', 'url': 'https://genius.com/artists/88rising'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Creed-my-sacrifice-lyrics', 'lyrics': "[Verse 1]\nHello my friend, we meet again\nIt's been a while, where should we begin?\nFeels like forever\nWithin my heart are memories\nOf perfect love that you gave to me\nOh I remember\n\n[Chorus]\nWhen you are with me, I'm free\nI'm careless, I believe\nAbove all the others, we'll fly\nThis brings tears to my eyes\nMy sacrifice\n\n[Verse 2]\nWe've seen our share of ups and downs\nOh, how quickly life can turn around\nIn an instant\nIt feels so good to reunite\nWithin yourself and within your mind\nLet's find peace there\n\n[Chorus]\n'Cause when you are with me, I'm free\nI'm careless, I believe\nAbove all the others, we'll fly\nThis brings tears to my eyes\nMy sacrifice\n[Bridge]\nI just want to say hello again\nI just want to say hello again\n\n[Chorus]\n'Cause when you are with me, I'm free\nI'm careless, I believe\nAbove all the others, we'll fly\nThis brings tears to my eyes\n'Cause when you are with me, I'm free\nI'm careless, I believe\nAbove all the others, we'll fly\nThis brings tears to my eyes\nMy sacrifice\nMy sacrifice\n\n[Outro]\nI just want to say hello again\nI just want to say hello again\nMy sacrifice", 'annotations': {'description': '&lt;p&gt;“My Sacrifice” is Creed’s lead single off their third studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Creed/Weathered" rel="noopener" data-api_path="/albums/91917"&gt;Weathered&lt;/a&gt;&lt;/em&gt;.  It is a song of personal redemption and catharsis and was inspired by their lead vocalist, &lt;a href="https://genius.com/artists/Scott-stapp" rel="noopener" data-api_path="/artists/108267"&gt;Scott Stapp&lt;/a&gt;, coming to terms with a host of problems, including severe alcohol and drug addiction.&lt;/p&gt;\n\n&lt;p&gt;The song also has elements of love for a significant other.&lt;/p&gt;\n\n&lt;p&gt;It was &lt;a href="https://www.grammy.com/grammys/artists/creed/17640" rel="noopener nofollow"&gt;nominated for a Grammy Award for Best Rock Performance by a Duo or Group with Vocal&lt;/a&gt; in 2003.&lt;/p&gt;', 'producers': [{'name': 'Creed', 'url': 'https://genius.com/artists/Creed'}, {'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}, {'name': 'Kirk Kelsey', 'url': 'https://genius.com/artists/Kirk-kelsey'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/Metallica-sad-but-true-lyrics', 'lyrics': "[Verse 1]\nHey (Hey), I'm your life, I'm the one who takes you there\nHey (Hey), I'm your life, I'm the one who cares\nThey (They), they betray, I'm your only true friend now\nThey (They), they'll betray, I'm forever there\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n\n[Verse 2]\nYou (You), you're my mask, you're my cover, my shelter\nYou (You), you're my mask, you're the one who's blamed\nDo (Do), do my work, do my dirty work, scapegoat\nDo (Do), do my deeds for you're the one who's shamed\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your dream, mind astray\nI'm your eyes while you're away\nI'm your pain while you repay\nYou know it's sad but true\nSad but true\n[Guitar Solo]\n\n[Bridge]\nI'm your dream\nI'm your eyes\nI'm your pain\nI'm your dream (I'm your dream)\nI'm your eyes (I'm your eyes)\nI'm your pain (I'm your pain)\nYou know it's sad but true\n\n[Guitar Solo]\n\n[Verse 3]\nHate (Hate), I'm your hate, I'm your hate when you want love\nPay (Pay), pay the price, pay for nothing's fair\nHey (Hey), I'm your life, I'm the one who took you there\nHey (Hey), I'm your life, and I no longer care\n\n[Chorus]\nI'm your dream, make you real\nI'm your eyes when you must steal\nI'm your pain when you can't feel\nSad but true\nI'm your truth, telling lies\nI'm your reasoned alibis\nI'm inside, open your eyes\nI'm you\nSad but true", 'annotations': {'description': '&lt;p&gt;The fifth and final single released from Metallica’s seminal &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;self-titled album&lt;/a&gt;, “Sad But True” is about a person’s darker side taking control.&lt;/p&gt;\n\n&lt;p&gt;Influenced by the &lt;a href="http://en.wikipedia.org/wiki/Magic_%281978_film%29" rel="noopener nofollow"&gt;1978 horror film &lt;em&gt;Magic&lt;/em&gt;&lt;/a&gt;, starring &lt;a href="http://en.wikipedia.org/wiki/Anthony_Hopkins" rel="noopener nofollow"&gt;Anthony Hopkins&lt;/a&gt;, the song is a monologue justifying the existence of this darker side, which in the film is symbolized by a foul-mouthed ventriloquist’s dummy.&lt;/p&gt;\n\n&lt;p&gt;The song has been interpreted as an allusion to addiction, a struggle Hetfield &lt;a href="http://www.rollingstone.com/music/news/metallicas-james-hetfield-playing-music-saves-my-life-20150220" rel="noopener nofollow"&gt;has been open about&lt;/a&gt;, having previously entered rehab for &lt;a href="http://www.nme.com/photos/20-things-you-probably-didn-t-know-about-metallica/122042#/photo/17" rel="noopener nofollow"&gt;“alcohol and other addictions”—another being chocolate.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The song was later sampled by &lt;a href="https://genius.com/artists/Kid-rock" rel="noopener" data-api_path="/artists/1566"&gt;Kid Rock&lt;/a&gt; on &lt;a href="https://genius.com/Kid-rock-american-bad-ass-lyrics" rel="noopener" data-api_path="/songs/26092"&gt;“American Badass.”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'writers': [{'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/Stevie-wonder-i-just-called-to-say-i-love-you-lyrics', 'lyrics': "[Verse 1]\nNo New Year's Day to celebrate\nNo chocolate covered candy hearts to give away\nNo first of Spring, no song to sing\nIn fact here's just another ordinary day\nNo April rain, no flowers bloom\nNo wedding Saturday, within the month of June\nBut what it is, is something true\nMade up of these three words that I must say to you\n\n[Chorus]\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\n[Verse 2]\nNo summer's high\nNo warm July\nNo harvest moon to light one tender August night\nNo autumn breeze\nNo falling leaves\nNot even time for birds to fly to southern skies\nNo Libra sun\nNo Halloween\nNo giving thanks to all the Christmas joy you bring\nBut what it is, though old so new\nTo fill your heart like no three words could ever do\n[Chorus]\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\nI just called to say I love you\nI just called to say how much I care\nI just called to say I love you\nAnd I mean it from the bottom of my heart\n\n[Outro]\nOf my heart\nOf my heart", 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/f3653840bff7ae610eb7e70634ad0920.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;This song was written, produced, and performed by Stevie Wonder for &lt;a href="https://www.imdb.com/name/nm0000698/" rel="noopener nofollow"&gt;Gene Wilder&lt;/a&gt;’s October 1984 romantic-comedy, &lt;a href="https://www.imdb.com/title/tt0088414/" rel="noopener nofollow"&gt;&lt;em&gt;The Woman in Red&lt;/em&gt;&lt;/a&gt;. The song won both the Golden Globe and Academy Award for Best Original Song, as well as earning itself three Grammy nominations. Furthermore, it peaked at number 1 on various international singles charts.&lt;/p&gt;', 'producers': [{'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'writers': [{'name': 'Stevie Wonder', 'url': 'https://genius.com/artists/Stevie-wonder'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Britney-spears-gimme-more-lyrics', 'lyrics': "[Intro: Britney Spears]\nIt's Britney, bitch\nI see you\nAnd I just wanna dance with you\n{Giggles}\n\n[Verse 1: Britney Spears]\nEvery time they turn the lights down\nJust wanna go that extra mile for you\nYour public display of affection (Oh-oh-oh)\nFeels like no one else in the room (But you)\n\n[Pre-Chorus: Britney Spears]\nWe can get down like there's no one around\nWe keep on rocking (We keep on rocking)\nWe keep on rocking (We keep on rocking)\nCameras are flashing\nWhile we're dirty dancing\nThey keep watching (They keep watching)\nKeep watching\nFeels like the crowd are saying\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\n[Verse 2: Britney Spears]\nThe center of attention (Do you feel that?)\nEven when we're up against the wall\nYou got me in a crazy position (Yeah)\nIf you're on a mission (Uh-huh)\nYou got my permission (Oh)\n\n[Pre-Chorus: Britney Spears]\nWe can get down like there's no one around\nWe keep on rocking (Keep on rocking)\nWe keep on rocking (Oh)\nRocking (Uh-huh)\nCameras are flashing\nWhile we're dirty dancing\nThey keep watching (They keep watching)\nKeep watching\nFeels like the crowd are saying\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\n[Bridge: Britney Spears]\n(Mo-mo-mo-mo-mo-mo....)\n(Ooh, ooh, ooh...)\nI just can't control myself\n(Mo-mo-mo-mo-mo-mo)\n(More!)\nOh!\nThey want more?\nWell, I'll give them more\n(Mo-mo-mo-mo-mo-mo)\nOw!\n(More!)\n\n[Chorus: Britney Spears]\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\n(Give me more!)\nGimme, gimme (More)\nGimme (Mo-)\nGimme, gimme (More)\nOo-oo-ooh!\nGimme, gimme (More)\nGimme (More)\nGimme, gimme (More)\nGimme, gimme (More)\nGive me more, yeah\nGimme (Mo-)\nGimme, gimme (More)\n[Post-Chorus: Britney Spears &amp; (Danja)]\nOh-oh-oh\nGimme more, gimme more\n(Mo-mo-mo-mo-mo-mo)\n(More)\nGimme more, gimme more, babe\n(Danja, Danja, Danja, Danja\nDanja, Danja, Danja, Danja)\nI just want more\n\n[Breakdown: Danja]\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh, ooh-oh-oh-oh-oh)\n(Ooh-oh-oh-oh-oh)\n(Mo-mo-mo-mo-mo-mo)\n(Ooh-oh-oh-oh-oh)\n\n[Interlude: Britney Spears &amp; (Danja)]\nGimme, gimme, gimme, gimme, gimme\nGimme, gimme, gimme, gimme, gimme\n(Danja, Danja, Danja, Danja)\nGimme, gimme, gimme, gimme, gimme\nGimme, gimme, gimme, gimme, gimme\n\n[Outro: Danja]\nBet you didn't see this one coming\nThe Incredible Lago (Mo-mo-mo-mo-mo-mo)\nThe legendary Miss Britney Spears, haha\nAnd the unstoppable Danja\nAh, you gonna have to remove me\n‘Cause I ain’t going nowhere\n(Mo-mo-mo-mo-mo-mo)\n(More)", 'annotations': {'description': '&lt;p&gt;“Gimme More” is the lead single of her fifth studio album, &lt;a href="http://rock.genius.com/albums/Britney-spears/Blackout" rel="noopener" data-api_path="/albums/40263"&gt;Blackout&lt;/a&gt;. It was released on August 31, 2007. The track received acclaim from critics, some of which praised the music and Spears’s breathy vocals.&lt;/p&gt;\n\n&lt;p&gt;The song also has an &lt;a href="https://www.youtube.com/watch?v=Jwvl60jw2cM" rel="noopener nofollow"&gt;alternate music video&lt;/a&gt;  for the single, which featured the iconic funeral scene.&lt;/p&gt;', 'producers': [{'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'writers': [{'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Marcella Araica', 'url': 'https://genius.com/artists/Marcella-araica'}, {'name': 'Jim Beanz', 'url': 'https://genius.com/artists/Jim-beanz'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}], 'labels': [{'name': 'Jive', 'url': 'https://genius.com/artists/Jive'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Juice-wrld-and-marshmello-come-and-go-lyrics', 'lyrics': "[Intro: Juice WRLD &amp; Roddy Ricch]\nWoah, uh\nOh, oh-oh, oh (Mello made it right, uh)\n\n[Verse 1]\nI try to be everything that I can\nBut sometimes, I come out as bein' nothin’\nI try to be everything that I can\nBut sometimes, I come out as bein' nothin'\nI pray to God that He make me a better man (Uh)\nMaybe one day, I’ma stand for somethin'\nI'm thankin' God that He made you part of the plan\nI guess I ain't go through all that Hell for nothin'\nI'm always fuckin' up and wreckin’ shit\nIt seems like I perfected it\nI offer you my love\nI hope you take it like some medicine\nTell me ain’t nobody better than me\nI think that there's better than me\nHope you see the better in me\nAlways end up betterin’ me\n\n[Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don’t always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n[Post-Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n\n[Verse 2]\nWe take drugs, then you hold me close\nThen I tell you how you make me whole\nSometimes, I feel you like bein' alone\nThen you tell me that I shoulda stayed in the room\nGuess I got it all wrong all along, my fault\nMy mistakes probably wipe all the rights I've done\nSayin' goodbye to bygones, those are bygones\nHead up, baby, stay strong, we gon' live long\n\n[Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go\n[Post-Chorus]\nI don't wanna ruin this one\nThis type of love don't always come and go\nI don't wanna ruin this one\nThis type of love don't always come and go", 'annotations': {'description': '&lt;p&gt;“Come &amp;amp; Go” is the fourth promotional single from Juice WRLD’s posthumous studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Juice-wrld/Legends-never-die" rel="noopener" data-api_path="/albums/619876"&gt;Legends Never Die&lt;/a&gt;&lt;/em&gt;. On the Marshmello-produced beat, Juice contrasts much of music and focuses on the positive side of his love and relationships.&lt;/p&gt;\n\n&lt;p&gt;The track was &lt;a href="https://www.twitter.com/JuiceWorlddd/status/1068617470280417282" rel="noopener nofollow"&gt;first previewed&lt;/a&gt; via &lt;a href="https://www.twitter.com/JuiceWorlddd" rel="noopener nofollow"&gt;Juice’s Twitter&lt;/a&gt; on November 30, 2018. The video was captioned “Off my chest,” leading people to incorrectly speculate that was the title of the song. An early version of the track was leaked on August 18, 2019, and was eventually released on July 9, 2020, one day before &lt;em&gt;Legends Never Die&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=Dxm3cHrKcbA" rel="noopener nofollow"&gt;official music video&lt;/a&gt; was released on July 10, 2020. It features animation from &lt;a href="https://www.instagram.com/tristious/" rel="noopener nofollow"&gt;Tristan Zammit&lt;/a&gt;, whose animation was also featured in the music video for &lt;a href="https://genius.com/Juice-wrld-righteous-lyrics" rel="noopener" data-api_path="/songs/4673513"&gt;“Righteous,”&lt;/a&gt; the album’s lead single.&lt;/p&gt;', 'producers': [{'name': 'Marshmello', 'url': 'https://genius.com/artists/Marshmello'}], 'writers': [{'name': 'Juice WRLD', 'url': 'https://genius.com/artists/Juice-wrld'}, {'name': 'Marshmello', 'url': 'https://genius.com/artists/Marshmello'}], 'labels': [{'name': 'Grade A Productions', 'url': 'https://genius.com/artists/Grade-a-productions'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Daft-punk-one-more-time-lyrics', 'lyrics': "[Produced by Daft Punk]\n\n[Intro: Romanthony]\nOne more time\nOne more time\n\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nOne more time\n\n[Interlude]\n[Chorus 1: Romanthony]\nOne more time\nWe're gonna celebrate\nOh yeah, all right\nDon't stop the dancing\nOne more time\nWe're gonna celebrate\nOh yeah\nDon't stop the dancing\nOne more time\n\n[Bridge: Romanthony]\nMmm, you know I'm just feeling\nCelebration tonight\nCelebrate\nDon't wait too late\nMmm, no\nWe don't stop\nYou can't stop\nWe're gonna celebrate\nOne more time\nOne more time\nOne more time\nCelebration\nYou know we're gonna do it right, tonight\nHey! Just feeling\nMusic's got me feeling the need\nNeed, yeah\nCome on, all right\nWe're gonna celebrate\nOne more time\nCelebrate and dance so free\nMusic's got me feeling so free\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\n[Pause]\n\n[Chorus 2: Romanthony]\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free\nOne more time\nMusic's got me feeling so free\nWe're gonna celebrate\nCelebrate and dance so free", 'annotations': {'description': '&lt;p&gt;From Rolling Stone’s &lt;a href="https://www.rollingstone.com/music/music-album-reviews/discovery-251661/" rel="noopener nofollow"&gt;“Discovery” by Ben Ratliff&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Daft Punk’s single, ‘One More Time’, is that kind of song: a piece of superreligion with an invincible beat and a nailed-to-the-wall vocal by house singer Romanthony. It is stamina itself, an anthem to &lt;em&gt;keep on dancing&lt;/em&gt; that’s already a huge hit in clubs and on the radio. All those knowing listeners who bought Homework and signed on for the pair’s rascally, nudge-wink grooves now have to figure out what part of ‘One More Time’ is for them. Is there a subversive part of ‘One More Time?’ If so, where does it begin?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video serves as the intro to the animated version of the album &lt;a href="https://genius.com/albums/Daft-punk/Discovery" rel="noopener" data-api_path="/albums/27501"&gt;Discovery&lt;/a&gt;, &lt;a href="http://rock.genius.com/Daft-punk-interstella-5555-the-5tory-of-the-5ecret-5tar-5ystem-lyrics/" rel="noopener" data-api_path="/songs/576883"&gt;&lt;em&gt;Interstella 5555: The 5tory of the 5ecret 5tar 5ystem&lt;/em&gt;&lt;/a&gt;. &lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/FGBhQbmPwH8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Daft Punk', 'url': 'https://genius.com/artists/Daft-punk'}], 'writers': [{'name': 'Guy-Manuel de Homem-Christo', 'url': 'https://genius.com/artists/Guy-manuel-de-homem-christo'}, {'name': 'Thomas Bangalter', 'url': 'https://genius.com/artists/Thomas-bangalter'}, {'name': 'Romanthony', 'url': 'https://genius.com/artists/Romanthony'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Jace-everett-bad-things-lyrics', 'lyrics': "When you came in, the air went out\nAnd every shadow filled up with doubt\nI don't know who you think you are\nBut before the night is through\nI wanna do bad things with you\n\nI'm the kind to sit up in his room\nHeart sick and eyes filled up with blue\nI don't know what you've done to me\nBut I know this much is true:\nI wanna do bad things with you\n\nOk...\n\nWhen you came in, the air went out\nAnd all those shadows there, didn't leave any doubt\n\nI don't know who you think you are\nBut before the night is through\nI wanna do bad things with you\nI wanna do real bad things with you\n(howl)\n\nI don't know what you've done to me\nBut I know this one thing is true:\nI wanna do bad things with you\nI wanna do real bad things with you", 'annotations': {'description': '&lt;p&gt;Originally released as a single in 2005, this song gained much wider exposure as the theme song for the HBO TV series &lt;em&gt;True Blood&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Greg Droman', 'url': 'https://genius.com/artists/Greg-droman'}, {'name': 'Mark Wright', 'url': 'https://genius.com/artists/Mark-wright'}], 'writers': [{'name': 'Jace Everett', 'url': 'https://genius.com/artists/Jace-everett'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Calvin-harris-outside-lyrics', 'lyrics': "[Verse 1]\nLook at what you've done\nStand still, fallin' away from me\nWhen it takes so long\nFire's out, what do you want to be?\n\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Verse 2]\nSo you give me no reason\nFor me to stay close to you\nTell me what lovers do\nHow are we still breathing?\nIt's never for us to choose\nI'll be the strength in you\n[Pre-Chorus]\nNow I'm holdin’ on\nMyself was never enough for me\nGotta be so strong\nThere's a power in what you do\nNow, every other day I'll be watching you\n\n[Chorus]\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\nI'll show you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside\n\n[Outro]\nI'll show you what it feels like\nNow I'm on the outside\nI'll show you what it feels like\nShow you what it feels like\nNow I'm on the outside\nWe did everything right\nNow I'm on the outside", 'annotations': {'description': '&lt;p&gt;With just over 10 days before the release of his fourth studio album “&lt;a href="https://genius.com/albums/calvin-harris/motion" rel="noopener" data-api_path="/albums/113798"&gt;Motion&lt;/a&gt;”, Calvin Harris releases his 5th single from the project. Here he teams up with fellow Brit, &lt;a href="https://genius.com/artists/Ellie-goulding" rel="noopener" data-api_path="/artists/1838"&gt;Ellie Goulding&lt;/a&gt; who of course he has collaborated with in the past on the smash hit “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Van-halen-dont-tell-me-what-love-can-do-lyrics', 'lyrics': "It's ok, I'll do what I want\nIf I choose, I can take the fall\nThere's a choice\nIt's my destiny\nIn my hands\nYeah it's up to me\nI can drive\nI can shoot a gun in the streets\nScore me some heroin\nI can jump\nBe the sacrifice\nBear my cross just like Jesus Christ\nAnd I don't wanna hear what love can do\nNo, I ain't gonna tell ya what's right for you\nIs it right to take the easy way\nClose your eyes\nGet on your knees and pray\nNow you're saved by a higher voice\nGiving up, giving up, giving up your choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna hear about it\nBut I've tried, yeah I've tried for it\nI tried, I tried, 'til I'm satisfied\nAnd I\nI'm tired of hearing what love can do\nAnd I\nAin't gonna tell you what's right for you\nI've seen the damage done\nDown with the shotgun\nDon't stop the setting sun on my kingdom come\nOh\nIs it right to take the easy way\nI don't know\nI get down on my  knees and pray\nNow I'm saved by a higher voice\nGivin' up, givin' up, givin' up my choice\nIf I'm wrong then I'll pay for it\nIf I'm right, yeah you're gonna deal with it\nCause I've tried, yeah I tried for it\nI tried, I tried, even die for it\nNo I\nDon't wanna hear what love can do\nNo I\nI can't tell you what's right for you\nOh I\nTell you what love can do\nNo I\nCan't say but your time is through\nI've seen the damage done\nOh Lord, I've heard the shotgun\nI fought the setting sun on my kingdom come\nOh\nDon't tell me what love can do\nHey, hey, hey\nDon't tell me what love can do\nHey, hey, hey", 'annotations': {'description': '&lt;p&gt;The lyrics of this song were written about the tragic death of Kurt Cobain and how it probably could have been stopped if more people showed him compassion.&lt;br&gt;\nSammy Hagar talks about his inspiration in writing this song in his &lt;a href="https://read.amazon.com/kp/embed?asin=B0042FZVU8&amp;amp;preview=newtab&amp;amp;linkCode=kpe&amp;amp;ref_=cm_sw_r_kb_dp_C8Y2ET4ZBWP5VNM1T823" rel="noopener nofollow"&gt;autobiography&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Alex Van Halen', 'url': 'https://genius.com/artists/Alex-van-halen'}, {'name': 'Eddie Van Halen', 'url': 'https://genius.com/artists/Eddie-van-halen'}, {'name': 'Michael Anthony (Bassist)', 'url': 'https://genius.com/artists/Michael-anthony-bassist'}, {'name': 'Sammy Hagar', 'url': 'https://genius.com/artists/Sammy-hagar'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Counting-crows-mr-jones-lyrics', 'lyrics': '[Intro]\nShalalala la la la\nUh huh\n\n[Verse 1]\nI was down at the New Amsterdam\nStaring at this yellow-haired girl\nMr. Jones strikes up a conversation\nWith a black-haired flamenco dancer\nYou know she dances while his father plays guitar\nShe\'s suddenly beautiful\nAnd we all want something beautiful\nMan, I wish I was beautiful\nSo come dance this silence down through the morning\nShalalala la la la la, yeah..\nUh huh, yeah.. Cut up, Maria!\nShow me some of them Spanish dances\nAnd pass me a bottle, Mr. Jones\nBelieve in me, help me believe in anything\n\'Cause I wanna be someone who believes, yeah\n\n[Chorus for Verse 1]\nMr. Jones and me tell each other fairy tales\nAnd we stare at the beautiful women\n"She\'s looking at you. Ah, no, no, she\'s looking at me."\nSmiling in the bright lights, coming through in stereo\nWhen everybody loves you, you can never be lonely\n[Verse 2]\nWell, I\'m gonna paint my picture\nPaint myself in blue and red and black and gray\nAll of the beautiful colors are very, very meaningful\nYeah, well, you know gray is my favorite color\nI felt so symbolic yesterday\nIf I knew Picasso, I would buy myself a gray guitar and play\n\n[Chorus for Verse 2]\nMr. Jones and me look into the future\nYeah, we stare at the beautiful women\n"She\'s looking at you. I don\'t think so. She\'s looking at me."\nStanding in the spotlight, I bought myself a gray guitar\nWhen everybody loves me, I will never be lonely\n\nI\'ll never be lonely\nSaid I\'m never gonna be lonely\n\n[Verse 3]\nI want to be a lion\nYeah, everybody wants to pass as cats\nWe all want to be big, big stars, yeah\nBut we got different reasons for that\nBelieve in me, \'cause I don\'t believe in anything\nAnd I, I want to be someone to believe\nTo believe, to believe, yeah!\n[Chorus for Verse 3]\nMr. Jones and me, stumbling through the barrio\nYeah, we stare at the beautiful women\n"She\'s perfect for you, man, there\'s got to be somebody for me."\nI want to be Bob Dylan\nMr. Jones wishes he was someone just a little more funky\nWhen everybody loves you, ah son\nThat\'s just about as funky as you can be\n\n[Chorus]\nMr. Jones and me, staring at the video\nWhen I look at the television, I want to see me\nStaring right back at me\nWe all want to be big stars\nBut we don\'t know why, and we don\'t know how\nBut when everybody loves me\nI want to be just about as happy as I can be\n\n[Outro]\nMr. Jones and me, we\'re gonna be big stars', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/5db8580de7dc21f46b7f075d284e6fa9.300x258x1.jpg" alt="" width="300" height="258" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“It’s really a song about my friend Marty and I. We went out one night to watch his dad play, his dad was a Flamenco guitar player who lived in Spain, and he was in San Francisco in the Mission playing with his old Flamenco troupe. And after the gig we all went to this bar called the New Amsterdam in San Francisco on Columbus and we got completely drunk. And Marty and I sat at the bar staring at these two girls, wishing there was some way we could go talk to them, but we were too shy. We kept joking with each other that if we were big rock stars instead of such loser, low-budget musicians, this would be easy. I went home that night and I wrote a song about it”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;That is the literal meaning behind it, but the more subtle meaning has to do with dreams and what motivates us to do what we do.&lt;/p&gt;', 'producers': [{'name': 'T Bone Burnett', 'url': 'https://genius.com/artists/T-bone-burnett'}], 'writers': [{'name': 'David Bryson', 'url': 'https://genius.com/artists/David-bryson'}, {'name': 'Adam Duritz', 'url': 'https://genius.com/artists/Adam-duritz'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Madness-it-must-be-love-lyrics', 'lyrics': "[Verse 1]\nI never thought I'd miss you\nHalf as much as I do\nAnd I never thought I'd feel this way\nThe way I feel about you\n\n[Bridge]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nHow can it be that we can\nSay so much without words\nBless you and bless me\nBless the bees and the birds\n\n[Pre-Chorus]\nI've got to be near you every night, every day\nI couldn't be happy any other way\n[Chorus]\nIt must be love, love, love\nIt must be love, love, love\nNothing more, nothing less\nLove is the best\n\n[Pre-Chorus]\nAs soon as I wake up every night every day\nI know that it's you I need\nTo take the blues away\n\n[Outro]\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love, love, love\nIt must be love...", 'annotations': {'description': '&lt;p&gt;It Must Be Love was originally written and recorded by Labi Siffre in 1971, but re-recorded by Madness in 1981. The Madness track reached #4 in the UK singles charts, staying in the charts for twelve weeks. It performed well in the US too, reaching #33 on the Billboard chart.&lt;/p&gt;\n\n&lt;p&gt;The track would go on to feature on the band’s #1 album, Complete Madness the following year&lt;/p&gt;', 'producers': [{'name': 'Alan Winstanley', 'url': 'https://genius.com/artists/Alan-winstanley'}, {'name': 'Clive Langer', 'url': 'https://genius.com/artists/Clive-langer'}], 'writers': [{'name': 'Labi Siffre', 'url': 'https://genius.com/artists/Labi-siffre'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Santana-smooth-lyrics', 'lyrics': '[Verse 1]\nMan, it\'s a hot one\nLike seven inches from the midday sun\nI hear you whisper and the words melt everyone\nBut you stay so cool\nMy muñequita, my Spanish Harlem Mona Lisa\nYou\'re my reason for reason, the step in my groove\n\n[Pre-Chorus]\nAnd if you say this life ain\'t good enough\nI would give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth\nGimme your heart, make it real, or else forget about it\n\n[Verse 2]\nI\'ll tell you one thing\nIf you would leave it would be a crying shame\nIn every breath and every word\nI hear your name calling me out\nOut from the barrio, you hear my rhythm on the radio\nYou feel the turning of the world so soft and slow, turnin\' you round and round\n[Pre-Chorus]\nAnd if you said, "This life ain\'t good enough"\nI\'d give my world to lift you up\nI could change my life to better suit your mood\nBecause you\'re so smooth, and\n\n[Chorus]\nOh, and it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, yeah\n\n[Guitar Solo]\n\n[Chorus]\nAnd it\'s just like the ocean under the moon\nIt\'s the same as the emotion that I get from you\nYou got the kind of loving that can be so smooth, yeah\nGimme your heart, make it real, or else forget about it, damn\n\n[Outro]\nOr else forget about it\nOh, or else forget about it\nOh, let\'s don\'t forget about it\n(Gimme your heart, make it real) Let\'s don\'t forget about it, hey\nLet\'s don\'t forget about it, no, oh, no, oh\nLet\'s don\'t forget about it, no, no, no, oh\nLet\'s don\'t forget about it, hey, no, no, oh\nLet\'s don\'t forget about it, hey, hey, hey', 'annotations': {'description': '&lt;p&gt;“Smooth” is a collaboration between Matchbox Twenty frontman Rob Thomas and Latin rock band Santana. Written by Thomas, and Itaal Shur, “Smooth” won three Grammys for “Song of the Year”, “Record of the Year”, and “Best Pop Collaboration with Vocals” in 2000. “Smooth” is a pinnacle of the tail end of the rock era, and a perfect example of a smooth transition from the classic rock sound (Santana) to modern adult contemporary music (Thomas).&lt;/p&gt;', 'producers': [{'name': 'Matt Serletic', 'url': 'https://genius.com/artists/Matt-serletic'}], 'writers': [{'name': 'Itaal Shur', 'url': 'https://genius.com/artists/Itaal-shur'}, {'name': 'Rob Thomas', 'url': 'https://genius.com/artists/Rob-thomas'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Toto-africa-lyrics', 'lyrics': '[Verse 1: David Paich]\nI hear the drums echoing tonight\nBut she hears only whispers of some quiet conversation\nShe\'s coming in, 12:30 flight\nHer moonlit wings reflect the stars that guide me towards salvation\nI stopped an old man along the way\nHoping to find some old forgotten words or ancient melodies\nHe turned to me as if to say\n"Hurry, boy, it\'s waiting there for you"\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n\n[Verse 2: David Paich]\nThe wild dogs cry out in the night\nAs they grow restless longing for some solitary company\nI know that I must do what\'s right\nAs sure as Kilimanjaro rises like Olympus above the Serengeti\nI seek to cure what\'s deep inside\nFrightened of this thing that I\'ve become\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nGonna take some time to do the things we never had\n[Bridge]\nHurry, boy, she\'s waiting there for you\n\n[Chorus: Bobby Kimball]\nIt\'s gonna take the lot to drag me away from you\nThere\'s nothing that a hundred men or more could ever do\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nI bless the rains down in Africa\nGonna take some time to do the things we never had', 'annotations': {'description': '&lt;p&gt;“Africa” is the third single from Toto’s 1982 album titled &lt;em&gt;&lt;a href="https://genius.com/albums/Toto/Toto-iv" rel="noopener" data-api_path="/albums/109163"&gt;Toto IV&lt;/a&gt;&lt;/em&gt;.  It is the group’s most popular song and &lt;a href="http://www.billboard.com/charts/hot-100/1983-02-05" rel="noopener nofollow"&gt;reached #1&lt;/a&gt; on &lt;em&gt;Billboard’s Hot 100&lt;/em&gt; in early 1983.&lt;/p&gt;\n\n&lt;p&gt;The lyrics comprise a heartfelt (if somewhat fantastical and stereotyped) vision of the beauty of Africa. There are undercurrents of embodying the continent of Africa in a female figure that is referenced throughout the song.&lt;/p&gt;\n\n&lt;p&gt;Africa is, of course, an enormous continent full of a variety of cultures, but the lyrics touch on what a white kid growing up  in  1970s America would have been exposed to in pop culture, &lt;a href="http://jeffporcaro.blogspot.com/2006/12/story-behind-africa.html" rel="noopener nofollow"&gt;as drummer Jeff Porcaro stated in an interview:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;… a white boy is trying to write a song on Africa, but since he’s never been there, he can only tell what he’s seen on TV or remembers in the past.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Toto', 'url': 'https://genius.com/artists/Toto'}], 'writers': [{'name': 'Jeff Porcaro', 'url': 'https://genius.com/artists/Jeff-porcaro'}, {'name': 'David Paich', 'url': 'https://genius.com/artists/David-paich'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-cranberries-salvation-lyrics', 'lyrics': "To all those people doing lines\nDon't do it, don't do it\nInject your soul with liberty\nIt's free, it's free\n\nTo all the kids with heroin eyes\nDon't do it, don't do it\nBecause it's not, not what it seems\nNo, no it's not, not what it seems\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh\nDo do do do do do do do\nDo do do doooo\nDo do do do do do do do\nDo do do doooo\n\nTo all those parents with sleepless nights\nSleepless nights\nTie your kids home to their beds\nClean their heads\n\nTo all the kids with heroin eyes\nDon't do it, don't do it\nBecause it's not, not what it seems\nNo, no it's not, not what it seems\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nSalvation, salvation, salvation is free\nSalvation, salvation, salvation is free\n\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh huh huh\nUh", 'annotations': {'description': '&lt;p&gt;The biggest hit off of &lt;em&gt;To The Faithful Departed&lt;/em&gt; deals with addiction. Limerick in ‘96 was a cesspool of drugs that The Cranberries had bubbling all around them.&lt;/p&gt;\n\n&lt;p&gt;The song charted at #13 in the UK.&lt;/p&gt;', 'producers': [{'name': 'The Cranberries', 'url': 'https://genius.com/artists/The-cranberries'}, {'name': 'Bruce Fairbairn', 'url': 'https://genius.com/artists/Bruce-fairbairn'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/The-romantics-one-in-a-million-lyrics', 'lyrics': "Something about you\nMakes me want to keep on loving you\nWhen I'm without you\nI feel I need you back in my heart\n\nI get a sensation\nI feel whenever I'm around you\nYou're my inspiration\nAnd I'm so glad I found you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\n\nWhen I first saw you\nI had a feeling right from the start\nIn love I was falling\nYou seemed to do things to my heart\n\nYour love and affection\nIs all I need to keep me satisfied\nYou leave an impression\nAnd baby I never want to leave you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\nSomething about you\nMakes me want to keep on loving you\nWhen I'm without you\nI feel I need you back in my heart\n\nI get a sensation\nI feel whenever I'm around you\nYou're my inspiration\nAnd I'm so glad I found you\n\nOne in a million, baby you're the one\nOne in a million, and you're second to none\nOne in a million, a million to one\nYou're one in a million\n\nYou're one in a million\nOne in a million and you're second to none\nOne in a million, wow, one in a million\nBaby you know you are one", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Depeche-mode-its-no-good-lyrics', 'lyrics': "[Verse 1]\nI'm gonna take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\nThe gods decree\nYou'll be right here by my side\nRight next to me\nYou can run but you cannot hide\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Verse 2]\nI'll be fine\nI'll be waiting patiently\nTill you see the signs\nAnd come running to my open arms\nWhen will you realise?\nDo we have to wait till our worlds collide?\nOpen up your eyes\nYou can't turn back the tide\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\n\n[Interlude]\n\n[Verse 3]\nI'm going to take my time\nI have all the time in the world\nTo make you mine\nIt is written in the stars above\n\n[Chorus]\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good\nDon't say you want me\nDon't say you need me\nDon't say you love me\nIt's understood\nDon't say you're happy\nOut there without me\nI know you can't be\n'Cause it's no good", 'annotations': {'description': '&lt;p&gt;The meaning of “It’s No Good” is a bit vain. It’s about someone lusting over their crush, denying that the feeling isn’t mutual. It can be assumed that he was rejected, and he’s grieving, hitting the first stage, denial.&lt;/p&gt;', 'producers': [{'name': 'Tim Simenon', 'url': 'https://genius.com/artists/Tim-simenon'}], 'writers': [{'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/William-scream-and-shout-lyrics', 'lyrics': '[Intro: will.i.am]\nBring the action\n\n[Pre-Chorus: Tulisa, Tulisa &amp; will.i.am]\nWhen you hear this in the club, you\'re gonna turn this shit up\nYou\'re gonna turn this shit up, you\'re gonna turn this shit up\nWhen we up in the club, all eyes on us\nAll eyes on us, all eyes on us\nSee the boys in the club, they watchin\' us\nThey watchin\' us, they watchin\' us\nEverybody in the club, all eyes on us\nAll eyes on us, all eyes on us\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch\n\n[Post-Chorus: will.i.am]\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nBring the action\n[Verse: will.i.am]\nRock and roll, everybody, let\'s lose control\nOn the bottom, we let it go, goin\' fast we ain\'t goin\' slow\nNo no, ay, yo, hear the beat, now let\'s hit the floor\nDrink it up and then drink some more\nLight it up and let\'s let it blow\nBlow blow, ay, yo, rock it out, rockin\' now\nIf you know what we talkin\' \'bout\nTurn it up and burn down the house\nHou-house, ay, yo, turn it up and don\'t turn it down\nHere we go, we gon\' shake the ground\n\'Cause everywhere that we go, we (Bring the action)\n\n[Pre-Chorus: Tulisa, Tulisa &amp; will.i.am, will.i.am]\nWhen you hear this in the club, you\'re gonna turn this shit up\nYou\'re gonna turn this shit up, you\'re gonna turn this shit up\nWhen we up in the club, all eyes on us\nAll eyes on us, all eyes on us\nYou see them girls in the club? They lookin\' at us\nThey lookin\' at us, they lookin\' at us\nEverybody in the club, all eyes on us\nAll eyes on us, all eyes on us\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch\n[Post-Chorus: will.i.am]\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\nAw yeah (Yeah, yeah, yeah, yeah)\n\n[Bridge: will.i.am]\nIt goes on and on and on and on\nWhen me and you party together\nI wish this night would last forever\n\'Cause I was feelin\' down, now I\'m feelin\' better\nAnd maybe it goes on and on and on and on\nWhen me and you party together\nI wish this night would last forever\nForever-forever-forever-forever-forever\n\n[Chorus: will.i.am, will.i.am &amp; Britney Spears, Britney Spears]\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nI wanna scream, and shout, and let it all out\nAnd scream, and shout, and let it out\nWe sayin\', "Ohh, wee-ohh, wee-oh-wee-oh"\nYou are now-now rockin\' with will.i.am and Britney, bitch', 'annotations': {'description': '&lt;p&gt;On “Scream &amp;amp; Shout,” a robotized, vaguely British-sounding Britney Spears joins will.i.am for a bumping EDM dance party. The up-tempo track reached #3 on the Billboard Hot 100 and became the first song to top the newly launched Dance/Electronic Songs chart.&lt;/p&gt;', 'producers': [{'name': 'Basto', 'url': 'https://genius.com/artists/Basto'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Basto', 'url': 'https://genius.com/artists/Basto'}, {'name': 'Tulisa', 'url': 'https://genius.com/artists/Tulisa'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}, {'name': 'Jean Baptiste', 'url': 'https://genius.com/artists/Jean-baptiste'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rihanna-we-found-love-lyrics', 'lyrics': "[Video Intro: Agyness Deyn]\nIt's like you're screaming, and no one can hear\nYou almost feel ashamed, that someone could be that important\nThat without them, you feel like nothing\nNo one will ever understand how much it hurts\nYou feel hopeless, like nothing can save you\nAnd when it's over and it's gone\nYou almost wish you could have all that bad stuff back\nSo that you could have the good\n\n[Verse 1: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\nWhat it takes to come alive\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Verse 2: Rihanna]\nShine a light through an open door\nLove and life, I will divide\nTurn away 'cause I need you more\nFeel the heartbeat in my mind\n\n[Pre-Chorus: Rihanna]\nIt's the way I'm feeling, I just can't deny\nBut I've gotta let it go\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n\n[Bridge: Rihanna]\nYellow diamonds in the light\nAnd we're standing side by side\nAs your shadow crosses mine\n\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\n[Chorus: Rihanna]\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place\nWe found love in a hopeless place", 'annotations': {'description': '&lt;p&gt;This is a single off Rihanna’s sixth studio album &lt;em&gt;Talk that Talk.&lt;/em&gt; It was also included on &lt;em&gt;18 Months,&lt;/em&gt; the third album from Scottish electronic artist and this song’s producer Calvin Harris, who penned the lyrics as well.&lt;/p&gt;\n\n&lt;p&gt;This song became one of the bestselling singles of all time, and Rihanna’s longest running single, outlasting her smash hit “Umbrella” on top of the Billboard Hot 100 charts. This was Harris\' first time on the Hot 100, and became a huge boon to his career. He’d been releasing music since 2007. Harris &lt;a href="https://www.thesun.co.uk/archives/news/1010674/calvin-harris-rihanna-is-the-best-thing-that-could-have-happened-to-me/" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It changed absolutely everything. Career-wise it was the best thing that could ever have happened. For example, in America my tune ‘Feel So Close’ came out about three months before. But when ‘We Found Love’ came out, the radio started playing ‘Feel So Close’ like it was the single after. Then that did really well, it charted well and sold a lot of copies."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Harris was able to tap Rihanna for the song after he opening for her on a leg of her Loud tour in 2011. When Rihanna announced the collaboration to Twitter fans, the &lt;a href="http://www.capitalfm.com/artists/rihanna/news/fans-calvin-harris-single/" rel="noopener nofollow"&gt;Rihanna Navy jumped on Harris,&lt;/a&gt; ensuring he would produce a hit. Luckily he didn’t disappoint.&lt;/p&gt;\n\n&lt;p&gt;The original version of the song was recorded by UK singer Leona Lewis. She told &lt;a href="http://www.nme.com/news/calvin-harris/84798" rel="noopener nofollow"&gt;NME&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was a bit annoying to see how big a hit it was but if I’d released it maybe it wouldn’t have done as well.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The music video, directed by Melissa Matsoukas,  depicts two lovers are in an unsustainable relationship based on passion and drugs, more like an addiction than a healthy interest. The video features a lot of drug usage and a Chris Brown lookalike, which was controversial, given their real-life abusive relationship. Matsoukas addressed the rumors about the controversial video in an interview with &lt;a href="http://www.mtv.com/news/1672957/rihanna-we-found-love-melina-matsoukas/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Again, it goes back to a story that we all can relate to. It’s not Rihanna’s story; it’s her story in the video, and she’s acting. But everybody’s [as well]. Obviously, there’s a lot of comparisons to her real life , and that’s not at all the intention.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Madonna-american-life-lyrics', 'lyrics': "[Intro]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Verse 1]\nI tried to be a boy\nI tried to be a girl\nI tried to be a mess\nI tried to be the best\nI guess I did it wrong\nThat's why I wrote this song\nThis type of modern life, is it for me?\nThis type of modern life, is it for free?\n\n[Verse 2]\nSo, I went into a bar\nLooking for sympathy\nA little company\nI tried to find a friend\nIt's more easily said\nIt's always been the same\nThis type of modern life, is not for me\nThis type of modern life, is not for free\n[Chorus]\nAmerican Life (American Life)\nI live the American Dream (American Dream)\nYou are the best thing I've seen\nYou are not just a dream (American Life)\n\n[Verse 3]\nI tried to stay ahead\nI tried to stay on top\nI tried to play the part\nBut somehow I forgot\nJust what I did it for\nAnd why I wanted more\nThis type of modern life, is it for me?\nThis type of modern life, is it for free?\n\n[Refrain]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Chorus]\nAmerican Life (American Life)\nI live the American Dream (American Dream)\nYou are the best thing I've seen\nYou are not just a dream (American Life)\n[Verse 4]\nI tried to be a boy\nTried to be a girl\nTried to be a mess\nTried to be the best\nTried to find a friend\nTried to stay ahead\nI tried to stay on top\nFuck it\n\n[Refrain]\nDo I have to change my name?\nWill it get me far?\nShould I lose some weight?\nAm I gonna be a star?\n\n[Break]\nA- fuck it\nA- fuck it\nA- fuck it\nA- fuck it\n\n[Verse 5]\nI'm drinking a soy latte\nI get a double shoté\nIt goes right through my body, and you know I'm satisfied\nI drive my Mini Cooper, and I'm feeling super-dooper\nYo, they tell I'm a trooper, and you know I'm satisfied\nI do yoga and pilates, and the room is full of hotties\nSo I'm checking out the bodies, and you know I'm satisfied\nI'm digging on the isotopes, this metaphysics shit is dope\nAnd if all this can give me hope, you know I'm satisfied\nI got a lawyer and a manager, an agent and a chef\nThree nannies, an assistant, and a driver, and a jet\nA trainer, and a butler, and a bodyguard, or five\nA gardener and a stylist, do you think I'm satisfied?\nI'd like to express my extreme point of view\nI'm not a Christian and I'm not a Jew\nI'm just living out the American dream\nAnd I just realized that nothing is what it seems\n[Outro]\nDo I have to change my name? (American Life)\nAm I gonna be a star? (I live the American Dream)\nDo I have to change my name? (American Life)\nAm I gonna be a star? (I live the American Dream)\nDo I have to change my name?\n(American Life) (I live the American Dream)\n(American Life) (I live the American Dream)\n(American Life) (I live the American Dream)\n(American Life)", 'annotations': {'description': '&lt;p&gt;“American Life” is the lead single and title-track of Madonna’s &lt;a href="https://genius.com/albums/Madonna/American-life" rel="noopener" data-api_path="/albums/70141"&gt;ninth studio album&lt;/a&gt;. A pop, techno and folk song, its lyrics feature political and religious views from the singer, who questions the shallowness of modern life and the illusion of the &lt;a href="https://en.wikipedia.org/wiki/American_Dream" rel="noopener nofollow"&gt;American Dream&lt;/a&gt;, specially during the presidency of &lt;a href="https://en.wikipedia.org/wiki/George_W._Bush" rel="noopener nofollow"&gt;George W. Bush&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;By touching sore spots of American society, “American Life” enraged American listeners and was heavily criticized by reviewers, which led the single to &lt;a href="https://www.billboard.com/music/madonna/chart-history/HSI/song/433578" rel="noopener nofollow"&gt;peak at #37&lt;/a&gt; on the Billboard Hot 100. However, the single did well outside the US, reaching the top of the charts in Canada, Denmark, Italy, Japan and Switzerland, and #2 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Two music videos were shot for the song, both by Swedish director &lt;a href="https://en.wikipedia.org/wiki/Jonas_%C3%85kerlund" rel="noopener nofollow"&gt;Jonas Åkerlund&lt;/a&gt;, who has worked with Madonna before. The &lt;a href="https://www.youtube.com/watch?v=1CWXjk40yWE" rel="noopener nofollow"&gt;first version&lt;/a&gt; featured the singer at a military-themed fashion show, with an amused audience applauding the bloodshed of the war; the video ended with Madonna throwing a hand grenade at George W. Bush. Prior to its release, the video caused controversy regarding its political, racial and religious implications, leading Madonna to &lt;a href="http://www.mtv.com/news/articles/1469995/20030214/madonna.jhtml" rel="noopener nofollow"&gt;release a statement&lt;/a&gt; explaining its concept:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I feel lucky to be an American citizen for many reasons – one of which is the right to express myself freely, especially in my work. I understand that there have been reports about my upcoming video ‘American Life’ in the media – much of which is inaccurate. I am not Anti-Bush. I am not pro-Iraq. I am pro peace. I have written a song and created a video which expresses my feelings about our culture and values and the illusions of what many people believe is the American dream – the perfect life. As an artist, I hope that this provokes thought and dialogue. I don’t expect everyone to agree with my point of view.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After the &lt;a href="https://en.wikipedia.org/wiki/2003_invasion_of_Iraq" rel="noopener nofollow"&gt;2003 invasion of Iraq&lt;/a&gt; started, Madonna cancelled the release of the original music video, because of the political climate of the country at the time, and released &lt;a href="https://www.youtube.com/watch?v=LYduJw5LyFM" rel="noopener nofollow"&gt;another version&lt;/a&gt;, much softer, featuring her in front of a backdrop of flags from around the world. She explained:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have decided not to release my new video. It was filmed before the war started and I do not believe it is appropriate to air it at this time. Due to the volatile state of the world and out of sensitivity and respect to the armed forces, who I support and pray for, I do not want to risk offending anyone who might misinterpret the meaning of this video.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Mirwais Ahmadzaï', 'url': 'https://genius.com/artists/Mirwais-ahmadzai'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}], 'writers': [{'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Mirwais Ahmadzaï', 'url': 'https://genius.com/artists/Mirwais-ahmadzai'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Adele-set-fire-to-the-rain-lyrics', 'lyrics': "[Produced by Fraser T Smith]\n\n[Verse 1]\nI let it fall, my heart\nAnd as it fell, you rose to claim it\nIt was dark, and I was over\nUntil you kissed my lips and you saved me\nMy hands, they were strong\nBut my knees were far too weak\nTo stand in your arms\nWithout falling to your feet\n\n[Pre-Chorus]\nBut there's a side to you\nThat I never knew, never knew\nAll the things you'd say\nThey were never true, never true\nAnd the games you'd play\nYou would always win, always win\n\n[Chorus]\nBut I set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\n[Verse 2]\nWhen I lay with you\nI could stay there, close my eyes\nFeel you here forever\nYou and me together, nothing is better\n\n[Pre-Chorus]\n'Cause there's a side to you\nThat I never knew, never knew\nAll the things you'd say\nThey were never true, never true\nAnd the games you'd play\nYou would always win, always win\n\n[Chorus]\nBut I set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\nI set fire to the rain\nAnd I threw us into the flames\nWhen it fell, somethin' died\n'Cause I knew that that was the last time\nThe last time\n[Bridge]\nSometimes, I wake up by the door\nThat heart you caught must be waitin' for you\nEven now, when we're already over\nI can't help myself from lookin' for you\n\n[Chorus]\nI set fire to the rain\nWatched it pour as I touched your face\nWell, it burned while I cried\n'Cause I heard it screamin' out your name\nYour name\nI set fire to the rain\nAnd I threw us into the flames\nWhen it fell, somethin' died\n'Cause I knew that that was the last time\nThe last time\n\n[Outro]\nOh\nOh, no\nLet it burn\nOh\nLet it burn\nLet it burn", 'annotations': {'description': '&lt;p&gt;“Set Fire To The Rain” talks about a relationship coming to an end. Girl meets guy, he is wonderful and she falls really quickly. He tells her all of these amazing things, but really they were all a lie and now she is left with a broken heart. He continually tries to play games with her and no matter hard she fights, she will never win. Nothing she can do will fix the relationship.&lt;/p&gt;\n\n&lt;p&gt;As hard as she doesn’t want to let him go, she breaks it off in order to save herself for further heartbreak. The pain of breaking off a relationship with someone who means so much but is two-sided and not good to be with.&lt;/p&gt;\n\n&lt;p&gt;The title is an allusion to James Taylor’s &lt;a href="https://genius.com/James-taylor-fire-and-rain-lyrics" rel="noopener" data-api_path="/songs/108489"&gt;“Fire and Rain,”&lt;/a&gt; but Adele approaches the same themes with a thug-feminist perspective.&lt;/p&gt;\n\n&lt;p&gt;In the US, the song hit #1, becoming her third consecutive number one from the album. She wouldn’t reach such heights again until her comeback single &lt;a href="https://genius.com/Adele-hello-lyrics" rel="noopener" data-api_path="/songs/2332455"&gt;“Hello”&lt;/a&gt; debuted at number one with a shocking &lt;em&gt;1.12 million copies sold&lt;/em&gt; in one week – the largest ever recorded in the US.&lt;/p&gt;', 'producers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}], 'writers': [{'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Adele', 'url': 'https://genius.com/artists/Adele'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Justin-bieber-yummy-lyrics', 'lyrics': "[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay\u2005the\u2005word, on my\u2005way\nYeah, babe, yeah, babe, yeah, babe\nAny\u2005night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nIn the mornin' or the late\nSay the word, on my way\n\n[Verse 1]\nBona fide stallion\nAin't in no stable, no, you stay on the run\nAin't on the side, you're number one\nYeah, every time I come around, you get it done\n\n[Pre-Chorus]\nFifty-fifty, love the way you split it\nHundred racks, help me spend it, babe\nLight a match, get litty, babe\nThat jet set, watch the sunset kinda, yeah, yeah\nRollin' eyes back in my head, make my toes curl, yeah, yeah\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe\nIn the mornin' or the late\nSay the word, on my way\n\n[Verse 2]\nStandin' up, keep me on the rise\nLost control of myself, I'm compromised\nYou're incriminating, no disguise\nAnd you ain't never runnin' low on supplies\n\n[Pre-Chorus]\nFifty-fifty, love the way you split it\nHundred racks, help me spend it, babe\nLight a match, get litty, babe\nThat jet set, watch the sunset kinda, yeah, yeah\nRollin' eyes back in my head, make my toes curl, yeah, yeah\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy (You stay flexin' on me)\nYeah, you got that yummy-yum (Yeah, yeah)\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nIn the mornin' or the late\nSay the word, on my way\n\n[Bridge]\nHop in the Lambo', I'm on my way\nDrew House slippers on with a smile on my face\nI'm elated that you are my lady\nYou got the yum, yum, yum, yum\nYou got the yum, yum-yum, woah\nWoah-ooh\n\n[Chorus]\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nYeah, you got that yummy-yum\nThat yummy-yum, that yummy-yummy\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nAny night, any day\nSay the word, on my way\nYeah, babe, yeah, babe, yeah, babe (Yeah, babe)\nIn the mornin' or the late\nSay the word, on my way", 'annotations': {'description': '&lt;p&gt;“Yummy” is the lead single to Justin Bieber’s fifth studio album, &lt;a href="https://genius.com/albums/Justin-bieber/Changes" rel="noopener" data-api_path="/albums/583715"&gt;&lt;em&gt;Changes&lt;/em&gt;&lt;/a&gt;, and his first solo release since his fourth studio album, &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;, released on November 13, 2015. Its release was accompanied by a &lt;a href="https://youtu.be/EaMed9sUPVo" rel="noopener nofollow"&gt;lyric video&lt;/a&gt;, and an &lt;a href="https://youtu.be/8EJ3zbKTWQ8" rel="noopener nofollow"&gt;official music video&lt;/a&gt; that released at 12:00 PM EST on January 4th, 2020.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.merriam-webster.com/dictionary/yummy" rel="noopener nofollow"&gt;Yummy&lt;/a&gt; is a term used to describe something or someone that you find very attractive or appealing. Justin uses this term to describe his wife, &lt;a href="https://www.instagram.com/haileybieber/?hl=en" rel="noopener nofollow"&gt;Hailey Bieber&lt;/a&gt;, to which he is known for &lt;a href="https://www.narcity.com/gossip/fans-are-gushing-over-justin-bieber-publicly-serenading-his-new-wife-hailey-baldwin-in-london-video" rel="noopener nofollow"&gt;publicly gushing&lt;/a&gt; over. Whether it’s &lt;a href="https://www.instagram.com/p/B36MXitntbq/?utm_source=ig_embed" rel="noopener nofollow"&gt;commenting&lt;/a&gt; on photos of her, or &lt;a href="https://www.instagram.com/p/BwAXtOeHFms/?utm_source=ig_embed" rel="noopener nofollow"&gt;writing a poem&lt;/a&gt; for her, Justin always shows just how much he loves his wife.&lt;/p&gt;\n\n&lt;p&gt;The song, along with its release date, was announced on December 24, 2019, &lt;a href="https://www.youtube.com/watch?v=Qa6ShFwhNWU" rel="noopener nofollow"&gt;via a trailer&lt;/a&gt;, for his album on YouTube, which also played a snippet from the track.&lt;/p&gt;\n\n&lt;p&gt;Bieber continued teasing the track all day on January 2, 2020, the day before the track’s release. He tweeted &lt;a href="https://twitter.com/justinbieber/status/1212782112123707392" rel="noopener nofollow"&gt;a snippet&lt;/a&gt; from the track’s apparent music video, as well as &lt;a href="https://twitter.com/justinbieber/status/1212948427186655232" rel="noopener nofollow"&gt;another teaser&lt;/a&gt; of the track’s instrumental version.&lt;/p&gt;', 'producers': [{'name': 'Sasha Sirota', 'url': 'https://genius.com/artists/Sasha-sirota'}, {'name': 'Kid Culture', 'url': 'https://genius.com/artists/Kid-culture'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}], 'writers': [{'name': 'Ashley Joi Sadler', 'url': 'https://genius.com/artists/Ashley-joi-sadler'}, {'name': 'Ashley Boyd', 'url': 'https://genius.com/artists/Ashley-boyd'}, {'name': 'Kid Culture', 'url': 'https://genius.com/artists/Kid-culture'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}, {'name': 'Justin Bieber', 'url': 'https://genius.com/artists/Justin-bieber'}, {'name': 'Sasha Sirota', 'url': 'https://genius.com/artists/Sasha-sirota'}], 'labels': [{'name': 'RBMG', 'url': 'https://genius.com/artists/Rbmg'}, {'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Evanescence-going-under-lyrics', 'lyrics': "[Verse 1]\nNow I will tell you what I've done for you\nFifty thousand tears I've cried\nScreaming, deceiving and bleeding for you\nAnd you still won't hear me (Going under)\n\n[Verse 2]\nDon't want your hand this time, I'll save myself\nMaybe I'll wake up for once (Wake up for once)\nNot tormented, daily defeated by you\nJust when I thought I'd reached the bottom\n\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm going under\n\n[Verse 3]\nBlurring and stirring the truth and the lies\n(So I don't know what's real)\nSo I don't know what's real and what's not\n(Don't know what's real and what's not)\nAlways confusing the thoughts in my head (Oh)\nSo I can't trust myself anymore\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm\n\n[Bridge]\nSo go on and scream\nScream at me, I'm so far away (So far away)\nI won't be broken again (Again)\nI've got to breathe, I can't keep going under\n\n[Guitar Solo]\n\n[Pre-Chorus]\nI'm dying again\n\n[Chorus]\nI'm going under (Going under)\nDrowning in you (Drowning in you)\nI'm falling forever (Falling forever)\nI've got to break through\nI'm\n[Outro]\nGoing under (Going under)\nI'm going under (Drowning in you)\nI'm going under", 'annotations': {'description': '&lt;p&gt;In &lt;a href="https://genius.com/artists/Amy-lee" rel="noopener" data-api_path="/artists/30669"&gt;Amy Lee&lt;/a&gt;’s own words, “Going Under” is:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;[…] about coming out of a bad relationship, and when you’re at the end of your rope, when you’re at the point where you realize something has to change, that you can’t go on living in the situation that you’re in.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;It was initially going to be &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;’s first single on their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Evanescence/Fallen" rel="noopener" data-api_path="/albums/15242"&gt;Fallen&lt;/a&gt;&lt;/em&gt;. However, the release of the &lt;em&gt;Daredevil&lt;/em&gt; soundtrack eclipsed the decision, resulting in the release of &lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me To Life&lt;/a&gt; first.&lt;/p&gt;\n\n&lt;p&gt;The music video for the song was directed by Philipp Stölzl and it was filmed in May 2003 in Germany. It shows Lee performing on a concert along with the band, while fans are turning into zombies. She designed both the dresses she wears in the video. It ranked at #4 on the list of &lt;a href="http://www.billboard.com/articles/columns/pop-shop/952337/the-15-scariest-music-videos-ever" rel="noopener nofollow"&gt;“The 15 Scariest Music Videos Ever”&lt;/a&gt; published by &lt;em&gt;Billboard&lt;/em&gt;. Evanescence additionally added the song to the set-list on their &lt;strong&gt;Fallen and The Open Door Tour&lt;/strong&gt;.&lt;/p&gt;', 'producers': [{'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}, {'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Pet-shop-boys-domino-dancing-lyrics', 'lyrics': "[Intro: The Voice in Fashion]\n(All day, all day)\n\n[Interlude]\n\n[Verse 1: Neil Tennant]\nI don't know why, I don't know how\nI thought I loved you, but I'm not sure now\nI've seen you look at strangers too many times\nThe love you want is of a different kind\n\n[Verse 2: Neil Tennant]\nRemember when we felt the sun?\nA love like paradise, how hot it burned\nA threat of distant thunder, the sky was red\nAnd when you walked, you always turned every head\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n[Interlude]\n\n[Verse 3: Neil Tennant]\nI thought that when we fought I was to blame\nBut now I know you play a different game\nI've watched you dance with danger, still wanting more\nAdd another number to the score\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n\n[Bridge: Neil Tennant]\nWhen you look around you wonder\nDo you play to win?\nOr are you just a bad loser?\n\n[Interlude]\n\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n[Interlude]\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n(All day, all day)\n(All day, all day)\n\n[Verse 4: Neil Tennant]\nI don't know why, I don't know how\nI thought I loved you, but I'm not sure now\nI hear the thunder crashing, the sky is dark\nAnd now a storm is breaking within my heart\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n\n[Interlude]\n\n[Refrain: The Voice in Fashion]\n(All day, all day)\n(All day, all day)\n(Domino dancing)\n(All day, all day)\n(All day, all day)\n\n[Chorus: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)\n(Domino dancing)\n(All day, all day)\nWatch them all fall down\n(All day, all day)\nDomino dancing\n\n[Outro: Neil Tennant &amp; The Voice in Fashion]\n(All day, all day)\nWatch them all fall down\n(All day, all day)", 'annotations': {'description': '&lt;p&gt;Neil says that the title of this song was inspired during a stay on the Caribbean island of St. Lucia. “In the evening there was nothing to do except play dominoes; this friend of ours [their personal assistant and Chris’s roommate, the late Pete Andreas] always used to beat us, and he used to do this celebratory dance.” Despite this prosaic origin, “domino dancing” became Neil’s metaphor for a love relationship breaking down because of jealousy. As he once described it, he “created a scenario of, you know, a guy going out with a beautiful girl and all the guys are looking at her on the beach in her bikini or whatever and they’re all dropping dead before her because she’s so gorgeous and so consequently he gets jealous and the relationship collapses….”&lt;/p&gt;\n\n&lt;p&gt;Neil and Chris had traveled to Miami specifically to work with Exposé producer Lewis A. Martineé, whose work they admired, most notably with his highly successful “girl group” Exposé. This track, which exemplifies the ‘eighties electro-Latino musical subgenre commonly known as “freestyle,” was the result.&lt;/p&gt;\n\n&lt;p&gt;Continuing with the Latino theme, the accompanying video is set in Puerto Rico—at director Eric Watson’s suggestion—and became notorious for its thinly veiled homoeroticism, despite a heterosexual veneer.&lt;/p&gt;\n\n&lt;p&gt;(The final scenes of two shirtless young men—even more obviously posited as “sex objects” than the lovely young woman who served as the ostensible object of their competing desires—tussling among the crashing waves on a beach were frequently cited as evidence by critics.)&lt;/p&gt;\n\n&lt;p&gt;Since “Domino Dancing” proved to be the Pet Shop Boys\' final Top 40 hit in the United States, it has been widely speculated that this video may have had something to do with their declining U.S. popularity thereafter.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ae02d5c2b9a58a946173cf07f45c2651.550x583x1.jpg" alt="" width="550" height="583" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Lewis Martineé', 'url': 'https://genius.com/artists/Lewis-martinee'}], 'writers': [{'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/Rihanna-disturbia-lyrics', 'lyrics': "[Intro]\nBum bum be-dum, bum bum be-dum bum\n(What's wrong with me?)\nBum bum be-dum, bum bum be-dum bum\n(Why do I feel like this?)\nBum bum be-dum, bum bum be-dum bum\n(I'm goin' crazy now)\nBum bum be-dum, bum bum be-dum bum\n\n[Verse 1]\nNo more gas, in the red (Can't even get it started)\nNothin' heard, nothin' said (Can't even speak about it)\nAll my life on my head (Don't wanna think about it)\nFeels like I'm goin' insane, yeah\n\n[Pre-Chorus]\nIt's a thief in the night to come and grab you (Ah)\nIt can creep up inside you and consume you (Ah)\nA disease of the mind, it can control you (Ah)\nIt's too close for comfort, ah\n\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder\nAin't gon' play nice\nWatch out, you might just go under\nBetter think twice\nYour train of thought will be altered\nSo if you must falter, be wise\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light\nDisturbia, am I scarin' you tonight?\nYour mind's in disturbia, ain't used to what you like\nDisturbia, disturbia\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\nBum bum be-dum, bum bum be-dum bum\n\n[Verse 2]\nFaded pictures on the wall\nIt's like they talkin' to me\nDisconnected, no one calls\nThe phone don't even ring\nI gotta get out or figure this shit out\nIt's too close for comfort, oh\n\n[Pre-Chorus]\nIt's a thief in the night to come and grab you (Ooh)\nIt can creep up inside you and consume you (Ooh)\nA disease of the mind, it can control you (Ooh)\nI feel like a monster, oh\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder (City lights)\nAin't gon' play nice (Oh)\nWatch out, you might just go under\nBetter think twice (Think twice)\nYour train of thought will be altered\nSo if you must falter, be wise (Be wise)\n\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light\nDisturbia, am I scarin' you tonight? (Oh)\nDisturbia, ain't used to what you like (Oh, what you like)\nDisturbia, disturbia (Ah)\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum (Ba-da-da-da-de-da)\nBum bum be-dum, bum bum be-dum bum (Ba-da-da-da-de-da)\nBum bum be-dum, bum bum be-dum bum (Disturbia)\nBum bum be-dum, bum bum be-dum bum (Oh, oh)\n\n[Bridge]\nRelease me from this curse I'm in\nTryin' to remain tame, but I'm strugglin'\nIf you can't go, oh-oh-oh-oh-oh\nI think I'm gonna ah-ah-ah-ah-ah\n[Chorus]\nPut on your brake lights\nYou're in the city of wonder (Woo, yeah)\nAin't gon' play nice\nWatch out, you might just go under (Better think twice)\nBetter think twice\nYour train of thought will be altered\nSo if you must falter, be wise (If you must falter, be wise)\n\n[Post-Chorus]\nYour mind's in disturbia\nIt's like the darkness is the light (Ah, yeah, disturbia)\nDisturbia, am I scarin' you tonight? (Ah, yeah, disturbia)\nDisturbia, ain't used to what you like (Disturbia, ah)\nDisturbia, disturbia (Oh woah)\n\n[Refrain]\nBum bum be-dum, bum bum be-dum bum (Bum-ba-de-da-da)\nBum bum be-dum, bum bum be-dum bum (Bum-ba-de-da-da)\nBum bum be-dum, bum bum be-dum bum (Oh)\nBum bum be-dum, bum bum be-dum bum (Oh)", 'annotations': {'description': '&lt;p&gt;“Disturbia” was written by Rihanna’s then-boyfriend and fellow recording artist, &lt;a href="https://genius.com/artists/Chris-brown" rel="noopener" data-api_path="/artists/438"&gt;Chris Brown&lt;/a&gt; (alongside his team, the Graffiti Artizts), and was originally intended for his re-release of 2007’s &lt;a href="https://genius.com/albums/Chris-brown/Exclusive" rel="noopener" data-api_path="/albums/1550"&gt;&lt;em&gt;Exclusive&lt;/em&gt;&lt;/a&gt;. His vocals also can be heard in the background of the song.&lt;/p&gt;\n\n&lt;p&gt;Although he still earns royalties for the highly successful record, he apparently &lt;a href="https://genius.com/387569/Chris-brown-famous-girl/I-was-wrong-for-writing-disturbia" rel="noopener" data-api_path="/referents/387569"&gt;regrets writing it&lt;/a&gt; for her, for reasons he has yet to reveal.&lt;/p&gt;\n\n&lt;p&gt;In &lt;a href="http://usatoday30.usatoday.com/life/music/news/2008-08-14-chris-brown_N.htm" rel="noopener nofollow"&gt;an interview with &lt;em&gt;USA Today&lt;/em&gt;&lt;/a&gt;, Chris spoke on giving the song to Rihanna:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s fun being creative and even if you have a concept in your head to write about, you can write it and give it and give it to someone else because it might not personally fit you, but it might be an idea you have.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}], 'writers': [{'name': 'Rob Allen', 'url': 'https://genius.com/artists/Rob-allen'}, {'name': 'Andre Merritt', 'url': 'https://genius.com/artists/Andre-merritt'}, {'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/More_Than_a_Feeling', 'track_name': 'More Than a Feeling', 'artist': 'http://dbpedia.org/resource/Boston_(band)', 'artist_name': 'Boston', 'wiki': 'http://en.wikipedia.org/wiki/More_Than_a_Feeling', 'hometown': 'http://dbpedia.org/resource/Boston', 'abstract': '"More Than a Feeling" is a song by the American rock band Boston. Written by Tom Scholz, it was released as the lead single from their eponymous debut album on Epic Records in September 1976, with "Smokin\'" on the b-side. The single peaked at number five on the Billboard Hot 100. The track is now a staple of classic rock, and in 2008, it was named the 39th best hard rock song of all time by VH1. It was included in the Rock and Roll Hall of Fame\'s list of the 500 Songs That Shaped Rock and Roll and is ranked No. 212 on Rolling Stone\'s 500 Greatest Songs of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/What's_This_Life_For", 'track_name': "What's This Life For", 'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': "http://en.wikipedia.org/wiki/What's_This_Life_For", 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'abstract': '"What\'s This Life For" is a song by American rock band Creed. It is the third single and ninth track off their 1997 debut album, My Own Prison. The song reached number one on the Billboard Hot Mainstream Rock Tracks chart in the U.S., becoming their first number one hit on this chart. It remained on top for six weeks.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Beverly_Hills_(song)', 'track_name': 'Beverly Hills', 'artist': 'http://dbpedia.org/resource/Weezer', 'artist_name': 'Weezer', 'wiki': 'http://en.wikipedia.org/wiki/Beverly_Hills_(song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Beverly Hills" is a song by American rock band Weezer. It is the first single from the band\'s fifth album, Make Believe. "Beverly Hills" was released to US radio on March 28, 2005. The song features Stephanie Eitel of Agent Sparks on the chorus on backup vocals, performing the "gimme, gimme" hook.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Say_It_Right', 'track_name': 'Say It Right', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Say_It_Right', 'abstract': '"Say It Right" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006). Written by Furtado, Tim "Timbaland" Mosley and Nate "Danja" Hills, Furtado credited the Eurythmics song "Here Comes the Rain Again" as her inspiration. The song was released as the album\'s third single in North America and Australia and as the fourth single in certain European and Asian countries. It was released digitally in the United Kingdom in March 2007. It was the album\'s fifth single in Latin America. "Say It Right" attained worldwide success, topping the charts in more than seven countries, including the United States, France, New Zealand, and many European countries. The accompanying music video for the song, directed by Rankin &amp; Chris, portrays Furtado singing in various costumes and in various locations. The song has been performed on a number of live appearances by Furtado, including her third headlining Get Loose Tour. It received a Grammy Award nomination for Best Female Pop Vocal Performance at the 2008 Grammy Awards but lost to Amy Winehouse\'s "Rehab".'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Why'd_You_Only_Call_Me_When_You're_High%3F", 'track_name': "Why'd You Only Call Me When You're High?", 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': "http://en.wikipedia.org/wiki/Why'd_You_Only_Call_Me_When_You're_High%3F", 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Why\'d You Only Call Me When You\'re High?" is a song by English indie rock band Arctic Monkeys. It was released as the third single from their fifth studio album, AM, on 11 August 2013. It was written by the group\'s lead vocalist Alex Turner while its production was handled by James Ford. Upon its release, many critics compared the composition of "Why\'d You Only Call Me When You\'re High?" with works by different artists. On 30 August 2013, an audio track of the single\'s B-side, "Stop the World I Wanna Get Off with You", was released onto Arctic Monkeys\' official YouTube channel. An accompanying music video was shot for the song by Nabil Elderkin and released in July 2013. The band has performed the song multiple times at different venues and also on their AM Tour. In October 2020 and January 2021, the song went viral on TikTok, also appearing on the Spotify “Viral Hits” playlist.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/I'm_a_Believer", 'track_name': "I'm a Believer", 'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': "http://en.wikipedia.org/wiki/I'm_a_Believer", 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'abstract': '"I\'m a Believer" is a song written by Neil Diamond and recorded by the Monkees in 1966 with the lead vocals by Micky Dolenz. The single, produced by Jeff Barry, hit the number-one spot on the U.S. Billboard Hot 100 chart for the week ending December 31, 1966, and remained there for seven weeks, becoming the last No. 1 hit of 1966 and the biggest-selling single for all of 1967. Billboard ranked the record as the No. 5 song for 1967. Because of 1,051,280 advance orders, it went Gold within two days of release. It is one of the fewer than forty all-time singles to have sold more than 10 million physical copies worldwide. While originally published by Screen Gems-Columbia Music (BMI), it is now published by Stonebridge Music/EMI Foray Music (SESAC), with administration passed to Sony/ATV Music Publishing and Universal Music Publishing Group. The song was No. 1 in the UK Singles Chart for four weeks in January and February 1967 and reached the top spot in numerous countries, including Australia, New Zealand, Canada, and Ireland. Billboard described the song as \'an easy-go dance mover\' that \'will hit with immediate impact\'. The song appeared in four consecutive episodes of the television series The Monkees in December 1966.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Throne_(song)', 'track_name': 'Throne', 'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Throne_(song)', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Throne" is a song by British rock band Bring Me the Horizon. Produced by keyboardist Jordan Fish and vocalist Oliver Sykes, it was featured on the band\'s 2015 fifth studio album That\'s the Spirit and released as the third single from the album on 24 July 2015. The single topped the UK Rock &amp; Metal Singles Chart and the US Billboard Mainstream Rock chart, and reached number 51 on the UK Singles Chart and number 12 on the Billboard Hot Rock Songs chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Breathe_(The_Prodigy_song)', 'track_name': 'Breathe', 'artist': 'http://dbpedia.org/resource/The_Prodigy', 'artist_name': 'The Prodigy', 'wiki': 'http://en.wikipedia.org/wiki/Breathe_(The_Prodigy_song)', 'hometown': 'http://dbpedia.org/resource/Braintree,_Essex', 'abstract': '"Breathe" is a song by English band the Prodigy, released in November 1996 as the second single from the album The Fat of the Land. It became the group\'s second consecutive number-one in the United Kingdom and also topped the charts in the Czech Republic, Denmark, Finland, Hungary, Ireland, Norway, and Sweden. The song features a drum break from the song "Johnny the Fox Meets Jimmy the Weed" of the group Thin Lizzy. The whiplashing sword sound effect is a sample of the song "Da Mystery of Chessboxin", by Wu-Tang Clan. As in "Firestarter", Jim Davies played the guitar in the song. In 2003, Q Magazine ranked "Breathe" at number 321 in their list of the "1001 Best Songs Ever".'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Boys_Don't_Cry_(The_Cure_song)", 'track_name': "Boys Don't Cry", 'artist': 'http://dbpedia.org/resource/The_Cure', 'artist_name': 'The Cure', 'wiki': "http://en.wikipedia.org/wiki/Boys_Don't_Cry_(The_Cure_song)", 'hometown': 'http://dbpedia.org/resource/Crawley', 'abstract': '"Boys Don\'t Cry" is a song by English rock band The Cure. It was released in the UK as a stand-alone single in June 1979, and was included as the title track on Boys Don\'t Cry, the American equivalent to Three Imaginary Boys.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Words_as_Weapons_(Seether_song)', 'track_name': 'Words as Weapons', 'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Words_as_Weapons_(Seether_song)', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'abstract': '"Words as Weapons" is a song by South African rock band Seether. It was released on 1 May 2014, as the lead single from their sixth studio album Isolate and Medicate.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Unskinny_Bop', 'track_name': 'Unskinny Bop', 'artist': 'http://dbpedia.org/resource/Poison_(American_band)', 'artist_name': 'Poison', 'wiki': 'http://en.wikipedia.org/wiki/Unskinny_Bop', 'hometown': 'http://dbpedia.org/resource/Mechanicsburg,_Pennsylvania', 'abstract': '"Unskinny Bop" is a song by American glam metal band Poison, which was released as the first single from their 1990 Flesh &amp; Blood album. The song peaked at number 3 on the US Billboard Hot 100, number 5 on the Mainstream rock charts, number 15 in the UK and #7 on the Australian charts. This made it the band\'s second highest success, after "Every Rose Has Its Thorn."'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Special_(song)', 'track_name': 'Special', 'artist': 'http://dbpedia.org/resource/Garbage_(band)', 'artist_name': 'Garbage', 'wiki': 'http://en.wikipedia.org/wiki/Special_(song)', 'hometown': 'http://dbpedia.org/resource/Madison,_Wisconsin', 'abstract': '"Special" is song by American rock band Garbage from their second studio album, Version 2.0 (1998). It was released as the album\'s third single. The track contains a vocal interpolation of a lyric taken from "Talk of the Town" by the Pretenders. Commercially, "Special" reached number 15 in the United Kingdom, number 52 on the US Billboard Hot 100, and number 54 in Australia. The song received nominations for Best Rock Song and Best Rock Performance by a Duo or Group at the 2000 Grammy Awards, and winning a Wisconsin Area Music Industry award for Song of the Year and a Citation of Achievement from the BMI Pop Awards. The sci-fi-inspired music video for "Special" also received nominations from music industry award panels, winning a D&amp;AD Award, a MTV Video Music Award, and a VH1 Visionary Video award. In 2007, "Special" was remastered and included on Garbage\'s greatest hits album Absolute Garbage.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Would%3F', 'track_name': 'Would?', 'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Would%3F', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': '"Would?" is a song by Alice in Chains, written by guitarist and vocalist Jerry Cantrell as a tribute to his friend Andrew Wood, lead vocalist of Mother Love Bone, who died in 1990. Cantrell sings the verses of the song, while Layne Staley sings the chorus. The song first appeared on the soundtrack to the 1992 film Singles—where the members of Alice in Chains make a cameo appearance—and later appeared on the band\'s second studio album Dirt, also released in 1992. "Would?" was released as a single and peaked at No. 31 on Billboard\'s Mainstream Rock Tracks chart in 1992, at No. 19 in 1996, and in 2019 the song peaked at No. 15 on the Hot Rock Songs chart after it was featured in the trailer for the season 2 of the Netflix show The Punisher. The song was included on the compilation albums Nothing Safe: Best of the Box (1999), Music Bank (1999), Greatest Hits (2001), and The Essential Alice in Chains (2006). An acoustic version performed on Alice in Chains\' MTV Unplugged in 1996 was released in a live album and DVD. In 2009, "Would?" was named the 88th Best Hard Rock Song of All Time by VH1.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Monsters_(Shinedown_song)', 'track_name': 'Monsters', 'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Monsters_(Shinedown_song)', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"Monsters" is a song by American rock band Shinedown. It was their third single off of their sixth studio album Attention Attention. It reached the top of the Billboard Mainstream Rock Songs chart in June 2019. Upon reaching number one on the Mainstream Rock, Shinedown moved into second place for the most Mainstream Rock number ones with fourteen songs. "Monsters" was nominated for iHeartRadio\'s rock song of the year award.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Hit_Me_with_Your_Best_Shot', 'track_name': 'Hit Me with Your Best Shot', 'artist': 'http://dbpedia.org/resource/Pat_Benatar', 'artist_name': 'Pat Benatar', 'wiki': 'http://en.wikipedia.org/wiki/Hit_Me_with_Your_Best_Shot', 'abstract': '"Hit Me with Your Best Shot" is a song recorded by American rock singer Pat Benatar and written by Eddie Schwartz. In 1980, it was released as the second single from her second album Crimes of Passion, which became her biggest-selling album. It hit No. 7 in Cash Box, and reached No. 9 on the Billboard Hot 100, becoming her first Top 10 hit in the US. It was particularly popular at album-rock radio stations, peaking at number 1 on the US Tunecaster Rock Tracks chart. It was also a Top 10 hit in Canada, although the only other country in which it charted was Australia where it reached the Top 40. "Hit Me with Your Best Shot" sold well over a million copies in the U.S., achieving a gold certification by the RIAA. The song is one of Benatar\'s most recognizable tracks. Heard at many baseball and soccer games, the song has been featured on many compilation albums, including both multi-artist works as well as those just focusing on Benatar (such as 10 Great Songs and Greatest Hits).'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Livin'_on_the_Edge", 'track_name': "Livin' on the Edge", 'artist': 'http://dbpedia.org/resource/Aerosmith', 'artist_name': 'Aerosmith', 'wiki': "http://en.wikipedia.org/wiki/Livin'_on_the_Edge", 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Livin\' on the Edge" is a song by American hard rock band Aerosmith. The song was written by Steven Tyler, Joe Perry, and Mark Hudson. It was released in 1993 as the first single from the band\'s commercially successful album Get a Grip. The single reached number 18 on the Billboard Hot 100 chart, number three on the Cash Box Top 100, and number one on the Billboard Album Rock Tracks chart, where it remained for nine weeks, making it Aerosmith\'s most successful single on that chart. In the UK, the song peaked at number 19 on the British pop chart in April 1993.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/N_2_Gether_Now', 'track_name': 'N 2 Gether Now', 'artist': 'http://dbpedia.org/resource/Limp_Bizkit', 'artist_name': 'Limp Bizkit', 'wiki': 'http://en.wikipedia.org/wiki/N_2_Gether_Now', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"N 2 Gether Now" is a hip hop song by the American band Limp Bizkit and the rapper Method Man. It was the third single released from their second studio album, Significant Other. The single was released with their last single "Break Stuff". The song does not include the instrumentalist members Sam Rivers and Wes Borland.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/I'm_Yours_(Jason_Mraz_song)", 'track_name': "I'm Yours", 'artist': 'http://dbpedia.org/resource/Jason_Mraz', 'artist_name': 'Jason Mraz', 'wiki': "http://en.wikipedia.org/wiki/I'm_Yours_(Jason_Mraz_song)", 'abstract': '"I\'m Yours" is a song by American singer-songwriter Jason Mraz, released in 2008 as the first single from his third studio album We Sing. We Dance. We Steal Things.. The song was originally released on a limited edition EP called Extra Credit as a demo in 2005 to promote his second studio album Mr. A–Z. It was performed in his 2004 and 2005 gigs and already became a crowd favorite before its release. "I\'m Yours" was nominated for Song of the Year and Best Male Pop Vocal Performance at the 51st Grammy Awards. It was also used for the Australian Seven Network\'s promotion of the season premiere of Packed to the Rafters. "I\'m Yours" was immensely successful in the US on the Billboard charts. At 76 weeks on the Hot 100, it held the record for most weeks spent on the chart, breaking the previous record of 69 weeks set by LeAnn Rimes\' song "How Do I Live" in 1998; this record has since been broken by The Weeknd\'s "Blinding Lights", which spent 90 weeks on the chart, Imagine Dragons\' "Radioactive", which spent 87 weeks on the chart, and Awolnation\'s "Sail", which spent 79 weeks on the chart. As of January 2013, it is the tenth best-selling digital song of all time in the US, selling over 6 million downloads, and 12.2 million worldwide. It remains Mraz\'s biggest US hit single to date. It was the only song to crack Billboard\'s top 600 of all time despite never cracking the top 5. Mraz first launched the song from the La Costa Resort and Spa in Carlsbad, California, at Michele Clark\'s Sunset Sessions in 2008. He also sang a version on Sesame Street titled "Outdoors" and released a successful remixed version featuring Lil Wayne and Jah Cure.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sexy_and_I_Know_It', 'track_name': 'Sexy and I Know It', 'artist': 'http://dbpedia.org/resource/LMFAO', 'artist_name': 'LMFAO', 'wiki': 'http://en.wikipedia.org/wiki/Sexy_and_I_Know_It', 'hometown': 'http://dbpedia.org/resource/Pacific_Palisades,_Los_Angeles', 'abstract': '"Sexy and I Know It" is a hit song by American duo LMFAO from their second studio album, Sorry for Party Rocking. It was released as the third single from the album on September 16, 2011. The song was written by Stefan Kendal Gordy, GoonRock, Erin Beck, George M. Robertson and Kenneth Oliver, and it was produced by Party Rock. It went to number one on the Billboard Hot 100 on January 7, 2012, and remained there for two weeks. The song became LMFAO\'s second number one hit on the Billboard Hot 100 in the United States (after "Party Rock Anthem"), making them the first duo to have two successive number-one singles since Outkast\'s "Hey Ya!" (2003) and "The Way You Move" (2004). The song also reached number one in Australia, Canada, Israel and New Zealand, and charted within the top ten in nearly every country in which it charted.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Breaking_the_Law', 'track_name': 'Breaking the Law', 'artist': 'http://dbpedia.org/resource/Judas_Priest', 'artist_name': 'Judas Priest', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_the_Law', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Breaking the Law" is a song by English heavy metal band Judas Priest, originally released on their 1980 album British Steel. The song is one of the band\'s better known singles, and is readily recognized by its opening guitar riff.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Give_In_to_Me', 'track_name': 'Give In to Me', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Give_In_to_Me', 'abstract': '"Give In to Me" is the tenth track on Michael Jackson\'s 1991 studio album, Dangerous. The single peaked at number one in Ireland and in New Zealand for four consecutive weeks, and at number two on the UK Singles Chart. Stylistically, "Give In to Me" is a hard rock ballad that featured Guns N\' Roses guitarist Slash, who also had solos on "D.S.", "Morphine" and "Privacy". Some suggest that the song, also considered a heavy metal ballad, has an aggressive sexual flavor. The single was released in Europe, Australia and New Zealand only. The single release\'s B-sides include the album versions of "Dirty Diana" and "Beat It".'}</t>
+    <t>{'url': 'https://genius.com/Rihanna-pour-it-up-lyrics', 'lyrics': "[Chorus]\nThrow it up, throw it up\nWatch it all fall out\nPour it up, pour it up\nThat's how we ball out\nThrow it up, throw it up\nWatch it all fall out\nPour it up, pour it up\nThat's how we ball out\n\n[Verse 1]\nStrip clubs and dolla' bills, I still got mo' money\nPatron shots can I get a refill\nI still got mo' money\nStrippers going up and down that pole\nAnd I still got mo' money\nFour o'clock and we ain't going home, cause I still got mo' money\nMoney make the world go round, I still got mo' money\nBands make your girl go down, I still got mo' money\nLot more where that came from, I still got mo' money\nThe look in your eyes I know you want some\nAnd I still got mo' money...\n\n[Pre-Chorus]\nOh-ohh-ohh, ohh, oh-oh-oh\nAll I see is signs, all I see is dolla' signs\nOh-ohh-ohh, ohh, oh-oh-oh\nMoney on my mind, money, money on my mind\nThrow it, throw it up\nWatch it fall out from the sky\n[Chorus]\nThrow it up, throw it up\nWatch it all fall out\nPour it up, pour it up\nThat's how we ball out\nThrow it up, throw it up\nWatch it all fall out\nPour it up, pour it up\nThat's how we ball out\n\n[Interlude]\nThat's how we ball out\nThat's how we ball out\nThat's how we ball out\n\n[Verse 2]\nValet cost a hundred bill and I still got mo' money\nGold all up in my grill, I still got mo' money\nWho cares how you haters feel and I still got mo' money\nCall Jay up and close a deal, I still got mo' money\nMy fragrance on and they love my smell, I still got mo' money\nSo who cares about what I spend, I still got mo' money\nMy pockets deep and they never end, I still got mo' money\nI'm going dumb with all my friends, I still got mo' money\n\n[Pre-Chorus]\nOh-ohh-ohh, ohh, oh-oh-oh\nAll I see is signs, all I see is dolla' signs\nOh-ohh-ohh, ohh, oh-oh-oh\nMoney on my mind, money, money on my mind\nThrow it, throw it up\nWatch it fall out from the sky\n[Chorus]\nThrow it up, throw it up\nWatch it all fall out\nPour it up, pour it up\nThat's how we ball out\nThrow it up, throw it up\nWatch it all fall out\nPour it up, pour it up\nThat's how we ball out\nThat's how we ball out\nThat's how we ball out\nThat's how we ball out", 'annotations': {'description': '&lt;p&gt;Rihanna’s basically saying that even though you see her spending money, she has more of it and will spend it accordingly.&lt;/p&gt;', 'producers': [{'name': 'J-Bo', 'url': 'https://genius.com/artists/J-bo'}, {'name': 'Mike WiLL Made-It', 'url': 'https://genius.com/artists/Mike-will-made-it'}], 'writers': [{'name': 'J-Bo', 'url': 'https://genius.com/artists/J-bo'}, {'name': 'R. City', 'url': 'https://genius.com/artists/R-city'}, {'name': 'Mike WiLL Made-It', 'url': 'https://genius.com/artists/Mike-will-made-it'}, {'name': 'Rihanna', 'url': 'https://genius.com/artists/Rihanna'}, {'name': 'Timothy Thomas', 'url': 'https://genius.com/artists/Timothy-thomas'}, {'name': 'Theron Thomas', 'url': 'https://genius.com/artists/Theron-thomas'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Calvin-harris-my-way-lyrics', 'lyrics': '[Verse]\nWhy wait to say, at least I did it my way\nLie awake, two faced\nBut in my heart I understand\nI made my move and it was all about you\nNow I feel so far removed\n\n[Chorus]\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\n\n[Post-Chorus]\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, my way, my way\n\n[Verse]\nWhy wait to say, at least I did it my way\nLie awake, two faced\nBut in my heart I understand\nI made my move and it was all about you\nNow I feel so far removed\n[Chorus]\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\n\n[Post-Chorus]\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, my way, my way\n\n[Chorus]\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\nYou were the one thing in my way\n\n[Post-Chorus]\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way\nMy way, oh way, oh way, oh way', 'annotations': {'description': '&lt;p&gt;“My Way” is a tropical house-flavored passionate anthem about getting away from something, likely a relationship. Before the release of the song, Calvin promoted the track as featuring a “mystery artist”, but the vocals ended up being his own.&lt;/p&gt;\n\n&lt;p&gt;This came as a clear contrast to Calvin’s typical collaborations, featuring big names such as &lt;a href="https://genius.com/Calvin-harris-this-is-what-you-came-for-lyrics" rel="noopener" data-api_path="/songs/2463453"&gt;Rihanna&lt;/a&gt;, &lt;a href="https://genius.com/Calvin-harris-pray-to-god-lyrics" rel="noopener" data-api_path="/songs/558081"&gt;Haim&lt;/a&gt;, and &lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;Ellie Goulding.&lt;/a&gt; However, it’s not the first time he’s sung on his own track—he’s done it before on songs like &lt;a href="https://genius.com/Calvin-harris-summer-lyrics" rel="noopener" data-api_path="/songs/383318"&gt;“Summer”&lt;/a&gt;, &lt;a href="https://genius.com/Calvin-harris-faith-lyrics" rel="noopener" data-api_path="/songs/557484"&gt;“Faith”&lt;/a&gt;, and &lt;a href="https://genius.com/Calvin-harris-feel-so-close-lyrics" rel="noopener" data-api_path="/songs/85010"&gt;“Feel So Close.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.iheart.com/news/interview-calvin-harris-on-my-way-15111554/" rel="noopener nofollow"&gt;In an interview with iHeartRadio&lt;/a&gt;, Calvin said the song was about “breaking out of a situation that you thought was a good thing. Then, you’re way more comfortable out of it.” That could refer to his 15-month relationship with &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; that ended just months before this song’s release.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://twitter.com/CalvinHarris/status/776632975115055104" rel="noopener nofollow"&gt;https://twitter.com/CalvinHarris/status/776632975115055104&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'writers': [{'name': 'Calvin Harris', 'url': 'https://genius.com/artists/Calvin-harris'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Fr-david-words-lyrics', 'lyrics': "[Chorus]\nWords don't come easy to me\nHow can I find a way to make you see I love you?\nWords don't come easy\nWords don't come easy to me\nThis is the only way for me to say I love you\nWords don't come easy\n\n[Verse 1]\nWell, I'm just a music man, melodies are so far my best friend\nBut my words are coming out wrong, girl, I reveal my heart to you\nAnd hope that you believe it's true 'cause\n\n[Chorus]\nWords don't come easy to me\nHow can I find a way to make you see I love you?\nWords don't come easy\n\n[Verse 2]\nThis is just a simple song that I've made for you on my own\nThere's no hidden meaning you know when I, when I say I love you, honey\nPlease believe, I really do 'cause\n\n[Chorus]\nWords don't come easy to me\nHow can I find a way to make you see I love you?\nWords don't come easy\n[Bridge]\nIt isn't easy, words don't come easy\n\n[Chorus]\nWords don't come easy to me\nHow can I find a way to make you see I love you?\nWords don't come easy\nDon't come easy to me\nThis is the only way for me to say I love you\nWords don't come easy\nDon't come easy", 'annotations': {'description': '&lt;p&gt;F.R. David’s “Words” is a catchy, slightly plaintive synth-led ballad most recognised song, particularly due to David’s high-pitched singing style, being a one-hit success in 1982.&lt;/p&gt;', 'producers': [{'name': 'Frédéric Leibovitz', 'url': 'https://genius.com/artists/Frederic-leibovitz'}], 'writers': [{'name': 'F.R. David', 'url': 'https://genius.com/artists/Fr-david'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Aerosmith-jaded-lyrics', 'lyrics': "[Verse 1]\nHey, j-j-jaded, you got your mama's style\nBut you're yesterday's child to me\nSo jaded\nYou think that's where it's at\nBut is that where it's supposed to be\nYou're getting it all over me, ex-rated\n\n[Chorus]\nMy, my baby blue\nYeah, I been thinking about you\nMy, my baby blue\nYeah, you're so jaded\nAnd I'm the one that jaded you\n\n[Verse 2]\nHey j-j-jaded, in all its misery\nIt will always be what I love and hated\nAnd maybe take a ride to the other side\nWe're thinking of\nWe'll slip into the velvet glove\nAnd be jaded\n\n[Chorus]\nMy, my baby blue\nYeah, I'm thinking about you\nMy, my baby blue\nYeah, I'm so jaded\nAnd baby, I'm afraid of you\n[Verse 3]\nYour thinking's so complicated\nI've had it all up to here\nBut it's so overrated\nLove and hated\nWouldn't trade it\nLove me jaded\n\n[Instrumental Break]\n\n[Verse 4]\nHey, j-j-jaded\nThere ain't no baby, please\nWhen I'm shooting the breeze with her\nWhen everything you see is a blur\nAnd ecstasy's what you prefer\n\n[Chorus]\nMy, my baby blue\nI'ma talking 'bout you\nMy, my baby blue\nYeah, I've been thinking 'bout you\nMy, my baby blue\nYeah, you're so jaded\n(Baby)\nJaded\n(Baby)\nYou're so jaded\n'Cause I'm the one that jaded you", 'annotations': {'description': '&lt;p&gt;“Jaded” is a song by American hard rock band Aerosmith. It was written by Steven Tyler and Marti Frederiksen. The single was released on December 21, 2000 as the first single from the album Just Push Play. The song was debuted publicly at the American Music Awards and was also played at the halftime show for Super Bowl XXXV in January 2001. It was ranked No. 86 on VH1’s 100 Greatest Songs of the ‘00s.&lt;/p&gt;\n\n&lt;p&gt;“Jaded” became Aerosmith’s final chart hit in most territories. It reached number one on both the US Billboard Mainstream Rock chart and the UK Rock Chart, while reaching the top 10 on the Billboard Hot 100 and in Canada and Scotland. On the UK Singles Chart, the song reached number 13 and became the band’s eighth top-twenty single on that chart. It also reached number 11 in Italy, number 17 in the Netherlands, number 18 in Spain, and charted well in several other European countries and New Zealand.&lt;/p&gt;', 'producers': [{'name': 'Joe Perry', 'url': 'https://genius.com/artists/Joe-perry'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}, {'name': 'Marc Hudson', 'url': 'https://genius.com/artists/Marc-hudson'}, {'name': 'Marti Frederiksen', 'url': 'https://genius.com/artists/Marti-frederiksen'}], 'writers': [{'name': 'Marti Frederiksen', 'url': 'https://genius.com/artists/Marti-frederiksen'}, {'name': 'Steven Tyler', 'url': 'https://genius.com/artists/Steven-tyler'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Billy-idol-la-woman-lyrics', 'lyrics': "[Verse 1]\nWell I met a little babe an hour ago\nWonder which way, which way the wind blow, yeah\n[Another little babe in] a Hollywood bungalow\nI was rockin' little lady In the city of light\n\n[Chorus]\nYeah, I'm just another lost angel, woo\nIn the city of night (Ow!)\nCity of night\nCity of night\nWoah, yeah\nL.A. woman\nL.A. woman\nI said L.A. woman\nL.A. woman\nL.A. woman Sunday afternoon\nL.A. woman Sunday afternoon\nL.A. woman Sunday afternoon\n\n[Verse 2]\nDrive through your suburbs\nInto your blues\nInto your blues, yeah\nInto your blue, blue, blues\nInto your blues\nOh, yeah\n[Verse 3]\nI see your hair is burning, aw\nHills are filled with fire\nIf they say I never loved you\nWell you know they are a liar\nDriving down your freeways\n[Hills and valleys] roam, baby\nI seen it\nCops in cars, topless bars\nNever saw a woman, ha ha qoo\nSo alone\nSo alone\nSaid so alone\nOh yeah\nWhoa\n\n[Guitar Solo]\n\n[Verse 4]\nWine spo-dee-o-dee\nShe drink my wine spo-dee-o-dee okay\nAh wine spo-dee-o-dee\nShe drinkin' wine spo-dee-o-dee  all day\nI took my motorbike out and went for a ride\nSlit the throat of the first babe who lied\nSee it it's twice his size ooh\nWine spo-dee-o-dee all right\nWine spo-dee-o-dee all day\nWine spo-dee-o-dee\nWell she drinkin' wine spo-dee-o-dee\nIt's good for her body\nWine spo-dee-o-dee\n[Chorus]\nAnother lost angel (Angel angel)\nIn the city of night\nCity of night\nCity of night\nCity of light\nWhoa, yeah\nYeah\nL.A, yeah\n\n[Outro]\nCome on\nL.A. woman, come on\nL.A. woman, come on\nL.A. woman, come on\nYeah\nI said you're my woman\nAnd that's right\nI said you're my woman\nAnd I'm right\nI said you're my woman\nAnd that's right\nI said you're my woman\nAnd I'm right\nI said L.A. woman\nAnd that's right", 'annotations': {'description': '&lt;p&gt;“L.A. Woman” is a cover of &lt;a href="https://genius.com/artists/The-doors" rel="noopener" data-api_path="/artists/601"&gt;The Doors&lt;/a&gt;‘ original song. Idol’s version reached #52 on the Billboard Hot 100 in its release in 1990.&lt;/p&gt;', 'producers': [{'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}], 'writers': [{'name': 'Jim Morrison', 'url': 'https://genius.com/artists/Jim-morrison'}, {'name': 'Ray Manzarek', 'url': 'https://genius.com/artists/Ray-manzarek'}, {'name': 'Robby Krieger', 'url': 'https://genius.com/artists/Robby-krieger'}, {'name': 'John Densmore', 'url': 'https://genius.com/artists/John-densmore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Phum-viphurit-hello-anxiety-lyrics', 'lyrics': "[Verse 1]\nHello, Anxiety\nYou've come to keep me company\nTonight, a lonely soul\nI've tried to learn the art of letting go\n\n[Verse 2]\nI'm craving something real\nA kind of rush that I can feel\nThe night is rough you know\nI've cried but I won't dare to let it show\n\n[Pre-Chorus]\nWhat if the world won't bend my way?\nWhat will it take to be happy?\n\n[Chorus]\nHeaven knows you're lost\nBut you'll be fine, yeah, you'll be fine\nHeaven knows we're lost\nThe sun still shines, so we'll be fine\n\n[Instrumental Interlude]\n\n[Verse 3]\nHello, Anxiety\nIt's time we part, I need to sleep\nI'm fine with counting sheep\n[Bridge]\nYou'll be fine, we'll be fine\nYou'll be fine, we'll be fine\nYou'll be fine, we'll be fine\nYou'll be fine, we'll be fine\n\n[Guitar Solo]\n\n[Chorus]\nHeaven knows you're lost\nBut you'll be fine, yeah, you'll be fine\nHeaven knows we're lost\nThe sun still shines, so we'll be fine", 'annotations': {'description': '&lt;p&gt;“Hello, Anxiety” narrates a day in the life of someone who frequently battles against the woes of anxiety and the associated stress that accompanies it. The stages are laid out; There’s a sense of acknowledgement that the feeling is present, as Phum states: “Hello, anxiety"/You’ve come to keep me company.”&lt;/p&gt;\n\n&lt;p&gt;However, after acknowledging the fact that these feelings are likely temporary, Phum recognises the reality that more important issues deserve his attention “The sun still shines, so we’ll be fine”. Furthermore, Phum later dismisses his anxiety, prioritising himself over his emotions “It’s time we part, I need to sleep”.&lt;/p&gt;', 'producers': [{'name': 'Phum Viphurit', 'url': 'https://genius.com/artists/Phum-viphurit'}, {'name': 'RatsRecords', 'url': 'https://genius.com/artists/Ratsrecords'}], 'writers': [{'name': 'Phum Viphurit', 'url': 'https://genius.com/artists/Phum-viphurit'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Maroon-5-maps-lyrics', 'lyrics': "[Verse 1]\nI miss the taste of a sweeter life\nI miss the conversation\nI'm searching for a song tonight\nI'm changing all of the stations\nI like to think that we had it all\nWe drew a map to a better place\nBut on that road, I took a fall\nOh, baby, why did you run away?\n\n[Pre-Chorus]\nI was there for you\nIn your darkest times\nI was there for you\nIn your darkest night\n\n[Chorus]\nBut I wonder, where were you?\nWhen I was at my worst\nDown on my knees\nAnd you said you had my back\nSo I wonder, where were you?\nWhen all the roads you took came back to me\nSo I'm following the map that leads to you\n\n[Post-Chorus]\nThe map that leads to you\nAin't nothing I can do\nThe map that leads to you\nFollowing, following, following to you\nThe map that leads to you\nAin't nothing I can do\nThe map that leads to you\nFollowing, following, following\n[Verse 2]\nI hear your voice in my sleep at night\nHard to resist temptation\n'Cause something strange has come over me\nNow, I can't get over you\nNo, I just can't get over you, ooh\n\n[Pre-Chorus]\nI was there for you\nIn your darkest times\nI was there for you\nIn your darkest night\n\n[Chorus]\nBut I wonder, where were you?\nWhen I was at my worst\nDown on my knees\nAnd you said you had my back\nSo I wonder, where were you?\nWhen all the roads you took came back to me\nSo I'm following the map that leads to you\n\n[Post-Chorus]\nThe map that leads to you\nAin't nothing I can do\nThe map that leads to you\nFollowing, following, following to you\nThe map that leads to you\nAin't nothing I can do\nThe map that leads to you\n[Bridge]\nOh, oh, oh, ah\nOoh, oh, oh, ah\nYeah, yeah, yeah, ah\nAha, ah, mmm, ah\nOh, I was there for you\nOh, in your darkest times\nOh, I was there for you\nOh, in your darkest night\nOh, I was there for you\nOh, in your darkest times\nOh, I was there for you\nOh, in your darkest night\n\n[Chorus]\nBut I wonder, where were you?\nWhen I was at my worst\nDown on my knees\nAnd you said you had my back\nSo I wonder, where were you?\nWhen all the roads you took came back to me\nSo I'm following the map that leads to you\nThe map that leads to you\nAin't nothing I can do\nThe map that leads to you\nFollowing, following, following to you\nThe map that leads to you\nAin't nothing I can do\nThe map that leads to you\nFollowing, following, following", 'annotations': {'description': '&lt;p&gt;“Maps” was released as the lead single from Maroon 5’s fifth studio album, &lt;a href="https://genius.com/albums/Maroon-5/V" rel="noopener" data-api_path="/albums/105603"&gt;&lt;em&gt;V.&lt;/em&gt;&lt;/a&gt;. During it’s release, the song &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6121570/maroon-5-maps-billboard-twitter-chart-trending-140-V" rel="noopener nofollow"&gt;broke records&lt;/a&gt;, logging 1,800 spins on the radio on its first day (or 17 million people listening). After debuting at 14 on the Billboard Hot 100, it peaked at 6, becoming one of three top tens from &lt;em&gt;V&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lyrically, the song talks about searching for a past love. Although Levine’s been there for his lover, his lover hasn’t always been there for him.&lt;/p&gt;', 'producers': [{'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}], 'writers': [{'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}, {'name': 'Adam Levine', 'url': 'https://genius.com/artists/Adam-levine'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Anastacia-im-outta-love-lyrics', 'lyrics': "[Verse 1]\nNow, baby, come on\nDon't claim that love you never let me feel\nI should have known\n'Cause you brought nothing real\nCome on, be a man about it, you won't die\nI ain't got no more tears to cry\nAnd I can't take this no more\nYou know I gotta let it go\nAnd you know\n\n[Chorus]\nI'm outta love, set me free\nAnd let me out this misery\nJust show me the way to get my life again\n'Cause you can't handle me\nSaid I'm outta love, can't you see\nBaby, that you gotta set me free?\nI'm outta love\n\n[Verse 2]\nSaid how many times\nHave I tried to turn this love around?\nBut every time you just let me down\nCome on, be a man about it, you'll survive\nTrue that you can work it out all right\nTell me, yesterday did you know\nI'd be the one to let you go?\nAnd you know\n[Chorus]\nI'm outta love, set me free (set me free)\nAnd let me out this misery (Oh, let me out this misery)\nShow me the way to live my life again\nYou can't handle me\nI'm outta love, can't you see\nBaby, that you gotta set me free\nI'm outta\n\n[Bridge]\nLet me get over you\nThe way you've gotten over me too, yeah\nSeems like my time has come\nAnd now I'm moving on\nI'll be stronger\n\n[Chorus]\nI'm outta love, set me free (set me free)\nAnd let me out this misery\nShow me the way to live my life again\nYou can't handle me (no, no)\nSaid I'm outta love, set me free\nAnd let me out this misery\nShow me the way to get my life again\nYou can't handle me\nSaid I'm outta love, can't you see (can't you see?)\nBaby, that you gotta set me free?\nI'm outta love\nI'm outta love, set me free (no, no, no)\nAnd let me out this misery (out this misery)\nJust show me the way to get my life again\n'Cause you can't handle me (no, no)\nSaid I'm outta love, set me free\nAnd let me out this misery", 'annotations': {'description': "&lt;p&gt;I’m Outta' Love is Anastacia’s most successful song to date. A song addressing moving on from a broken relationship and overcoming emotional turmoil by letting loose and growing stronger.&lt;/p&gt;\n\n&lt;p&gt;This song was Australia’s highest selling single in year 2000 where it peaked at #1 for 5 consecutive weeks and was certified double platinum by the ARIA, having sold 140,000 copies. It was certified platinum in New Zealand after spending an impressive 7 weeks in the #1 position.&lt;/p&gt;", 'producers': [{'name': 'The Runawayz [Louis Biancaniello x Sam Watters]', 'url': 'https://genius.com/artists/The-runawayz-louis-biancaniello-x-sam-watters'}], 'writers': [{'name': 'Anastacia', 'url': 'https://genius.com/artists/Anastacia'}, {'name': 'Sam Watters', 'url': 'https://genius.com/artists/Sam-watters'}, {'name': 'Louis Biancaniello', 'url': 'https://genius.com/artists/Louis-biancaniello'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Daylight Records', 'url': 'https://genius.com/artists/Daylight-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Bodeans-closer-to-free-lyrics', 'lyrics': 'Yeah\nEverybody wants to live how they wanna live and\nEverybody wants to love how they wanna love and\nEverybody wants to be closer to free\n\nAnd yeah yeah yeah\n\nEverybody wants respect\nJust a little bit\nAnd everybody needs a chance once in a while\nEverybody wants to be closer to free\n\nAnd yeah yeah yeah\n\nEverybody one everybody two everybody three\nEverybody needs to touch ya know now and then and\nEverybody wants a good good friend\nEverybody wants to be closer to free\n\nAlright\n\nI said everybody one everybody two everybody free!\nEverybody wants to live like they wanna live\nAnd everybody wants to love like they wanna love\nAnd everybody wants to be closer to free\nYeah closer to free\nYeah closer to free\nCloser to free\nAnd yeah and yeah yeah', 'annotations': {'description': '', 'producers': [], 'writers': [{'name': 'Sam Llanas', 'url': 'https://genius.com/artists/Sam-llanas'}, {'name': 'Kurt Neumann', 'url': 'https://genius.com/artists/Kurt-neumann'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Db-boulevard-point-of-view-lyrics', 'lyrics': "I don't have a cent\nWill I pay my rent?\nAnd even my car doesn't work\nMe and my man?\nHe's the one to die for...\nWe have split up\n\nCan't you see life's easy\nIf you consider things\nFrom another point of view\nAh ah ah ah ah ah\nAh ah\nIn another way\nFrom another point of view\nYe ye ye eheh\nOh oh yeah\nIn another way from\nAnother point of view\n\nI see life and light\nAll the colours of the world\nSo beautiful\nWon't you come with me?\n\nI see birds and trees\nAll the flowers of the world so beautiful\nWon't you come with me?\nCan't you see life's easy\nIf you consider things\nFrom another point of view\nAh ah ah ah ah ah\nAh ah\nIn another way\nFrom another point of view\nYe ye ye eheh\nOh oh yeah\nIn another way from\nAnother point of view\n\n...", 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/5-seconds-of-summer-youngblood-lyrics', 'lyrics': '[Verse 1: Luke]\nRemember the words you told me\n"Love me \'til the day I die"\nSurrender my everything\n\'Cause you made me believe you\'re mine\nYeah, you used to call me baby\nNow you\'re calling me by name\nTakes one to know one, yeah\nYou beat me at my own damn game\n[Pre-Chorus: Luke]\nYou push and you push and I\'m pulling away\nPulling away from you\nI give and I give and I give and you take\nGive and you take\n\n[Chorus: Luke &amp; All]\nYoungblood\nSay you want me, say you want me out of your life\nAnd I\'m just a dead man walking tonight\nBut you need it, yeah, you need it all of the time\nYeah, ooh, ooh, ooh\nYoungblood\nSay you want me, say you want me back in your life\nSo I\'m just a dead man crawling tonight\n\'Cause I need it, yeah, I need it all of the time\nYeah, ooh, ooh, ooh\n[Verse 2: Luke]\nLately our conversations\nEnd like it\'s the last goodbye\nThen one of us gets too drunk\nAnd calls about a hundred times\nSo, who you been calling baby?\nNobody could take my place\nWhen you\'re looking at those strangers\nHope to God you see my face\n\n[Chorus: Luke &amp; All]\nYoungblood\nSay you want me, say you want me out of your life\nAnd I\'m just a dead man walking tonight\nBut you need it, yeah, you need it all of the time\nYeah, ooh, ooh, ooh\nYoungblood\nSay you want me, say you want me back in your life\nSo I\'m just a dead man crawling tonight\n\'Cause I need it, yeah, I need it all of the time\nYeah, ooh, ooh, ooh\n\n[Bridge: Luke]\nYou push and you push and I\'m pulling away\nPulling away from you\nI give and I give and I give and you take\nGive and you take\nYou\'re running around and I\'m running away\nRunning away from you, mmm, from you\n[Chorus: All]\nYoungblood\nSay you want me, say you want me out of your life\nAnd I\'m just a dead man walking tonight\nBut you need it, yeah, you need it all of the time\nYeah, ooh, ooh, ooh\nYoungblood\nSay you want me, say you want me back in your life\nSo I\'m just a dead man crawling tonight\n\'Cause I need it, yeah, I need it all of the time\nYeah, ooh, ooh, ooh\n\n[Outro: All]\nYou push and you push and I\'m pulling away\nPulling away from you\nI give and I give and I give and you take\nGive and you take\nYoungblood\nSay you want me\nSay you want me out of your life\nAnd I\'m just a dead man walking tonight', 'annotations': {'description': '&lt;p&gt;On “Youngblood,” 5SOS sing about the push and pulls of a relationship. In this song, we see 5SOS move further away from their defining sound from previous albums and see the growth and maturity in their songwriting.&lt;/p&gt;\n\n&lt;p&gt;“Youngblood” is the title track from 5SOS\' &lt;a href="https://genius.com/albums/5-seconds-of-summer/Youngblood" rel="noopener" data-api_path="/albums/405224"&gt;third album&lt;/a&gt; released on June 15th, and was an instant grat when you pre-ordered the album on iTunes.&lt;/p&gt;', 'producers': [{'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}], 'writers': [{'name': '\u200bwatt', 'url': 'https://genius.com/artists/Watt'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'Ali Tamposi', 'url': 'https://genius.com/artists/Ali-tamposi'}, {'name': 'Ashton Irwin', 'url': 'https://genius.com/artists/Ashton-irwin'}, {'name': 'Calum Hood', 'url': 'https://genius.com/artists/Calum-hood'}, {'name': 'Luke Hemmings', 'url': 'https://genius.com/artists/Luke-hemmings'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Hi Or Hey Records', 'url': 'https://genius.com/artists/Hi-or-hey-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Yungblud-psychotic-kids-lyrics', 'lyrics': "[Verse 1]\nI see pictures in my head\nA world where the suffering's dead\nAnd they can't fight or unjustly arrest\nAnybody for the color of their body\n\n[Chorus]\nPsychotic kids, they don't know what they want\nPsychotic kids, we've got to keep control of them\n\n[Verse 2]\nDrop a hairdryer into my bath\nShocks like that make me laugh\nIt's fun to laugh when you're sad\nBe happy, come on, let me be happy\n\n[Pre-Chorus]\nWhy do you wanna go turn back time?\nCome and take a ride in my psychotic mind\nWhy do you wanna go turn back time?\nCome and take a ride in my psychotic mind\nWhy do you wanna go turn back time?\nCome and take a ride in my psychotic mind\nWhy do you wanna go turn back time?\nWhy do you wanna go turn back time?\n[Chorus]\nPsychotic kids, they don't know what they want\nPsychotic kids, we've got to keep control of them\nPsychotic kids, they don't know what they want\nPsychotic kids, we've got to keep control of them\n\n[Bridge]\nMy mum thinks I'm on heroin\nAnd my dad just thinks I'm gone\nBut they don't know fucking anything\nSay “youth is wasted on the young”\nMy mum thinks I'm on heroin\nAnd my dad just thinks I'm gone\nBut they don't know fucking anything\nSay “youth is wasted on the young”\nWasted on the young\nWasted on the young\nWasted on the young\nWasted on the young\n\n[Chorus]\nPsychotic kids, they don't know what they want (What they want)\nPsychotic kids, we've got to keep control of them (Control them)\nPsychotic kids, they don't know what they want (What they want)\nPsychotic kids, we've got to keep control of them (Control them)\nWe've got to keep control of them\nWe've got to keep control of them\nPsychotic kids, they don't know what they want", 'annotations': {'description': '&lt;p&gt;This song is in the perspective of Dominic as he goes through his life; he talks about his struggles, suicide, depression, and other mental illnesses and also talks about how the world sees people like that. Being depressed/having mental illnesses must mean you’re a “psycho” in the eyes of adults.&lt;br&gt;\nThis song was released on YouTube on June 11th, 2018 on the YungBlud YouTube channel.&lt;/p&gt;', 'producers': [{'name': 'Matt Schwartz', 'url': 'https://genius.com/artists/Matt-schwartz'}], 'writers': [{'name': 'Matt Schwartz', 'url': 'https://genius.com/artists/Matt-schwartz'}, {'name': 'YUNGBLUD', 'url': 'https://genius.com/artists/Yungblud'}], 'labels': [{'name': 'Locomotion Recordings', 'url': 'https://genius.com/artists/Locomotion-recordings'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/Belinda-carlisle-heaven-is-a-place-on-earth-lyrics', 'lyrics': "[Chorus]\nOoh, baby, do you know what that's worth?\nOoh, heaven is a place on earth\nThey say in heaven love comes first\nWe'll make heaven a place on earth\nOoh, heaven is a place on earth\n\n[Verse 1]\nWhen the night falls down\nI wait for you and you come around\nAnd the world's alive\nWith the sound of kids on the street outside\n\n[Pre-Chorus 1]\nWhen you walk into the room\nYou pull me close and we start to move\nAnd we're spinning with the stars above\nAnd you lift me up in a wave of love\n\n[Chorus]\nOoh, baby, do you know what that's worth?\nOoh, heaven is a place on earth\nThey say in heaven love comes first\nWe'll make heaven a place on earth\nOoh, heaven is a place on earth\n[Verse 2]\nWhen I feel alone\nI reach for you and you bring me home\nWhen I'm lost at sea\nI hear your voice and it carries me\n\n[Pre-Chorus 2]\nIn this world we're just beginning\nTo understand the miracle of living\nBaby, I was afraid before\nBut I'm not afraid anymore\n[Chorus]\nOoh, baby, do you know what that's worth?\nOoh, heaven is a place on earth\nThey say in heaven love comes first\nWe'll make heaven a place on earth\nOoh, heaven is a place on earth\n(Heaven)\n(Heaven)\n(Heaven)\n\n[Pre-Chorus 2]\nIn this world we're just beginning\nTo understand the miracle of living\nBaby, I was afraid before\nBut I'm not afraid anymore\n(Heaven)\n[Chorus]\nOoh, baby, do you know what that's worth?\nOoh, heaven is a place on earth\nThey say in heaven love comes first\nWe'll make heaven a place on earth\nOoh, heaven is a place on earth\nOoh, heaven is a place on earth\nOoh, heaven is a place on earth\nOoh, heaven is a place on earth\nOoh, heaven is a place on earth\nOoh, heaven is a place on earth", 'annotations': {'description': '&lt;p&gt;“Heaven Is a Place on Earth” was the lead single from Belinda Carlisle’s second album, &lt;em&gt;Heaven on Earth&lt;/em&gt;. The single was released in September 1987, shortly before the album, and it reached the top of the charts in at least nine countries.&lt;/p&gt;\n\n&lt;p&gt;The song features &lt;a href="https://genius.com/artists/Thomas-dolby" rel="noopener" data-api_path="/artists/23803"&gt;Thomas Dolby&lt;/a&gt; on keyboards, and among the backing singers were &lt;a href="https://genius.com/artists/Michelle-phillips" rel="noopener" data-api_path="/artists/228136"&gt;Michelle Phillips&lt;/a&gt; (of &lt;a href="https://genius.com/artists/The-mamas-and-the-papas" rel="noopener" data-api_path="/artists/34017"&gt;the Mamas and the Papas&lt;/a&gt;) and the song’s writers, &lt;a href="https://genius.com/artists/Rick-nowels" rel="noopener" data-api_path="/artists/54290"&gt;Rick Nowels&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ellen-shipley" rel="noopener" data-api_path="/artists/663241"&gt;Ellen Shipley&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When Carlisle &lt;a href="https://genius.com/Belinda-carlisle-heaven-is-a-place-on-earth-acoustic-lyrics" rel="noopener" data-api_path="/songs/2110101"&gt;reprised the song&lt;/a&gt; for her 2017 album &lt;a href="https://genius.com/albums/Belinda-carlisle/Wilder-shores" rel="noopener" data-api_path="/albums/383345"&gt;&lt;em&gt;Wilder Shores&lt;/em&gt;&lt;/a&gt;, she slowed the tempo and sang only with piano accompaniment.&lt;/p&gt;', 'producers': [{'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}], 'writers': [{'name': 'Ellen Shipley', 'url': 'https://genius.com/artists/Ellen-shipley'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}], 'labels': [{'name': 'MCA Records', 'url': 'https://genius.com/artists/Mca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Get_Over_You_/_Move_This_Mountain', 'track_name': 'Get Over You', 'artist': 'http://dbpedia.org/resource/Sophie_Ellis-Bextor', 'artist_name': 'Sophie Ellis-Bextor', 'wiki': 'http://en.wikipedia.org/wiki/Get_Over_You_/_Move_This_Mountain', 'abstract': '"Get Over You" and "Move This Mountain" are two songs by British pop singer Sophie Ellis-Bextor. In most countries, "Get Over You" was released as the sole single, but in the United Kingdom, the two tracks were released as a double A-side single on 10 June 2002. The former track was taken off the Read My Lips album reissue, while the latter was an album track in the original album release. The double A-side was Ellis-Bextor\'s third (and to date, final) top-three hit in the United Kingdom, peaking at number three on the UK Singles Chart. "Get Over You" by itself reached the top 10 in Denmark, Spain, Australia, and New Zealand. In the latter two countries, the song was certified Platinum and Gold, respectively. In Europe, the song peaked within the top 20 in Finland, the Netherlands, Norway and Switzerland.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Only_God_Knows_Why', 'track_name': 'Only God Knows Why', 'artist': 'http://dbpedia.org/resource/Kid_Rock', 'artist_name': 'Kid Rock', 'wiki': 'http://en.wikipedia.org/wiki/Only_God_Knows_Why', 'abstract': '"Only God Knows Why" is a song by American musician Kid Rock. It was recorded in 1998 for his album Devil Without a Cause, on which it features as the eleventh track. The song was the first recorded ballad on record by Kid Rock. It was a weary road ballad in which the first four lines were written while he was in jail after a bar fight after signing to Atlantic Records in 1997. It is notable for its heavy use of Auto-Tune. The song was released as a single in 1999 and peaked at number 19 on the Billboard Hot 100, eventually ranking at number 67 on the Billboard Year-End Hot 100 for 2000. VH1 named it the 19th greatest power ballad in 2002. Outlaw country singer David Allan Coe released a live cover version on his release Live at Billy Bob\'s in 2003.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Animal_(Neon_Trees_song)', 'track_name': 'Animal', 'artist': 'http://dbpedia.org/resource/Neon_Trees', 'artist_name': 'Neon Trees', 'wiki': 'http://en.wikipedia.org/wiki/Animal_(Neon_Trees_song)', 'hometown': 'http://dbpedia.org/resource/Provo,_Utah', 'abstract': '"Animal" is a song by American rock band Neon Trees. It was released as their debut single on March 16, 2010, also acting as the lead single from their debut studio album, Habits (2010). It reached number 13 on the US Billboard Hot 100 and number 29 in Canada. The song reached number one on the Billboard Alternative Songs chart after 32 weeks, making "Animal" their first number-one song on a Billboard chart. This also broke the record for the longest-length of time for a song to get to the top of that list after entering. The song reached number two on the Billboard Rock Songs chart. On May 22, 2011, the song won Top Alternative Song at the 2011 Billboard Music Awards. It was certified Double Platinum by the Recording Industry Association of America in December 2011.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Paper_Planes_(M.I.A._song)', 'track_name': 'Paper Planes', 'artist': 'http://dbpedia.org/resource/M.I.A._(rapper)', 'artist_name': 'M.I.A.', 'wiki': 'http://en.wikipedia.org/wiki/Paper_Planes_(M.I.A._song)', 'abstract': '"Paper Planes" is a song written and recorded by British hip hop artist M.I.A. for her second studio album, Kala (2007). Produced and co-written by her and Diplo, the song features an interpolation of English rock band the Clash\'s 1982 song "Straight to Hell", leading to its members being credited as co-writers. A downtempo alternative hip hop track combining African folk music elements, the song has a less dance-oriented sound compared to other songs on the album. Its lyrics, inspired by M.I.A.\'s own problems obtaining a visa to work in the US, satirise American perceptions of immigrants from Third World nations. "Paper Planes" was released in February 2008 as the album\'s third single by XL Recordings in Europe and Interscope Records in the US. The accompanying music video, filmed in Bedford-Stuyvesant, depicts M.I.A. as an undercover dealer and features images of paper planes flying overhead. While the video proved popular on MTV, the network censored the song\'s cannabis reference and gunshot sounds, which disappointed M.I.A. The song was M.I.A.\'s biggest commercial success, entering the top 20 on charts in several countries including Denmark and the UK. It peaked at number four on the US Billboard Hot 100, becoming MIA’s first top 10 hit at the time. The song was certified multi-platinum in Canada and the US, platinum in the UK and gold in New Zealand. The unexpected success of "Paper Planes" paralleling M.I.A.\'s condemnations of the Sri Lankan government\'s acts of genocide against the Tamils, with whom M.I.A. shares ethnic and cultural backgrounds, generated accusations of her supporting terrorism. The song received widespread acclaim from contemporary critics, who complimented its musical direction and the subversive, unconventional subject matter. It won awards from the Canadian Independent Music Awards and the American Society of Composers, Authors and Publishers (ASCAP), and earned a Grammy nomination for Record of the Year. The song has received praise in publications such as NME, Pitchfork and Rolling Stone, each naming it among either the best songs of the 2000s decade or of all time.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Word_Up!_(song)', 'track_name': 'Word Up!', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Word_Up!_(song)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Word Up!" is a funk and R&amp;B song originally recorded by American funk band Cameo in 1986. The song was written by band members Larry Blackmon and Tomi Jenkins. Its frequent airing on American dance, R&amp;B, and contemporary hit radio, as well as its MTV music video (in which LeVar Burton appears as a police detective trying to arrest the band), helped the single become the band\'s best known hit.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Carrie_(Europe_song)', 'track_name': 'Carrie', 'artist': 'http://dbpedia.org/resource/Europe_(band)', 'artist_name': 'Europe', 'wiki': 'http://en.wikipedia.org/wiki/Carrie_(Europe_song)', 'hometown': 'http://dbpedia.org/resource/Upplands_Väsby', 'abstract': '"Carrie" is a power ballad by the Swedish rock band Europe released in 1987. It was the third single released internationally from the album The Final Countdown, and it is their highest-charting song on the Billboard Hot 100 chart—peaking at #3 (#1 on the Radio and Records chart) during the fall of 1987. It also reached #36 on the Billboard Adult Contemporary chart. The track on the B-side of the 7" single was "Love Chaser". The song was written by Joey Tempest and Mic Michaeli in 1985. An early version of the song that consisted of just keyboards and vocals, was played on a tour in Sweden the same year. The demo version was similar, but the final version that was included on the album The Final Countdown included the whole band playing. On Europe tours following the band\'s reunion in 2003, an acoustic version of "Carrie" has been played, with Tempest performing the song on an acoustic guitar. In recent years, however, the band has switched back to the arrangement of the album version. A performance of the acoustic version can be found on the Live from the Dark DVD and a performance of the album version can be found on the Live at Shepherd\'s Bush, London DVD.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Original_Prankster', 'track_name': 'Original Prankster', 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/Original_Prankster', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"Original Prankster" is a song by American rock band the Offspring. It is featured as the third track from their sixth studio album, Conspiracy of One, and was released as its first single on October 10, 2000. The song features additional vocals by Redman and is included on the band\'s 2005 Greatest Hits album. Prior to the release of Conspiracy of One, The Offspring distributed the track for free as a downloadable MP3 file on their official website. A competition was held, featuring a prize of $1 million (USD), which was awarded to a randomly selected participant who downloaded the song. "Original Prankster" reached the top 10 in several countries, including Australia, Sweden, and the United Kingdom, and went to the top 10 on the US and Canadian rock charts. The single went Platinum in Australia in 2001, becoming the third song by The Offspring to reach Platinum status in that country after "Pretty Fly (for a White Guy)" and "Why Don\'t You Get a Job?."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Ordinary_World_(song)', 'track_name': 'Ordinary World', 'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Ordinary_World_(song)', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Ordinary World" is the first single from Duran Duran\'s self-titled 1993 album, commonly known as The Wedding Album. The single reached No. 1 on the US Billboard Mainstream Top 40, the Canadian RPM Top Singles chart and the Italian Singles Chart. It also peaked at No. 3 on the Billboard Hot 100, No. 2 in Iceland and Sweden and No. 6 on the UK Singles Chart. The song won an Ivor Novello Award in May 1994. Lead vocalist Simon Le Bon sang the song with Luciano Pavarotti at a benefit concert for War Child.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Feel_It_Still', 'track_name': 'Feel It Still', 'artist': 'http://dbpedia.org/resource/Portugal._The_Man', 'artist_name': 'Portugal. The Man', 'wiki': 'http://en.wikipedia.org/wiki/Feel_It_Still', 'hometown': 'http://dbpedia.org/resource/Wasilla,_Alaska', 'abstract': '"Feel It Still" is a song by American rock band Portugal. The Man. The song, which interpolates the Marvelettes\' 1961 hit "Please Mr. Postman", was written by the band along with John Hill and Asa Taccone, with the latter two serving as producers. It serves as the second single and first radio single off their eighth studio album, Woodstock. The song reached number one on the US Alternative Songs, Mexican and Russian Tophit airplay chart. It was also their first entry on the US Billboard Hot 100, becoming a sleeper hit, as it took eight months to peak at number four in November 2017. The track reached the top 10 in 18 countries including Australia, Belgium, Canada, France, Germany, Ireland, New Zealand, Norway, Portugal, Slovenia, Spain, Switzerland, the United Kingdom and the United States. In January 2018, the song won the Best Pop Duo/Group Performance at the 60th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Wake_Me_Up_(Avicii_song)', 'track_name': 'Wake Me Up', 'artist': 'http://dbpedia.org/resource/Avicii', 'artist_name': 'Avicii', 'wiki': 'http://en.wikipedia.org/wiki/Wake_Me_Up_(Avicii_song)', 'abstract': '"Wake Me Up" is a song by Swedish DJ and record producer Avicii, released as the lead single from his debut studio album True, released on CD by PRMD Music and Island Records on 17 June 2013. "Wake Me Up" was written by Avicii, Mike Einziger, and American soul singer Aloe Blacc. Aloe Blacc also provides vocals for the track and Mike Einziger of Incubus provides acoustic guitar. Peter Dyer also provides keyboard on the song. Avicii introduced "Wake Me Up!" for the first time live on stage at the Ultra Music Festival in Miami. The experimental rendering (it was accompanied by a live band with instruments and vocalists, including Blacc, Einziger and Incubus members Ben Kenney on bass and José Pasillas on drums) reportedly confused and angered a section of the electronic dance festival community. Subsequently, Avicii achieved critical and commercial success with the release of the single worldwide. Avicii\'s \'Wake Me Up\' has been named as the highest charting dance track of the decade (2010-2019), sitting at No. 13 in the 100-strong list from the official UK Singles Chart. It is the only song to crack the Billboard Decade-End without making the top 3 during any week. "Wake Me Up" peaked at number one in much of Europe and charted well in various countries. The song has been described as a "summer anthem" by Variance Magazine and, throughout the 2013 festival season, Avicii included it as part of the opening or closing sequence of his sets at EDC Las Vegas, EDC London, Tomorrowland, Creamfields, Electric Zoo and the iTunes Festival. Due to the success of the song, Blacc later released an acoustic version of "Wake Me Up" in his solo EP Wake Me Up. It was also released as a promotional stand-alone single on Interscope Records, made available online for downloads via iTunes. A separate music video was also made. The Blacc single also charted in its own right in various charts.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Kryptonite_(3_Doors_Down_song)', 'track_name': 'Kryptonite', 'artist': 'http://dbpedia.org/resource/3_Doors_Down', 'artist_name': '3 Doors Down', 'wiki': 'http://en.wikipedia.org/wiki/Kryptonite_(3_Doors_Down_song)', 'hometown': 'http://dbpedia.org/resource/Escatawpa,_Mississippi', 'abstract': '"Kryptonite" is the debut single of American rock band 3 Doors Down. It was originally released as a demo for local play by 97.9 WCPR-FM in Biloxi, Mississippi. It was picked up by several radio stations during November and December 1999 and was officially serviced to radio on January 18, 2000. The song first charted on the US Mainstream Rock Tracks chart, reaching number one for nine weeks, then hit number one on the Modern Rock Tracks chart for 11 weeks. It also reached number one on the Mainstream Top 40 chart for five non-consecutive weeks, number four on the Adult Top 40 chart, and number three on the Billboard Hot 100, the band\'s highest-charting single on the listing.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Break_Your_Heart', 'track_name': 'Break Your Heart', 'artist': 'http://dbpedia.org/resource/Taio_Cruz', 'artist_name': 'Taio Cruz', 'wiki': 'http://en.wikipedia.org/wiki/Break_Your_Heart', 'abstract': '"Break Your Heart" is a song by British singer and songwriter Taio Cruz. The song serves as the lead single from his second studio album, Rokstarr (2009). It was written by Cruz and Fraser T Smith and produced by Smith. It was first released in the United Kingdom on 20 September 2009, followed by a release in the United States and other markets on 2 February 2010. The single version features US rapper Ludacris; that version was the single released in North American countries. The song, originally penned for Cheryl Cole, is an electropop song with dance-pop elements, accompanied by Cruz\'s Auto-Tuned vocals. The song is lyrically a warning to someone about being a heartbreaker. The song received mixed to positive reviews, critics commending its infectious sound, but noting that it was generic. The single entered at the top of the UK Singles Chart. Outside the United Kingdom, "Break Your Heart" topped the charts in Canada, Switzerland and the United States, and also within the top ten of the charts in many other countries, including Australia and the Netherlands. The accompanying music video features several scenes of Cruz on escapades with different women, including a speedboat compared to classic Diddy and a club scene with Ludacris in the US version.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/My_Own_Worst_Enemy_(song)', 'track_name': 'My Own Worst Enemy', 'artist': 'http://dbpedia.org/resource/Lit_(band)', 'artist_name': 'Lit', 'wiki': 'http://en.wikipedia.org/wiki/My_Own_Worst_Enemy_(song)', 'hometown': 'http://dbpedia.org/resource/Orange_County,_California', 'abstract': '"My Own Worst Enemy" is a song by the American rock band Lit. It was released in March 1999 as the lead single from Lit\'s second album, A Place in the Sun, which was also released that year. The song was only moderately successful at first, reaching number 17 on the Modern Rock Tracks chart on February 27, 1999. It later achieved mainstream success, peaking at number 51 on the Billboard Hot 100 chart and number one on the Modern Rock Tracks (also known as Alternative Songs) chart. The song\'s success helped A Place in the Sun to be certified platinum by the Recording Industry Association of America (RIAA) on October 27, 1999, for sales of 1,300,000 copies in the United States. At the 1999 Billboard Music Awards, "My Own Worst Enemy" won the Modern Rock Track of the Year award. Its music video was filmed by Gavin Bowden in a Long Beach bowling alley. That alley was Java Lanes on P.C.H. It was inside the Famous Tiki Bar which was the home of DiPiazza\'s Restaurant. Considered pop punk, power pop and alternative rock, "My Own Worst Enemy" is, according to Lit guitarist Jeremy Popoff, "the result of waking up and realizing you screwed up the night before". Vocalist A. Jay Popoff said that the song "was the combination of many, many incidents"; he had gotten in trouble with the law for public nudity in the late 1990s, and sang "My Own Worst Enemy" nude in the studio. Popoff described a New Year\'s when the band got drunk in Laughlin, Nevada; he stole a janitor\'s cart, and he "and five friends jumped onto the flatbed, rode down the sidewalk, and got chased by the cops".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Dirrty', 'track_name': 'Dirrty', 'artist': 'http://dbpedia.org/resource/Christina_Aguilera', 'artist_name': 'Christina Aguilera', 'wiki': 'http://en.wikipedia.org/wiki/Dirrty', 'abstract': '"Dirrty" is a song recorded by American singer-songwriter Christina Aguilera featuring American rapper Redman, released as the lead single from her fourth studio album Stripped. Despite Aguilera\'s first three years of commercial success, she was displeased with the lack of control over her image. In response, she desired to create a song that would represent her authentic persona. She approached hip hop producer Rockwilder and suggested using Redman\'s 2001 song "Let\'s Get Dirty (I Can\'t Get in da Club)" as a guide. The final result, "Dirrty", is an R&amp;B and hip hop song that also features rapping verses from Redman and describes sexual activities. RCA Records sent "Dirrty" to American radio stations in September 3, 2002, as the lead single from Stripped. RCA and Bertelsmann Music Group later released the song as a CD single. The song peaked at number 48 on the US Billboard 100. Outside of the United States, "Dirrty" saw significant success in the British Isles, topping the charts in both the Republic of Ireland and the United Kingdom. Elsewhere, the song peaked within the top 10 of the charts in countries including Australia, Denmark, the Netherlands, and Switzerland. David LaChapelle directed the music video for "Dirrty", which was intended to publicize Aguilera\'s new image. Depicting sexual fetishes such as mud wrestling and muscle worshipping, the controversial video eliminated her previous image as a bubblegum pop singer. Various news publications and other recording artists criticized the video, and it was banned on Thai television due to its sexual content, but Aguilera defended the video, calling it inspirational as it put her to the forefront. "Dirrty" was included on the setlists of Aguilera\'s four major concert tours: the Justified and Stripped Tour (2003), the Stripped Tour (2003), Back to Basics Tour (2006–2008), and the Liberation Tour (2018).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Liar_(Camila_Cabello_song)', 'track_name': 'Liar', 'artist': 'http://dbpedia.org/resource/Camila_Cabello', 'artist_name': 'Camila Cabello', 'wiki': 'http://en.wikipedia.org/wiki/Liar_(Camila_Cabello_song)', 'abstract': '"Liar" is a song by American singer Camila Cabello, from her second studio album Romance (2019). The pop song was written by Cabello, Ali Tamposi, Andrew Watt, Jon Bellion, Jordan Johnson, Stefan Johnson, Lionel Richie, Jenny Berggren, Jonas Berggren, Malin Berggren, and Ulf Ekberg. Production was handled by Watt, The Monsters &amp; Strangerz and Bellion. It was released by Epic Records and Syco Music as a double single with "Shameless" on September 5, 2019. "Liar" consists of trumpets, bass drums and horns, and contains samples of Richie\'s 1983 song "All Night Long (All Night)" and Ace of Base\'s 1992 song "All That She Wants". The lyrics depict Cabello\'s rekindled emotions for a former partner. "Liar" peaked at number 21 on the UK Singles Chart, number 31 on the Australian ARIA Singles Chart, and at number 52 on the US Billboard Hot 100. It was certified platinum in Australia, Brazil, Canada, Norway, Poland, and the United States. An accompanying music video was directed by Dave Meyers and depicts Cabello trapped inside a time loop sequence. The time loop was compared to Groundhog Day (1993) and Russian Doll (2019), while the music video itself was compared to Inception (2010). Cabello performed the song at several televised events.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/The_Miracle_(of_Joey_Ramone)', 'track_name': 'The Miracle (of Joey Ramone)', 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': 'http://en.wikipedia.org/wiki/The_Miracle_(of_Joey_Ramone)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'abstract': '"The Miracle (of Joey Ramone)" is a song by Irish rock band U2. It is the opening track from their thirteenth studio album, Songs of Innocence, and was released as its lead single. It was produced by Danger Mouse, Paul Epworth, and Ryan Tedder. It was first unveiled by the band during their performance at an Apple Inc. product launch event on 9 September 2014, coinciding with an announcement that Songs of Innocence would be released digitally to iTunes Store customers free of charge. The song\'s title refers to American musician Joey Ramone, lead singer of influential punk rock band the Ramones.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/It's_No_Good", 'track_name': "It's No Good", 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': "http://en.wikipedia.org/wiki/It's_No_Good", 'hometown': 'http://dbpedia.org/resource/Basildon', 'abstract': '"It\'s No Good" a song by English electronic music band Depeche Mode, released on 31 March 1997 as the second single from their ninth studio album, Ultra (1997). It was commercially successful, reaching number-one in Denmark, Spain, Sweden and on the US Billboard Hot Dance Club Play chart. Additionally, it managed to climb into the Top 10 in Finland, Germany, Iceland, Italy, Scotland and the UK, where it peaked at number five. On 15 May 1997, the band went on The Tonight Show with Jay Leno and performed the song, a recording made available at the official Depeche Mode website. The B-side is an instrumental, called "Slowblow". It was the last actual B-side from the Ultra era, making the album the only one by Depeche Mode to not have a non-remix/non-live vocal B-side track (Although if you exclude non-exclusive songs, Black Celebration can count as well).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Freak_on_a_Leash', 'track_name': 'Freak on a Leash', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Freak_on_a_Leash', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'abstract': '"Freak on a Leash" is a song by the American nu metal band Korn, featured on the group\'s 1998 studio album, Follow the Leader. Prior to the album\'s release, Korn had an instrumental section of the song, described as a "noisy guitar break." The section was taken out of the song after they learned that radio stations disliked it. After Follow the Leader\'s release, the song was released as a single on February 25, 1999, and since then, it has been re-released over ten times. The song uses dissonance, distortion, various guitar effects, and a heavy, aggressive style. The "Freak on a Leash" music video was released on February 5, 1999. Directed by Todd McFarlane in Los Angeles, California, the video explores both animations and live performances mixed together. As a result, the band released a music video that won three awards and was retired from Total Request Live. The single peaked at number six on the Alternative Songs chart, 10 on the Mainstream Rock Songs chart, and 24 on the UK Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Bet_You_Look_Good_on_the_Dancefloor', 'track_name': 'I Bet You Look Good on the Dancefloor', 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/I_Bet_You_Look_Good_on_the_Dancefloor', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"I Bet You Look Good on the Dancefloor" is a song by English rock band Arctic Monkeys. The song was released through Domino Recording Company as the band\'s first single from their debut studio album, Whatever People Say I Am, That\'s What I\'m Not (2006). It debuted at number one on the UK Singles Chart on 23 October 2005, and remains one of the band\'s best-known songs. Arctic Monkeys performed the track at the opening ceremony of the 2012 Summer Olympics. The song was ranked at number 7 on NME\'s list of The 500 Greatest Songs of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Flashdance..._What_a_Feeling', 'track_name': 'Flashdance...What a Feeling', 'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Flashdance..._What_a_Feeling', 'abstract': '"Flashdance... What a Feeling" is a song from the 1983 film Flashdance with music by Giorgio Moroder and lyrics by Keith Forsey and the song\'s performer, Irene Cara. Moroder had been asked to score the film, and Cara and Forsey wrote most of the lyrics after they were shown the last scene from it in which the main character dances at an audition for a group of judges. They felt that the dancer\'s ambition to succeed could act as a metaphor for achieving any dream a person has and wrote lyrics that described what it feels like when music inspires someone to dance. The song wound up being used for the scene they watched as well as during the opening credits as the main character is shown working as a welder. Their collaboration was the first single to be released from the soundtrack album and received positive reviews. Because Flashdance was going to be released in mid-April of that year, Casablanca Records made the single available in March as a way of marketing the film to the target audience. The unexpected success at the box office resulted in stores across the US selling out of both the single and its parent album just days after Flashdance was in theaters. The song spent six weeks at number one on the Billboard Hot 100 and topped the charts around the world. It was awarded Gold certification by the Recording Industry Association of America for sales of one million copies and won the Academy Award and Golden Globe for Best Original Song and earned Cara the Grammy Award for Best Female Pop Vocal Performance. The success of the song made it clear to Cara that she was not receiving royalties that were stipulated in her recording contract, and she took legal action against her label in order to be compensated. The backlash that she claims she suffered in retaliation for filing a lawsuit left her feeling shut out of the entertainment industry as she struggled to find work. Although she began receiving royalties for the recordings she made for them, the label and its owner declared bankruptcy and claimed that they were unable to pay her the $1.5 million settlement she was awarded by a Los Angeles Superior Court.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Bad_Romance', 'track_name': 'Bad Romance', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Romance', 'abstract': '"Bad Romance" is a song and lead single by American singer Lady Gaga from her third EP, The Fame Monster (2009). It was written and produced by Nadir "RedOne" Khayat and Lady Gaga. Lyrically, "Bad Romance" explores Gaga\'s attraction to individuals with whom romance never works, her preference for lonely relationships and the paranoia she experienced while on tour. Following an illegal demo leak, Gaga showcased the final product at Alexander McQueen\'s show at the Paris Fashion Week in October 2009, followed by the release of the single\'s cover art. Musically, "Bad Romance" features a spoken bridge, a full-throated chorus and sung lyrics about being in love with one\'s best friend. The song, which is imbued with elements of German-esque house and techno, as well as music from the 1980s and 1990s, was touted by Gaga as an experimental pop record. During the bridge Gaga sings a part of the chorus ("I want your love and I want your revenge") in French. Most commentators praised "Bad Romance", calling it one of the highlights of the album. It was included in the \'best-of\' lists in several media outlets such as Rolling Stone and Pitchfork, and won two Grammy Awards for Best Female Pop Vocal Performance and Best Short Form Music Video. In 2021, Rolling Stone included it at number 482 in their updated list of the 500 Greatest Songs of All Time. In the US, "Bad Romance" peaked at number two on the Billboard Hot 100, and it has been certified 11-times platinum by the Recording Industry Association of America (RIAA), having sold 5.9 million digital downloads as of February 2019. It topped the charts in more than 20 countries and sold 12 million copies worldwide, becoming one of the best-selling singles of all time. The accompanying music video of "Bad Romance" features Gaga inside a surreal white bathhouse. There, she gets kidnapped by a group of supermodels who drug her and sell her to the Russian mafia for sexual slavery. The video ends with Gaga burning alive the man who bought her. It garnered massive acclaim from critics, who complimented the risqué and symbolic nature of the plot, as well as its artistic direction and vivid imagery. It was chosen as the best music video of the 21st century by Billboard. At the 2010 MTV Video Music Awards, it was nominated for ten awards, where Gaga won seven, including Video of the Year. Gaga has performed "Bad Romance" on various television programs, such as Saturday Night Live and The Jay Leno Show, the 2009 American Music Awards, her concert tours and residency shows, and at the Super Bowl LI halftime show.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Just_Can't_Get_Enough_(Depeche_Mode_song)", 'track_name': "Just Can't Get Enough", 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': "http://en.wikipedia.org/wiki/Just_Can't_Get_Enough_(Depeche_Mode_song)", 'hometown': 'http://dbpedia.org/resource/Basildon', 'abstract': '"Just Can\'t Get Enough" is a song by the English electronic music band Depeche Mode. It was their third single, released in September 1981, a month before the release of their debut album, Speak and Spell. It was recorded during the summer of that year at Blackwing Studios, and was the band\'s first single to be released in the United States, on 18 February 1982. A riff-driven synthpop song, "Just Can\'t Get Enough" was the final single to be written by founding member Vince Clarke, who left the band in November 1981. The single version of "Just Can\'t Get Enough" is the same version that appears on the UK version of Speak and Spell. The 12" single featured a "Schizo Mix", which is an extended version with additional synth parts adding a sinister feel to the track. This version appears on the US version of Speak and Spell, the UK re-release of Speak and Spell, the re-release of The Singles 81→85 and Remixes 81–04. In addition, the single\'s B-side, "Any Second Now", was the first commercially available Depeche Mode instrumental. It shows up on the UK rerelease of Speak and Spell. A version including vocals (the first Depeche Mode vocals to be handled by Martin Gore) appeared on the album as "Any Second Now (Voices)". There is also an extended version, the "Altered" Mix. In the United States, the B-side is "Tora! Tora! Tora!". On the album, "Tora! Tora! Tora!" is crossfaded with the previous track, "Photographic", but on the single, the introduction is clean. The single reached number 8 on the UK Singles Chart and number 26 on the US Hot Dance Club Play chart, making it their highest-charting single at the time on both counts. It also became the band\'s first (and biggest) hit in Australia, reaching number 4.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Outtathaway!', 'track_name': 'Outtathaway!', 'artist': 'http://dbpedia.org/resource/The_Vines_(band)', 'artist_name': 'The Vines', 'wiki': 'http://en.wikipedia.org/wiki/Outtathaway!', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': '"Outtathaway!" is the third single by Australian alternative rock band the Vines from their debut album Highly Evolved. It was released in Australia as a radio edit single via Engine Room Music/EMI on 18 November 2002, which peaked at No. 38 on the ARIA Singles Chart. It is the Vines\' highest charting single and was written by the group\'s lead singer and guitarist, Craig Nicholls. The song was used in the feature film, Bruce Almighty (May 2003), but was not included on the official movie soundtrack album.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Sovereign_Light_Café', 'track_name': 'Sovereign Light Café', 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/Sovereign_Light_Café', 'abstract': '"Sovereign Light Café" is a song by English alternative rock band Keane released as the third single from their fourth studio album, Strangeland. The band played the song for first time during the Perfect Symmetry World Tour on 17 September 2009 in Thunder Bay Ontario. The band announced on their official website: "With Strangeland sitting atop the UK album chart for a second week, we\'re pleased to report that the next single to be taken from the album will be Sovereign Light Café, which is released on 16th July". The song is written with inspiration drawn from the town of Bexhill-on-Sea in East Sussex, where the café is located in real life, and also the town of Battle, where many of the roads mentioned are close to where the members of Keane grew up.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/This_Is_How_We_Do_It', 'track_name': 'This Is How We Do It', 'artist': 'http://dbpedia.org/resource/Montell_Jordan', 'artist_name': 'Montell Jordan', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_How_We_Do_It', 'abstract': '"This Is How We Do It" is the debut single by American singer Montell Jordan. It was released by Def Jam Recordings on February 6, 1995 as the lead single from his debut album, also titled This Is How We Do It. The single was Def Jam\'s first R&amp;B release. The song is representative of the hip hop soul style popular at the time. The song featuring Jordan singing over an enhanced sample of Slick Rick\'s "Children\'s Story" which in turn samples Bob James\' "Nautilus". "This Is How We Do It" peaked at number one on the Billboard Hot 100 on April 15, 1995, rising from number six the previous week and displacing Madonna\'s "Take a Bow" from the top spot. It remained at number one for seven consecutive weeks. It was also number one for seven weeks on the R&amp;B singles chart. The single sold one million copies domestically and earned a platinum certification from the RIAA. The song earned Jordan a Grammy Award nomination for Best Male R&amp;B Vocal Performance at the 38th Annual Grammy Awards. The same year, the song was named Best R&amp;B 12-inch at the International Dance Music Awards in Miami.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Kitty_(song)', 'track_name': 'Kitty', 'artist': 'http://dbpedia.org/resource/The_Presidents_of_the_United_States_of_America_(band)', 'artist_name': 'The Presidents of the United States of America', 'wiki': 'http://en.wikipedia.org/wiki/Kitty_(song)', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': '"Kitty" is a song by the American alternative rock band The Presidents of the United States of America. The song, along with "Lump", and "Peaches", helped propel their self-titled debut album to a multi-platinum level. "Kitty" had originally appeared on the demo tape Froggystyle. This version was entitled "Kitty at My Foot". According to Dave Dederer, the song was based "as far as I know" on a true story about "a bad little cat that lived in some apt. [apartment] Chris shared with some folks in Boston".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Walking_on_Sunshine_(Katrina_and_the_Waves_song)', 'track_name': 'Walking on Sunshine', 'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Walking_on_Sunshine_(Katrina_and_the_Waves_song)', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'abstract': '"Walking on Sunshine" is a song written by Kimberley Rew for Katrina and the Waves\' 1983 eponymous debut full-length album. The re-recorded version was at first released on the band\'s 1985 self-titled album as the album\'s second single and reached No. 4 in Australia, No. 9 in the United States, and No. 8 in the United Kingdom. It was the Waves\' first US top 40 hit, and their biggest success in the United Kingdom until "Love Shine a Light" (1997). Originally conceived of as a ballad, Katrina Leskanich decided to belt the song out as a more upbeat song. In a 2012 interview, however, Leskanich denied this, saying, "Nope, never. Never a ballad. In fact, the original [1983 version] is much faster."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Smooth_(Santana_song)', 'track_name': 'Smooth', 'artist': 'http://dbpedia.org/resource/Santana_(band)', 'artist_name': 'Santana', 'wiki': 'http://en.wikipedia.org/wiki/Smooth_(Santana_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Smooth" is a collaboration between Latin rock band Santana and Matchbox Twenty vocalist Rob Thomas. The song was written by Itaal Shur and Thomas, produced by Matt Serletic, and sung by Thomas. In the United States, it topped the Billboard Hot 100 for 12 weeks; it was the final number-one hit of the 1990s and the first number-one hit of the 2000s. "Smooth" is the only song to appear on two decade-end Billboard charts. In 2018 "Smooth" was ranked the second most successful song ever in Billboard\'s 60th anniversary all-time top 100 songs. It won three Grammy Awards: Record of the Year, Song of the Year, and Best Pop Collaboration with Vocals. The song reached number one in Canada and the top 10 in Australia, Austria, Ireland and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/You_Should_Be_Dancing', 'track_name': 'You Should Be Dancing', 'artist': 'http://dbpedia.org/resource/Bee_Gees', 'artist_name': 'Bee Gees', 'wiki': 'http://en.wikipedia.org/wiki/You_Should_Be_Dancing', 'abstract': '"You Should Be Dancing" is a song by the Bee Gees, from the album Children of the World, released in 1976. It hit No. 1 for one week on the American Billboard Hot 100, No. 1 for seven weeks on the US Hot Dance Club Play chart, and in September the same year, reached No. 5 on the UK Singles Chart. The song also peaked at No. 4 on the Billboard Soul chart. It was this song that first launched the Bee Gees into disco. It was also the only track from the group to top the dance chart. It is also one of six songs performed by the Bee Gees included in the Saturday Night Fever movie soundtrack which came out a year later.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Outside_(Calvin_Harris_song)', 'track_name': 'Outside', 'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/Outside_(Calvin_Harris_song)', 'abstract': '"Outside" is a song by Scottish DJ and record producer Calvin Harris, featuring English singer Ellie Goulding, from Harris\'s fourth studio album, Motion (2014). It was released on 20 October 2014 as the album\'s fourth single. The song also appears on the deluxe edition of Goulding\'s third studio album, Delirium (2015). "Outside" marks the second collaboration between Harris and Goulding, following the single "I Need Your Love" (2013).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Oops!..._I_Did_It_Again_(song)', 'track_name': 'Oops! … I Did It Again (Lied)', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Oops!..._I_Did_It_Again_(song)', 'abstract': '"Oops!... I Did It Again" is a song by American singer Britney Spears from her second studio album of the same name (2000). It was released on April 11, 2000, by Jive Records as the lead single from the album. It was written and produced by Max Martin and Rami Yacoub. Lyrically, the song refers to a female who views love as a game, and she decides to use that to her advantage by playing with her lover\'s emotions. Its bridge features a dialogue which references the 1997 film Titanic. Upon its release, "Oops!... I Did It Again" received positive reviews from music critics, who noted similarities to Spears\' debut single "...Baby One More Time". It was nominated for Best Female Pop Vocal Performance at the 43rd Annual Grammy Awards (2001). Commercially, the song peaked at number nine on the US Billboard Hot 100. It topped the charts in at least 15 countries, including Australia, Denmark, and Spain. An accompanying music video was directed by Nigel Dick. It depicts Spears on Mars, where she addresses an astronaut who has fallen in love with her. She is dressed in a red bodysuit. It went on to receive three nominations at the 2000 MTV Video Music Awards. Spears has performed the song during her Oops!... I Did It Again Tour, Dream Within a Dream Tour, The Onyx Hotel Tour and Britney: Piece of Me.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Howlin'_for_You", 'track_name': "Howlin' for You", 'artist': 'http://dbpedia.org/resource/The_Black_Keys', 'artist_name': 'The Black Keys', 'wiki': "http://en.wikipedia.org/wiki/Howlin'_for_You", 'hometown': 'http://dbpedia.org/resource/Akron,_Ohio', 'abstract': '"Howlin\' for You" is a song by The Black Keys from the band\'s sixth album, Brothers.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Lights_Up', 'track_name': 'Lights Up', 'artist': 'http://dbpedia.org/resource/Harry_Styles', 'artist_name': 'Harry Styles', 'wiki': 'http://en.wikipedia.org/wiki/Lights_Up', 'abstract': '"Lights Up" is a song by English singer Harry Styles from his second studio album Fine Line (2019). It was written by Styles alongside its producers Tyler Johnson and Kid Harpoon. Erskine Records and Columbia Records released the song for digital download and streaming on 11 October 2019 as the album\'s lead single. Musically, "Lights Up" is a pop and R&amp;B song, featuring multilayered guitars, piano, programmed beats, and a gospel choir. Conceived by Styles after a period of self-reflection, the lyrics are about self-discovery and him embracing his own identity. Critics found Styles\'s musical direction refreshing and commented on the song\'s unconventional structure which is composed of several breakdown pre-choruses and post-choruses, and a single chorus. A few others criticised the song as forgettable. In the UK, the single reached number three on the UK Singles Chart and was certified Platinum by the British Phonographic Industry (BPI). It also peaked in the top 20 and received Platinum certifications in Australia, Canada, and the US. Vincent Haycock directed the song\'s music video, which features Styles dancing shirtless in a sweat-drenched crowd of people.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Hello_(Martin_Solveig_and_Dragonette_song)', 'track_name': 'Hello', 'artist': 'http://dbpedia.org/resource/Martin_Solveig', 'artist_name': 'Martin Solveig', 'wiki': 'http://en.wikipedia.org/wiki/Hello_(Martin_Solveig_and_Dragonette_song)', 'hometown': 'http://dbpedia.org/resource/Neuilly-sur-Seine', 'abstract': '"Hello" is a song performed by French DJ and record producer Martin Solveig and Canadian synthpop band Dragonette, taken from the former\'s fifth studio album, Smash (2011). The song was released as the album\'s lead single on 6 September 2010 by Mercury Records. It is Solveig\'s most successful single to date, peaking at number one in Austria, Belgium (Flanders), Czech Republic and the Netherlands, while charting within the top 10 in ten other countries. It also reached number one on the Hot Dance Club Songs chart in the United States. Additionally, the song became Solveig\'s and Dragonette\'s first appearance on the Billboard Hot 100 in April 2011, eventually peaking at number 46 in June. It has since been certified Platinum by the Recording Industry Association of America (RIAA) for sales of 1,000,000 units. The song has been featured in 90210, The Vampire Diaries, Gossip Girl, Alvin and the Chipmunks: Chipwrecked, and Ted Lasso. It was also featured in Tim Hortons\' 2013 ad for their \'Roll up the Rim to Win\' promotion. It also used as the intro theme to the TV series Cheer! on CMT. The song appears in the video game Dance Central 3.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/American_Bad_Ass', 'track_name': 'American Bad Ass', 'artist': 'http://dbpedia.org/resource/Kid_Rock', 'artist_name': 'Kid Rock', 'wiki': 'http://en.wikipedia.org/wiki/American_Bad_Ass', 'abstract': '"American Bad Ass" is a song by the American musician Kid Rock, released from his 2000 album The History of Rock. "American Bad Ass" uses the instrumental structure of Metallica\'s "Sad but True."'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Timber_(Pitbull_song)', 'track_name': 'Timber', 'artist': 'http://dbpedia.org/resource/Pitbull_(rapper)', 'artist_name': 'Pitbull', 'wiki': 'http://en.wikipedia.org/wiki/Timber_(Pitbull_song)', 'abstract': '"Timber" is a song by American rapper Pitbull featuring American singer Kesha. The song was released on October 7, 2013, as the lead single from Pitbull\'s extended play (EP) Meltdown EP. The song was produced by Dr. Luke, Cirkut, and Sermstyle, with additional production by Nick Seeley. The song interpolates Lee Oskar\'s 1978 single "San Francisco Bay" and features harmonica player Paul Harrington, who plays through the entire song and was told to emulate Oskar. The single was ranked as one of the best 100 songs of the decade according to Billboard when it peaked at 90, this would be the only song to enter the decade-end chart as a bonus track on an album for the 2010s. The song peaked at number one on the US Billboard Hot 100 for three consecutive weeks. It also topped the charts in over fifteen countries, including Canada (where it stood at No. 1 for eight consecutive weeks), Denmark, Germany, the Netherlands, and the United Kingdom. According to the IFPI, the song sold 9.6 million units worldwide in 2014, including single-track downloads and track-equivalent streams, becoming the sixth best-selling song of that year.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Teddy_Picker', 'track_name': 'Teddy Picker', 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Teddy_Picker', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'abstract': '"Teddy Picker" is a song by the English indie rock band Arctic Monkeys, released as the third single from their second album Favourite Worst Nightmare. It was released on 3 December 2007 in the United Kingdom. The song entered the UK Singles Chart at number 20.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Born_in_the_U.S.A._(song)', 'track_name': 'Born in the U.S.A.', 'artist': 'http://dbpedia.org/resource/Bruce_Springsteen', 'artist_name': 'Bruce Springsteen', 'wiki': 'http://en.wikipedia.org/wiki/Born_in_the_U.S.A._(song)', 'abstract': '"Born in the U.S.A." is a song written and performed by Bruce Springsteen, and released in 1984 on the album of the same name. One of Springsteen\'s best-known singles, it was ranked 275th on Rolling Stone\'s list of "The 500 Greatest Songs of All Time", and in 2001, the RIAA\'s Songs of the Century placed the song 59th (out of 365). The song addresses the economic hardships of Vietnam veterans upon their return home, juxtaposed ironically against patriotic glorification of the nation\'s fighting forces.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Come_as_You_Are_(Nirvana_song)', 'track_name': 'Come as You Are', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Come_as_You_Are_(Nirvana_song)', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'abstract': '"Come as You Are" is a song by American grunge band Nirvana, written by frontman Kurt Cobain. It is the third track and the second single from the band\'s second studio album Nevermind, released in March 1992. It was the band\'s second and last American top 40 hit, reaching number 32 on the Billboard Hot 100, and second UK top 10 hit, reaching number nine on the UK Singles Chart. The single reached the top 10 in eight countries and the top 40 in eleven further countries. The unexpected success of the album\'s lead single, "Smells Like Teen Spirit" drew Nirvana to mainstream success, with Nevermind being released two weeks after the single\'s release. Following the album\'s release, the band and its management company debated whether to release "Come as You Are" or "In Bloom" as the next single from the album due to Cobain\'s concerns over similarity of the former with the Killing Joke song "Eighties" (1984). After some persuasion by the management company, Cobain agreed to release "Come as You Are" as the second single because of its commercial potential. Killing Joke were upset over the song, and there were rumors that a lawsuit had been filed over the song, though the suit never materialized. Killing Joke guitarist Geordie Walker was said to be upset about the whole situation, and he felt that Nirvana (which according to Walker denied the connection between the songs) handled the matter poorly. Similarities between "Come as You Are" and "Life Goes On" by The Damned have also been noted. The music video for "Come as You Are" was directed by Kevin Kerslake, who drew inspiration for it from the cover artwork of Nevermind. Rolling Stone ranked "Come as You Are" 445th on its list of "The 500 Greatest Songs of All Time", and it placed 452nd on the 2010 edition of the list.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Still_Into_You', 'track_name': 'Still Into You', 'artist': 'http://dbpedia.org/resource/Paramore', 'artist_name': 'Paramore', 'wiki': 'http://en.wikipedia.org/wiki/Still_Into_You', 'hometown': 'http://dbpedia.org/resource/Franklin,_Tennessee', 'abstract': '"Still Into You" is a song by American rock band Paramore. It was released on March 14, 2013, as the second single from their self-titled fourth studio album, Paramore. Recorded in 2012 in Los Angeles, California, "Still Into You" is a departure from the sound of their previous single, "Now", and incorporates a lighter pop rock sound, while being described as "sweet" and "sugary". The song received acclaim from music critics, who have praised the song and Hayley Williams\' vocals as "catchy" and "strong and effective", as well as deeming it as one of the songs of the summer of 2013. It is among their most commercially successful singles in the United States, becoming a top-ten hit on the Mainstream Top 40, ranking at number eight on Billboard\'s Hot Rock Songs, and receiving double-platinum certification in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Black_Betty', 'track_name': 'Black Betty', 'artist': 'http://dbpedia.org/resource/Spiderbait', 'artist_name': 'Spiderbait', 'wiki': 'http://en.wikipedia.org/wiki/Black_Betty', 'hometown': 'http://dbpedia.org/resource/Finley,_New_South_Wales', 'abstract': '"Black Betty" (Roud 11668) is a 20th-century African-American work song often credited to Huddie "Lead Belly" Ledbetter as the author, though the earliest recordings are not by him. Some sources claim it is one of Lead Belly\'s many adaptations of earlier folk material. There are numerous recorded versions, including a cappella and folk. The song was eventually, with modified lyrics, remade as a rock song by the American band Ram Jam in 1977. Subsequent recordings, including hits by Tom Jones and Spiderbait, retain the structure of this version.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Feel_for_You', 'track_name': 'I Feel for You', 'artist': 'http://dbpedia.org/resource/Chaka_Khan', 'artist_name': 'Chaka Khan', 'wiki': 'http://en.wikipedia.org/wiki/I_Feel_for_You', 'abstract': '"I Feel for You" is a song written by Prince that originally appeared on his 1979 self-titled album. The most successful and best-known version was recorded by R&amp;B singer Chaka Khan and appeared on her 1984 album I Feel for You. It became the recipient of two Grammy Awards for Best R&amp;B Song (with Prince as its songwriter) and Best Female R&amp;B Vocal Performance for Khan.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Burn_(Ellie_Goulding_song)', 'track_name': 'Burn', 'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Burn_(Ellie_Goulding_song)', 'abstract': '"Burn" is a song by English singer Ellie Goulding from Halcyon Days (2013), the reissue of her second studio album, Halcyon (2012). The song was written by Ryan Tedder, Goulding, Greg Kurstin, Noel Zancanella and Brent Kutzle, while production was handled by Kurstin and vocal production was done by Tedder. It was released on 5 July 2013 as the lead single from the reissue. The song was originally recorded by British singer Leona Lewis for her third studio album, Glassheart (2012), but it was ultimately scrapped. Upon its release, "Burn" was met with a mixed response from music critics, who praised it as "catchy" and noted it as one of Goulding\'s most radio-friendly songs to date, while others felt it was not memorable. It earned Goulding her first number-one single on the UK Singles Chart, selling 116,857 copies in its first week and staying atop the chart for three consecutive weeks. The track attained similar success internationally, reaching the top 10 in countries such as Australia, Austria, Belgium, Germany, Ireland, Italy, New Zealand and Sweden, as well as number 13 on the Billboard Hot 100. The accompanying music video was directed by Mike Sharpe and depicts Goulding in an empty field singing and dancing with friends. Goulding promoted the single on several television shows, including The X Factor, The Ellen DeGeneres Show, The Voice and Late Show with David Letterman. "Burn" was nominated for British Single of the Year and British Video of the Year at the 2014 Brit Awards. In 2017, an a cappella interpretation was sung by actress Raffey Cassidy in the psychological horror film The Killing of a Sacred Deer.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Favourite_Shirts_(Boy_Meets_Girl)', 'track_name': 'Favourite Shirts (Boy Meets Girl)', 'artist': 'http://dbpedia.org/resource/Haircut_One_Hundred', 'artist_name': 'Haircut 100', 'wiki': 'http://en.wikipedia.org/wiki/Favourite_Shirts_(Boy_Meets_Girl)', 'hometown': 'http://dbpedia.org/resource/Beckenham', 'abstract': '"Favourite Shirts (Boy Meets Girl)" is the debut single by the British new wave band Haircut One Hundred, released in October 1981 by Arista Records. The song appears on their 1982 debut album Pelican West. It reached No. 4 on the UK Singles Chart in November 1981 and was certified silver by the BPI for sales in excess of 200,000 copies.'}</t>
   </si>
   <si>
     <t>{'track': 'http://dbpedia.org/resource/This_Is_the_Last_Time', 'track_name': 'This Is the Last Time', 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/This_Is_the_Last_Time', 'abstract': '"This Is the Last Time" is a song performed and composed by British rock band Keane, released on 13 October 2003 as the fourth commercial single from their debut album, Hopes and Fears (2004). It was first released with Fierce Panda Records and later in 2004 as a different version with Island Records. It was released as track two of the international version, but track nine on the British version. The single reached number 18 on the UK chart in November 2004.'}</t>
   </si>
   <si>
-    <t>{'track': 'http://dbpedia.org/resource/Stressed_Out', 'track_name': 'Stressed Out', 'artist': 'http://dbpedia.org/resource/Twenty_One_Pilots', 'artist_name': 'Twenty One Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Stressed_Out', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'abstract': '"Stressed Out" is a song written and recorded by American musical duo Twenty One Pilots from their fourth studio album, Blurryface (2015). The track was produced by Mike Elizondo and recorded in Los Angeles, California and London, England. "Stressed Out" was first released as a promotional single through Fueled by Ramen on April 28, 2015. The song later impacted Contemporary hit radio stations as the album\'s fourth official single on November 10, 2015. Elizondo initially took issue with the nature of the song\'s lyrical content. However, he relaxed after lead vocalist and songwriter Tyler Joseph explained the larger album concept. "Stressed Out" is a midtempo alternative hip hop and rap rock song that contains a throwback to rock music and psychedelic pop with clear pop sensibilities. The track is built from synths and a Caribbean-style keyboard line alongside rapping vocals by Joseph. Lyrically, "Stressed Out" is about the harsh end of adolescence. The song is an ode that harbors a downbeat atmosphere and lyrics speaking on transitioning from adolescence to adulthood and nostalgia for the innocence of childhood. They touch on insecurities and address millennial angst while discussing life challenges. Throughout the song, Joseph personifies the album\'s titular character, "Blurryface." His self-deprecating lyrics express self-doubt and anxiety, stressing over personal issues ranging from his music to the idea of growing older becoming an adult. With the single, Twenty One Pilots became the very first rock act to have a song reach a billion streams on Spotify. Upon its release, "Stressed Out" received favorable reviews from contemporary music critics. The song was a sleeper hit, peaking at number two on the US Billboard Hot 100, giving the group their first top-10 hit in the United States. The song topped the US Billboard Hot Rock Songs for a record 23 weeks. It also peaked at number one on the Billboard airplay charts: Adult Top 40, Rock Airplay, and Mainstream Top 40. "Stressed Out" was certified Diamond by the Recording Industry Association of America (RIAA), for sales of over 10,000,000 copies. The song peaked within the top five of record charts in Russia, Mexico, Australia, Austria, the Belgium Flanders chart, Canada, Czech Republic, Ecuador, France, Germany, Ireland, Israel, the Netherlands, New Zealand, Portugal, Slovakia, and Switzerland. An accompanying music video for the single was directed by Eshleman and mostly filmed at drummer Josh Dun\'s home in Columbus, Ohio. It features a mixture of surrealistic visuals and existential scenes while portraying the duo riding three-wheelers for a playdate and attempting to relive their childhood. In the music video, black paint can be seen on the neck and hands of Tyler Joseph, referencing the character Blurryface. At the 59th Annual Grammy Awards, "Stressed Out" was nominated for Record of the Year and Best Pop Duo/Group Performance, winning the latter. The duo performed the song on their 2016 Emotional Roadshow World Tour and for the Late Night with Seth Meyers.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Closer_(The_Chainsmokers_song)', 'track_name': 'Closer', 'artist': 'http://dbpedia.org/resource/The_Chainsmokers', 'artist_name': 'The Chainsmokers', 'wiki': 'http://en.wikipedia.org/wiki/Closer_(The_Chainsmokers_song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': '"Closer" is a song by American DJ duo the Chainsmokers featuring American singer Halsey. Andrew Taggart (one half of the Chainsmokers) also provides his vocals in the song. It was released on July 29, 2016, through Disruptor Records and Columbia Records. The song was written by Taggart, Halsey, Shaun Frank, Freddy Kennett, Isaac Slade and Joe King, while the production was handled by the Chainsmokers. Musically, it is a future bass and pop song with a "retro" style synthesizer in the chorus. In the United States, "Closer" became both the Chainsmokers\' and Halsey\'s first number one single on the Billboard Hot 100. The song stayed at the top spot for 12 consecutive weeks. This is the highest EDM song that cracked the Billboard Decade-End in the 2010s according to Billboard. The Chainsmokers became the first act to have four songs ("Closer" being the fourth) that top the Dance/Electronic Songs chart, passing Calvin Harris, who held the previous record with three. Outside of the United States, "Closer" topped the charts in more than ten countries including Australia, Canada, New Zealand, Ireland and the United Kingdom, making it both the Chainsmokers\' and Halsey\'s first number-one single in all six countries. The song went on to become the first song to spend 26 weeks in the top five of the Billboard Hot 100 chart. It also became only the second song in the history of the Hot 100 chart to spend 32 weeks in the top ten of the chart. The song was performed live for the first time at the Coachella Valley Music and Arts Festival in April 2016. Halsey and the Chainsmokers performed the track live at the 2016 MTV Video Music Awards as well as a remix of the song at the 2016 American Music Awards. Its music video was released on October 23, 2016. It received a nomination for Best Pop Duo/Group Performance at the 2017 Grammy Awards. In 2018, the song received a diamond certification by the RIAA for selling 10 million units in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Saturday_Night_(Whigfield_song)', 'track_name': 'Saturday Night', 'artist': 'http://dbpedia.org/resource/Whigfield', 'artist_name': 'Whigfield', 'wiki': 'http://en.wikipedia.org/wiki/Saturday_Night_(Whigfield_song)', 'abstract': '"Saturday Night" is a song by Italian Eurodance project Whigfield, fronted by Danish-born Sannie Charlotte Carlson. It was first released in 1992 in Italy and November 1993 in Spain through Prodisc. In 1994, it was released in the rest of Europe, and experienced worldwide success. The song is written by Italian producers Larry Pignagnoli and Davide Riva, and produced by Pignagnoli. In 1994, the song was included on Carlson\'s debut album, Whigfield. The single entered at number one on the UK Singles Chart, making Whigfield the first artist to enter at the top in the UK with their debut single, dethroning Wet Wet Wet\'s 15-week chart-topper "Love Is All Around". As of October 2015, "Saturday Night" has sold a total of 1.18 million copies in the UK. It also reached number one in Germany, Ireland, Spain and Switzerland, and it became a top-10 hit in Austria, Denmark, France, Iceland, Italy, the Netherlands, Norway and Sweden. In Spain the single spent 11 weeks at the top position. Outside Europe, it peaked at number three in Zimbabwe, number 19 on the US Billboard Hot Dance Club Play chart and number 78 in Australia. NME magazine ranked "Saturday Night" at number 15 in their list of the 50 best songs of 1994. It was also nominated for Best Single, while Whigfield was nominated for Best New Act on the 7th annual Smash Hits Awards in 1995.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Intergalactic_(song)', 'track_name': 'Intergalactic', 'artist': 'http://dbpedia.org/resource/Beastie_Boys', 'artist_name': 'Beastie Boys', 'wiki': 'http://en.wikipedia.org/wiki/Intergalactic_(song)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'abstract': '"Intergalactic" is a song by American rap rock group Beastie Boys. "Intergalactic" was released as the first single from their fifth studio album, Hello Nasty, on June 22, 1998. The single reached number 28 on the US Billboard Hot 100, making it the band\'s third top-40 single, and reached number five on the UK Singles Chart, where it remains the band\'s biggest hit. It received a Grammy Award for Best Rap Performance by a Duo or Group in 1999.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Where_Is_My_Mind%3F', 'track_name': 'Where Is My Mind?', 'artist': 'http://dbpedia.org/resource/Pixies_(band)', 'artist_name': 'Pixies', 'wiki': 'http://en.wikipedia.org/wiki/Where_Is_My_Mind%3F', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Where Is My Mind?" is a song by the American alternative rock band Pixies, and it is the seventh track on the band\'s 1988 debut album Surfer Rosa. Although the song was never released as a single, it is one of the band\'s signature songs, inspiring a multitude of covers. The song was featured on the 2021 version of Rolling Stone\'s 500 Greatest Songs of All Time, ranked at No. 493.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Right_Action', 'track_name': 'Right Action', 'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/Right_Action', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': '"Right Action" is a song by Scottish indie rock band Franz Ferdinand. It was released as the lead single from their fourth studio album, Right Thoughts, Right Words, Right Action, on 27 June 2013 in the United States and 18 August 2013 in the United Kingdom. It has been described as having a catchy, funk-like guitar sound. A music video of the song, directed by Jonas Odell, was released online on 7 July and features the band performing in an environment similar to their previous video "Take Me Out" (which was also directed by Odell) as the song\'s lyrics also appear on the screen. The song had moderate commercial success reaching number 39 on the UK Indie Chart, number 28 on the Billboard Alternative Songs chart in the United States and Number 22 in the Billboard Japan Hot 100 Singles Chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Self_Esteem_(song)', 'track_name': 'Self Esteem', 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/Self_Esteem_(song)', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"Self Esteem" is a song by the American punk rock band The Offspring. It is the eighth track and second single from their third studio album, Smash. The song was a worldwide hit, reaching number one in Iceland, Norway and Sweden. "Self Esteem" was nominated for the 1995 MTV Europe Music Awards for Best Song. The song also appears as the third track on their Greatest Hits (2005).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Back_to_Black_(song)', 'track_name': 'Back to Black', 'artist': 'http://dbpedia.org/resource/Amy_Winehouse', 'artist_name': 'Amy Winehouse', 'wiki': 'http://en.wikipedia.org/wiki/Back_to_Black_(song)', 'abstract': '"Back to Black" is a song by English singer and songwriter Amy Winehouse from her second and final studio album of the same name (2006). It was released by Island Records on 30 April 2007 as the album\'s third single. The song was written by Winehouse and Mark Ronson, and produced by the latter. "Back to Black" was inspired by Winehouse\'s relationship with Blake Fielder-Civil, who had left her for an ex-girlfriend. "Back to Black" received universal acclaim by music critics, who generally praised its throwback sound to girl groups from the 1960s. It was included on several compiled year and decade-end lists of the best in music and was further considered to be one of Winehouse\'s signature songs. The single peaked at number eight on the UK Singles Chart in the United Kingdom and is Winehouse\'s third best-selling single in that country. Many artists recorded covers of the song; most notably, Beyoncé and André 3000 covered it for the soundtrack of the 2013 film adaptation of the novel The Great Gatsby (1925). A documentary film based on the life and death of Winehouse, Amy (2015) features a videoed tape of Winehouse recording the song with Mark Ronson, in March 2006 and an a cappella melody was featured on the film\'s soundtrack.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/The_Kids_Aren't_Alright", 'track_name': "The Kids Aren't Alright", 'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': "http://en.wikipedia.org/wiki/The_Kids_Aren't_Alright", 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'abstract': '"The Kids Aren\'t Alright" is a song by the Offspring. It is the fifth track from the band\'s fifth studio album, Americana (1998), and was released as its third single. It became another top 10 hit on the US Modern Rock Tracks chart. Despite not being as commercially successful as its predecessors, "The Kids Aren\'t Alright" remains the most-listened to Offspring song amongst Last.fm users, and still receives some radio play. The song was played over the end credits of Woodstock 99: Peace, Love, and Rage. The song was used in the opening scene of the film The Faculty and appears on the soundtrack album. It is also available as downloadable content for the Rock Band video game series. Q reported that the song\'s title is an allusion to the Who song "The Kids Are Alright" (from My Generation). The magazine also argued that the track "borrows heavily" from "Electricity" by Orchestral Manoeuvres in the Dark (OMD), and pointed to NOFX\'s punk rock cover of "Electricity" as evidence.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Lithium_(Nirvana_song)', 'track_name': 'Lithium', 'artist': 'http://dbpedia.org/resource/Nirvana_(band)', 'artist_name': 'Nirvana', 'wiki': 'http://en.wikipedia.org/wiki/Lithium_(Nirvana_song)', 'hometown': 'http://dbpedia.org/resource/Aberdeen,_Washington', 'abstract': '"Lithium" is a song by the American rock band Nirvana, written by vocalist and guitarist, Kurt Cobain. It appears as the fifth track on the band\'s second album Nevermind, released by DGC Records in September 1991. "Lithium" was released as the album\'s third single in July 1992, peaking at number 64 on the US Billboard Hot 100 and number 11 on the UK Singles Chart. It was also a number 1 hit in Finland and a top 5 hit in Ireland and Portugal. The accompanying music video, directed by American filmmaker Kevin Kerslake, is a compilation of live footage.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Last_Train_to_London', 'track_name': 'Last Train to London', 'artist': 'http://dbpedia.org/resource/Electric_Light_Orchestra', 'artist_name': 'Electric Light Orchestra', 'wiki': 'http://en.wikipedia.org/wiki/Last_Train_to_London', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Last Train to London" is a song from the rock band Electric Light Orchestra (ELO), the fifth track from their album Discovery. The song was released in 1979 in the UK as a double A-side single with "Confusion". It peaked at number 8 in the UK Singles Chart. However, in the US the two songs charted separately, with "Confusion" in late 1979 followed by "Last Train to London" in early 1980. It peaked at number 39 on the Billboard Hot 100. Billboard Magazine described the song as having a "catchy pop melody with Beatlesque vocal qualities and a smooth layered sound." In Spain the single was released with the Spanish title "Último tren a Londres". There was a certain period when it seemed we spent years on trains going back and forth from Birmingham to the various TV and radio stations in London. —\u2009Discovery remaster (2001), Jeff Lynne'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Rat_in_Mi_Kitchen', 'track_name': 'Rat in Mi Kitchen', 'artist': 'http://dbpedia.org/resource/UB40', 'artist_name': 'UB40', 'wiki': 'http://en.wikipedia.org/wiki/Rat_in_Mi_Kitchen', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'abstract': '"Rat in Mi Kitchen" is a song and single written and performed by British group, UB40. It features Herb Alpert on trumpet and was the sixth track on their album Rat in the Kitchen. Released in 1986, it reached Number 12 on the UK charts in 1987, staying for seven weeks. Although it is attributed to the whole group, like many UB40 songs, the song was written by Astro. At the time lead singer Ali Campbell had just moved into a new home in Balsall Heath, Birmingham and was troubled by rodents. When asked by Astro if he had any ideas for new songs he replied, "Oh God, I don\'t care about the album for a minute, I\'ve got a rat in the kitchen!" Astro, who sings lead vocals on the song, wrote the track in response.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cantaloop_(Flip_Fantasia)', 'track_name': 'Cantaloop (Flip Fantasia)', 'artist': 'http://dbpedia.org/resource/Us3', 'artist_name': 'Us3', 'wiki': 'http://en.wikipedia.org/wiki/Cantaloop_(Flip_Fantasia)', 'abstract': '"Cantaloop (Flip Fantasia)" is a song by British jazz-rap group Us3. It was originally released in October 1992 as the lead single from their debut album, Hand On the Torch. The song was recorded as a demo a year before the group\'s first release and features a sample of Herbie Hancock\'s song "Cantaloupe Island". It did not chart in their native UK, but in the US, "Cantaloop (Flip Fantasia)" reached No. 9 on the Billboard Hot 100, becoming the group\'s only top 40 single. It was subsequently re-released in UK where it peaked at No. 23. "Cantaloop" was certified gold by the Recording Industry Association of America (RIAA) on March 25, 1994 for selling over 500,000 copies.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Wanna_Be_Startin'_Somethin'", 'track_name': "Wanna Be Startin' Somethin'", 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': "http://en.wikipedia.org/wiki/Wanna_Be_Startin'_Somethin'", 'abstract': '"Wanna Be Startin\' Somethin\'" is a song by American singer Michael Jackson recorded for his sixth studio album Thriller (1982). It is the opening track of the album and was released as its fourth single on May 8, 1983, by Epic Records. It was written by Jackson and produced by Jackson and Quincy Jones. The lyrics pertain to strangers spreading rumors to start an argument for no good reason. "Wanna Be Startin\' Somethin\'" evokes the disco sound of Jackson\'s previous studio album, Off the Wall, released in 1979. The song is characterized by a complex rhythm arrangement and a distinctive horn arrangement. "Wanna Be Startin\' Somethin\'" became Jackson\'s fourth consecutive top 10 single from Thriller on the Billboard Hot 100, peaking at number five. The song also topped the charts in Canada as well as the Netherlands and charted within the top 20 and top 30 in several countries. It was generally well received by contemporary music critics. As part of the release of Thriller 25, a remix of "Wanna Be Startin\' Somethin\'", entitled "Wanna Be Startin\' Somethin\' 2008 with Akon", was recorded with Akon, and released as the second single from the album. The remix was commercially successful, mainly charting within the top 10 in six countries, as well as the top 20 in several territories worldwide and top 40 in Canada. It was more successful internationally than in the United States, having peaked on the Billboard Hot 100 at number 81, which was the song\'s lowest charting position. Unlike previous singles from Thriller, "Wanna Be Startin\' Somethin\'" did not have a music video to accompany it but was performed by Jackson on world concert tours as both a member of The Jacksons and as a solo artist. Following Jackson\'s death in June 2009, the song re-entered music charts worldwide. "Wanna Be Startin\' Somethin\'" has been covered and sampled by multiple recording artists since its release, notably by Rihanna in her 2007 song "Don\'t Stop the Music", who was sued as a result. Aside from Thriller, the song appears on multiple compilation and greatest hits albums by Jackson.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Wake_Me_Up_(Avicii_song)', 'track_name': 'Wake Me Up', 'artist': 'http://dbpedia.org/resource/Avicii', 'artist_name': 'Avicii', 'wiki': 'http://en.wikipedia.org/wiki/Wake_Me_Up_(Avicii_song)', 'abstract': '"Wake Me Up" is a song by Swedish DJ and record producer Avicii, released as the lead single from his debut studio album True, released on CD by PRMD Music and Island Records on 17 June 2013. "Wake Me Up" was written by Avicii, Mike Einziger, and American soul singer Aloe Blacc. Aloe Blacc also provides vocals for the track and Mike Einziger of Incubus provides acoustic guitar. Peter Dyer also provides keyboard on the song. Avicii introduced "Wake Me Up!" for the first time live on stage at the Ultra Music Festival in Miami. The experimental rendering (it was accompanied by a live band with instruments and vocalists, including Blacc, Einziger and Incubus members Ben Kenney on bass and José Pasillas on drums) reportedly confused and angered a section of the electronic dance festival community. Subsequently, Avicii achieved critical and commercial success with the release of the single worldwide. Avicii\'s \'Wake Me Up\' has been named as the highest charting dance track of the decade (2010-2019), sitting at No. 13 in the 100-strong list from the official UK Singles Chart. It is the only song to crack the Billboard Decade-End without making the top 3 during any week. "Wake Me Up" peaked at number one in much of Europe and charted well in various countries. The song has been described as a "summer anthem" by Variance Magazine and, throughout the 2013 festival season, Avicii included it as part of the opening or closing sequence of his sets at EDC Las Vegas, EDC London, Tomorrowland, Creamfields, Electric Zoo and the iTunes Festival. Due to the success of the song, Blacc later released an acoustic version of "Wake Me Up" in his solo EP Wake Me Up. It was also released as a promotional stand-alone single on Interscope Records, made available online for downloads via iTunes. A separate music video was also made. The Blacc single also charted in its own right in various charts.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Call_Me_When_You're_Sober", 'track_name': "Call Me When You're Sober", 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': "http://en.wikipedia.org/wiki/Call_Me_When_You're_Sober", 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': '"Call Me When You\'re Sober" is a song by American rock band Evanescence recorded for their second studio album, The Open Door. Wind-up Records released it as the album\'s lead single on September 4, 2006; this release was preceded by the song\'s Internet leak and its earlier distribution to radio stations on July 31. The track was written by group members Amy Lee and Terry Balsamo, while Dave Fortman handled its production. Lee revealed that the song was inspired by an unsuccessful relationship with Shaun Morgan, lead singer of the band Seether. The track is an alternative metal, symphonic rock, and electropop piano ballad about a woman terminating a relationship with a love interest who suffers from an addiction. It received a polarized response from music critics; although some praised its radio appeal and the use of numerous musical styles and instruments paired with Lee\'s laudable vocal performance, others felt that it was not a worthy comeback song and found it inferior to previous songs by the band. "Call Me When You\'re Sober" was commercially successful in the US, where it peaked at number ten on the main Billboard Hot 100 and number four on the Alternative Songs chart in addition to entering the top ten of several Billboard component charts. It was a success elsewhere as well, peaking within the top ten on various charts internationally, including the UK, Australia, Finland and New Zealand. The single was certified platinum by the Recording Industry Association of America (RIAA) and gold by the Australian Recording Industry Association (ARIA). An accompanying music video for the song was directed by Marc Webb and filmed in Hollywood; it draws inspiration from the fairy tale "Little Red Riding Hood". It features British actor Oliver Goodwill as the Big Bad Wolf, trying to seduce Lee. The video was noted to contain metaphorical undertones as opposed to the song\'s literal lyrics. "Call Me When You\'re Sober" was part of the set lists during three of Evanescence\'s worldwide tours; The Open Door Tour (2006–07), the Evanescence Tour (2011–12) and the band\'s fourth worldwide tour (2016–17). It has been covered by American Idol contestant Gina Glocksen and used in several video games, including Rock Band.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Baker_Street_(song)', 'track_name': 'Baker Street', 'artist': 'http://dbpedia.org/resource/Undercover_(dance_group)', 'artist_name': 'Undercover', 'wiki': 'http://en.wikipedia.org/wiki/Baker_Street_(song)', 'abstract': '"Baker Street" is a song written and recorded by Scottish singer-songwriter Gerry Rafferty. Released as a single in 1978, it reached No. 1 in Cash Box and No. 2 on the Billboard Hot 100, where it held its Billboard position for six weeks, blocked from the top spot by Andy Gibb\'s "Shadow Dancing". It spent four weeks at No. 1 in Canada, No. 1 in Australia and South Africa, hit No. 3 in the United Kingdom, and the top 10 in the Netherlands. Rafferty received the 1978 Ivor Novello Award for Best Song Musically and Lyrically. The arrangement is known for its saxophone riff. In October 2010, the song was recognised by BMI for surpassing five million performances worldwide. It was awarded Gold Certification on two occasions, on 1 April 1978 and 22 July 2013 by the BPI in the UK.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Don't_Lie", 'track_name': "Don't Lie", 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': "http://en.wikipedia.org/wiki/Don't_Lie", 'abstract': '"Don\'t Lie" is a song performed by American recording group the Black Eyed Peas, taken from their fourth studio album, Monkey Business (2005). It was released as the second single from the album on June 29, 2005, after the successful "Don\'t Phunk with My Heart". "Don\'t Lie" was written by the band together with American production duo Peters &amp; Peters while band member will.i.am headed its production. It contains a vocal sample of Slick Rick\'s 1988 song "The Ruler\'s Back", from the album The Great Adventures of Slick Rick. The song was produced as a pop-oriented hip hop song with a Latin-tinged beat. The lyrics feature the protagonist apologizing for lies made during his relationship with another woman. Critical reception for the song was generally positive, with many praising its lyrics, noting that they diverge from the dangerous and hedonistic lyrics in hip-hop music. "Don\'t Lie" was commercially successful worldwide, nearly replicating the success of the album\'s previous single. It peaked at number fourteen on the Billboard Hot 100 and became their fifth top 40 hit on the chart. The song reached the top ten in several countries including Australia, Denmark, Italy and the United Kingdom. The music video for "Don\'t Lie" is set in Brazil.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Too_Shy', 'track_name': 'Too Shy', 'artist': 'http://dbpedia.org/resource/Kajagoogoo', 'artist_name': 'Kajagoogoo', 'wiki': 'http://en.wikipedia.org/wiki/Too_Shy', 'hometown': 'http://dbpedia.org/resource/Leighton_Buzzard', 'abstract': '"Too Shy" is a song written and recorded by English band Kajagoogoo, released in January 1983. The first single from their debut album White Feathers, the song was an immediate hit and reached number one on the UK Singles Chart for two weeks. It was also very successful in other European countries and Japan, spending five weeks at number one in Germany, also reaching number one in Belgium and Ireland, as well as reaching number two in France and Switzerland, and number four in Sweden, Austria and the Netherlands. Assisted by heavy rotation on MTV, the song later became a success in the United States, peaking at number 5 on the Billboard Hot 100. "Too Shy" is Kajagoogoo\'s only significant hit in the US, where the band is widely regarded as a one-hit wonder. In the UK, however, Kajagoogoo had further hits, including two more top 10 singles: "Ooh to Be Ah" and "Big Apple", both in 1983.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Another_Brick_in_the_Wall', 'track_name': 'Another Brick in the Wall', 'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/Another_Brick_in_the_Wall', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Another Brick in the Wall" is a three-part composition on Pink Floyd\'s 1979 rock opera The Wall, written by bassist Roger Waters. "Part 2", a protest song against rigid and abusive schooling, features a children\'s choir. At the suggestion of producer Bob Ezrin, Pink Floyd added elements of disco. "Part 2" was released as a single, Pink Floyd\'s first in the UK since "Point Me at the Sky" (1968). It sold over four million copies worldwide. It was nominated for a Grammy Award and was number 384 on Rolling Stone\'s list of "The 500 Greatest Songs of All Time".'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Boulevard_of_Broken_Dreams_(Green_Day_song)', 'track_name': 'Boulevard of Broken Dreams', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Boulevard_of_Broken_Dreams_(Green_Day_song)', 'abstract': '"Boulevard of Broken Dreams" is a song by American rock band Green Day. It is the fourth track from their seventh studio album American Idiot (2004). Reprise Records released "Boulevard of Broken Dreams" as the second single from American Idiot on November 29, 2004. The song\'s lyrics were written by lead singer Billie Joe Armstrong, and the music was composed by the band. Production was handled by Rob Cavallo and Green Day. The song speaks from the point of view of American Idiot\'s main character, "Jesus of Suburbia", and is a moderate midtempo song characterized by somber and bleak lyrics. This is in contrast to the previous track on the album, "Holiday", which illustrates Jesus of Suburbia\'s high of being in The City. MTV\'s Green Day Makes a Video described "Holiday" as a party, and "Boulevard of Broken Dreams" as the subsequent hangover. The song was ranked number one on Rolling Stone\'s Reader\'s Choice: Singles of the Decade list in 2009 and number 65 on the 100 Best Songs of the Decade list in the same year. It has sold over 2 million copies in the United States as of 2010. The single peaked at number two on the Billboard Hot 100, behind "Candy Shop" by 50 Cent and Olivia, making it Green Day\'s most successful song in the United States. The song was the ninth-highest-selling single of the 2000–2009 decade with worldwide sales exceeding 5 million copies. As of 2021, "Boulevard of Broken Dreams" is the only song to win both the Grammy Award for Record of the Year and MTV Video Music Award for Video of the Year. It remains one of Green Day\'s signature songs.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sweet_Dreams_(Are_Made_of_This)', 'track_name': 'Sweet Dreams (Are Made of This)', 'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Sweet_Dreams_(Are_Made_of_This)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'abstract': '"Sweet Dreams (Are Made of This)" is a song by British new wave music duo Eurythmics. It is the title track of their album of the same name (1983) and was released as the fourth and final single from the album in early 1983. The song became their breakthrough hit, establishing the duo worldwide. Its music video helped to propel the song to number two on the UK Singles Chart and number one on the US Billboard Hot 100. It was the first single released by Eurythmics in the US. Recorded by the Eurythmics in a small project studio, the song\'s success heralded a trend of musicians abandoning larger recording studios for home recording methods. After the song\'s rise, the duo\'s previous single, "Love Is a Stranger", was re-released and also became a worldwide hit. On Rolling Stone\'s The 500 Greatest Songs of All Time issue in 2003, "Sweet Dreams (Are Made of This)" was ranked number 356. In 2020, the song was inducted into the Grammy Hall of Fame. Eurythmics have regularly performed the song in all their live sets since 1982, and it is often performed by Annie Lennox on her solo tours. In 1991, the song was remixed and reissued to promote Eurythmics\' Greatest Hits album. It re-charted in the UK, reaching number 48, and was also a moderate hit in dance clubs. Another remix by Steve Angello was released in France in 2006, along with the track "I\'ve Got a Life" (peaking at number 10).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Englishman_in_New_York', 'track_name': 'Englishman in New York', 'artist': 'http://dbpedia.org/resource/Sting_(musician)', 'artist_name': 'Sting', 'wiki': 'http://en.wikipedia.org/wiki/Englishman_in_New_York', 'abstract': '"Englishman in New York" is a song by English singer Sting, from his second studio album ...Nothing Like the Sun, released in October 1987. Branford Marsalis played soprano saxophone on the track, while the drums were played by Manu Katché and the percussion by Mino Cinélu. The single was released in February 1988 as the third single from the album, but only reached #51 on the UK Singles Chart. In the US, "Englishman in New York" peaked at #84 on the Billboard Hot 100 chart in April 1988 and reached #32 on the Billboard Mainstream Rock chart that same month. However, the single was more successful in continental Europe, becoming a hit in several countries, reaching the Top 40 (and sometimes the Top 20) in France, Netherlands, Spain, Belgium, etc. "Englishman in New York" was also a Top 20 hit in Ireland. In South Africa, it peaked at no. 9. In 1990, just prior to the release of his third studio album The Soul Cages, Sting\'s record label licensed Dutch DJ and producer Ben Liebrand to remix "Englishman in New York" and subsequently released it as a single. The remix played around with the introduction and some of the instrumentation, but the essence of the song remained the same. The new version was commercially successful, reaching number 15 in the UK charts in mid-1990. In 2010, Sting re-recorded the song in an orchestral version for his album Symphonicities. "Englishman/African In New York", a reworking of the song recorded with African artist Shirazee was released as a non-album digital-only single on 19 March 2021. Shirazee had previously covered the song as "African in New York" with Sting\'s approval. Sting and Shirazee released a music video and performed the song on ABC\'s Good Morning America.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/What_I've_Done", 'track_name': "What I've Done", 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': "http://en.wikipedia.org/wiki/What_I've_Done", 'abstract': '"What I\'ve Done" is a song by American rock band Linkin Park. It was released as the first single from their third studio album, Minutes to Midnight (2007), and is the sixth track. The song is composed in the key of G minor. The song was released as a radio single on April 1, 2007, as a digital download on April 2, and as a CD single on April 30. The live version of "What I\'ve Done" from Road to Revolution: Live at Milton Keynes was nominated for Best Hard Rock Performance at the 52nd Grammy Awards, but did not win. It also serves as the main theme of the 2007 science fiction film Transformers and also appears on Transformers: The Album (2007). Being certified five times platinum by the RIAA, it is the band\'s most commercially successful single in terms of pure sales, and reached number 7 on the Billboard Hot 100. "What I\'ve Done" was featured in the video game Guitar Hero World Tour. In January 2011, it was released in a Linkin Park DLC pack for Rock Band 3. The song is also a B-side to the UK single of "Iridescent". An instrumental version of the song is currently used by Sky UK as background music for their interactive services.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Promiscuous_(song)', 'track_name': 'Promiscuous', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Promiscuous_(song)', 'abstract': '"Promiscuous" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006), featuring Timbaland. The song was written by Furtado, Anthony Motz, Timbaland, and Nate "Danja" Hills. The song\'s lyrics, penned by Furtado and Timothy "Attitude" Clayton, feature a conversation between a man and woman who call each other promiscuous. The song was released as the second single from the album in early 2006. The song was well received by music critics, with some critics calling it the highlight of the album. "Promiscuous" was an international success and became Furtado\'s first number-one single in the US. It was the first number one by a Canadian female artist since 1998\'s "I\'m Your Angel" by R. Kelly and Celine Dion on the Billboard Hot 100 chart. The song also topped the chart in New Zealand and peaked in the top ten on many charts across Europe. The accompanying music video was directed by Little X, and features Furtado and Timbaland, in what Furtado describes as a "verbal Ping-Pong game". Cameo appearances are made by Keri Hilson, Justin Timberlake, and Bria Myles. The song won \'Best Pop Single of the Year\' at the 2006 Billboard Music Awards and received a nomination for the \'Best Pop Collaboration with Vocals\' at the 49th Grammy Awards, losing to Tony Bennett and Stevie Wonder\'s "For Once in My Life".'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/So_Lonely', 'track_name': 'So Lonely', 'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/So_Lonely', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"So Lonely" is a song by English rock band The Police, released as the third and final single in November 1978 from their debut studio album Outlandos d\'Amour (1978), and again in February 1980 as a re-release. The song uses a reggae style, and featured Sting on lead vocals. "So Lonely" has since been covered by a variety of artists, such as Limbeck and The Militia Group. The song is known for a famous mondegreen where the title is often misheard as "Sue Lawley", a broadcaster famous for presenting Desert Island Discs on BBC Radio 4 from 1988 to 2006.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Black_Velvet_(song)', 'track_name': 'Black Velvet', 'artist': 'http://dbpedia.org/resource/Alannah_Myles', 'artist_name': 'Alannah Myles', 'wiki': 'http://en.wikipedia.org/wiki/Black_Velvet_(song)', 'abstract': '"Black Velvet" is a song written by Canadian songwriters Christopher Ward and David Tyson, and recorded by Canadian singer-songwriter Alannah Myles. It was released in January 1990 as one of four singles from Myles\' 1989 eponymous album from Atlantic Records. It became a number-one hit for two weeks on the Billboard Hot 100 charts in 1990 and reached number one on the Album Rock Tracks chart, as well as number ten in her native Canada and number two on the UK Singles Chart. The song also reached number one in Norway, Sweden, and Switzerland and was a major success in several other countries. It contains blues verses with a rock chorus. Myles won the 1991 Grammy for Best Female Rock Vocal Performance for the song and the 1990 Juno Award for Single of the Year. Since its release, the power ballad has received substantial airplay, receiving a "Millionaire Award" from ASCAP in 2005 for more than four million radio plays.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Sleep_Now_in_the_Fire', 'track_name': 'Sleep Now in the Fire', 'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Sleep_Now_in_the_Fire', 'abstract': '"Sleep Now in the Fire" is a song by American rock band Rage Against the Machine from their 1999 album The Battle of Los Angeles. At the end of the song, a short sample of Korean artist Uhm Jung-hwa\'s 1998 song "Poison" can be heard — it was captured from a local Korean radio station broadcast through Morello\'s amplifier.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Someday_(Sugar_Ray_song)', 'track_name': 'Someday', 'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Someday_(Sugar_Ray_song)', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'abstract': '"Someday" is a song by American rock band Sugar Ray. First serviced to American radio in June 1999, the song was released on September 7, 1999, as the second single from the band\'s third album, 14:59 (1999). The song reached number seven on both the US Billboard Hot 100 and the Billboard Modern Rock Tracks chart, as well as number four on Canada\'s RPM Top Singles chart and number 25 in New Zealand.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Beautiful_Girls_(Sean_Kingston_song)', 'track_name': 'Beautiful Girls', 'artist': 'http://dbpedia.org/resource/Sean_Kingston', 'artist_name': 'Sean Kingston', 'wiki': 'http://en.wikipedia.org/wiki/Beautiful_Girls_(Sean_Kingston_song)', 'hometown': 'http://dbpedia.org/resource/Kingston,_Jamaica', 'abstract': '"Beautiful Girls" is the debut single by reggae-influenced musician Sean Kingston from his eponymous debut; it was first released in 2007, when Kingston was 17. The song samples Ben E. King\'s classic "Stand by Me". The song is about a boy who feels “suicidal” (or "in denial" in the edited version) over being unable to be with a "beautiful girl". It is Kingston\'s signature song. Rapper Lil Mama and actors Kenny Vibert and Lil\' JJ are featured in the music video directed by Marcus Raboy.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Want_to_Break_Free', 'track_name': 'I Want to Break Free', 'artist': 'http://dbpedia.org/resource/Queen_(band)', 'artist_name': 'Queen', 'wiki': 'http://en.wikipedia.org/wiki/I_Want_to_Break_Free', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"I Want to Break Free" is a song by the British rock band Queen, written by their bass guitarist John Deacon. It appears on the album The Works (1984), and was released in three versions: album, single and extended. It came to be included in most live concerts by the group, in several videos and in The Freddie Mercury Tribute Concert where it was sung by Lisa Stansfield. The song is largely known for its music video for which all the band members dressed in drag, a concept proposed by drummer Roger Taylor, which parodied the long-running ITV soap opera Coronation Street. The second part of the video included a composition rehearsed and performed with the Royal Ballet and choreographed by Wayne Eagling. Whereas the parody was acclaimed in the United Kingdom, where cross-dressing is a popular trope in British comedy, it received controversy in the United States. After its release in 1984, the song was well received in Europe and South America and is regarded as an anthem of the fight against oppression. The single reached only number 45 on the US Billboard Hot 100, but reached number three in the UK and was certified silver with over 200,000 copies sold. It also topped the charts of Austria, Belgium, and the Netherlands. The song features on the band\'s compilation album, Greatest Hits II.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Pompeii_(song)', 'track_name': 'Pompeii', 'artist': 'http://dbpedia.org/resource/Bastille_(band)', 'artist_name': 'Bastille', 'wiki': 'http://en.wikipedia.org/wiki/Pompeii_(song)', 'abstract': '"Pompeii" is a song by British band Bastille. It is the fourth single from their debut studio album Bad Blood and was released on 11 January 2013. The song\'s title and lyrics refer to the Roman town of the same name that was destroyed and buried in the eruption of Mount Vesuvius in AD 79. "Pompeii" became the band\'s breakthrough hit, peaking at number two on the UK Singles Chart and became the eleventh best-selling song that year and, until June 2014, was the country\'s most streamed single of all time. It was also successful worldwide, reaching the top ten in fifteen countries, including the United States where it peaked at number five on the Billboard Hot 100, becoming Bastille\'s most successful single to date, until "Happier" reached number two on both the UK and US charts in October 2018 and February 2019 respectively. The song was nominated for British Single of the Year at the 2014 BRIT Awards. A mashup of the song with Rudimental and Ella Eyre\'s "Waiting All Night" was performed live by Rudimental, Eyre and Bastille at the aforementioned ceremony, which reached number 21 in the UK. It was also performed at the 2014 iHeartRadio Music Awards, where it was nominated for Alternative Rock Song of the Year.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/You_Can_Leave_Your_Hat_On', 'track_name': 'You Can Leave Your Hat On', 'artist': 'http://dbpedia.org/resource/Joe_Cocker', 'artist_name': 'Joe Cocker', 'wiki': 'http://en.wikipedia.org/wiki/You_Can_Leave_Your_Hat_On', 'abstract': '"You Can Leave Your Hat On" is a song written by Randy Newman and appearing on his 1972 album Sail Away. According to a retrospective AllMusic review by Mark Deming, the song is a "potent mid-tempo rock tune" and a "witty and willfully perverse bit of erotic absurdity". Newman later admitted the song was, "too low for me to sing it. I can\'t rock it too hard, which maybe I should have...or maybe not."'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Applause_(Lady_Gaga_song)', 'track_name': 'Applause', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Applause_(Lady_Gaga_song)', 'abstract': '"Applause" is a song by American singer Lady Gaga from her third studio album, Artpop (2013). It was released as the album\'s lead single through Interscope Records on August 12, 2013. Written and produced by Gaga, DJ White Shadow, Dino Zisis and Nick Monson, additional songwriters included Martin Bresso, Nicolas Mercier, Julien Arias and William Grigahcine. "Applause" was inspired by the cheering of her fans, which kept her motivated during the months she toured with the Born This Way Ball in pain, before cancelling it due to a hip injury, and pays respect to the art of performance. It is an electropop, dance-pop and Eurodance song built around synthesizers and hi-NRG beats, with lyrics addressing how Gaga is dependent upon her fans\' adoration and how she lives to perform. The song received generally positive reviews from music critics, who felt its chorus was catchy and favorably compared it to the material featured on Gaga\'s debut album, The Fame (2008). "Applause" achieved commercial success in a number of nations, topping the charts in Hungary, Lebanon, South Korea, and Spain while peaking within the top 10 in Belgium, Bulgaria, Canada, Finland, France, Germany, Ireland, Israel, Italy, Japan, New Zealand, Norway, Poland, Scotland, the United Kingdom, and the United States as well as the top 20 in Australia, the Czech Republic, the Netherlands, Slovakia, and Sweden. It was also certified multi-platinum in Canada, Sweden and the United States. An accompanying music video directed by fashion photography duo Inez and Vinoodh was released on August 19, 2013, and broadcast on jumbotrons across Times Square. The video received positive reviews from critics, who saw it as a profile of Gaga herself and noted references to German Expressionist cinema and Andy Warhol. To promote the record, Gaga opened the 2013 MTV Video Music Awards with a performance of the song in which she represented her career through several on-stage wardrobe changes. She also performed it live on Good Morning America, Saturday Night Live, her tours ArtRave: The Artpop Ball and the Joanne World Tour, and residency shows Lady Gaga Live at Roseland Ballroom and Enigma.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Selling_the_Drama', 'track_name': 'Selling the Drama', 'artist': 'http://dbpedia.org/resource/Live_(band)', 'artist_name': 'Live', 'wiki': 'http://en.wikipedia.org/wiki/Selling_the_Drama', 'hometown': 'http://dbpedia.org/resource/York,_Pennsylvania', 'abstract': '"Selling the Drama" is the first single from Live\'s 1994 album, Throwing Copper. It reached number one on the US Billboard Modern Rock Tracks chart, becoming their first of three singles to reach the top of this chart. The song also reached number 43 on the Billboard Hot 100, number 49 in Australia, number 41 in Canada and number 30 in the United Kingdom. It achieved its highest peak in the Netherlands, peaking at number 15 on both the Dutch Top 40 and Single Top 100 charts. Live\'s performance of "Selling the Drama" at Woodstock \'94 was their featured song on the Woodstock \'94 double album.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Killing_Me_Softly_with_His_Song', 'track_name': 'Killing Me Softly with His Song', 'artist': 'http://dbpedia.org/resource/Fugees', 'artist_name': 'Fugees', 'wiki': 'http://en.wikipedia.org/wiki/Killing_Me_Softly_with_His_Song', 'hometown': 'http://dbpedia.org/resource/South_Orange,_New_Jersey', 'abstract': '"Killing Me Softly with His Song" is a song composed by Charles Fox with lyrics by Norman Gimbel. The lyrics were written in collaboration with Lori Lieberman after she was inspired by a Don McLean performance in late 1971. Lieberman released her version of the song in 1972, but it did not chart. In 1973 it became a number-one hit in the United States, Australia and Canada for Roberta Flack, also reaching number six in the UK Singles Chart. In 1996, Fugees recorded the song with Lauryn Hill on lead vocals, their version became a number-one hit in twenty countries. The version by Flack won the 1974 Grammy for Record of the Year and Best Female Pop Vocal Performance, and the version by Fugees won the 1997 Grammy for Best R&amp;B Performance by a Duo or Group with Vocal. The song has been covered by many other artists. Both versions by the Fugees and Roberta Flack were placed on the 2021 revised list of Rolling Stone\'s 500 Greatest Songs of All Time. After decades of confirming Lieberman\'s contribution, Fox and Gimbel changed their story about the song\'s origins to downplay her role. Gimbel threatened McLean with a lawsuit in 2008, demanding he remove from his website an assertion that McLean was the inspiration for "Killing Me Softly," but McLean responded by showing Gimbel his own words confirming the inspiration, published in 1973.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bodyrock_(song)', 'track_name': 'Bodyrock', 'artist': 'http://dbpedia.org/resource/Moby', 'artist_name': 'Moby', 'wiki': 'http://en.wikipedia.org/wiki/Bodyrock_(song)', 'abstract': '"Bodyrock" is a song by American electronica musician Moby. It was released as the third single from his fifth studio album Play on July 12, 1999. Heavily inspired by hip hop music, the song incorporates vocal samples from "Love Rap" by Spoonie Gee and the Treacherous Three. The single peaked at number 38 on the UK Singles Chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Cotton_Eye_Joe_(Rednex_song)', 'track_name': 'Cotton Eye Joe', 'artist': 'http://dbpedia.org/resource/Rednex', 'artist_name': 'Rednex', 'wiki': 'http://en.wikipedia.org/wiki/Cotton_Eye_Joe_(Rednex_song)', 'hometown': 'http://dbpedia.org/resource/Sweden', 'abstract': '"Cotton Eye Joe" is a song by Swedish Eurodance group Rednex from their debut studio album, Sex &amp; Violins (1995). Based on the traditional American folk song "Cotton-Eyed Joe", it combines the group\'s style with traditional American instruments such as banjos and fiddles. The vocal verses are performed by Annika Ljungberg, while the "Cotton Eye Joe" chorus is sung by Göran Danielsson, who never appears in the video. In 2002, "Cotton Eye Joe" was remixed in a dance version, and was released from Rednex\'s greatest hits album, The Best of the West.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Don't_Stop_'Til_You_Get_Enough", 'track_name': "Don't Stop 'Til You Get Enough", 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': "http://en.wikipedia.org/wiki/Don't_Stop_'Til_You_Get_Enough", 'abstract': '"Don\'t Stop \'Til You Get Enough" is a single written and recorded by American singer Michael Jackson. Released under Epic Records on July 10, 1979, the song is the first track on Jackson\'s fifth studio album Off the Wall (1979). It was the first solo recording over which Jackson had creative control. "Don\'t Stop \'Til You Get Enough" was Jackson\'s second single to hit number one on the Billboard Hot 100 chart, following "Ben" and his first solo number-one hit on the Billboard Soul Singles chart. It remained at number one for six weeks on Billboard Soul Singles chart. It is certified 3x Platinum by the Recording Industry Association of America (RIAA). The song was also worldwide success, reaching number one in nine other countries. "Don\'t Stop \'Til You Get Enough" was well received by contemporary music critics and is widely regarded as one of the greatest and most iconic disco songs of all time. An accompanying music video for "Don\'t Stop \'Til You Get Enough" was released in October 1979. The video shows Jackson dancing, as well as being shown in an innovative triplicate, in different color backgrounds. The song also won Jackson his first Grammy Award and American Music Awards. "Don\'t Stop \'Til You Get Enough" is considered to be the first song to showcase Jackson\'s talent as a solo artist, both as a singer and songwriter.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Mope', 'track_name': 'Mope', 'artist': 'http://dbpedia.org/resource/Bloodhound_Gang', 'artist_name': 'Bloodhound Gang', 'wiki': 'http://en.wikipedia.org/wiki/Mope', 'hometown': 'http://dbpedia.org/resource/Collegeville,_Pennsylvania', 'abstract': '"Mope" is the fourth single released from American music band the Bloodhound Gang\'s 1999 album Hooray for Boobies. A music video for the single was released in June 2000.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Instant_Crush', 'track_name': 'Instant Crush', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/Instant_Crush', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"Instant Crush" is a song written, produced, and performed by French electronic music duo Daft Punk and American musician Julian Casablancas. It was released as the fourth single from Daft Punk\'s fourth studio album, Random Access Memories (2013), on 22 November 2013. It was number 58 on Rolling Stone magazine\'s 100 Best Songs of 2013 list.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Rockabye_(song)', 'track_name': 'Rockabye', 'artist': 'http://dbpedia.org/resource/Clean_Bandit', 'artist_name': 'Clean Bandit', 'wiki': 'http://en.wikipedia.org/wiki/Rockabye_(song)', 'hometown': 'http://dbpedia.org/resource/Cambridge', 'abstract': '"Rockabye" is a song by British electronic group Clean Bandit, featuring English singer Anne-Marie as main vocalist together with Jamaican dancehall singer Sean Paul. It was released on 21 October 2016 and was their first single since Neil Amin-Smith\'s departure from the group and it serves as the second single from their second studio album, What Is Love? (2018). The song is about hardships of single mothers and alludes to the nursery rhyme and lullaby, Rock-a-bye Baby. "Rockabye" is included on the deluxe edition of Anne-Marie\'s debut studio album, Speak Your Mind. The song became the UK Christmas number one for 2016 on 23 December 2016. It is the first song in chart history to become Christmas number one after already being at the top of the charts for six weeks. In total, the song spent 9 weeks at the summit of the UK Singles Chart while also topping the charts in over 20 other countries.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Girls_&amp;_Boys_(Blur_song)', 'track_name': 'Girls &amp; Boys', 'artist': 'http://dbpedia.org/resource/Blur_(band)', 'artist_name': 'Blur', 'wiki': 'http://en.wikipedia.org/wiki/Girls_&amp;_Boys_(Blur_song)', 'abstract': '"Girls &amp; Boys" is a 1994 song by British rock band Blur. It was released as the lead single from the group\'s third album, Parklife. Charting at number five on the UK Singles Chart, "Girls &amp; Boys" was Blur\'s first top 5 hit and their most successful single until "Country House" reached number one the following year. The single surpassed their previous commercial peak "There\'s No Other Way" by three spots on the UK Singles Chart, and saw the group achieve greater worldwide success. In the US, the track reached number 59 on the Billboard Hot 100 singles chart, becoming the band\'s second single to hit the chart after "There\'s No Other Way". It also reached number four on the Modern Rock songs chart.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/How_Do_You_Do!', 'track_name': 'How Do You Do!', 'artist': 'http://dbpedia.org/resource/Roxette', 'artist_name': 'Roxette', 'wiki': 'http://en.wikipedia.org/wiki/How_Do_You_Do!', 'hometown': 'http://dbpedia.org/resource/Sweden', 'abstract': '"How Do You Do!" is a pop rock song by Swedish pop duo Roxette. It was released as the lead single from their fourth studio album Tourism on 3 July 1992. The music video was broadcast in the halftime of the UEFA Euro 1992 Final. The track was a commercial success upon release, topping the national singles charts in Norway and Spain. It also peaked at number two in several countries, including Austria, Belgium, Finland, Germany, the Netherlands, Sweden and Switzerland. It was held off the top spot in many of these territories by Dr. Alban\'s "It\'s My Life". The single was backed by several remixes created by Swedish production duo BomKrash, which consisted of Jacob Hellner and Carl-Michael Herlöfsson.'}</t>
+    <t>{'track': 'http://dbpedia.org/resource/Back_in_Black_(song)', 'track_name': 'Back in Black', 'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/Back_in_Black_(song)', 'hometown': 'http://dbpedia.org/resource/New_South_Wales', 'abstract': '"Back in Black" is a song by Australian rock band AC/DC. It was released as the lead single from their seventh album of the same name in 1980 through Atlantic Records. It is notable for its opening guitar riff. The song was written as a tribute to their former singer Bon Scott, who died in February 1980. In 1981, it reached number 37 on the Billboard Hot 100. In 2012, it reached number 65 in Australia and number 27 in the United Kingdom. In January 2018, as part of Triple M\'s "Ozzest 100", the \'most Australian\' songs of all time, "Back in Black" was ranked number 22.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Fuel_(song)', 'track_name': 'Fuel', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Fuel_(song)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': '"Fuel" is a song by American heavy metal band Metallica. The song was written by James Hetfield, Lars Ulrich, and Kirk Hammett, and was released as the third single from their seventh album, Reload. The song was nominated for a Grammy Award for Best Hard Rock Performance in 1999 but lost to Jimmy Page and Robert Plant for the song "Most High". It was moderately successful on the music charts, peaking at number two in Australia, number three in Hungary, number five in Finland and number six on the US Billboard Mainstream Rock chart. Metallica have frequently played "Fuel" in concerts over the years, including the 1999 live album S&amp;M with Michael Kamen conducting the San Francisco Symphony Orchestra.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Time_After_Time_(Cyndi_Lauper_song)', 'track_name': 'Time After Time', 'artist': 'http://dbpedia.org/resource/Cyndi_Lauper', 'artist_name': 'Cyndi Lauper', 'wiki': 'http://en.wikipedia.org/wiki/Time_After_Time_(Cyndi_Lauper_song)', 'abstract': '"Time After Time" is a 1983 song by American singer-songwriter Cyndi Lauper, co-written with Rob Hyman. It was the second single released from her debut studio album, She\'s So Unusual (1983), with Hyman contributing backing vocals. The track was produced by Rick Chertoff and released as a single on January 27, 1984. The song became Lauper\'s first number 1 hit in the U.S. The song was written in the album\'s final stages, after "Girls Just Wanna Have Fun", "She Bop" and "All Through the Night" had been written. The writing began with the title, which Lauper had seen in TV Guide magazine, referring to the science fiction film Time After Time (1979). Music critics gave the song positive reviews, with many commending the song for being a solid and memorable love song. The song has been selected as one of the Best Love Songs of All Time by many media outlets, including Rolling Stone, Nerve, MTV and many others. "Time After Time" was also nominated for a Grammy Award for Song of the Year at the 1985 edition. The song was a success on the charts, becoming her first number-one single on the US Billboard Hot 100 chart on June 9, 1984, and remaining there for two weeks. The song reached number three on the UK Singles Chart and number six on the ARIA Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Fight_Song_(Rachel_Platten_song)', 'track_name': 'Fight Song', 'artist': 'http://dbpedia.org/resource/Rachel_Platten', 'artist_name': 'Rachel Platten', 'wiki': 'http://en.wikipedia.org/wiki/Fight_Song_(Rachel_Platten_song)', 'abstract': '"Fight Song" is a song recorded by American singer and songwriter Rachel Platten, released as a single by Columbia Records on February 19, 2015. It appears on her extended play (EP) of the same name (2015) and on her major label debut studio album, and third overall, Wildfire (2016). Platten co-wrote the song with Dave Bassett. The song peaked at number six on the Billboard Hot 100 and topped the charts in the United Kingdom and Poland. It also peaked within the top ten of the singles charts in Australia, Canada, New Zealand and Ireland, and the top twenty in Slovakia. It has sold six million copies in the United States, earning a 6× platinum certification by the RIAA.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Break_Stuff', 'track_name': 'Break Stuff', 'artist': 'http://dbpedia.org/resource/Limp_Bizkit', 'artist_name': 'Limp Bizkit', 'wiki': 'http://en.wikipedia.org/wiki/Break_Stuff', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'abstract': '"Break Stuff" is a nu metal and rap metal song by American rap rock band Limp Bizkit, released on May 2, 2000, as the fourth and final single from their second studio album Significant Other (1999). The song was released alongside "N 2 Gether Now", and has remained a staple of Limp Bizkit\'s live shows.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Last_of_the_American_Girls', 'track_name': 'Last of the American Girls', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Last_of_the_American_Girls', 'abstract': '"Last of the American Girls" is a song written and recorded by American rock band Green Day and is the tenth track and fifth and last single from their eighth studio album 21st Century Breakdown. It peaked at number 26 on the US alternative rock chart. The song impacted radio on May 11, 2010. In its album review, Rolling Stone wrote: "\'Last of the American Girls\' comes on as a fabulous left-wing love song to a rebel girl — when Armstrong sings, \'She won\'t cooperate,\' he\'s giving her the highest compliment he can imagine." The song is playable as DLC in the video game Green Day: Rock Band.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Everybody's_Changing", 'track_name': "Everybody's Changing", 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': "http://en.wikipedia.org/wiki/Everybody's_Changing", 'abstract': '"Everybody\'s Changing" is a song performed by English alternative rock band Keane. It was released as the second single from their debut studio album, Hopes and Fears (2004). After a single release on Fierce Panda in May 2003, which peaked at number 122 in the UK Singles Chart, it was re-released on Island on 3 May 2004 after the success of "Somewhere Only We Know" and reached number four. It is also used in the TV series, In Plain Sight and can also be heard in the final moments of One Tree Hill episode "Truth Doesn\'t Make A Noise" and Scrubs episode "My Day at the Races". In August 2006, the song was rated No. 79 from the top 100 greatest songs of all time by The Sun. That same year, English singer Lily Allen recorded a cover of the song, released on her single "Littlest Things" (a version later appeared on the 2007 compilation album, The Saturday Sessions: The Dermot O\'Leary Show).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Henrietta_(song)', 'track_name': 'Henrietta', 'artist': 'http://dbpedia.org/resource/The_Fratellis', 'artist_name': 'The Fratellis', 'wiki': 'http://en.wikipedia.org/wiki/Henrietta_(song)', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': '"Henrietta" is the debut single of Scottish rock band the Fratellis, released on 12 June 2006 as the first single their debut album, Costello Music (2006). It was their first UK top-20 hit, charting at number 19 on 18 June 2006. "Henrietta" was released alongside "Flathead" and "Creepin\' Up the Backstairs" as a download for the Rock Band 2 video game on 10 February 2009.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/We_Found_Love', 'track_name': 'We Found Love', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/We_Found_Love', 'abstract': '"We Found Love" is a song by Barbadian singer Rihanna from her sixth studio album, Talk That Talk (2011). It was written and produced by, and features Scottish DJ Calvin Harris; the song was also featured on his third album 18 Months (2012). "We Found Love" premiered on September 22, 2011, on the Capital FM radio station in the United Kingdom, and was made available to download on the same day as the lead single from Talk That Talk. "We Found Love" is an uptempo electro house song, with elements of dance-pop, techno and Europop. The song\'s lyrics speak of a couple who "found love in a hopeless place". The song topped the US Billboard Hot 100 for ten non-consecutive weeks, becoming the longest running number-one single of 2011. The single also surpassed "Umbrella" and became Rihanna\'s longest running number one single. It was the singer\'s eleventh song to top the Hot 100, placing her in third place among female recording artists amassing the most number one singles. Outside of the United States, "We Found Love" topped the charts in 25 other countries, including Canada, France, Germany, New Zealand, the Republic of Ireland, Russia, Scotland, Switzerland, and the United Kingdom. According to Billboard it is the 27th most successful single of all time in the US. As of 2015, the single has sold 10.5 million copies worldwide, thus being one of the best selling singles of all time. The song\'s accompanying music video, directed by Melina Matsoukas, depicts the singer as a drug-abusing thrill-seeker in a relationship that quickly spirals downward into addiction and violence. The video won a Grammy for "Best Short Form Music Video" at the 55th Annual Grammy Awards and "Video of the Year" at the 2012 MTV Video Music Awards. The song has been performed on both the UK and US versions of The X Factor, as well as at the 2012 Grammy Awards and the 2012 BRIT Awards. Multiple recording artists have covered "We Found Love" including British artists Coldplay and Jessie J.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Love_Illumination', 'track_name': 'Love Illumination', 'artist': 'http://dbpedia.org/resource/Franz_Ferdinand_(band)', 'artist_name': 'Franz Ferdinand', 'wiki': 'http://en.wikipedia.org/wiki/Love_Illumination', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': '"Love Illumination" is a song by Scottish indie rock band Franz Ferdinand. It was released as the second single from the band\'s fourth studio album, Right Thoughts, Right Words, Right Action, on 27 June 2013.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Smile_(Lily_Allen_song)', 'track_name': 'Smile', 'artist': 'http://dbpedia.org/resource/Lily_Allen', 'artist_name': 'Lily Allen', 'wiki': 'http://en.wikipedia.org/wiki/Smile_(Lily_Allen_song)', 'abstract': '"Smile" is the debut single by British recording artist Lily Allen from her debut studio album Alright, Still (2006). It was written by Allen, Iyiola Babalola and Darren Lewis, while sampling the Soul Brothers\' "Free Soul". The song was released as the lead mainstream single of the album in July 2006. After signing a contract deal with Regal Recordings and gaining popularity on the social network website Myspace with demo songs, Allen released a limited edition of "LDN" to promote her work and afterwards announced the release of "Smile". The song incorporates rocksteady music, as the lyrics tackle her dealing with the betrayal of her boyfriend, while enjoying his misery. Most contemporary critics complimented the song, noticing the confidence it hides and the carnival-esque, yet melancholy, theme. On the other hand, some considered it was not one of the album\'s best tracks and it makes the singer a "theoretical pop princess". The single peaked inside the top 40 of the charts of some European countries and Australia, while staying on the summit of the UK Singles Chart for two consecutive weeks and ended the year as the country\'s 11th most successful song. It is also charted on the U.S. Billboard Hot 100, where it was certified gold. For promotion, "Smile" was re-recorded in Simlish and played on shows; it also received its own answer song. The accompanying music video portrayed a revenge theme, with Allen hiring a posse to beat her ex-boyfriend. It was directed by Sophie Muller and, afterwards, banned on MTV due to obscene language. The song was performed live many times, including on talk shows, her 2007 concert tour and also during her 2009 concert tour, though Allen claimed to be "sick" of it. In 2008, it won a Pop Award at the London Broadcast Music Incorporated Awards.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Malibu_(Hole_song)', 'track_name': 'Malibu', 'artist': 'http://dbpedia.org/resource/Hole_(band)', 'artist_name': 'Hole', 'wiki': 'http://en.wikipedia.org/wiki/Malibu_(Hole_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Malibu" is a song by American alternative rock band Hole. It is the fourth track and second single from the band\'s third studio album, Celebrity Skin, and was released on December 29, 1998 on DGC Records. The song was written by vocalist and rhythm guitarist Courtney Love, lead guitarist Eric Erlandson and Billy Corgan of The Smashing Pumpkins, who contributed to four other songs on Celebrity Skin. The single was released on vinyl and compact disc in multiple countries, including the United States, United Kingdom, Australia, and Japan. The standard releases of the single feature "Drag" as well as a cover of Bob Dylan\'s "It\'s All Over Now, Baby Blue" as b-sides. "Malibu" was one of Hole\'s most commercially and critically successful songs. The song peaked at number 3 on the US Modern Rock Tracks chart, and garnered a Grammy nomination in 1999. The song was ranked number 264 on "The 500 Greatest Songs Since You Were Born" list by Blender magazine in 2005. Blender also ranked it #3 on their list of "The Greatest Songs about California".'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Caught_in_the_Middle_(A1_song)', 'track_name': 'Caught in the Middle', 'artist': 'http://dbpedia.org/resource/A1_(group)', 'artist_name': 'a1', 'wiki': 'http://en.wikipedia.org/wiki/Caught_in_the_Middle_(A1_song)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Caught in the Middle" is a song by British-Norwegian boy band A1. It was released on 21 January 2002 as the lead single from their third studio album, Make It Good (2002). The song peaked at number two on the UK Singles Chart and received a Silver certification from the British Phonographic Industry in October 2018. It became one of their most successful and recognised singles. It was also released in a French-English version with singer Eve Angeli. In the United States, the song received moderate airplay and charted for seven weeks in the top 50 of the Radio &amp; Records Mainstream chart, peaking at number 46. It was their only single to chart in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Mr._Brightside', 'track_name': 'Mr. Brightside', 'artist': 'http://dbpedia.org/resource/The_Killers', 'artist_name': 'The Killers', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Brightside', 'abstract': '"Mr. Brightside" is the first single released by American rock band the Killers. It was released as the band\'s debut single and is featured on their debut studio album, Hot Fuss (2004). Written by band members Brandon Flowers and Dave Keuning, it was one of the first songs the Killers ever wrote. Two music videos were made for the song: the first one was shot in black and white and features the band performing in an empty room. The second one, based on the 2001 film Moulin Rouge!, was filmed for the song\'s re-release. The song was first released on September 29, 2003. It became more popular upon its re-release in 2004, peaking at number 10 in both the United States and the United Kingdom. It is the Killers\' best-selling song in the US, where it has sold over 3.5 million copies. In the United Kingdom it has also sold over 3.5 million copies and is the longest-charting single on the UK Singles Chart Top 100, with 278 weeks (over 5 years) on the chart, and is the most streamed track released prior to 2010. It is also one of the top fifteen most downloaded rock tracks ever in the United Kingdom. "Mr. Brightside" was named "Song of the Decade" by UK radio stations Absolute Radio and XFM, and in April 2010 Last.fm revealed that it was the most-listened-to track since the launch of the online music service, with the track being played over 7.66 million times. In October 2010, it was voted ninth in the Greatest Guitar Riffs of the 21st Century so far by Total Guitar magazine. Additionally, in 2010 Rolling Stone listed "Mr. Brightside" as the 48th-best song of the 21st century.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/The_Heat_Is_On_(Glenn_Frey_song)', 'track_name': 'The Heat Is On', 'artist': 'http://dbpedia.org/resource/Glenn_Frey', 'artist_name': 'Glenn Frey', 'wiki': 'http://en.wikipedia.org/wiki/The_Heat_Is_On_(Glenn_Frey_song)', 'abstract': '"The Heat Is On" is a song written by Harold Faltermeyer and Keith Forsey, and recorded by Glenn Frey for the American film Beverly Hills Cop (1984). The song was published as a single and as the sixth track of the album Beverly Hills Cop: Original Motion Picture Soundtrack (1984).'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/I_Really_Like_You', 'track_name': 'I Really Like You', 'artist': 'http://dbpedia.org/resource/Carly_Rae_Jepsen', 'artist_name': 'Carly Rae Jepsen', 'wiki': 'http://en.wikipedia.org/wiki/I_Really_Like_You', 'abstract': '"I Really Like You" is a song recorded by Canadian singer Carly Rae Jepsen for her third studio album, Emotion (2015). It was written by Jepsen, Jacob Kasher Hindlin, Peter Svensson, and Steve DaMar; and produced by Svensson. The song was released as the album\'s lead single on 2 March 2015. "I Really Like You" peaked at number 14 on the Canadian Hot 100. Outside of Canada, "I Really Like You" topped the charts in Hong Kong and Scotland, peaked within the top ten of the charts in Czech Republic, Denmark, Finland, Japan, the Republic of Ireland, South Africa, and the United Kingdom, and peaked within the top 20 of the charts in Austria, Germany, Slovakia and Switzerland. The song\'s accompanying music video starred Tom Hanks and featured Justin Bieber, and was released 5 March 2015.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/Let's_Get_Loud", 'track_name': "Let's Get Loud", 'artist': 'http://dbpedia.org/resource/Jennifer_Lopez', 'artist_name': 'Jennifer Lopez', 'wiki': "http://en.wikipedia.org/wiki/Let's_Get_Loud", 'abstract': '"Let\'s Get Loud" is a song recorded by American singer Jennifer Lopez for her debut studio album On the 6 (1999). Originally written by the song\'s co-writer Gloria Estefan for herself, she felt as if the song was too similar to her previous material and passed it onto Lopez. Estefan, who co-wrote the song alongside Kike Santander, stated that Lopez would have "more fun with it" and would put "a new spin" on it. "Let\'s Get Loud" is sometimes regarded as Lopez\'s signature song. Estefan eventually released her own version of the song in 2011 as a bonus track on the deluxe Target edition of her album Miss Little Havana. Since its release, "Let\'s Get Loud" charted on several charts around the world, reaching the top ten in five European countries, including number one in Hungary. Despite not being released in the United States, it also charted on the US Billboard Hot Dance Club Songs. "Let\'s Get Loud" received positive critical response and at the 43rd Annual Grammy Awards in 2001, Lopez earned her second consecutive nomination for the Grammy Award for Best Dance Recording with the song. An accompanying music video was directed by Jeffrey Doe and filmed live at the 1999 FIFA Women\'s World Cup. In 2021, this song was briefly performed as part of President Joe Biden\'s inauguration.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Dilemma_(song)', 'track_name': 'Dilemma', 'artist': 'http://dbpedia.org/resource/Nelly', 'artist_name': 'Nelly', 'wiki': 'http://en.wikipedia.org/wiki/Dilemma_(song)', 'abstract': '"Dilemma" is a song by American rapper Nelly, featuring singer Kelly Rowland. It was released on June 25, 2002, as the second single from Nelly\'s second studio album, Nellyville (2002), and as the first single from Rowland\'s debut solo studio album, Simply Deep (2002). A pop and R&amp;B ballad, the song consists of a high-pitched intonation and call and response, and contains a sample of Patti LaBelle\'s 1983 song "Love, Need and Want You". The lyrics describe a man infatuated with a woman committed in an existing relationship. The song was written by Nelly, Antoine Macon, Kenneth Gamble and Bunny Sigler, with production by Ryan Bowser. "Dilemma" received generally favorable reviews from music critics, who praised the duet\'s emotional balance. It peaked at number one on the US Billboard Hot 100 for 10 non-consecutive weeks, after it replaced Nelly\'s previous single "Hot in Herre" on the chart. The song also topped the charts in the United Kingdom, Australia, Ireland, and Germany. "Dilemma" won an award for Best Rap/Sung Performance and was nominated for Record of the Year at the 45th Annual Grammy Awards. An accompanying music video was directed by Benny Boom and released in September 2002. It was filmed on Colonial Street with appearances by Larry Hughes and Patti LaBelle, and depicts Nelly attracted towards his new neighbor Rowland despite the latter being in a relationship.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Chelsea_Dagger', 'track_name': 'Chelsea Dagger', 'artist': 'http://dbpedia.org/resource/The_Fratellis', 'artist_name': 'The Fratellis', 'wiki': 'http://en.wikipedia.org/wiki/Chelsea_Dagger', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'abstract': '"Chelsea Dagger" is a song by Scottish rock band the Fratellis. It was released as the second single from their debut studio album, Costello Music (2006), on 28 August 2006. It is named after Jon Fratelli\'s wife Heather, a burlesque dancer whose stage name – a play on Britney Spears – he borrowed for the song. Fratelli described the tune as "a rock \'n\' roll gig in an old speakeasy or something like that." This song was number 77 on Rolling Stone\'s list of the 100 Best Songs of 2007. "Chelsea Dagger" has become notable for its usage in sports. It has also been featured in adverts for Amstel Light and KitKat, the films Run Fatboy Run and Pitch Perfect, a TV spot for Open Season, an episode of The Inbetweeners, as well as the video games Burnout Dominator and Guitar Hero: On Tour Modern Hits. The song peaked at number 2 on the Scottish Singles Chart and number 5 on the UK Singles Chart and was certified platinum by the British Phonographic Industry in 2018.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Candyman_(Christina_Aguilera_song)', 'track_name': 'Candyman', 'artist': 'http://dbpedia.org/resource/Christina_Aguilera', 'artist_name': 'Christina Aguilera', 'wiki': 'http://en.wikipedia.org/wiki/Candyman_(Christina_Aguilera_song)', 'abstract': '"Candyman" is a song recorded by American singer Christina Aguilera for the second disc of her fifth studio album, Back to Basics (2006). "Candyman" was planned to be released as the second single from Back to Basics; however, RCA Records decided to release "Hurt" instead. Subsequently, the track was released on October 24, 2006 as the third single from the album. "Candyman" is described as a pop and jazz song that imitates swing music whose lyrics are about sexual intercourse. "Candyman" received praise for its musical style while some criticized its sexual content. Commercially, the single peaked within the top 10 in Australia, Canada, Hungary, New Zealand and Romania, as well as the top 20 in Austria, Belgium, Denmark, Germany, Ireland, the Netherlands, and the United Kingdom. In the United States, it peaked at number 25 on the Billboard Hot 100 chart and was certified Platinum by the Recording Industry Association of America for selling one million copies in the country. "Candyman" is also certified Gold in seven additional countries. A music video for the song was co-directed by Matthew Rolston and Aguilera herself. The video received an MTV Video Music Award nomination for Best Direction at the 2007 award ceremony. The single achieved a Grammy Award nomination for Best Female Pop Vocal Performance at the 2008 ceremony. The song was on the setlist of Aguilera\'s Back to Basics Tour (2006–2008) and has been covered by Alexandra Burke and the Glee cast.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Little_Sister_(Queens_of_the_Stone_Age_song)', 'track_name': 'Little Sister', 'artist': 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'artist_name': 'Queens of the Stone Age', 'wiki': 'http://en.wikipedia.org/wiki/Little_Sister_(Queens_of_the_Stone_Age_song)', 'hometown': 'http://dbpedia.org/resource/Palm_Desert,_California', 'abstract': '"Little Sister" is the first single released by the rock group Queens of the Stone Age from their fourth album Lullabies to Paralyze. It was first issued as a promotional single in December 2004, but was later released as a commercial single on March 7, 2005. The song was recorded live in the studio in one take.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Maneater_(Nelly_Furtado_song)', 'track_name': 'Maneater', 'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Maneater_(Nelly_Furtado_song)', 'abstract': '"Maneater" is a song by Canadian singer Nelly Furtado from her third studio album, Loose (2006). The song was written by Furtado, Tim "Timbaland" Mosley, Nate "Danja" Hills, and Jim Beanz, and released to mainstream radio in the United States in September 2006. The song\'s musical style and production were inspired by the Hall &amp; Oates song of the same name and other music from the 1980s. The song received positive reviews from music critics, with most comparing the song to Madonna and Depeche Mode songs from the 1980s. Outside North America, "Maneater" became one of Furtado\'s most popular singles, topping the charts in the United Kingdom and peaking within the top ten of the charts across much of Europe and Australia. The song became a club hit in North America but was less commercially successful than the lead single "Promiscuous". The accompanying music video was filmed by American director Anthony Mandler in Los Angeles. The video premiered on Yahoo! Music on 6 September 2006, and was given a "First Look" on MTV\'s Total Request Live on 8 September. The song was included on the setlist for Furtado\'s third tour Get Loose Tour.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Alejandro_(song)', 'track_name': 'Alejandro', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Alejandro_(song)', 'abstract': '"Alejandro" is a song by American singer Lady Gaga. It was released as the third single from her third EP, The Fame Monster (2009). Co-written and produced by Gaga and Nadir "RedOne" Khayat, it was inspired by her "Fear of Men Monster". The singer bids farewell to her lovers over mid-tempo synth-pop music with a Europop beat. Contemporary critics predominantly gave "Alejandro" positive reviews and noted that it takes influence from the pop acts ABBA and Ace of Base. The song charted in the United Kingdom and Hungary due to digital sales following the album\'s release. Upon release, "Alejandro" charted again in the United Kingdom as well as in Australia, Canada, New Zealand, Sweden, and the United States while topping the Czech, Finnish, Mexican, Venezuelan, Polish, Russian, Bulgarian, and Romanian charts. "Alejandro" became Gaga\'s seventh successive single to reach the top-ten of the US Billboard Hot 100. The accompanying music video was directed by fashion photographer Steven Klein and inspired by Gaga\'s love for her gay friends and admiration of gay love. Within the video, Gaga dances with a group of soldiers in a cabaret, interspersed with scenes of Gaga as a nun swallowing a rosary and near-naked men holding machine guns. The music video was controversial and received mixed reviews. Critics complimented its idea and dark nature while the Catholic League criticized Gaga for alleged blasphemy, despite Klein dismissing the idea and claiming that the scene in question (the swallowing of rosary beads) was Gaga\'s "desire to take in the Holy". Gaga performed the song on the ninth season of American Idol and has performed it on all dates of the Monster Ball Tour and on all subsequent tours to date.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Jeremy_(song)', 'track_name': 'Jeremy', 'artist': 'http://dbpedia.org/resource/Pearl_Jam', 'artist_name': 'Pearl Jam', 'wiki': 'http://en.wikipedia.org/wiki/Jeremy_(song)', 'hometown': 'http://dbpedia.org/resource/Seattle', 'abstract': '"Jeremy" is a song by the American rock band Pearl Jam, with lyrics written by vocalist Eddie Vedder and music written by bassist Jeff Ament. "Jeremy" was released in 1992 as the third single from Pearl Jam\'s debut album Ten (1991). The song was inspired by a newspaper article Vedder read about Jeremy Wade Delle, a high school student who shot himself in front of his English class on January 8, 1991. It reached the number five spot on both the Mainstream and Modern Rock Billboard charts. It did not originally chart on the regular Billboard Hot 100 singles chart since it was not released as a commercial single in the US at the time, but a re-release in July 1995 brought it up to number 79. The song gained popularity for its music video, directed by Mark Pellington and released in 1992, which received heavy rotation by MTV and became a hit. The original music video for "Jeremy" was directed and produced by Chris Cuffaro. Epic Records and MTV later rejected the music video, and released the version directed by Pellington instead. In 1993, the "Jeremy" video was awarded four MTV Video Music Awards, including Best Video of the Year.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/My_Sacrifice', 'track_name': 'My Sacrifice', 'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': 'http://en.wikipedia.org/wiki/My_Sacrifice', 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'abstract': '"My Sacrifice" is a song by American rock band Creed. It was released on October 16, 2001, as the lead single from their third studio album, Weathered. The song peaked at number four on the US Billboard Hot 100 chart for the week of February 9, 2002, and reached number one on the Mainstream Rock Tracks chart for nine consecutive weeks, beginning in December 2001. Worldwide, the song was a top-20 hit in Australia, Ireland, New Zealand, and the United Kingdom. The song was nominated for a Grammy Award for Best Rock Performance by a Duo or Group with Vocal in 2003 at the 45th Annual Grammy Awards.'}</t>
   </si>
   <si>
     <t>{'track': 'http://dbpedia.org/resource/Sad_but_True', 'track_name': 'Sad but True', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Sad_but_True', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'abstract': '"Sad but True" is a song by American heavy metal band Metallica. It was released in February 1993 as the fifth and final single from their eponymous fifth album, Metallica. The music video for the single was released in October 1992.'}</t>
   </si>
   <si>
-    <t>{'track': 'http://dbpedia.org/resource/I_Just_Called_to_Say_I_Love_You', 'track_name': 'I Just Called to Say I Love You', 'artist': 'http://dbpedia.org/resource/Stevie_Wonder', 'artist_name': 'Stevie Wonder', 'wiki': 'http://en.wikipedia.org/wiki/I_Just_Called_to_Say_I_Love_You', 'abstract': '"I Just Called to Say I Love You" is a ballad written, produced, and performed by American R&amp;B singer and songwriter Stevie Wonder. It was a major international hit, and remains Wonder\'s best-selling single to date, having topped a record 19 charts. The song was the lead single from the 1984 soundtrack album The Woman in Red, along with two other songs by Wonder, and scored number one on the Billboard Hot 100 for three weeks from October 13 to October 27, 1984. It also became his tenth number-one on the R&amp;B chart, and his fourth on the adult contemporary chart; it spent three weeks at the top of both charts, and for the same weeks as on the Hot 100. The song also became Wonder\'s only solo UK number-one success, staying at the top for six weeks, in the process also becoming Motown Records\' biggest-selling single in the UK, a distinction it still held as of 2018. In addition, the song won both a Golden Globe and an Academy Award for Best Original Song. The song also received three nominations at the 27th Grammy Awards for Best Male Pop Vocal Performance, Song of the Year, and Best Pop Instrumental Performance. The song\'s lyrics have Wonder surprising his love interest with an unexpected telephone call. Throughout the song, Wonder lists events in a yearly calendar that might prompt someone to call a loved one. Yet he explains no special annual event such as New Year\'s Day or Halloween spurred the call. He simply wants to tell her he loves her from the bottom of his heart. There was a dispute among Wonder, his former writing partner Lee Garrett, and Lloyd Chiate as to who actually wrote the song. Chiate claimed in a lawsuit that he and Garrett wrote the song years before its 1984 release. However, a jury ultimately sided with Wonder.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Gimme_More', 'track_name': 'Gimme More', 'artist': 'http://dbpedia.org/resource/Britney_Spears', 'artist_name': 'Britney Spears', 'wiki': 'http://en.wikipedia.org/wiki/Gimme_More', 'abstract': '"Gimme More" is a song by American singer Britney Spears. It was released on August 31, 2007, by Jive Records, as the lead single from Spears\' fifth studio album, Blackout (2007). "Gimme More" was recorded in 2006 during Spears\' second pregnancy and was one of the first solo productions by Danja. The song opens with an intro in which Spears utters the phrase "It\'s Britney, bitch". Musically, "Gimme More" is a dance-pop, electropop and EDM-pop song with breathy vocals. The track closes with a speak-sing outro by Danja. The song received critical acclaim and peaked at number three on the US Billboard Hot 100, becoming her second highest-peaking single at the time. It also peaked at the top of the charts in Canada, also charting with top-five positions in 14 countries. It is often considered one of the best pop songs of all time. The accompanying music video premiered on October 5, 2007. It displayed Spears as a stripper and featured a break from Spears\'s highly choreographed music videos. The video received mixed to negative reviews from critics, who panned Spears\'s pole dancing as well as the lack of storyline. An alternate cut was leaked on July 18, 2011. Spears first performed "Gimme More" at the 2007 MTV Video Music Awards on September 9, 2007, wearing a black, jewel-encrusted bikini. The performance was panned by many critics, who commented extensively on her "singing", dancing and wardrobe, with one deeming it as "one of the worst to grace the MTV Awards". On September 10, 2007, Cara Cunningham uploaded a video on YouTube in response to the criticism titled "Leave Britney Alone!", which made her an Internet celebrity and attracted attention from the media. Spears has also performed "Gimme More" at the Femme Fatale Tour (2011) and Britney: Piece of Me (2013). "Gimme More" has been covered and sampled by many artists, including Miley Cyrus, Sia, and Marié Digby.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/One_More_Time_(Daft_Punk_song)', 'track_name': 'One More Time', 'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/One_More_Time_(Daft_Punk_song)', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"One More Time" is a song by French electronic music duo Daft Punk, released as a single from their second album, Discovery (2001), on 13 November 2000. It is a French house song featuring a stylistically autotuned vocal performance by Romanthony. The music video of the song forms part of the 2003 anime film, Interstella 5555: The 5tory of the 5ecret 5tar 5ystem. "One More Time" was a commercial success, charting at number one on the French Singles Chart, number two on the UK Singles Chart, and number 61 on the US Billboard Hot 100. "One More Time" was listed at number five on Pitchfork\'s top 500 songs of the 2000s, with the magazine writing that it "distill[s] 25 years of pop and house into five and a half minutes of first-time joy." Rolling Stone listed it at number 33 of their top 100 songs of the decade (2000–2009) as well as number 307 on its amended "The 500 Greatest Songs of All Time" list in May 2010. It was voted by Mixmag readers as the greatest dance record of all time. Also, "One More Time" was ranked at number 11 on The Village Voice\'s Pazz &amp; Jop annual year-end critics\' poll. The song was uploaded on YouTube by Daft Punk on 24 February 2009.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Bad_Things_(Jace_Everett_song)', 'track_name': 'Bad Things', 'artist': 'http://dbpedia.org/resource/Jace_Everett', 'artist_name': 'Jace Everett', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Things_(Jace_Everett_song)', 'abstract': '"Bad Things" is a song written and recorded by American country music singer Jace Everett. It is included on his only album for Epic Records Nashville, the self-titled Jace Everett. Although released as a single in 2005, it did not chart on the Hot Country Songs charts that year. The song charted in the United Kingdom, Norway, and Sweden in 2009 after it was selected as the theme song for the HBO series True Blood.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Outside_(Calvin_Harris_song)', 'track_name': 'Outside', 'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/Outside_(Calvin_Harris_song)', 'abstract': '"Outside" is a song by Scottish DJ and record producer Calvin Harris, featuring English singer Ellie Goulding, from Harris\'s fourth studio album, Motion (2014). It was released on 20 October 2014 as the album\'s fourth single. The song also appears on the deluxe edition of Goulding\'s third studio album, Delirium (2015). "Outside" marks the second collaboration between Harris and Goulding, following the single "I Need Your Love" (2013).'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/Don't_Tell_Me_(What_Love_Can_Do)", 'track_name': "Don't Tell Me (What Love Can Do)", 'artist': 'http://dbpedia.org/resource/Van_Halen', 'artist_name': 'Van Halen', 'wiki': "http://en.wikipedia.org/wiki/Don't_Tell_Me_(What_Love_Can_Do)", 'hometown': 'http://dbpedia.org/resource/Pasadena,_California', 'abstract': '"Don\'t Tell Me (What Love Can Do)" is a song by American hard rock band Van Halen from their 1995 album Balance. It is one of five singles issued for the album, and was the only one to reach #1 on the Billboard Album Rock Tracks chart, where it stayed for three weeks. Chuck Klosterman of Vulture.com ranked it the 67th-best Van Halen song, calling it "the best song off the worst Van Halen album that isn’t Van Halen III."'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Mr._Jones_(Counting_Crows_song)', 'track_name': 'Mr. Jones', 'artist': 'http://dbpedia.org/resource/Counting_Crows', 'artist_name': 'Counting Crows', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Jones_(Counting_Crows_song)', 'hometown': 'http://dbpedia.org/resource/Berkeley,_California', 'abstract': '"Mr. Jones" is a song by American alternative rock band Counting Crows. It was released in December 1993 as the lead single from their debut album, August and Everything After (1993). It was the band\'s first radio hit and has been described as their breakout single. "Mr. Jones" reached number five on the Billboard Hot 100, and is to date their highest-charting single in the US. Internationally, the song peaked at number one in Canada and number seven in France.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/It_Must_Be_Love_(Labi_Siffre_song)', 'track_name': 'It Must Be Love', 'artist': 'http://dbpedia.org/resource/Madness_(band)', 'artist_name': 'Madness', 'wiki': 'http://en.wikipedia.org/wiki/It_Must_Be_Love_(Labi_Siffre_song)', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"It Must Be Love" is a song written and originally recorded and released in 1971 by English singer Labi Siffre on his 1972 album Crying Laughing Loving Lying. It was also recorded by ska/pop band Madness in 1981.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Smooth_(Santana_song)', 'track_name': 'Smooth', 'artist': 'http://dbpedia.org/resource/Santana_(band)', 'artist_name': 'Santana', 'wiki': 'http://en.wikipedia.org/wiki/Smooth_(Santana_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Smooth" is a collaboration between Latin rock band Santana and Matchbox Twenty vocalist Rob Thomas. The song was written by Itaal Shur and Thomas, produced by Matt Serletic, and sung by Thomas. In the United States, it topped the Billboard Hot 100 for 12 weeks; it was the final number-one hit of the 1990s and the first number-one hit of the 2000s. "Smooth" is the only song to appear on two decade-end Billboard charts. In 2018 "Smooth" was ranked the second most successful song ever in Billboard\'s 60th anniversary all-time top 100 songs. It won three Grammy Awards: Record of the Year, Song of the Year, and Best Pop Collaboration with Vocals. The song reached number one in Canada and the top 10 in Australia, Austria, Ireland and the United Kingdom.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Africa_(Toto_song)', 'track_name': 'Africa', 'artist': 'http://dbpedia.org/resource/Toto_(band)', 'artist_name': 'Toto', 'wiki': 'http://en.wikipedia.org/wiki/Africa_(Toto_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Africa" is a song by American rock band Toto, the tenth and final track on their fourth studio album Toto IV (1982). It was released as a single in the US through Columbia Records in October 1982, the album\'s third single overall and second in Europe. The song was written by band members David Paich and Jeff Porcaro, produced by the band, and mixed by Grammy-winning engineer Elliot Scheiner. Critics praised its composition and Toto\'s performances. The song reached number one on the United States\' Billboard Hot 100 chart, the band\'s only Billboard number one, and number one on the Canadian charts. It also peaked in the top ten in the United Kingdom, Ireland, Netherlands, New Zealand, and Switzerland. The song was accompanied by a music video, which premiered in 1983, and was directed by Steve Barron, who collaborated previously with the group for "Rosanna". The video features Toto in a library, as they perform and showcase various aspects of African culture. While popular in the 1980s and 1990s, with the song being certified gold by the RIAA in 1991, "Africa" saw a resurgence in popularity via social media during the mid- to late 2010s, including a fan-requested cover by American rock band Weezer which peaked at number 51 on the Billboard Hot 100. It has since been certified six times platinum.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Salvation_(The_Cranberries_song)', 'track_name': 'Salvation', 'artist': 'http://dbpedia.org/resource/The_Cranberries', 'artist_name': 'The Cranberries', 'wiki': 'http://en.wikipedia.org/wiki/Salvation_(The_Cranberries_song)', 'hometown': 'http://dbpedia.org/resource/Limerick', 'abstract': '"Salvation" is the lead single from Irish rock band the Cranberries\' third studio album, To the Faithful Departed (1996). Released on 8 April 1996, the single reached number one on the US Billboard Modern Rock Tracks chart for four weeks and was a chart hit in Europe and Australia, peaking at number four in Iceland, number six in Italy, number seven in New Zealand, and number eight in Australia and Ireland.'}</t>
-  </si>
-  <si>
-    <t>{'track': "http://dbpedia.org/resource/It's_No_Good", 'track_name': "It's No Good", 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': "http://en.wikipedia.org/wiki/It's_No_Good", 'hometown': 'http://dbpedia.org/resource/Basildon', 'abstract': '"It\'s No Good" a song by English electronic music band Depeche Mode, released on 31 March 1997 as the second single from their ninth studio album, Ultra (1997). It was commercially successful, reaching number-one in Denmark, Spain, Sweden and on the US Billboard Hot Dance Club Play chart. Additionally, it managed to climb into the Top 10 in Finland, Germany, Iceland, Italy, Scotland and the UK, where it peaked at number five. On 15 May 1997, the band went on The Tonight Show with Jay Leno and performed the song, a recording made available at the official Depeche Mode website. The B-side is an instrumental, called "Slowblow". It was the last actual B-side from the Ultra era, making the album the only one by Depeche Mode to not have a non-remix/non-live vocal B-side track (Although if you exclude non-exclusive songs, Black Celebration can count as well).'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Scream_&amp;_Shout', 'track_name': 'Scream &amp; Shout', 'artist': 'http://dbpedia.org/resource/Will.i.am', 'artist_name': 'will.i.am', 'wiki': 'http://en.wikipedia.org/wiki/Scream_&amp;_Shout', 'abstract': '"Scream &amp; Shout" is a song by American singers will.i.am and Britney Spears, taken from the former\'s fourth studio album #willpower (2013). It was released on November 20, 2012, by Interscope Records as the second single from the album, and sent to mainstream radio in the United States on November 27. The song was written by will.i.am, Jef Martens, JAYLIEN Tulisa, Jean Baptiste and was produced by Martens under the alias Lazy Jay, with additional production by will.i.am. "Scream &amp; Shout" is an upbeat dance pop song; its lyrics are about having a good time on a night out. It includes a reference to the lyric "Britney, bitch" from Spears\' 2007 single "Gimme More". "Scream &amp; Shout" received mixed reviews from music critics. Some critics described the song as a dark club track, but others criticized the use of Auto-Tune on the vocals. The song was a commercial success worldwide, topping the charts in over 24 countries and reached the top five in Australia, Czech Republic, Russia, Slovakia, South Korea and Sweden. In the United States, the song peaked at number three on the Billboard Hot 100 and became the first number one song of the newly established Dance/Electronic Songs chart. In the United Kingdom, "Scream &amp; Shout" became will.i.am\'s second consecutive number one single, Spears\' sixth number one and her first chart-topper since "Everytime". An accompanying music video directed by Ben Mor was shot in October 2012, and premiered in the U.S. during a live episode of The X Factor on November 28. The theme of the music video is multiplicity, and critics complimented its futuristic setting. "Scream &amp; Shout" also served as the theme song for a television commercial for Beats by Dr. Dre Color headphones. A remixed version of the song, featuring rappers Hit-Boy, Waka Flocka Flame, Lil Wayne and Sean Combs, was uploaded to will.i.am\'s official YouTube account on January 25, 2013, after it was leaked on the internet earlier the same day. A music video for this version was filmed in January 2013 and released on February 14.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/We_Found_Love', 'track_name': 'We Found Love', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/We_Found_Love', 'abstract': '"We Found Love" is a song by Barbadian singer Rihanna from her sixth studio album, Talk That Talk (2011). It was written and produced by, and features Scottish DJ Calvin Harris; the song was also featured on his third album 18 Months (2012). "We Found Love" premiered on September 22, 2011, on the Capital FM radio station in the United Kingdom, and was made available to download on the same day as the lead single from Talk That Talk. "We Found Love" is an uptempo electro house song, with elements of dance-pop, techno and Europop. The song\'s lyrics speak of a couple who "found love in a hopeless place". The song topped the US Billboard Hot 100 for ten non-consecutive weeks, becoming the longest running number-one single of 2011. The single also surpassed "Umbrella" and became Rihanna\'s longest running number one single. It was the singer\'s eleventh song to top the Hot 100, placing her in third place among female recording artists amassing the most number one singles. Outside of the United States, "We Found Love" topped the charts in 25 other countries, including Canada, France, Germany, New Zealand, the Republic of Ireland, Russia, Scotland, Switzerland, and the United Kingdom. According to Billboard it is the 27th most successful single of all time in the US. As of 2015, the single has sold 10.5 million copies worldwide, thus being one of the best selling singles of all time. The song\'s accompanying music video, directed by Melina Matsoukas, depicts the singer as a drug-abusing thrill-seeker in a relationship that quickly spirals downward into addiction and violence. The video won a Grammy for "Best Short Form Music Video" at the 55th Annual Grammy Awards and "Video of the Year" at the 2012 MTV Video Music Awards. The song has been performed on both the UK and US versions of The X Factor, as well as at the 2012 Grammy Awards and the 2012 BRIT Awards. Multiple recording artists have covered "We Found Love" including British artists Coldplay and Jessie J.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Set_Fire_to_the_Rain', 'track_name': 'Set Fire to the Rain', 'artist': 'http://dbpedia.org/resource/Adele', 'artist_name': 'Adele', 'wiki': 'http://en.wikipedia.org/wiki/Set_Fire_to_the_Rain', 'abstract': '"Set Fire to the Rain" is a song recorded by English singer-songwriter Adele for her second studio album, 21. The song was Adele\'s third consecutive US number-one single from 21 and reached the top ten in most of other foreign markets. The song was voted by readers of Billboard as their favorite number one hit of 2012. The song\'s live rendition from the DVD Live at the Royal Albert Hall won the Grammy Award for Best Pop Solo Performance at the 55th Annual Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Yummy_(Justin_Bieber_song)', 'track_name': 'Yummy', 'artist': 'http://dbpedia.org/resource/Justin_Bieber', 'artist_name': 'Justin Bieber', 'wiki': 'http://en.wikipedia.org/wiki/Yummy_(Justin_Bieber_song)', 'abstract': '"Yummy" is a song by Canadian singer Justin Bieber. It was released on January 3, 2020, along with a lyric video through Def Jam Recordings, as the lead single from his fifth studio album, Changes. The song is Bieber\'s first single as a solo artist to be released in almost four years, following his March 2016 single, "Company", a song from his 2015 album Purpose. Bieber joined the video-sharing social networking service TikTok on the day of the song\'s release. "Yummy" received mixed reviews from music critics, some of whom complimented on Bieber\'s vocal performance while others criticized the song\'s production, its songwriting, and Bieber\'s delivery. The song debuted at number two on the US Billboard Hot 100, while reaching the top five in Australia, Canada, the United Kingdom and various other countries, and hitting number one in New Zealand. The song\'s official music video was released on January 4, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Going_Under', 'track_name': 'Going Under', 'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Going_Under', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'abstract': '"Going Under" is a song by American rock band Evanescence. Recorded for their debut studio album, Fallen (2003), Wind-up Records released it as the album\'s second single on September 9, 2003. The song was written by Evanescence members Amy Lee, David Hodges and Ben Moody while its production was handled by Dave Fortman. The song contains rock and heavy metal elements and its instrumentation consists of drums and guitars built around Lee\'s soprano vocals. Lyrically, "Going Under" was written about an emotionally difficult past relationship. It received mostly positive reviews from music critics, most of whom praised its anthemic chorus and Lee\'s vocal performance. "Going Under" peaked at number five on the US Billboard Alternative Songs chart, charted in the top ten in Brazil, Italy, New Zealand and the UK and the top forty in various other European countries and Australia. It obtained a platinum certification in the latter country by the Australian Recording Industry Association (ARIA). A music video for the song was directed by Philipp Stölzl and it was filmed in May 2003 in Berlin. It features the band performing the song live, while spectators from the audience turn into zombies and water in which lead singer Lee drowns, illustrating the song\'s lyrics of sinking. The singer designed both of the dresses she wears in the video. Evanescence performed the song live during the set list of their concert tours in support of Fallen (2003-2004) and The Open Door (2006-2007) as well as the Evanescence Tour (2011-2012) in support of their self-titled third studio album. They also performed it during several of their televised appearances, such as the 2003 Teen Choice Awards, the 2003 American Music Awards and the Jimmy Kimmel Live! show in 2011.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Domino_Dancing', 'track_name': 'Domino Dancing', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/Domino_Dancing', 'hometown': 'http://dbpedia.org/resource/London', 'abstract': '"Domino Dancing" is a song by English synth-pop duo Pet Shop Boys, released as the lead single from their third studio album, Introspective (1988). It reached number seven on the UK Singles Chart and topped the charts in Finland, Poland and Spain.'}</t>
-  </si>
-  <si>
-    <t>{'track': 'http://dbpedia.org/resource/Disturbia_(song)', 'track_name': 'Disturbia', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Disturbia_(song)', 'abstract': '"Disturbia" is a song recorded by Barbadian singer Rihanna for Good Girl Gone Bad: Reloaded (2008), a re-release of her third studio album Good Girl Gone Bad (2007). It was written by Andre Merritt, Chris Brown, Brian Kennedy and Rob. A!, with the production of the song helmed by Kennedy. The song was released as the third single from the reloaded edition of the album, and seventh overall. "Disturbia" was sent to US contemporary hit radio on June 17, 2008, and was released as a CD single in the United Kingdom on July 22, 2008. "Disturbia" is an uptempo dance-pop and electropop song with a "sizzling" beat. Lyrically, the song is about the experiences of anguish, anxiety, and confusion. The song received positive reviews from music critics, who generally praised its dark musical tone, lyrics and beat, and noted that it is reminiscent of Rihanna\'s previous single, "Don\'t Stop the Music" (2007). "Disturbia" earned Rihanna an award for Best International Song at the 2009 NRJ Music Awards and a nomination for Best Dance Recording at the 2009 Grammy Awards. "Disturbia" was a commercial success, and peaked at number one in Belgium (Flanders) and New Zealand and became a top-ten hit in more than twenty countries including Australia, Canada, and the United Kingdom. The song topped the US Billboard Hot 100 chart for two consecutive weeks, and became Rihanna\'s third number-one single from Good Girl Gone Bad and fourth overall on the Hot 100. The accompanying music video for "Disturbia" was directed by Anthony Mandler, which portrays Rihanna in various locations such as in a prison cell and gas chamber. "Disturbia" has regularly featured on the set lists of Rihanna\'s tours and live performances since its release.'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Boston', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Boston', 'place': 'http://sws.geonames.org/4930956/', 'postal_code': '02210', 'geo_link': 'http://www.geonames.org/4930956/boston.html', 'lat': '42.35805555555555', 'long': '-71.06361111111111', 'population': '617594'}</t>
+    <t>{'track': 'http://dbpedia.org/resource/Pour_It_Up', 'track_name': 'Pour It Up', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Pour_It_Up', 'abstract': '"Pour It Up" is a song by Barbadian singer Rihanna from her seventh studio album, Unapologetic (2012). It was serviced to urban radio stations in the United States on January 8, 2013, as the second US single, and third overall single from the album. It was later also sent to contemporary hit radio radios in the country. "Pour It Up" was co-written by Rock City and co-written and produced by Michael Williams and co-produced by JBo. It is a club, trap and R&amp;B song with a minimal hip hop beat. Rihanna brags about her wealth, which serves as both a strip club anthem and a declaration of independence. "Pour It Up" received a mixed response from critics, some of whom cited it as a highlight on Unapologetic, whilst others felt it was out of place. Upon its release as a single in the US, "Pour It Up" debuted at number 90 on the Billboard Hot 100 chart, on which it ultimately peaked at number 19. It also became Rihanna\'s second number one single on the Hot R&amp;B/Hip-Hop Airplay chart and reached number six on the Hot R&amp;B/Hip-Hop Songs chart. Rihanna performed the song on her fifth and sixth headlining tour, the Diamonds World Tour and Anti World Tour. The song\'s official remix was released on March 20, 2013 and features additional rap verses from Young Jeezy, T.I., Rick Ross and Juicy J. Rihanna took pole-dancing lessons from Nicole Williams before the shooting of the music video.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/My_Way_(Calvin_Harris_song)', 'track_name': 'My Way', 'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/My_Way_(Calvin_Harris_song)', 'abstract': '"My Way" is a song by Scottish DJ and producer Calvin Harris. The song was released on 16 September 2016. Harris announced the single on his Twitter page five days prior to its release. Like his previous 2010s singles "Summer" and "Feel So Close", Harris returns as a vocalist. It peaked at number four on the UK Singles Chart. Outside the United Kingdom, the single topped the charts in the Czech Republic and Hungary and peaked within the top ten of the charts in Australia, Austria, Belgium, France, Germany, Israel, Lebanon, the Netherlands, New Zealand, Norway, Paraguay, Poland, the Republic of Ireland, Slovakia, Sweden and Switzerland and the top twenty of the charts in Canada, Denmark, Finland, Italy, Portugal and Spain.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Words_(F._R._David_song)', 'track_name': 'Words', 'artist': 'http://dbpedia.org/resource/F._R._David', 'artist_name': 'F.R. David', 'wiki': 'http://en.wikipedia.org/wiki/Words_(F._R._David_song)', 'hometown': 'http://dbpedia.org/resource/Paris', 'abstract': '"Words" is a song by F. R. David, released as a single in 1982 from his debut album of the same name. The song was a huge European hit, peaking at number one in Germany, Switzerland, Sweden, Austria and Norway. In spring of 1983, it peaked at number two on the British charts. It also went to number one in South Africa in late 1982, spending 25 weeks on the charts, eventually becoming the No. 1 hit on that country\'s year-end charts. In Australia, the single peaked at number 12 but spent 41 weeks on the Top 100 in two chart runs throughout 1983 and early 1984. In 2006, David released a French language duet version of the song with singer Winda, entitled "Words, J\'aime ces Mots". David and Winda also recorded an English duet version.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Jaded_(Aerosmith_song)', 'track_name': 'Jaded', 'artist': 'http://dbpedia.org/resource/Aerosmith', 'artist_name': 'Aerosmith', 'wiki': 'http://en.wikipedia.org/wiki/Jaded_(Aerosmith_song)', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'abstract': '"Jaded" is a song by American hard rock band Aerosmith. It was written by lead singer Steven Tyler and songwriting collaborator Marti Frederiksen. The single was released on February 20, 2001, as the first single from the album Just Push Play. The song was debuted publicly at the American Music Awards and was also played at the halftime show for Super Bowl XXXV in January 2001. It was ranked No. 86 on VH1\'s 100 Greatest Songs of the \'00s. "Jaded" would become Aerosmith\'s final chart hit in most territories. It reached number one on both the US Billboard Mainstream Rock chart and the UK Rock Chart, while reaching the top 10 on the Billboard Hot 100 and in Canada and Scotland. On the UK Singles Chart, the song reached number 13 and became the band\'s eighth top-twenty single on that chart; it currently remains their last UK top-forty hit. "Jaded" additionally reached the top 20 in Italy, the Netherlands and Spain. In 2002, it was nominated for a Grammy Award for Best Rock Performance by a Duo or Group with Vocal.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Maps_(Maroon_5_song)', 'track_name': 'Maps', 'artist': 'http://dbpedia.org/resource/Maroon_5', 'artist_name': 'Maroon 5', 'wiki': 'http://en.wikipedia.org/wiki/Maps_(Maroon_5_song)', 'hometown': 'http://dbpedia.org/resource/California', 'abstract': '"Maps" is a song by American pop-rock band Maroon 5. The song was released on June 16, 2014, as the lead single from their fifth studio album V (2014). The song was written by Adam Levine, Ammar Malik, Benjamin Levin, Noel Zancanella and Ryan Tedder and produced by the latter three. The song is a pop rock song with influences of dance-pop. "Maps" received mainly positive reviews from music critics, with praise going to the song\'s melody and chilled-out vibe. However, some criticized the song for being similar to their previous lead single "Payphone", on their last album Overexposed (2012). The song was a commercial success, reaching number-one in Canada and peaking at number six on the Billboard Hot 100 and number two on the UK Singles Chart. The song also reached the top 20 in over 25 countries, including France, Germany and Denmark. On July 1, 2014, a music video for the song premiered on MTV and VH1. It was inspired by the film Irréversible and shows the events that occur in the video in reverse. In August 2014, "Maps" was named Battle of the Summer Jams for 2014 by VH1. The remix versions of the song are performed by featured artists, American rapper Big Sean and Colombian singer J Balvin. Another remix version was made by Circuit Jerks and was included on their EP titled EP1 (2016). The band has performed the song multiple times including the Maroon V Tour (2015–2018), as well as the 2014 MTV Video Music Awards and The Today Show. The song was used in the advertisement for the 2013 film Begin Again, which stars Levine. It was featured on the television shows Shameless and State of Affairs and the video games Just Dance 2015 and Rock Band VR.'}</t>
+  </si>
+  <si>
+    <t>{'track': "http://dbpedia.org/resource/I'm_Outta_Love", 'track_name': "I'm Outta Love", 'artist': 'http://dbpedia.org/resource/Anastacia', 'artist_name': 'Anastacia', 'wiki': "http://en.wikipedia.org/wiki/I'm_Outta_Love", 'abstract': '"I\'m Outta Love" is the debut single of American singer Anastacia. Written by Anastacia, Sam Watters, and Louis Biancaniello and produced by the latter two, it was released on February 29, 2000, as the lead single from her debut album, Not That Kind (2000). The song became a major hit in Europe and Australia, reaching number one in Wallonia, Australia and New Zealand; it was the most successful song of 2000 in the latter two regions. It additionally reached the top five in several others, including France, Ireland, Italy, the Netherlands, and Switzerland.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Closer_to_Free', 'track_name': 'Closer to Free', 'artist': 'http://dbpedia.org/resource/BoDeans', 'artist_name': 'BoDeans', 'wiki': 'http://en.wikipedia.org/wiki/Closer_to_Free', 'hometown': 'http://dbpedia.org/resource/Waukesha,_Wisconsin', 'abstract': '"Closer to Free" is a 1993 song by American rock band BoDeans featured on their fifth studio album, Go Slow Down. It is the band\'s biggest hit, peaking at number 16 on the US Billboard Hot 100, number 11 in Australia, and number one in Canada after its re-release in 1996. It was featured as the theme of the TV series Party of Five.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Point_of_View_(DB_Boulevard_song)', 'track_name': 'Point of View', 'artist': 'http://dbpedia.org/resource/DB_Boulevard', 'artist_name': 'DB Boulevard', 'wiki': 'http://en.wikipedia.org/wiki/Point_of_View_(DB_Boulevard_song)', 'hometown': 'http://dbpedia.org/resource/Italy', 'abstract': '"Point of View" is a song by Italian music group DB Boulevard. "Point of View" became a hit in Europe and Australia and topped the US Billboard Dance Club Songs chart. It contains a re-recorded version of a song called "Heatwave" by French band Phoenix, which was released as a single in 1999. The music video of the song featured a computer animated cardboard woman. The song was used by Sky Sports in their Speedway Grand Prix coverage. It was also used in the Sex and the City season five episode "Cover Girl". In Australia, the song was played frequently on the Seven Network idents.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Youngblood_(5_Seconds_of_Summer_song)', 'track_name': 'Youngblood', 'artist': 'http://dbpedia.org/resource/5_Seconds_of_Summer', 'artist_name': '5 Seconds of Summer', 'wiki': 'http://en.wikipedia.org/wiki/Youngblood_(5_Seconds_of_Summer_song)', 'hometown': 'http://dbpedia.org/resource/Australia', 'abstract': '"Youngblood" is a song recorded by Australian pop rock band 5 Seconds of Summer. It was written by Calum Hood, Ali Tamposi, Andrew Watt, Ashton Irwin and Luke Hemmings with production handled by Andrew Watt and Louis Bell. The song was released via Capitol Records on 12 April 2018, as the second single from their third studio album of the same name. "Youngblood" reached massive worldwide success. The song peaked at number one in Australia in May 2018, becoming the band\'s second number-one single in their home country, spending eight consecutive weeks at the top, and was certified as the number one song in Australia for 2018. It also reached number one in New Zealand, spending four consecutive weeks at the top. It reached the top ten in eleven countries, including number three in Canada, number four in the United Kingdom, and number seven in the United States, becoming their first top 10 single in Canada and the United States. On the radio charts, it became their first number one on United States’ Mainstream Top 40 chart and Adult Pop Songs chart, topping the charts for five consecutive weeks and two consecutive weeks, respectively, and Canada\'s Contemporary Hit Radio/Top 40 Airplay chart, topping the chart for four consecutive weeks. "Youngblood" has been certified multi-platinum in Australia and New Zealand, certified platinum in the United States, the United Kingdom, and Canada, and certified gold in Italy, Belgium and Brazil. At the ARIA Music Awards of 2018, "Youngblood" won the ARIA Award for Song of the Year. and is the most streamed Australian song of all time on Apple Music. "Youngblood" sold over five million adjusted copies worldwide within six months of release, the eleventh best-selling single of all time in Australia. and has been honored in the APRA AMCOS’ The 1,000,000,000 List, for having been streamed over 1 billion times.'}</t>
+  </si>
+  <si>
+    <t>{'track': 'http://dbpedia.org/resource/Heaven_Is_a_Place_on_Earth', 'track_name': 'Heaven Is a Place on Earth', 'artist': 'http://dbpedia.org/resource/Belinda_Carlisle', 'artist_name': 'Belinda Carlisle', 'wiki': 'http://en.wikipedia.org/wiki/Heaven_Is_a_Place_on_Earth', 'abstract': '"Heaven Is a Place on Earth" is a song by American singer Belinda Carlisle from her second studio album, Heaven on Earth (1987). Written by Rick Nowels and Ellen Shipley, the song was released as the lead single from the Heaven on Earth album on September 14, 1987, and it reached number one on the US Billboard Hot 100 on December 5, 1987, becoming Carlisle\'s only US chart-topper to date. A month later it peaked at number one in the United Kingdom, where it held the top spot of the UK Singles Chart for two weeks. The song was nominated for the Grammy Award for Best Female Pop Vocal Performance in 1988, but lost out to Whitney Houston\'s "I Wanna Dance with Somebody (Who Loves Me)". In 2017, ShortList\'s Dave Fawbert listed the song as containing "one of the greatest key changes in music history". In 2015, Carlisle re-recorded the song as an acoustic ballad. This version appeared on her album Wilder Shores (2017), which combines acoustic tracks with world beats and traditional Sikh chants.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Provo, Utah', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Provo%2C_Utah', 'place': 'http://sws.geonames.org/5780026/', 'postal_code': '84603', 'geo_link': 'http://www.geonames.org/5780026/provo.html', 'lat': '40.24444444444445', 'long': '-111.66083333333333', 'population': '112488'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Upplands Väsby', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Upplands_V%C3%A4sby', 'place': 'http://sws.geonames.org/2666238/', 'geo_link': 'http://www.geonames.org/2666238/upplands-vaesby.html', 'lat': '59.516666666666666', 'long': '17.916666666666668', 'population': '36534'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Wasilla, Alaska', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wasilla%2C_Alaska', 'place': 'http://sws.geonames.org/5877641/', 'postal_code': '99654', 'geo_link': 'http://www.geonames.org/5877641/wasilla.html', 'lat': '61.58166666666666', 'long': '-149.4525', 'population': '7831'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Escatawpa, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Escatawpa%2C_Mississippi', 'place': 'http://sws.geonames.org/4425816/', 'postal_code': '39552', 'geo_link': 'http://www.geonames.org/4425816/escatawpa.html', 'lat': '30.489166666666666', 'long': '-88.55111111111111', 'population': '3722'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Orange County, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orange_County%2C_California', 'place': 'http://sws.geonames.org/5379524/', 'geo_link': 'http://www.geonames.org/5379524/orange-county.html', 'lat': '33.67', 'long': '-117.78', 'population': '3010232'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Basildon', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Basildon', 'place': 'http://sws.geonames.org/2656194/', 'geo_link': 'http://www.geonames.org/2656194/basildon.html', 'lat': '51.5761', 'long': '0.4886', 'population': '101362'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/New_South_Wales', 'place': 'http://sws.geonames.org/2155400/', 'geo_link': 'http://www.geonames.org/2155400/state-of-new-south-wales.html', 'lat': '32.16166666666667', 'long': '146', 'population': '6917658'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Akron, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%90%D0%BA%D1%80%D0%BE%D0%BD_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/5145476/', 'postal_code': '44302', 'geo_link': 'http://www.geonames.org/5145476/akron.html', 'lat': '41.073055555555555', 'long': '-81.51777777777778', 'population': '199110'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Neuilly-sur-Seine', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Neuilly-sur-Seine', 'place': 'http://sws.geonames.org/2990611/', 'postal_code': '92200', 'geo_link': 'http://www.geonames.org/2990611/neuilly-sur-seine.html', 'lat': '48.8881', 'long': '2.2686', 'population': '61300'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Aberdeen, Washington', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Aberdeen%2C_Washington', 'place': 'http://sws.geonames.org/5785243/', 'postal_code': '98520', 'geo_link': 'http://www.geonames.org/5785243/aberdeen.html', 'lat': '46.975833333333334', 'long': '-123.81861111111111', 'population': '16896'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Franklin, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Franklin%2C_Tennessee', 'place': 'http://sws.geonames.org/4623560/', 'postal_code': '37068', 'geo_link': 'http://www.geonames.org/4623560/franklin.html', 'lat': '35.92916666666667', 'long': '-86.8575', 'population': '62487'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Finley, New South Wales', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Finley%2C_New_South_Wales', 'place': 'http://sws.geonames.org/2166675/', 'geo_link': 'http://www.geonames.org/2166675/finley.html', 'lat': '35.63333333333333', 'long': '145.56666666666666', 'population': '2618'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Beckenham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Beckenham', 'place': 'http://sws.geonames.org/2656065/', 'postal_code': 'BR3', 'geo_link': 'http://www.geonames.org/2656065/beckenham.html', 'lat': '51.408', 'long': '-0.022', 'population': '82000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Palm Desert, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Palm_Desert%2C_California', 'place': 'http://sws.geonames.org/5380626/', 'postal_code': '92260', 'geo_link': 'http://www.geonames.org/5380626/palm-desert.html', 'lat': '33.72222222222222', 'long': '-116.37444444444445', 'population': '48445'}</t>
   </si>
   <si>
     <t>{'place_name': 'Tallahassee, Florida', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%BB%D0%BB%D0%B0%D1%85%D0%B0%D1%81%D1%81%D0%B8', 'place': 'http://sws.geonames.org/4174715/', 'postal_code': '32314', 'geo_link': 'http://www.geonames.org/4174715/tallahassee.html', 'lat': '30.455', 'long': '-84.25333333333333', 'population': '181376'}</t>
   </si>
   <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Braintree, Essex', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Braintree%2C_Essex', 'place': 'http://sws.geonames.org/2654938/', 'geo_link': 'http://www.geonames.org/2654938/braintree.html', 'lat': '51.878', 'long': '0.55', 'population': '46765'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Crawley', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Crawley', 'place': 'http://sws.geonames.org/7298686/', 'geo_link': 'http://www.geonames.org/7298686/crawley.html', 'lat': '51.10916666666667', 'long': '-0.1872222222222222'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Mechanicsburg, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Mechanicsburg%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5200657/', 'postal_code': '17050', 'geo_link': 'http://www.geonames.org/5200657/mechanicsburg.html', 'lat': '40.21222222222222', 'long': '-77.00611111111111', 'population': '8981'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Madison, Wisconsin', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Madison%2C_Wisconsin', 'place': 'http://sws.geonames.org/5261457/', 'postal_code': '53725', 'geo_link': 'http://www.geonames.org/5261457/madison.html', 'lat': '43.06666666666667', 'long': '-89.4', 'population': '233209'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
+    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
   </si>
   <si>
     <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Pacific Palisades, Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Pacific_Palisades%2C_Los_Angeles', 'place': 'http://sws.geonames.org/5380378/', 'postal_code': '90272', 'geo_link': 'http://www.geonames.org/5380378/pacific-palisades.html', 'lat': '34.04806', 'long': '-118.52556'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Columbus, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BB%D1%83%D0%BC%D0%B1%D1%83%D1%81_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/4509177/', 'postal_code': '43232', 'geo_link': 'http://www.geonames.org/4509177/columbus.html', 'lat': '39.983333333333334', 'long': '-82.98333333333333', 'population': '787033'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Aberdeen, Washington', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Aberdeen%2C_Washington', 'place': 'http://sws.geonames.org/5785243/', 'postal_code': '98520', 'geo_link': 'http://www.geonames.org/5785243/aberdeen.html', 'lat': '46.975833333333334', 'long': '-123.81861111111111', 'population': '16896'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Leighton Buzzard', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leighton_Buzzard', 'place': 'http://sws.geonames.org/2644652/', 'geo_link': 'http://www.geonames.org/2644652/leighton-buzzard.html', 'lat': '51.9165', 'long': '-0.6617', 'population': '33467'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Kingston, Jamaica', 'country_code': 'JM', 'wiki': 'http://en.wikipedia.org/wiki/Kingston,_Jamaica', 'place': 'http://sws.geonames.org/3489854/', 'geo_link': 'http://www.geonames.org/3489854/kingston.html', 'lat': '17.983333333333334', 'long': '-76.8', 'population': '937700'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'York, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/York%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562407/', 'postal_code': '17402', 'geo_link': 'http://www.geonames.org/4562407/york.html', 'lat': '39.96277777777778', 'long': '-76.72805555555556', 'population': '43718'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'South Orange, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/South_Orange%2C_New_Jersey', 'place': 'http://sws.geonames.org/7259012/', 'geo_link': 'http://www.geonames.org/7259012/south-orange.html', 'lat': '40.748811', 'long': '-74.261513'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Collegeville, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Collegeville%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5184966/', 'postal_code': '19426', 'geo_link': 'http://www.geonames.org/5184966/collegeville.html', 'lat': '40.18555555555555', 'long': '-75.45833333333333', 'population': '5089'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Cambridge', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Cambridge', 'place': 'http://sws.geonames.org/2653940/', 'geo_link': 'http://www.geonames.org/2653940/cambridgeshire.html', 'lat': '52.205', 'long': '0.119', 'population': '752900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pasadena, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%B0%D1%81%D0%B0%D0%B4%D0%B8%D0%BD%D0%B0_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5381396/', 'postal_code': '91117', 'geo_link': 'http://www.geonames.org/5381396/pasadena.html', 'lat': '34.15611111111111', 'long': '-118.13194444444444', 'population': '137122'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Berkeley, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%91%D0%B5%D1%80%D0%BA%D0%BB%D0%B8', 'place': 'http://sws.geonames.org/5327684/', 'postal_code': '94707', 'geo_link': 'http://www.geonames.org/5327684/berkeley.html', 'lat': '37.87166666666667', 'long': '-122.27277777777778', 'population': '112580'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Limerick', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Limerick', 'place': 'http://sws.geonames.org/7778675/', 'geo_link': 'http://www.geonames.org/2962943/luimneach.html', 'lat': '52.6653', 'long': '-8.6238', 'population': '57106'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Basildon', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Basildon', 'place': 'http://sws.geonames.org/2656194/', 'geo_link': 'http://www.geonames.org/2656194/basildon.html', 'lat': '51.5761', 'long': '0.4886', 'population': '101362'}</t>
+    <t>{'place_name': 'Waukesha, Wisconsin', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Waukesha%2C_Wisconsin', 'place': 'http://sws.geonames.org/5278052/', 'postal_code': '53188', 'geo_link': 'http://www.geonames.org/5278052/waukesha.html', 'lat': '43.01166666666666', 'long': '-88.23166666666667', 'population': '70718'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Italy', 'country_code': 'IT', 'wiki': 'http://en.wikipedia.org/wiki/Italy', 'place': 'http://sws.geonames.org/3175395/', 'geo_link': 'http://www.geonames.org/3175395/repubblica-italiana.html', 'lat': '43.0', 'long': '12.0', 'population': '60340328'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Australia', 'place': 'http://sws.geonames.org/2077456/', 'geo_link': 'http://www.geonames.org/2077456/commonwealth-of-australia.html', 'lat': '-25', 'long': '135', 'population': '21515754'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1930,23 +1867,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1988,7 +1917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2020,27 +1949,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2072,24 +1983,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2265,19 +2158,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G75" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2332,31 +2235,34 @@
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>384</v>
+      </c>
+      <c r="G2" t="s">
+        <v>484</v>
       </c>
       <c r="I2">
-        <v>5.4203472137451172</v>
+        <v>3.998786687850952</v>
       </c>
       <c r="J2">
-        <v>11.09140729904175</v>
+        <v>7.076717376708984</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2370,37 +2276,34 @@
         <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>492</v>
-      </c>
-      <c r="H3" t="s">
-        <v>578</v>
+        <v>485</v>
       </c>
       <c r="I3">
-        <v>13.246851205825809</v>
+        <v>3.780085802078247</v>
       </c>
       <c r="J3">
-        <v>1.3590540885925291</v>
+        <v>0.7188494205474854</v>
       </c>
       <c r="K3">
-        <v>0.1093661785125732</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2414,25 +2317,25 @@
         <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="I4">
-        <v>3.5613899230957031</v>
+        <v>4.108401775360107</v>
       </c>
       <c r="J4">
-        <v>22.354320287704471</v>
+        <v>1.359328031539917</v>
       </c>
       <c r="K4">
-        <v>9.3728780746459961E-2</v>
+        <v>0.109076976776123</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2444,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2458,37 +2361,34 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>494</v>
-      </c>
-      <c r="H5" t="s">
-        <v>580</v>
+        <v>487</v>
       </c>
       <c r="I5">
-        <v>4.3115129470825204</v>
+        <v>8.576132774353027</v>
       </c>
       <c r="J5">
-        <v>1.21872878074646</v>
+        <v>23.16712498664856</v>
       </c>
       <c r="K5">
-        <v>6.2222480773925781E-2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N5">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2502,31 +2402,37 @@
         <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>399</v>
+        <v>388</v>
+      </c>
+      <c r="G6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" t="s">
+        <v>566</v>
       </c>
       <c r="I6">
-        <v>6.3107733726501456</v>
+        <v>3.233572006225586</v>
       </c>
       <c r="J6">
-        <v>13.184612989425659</v>
+        <v>1.468632698059082</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1091217994689941</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2540,19 +2446,22 @@
         <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="F7" t="s">
+        <v>389</v>
       </c>
       <c r="I7">
-        <v>0.4219355583190918</v>
+        <v>6.545056819915771</v>
       </c>
       <c r="J7">
-        <v>11.38800573348999</v>
+        <v>13.29400062561035</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2561,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2575,34 +2484,37 @@
         <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G8" t="s">
-        <v>495</v>
+        <v>489</v>
+      </c>
+      <c r="H8" t="s">
+        <v>567</v>
       </c>
       <c r="I8">
-        <v>4.7962408065795898</v>
+        <v>3.983167886734009</v>
       </c>
       <c r="J8">
-        <v>6.7795159816741943</v>
+        <v>1.515535831451416</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1093475818634033</v>
       </c>
       <c r="L8">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M8">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2616,37 +2528,31 @@
         <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H9" t="s">
-        <v>581</v>
+        <v>391</v>
       </c>
       <c r="I9">
-        <v>4.1708376407623291</v>
+        <v>3.717606782913208</v>
       </c>
       <c r="J9">
-        <v>1.640471458435059</v>
+        <v>17.80854940414429</v>
       </c>
       <c r="K9">
-        <v>9.3512296676635742E-2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2660,28 +2566,28 @@
         <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G10" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H10" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="I10">
-        <v>4.5299561023712158</v>
+        <v>4.514288425445557</v>
       </c>
       <c r="J10">
-        <v>1.406182527542114</v>
+        <v>1.140360116958618</v>
       </c>
       <c r="K10">
-        <v>0.109342098236084</v>
+        <v>0.1096134185791016</v>
       </c>
       <c r="L10">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2690,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2704,37 +2610,37 @@
         <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G11" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H11" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="I11">
-        <v>3.6707255840301509</v>
+        <v>5.170384883880615</v>
       </c>
       <c r="J11">
-        <v>1.3279662132263179</v>
+        <v>1.328078508377075</v>
       </c>
       <c r="K11">
-        <v>0.1094729900360107</v>
+        <v>0.1093490123748779</v>
       </c>
       <c r="L11">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2748,25 +2654,25 @@
         <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G12" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H12" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="I12">
-        <v>5.2016646862030029</v>
+        <v>7.529200315475464</v>
       </c>
       <c r="J12">
-        <v>1.328043937683105</v>
+        <v>1.234346866607666</v>
       </c>
       <c r="K12">
-        <v>0.1249690055847168</v>
+        <v>0.1249754428863525</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2775,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2792,31 +2698,34 @@
         <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>395</v>
+      </c>
+      <c r="G13" t="s">
+        <v>493</v>
       </c>
       <c r="I13">
-        <v>2.686631441116333</v>
+        <v>9.934918880462646</v>
       </c>
       <c r="J13">
-        <v>12.919049978256229</v>
+        <v>1.968520402908325</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2830,37 +2739,37 @@
         <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H14" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="I14">
-        <v>4.2800064086914063</v>
+        <v>6.420357227325439</v>
       </c>
       <c r="J14">
-        <v>1.3122150897979741</v>
+        <v>1.624648809432983</v>
       </c>
       <c r="K14">
-        <v>9.3936443328857422E-2</v>
+        <v>0.1093125343322754</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.77777777777777779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2874,37 +2783,34 @@
         <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G15" t="s">
-        <v>501</v>
-      </c>
-      <c r="H15" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="I15">
-        <v>3.124260425567627</v>
+        <v>3.592629909515381</v>
       </c>
       <c r="J15">
-        <v>1.4996428489685061</v>
+        <v>22.16759943962097</v>
       </c>
       <c r="K15">
-        <v>0.10935425758361821</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N15">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2918,37 +2824,37 @@
         <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G16" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H16" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="I16">
-        <v>4.0613090991973877</v>
+        <v>3.88947868347168</v>
       </c>
       <c r="J16">
-        <v>1.390525341033936</v>
+        <v>1.312244415283203</v>
       </c>
       <c r="K16">
-        <v>0.1249673366546631</v>
+        <v>0.109560489654541</v>
       </c>
       <c r="L16">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2962,37 +2868,34 @@
         <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F17" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G17" t="s">
-        <v>503</v>
-      </c>
-      <c r="H17" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="I17">
-        <v>3.202136754989624</v>
+        <v>4.967605352401733</v>
       </c>
       <c r="J17">
-        <v>1.2496705055236821</v>
+        <v>7.248250722885132</v>
       </c>
       <c r="K17">
-        <v>0.1096165180206299</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3006,37 +2909,34 @@
         <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>504</v>
-      </c>
-      <c r="H18" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="I18">
-        <v>5.8267476558685303</v>
+        <v>5.029832124710083</v>
       </c>
       <c r="J18">
-        <v>1.4215259552001951</v>
+        <v>1.874791860580444</v>
       </c>
       <c r="K18">
-        <v>9.3738079071044922E-2</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3050,37 +2950,37 @@
         <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H19" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="I19">
-        <v>2.718140602111816</v>
+        <v>3.686409711837769</v>
       </c>
       <c r="J19">
-        <v>1.2499392032623291</v>
+        <v>1.530964374542236</v>
       </c>
       <c r="K19">
-        <v>9.3459844589233398E-2</v>
+        <v>0.1094937324523926</v>
       </c>
       <c r="L19">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3094,34 +2994,37 @@
         <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F20" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G20" t="s">
-        <v>506</v>
+        <v>500</v>
+      </c>
+      <c r="H20" t="s">
+        <v>574</v>
       </c>
       <c r="I20">
-        <v>5.6859238147735596</v>
+        <v>4.405203580856323</v>
       </c>
       <c r="J20">
-        <v>27.43124628067017</v>
+        <v>1.265285015106201</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1249713897705078</v>
       </c>
       <c r="L20">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M20">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3132,28 +3035,28 @@
         <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H21" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="I21">
-        <v>2.7022514343261719</v>
+        <v>3.795976877212524</v>
       </c>
       <c r="J21">
-        <v>1.1560957431793211</v>
+        <v>1.390414237976074</v>
       </c>
       <c r="K21">
-        <v>0.1094620227813721</v>
+        <v>0.09361076354980469</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -3162,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3176,28 +3079,28 @@
         <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G22" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H22" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="I22">
-        <v>4.8579790592193604</v>
+        <v>3.858200073242188</v>
       </c>
       <c r="J22">
-        <v>1.0312421321868901</v>
+        <v>22.33850359916687</v>
       </c>
       <c r="K22">
-        <v>7.8103303909301758E-2</v>
+        <v>0.2033035755157471</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3206,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3220,28 +3123,28 @@
         <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G23" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I23">
-        <v>4.1864669322967529</v>
+        <v>2.81156849861145</v>
       </c>
       <c r="J23">
-        <v>2.1713695526123051</v>
+        <v>2.046656370162964</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M23">
         <v>0.8571428571428571</v>
@@ -3250,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3261,40 +3164,37 @@
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F24" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G24" t="s">
-        <v>510</v>
-      </c>
-      <c r="H24" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="I24">
-        <v>5.1704249382019043</v>
+        <v>8.310529708862305</v>
       </c>
       <c r="J24">
-        <v>22.19814300537109</v>
+        <v>1.796493530273438</v>
       </c>
       <c r="K24">
-        <v>9.3722105026245117E-2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N24">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3305,40 +3205,40 @@
         <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G25" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H25" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="I25">
-        <v>7.2168042659759521</v>
+        <v>5.019956111907959</v>
       </c>
       <c r="J25">
-        <v>1.1872179508209231</v>
+        <v>22.22920346260071</v>
       </c>
       <c r="K25">
-        <v>9.3969106674194336E-2</v>
+        <v>0.0985863208770752</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3349,22 +3249,19 @@
         <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
-      </c>
-      <c r="G26" t="s">
-        <v>512</v>
+        <v>408</v>
       </c>
       <c r="I26">
-        <v>5.0769124031066886</v>
+        <v>8.373930692672729</v>
       </c>
       <c r="J26">
-        <v>1.624627828598022</v>
+        <v>12.39140868186951</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3373,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3390,37 +3287,34 @@
         <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
-      </c>
-      <c r="G27" t="s">
-        <v>513</v>
+        <v>409</v>
       </c>
       <c r="I27">
-        <v>3.467928409576416</v>
+        <v>5.248491764068604</v>
       </c>
       <c r="J27">
-        <v>6.1547956466674796</v>
+        <v>12.55979418754578</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3431,34 +3325,40 @@
         <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>410</v>
+      </c>
+      <c r="G28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H28" t="s">
+        <v>576</v>
       </c>
       <c r="I28">
-        <v>3.2492036819458008</v>
+        <v>3.077165842056274</v>
       </c>
       <c r="J28">
-        <v>11.91908240318298</v>
+        <v>1.515524625778198</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.1093213558197021</v>
       </c>
       <c r="L28">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3469,40 +3369,37 @@
         <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G29" t="s">
-        <v>514</v>
-      </c>
-      <c r="H29" t="s">
-        <v>593</v>
+        <v>507</v>
       </c>
       <c r="I29">
-        <v>6.9043841361999512</v>
+        <v>3.998821973800659</v>
       </c>
       <c r="J29">
-        <v>1.202811002731323</v>
+        <v>28.66532778739929</v>
       </c>
       <c r="K29">
-        <v>0.1096148490905762</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3513,40 +3410,37 @@
         <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F30" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G30" t="s">
-        <v>515</v>
-      </c>
-      <c r="H30" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="I30">
-        <v>9.2787845134735107</v>
+        <v>4.936367273330688</v>
       </c>
       <c r="J30">
-        <v>1.4528589248657231</v>
+        <v>5.936061859130859</v>
       </c>
       <c r="K30">
-        <v>9.3882322311401367E-2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3557,34 +3451,40 @@
         <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F31" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="G31" t="s">
+        <v>509</v>
+      </c>
+      <c r="H31" t="s">
+        <v>577</v>
       </c>
       <c r="I31">
-        <v>4.9829633235931396</v>
+        <v>4.357311964035034</v>
       </c>
       <c r="J31">
-        <v>13.57518243789673</v>
+        <v>22.46853303909302</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.1209762096405029</v>
       </c>
       <c r="L31">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3595,37 +3495,37 @@
         <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F32" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G32" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I32">
-        <v>7.0137374401092529</v>
+        <v>3.277910470962524</v>
       </c>
       <c r="J32">
-        <v>5.515270471572876</v>
+        <v>6.081079959869385</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.1126093864440918</v>
       </c>
       <c r="L32">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M32">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3636,40 +3536,40 @@
         <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H33" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="I33">
-        <v>5.2485237121582031</v>
+        <v>4.545564413070679</v>
       </c>
       <c r="J33">
-        <v>1.2340488433837891</v>
+        <v>22.23766374588013</v>
       </c>
       <c r="K33">
-        <v>9.3991994857788086E-2</v>
+        <v>0.1249680519104004</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3680,40 +3580,34 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F34" t="s">
-        <v>426</v>
-      </c>
-      <c r="G34" t="s">
-        <v>518</v>
-      </c>
-      <c r="H34" t="s">
-        <v>590</v>
+        <v>416</v>
       </c>
       <c r="I34">
-        <v>10.66911792755127</v>
+        <v>3.046132802963257</v>
       </c>
       <c r="J34">
-        <v>0.99976992607116699</v>
+        <v>12.87198042869568</v>
       </c>
       <c r="K34">
-        <v>0.10957455635070799</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3724,40 +3618,37 @@
         <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F35" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G35" t="s">
-        <v>519</v>
-      </c>
-      <c r="H35" t="s">
-        <v>595</v>
+        <v>512</v>
       </c>
       <c r="I35">
-        <v>9.5131411552429199</v>
+        <v>3.561686038970947</v>
       </c>
       <c r="J35">
-        <v>1.281183004379272</v>
+        <v>1.140324354171753</v>
       </c>
       <c r="K35">
-        <v>0.1093490123748779</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N35">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3768,40 +3659,37 @@
         <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F36" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G36" t="s">
-        <v>520</v>
-      </c>
-      <c r="H36" t="s">
-        <v>596</v>
+        <v>513</v>
       </c>
       <c r="I36">
-        <v>2.7649722099304199</v>
+        <v>5.639020442962646</v>
       </c>
       <c r="J36">
-        <v>1.0623350143432619</v>
+        <v>1.781101942062378</v>
       </c>
       <c r="K36">
-        <v>0.109264612197876</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3812,28 +3700,28 @@
         <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G37" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I37">
-        <v>3.780128955841064</v>
+        <v>8.060479402542114</v>
       </c>
       <c r="J37">
-        <v>2.2653205394744869</v>
+        <v>4.577169895172119</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M37">
         <v>0.8571428571428571</v>
@@ -3842,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3856,25 +3744,25 @@
         <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F38" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G38" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H38" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="I38">
-        <v>4.9361038208007813</v>
+        <v>4.95191764831543</v>
       </c>
       <c r="J38">
-        <v>1.2186892032623291</v>
+        <v>1.968280553817749</v>
       </c>
       <c r="K38">
-        <v>9.3727350234985352E-2</v>
+        <v>0.1093409061431885</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -3886,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3897,40 +3785,37 @@
         <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G39" t="s">
-        <v>523</v>
-      </c>
-      <c r="H39" t="s">
-        <v>597</v>
+        <v>516</v>
       </c>
       <c r="I39">
-        <v>6.3576393127441406</v>
+        <v>3.7958984375</v>
       </c>
       <c r="J39">
-        <v>22.213725090026859</v>
+        <v>2.062129497528076</v>
       </c>
       <c r="K39">
-        <v>0.1093502044677734</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3941,34 +3826,40 @@
         <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F40" t="s">
-        <v>432</v>
+        <v>422</v>
+      </c>
+      <c r="G40" t="s">
+        <v>517</v>
+      </c>
+      <c r="H40" t="s">
+        <v>580</v>
       </c>
       <c r="I40">
-        <v>5.3422174453735352</v>
+        <v>3.780061960220337</v>
       </c>
       <c r="J40">
-        <v>11.60686564445496</v>
+        <v>0.8279464244842529</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.1095914840698242</v>
       </c>
       <c r="L40">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3979,40 +3870,37 @@
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
-        <v>524</v>
-      </c>
-      <c r="H41" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="I41">
-        <v>3.5928831100463872</v>
+        <v>4.873605728149414</v>
       </c>
       <c r="J41">
-        <v>1.4215741157531741</v>
+        <v>0.9531772136688232</v>
       </c>
       <c r="K41">
-        <v>0.1406059265136719</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N41">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4023,40 +3911,37 @@
         <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F42" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
-        <v>525</v>
-      </c>
-      <c r="H42" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="I42">
-        <v>3.5460388660430908</v>
+        <v>6.123511552810669</v>
       </c>
       <c r="J42">
-        <v>1.2809872627258301</v>
+        <v>2.718108892440796</v>
       </c>
       <c r="K42">
-        <v>9.3687295913696289E-2</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N42">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4067,22 +3952,19 @@
         <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F43" t="s">
-        <v>435</v>
-      </c>
-      <c r="G43" t="s">
-        <v>526</v>
+        <v>425</v>
       </c>
       <c r="I43">
-        <v>4.6870152950286874</v>
+        <v>5.139196395874023</v>
       </c>
       <c r="J43">
-        <v>1.1718318462371831</v>
+        <v>13.17027354240417</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4091,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4108,37 +3990,40 @@
         <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F44" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G44" t="s">
-        <v>527</v>
+        <v>520</v>
+      </c>
+      <c r="H44" t="s">
+        <v>575</v>
       </c>
       <c r="I44">
-        <v>4.9831986427307129</v>
+        <v>4.077027797698975</v>
       </c>
       <c r="J44">
-        <v>1.5933713912963869</v>
+        <v>22.33939123153687</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.09359264373779297</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M44">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4149,22 +4034,19 @@
         <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
-      </c>
-      <c r="G45" t="s">
-        <v>528</v>
+        <v>427</v>
       </c>
       <c r="I45">
-        <v>7.2168135643005371</v>
+        <v>5.030779123306274</v>
       </c>
       <c r="J45">
-        <v>1.9841363430023189</v>
+        <v>35.21123552322388</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4173,13 +4055,13 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4190,40 +4072,37 @@
         <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G46" t="s">
-        <v>529</v>
-      </c>
-      <c r="H46" t="s">
-        <v>598</v>
+        <v>521</v>
       </c>
       <c r="I46">
-        <v>3.561642169952393</v>
+        <v>4.373732805252075</v>
       </c>
       <c r="J46">
-        <v>1.296830892562866</v>
+        <v>22.76107120513916</v>
       </c>
       <c r="K46">
-        <v>0.109102725982666</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4234,34 +4113,40 @@
         <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E47" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
       </c>
       <c r="G47" t="s">
-        <v>530</v>
+        <v>522</v>
+      </c>
+      <c r="H47" t="s">
+        <v>581</v>
       </c>
       <c r="I47">
-        <v>0.48453235626220698</v>
+        <v>4.171596765518188</v>
       </c>
       <c r="J47">
-        <v>1.374640941619873</v>
+        <v>1.359321594238281</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.09347963333129883</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M47">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4272,34 +4157,40 @@
         <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>523</v>
+      </c>
+      <c r="H48" t="s">
+        <v>582</v>
       </c>
       <c r="I48">
-        <v>3.2333765029907231</v>
+        <v>5.357873439788818</v>
       </c>
       <c r="J48">
-        <v>10.997390747070311</v>
+        <v>22.43221354484558</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.1251835823059082</v>
       </c>
       <c r="L48">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4310,37 +4201,40 @@
         <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>531</v>
+        <v>524</v>
+      </c>
+      <c r="H49" t="s">
+        <v>583</v>
       </c>
       <c r="I49">
-        <v>4.8579950332641602</v>
+        <v>3.467912435531616</v>
       </c>
       <c r="J49">
-        <v>6.8892316818237296</v>
+        <v>1.546740770339966</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.1247577667236328</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M49">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4351,40 +4245,34 @@
         <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E50" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
-      </c>
-      <c r="G50" t="s">
-        <v>532</v>
-      </c>
-      <c r="H50" t="s">
-        <v>599</v>
+        <v>432</v>
       </c>
       <c r="I50">
-        <v>3.577049732208252</v>
+        <v>4.108154535293579</v>
       </c>
       <c r="J50">
-        <v>1.2343122959136961</v>
+        <v>16.73066544532776</v>
       </c>
       <c r="K50">
-        <v>0.1249656677246094</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4395,40 +4283,34 @@
         <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
-      </c>
-      <c r="G51" t="s">
-        <v>533</v>
-      </c>
-      <c r="H51" t="s">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="I51">
-        <v>4.4830818176269531</v>
+        <v>3.952173471450806</v>
       </c>
       <c r="J51">
-        <v>2.7964482307434082</v>
+        <v>14.46534824371338</v>
       </c>
       <c r="K51">
-        <v>0.10934782028198239</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4439,28 +4321,28 @@
         <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G52" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="I52">
-        <v>3.6866295337677002</v>
+        <v>4.748634338378906</v>
       </c>
       <c r="J52">
-        <v>7.295154333114624</v>
+        <v>21.72948050498962</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M52">
         <v>0.8571428571428571</v>
@@ -4469,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4480,40 +4362,34 @@
         <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
-      </c>
-      <c r="G53" t="s">
-        <v>535</v>
-      </c>
-      <c r="H53" t="s">
-        <v>601</v>
+        <v>435</v>
       </c>
       <c r="I53">
-        <v>3.3429570198059082</v>
+        <v>3.765503644943237</v>
       </c>
       <c r="J53">
-        <v>1.2811746597290039</v>
+        <v>12.700119972229</v>
       </c>
       <c r="K53">
-        <v>9.3498706817626953E-2</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4524,22 +4400,22 @@
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="I54">
-        <v>2.8896980285644531</v>
+        <v>7.326370239257812</v>
       </c>
       <c r="J54">
-        <v>2.0622537136077881</v>
+        <v>2.093271970748901</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4554,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4565,37 +4441,40 @@
         <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F55" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>527</v>
+      </c>
+      <c r="H55" t="s">
+        <v>584</v>
       </c>
       <c r="I55">
-        <v>5.3578763008117676</v>
+        <v>4.014450311660767</v>
       </c>
       <c r="J55">
-        <v>8.2326626777648926</v>
+        <v>6.217300653457642</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.140805721282959</v>
       </c>
       <c r="L55">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M55">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4606,22 +4485,19 @@
         <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
-      </c>
-      <c r="G56" t="s">
-        <v>538</v>
+        <v>438</v>
       </c>
       <c r="I56">
-        <v>3.3270683288574219</v>
+        <v>5.373453140258789</v>
       </c>
       <c r="J56">
-        <v>7.4672558307647714</v>
+        <v>13.01278758049011</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4630,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4647,40 +4523,37 @@
         <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>539</v>
-      </c>
-      <c r="H57" t="s">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="I57">
-        <v>2.811610221862793</v>
+        <v>4.01484227180481</v>
       </c>
       <c r="J57">
-        <v>22.495868444442749</v>
+        <v>7.170441389083862</v>
       </c>
       <c r="K57">
-        <v>0.10934352874755859</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N57">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4691,37 +4564,40 @@
         <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G58" t="s">
-        <v>540</v>
+        <v>529</v>
+      </c>
+      <c r="H58" t="s">
+        <v>576</v>
       </c>
       <c r="I58">
-        <v>3.108383417129517</v>
+        <v>3.530399799346924</v>
       </c>
       <c r="J58">
-        <v>21.79297232627869</v>
+        <v>1.124964237213135</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.1091351509094238</v>
       </c>
       <c r="L58">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4732,22 +4608,19 @@
         <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
-      </c>
-      <c r="G59" t="s">
-        <v>541</v>
+        <v>441</v>
       </c>
       <c r="I59">
-        <v>4.45198655128479</v>
+        <v>5.857884645462036</v>
       </c>
       <c r="J59">
-        <v>7.8439624309539786</v>
+        <v>14.3092188835144</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4756,13 +4629,13 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4773,40 +4646,40 @@
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G60" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="H60" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="I60">
-        <v>3.2336099147796631</v>
+        <v>5.123556613922119</v>
       </c>
       <c r="J60">
-        <v>1.3905272483825679</v>
+        <v>1.296568393707275</v>
       </c>
       <c r="K60">
-        <v>9.3494653701782227E-2</v>
+        <v>0.1252014636993408</v>
       </c>
       <c r="L60">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>0.77777777777777779</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4817,34 +4690,37 @@
         <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F61" t="s">
-        <v>452</v>
+        <v>443</v>
+      </c>
+      <c r="G61" t="s">
+        <v>531</v>
       </c>
       <c r="I61">
-        <v>4.5617492198944092</v>
+        <v>6.920015573501587</v>
       </c>
       <c r="J61">
-        <v>35.977120399475098</v>
+        <v>22.66768598556519</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4855,34 +4731,37 @@
         <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>532</v>
       </c>
       <c r="I62">
-        <v>4.8430671691894531</v>
+        <v>6.764491319656372</v>
       </c>
       <c r="J62">
-        <v>11.59224367141724</v>
+        <v>1.812716484069824</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.